--- a/Project1/Assets/Script/Data/weaponDB.xlsx
+++ b/Project1/Assets/Script/Data/weaponDB.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\원형\Desktop\TeamProject1\Project1\Assets\Script\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TeamProject1\Project1\Assets\Script\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,9 +16,10 @@
     <sheet name="훈련DB" sheetId="4" r:id="rId2"/>
     <sheet name="몬스터DB" sheetId="5" r:id="rId3"/>
     <sheet name="weaponData" sheetId="6" r:id="rId4"/>
-    <sheet name="보물" sheetId="7" r:id="rId5"/>
-    <sheet name="보물 DB" sheetId="10" r:id="rId6"/>
-    <sheet name="수색 DB" sheetId="11" r:id="rId7"/>
+    <sheet name="Sheet1" sheetId="12" r:id="rId5"/>
+    <sheet name="보물" sheetId="7" r:id="rId6"/>
+    <sheet name="보물 DB" sheetId="10" r:id="rId7"/>
+    <sheet name="수색 DB" sheetId="11" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="719" uniqueCount="189">
   <si>
     <t>훈련 [ n = 레벨 값 ]</t>
   </si>
@@ -1100,6 +1101,22 @@
     <t>POWER((3+0.2*(weapon_atk-25)),2)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>isUsing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>level</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>weapon_wooden-branch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>weapon_double-edged-ax</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -1712,7 +1729,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="175">
+  <cellXfs count="176">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1911,16 +1928,34 @@
     <xf numFmtId="1" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1950,78 +1985,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2044,6 +2007,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2112,13 +2087,55 @@
     <xf numFmtId="0" fontId="2" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2170,6 +2187,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2563,12 +2583,12 @@
       <selection activeCell="L33" sqref="L33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="15" max="15" width="14.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:48" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="1" spans="1:48" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="8"/>
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
@@ -2618,35 +2638,35 @@
       <c r="AU1" s="8"/>
       <c r="AV1" s="8"/>
     </row>
-    <row r="2" spans="1:48" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:48" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8"/>
-      <c r="B2" s="94" t="s">
+      <c r="B2" s="67" t="s">
         <v>68</v>
       </c>
-      <c r="C2" s="95"/>
-      <c r="D2" s="95"/>
-      <c r="E2" s="95"/>
-      <c r="F2" s="95"/>
-      <c r="G2" s="95"/>
-      <c r="H2" s="95"/>
-      <c r="I2" s="95"/>
-      <c r="J2" s="95"/>
-      <c r="K2" s="95"/>
-      <c r="L2" s="95"/>
-      <c r="M2" s="95"/>
-      <c r="N2" s="95"/>
-      <c r="O2" s="95"/>
-      <c r="P2" s="95"/>
-      <c r="Q2" s="95"/>
-      <c r="R2" s="95"/>
-      <c r="S2" s="95"/>
-      <c r="T2" s="95"/>
-      <c r="U2" s="95"/>
-      <c r="V2" s="95"/>
-      <c r="W2" s="95"/>
-      <c r="X2" s="95"/>
-      <c r="Y2" s="95"/>
-      <c r="Z2" s="96"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="68"/>
+      <c r="K2" s="68"/>
+      <c r="L2" s="68"/>
+      <c r="M2" s="68"/>
+      <c r="N2" s="68"/>
+      <c r="O2" s="68"/>
+      <c r="P2" s="68"/>
+      <c r="Q2" s="68"/>
+      <c r="R2" s="68"/>
+      <c r="S2" s="68"/>
+      <c r="T2" s="68"/>
+      <c r="U2" s="68"/>
+      <c r="V2" s="68"/>
+      <c r="W2" s="68"/>
+      <c r="X2" s="68"/>
+      <c r="Y2" s="68"/>
+      <c r="Z2" s="69"/>
       <c r="AA2" s="8"/>
       <c r="AB2" s="8"/>
       <c r="AC2" s="8"/>
@@ -2670,33 +2690,33 @@
       <c r="AU2" s="8"/>
       <c r="AV2" s="8"/>
     </row>
-    <row r="3" spans="1:48" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:48" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="8"/>
-      <c r="B3" s="97"/>
-      <c r="C3" s="98"/>
-      <c r="D3" s="98"/>
-      <c r="E3" s="98"/>
-      <c r="F3" s="98"/>
-      <c r="G3" s="98"/>
-      <c r="H3" s="98"/>
-      <c r="I3" s="98"/>
-      <c r="J3" s="98"/>
-      <c r="K3" s="98"/>
-      <c r="L3" s="98"/>
-      <c r="M3" s="98"/>
-      <c r="N3" s="98"/>
-      <c r="O3" s="98"/>
-      <c r="P3" s="98"/>
-      <c r="Q3" s="98"/>
-      <c r="R3" s="98"/>
-      <c r="S3" s="98"/>
-      <c r="T3" s="98"/>
-      <c r="U3" s="98"/>
-      <c r="V3" s="98"/>
-      <c r="W3" s="98"/>
-      <c r="X3" s="98"/>
-      <c r="Y3" s="98"/>
-      <c r="Z3" s="99"/>
+      <c r="B3" s="70"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="71"/>
+      <c r="K3" s="71"/>
+      <c r="L3" s="71"/>
+      <c r="M3" s="71"/>
+      <c r="N3" s="71"/>
+      <c r="O3" s="71"/>
+      <c r="P3" s="71"/>
+      <c r="Q3" s="71"/>
+      <c r="R3" s="71"/>
+      <c r="S3" s="71"/>
+      <c r="T3" s="71"/>
+      <c r="U3" s="71"/>
+      <c r="V3" s="71"/>
+      <c r="W3" s="71"/>
+      <c r="X3" s="71"/>
+      <c r="Y3" s="71"/>
+      <c r="Z3" s="72"/>
       <c r="AA3" s="8"/>
       <c r="AB3" s="8"/>
       <c r="AC3" s="8"/>
@@ -2720,33 +2740,33 @@
       <c r="AU3" s="8"/>
       <c r="AV3" s="8"/>
     </row>
-    <row r="4" spans="1:48" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="4" spans="1:48" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="8"/>
-      <c r="B4" s="100"/>
-      <c r="C4" s="101"/>
-      <c r="D4" s="101"/>
-      <c r="E4" s="101"/>
-      <c r="F4" s="101"/>
-      <c r="G4" s="101"/>
-      <c r="H4" s="101"/>
-      <c r="I4" s="101"/>
-      <c r="J4" s="101"/>
-      <c r="K4" s="101"/>
-      <c r="L4" s="101"/>
-      <c r="M4" s="101"/>
-      <c r="N4" s="101"/>
-      <c r="O4" s="101"/>
-      <c r="P4" s="101"/>
-      <c r="Q4" s="101"/>
-      <c r="R4" s="101"/>
-      <c r="S4" s="101"/>
-      <c r="T4" s="101"/>
-      <c r="U4" s="101"/>
-      <c r="V4" s="101"/>
-      <c r="W4" s="101"/>
-      <c r="X4" s="101"/>
-      <c r="Y4" s="101"/>
-      <c r="Z4" s="102"/>
+      <c r="B4" s="73"/>
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="74"/>
+      <c r="K4" s="74"/>
+      <c r="L4" s="74"/>
+      <c r="M4" s="74"/>
+      <c r="N4" s="74"/>
+      <c r="O4" s="74"/>
+      <c r="P4" s="74"/>
+      <c r="Q4" s="74"/>
+      <c r="R4" s="74"/>
+      <c r="S4" s="74"/>
+      <c r="T4" s="74"/>
+      <c r="U4" s="74"/>
+      <c r="V4" s="74"/>
+      <c r="W4" s="74"/>
+      <c r="X4" s="74"/>
+      <c r="Y4" s="74"/>
+      <c r="Z4" s="75"/>
       <c r="AA4" s="8"/>
       <c r="AB4" s="8"/>
       <c r="AC4" s="8"/>
@@ -2770,7 +2790,7 @@
       <c r="AU4" s="8"/>
       <c r="AV4" s="8"/>
     </row>
-    <row r="5" spans="1:48" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A5" s="8"/>
       <c r="B5" s="26"/>
       <c r="C5" s="26"/>
@@ -2820,7 +2840,7 @@
       <c r="AU5" s="8"/>
       <c r="AV5" s="8"/>
     </row>
-    <row r="6" spans="1:48" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="6" spans="1:48" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="8"/>
       <c r="B6" s="26"/>
       <c r="C6" s="26"/>
@@ -2870,12 +2890,12 @@
       <c r="AU6" s="8"/>
       <c r="AV6" s="8"/>
     </row>
-    <row r="7" spans="1:48" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A7" s="8"/>
-      <c r="B7" s="129" t="s">
+      <c r="B7" s="115" t="s">
         <v>67</v>
       </c>
-      <c r="C7" s="130"/>
+      <c r="C7" s="116"/>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
@@ -2922,10 +2942,10 @@
       <c r="AU7" s="8"/>
       <c r="AV7" s="8"/>
     </row>
-    <row r="8" spans="1:48" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="8" spans="1:48" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="8"/>
-      <c r="B8" s="131"/>
-      <c r="C8" s="132"/>
+      <c r="B8" s="117"/>
+      <c r="C8" s="118"/>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
@@ -2972,7 +2992,7 @@
       <c r="AU8" s="8"/>
       <c r="AV8" s="8"/>
     </row>
-    <row r="9" spans="1:48" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="9" spans="1:48" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="8"/>
       <c r="B9" s="27"/>
       <c r="C9" s="8"/>
@@ -3022,7 +3042,7 @@
       <c r="AU9" s="8"/>
       <c r="AV9" s="8"/>
     </row>
-    <row r="10" spans="1:48" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:48" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="8"/>
       <c r="B10" s="28"/>
       <c r="C10" s="8"/>
@@ -3034,27 +3054,27 @@
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
-      <c r="L10" s="117" t="s">
+      <c r="L10" s="103" t="s">
         <v>69</v>
       </c>
-      <c r="M10" s="118"/>
-      <c r="N10" s="111" t="s">
+      <c r="M10" s="104"/>
+      <c r="N10" s="97" t="s">
         <v>24</v>
       </c>
-      <c r="O10" s="112"/>
-      <c r="P10" s="70" t="s">
+      <c r="O10" s="98"/>
+      <c r="P10" s="76" t="s">
         <v>127</v>
       </c>
-      <c r="Q10" s="71"/>
-      <c r="R10" s="71"/>
-      <c r="S10" s="71"/>
-      <c r="T10" s="71"/>
-      <c r="U10" s="71"/>
-      <c r="V10" s="71"/>
-      <c r="W10" s="71"/>
-      <c r="X10" s="71"/>
-      <c r="Y10" s="71"/>
-      <c r="Z10" s="72"/>
+      <c r="Q10" s="77"/>
+      <c r="R10" s="77"/>
+      <c r="S10" s="77"/>
+      <c r="T10" s="77"/>
+      <c r="U10" s="77"/>
+      <c r="V10" s="77"/>
+      <c r="W10" s="77"/>
+      <c r="X10" s="77"/>
+      <c r="Y10" s="77"/>
+      <c r="Z10" s="78"/>
       <c r="AA10" s="8"/>
       <c r="AB10" s="8"/>
       <c r="AC10" s="8"/>
@@ -3078,7 +3098,7 @@
       <c r="AU10" s="8"/>
       <c r="AV10" s="8"/>
     </row>
-    <row r="11" spans="1:48" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A11" s="8"/>
       <c r="B11" s="28"/>
       <c r="C11" s="8"/>
@@ -3090,21 +3110,21 @@
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
-      <c r="L11" s="119"/>
-      <c r="M11" s="120"/>
-      <c r="N11" s="113"/>
-      <c r="O11" s="114"/>
-      <c r="P11" s="73"/>
-      <c r="Q11" s="74"/>
-      <c r="R11" s="74"/>
-      <c r="S11" s="74"/>
-      <c r="T11" s="74"/>
-      <c r="U11" s="74"/>
-      <c r="V11" s="74"/>
-      <c r="W11" s="74"/>
-      <c r="X11" s="74"/>
-      <c r="Y11" s="74"/>
-      <c r="Z11" s="75"/>
+      <c r="L11" s="105"/>
+      <c r="M11" s="106"/>
+      <c r="N11" s="99"/>
+      <c r="O11" s="100"/>
+      <c r="P11" s="79"/>
+      <c r="Q11" s="80"/>
+      <c r="R11" s="80"/>
+      <c r="S11" s="80"/>
+      <c r="T11" s="80"/>
+      <c r="U11" s="80"/>
+      <c r="V11" s="80"/>
+      <c r="W11" s="80"/>
+      <c r="X11" s="80"/>
+      <c r="Y11" s="80"/>
+      <c r="Z11" s="81"/>
       <c r="AA11" s="8"/>
       <c r="AB11" s="8"/>
       <c r="AC11" s="8"/>
@@ -3128,7 +3148,7 @@
       <c r="AU11" s="8"/>
       <c r="AV11" s="8"/>
     </row>
-    <row r="12" spans="1:48" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="12" spans="1:48" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="8"/>
       <c r="B12" s="28"/>
       <c r="C12" s="8"/>
@@ -3140,21 +3160,21 @@
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
-      <c r="L12" s="119"/>
-      <c r="M12" s="120"/>
-      <c r="N12" s="113"/>
-      <c r="O12" s="114"/>
-      <c r="P12" s="73"/>
-      <c r="Q12" s="74"/>
-      <c r="R12" s="74"/>
-      <c r="S12" s="74"/>
-      <c r="T12" s="74"/>
-      <c r="U12" s="74"/>
-      <c r="V12" s="74"/>
-      <c r="W12" s="74"/>
-      <c r="X12" s="74"/>
-      <c r="Y12" s="74"/>
-      <c r="Z12" s="75"/>
+      <c r="L12" s="105"/>
+      <c r="M12" s="106"/>
+      <c r="N12" s="99"/>
+      <c r="O12" s="100"/>
+      <c r="P12" s="79"/>
+      <c r="Q12" s="80"/>
+      <c r="R12" s="80"/>
+      <c r="S12" s="80"/>
+      <c r="T12" s="80"/>
+      <c r="U12" s="80"/>
+      <c r="V12" s="80"/>
+      <c r="W12" s="80"/>
+      <c r="X12" s="80"/>
+      <c r="Y12" s="80"/>
+      <c r="Z12" s="81"/>
       <c r="AA12" s="8"/>
       <c r="AB12" s="8"/>
       <c r="AC12" s="8"/>
@@ -3178,37 +3198,37 @@
       <c r="AU12" s="8"/>
       <c r="AV12" s="8"/>
     </row>
-    <row r="13" spans="1:48" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="13" spans="1:48" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="8"/>
       <c r="B13" s="28"/>
       <c r="C13" s="29"/>
-      <c r="D13" s="129" t="s">
+      <c r="D13" s="115" t="s">
         <v>69</v>
       </c>
-      <c r="E13" s="130"/>
+      <c r="E13" s="116"/>
       <c r="F13" s="30"/>
       <c r="G13" s="31"/>
-      <c r="H13" s="107" t="s">
+      <c r="H13" s="89" t="s">
         <v>71</v>
       </c>
-      <c r="I13" s="108"/>
+      <c r="I13" s="90"/>
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
-      <c r="L13" s="119"/>
-      <c r="M13" s="120"/>
-      <c r="N13" s="115"/>
-      <c r="O13" s="116"/>
-      <c r="P13" s="76"/>
-      <c r="Q13" s="77"/>
-      <c r="R13" s="77"/>
-      <c r="S13" s="77"/>
-      <c r="T13" s="77"/>
-      <c r="U13" s="77"/>
-      <c r="V13" s="77"/>
-      <c r="W13" s="77"/>
-      <c r="X13" s="77"/>
-      <c r="Y13" s="77"/>
-      <c r="Z13" s="78"/>
+      <c r="L13" s="105"/>
+      <c r="M13" s="106"/>
+      <c r="N13" s="101"/>
+      <c r="O13" s="102"/>
+      <c r="P13" s="82"/>
+      <c r="Q13" s="83"/>
+      <c r="R13" s="83"/>
+      <c r="S13" s="83"/>
+      <c r="T13" s="83"/>
+      <c r="U13" s="83"/>
+      <c r="V13" s="83"/>
+      <c r="W13" s="83"/>
+      <c r="X13" s="83"/>
+      <c r="Y13" s="83"/>
+      <c r="Z13" s="84"/>
       <c r="AA13" s="8"/>
       <c r="AB13" s="8"/>
       <c r="AC13" s="8"/>
@@ -3232,37 +3252,37 @@
       <c r="AU13" s="8"/>
       <c r="AV13" s="8"/>
     </row>
-    <row r="14" spans="1:48" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="14" spans="1:48" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="8"/>
       <c r="B14" s="8"/>
       <c r="C14" s="32"/>
-      <c r="D14" s="131"/>
-      <c r="E14" s="132"/>
+      <c r="D14" s="117"/>
+      <c r="E14" s="118"/>
       <c r="F14" s="33"/>
       <c r="G14" s="8"/>
-      <c r="H14" s="109"/>
-      <c r="I14" s="110"/>
+      <c r="H14" s="91"/>
+      <c r="I14" s="92"/>
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
-      <c r="L14" s="119"/>
-      <c r="M14" s="120"/>
-      <c r="N14" s="111" t="s">
+      <c r="L14" s="105"/>
+      <c r="M14" s="106"/>
+      <c r="N14" s="97" t="s">
         <v>70</v>
       </c>
-      <c r="O14" s="112"/>
-      <c r="P14" s="70" t="s">
+      <c r="O14" s="98"/>
+      <c r="P14" s="76" t="s">
         <v>125</v>
       </c>
-      <c r="Q14" s="71"/>
-      <c r="R14" s="71"/>
-      <c r="S14" s="71"/>
-      <c r="T14" s="71"/>
-      <c r="U14" s="71"/>
-      <c r="V14" s="71"/>
-      <c r="W14" s="71"/>
-      <c r="X14" s="71"/>
-      <c r="Y14" s="71"/>
-      <c r="Z14" s="72"/>
+      <c r="Q14" s="77"/>
+      <c r="R14" s="77"/>
+      <c r="S14" s="77"/>
+      <c r="T14" s="77"/>
+      <c r="U14" s="77"/>
+      <c r="V14" s="77"/>
+      <c r="W14" s="77"/>
+      <c r="X14" s="77"/>
+      <c r="Y14" s="77"/>
+      <c r="Z14" s="78"/>
       <c r="AA14" s="8"/>
       <c r="AB14" s="8"/>
       <c r="AC14" s="8"/>
@@ -3286,7 +3306,7 @@
       <c r="AU14" s="8"/>
       <c r="AV14" s="8"/>
     </row>
-    <row r="15" spans="1:48" x14ac:dyDescent="0.6">
+    <row r="15" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A15" s="8"/>
       <c r="B15" s="28"/>
       <c r="C15" s="8"/>
@@ -3298,21 +3318,21 @@
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
-      <c r="L15" s="119"/>
-      <c r="M15" s="120"/>
-      <c r="N15" s="113"/>
-      <c r="O15" s="114"/>
-      <c r="P15" s="73"/>
-      <c r="Q15" s="74"/>
-      <c r="R15" s="74"/>
-      <c r="S15" s="74"/>
-      <c r="T15" s="74"/>
-      <c r="U15" s="74"/>
-      <c r="V15" s="74"/>
-      <c r="W15" s="74"/>
-      <c r="X15" s="74"/>
-      <c r="Y15" s="74"/>
-      <c r="Z15" s="75"/>
+      <c r="L15" s="105"/>
+      <c r="M15" s="106"/>
+      <c r="N15" s="99"/>
+      <c r="O15" s="100"/>
+      <c r="P15" s="79"/>
+      <c r="Q15" s="80"/>
+      <c r="R15" s="80"/>
+      <c r="S15" s="80"/>
+      <c r="T15" s="80"/>
+      <c r="U15" s="80"/>
+      <c r="V15" s="80"/>
+      <c r="W15" s="80"/>
+      <c r="X15" s="80"/>
+      <c r="Y15" s="80"/>
+      <c r="Z15" s="81"/>
       <c r="AA15" s="8"/>
       <c r="AB15" s="8"/>
       <c r="AC15" s="8"/>
@@ -3336,7 +3356,7 @@
       <c r="AU15" s="8"/>
       <c r="AV15" s="8"/>
     </row>
-    <row r="16" spans="1:48" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="16" spans="1:48" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="8"/>
       <c r="B16" s="28"/>
       <c r="C16" s="8"/>
@@ -3348,21 +3368,21 @@
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
-      <c r="L16" s="119"/>
-      <c r="M16" s="120"/>
-      <c r="N16" s="113"/>
-      <c r="O16" s="114"/>
-      <c r="P16" s="73"/>
-      <c r="Q16" s="74"/>
-      <c r="R16" s="74"/>
-      <c r="S16" s="74"/>
-      <c r="T16" s="74"/>
-      <c r="U16" s="74"/>
-      <c r="V16" s="74"/>
-      <c r="W16" s="74"/>
-      <c r="X16" s="74"/>
-      <c r="Y16" s="74"/>
-      <c r="Z16" s="75"/>
+      <c r="L16" s="105"/>
+      <c r="M16" s="106"/>
+      <c r="N16" s="99"/>
+      <c r="O16" s="100"/>
+      <c r="P16" s="79"/>
+      <c r="Q16" s="80"/>
+      <c r="R16" s="80"/>
+      <c r="S16" s="80"/>
+      <c r="T16" s="80"/>
+      <c r="U16" s="80"/>
+      <c r="V16" s="80"/>
+      <c r="W16" s="80"/>
+      <c r="X16" s="80"/>
+      <c r="Y16" s="80"/>
+      <c r="Z16" s="81"/>
       <c r="AA16" s="8"/>
       <c r="AB16" s="8"/>
       <c r="AC16" s="8"/>
@@ -3386,7 +3406,7 @@
       <c r="AU16" s="8"/>
       <c r="AV16" s="8"/>
     </row>
-    <row r="17" spans="1:48" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="17" spans="1:48" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="8"/>
       <c r="B17" s="28"/>
       <c r="C17" s="8"/>
@@ -3394,27 +3414,27 @@
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="34"/>
-      <c r="H17" s="107" t="s">
+      <c r="H17" s="89" t="s">
         <v>70</v>
       </c>
-      <c r="I17" s="108"/>
+      <c r="I17" s="90"/>
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
-      <c r="L17" s="121"/>
-      <c r="M17" s="122"/>
-      <c r="N17" s="115"/>
-      <c r="O17" s="116"/>
-      <c r="P17" s="76"/>
-      <c r="Q17" s="77"/>
-      <c r="R17" s="77"/>
-      <c r="S17" s="77"/>
-      <c r="T17" s="77"/>
-      <c r="U17" s="77"/>
-      <c r="V17" s="77"/>
-      <c r="W17" s="77"/>
-      <c r="X17" s="77"/>
-      <c r="Y17" s="77"/>
-      <c r="Z17" s="78"/>
+      <c r="L17" s="107"/>
+      <c r="M17" s="108"/>
+      <c r="N17" s="101"/>
+      <c r="O17" s="102"/>
+      <c r="P17" s="82"/>
+      <c r="Q17" s="83"/>
+      <c r="R17" s="83"/>
+      <c r="S17" s="83"/>
+      <c r="T17" s="83"/>
+      <c r="U17" s="83"/>
+      <c r="V17" s="83"/>
+      <c r="W17" s="83"/>
+      <c r="X17" s="83"/>
+      <c r="Y17" s="83"/>
+      <c r="Z17" s="84"/>
       <c r="AA17" s="8"/>
       <c r="AB17" s="8"/>
       <c r="AC17" s="8"/>
@@ -3438,7 +3458,7 @@
       <c r="AU17" s="8"/>
       <c r="AV17" s="8"/>
     </row>
-    <row r="18" spans="1:48" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="18" spans="1:48" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="8"/>
       <c r="B18" s="28"/>
       <c r="C18" s="8"/>
@@ -3446,31 +3466,31 @@
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="35"/>
-      <c r="H18" s="109"/>
-      <c r="I18" s="110"/>
+      <c r="H18" s="91"/>
+      <c r="I18" s="92"/>
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
-      <c r="L18" s="123" t="s">
+      <c r="L18" s="109" t="s">
         <v>72</v>
       </c>
-      <c r="M18" s="124"/>
-      <c r="N18" s="92" t="s">
+      <c r="M18" s="110"/>
+      <c r="N18" s="127" t="s">
         <v>73</v>
       </c>
-      <c r="O18" s="87"/>
-      <c r="P18" s="70" t="s">
+      <c r="O18" s="128"/>
+      <c r="P18" s="76" t="s">
         <v>124</v>
       </c>
-      <c r="Q18" s="79"/>
-      <c r="R18" s="79"/>
-      <c r="S18" s="79"/>
-      <c r="T18" s="79"/>
-      <c r="U18" s="79"/>
-      <c r="V18" s="79"/>
-      <c r="W18" s="79"/>
-      <c r="X18" s="79"/>
-      <c r="Y18" s="79"/>
-      <c r="Z18" s="80"/>
+      <c r="Q18" s="122"/>
+      <c r="R18" s="122"/>
+      <c r="S18" s="122"/>
+      <c r="T18" s="122"/>
+      <c r="U18" s="122"/>
+      <c r="V18" s="122"/>
+      <c r="W18" s="122"/>
+      <c r="X18" s="122"/>
+      <c r="Y18" s="122"/>
+      <c r="Z18" s="123"/>
       <c r="AA18" s="8"/>
       <c r="AB18" s="8"/>
       <c r="AC18" s="8"/>
@@ -3494,7 +3514,7 @@
       <c r="AU18" s="8"/>
       <c r="AV18" s="8"/>
     </row>
-    <row r="19" spans="1:48" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="19" spans="1:48" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="8"/>
       <c r="B19" s="28"/>
       <c r="C19" s="8"/>
@@ -3506,21 +3526,21 @@
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
       <c r="K19" s="8"/>
-      <c r="L19" s="125"/>
-      <c r="M19" s="126"/>
-      <c r="N19" s="93"/>
-      <c r="O19" s="91"/>
-      <c r="P19" s="81"/>
-      <c r="Q19" s="82"/>
-      <c r="R19" s="82"/>
-      <c r="S19" s="82"/>
-      <c r="T19" s="82"/>
-      <c r="U19" s="82"/>
-      <c r="V19" s="82"/>
-      <c r="W19" s="82"/>
-      <c r="X19" s="82"/>
-      <c r="Y19" s="82"/>
-      <c r="Z19" s="83"/>
+      <c r="L19" s="111"/>
+      <c r="M19" s="112"/>
+      <c r="N19" s="129"/>
+      <c r="O19" s="130"/>
+      <c r="P19" s="124"/>
+      <c r="Q19" s="125"/>
+      <c r="R19" s="125"/>
+      <c r="S19" s="125"/>
+      <c r="T19" s="125"/>
+      <c r="U19" s="125"/>
+      <c r="V19" s="125"/>
+      <c r="W19" s="125"/>
+      <c r="X19" s="125"/>
+      <c r="Y19" s="125"/>
+      <c r="Z19" s="126"/>
       <c r="AA19" s="8"/>
       <c r="AB19" s="8"/>
       <c r="AC19" s="8"/>
@@ -3544,7 +3564,7 @@
       <c r="AU19" s="8"/>
       <c r="AV19" s="8"/>
     </row>
-    <row r="20" spans="1:48" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="20" spans="1:48" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="8"/>
       <c r="B20" s="28"/>
       <c r="C20" s="8"/>
@@ -3556,25 +3576,25 @@
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
-      <c r="L20" s="125"/>
-      <c r="M20" s="126"/>
-      <c r="N20" s="92" t="s">
+      <c r="L20" s="111"/>
+      <c r="M20" s="112"/>
+      <c r="N20" s="127" t="s">
         <v>74</v>
       </c>
-      <c r="O20" s="87"/>
-      <c r="P20" s="84" t="s">
+      <c r="O20" s="128"/>
+      <c r="P20" s="131" t="s">
         <v>123</v>
       </c>
-      <c r="Q20" s="79"/>
-      <c r="R20" s="79"/>
-      <c r="S20" s="79"/>
-      <c r="T20" s="79"/>
-      <c r="U20" s="79"/>
-      <c r="V20" s="79"/>
-      <c r="W20" s="79"/>
-      <c r="X20" s="79"/>
-      <c r="Y20" s="79"/>
-      <c r="Z20" s="80"/>
+      <c r="Q20" s="122"/>
+      <c r="R20" s="122"/>
+      <c r="S20" s="122"/>
+      <c r="T20" s="122"/>
+      <c r="U20" s="122"/>
+      <c r="V20" s="122"/>
+      <c r="W20" s="122"/>
+      <c r="X20" s="122"/>
+      <c r="Y20" s="122"/>
+      <c r="Z20" s="123"/>
       <c r="AA20" s="8"/>
       <c r="AB20" s="8"/>
       <c r="AC20" s="8"/>
@@ -3598,37 +3618,37 @@
       <c r="AU20" s="8"/>
       <c r="AV20" s="8"/>
     </row>
-    <row r="21" spans="1:48" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="21" spans="1:48" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="8"/>
       <c r="B21" s="8"/>
       <c r="C21" s="29"/>
-      <c r="D21" s="103" t="s">
+      <c r="D21" s="85" t="s">
         <v>72</v>
       </c>
-      <c r="E21" s="104"/>
+      <c r="E21" s="86"/>
       <c r="F21" s="30"/>
       <c r="G21" s="31"/>
-      <c r="H21" s="66" t="s">
+      <c r="H21" s="93" t="s">
         <v>73</v>
       </c>
-      <c r="I21" s="67"/>
+      <c r="I21" s="94"/>
       <c r="J21" s="8"/>
       <c r="K21" s="8"/>
-      <c r="L21" s="125"/>
-      <c r="M21" s="126"/>
-      <c r="N21" s="93"/>
-      <c r="O21" s="91"/>
-      <c r="P21" s="81"/>
-      <c r="Q21" s="82"/>
-      <c r="R21" s="82"/>
-      <c r="S21" s="82"/>
-      <c r="T21" s="82"/>
-      <c r="U21" s="82"/>
-      <c r="V21" s="82"/>
-      <c r="W21" s="82"/>
-      <c r="X21" s="82"/>
-      <c r="Y21" s="82"/>
-      <c r="Z21" s="83"/>
+      <c r="L21" s="111"/>
+      <c r="M21" s="112"/>
+      <c r="N21" s="129"/>
+      <c r="O21" s="130"/>
+      <c r="P21" s="124"/>
+      <c r="Q21" s="125"/>
+      <c r="R21" s="125"/>
+      <c r="S21" s="125"/>
+      <c r="T21" s="125"/>
+      <c r="U21" s="125"/>
+      <c r="V21" s="125"/>
+      <c r="W21" s="125"/>
+      <c r="X21" s="125"/>
+      <c r="Y21" s="125"/>
+      <c r="Z21" s="126"/>
       <c r="AA21" s="8"/>
       <c r="AB21" s="8"/>
       <c r="AC21" s="8"/>
@@ -3652,37 +3672,37 @@
       <c r="AU21" s="8"/>
       <c r="AV21" s="8"/>
     </row>
-    <row r="22" spans="1:48" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="22" spans="1:48" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="8"/>
       <c r="B22" s="8"/>
       <c r="C22" s="36"/>
-      <c r="D22" s="105"/>
-      <c r="E22" s="106"/>
+      <c r="D22" s="87"/>
+      <c r="E22" s="88"/>
       <c r="F22" s="33"/>
       <c r="G22" s="8"/>
-      <c r="H22" s="68"/>
-      <c r="I22" s="69"/>
+      <c r="H22" s="95"/>
+      <c r="I22" s="96"/>
       <c r="J22" s="8"/>
       <c r="K22" s="8"/>
-      <c r="L22" s="125"/>
-      <c r="M22" s="126"/>
-      <c r="N22" s="86" t="s">
+      <c r="L22" s="111"/>
+      <c r="M22" s="112"/>
+      <c r="N22" s="119" t="s">
         <v>75</v>
       </c>
-      <c r="O22" s="87"/>
-      <c r="P22" s="85" t="s">
+      <c r="O22" s="128"/>
+      <c r="P22" s="132" t="s">
         <v>122</v>
       </c>
-      <c r="Q22" s="71"/>
-      <c r="R22" s="71"/>
-      <c r="S22" s="71"/>
-      <c r="T22" s="71"/>
-      <c r="U22" s="71"/>
-      <c r="V22" s="71"/>
-      <c r="W22" s="71"/>
-      <c r="X22" s="71"/>
-      <c r="Y22" s="71"/>
-      <c r="Z22" s="72"/>
+      <c r="Q22" s="77"/>
+      <c r="R22" s="77"/>
+      <c r="S22" s="77"/>
+      <c r="T22" s="77"/>
+      <c r="U22" s="77"/>
+      <c r="V22" s="77"/>
+      <c r="W22" s="77"/>
+      <c r="X22" s="77"/>
+      <c r="Y22" s="77"/>
+      <c r="Z22" s="78"/>
       <c r="AA22" s="8"/>
       <c r="AB22" s="8"/>
       <c r="AC22" s="8"/>
@@ -3706,7 +3726,7 @@
       <c r="AU22" s="8"/>
       <c r="AV22" s="8"/>
     </row>
-    <row r="23" spans="1:48" x14ac:dyDescent="0.6">
+    <row r="23" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A23" s="8"/>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
@@ -3718,21 +3738,21 @@
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
       <c r="K23" s="8"/>
-      <c r="L23" s="125"/>
-      <c r="M23" s="126"/>
-      <c r="N23" s="88"/>
-      <c r="O23" s="89"/>
-      <c r="P23" s="73"/>
-      <c r="Q23" s="74"/>
-      <c r="R23" s="74"/>
-      <c r="S23" s="74"/>
-      <c r="T23" s="74"/>
-      <c r="U23" s="74"/>
-      <c r="V23" s="74"/>
-      <c r="W23" s="74"/>
-      <c r="X23" s="74"/>
-      <c r="Y23" s="74"/>
-      <c r="Z23" s="75"/>
+      <c r="L23" s="111"/>
+      <c r="M23" s="112"/>
+      <c r="N23" s="120"/>
+      <c r="O23" s="133"/>
+      <c r="P23" s="79"/>
+      <c r="Q23" s="80"/>
+      <c r="R23" s="80"/>
+      <c r="S23" s="80"/>
+      <c r="T23" s="80"/>
+      <c r="U23" s="80"/>
+      <c r="V23" s="80"/>
+      <c r="W23" s="80"/>
+      <c r="X23" s="80"/>
+      <c r="Y23" s="80"/>
+      <c r="Z23" s="81"/>
       <c r="AA23" s="8"/>
       <c r="AB23" s="8"/>
       <c r="AC23" s="8"/>
@@ -3756,7 +3776,7 @@
       <c r="AU23" s="8"/>
       <c r="AV23" s="8"/>
     </row>
-    <row r="24" spans="1:48" x14ac:dyDescent="0.6">
+    <row r="24" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A24" s="8"/>
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
@@ -3768,21 +3788,21 @@
       <c r="I24" s="8"/>
       <c r="J24" s="8"/>
       <c r="K24" s="8"/>
-      <c r="L24" s="125"/>
-      <c r="M24" s="126"/>
-      <c r="N24" s="88"/>
-      <c r="O24" s="89"/>
-      <c r="P24" s="73"/>
-      <c r="Q24" s="74"/>
-      <c r="R24" s="74"/>
-      <c r="S24" s="74"/>
-      <c r="T24" s="74"/>
-      <c r="U24" s="74"/>
-      <c r="V24" s="74"/>
-      <c r="W24" s="74"/>
-      <c r="X24" s="74"/>
-      <c r="Y24" s="74"/>
-      <c r="Z24" s="75"/>
+      <c r="L24" s="111"/>
+      <c r="M24" s="112"/>
+      <c r="N24" s="120"/>
+      <c r="O24" s="133"/>
+      <c r="P24" s="79"/>
+      <c r="Q24" s="80"/>
+      <c r="R24" s="80"/>
+      <c r="S24" s="80"/>
+      <c r="T24" s="80"/>
+      <c r="U24" s="80"/>
+      <c r="V24" s="80"/>
+      <c r="W24" s="80"/>
+      <c r="X24" s="80"/>
+      <c r="Y24" s="80"/>
+      <c r="Z24" s="81"/>
       <c r="AA24" s="8"/>
       <c r="AB24" s="8"/>
       <c r="AC24" s="8"/>
@@ -3806,7 +3826,7 @@
       <c r="AU24" s="8"/>
       <c r="AV24" s="8"/>
     </row>
-    <row r="25" spans="1:48" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="25" spans="1:48" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="8"/>
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
@@ -3818,21 +3838,21 @@
       <c r="I25" s="8"/>
       <c r="J25" s="8"/>
       <c r="K25" s="8"/>
-      <c r="L25" s="125"/>
-      <c r="M25" s="126"/>
-      <c r="N25" s="90"/>
-      <c r="O25" s="91"/>
-      <c r="P25" s="76"/>
-      <c r="Q25" s="77"/>
-      <c r="R25" s="77"/>
-      <c r="S25" s="77"/>
-      <c r="T25" s="77"/>
-      <c r="U25" s="77"/>
-      <c r="V25" s="77"/>
-      <c r="W25" s="77"/>
-      <c r="X25" s="77"/>
-      <c r="Y25" s="77"/>
-      <c r="Z25" s="78"/>
+      <c r="L25" s="111"/>
+      <c r="M25" s="112"/>
+      <c r="N25" s="121"/>
+      <c r="O25" s="130"/>
+      <c r="P25" s="82"/>
+      <c r="Q25" s="83"/>
+      <c r="R25" s="83"/>
+      <c r="S25" s="83"/>
+      <c r="T25" s="83"/>
+      <c r="U25" s="83"/>
+      <c r="V25" s="83"/>
+      <c r="W25" s="83"/>
+      <c r="X25" s="83"/>
+      <c r="Y25" s="83"/>
+      <c r="Z25" s="84"/>
       <c r="AA25" s="8"/>
       <c r="AB25" s="8"/>
       <c r="AC25" s="8"/>
@@ -3856,7 +3876,7 @@
       <c r="AU25" s="8"/>
       <c r="AV25" s="8"/>
     </row>
-    <row r="26" spans="1:48" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="26" spans="1:48" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="8"/>
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
@@ -3864,31 +3884,31 @@
       <c r="E26" s="8"/>
       <c r="F26" s="28"/>
       <c r="G26" s="28"/>
-      <c r="H26" s="66" t="s">
+      <c r="H26" s="93" t="s">
         <v>74</v>
       </c>
-      <c r="I26" s="67"/>
+      <c r="I26" s="94"/>
       <c r="J26" s="8"/>
       <c r="K26" s="8"/>
-      <c r="L26" s="125"/>
-      <c r="M26" s="126"/>
-      <c r="N26" s="86" t="s">
+      <c r="L26" s="111"/>
+      <c r="M26" s="112"/>
+      <c r="N26" s="119" t="s">
         <v>76</v>
       </c>
-      <c r="O26" s="86"/>
-      <c r="P26" s="70" t="s">
+      <c r="O26" s="119"/>
+      <c r="P26" s="76" t="s">
         <v>131</v>
       </c>
-      <c r="Q26" s="71"/>
-      <c r="R26" s="71"/>
-      <c r="S26" s="71"/>
-      <c r="T26" s="71"/>
-      <c r="U26" s="71"/>
-      <c r="V26" s="71"/>
-      <c r="W26" s="71"/>
-      <c r="X26" s="71"/>
-      <c r="Y26" s="71"/>
-      <c r="Z26" s="72"/>
+      <c r="Q26" s="77"/>
+      <c r="R26" s="77"/>
+      <c r="S26" s="77"/>
+      <c r="T26" s="77"/>
+      <c r="U26" s="77"/>
+      <c r="V26" s="77"/>
+      <c r="W26" s="77"/>
+      <c r="X26" s="77"/>
+      <c r="Y26" s="77"/>
+      <c r="Z26" s="78"/>
       <c r="AA26" s="8"/>
       <c r="AB26" s="8"/>
       <c r="AC26" s="8"/>
@@ -3912,7 +3932,7 @@
       <c r="AU26" s="8"/>
       <c r="AV26" s="8"/>
     </row>
-    <row r="27" spans="1:48" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="27" spans="1:48" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="8"/>
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
@@ -3920,25 +3940,25 @@
       <c r="E27" s="8"/>
       <c r="F27" s="28"/>
       <c r="G27" s="36"/>
-      <c r="H27" s="68"/>
-      <c r="I27" s="69"/>
+      <c r="H27" s="95"/>
+      <c r="I27" s="96"/>
       <c r="J27" s="8"/>
       <c r="K27" s="8"/>
-      <c r="L27" s="125"/>
-      <c r="M27" s="126"/>
-      <c r="N27" s="88"/>
-      <c r="O27" s="88"/>
-      <c r="P27" s="73"/>
-      <c r="Q27" s="74"/>
-      <c r="R27" s="74"/>
-      <c r="S27" s="74"/>
-      <c r="T27" s="74"/>
-      <c r="U27" s="74"/>
-      <c r="V27" s="74"/>
-      <c r="W27" s="74"/>
-      <c r="X27" s="74"/>
-      <c r="Y27" s="74"/>
-      <c r="Z27" s="75"/>
+      <c r="L27" s="111"/>
+      <c r="M27" s="112"/>
+      <c r="N27" s="120"/>
+      <c r="O27" s="120"/>
+      <c r="P27" s="79"/>
+      <c r="Q27" s="80"/>
+      <c r="R27" s="80"/>
+      <c r="S27" s="80"/>
+      <c r="T27" s="80"/>
+      <c r="U27" s="80"/>
+      <c r="V27" s="80"/>
+      <c r="W27" s="80"/>
+      <c r="X27" s="80"/>
+      <c r="Y27" s="80"/>
+      <c r="Z27" s="81"/>
       <c r="AA27" s="8"/>
       <c r="AB27" s="8"/>
       <c r="AC27" s="8"/>
@@ -3962,7 +3982,7 @@
       <c r="AU27" s="8"/>
       <c r="AV27" s="8"/>
     </row>
-    <row r="28" spans="1:48" x14ac:dyDescent="0.6">
+    <row r="28" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A28" s="8"/>
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>
@@ -3974,21 +3994,21 @@
       <c r="I28" s="8"/>
       <c r="J28" s="8"/>
       <c r="K28" s="8"/>
-      <c r="L28" s="125"/>
-      <c r="M28" s="126"/>
-      <c r="N28" s="88"/>
-      <c r="O28" s="88"/>
-      <c r="P28" s="73"/>
-      <c r="Q28" s="74"/>
-      <c r="R28" s="74"/>
-      <c r="S28" s="74"/>
-      <c r="T28" s="74"/>
-      <c r="U28" s="74"/>
-      <c r="V28" s="74"/>
-      <c r="W28" s="74"/>
-      <c r="X28" s="74"/>
-      <c r="Y28" s="74"/>
-      <c r="Z28" s="75"/>
+      <c r="L28" s="111"/>
+      <c r="M28" s="112"/>
+      <c r="N28" s="120"/>
+      <c r="O28" s="120"/>
+      <c r="P28" s="79"/>
+      <c r="Q28" s="80"/>
+      <c r="R28" s="80"/>
+      <c r="S28" s="80"/>
+      <c r="T28" s="80"/>
+      <c r="U28" s="80"/>
+      <c r="V28" s="80"/>
+      <c r="W28" s="80"/>
+      <c r="X28" s="80"/>
+      <c r="Y28" s="80"/>
+      <c r="Z28" s="81"/>
       <c r="AA28" s="8"/>
       <c r="AB28" s="8"/>
       <c r="AC28" s="8"/>
@@ -4012,7 +4032,7 @@
       <c r="AU28" s="8"/>
       <c r="AV28" s="8"/>
     </row>
-    <row r="29" spans="1:48" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="29" spans="1:48" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="8"/>
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
@@ -4024,21 +4044,21 @@
       <c r="I29" s="8"/>
       <c r="J29" s="8"/>
       <c r="K29" s="8"/>
-      <c r="L29" s="125"/>
-      <c r="M29" s="126"/>
-      <c r="N29" s="90"/>
-      <c r="O29" s="90"/>
-      <c r="P29" s="76"/>
-      <c r="Q29" s="77"/>
-      <c r="R29" s="77"/>
-      <c r="S29" s="77"/>
-      <c r="T29" s="77"/>
-      <c r="U29" s="77"/>
-      <c r="V29" s="77"/>
-      <c r="W29" s="77"/>
-      <c r="X29" s="77"/>
-      <c r="Y29" s="77"/>
-      <c r="Z29" s="78"/>
+      <c r="L29" s="111"/>
+      <c r="M29" s="112"/>
+      <c r="N29" s="121"/>
+      <c r="O29" s="121"/>
+      <c r="P29" s="82"/>
+      <c r="Q29" s="83"/>
+      <c r="R29" s="83"/>
+      <c r="S29" s="83"/>
+      <c r="T29" s="83"/>
+      <c r="U29" s="83"/>
+      <c r="V29" s="83"/>
+      <c r="W29" s="83"/>
+      <c r="X29" s="83"/>
+      <c r="Y29" s="83"/>
+      <c r="Z29" s="84"/>
       <c r="AA29" s="8"/>
       <c r="AB29" s="8"/>
       <c r="AC29" s="8"/>
@@ -4062,7 +4082,7 @@
       <c r="AU29" s="8"/>
       <c r="AV29" s="8"/>
     </row>
-    <row r="30" spans="1:48" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="30" spans="1:48" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="8"/>
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
@@ -4074,25 +4094,25 @@
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
       <c r="K30" s="8"/>
-      <c r="L30" s="125"/>
-      <c r="M30" s="126"/>
-      <c r="N30" s="92" t="s">
+      <c r="L30" s="111"/>
+      <c r="M30" s="112"/>
+      <c r="N30" s="127" t="s">
         <v>77</v>
       </c>
-      <c r="O30" s="87"/>
-      <c r="P30" s="70" t="s">
+      <c r="O30" s="128"/>
+      <c r="P30" s="76" t="s">
         <v>121</v>
       </c>
-      <c r="Q30" s="79"/>
-      <c r="R30" s="79"/>
-      <c r="S30" s="79"/>
-      <c r="T30" s="79"/>
-      <c r="U30" s="79"/>
-      <c r="V30" s="79"/>
-      <c r="W30" s="79"/>
-      <c r="X30" s="79"/>
-      <c r="Y30" s="79"/>
-      <c r="Z30" s="80"/>
+      <c r="Q30" s="122"/>
+      <c r="R30" s="122"/>
+      <c r="S30" s="122"/>
+      <c r="T30" s="122"/>
+      <c r="U30" s="122"/>
+      <c r="V30" s="122"/>
+      <c r="W30" s="122"/>
+      <c r="X30" s="122"/>
+      <c r="Y30" s="122"/>
+      <c r="Z30" s="123"/>
       <c r="AA30" s="8"/>
       <c r="AB30" s="8"/>
       <c r="AC30" s="8"/>
@@ -4116,7 +4136,7 @@
       <c r="AU30" s="8"/>
       <c r="AV30" s="8"/>
     </row>
-    <row r="31" spans="1:48" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="31" spans="1:48" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="8"/>
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
@@ -4124,27 +4144,27 @@
       <c r="E31" s="8"/>
       <c r="F31" s="28"/>
       <c r="G31" s="28"/>
-      <c r="H31" s="66" t="s">
+      <c r="H31" s="93" t="s">
         <v>75</v>
       </c>
-      <c r="I31" s="67"/>
+      <c r="I31" s="94"/>
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
-      <c r="L31" s="127"/>
-      <c r="M31" s="128"/>
-      <c r="N31" s="93"/>
-      <c r="O31" s="91"/>
-      <c r="P31" s="81"/>
-      <c r="Q31" s="82"/>
-      <c r="R31" s="82"/>
-      <c r="S31" s="82"/>
-      <c r="T31" s="82"/>
-      <c r="U31" s="82"/>
-      <c r="V31" s="82"/>
-      <c r="W31" s="82"/>
-      <c r="X31" s="82"/>
-      <c r="Y31" s="82"/>
-      <c r="Z31" s="83"/>
+      <c r="L31" s="113"/>
+      <c r="M31" s="114"/>
+      <c r="N31" s="129"/>
+      <c r="O31" s="130"/>
+      <c r="P31" s="124"/>
+      <c r="Q31" s="125"/>
+      <c r="R31" s="125"/>
+      <c r="S31" s="125"/>
+      <c r="T31" s="125"/>
+      <c r="U31" s="125"/>
+      <c r="V31" s="125"/>
+      <c r="W31" s="125"/>
+      <c r="X31" s="125"/>
+      <c r="Y31" s="125"/>
+      <c r="Z31" s="126"/>
       <c r="AA31" s="8"/>
       <c r="AB31" s="8"/>
       <c r="AC31" s="8"/>
@@ -4168,7 +4188,7 @@
       <c r="AU31" s="8"/>
       <c r="AV31" s="8"/>
     </row>
-    <row r="32" spans="1:48" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="32" spans="1:48" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="8"/>
       <c r="B32" s="8"/>
       <c r="C32" s="8"/>
@@ -4176,8 +4196,8 @@
       <c r="E32" s="8"/>
       <c r="F32" s="28"/>
       <c r="G32" s="36"/>
-      <c r="H32" s="68"/>
-      <c r="I32" s="69"/>
+      <c r="H32" s="95"/>
+      <c r="I32" s="96"/>
       <c r="J32" s="8"/>
       <c r="K32" s="8"/>
       <c r="L32" s="8"/>
@@ -4218,7 +4238,7 @@
       <c r="AU32" s="8"/>
       <c r="AV32" s="8"/>
     </row>
-    <row r="33" spans="1:48" x14ac:dyDescent="0.6">
+    <row r="33" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A33" s="8"/>
       <c r="B33" s="8"/>
       <c r="C33" s="8"/>
@@ -4268,7 +4288,7 @@
       <c r="AU33" s="8"/>
       <c r="AV33" s="8"/>
     </row>
-    <row r="34" spans="1:48" x14ac:dyDescent="0.6">
+    <row r="34" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A34" s="8"/>
       <c r="B34" s="8"/>
       <c r="C34" s="8"/>
@@ -4318,7 +4338,7 @@
       <c r="AU34" s="8"/>
       <c r="AV34" s="8"/>
     </row>
-    <row r="35" spans="1:48" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="35" spans="1:48" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="8"/>
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
@@ -4368,7 +4388,7 @@
       <c r="AU35" s="8"/>
       <c r="AV35" s="8"/>
     </row>
-    <row r="36" spans="1:48" x14ac:dyDescent="0.6">
+    <row r="36" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A36" s="8"/>
       <c r="B36" s="8"/>
       <c r="C36" s="8"/>
@@ -4376,10 +4396,10 @@
       <c r="E36" s="8"/>
       <c r="F36" s="28"/>
       <c r="G36" s="28"/>
-      <c r="H36" s="66" t="s">
+      <c r="H36" s="93" t="s">
         <v>76</v>
       </c>
-      <c r="I36" s="67"/>
+      <c r="I36" s="94"/>
       <c r="J36" s="8"/>
       <c r="K36" s="8"/>
       <c r="L36" s="8"/>
@@ -4420,7 +4440,7 @@
       <c r="AU36" s="8"/>
       <c r="AV36" s="8"/>
     </row>
-    <row r="37" spans="1:48" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="37" spans="1:48" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="8"/>
       <c r="B37" s="8"/>
       <c r="C37" s="8"/>
@@ -4428,8 +4448,8 @@
       <c r="E37" s="8"/>
       <c r="F37" s="28"/>
       <c r="G37" s="36"/>
-      <c r="H37" s="68"/>
-      <c r="I37" s="69"/>
+      <c r="H37" s="95"/>
+      <c r="I37" s="96"/>
       <c r="J37" s="8"/>
       <c r="K37" s="8"/>
       <c r="L37" s="8"/>
@@ -4470,7 +4490,7 @@
       <c r="AU37" s="8"/>
       <c r="AV37" s="8"/>
     </row>
-    <row r="38" spans="1:48" x14ac:dyDescent="0.6">
+    <row r="38" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A38" s="8"/>
       <c r="B38" s="8"/>
       <c r="C38" s="8"/>
@@ -4520,7 +4540,7 @@
       <c r="AU38" s="8"/>
       <c r="AV38" s="8"/>
     </row>
-    <row r="39" spans="1:48" x14ac:dyDescent="0.6">
+    <row r="39" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A39" s="8"/>
       <c r="B39" s="8"/>
       <c r="C39" s="8"/>
@@ -4570,7 +4590,7 @@
       <c r="AU39" s="8"/>
       <c r="AV39" s="8"/>
     </row>
-    <row r="40" spans="1:48" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="40" spans="1:48" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="8"/>
       <c r="B40" s="8"/>
       <c r="C40" s="8"/>
@@ -4620,7 +4640,7 @@
       <c r="AU40" s="8"/>
       <c r="AV40" s="8"/>
     </row>
-    <row r="41" spans="1:48" x14ac:dyDescent="0.6">
+    <row r="41" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A41" s="8"/>
       <c r="B41" s="8"/>
       <c r="C41" s="8"/>
@@ -4628,10 +4648,10 @@
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="29"/>
-      <c r="H41" s="66" t="s">
+      <c r="H41" s="93" t="s">
         <v>77</v>
       </c>
-      <c r="I41" s="67"/>
+      <c r="I41" s="94"/>
       <c r="J41" s="8"/>
       <c r="K41" s="8"/>
       <c r="L41" s="8"/>
@@ -4672,7 +4692,7 @@
       <c r="AU41" s="8"/>
       <c r="AV41" s="8"/>
     </row>
-    <row r="42" spans="1:48" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="42" spans="1:48" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="8"/>
       <c r="B42" s="8"/>
       <c r="C42" s="8"/>
@@ -4680,8 +4700,8 @@
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="36"/>
-      <c r="H42" s="68"/>
-      <c r="I42" s="69"/>
+      <c r="H42" s="95"/>
+      <c r="I42" s="96"/>
       <c r="J42" s="19"/>
       <c r="K42" s="19"/>
       <c r="L42" s="19"/>
@@ -4722,7 +4742,7 @@
       <c r="AU42" s="8"/>
       <c r="AV42" s="8"/>
     </row>
-    <row r="43" spans="1:48" x14ac:dyDescent="0.6">
+    <row r="43" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A43" s="19"/>
       <c r="B43" s="19"/>
       <c r="C43" s="19"/>
@@ -4767,7 +4787,7 @@
       <c r="AU43" s="8"/>
       <c r="AV43" s="8"/>
     </row>
-    <row r="44" spans="1:48" x14ac:dyDescent="0.6">
+    <row r="44" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A44" s="37"/>
       <c r="B44" s="19"/>
       <c r="C44" s="19"/>
@@ -4812,7 +4832,7 @@
       <c r="AU44" s="8"/>
       <c r="AV44" s="8"/>
     </row>
-    <row r="45" spans="1:48" x14ac:dyDescent="0.6">
+    <row r="45" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A45" s="20"/>
       <c r="B45" s="20"/>
       <c r="C45" s="20"/>
@@ -4862,7 +4882,7 @@
       <c r="AU45" s="8"/>
       <c r="AV45" s="8"/>
     </row>
-    <row r="46" spans="1:48" x14ac:dyDescent="0.6">
+    <row r="46" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A46" s="20"/>
       <c r="B46" s="20"/>
       <c r="C46" s="20"/>
@@ -4912,7 +4932,7 @@
       <c r="AU46" s="8"/>
       <c r="AV46" s="8"/>
     </row>
-    <row r="47" spans="1:48" x14ac:dyDescent="0.6">
+    <row r="47" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A47" s="20"/>
       <c r="B47" s="20"/>
       <c r="C47" s="20"/>
@@ -4962,7 +4982,7 @@
       <c r="AU47" s="8"/>
       <c r="AV47" s="8"/>
     </row>
-    <row r="48" spans="1:48" x14ac:dyDescent="0.6">
+    <row r="48" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A48" s="20"/>
       <c r="B48" s="20"/>
       <c r="C48" s="20"/>
@@ -5012,7 +5032,7 @@
       <c r="AU48" s="8"/>
       <c r="AV48" s="8"/>
     </row>
-    <row r="49" spans="1:48" x14ac:dyDescent="0.6">
+    <row r="49" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A49" s="20"/>
       <c r="B49" s="20"/>
       <c r="C49" s="20"/>
@@ -5062,7 +5082,7 @@
       <c r="AU49" s="8"/>
       <c r="AV49" s="8"/>
     </row>
-    <row r="50" spans="1:48" x14ac:dyDescent="0.6">
+    <row r="50" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A50" s="20"/>
       <c r="B50" s="20"/>
       <c r="C50" s="20"/>
@@ -5112,7 +5132,7 @@
       <c r="AU50" s="8"/>
       <c r="AV50" s="8"/>
     </row>
-    <row r="51" spans="1:48" x14ac:dyDescent="0.6">
+    <row r="51" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A51" s="20"/>
       <c r="B51" s="20"/>
       <c r="C51" s="20"/>
@@ -5162,7 +5182,7 @@
       <c r="AU51" s="8"/>
       <c r="AV51" s="8"/>
     </row>
-    <row r="52" spans="1:48" x14ac:dyDescent="0.6">
+    <row r="52" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A52" s="20"/>
       <c r="B52" s="20"/>
       <c r="C52" s="20"/>
@@ -5212,7 +5232,7 @@
       <c r="AU52" s="8"/>
       <c r="AV52" s="8"/>
     </row>
-    <row r="53" spans="1:48" x14ac:dyDescent="0.6">
+    <row r="53" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A53" s="20"/>
       <c r="B53" s="20"/>
       <c r="C53" s="20"/>
@@ -5262,7 +5282,7 @@
       <c r="AU53" s="8"/>
       <c r="AV53" s="8"/>
     </row>
-    <row r="54" spans="1:48" x14ac:dyDescent="0.6">
+    <row r="54" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A54" s="20"/>
       <c r="B54" s="20"/>
       <c r="C54" s="20"/>
@@ -5312,7 +5332,7 @@
       <c r="AU54" s="8"/>
       <c r="AV54" s="8"/>
     </row>
-    <row r="55" spans="1:48" x14ac:dyDescent="0.6">
+    <row r="55" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A55" s="20"/>
       <c r="B55" s="20"/>
       <c r="C55" s="20"/>
@@ -5362,7 +5382,7 @@
       <c r="AU55" s="8"/>
       <c r="AV55" s="8"/>
     </row>
-    <row r="56" spans="1:48" x14ac:dyDescent="0.6">
+    <row r="56" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A56" s="20"/>
       <c r="B56" s="20"/>
       <c r="C56" s="20"/>
@@ -5412,7 +5432,7 @@
       <c r="AU56" s="8"/>
       <c r="AV56" s="8"/>
     </row>
-    <row r="57" spans="1:48" x14ac:dyDescent="0.6">
+    <row r="57" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A57" s="20"/>
       <c r="B57" s="20"/>
       <c r="C57" s="20"/>
@@ -5462,7 +5482,7 @@
       <c r="AU57" s="8"/>
       <c r="AV57" s="8"/>
     </row>
-    <row r="58" spans="1:48" x14ac:dyDescent="0.6">
+    <row r="58" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A58" s="20"/>
       <c r="B58" s="20"/>
       <c r="C58" s="20"/>
@@ -5512,7 +5532,7 @@
       <c r="AU58" s="8"/>
       <c r="AV58" s="8"/>
     </row>
-    <row r="59" spans="1:48" x14ac:dyDescent="0.6">
+    <row r="59" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A59" s="20"/>
       <c r="B59" s="20"/>
       <c r="C59" s="20"/>
@@ -5562,7 +5582,7 @@
       <c r="AU59" s="8"/>
       <c r="AV59" s="8"/>
     </row>
-    <row r="60" spans="1:48" x14ac:dyDescent="0.6">
+    <row r="60" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A60" s="20"/>
       <c r="B60" s="20"/>
       <c r="C60" s="20"/>
@@ -5612,7 +5632,7 @@
       <c r="AU60" s="8"/>
       <c r="AV60" s="8"/>
     </row>
-    <row r="61" spans="1:48" x14ac:dyDescent="0.6">
+    <row r="61" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A61" s="20"/>
       <c r="B61" s="20"/>
       <c r="C61" s="20"/>
@@ -5659,7 +5679,7 @@
       <c r="AU61" s="8"/>
       <c r="AV61" s="8"/>
     </row>
-    <row r="62" spans="1:48" x14ac:dyDescent="0.6">
+    <row r="62" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A62" s="20"/>
       <c r="B62" s="20"/>
       <c r="C62" s="20"/>
@@ -5708,7 +5728,7 @@
       <c r="AU62" s="8"/>
       <c r="AV62" s="8"/>
     </row>
-    <row r="63" spans="1:48" x14ac:dyDescent="0.6">
+    <row r="63" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A63" s="20"/>
       <c r="B63" s="20"/>
       <c r="C63" s="20"/>
@@ -5757,7 +5777,7 @@
       <c r="AU63" s="8"/>
       <c r="AV63" s="8"/>
     </row>
-    <row r="64" spans="1:48" x14ac:dyDescent="0.6">
+    <row r="64" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A64" s="20"/>
       <c r="B64" s="20"/>
       <c r="C64" s="20"/>
@@ -5806,7 +5826,7 @@
       <c r="AU64" s="8"/>
       <c r="AV64" s="8"/>
     </row>
-    <row r="65" spans="1:48" x14ac:dyDescent="0.6">
+    <row r="65" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A65" s="20"/>
       <c r="B65" s="20"/>
       <c r="C65" s="20"/>
@@ -5855,7 +5875,7 @@
       <c r="AU65" s="8"/>
       <c r="AV65" s="8"/>
     </row>
-    <row r="66" spans="1:48" x14ac:dyDescent="0.6">
+    <row r="66" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A66" s="20"/>
       <c r="B66" s="20"/>
       <c r="C66" s="20"/>
@@ -5904,7 +5924,7 @@
       <c r="AU66" s="8"/>
       <c r="AV66" s="8"/>
     </row>
-    <row r="67" spans="1:48" x14ac:dyDescent="0.6">
+    <row r="67" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A67" s="20"/>
       <c r="B67" s="20"/>
       <c r="C67" s="20"/>
@@ -5953,7 +5973,7 @@
       <c r="AU67" s="8"/>
       <c r="AV67" s="8"/>
     </row>
-    <row r="68" spans="1:48" x14ac:dyDescent="0.6">
+    <row r="68" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A68" s="20"/>
       <c r="B68" s="20"/>
       <c r="C68" s="20"/>
@@ -6002,7 +6022,7 @@
       <c r="AU68" s="8"/>
       <c r="AV68" s="8"/>
     </row>
-    <row r="69" spans="1:48" x14ac:dyDescent="0.6">
+    <row r="69" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A69" s="20"/>
       <c r="B69" s="20"/>
       <c r="C69" s="20"/>
@@ -6051,7 +6071,7 @@
       <c r="AU69" s="8"/>
       <c r="AV69" s="8"/>
     </row>
-    <row r="70" spans="1:48" x14ac:dyDescent="0.6">
+    <row r="70" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A70" s="20"/>
       <c r="B70" s="20"/>
       <c r="C70" s="20"/>
@@ -6100,7 +6120,7 @@
       <c r="AU70" s="8"/>
       <c r="AV70" s="8"/>
     </row>
-    <row r="71" spans="1:48" x14ac:dyDescent="0.6">
+    <row r="71" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A71" s="20"/>
       <c r="B71" s="20"/>
       <c r="C71" s="20"/>
@@ -6150,7 +6170,7 @@
       <c r="AU71" s="8"/>
       <c r="AV71" s="8"/>
     </row>
-    <row r="72" spans="1:48" x14ac:dyDescent="0.6">
+    <row r="72" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A72" s="20"/>
       <c r="B72" s="20"/>
       <c r="C72" s="20"/>
@@ -6173,7 +6193,7 @@
       <c r="T72" s="19"/>
       <c r="U72" s="19"/>
     </row>
-    <row r="73" spans="1:48" x14ac:dyDescent="0.6">
+    <row r="73" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A73" s="20"/>
       <c r="B73" s="20"/>
       <c r="C73" s="20"/>
@@ -6196,7 +6216,7 @@
       <c r="T73" s="19"/>
       <c r="U73" s="19"/>
     </row>
-    <row r="74" spans="1:48" x14ac:dyDescent="0.6">
+    <row r="74" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A74" s="19"/>
       <c r="B74" s="19"/>
       <c r="C74" s="19"/>
@@ -6219,7 +6239,7 @@
       <c r="T74" s="19"/>
       <c r="U74" s="19"/>
     </row>
-    <row r="75" spans="1:48" x14ac:dyDescent="0.6">
+    <row r="75" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A75" s="19"/>
       <c r="B75" s="19"/>
       <c r="C75" s="19"/>
@@ -6242,7 +6262,7 @@
       <c r="T75" s="19"/>
       <c r="U75" s="19"/>
     </row>
-    <row r="76" spans="1:48" x14ac:dyDescent="0.6">
+    <row r="76" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A76" s="19"/>
       <c r="B76" s="19"/>
       <c r="C76" s="19"/>
@@ -6265,7 +6285,7 @@
       <c r="T76" s="19"/>
       <c r="U76" s="19"/>
     </row>
-    <row r="77" spans="1:48" x14ac:dyDescent="0.6">
+    <row r="77" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A77" s="19"/>
       <c r="B77" s="19"/>
       <c r="C77" s="19"/>
@@ -6288,7 +6308,7 @@
       <c r="T77" s="19"/>
       <c r="U77" s="19"/>
     </row>
-    <row r="78" spans="1:48" x14ac:dyDescent="0.6">
+    <row r="78" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A78" s="19"/>
       <c r="B78" s="19"/>
       <c r="C78" s="19"/>
@@ -6313,6 +6333,17 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="H41:I42"/>
+    <mergeCell ref="H36:I37"/>
+    <mergeCell ref="H31:I32"/>
+    <mergeCell ref="H26:I27"/>
+    <mergeCell ref="P10:Z13"/>
+    <mergeCell ref="P18:Z19"/>
+    <mergeCell ref="P20:Z21"/>
+    <mergeCell ref="P22:Z25"/>
+    <mergeCell ref="N22:O25"/>
+    <mergeCell ref="N18:O19"/>
+    <mergeCell ref="N20:O21"/>
     <mergeCell ref="B2:Z4"/>
     <mergeCell ref="P14:Z17"/>
     <mergeCell ref="D21:E22"/>
@@ -6329,17 +6360,6 @@
     <mergeCell ref="P26:Z29"/>
     <mergeCell ref="P30:Z31"/>
     <mergeCell ref="N30:O31"/>
-    <mergeCell ref="H41:I42"/>
-    <mergeCell ref="H36:I37"/>
-    <mergeCell ref="H31:I32"/>
-    <mergeCell ref="H26:I27"/>
-    <mergeCell ref="P10:Z13"/>
-    <mergeCell ref="P18:Z19"/>
-    <mergeCell ref="P20:Z21"/>
-    <mergeCell ref="P22:Z25"/>
-    <mergeCell ref="N22:O25"/>
-    <mergeCell ref="N18:O19"/>
-    <mergeCell ref="N20:O21"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6354,13 +6374,13 @@
       <selection activeCell="H47" sqref="H47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="5" max="5" width="9" customWidth="1"/>
     <col min="25" max="25" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1" s="136" t="s">
         <v>78</v>
       </c>
@@ -6379,26 +6399,26 @@
       </c>
       <c r="L1" s="140"/>
       <c r="M1" s="141"/>
-      <c r="P1" s="135" t="s">
+      <c r="P1" s="153" t="s">
         <v>82</v>
       </c>
-      <c r="Q1" s="135"/>
-      <c r="R1" s="135" t="s">
+      <c r="Q1" s="153"/>
+      <c r="R1" s="153" t="s">
         <v>83</v>
       </c>
-      <c r="S1" s="135"/>
-      <c r="T1" s="135"/>
-      <c r="W1" s="135" t="s">
+      <c r="S1" s="153"/>
+      <c r="T1" s="153"/>
+      <c r="W1" s="153" t="s">
         <v>84</v>
       </c>
-      <c r="X1" s="135"/>
-      <c r="Y1" s="135" t="s">
+      <c r="X1" s="153"/>
+      <c r="Y1" s="153" t="s">
         <v>85</v>
       </c>
-      <c r="Z1" s="135"/>
-      <c r="AA1" s="135"/>
-    </row>
-    <row r="2" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="Z1" s="153"/>
+      <c r="AA1" s="153"/>
+    </row>
+    <row r="2" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="146"/>
       <c r="C2" s="147"/>
       <c r="D2" s="150"/>
@@ -6409,94 +6429,94 @@
       <c r="K2" s="142"/>
       <c r="L2" s="143"/>
       <c r="M2" s="144"/>
-      <c r="P2" s="135"/>
-      <c r="Q2" s="135"/>
-      <c r="R2" s="135"/>
-      <c r="S2" s="135"/>
-      <c r="T2" s="135"/>
-      <c r="W2" s="135"/>
-      <c r="X2" s="135"/>
-      <c r="Y2" s="135"/>
-      <c r="Z2" s="135"/>
-      <c r="AA2" s="135"/>
-    </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.6">
-      <c r="B3" s="134" t="s">
+      <c r="P2" s="153"/>
+      <c r="Q2" s="153"/>
+      <c r="R2" s="153"/>
+      <c r="S2" s="153"/>
+      <c r="T2" s="153"/>
+      <c r="W2" s="153"/>
+      <c r="X2" s="153"/>
+      <c r="Y2" s="153"/>
+      <c r="Z2" s="153"/>
+      <c r="AA2" s="153"/>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="B3" s="135" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="134"/>
-      <c r="D3" s="134"/>
-      <c r="E3" s="134" t="s">
+      <c r="C3" s="135"/>
+      <c r="D3" s="135"/>
+      <c r="E3" s="135" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="134"/>
-      <c r="I3" s="134" t="s">
+      <c r="F3" s="135"/>
+      <c r="I3" s="135" t="s">
         <v>18</v>
       </c>
-      <c r="J3" s="134"/>
-      <c r="K3" s="134"/>
-      <c r="L3" s="134" t="s">
+      <c r="J3" s="135"/>
+      <c r="K3" s="135"/>
+      <c r="L3" s="135" t="s">
         <v>19</v>
       </c>
-      <c r="M3" s="134"/>
-      <c r="P3" s="134" t="s">
+      <c r="M3" s="135"/>
+      <c r="P3" s="135" t="s">
         <v>0</v>
       </c>
-      <c r="Q3" s="134"/>
-      <c r="R3" s="134"/>
-      <c r="S3" s="134" t="s">
+      <c r="Q3" s="135"/>
+      <c r="R3" s="135"/>
+      <c r="S3" s="135" t="s">
         <v>19</v>
       </c>
-      <c r="T3" s="134"/>
-      <c r="W3" s="134" t="s">
+      <c r="T3" s="135"/>
+      <c r="W3" s="135" t="s">
         <v>0</v>
       </c>
-      <c r="X3" s="134"/>
-      <c r="Y3" s="134"/>
-      <c r="Z3" s="134" t="s">
+      <c r="X3" s="135"/>
+      <c r="Y3" s="135"/>
+      <c r="Z3" s="135" t="s">
         <v>19</v>
       </c>
-      <c r="AA3" s="134"/>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.6">
-      <c r="B4" s="134" t="s">
+      <c r="AA3" s="135"/>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="B4" s="135" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="134"/>
-      <c r="D4" s="134"/>
-      <c r="E4" s="134" t="s">
+      <c r="C4" s="135"/>
+      <c r="D4" s="135"/>
+      <c r="E4" s="135" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="134"/>
-      <c r="I4" s="134" t="s">
+      <c r="F4" s="135"/>
+      <c r="I4" s="135" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="134"/>
-      <c r="K4" s="134"/>
-      <c r="L4" s="134" t="s">
+      <c r="J4" s="135"/>
+      <c r="K4" s="135"/>
+      <c r="L4" s="135" t="s">
         <v>20</v>
       </c>
-      <c r="M4" s="134"/>
-      <c r="P4" s="134" t="s">
+      <c r="M4" s="135"/>
+      <c r="P4" s="135" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="134"/>
-      <c r="R4" s="134"/>
-      <c r="S4" s="134" t="s">
+      <c r="Q4" s="135"/>
+      <c r="R4" s="135"/>
+      <c r="S4" s="135" t="s">
         <v>21</v>
       </c>
-      <c r="T4" s="134"/>
-      <c r="W4" s="134" t="s">
+      <c r="T4" s="135"/>
+      <c r="W4" s="135" t="s">
         <v>8</v>
       </c>
-      <c r="X4" s="134"/>
-      <c r="Y4" s="134"/>
-      <c r="Z4" s="134" t="s">
+      <c r="X4" s="135"/>
+      <c r="Y4" s="135"/>
+      <c r="Z4" s="135" t="s">
         <v>21</v>
       </c>
-      <c r="AA4" s="134"/>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.6">
+      <c r="AA4" s="135"/>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B5" s="10" t="s">
         <v>1</v>
       </c>
@@ -6558,7 +6578,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
       <c r="B6" s="2">
         <v>1</v>
@@ -6636,7 +6656,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
       <c r="B7" s="2">
         <v>2</v>
@@ -6714,7 +6734,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A8" s="4"/>
       <c r="B8" s="2">
         <v>3</v>
@@ -6792,7 +6812,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A9" s="4"/>
       <c r="B9" s="2">
         <v>4</v>
@@ -6870,7 +6890,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
       <c r="B10" s="2">
         <v>5</v>
@@ -6948,7 +6968,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
       <c r="B11" s="2">
         <v>6</v>
@@ -7026,7 +7046,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.6">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A12" s="4"/>
       <c r="B12" s="2">
         <v>7</v>
@@ -7104,7 +7124,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.6">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A13" s="4"/>
       <c r="B13" s="2">
         <v>8</v>
@@ -7182,7 +7202,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.6">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
       <c r="B14" s="2">
         <v>9</v>
@@ -7260,7 +7280,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.6">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
       <c r="B15" s="2">
         <v>10</v>
@@ -7338,7 +7358,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.6">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A16" s="4"/>
       <c r="B16" s="2">
         <v>11</v>
@@ -7416,7 +7436,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.6">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A17" s="4"/>
       <c r="B17" s="2">
         <v>12</v>
@@ -7494,7 +7514,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.6">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
       <c r="B18" s="2">
         <v>13</v>
@@ -7572,7 +7592,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.6">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
       <c r="B19" s="2">
         <v>14</v>
@@ -7650,7 +7670,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.6">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A20" s="4"/>
       <c r="B20" s="2">
         <v>15</v>
@@ -7728,7 +7748,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.6">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A21" s="4"/>
       <c r="B21" s="2">
         <v>16</v>
@@ -7806,7 +7826,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.6">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A22" s="4"/>
       <c r="B22" s="2">
         <v>17</v>
@@ -7884,7 +7904,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.6">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A23" s="4"/>
       <c r="B23" s="2">
         <v>18</v>
@@ -7962,7 +7982,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.6">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A24" s="4"/>
       <c r="B24" s="2">
         <v>19</v>
@@ -8040,7 +8060,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.6">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A25" s="4"/>
       <c r="B25" s="2">
         <v>20</v>
@@ -8118,7 +8138,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.6">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A26" s="4"/>
       <c r="B26" s="2">
         <v>21</v>
@@ -8196,7 +8216,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.6">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A27" s="4"/>
       <c r="B27" s="2">
         <v>22</v>
@@ -8274,7 +8294,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.6">
+    <row r="28" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A28" s="4"/>
       <c r="B28" s="2">
         <v>23</v>
@@ -8352,7 +8372,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.6">
+    <row r="29" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A29" s="4"/>
       <c r="B29" s="2">
         <v>24</v>
@@ -8430,7 +8450,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.6">
+    <row r="30" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A30" s="4"/>
       <c r="B30" s="2">
         <v>25</v>
@@ -8508,7 +8528,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.6">
+    <row r="31" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A31" s="4"/>
       <c r="B31" s="2">
         <v>26</v>
@@ -8586,7 +8606,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.6">
+    <row r="32" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A32" s="4"/>
       <c r="B32" s="2">
         <v>27</v>
@@ -8664,7 +8684,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.6">
+    <row r="33" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A33" s="4"/>
       <c r="B33" s="2">
         <v>28</v>
@@ -8742,7 +8762,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.6">
+    <row r="34" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A34" s="4"/>
       <c r="B34" s="2">
         <v>29</v>
@@ -8820,7 +8840,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.6">
+    <row r="35" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A35" s="4"/>
       <c r="B35" s="2">
         <v>30</v>
@@ -8898,7 +8918,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.6">
+    <row r="36" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A36" s="4"/>
       <c r="B36" s="2">
         <v>31</v>
@@ -8976,7 +8996,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="37" spans="1:27" x14ac:dyDescent="0.6">
+    <row r="37" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A37" s="4"/>
       <c r="B37" s="2">
         <v>32</v>
@@ -9054,7 +9074,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="38" spans="1:27" x14ac:dyDescent="0.6">
+    <row r="38" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A38" s="4"/>
       <c r="B38" s="2">
         <v>33</v>
@@ -9132,7 +9152,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="39" spans="1:27" x14ac:dyDescent="0.6">
+    <row r="39" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A39" s="4"/>
       <c r="B39" s="2">
         <v>34</v>
@@ -9210,7 +9230,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="40" spans="1:27" x14ac:dyDescent="0.6">
+    <row r="40" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A40" s="4"/>
       <c r="B40" s="2">
         <v>35</v>
@@ -9288,7 +9308,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="41" spans="1:27" x14ac:dyDescent="0.6">
+    <row r="41" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A41" s="4"/>
       <c r="B41" s="2">
         <v>36</v>
@@ -9366,7 +9386,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="42" spans="1:27" x14ac:dyDescent="0.6">
+    <row r="42" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A42" s="4"/>
       <c r="B42" s="2">
         <v>37</v>
@@ -9444,7 +9464,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="43" spans="1:27" x14ac:dyDescent="0.6">
+    <row r="43" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A43" s="4"/>
       <c r="B43" s="2">
         <v>38</v>
@@ -9522,7 +9542,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="44" spans="1:27" x14ac:dyDescent="0.6">
+    <row r="44" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A44" s="4"/>
       <c r="B44" s="2">
         <v>39</v>
@@ -9600,7 +9620,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="45" spans="1:27" x14ac:dyDescent="0.6">
+    <row r="45" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A45" s="4"/>
       <c r="B45" s="2">
         <v>40</v>
@@ -9678,7 +9698,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="46" spans="1:27" x14ac:dyDescent="0.6">
+    <row r="46" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A46" s="4"/>
       <c r="B46" s="2">
         <v>41</v>
@@ -9756,7 +9776,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="47" spans="1:27" x14ac:dyDescent="0.6">
+    <row r="47" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A47" s="4"/>
       <c r="B47" s="2">
         <v>42</v>
@@ -9834,7 +9854,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="48" spans="1:27" x14ac:dyDescent="0.6">
+    <row r="48" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A48" s="4"/>
       <c r="B48" s="2">
         <v>43</v>
@@ -9912,7 +9932,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="49" spans="1:27" x14ac:dyDescent="0.6">
+    <row r="49" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A49" s="4"/>
       <c r="B49" s="2">
         <v>44</v>
@@ -9990,7 +10010,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="50" spans="1:27" x14ac:dyDescent="0.6">
+    <row r="50" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A50" s="4"/>
       <c r="B50" s="2">
         <v>45</v>
@@ -10068,7 +10088,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="51" spans="1:27" x14ac:dyDescent="0.6">
+    <row r="51" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A51" s="4"/>
       <c r="B51" s="2">
         <v>46</v>
@@ -10146,7 +10166,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="52" spans="1:27" x14ac:dyDescent="0.6">
+    <row r="52" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A52" s="4"/>
       <c r="B52" s="2">
         <v>47</v>
@@ -10224,7 +10244,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="53" spans="1:27" x14ac:dyDescent="0.6">
+    <row r="53" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A53" s="4"/>
       <c r="B53" s="2">
         <v>48</v>
@@ -10302,7 +10322,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="54" spans="1:27" x14ac:dyDescent="0.6">
+    <row r="54" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A54" s="4"/>
       <c r="B54" s="2">
         <v>49</v>
@@ -10380,7 +10400,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="55" spans="1:27" x14ac:dyDescent="0.6">
+    <row r="55" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A55" s="4"/>
       <c r="B55" s="2">
         <v>50</v>
@@ -10458,7 +10478,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="56" spans="1:27" x14ac:dyDescent="0.6">
+    <row r="56" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A56" s="4"/>
       <c r="B56" s="2">
         <v>51</v>
@@ -10536,7 +10556,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="57" spans="1:27" x14ac:dyDescent="0.6">
+    <row r="57" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A57" s="4"/>
       <c r="B57" s="2">
         <v>52</v>
@@ -10614,7 +10634,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="58" spans="1:27" x14ac:dyDescent="0.6">
+    <row r="58" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A58" s="4"/>
       <c r="B58" s="2">
         <v>53</v>
@@ -10692,7 +10712,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="59" spans="1:27" x14ac:dyDescent="0.6">
+    <row r="59" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A59" s="4"/>
       <c r="B59" s="2">
         <v>54</v>
@@ -10770,7 +10790,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="60" spans="1:27" x14ac:dyDescent="0.6">
+    <row r="60" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A60" s="4"/>
       <c r="B60" s="2">
         <v>55</v>
@@ -10848,7 +10868,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="61" spans="1:27" x14ac:dyDescent="0.6">
+    <row r="61" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A61" s="4"/>
       <c r="B61" s="2">
         <v>56</v>
@@ -10926,7 +10946,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="62" spans="1:27" x14ac:dyDescent="0.6">
+    <row r="62" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A62" s="4"/>
       <c r="B62" s="2">
         <v>57</v>
@@ -11004,7 +11024,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="63" spans="1:27" x14ac:dyDescent="0.6">
+    <row r="63" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A63" s="4"/>
       <c r="B63" s="2">
         <v>58</v>
@@ -11082,7 +11102,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="64" spans="1:27" x14ac:dyDescent="0.6">
+    <row r="64" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A64" s="4"/>
       <c r="B64" s="2">
         <v>59</v>
@@ -11160,7 +11180,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="65" spans="1:27" x14ac:dyDescent="0.6">
+    <row r="65" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A65" s="4"/>
       <c r="B65" s="2">
         <v>60</v>
@@ -11238,7 +11258,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="66" spans="1:27" x14ac:dyDescent="0.6">
+    <row r="66" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A66" s="4"/>
       <c r="B66" s="2">
         <v>61</v>
@@ -11316,7 +11336,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="67" spans="1:27" x14ac:dyDescent="0.6">
+    <row r="67" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A67" s="4"/>
       <c r="B67" s="2">
         <v>62</v>
@@ -11394,7 +11414,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="68" spans="1:27" x14ac:dyDescent="0.6">
+    <row r="68" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A68" s="4"/>
       <c r="B68" s="2">
         <v>63</v>
@@ -11472,7 +11492,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="69" spans="1:27" x14ac:dyDescent="0.6">
+    <row r="69" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A69" s="4"/>
       <c r="B69" s="2">
         <v>64</v>
@@ -11550,7 +11570,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="70" spans="1:27" x14ac:dyDescent="0.6">
+    <row r="70" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A70" s="4"/>
       <c r="B70" s="2">
         <v>65</v>
@@ -11628,7 +11648,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="71" spans="1:27" x14ac:dyDescent="0.6">
+    <row r="71" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A71" s="4"/>
       <c r="B71" s="2">
         <v>66</v>
@@ -11706,7 +11726,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="72" spans="1:27" x14ac:dyDescent="0.6">
+    <row r="72" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A72" s="4"/>
       <c r="B72" s="2">
         <v>67</v>
@@ -11784,7 +11804,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="73" spans="1:27" x14ac:dyDescent="0.6">
+    <row r="73" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A73" s="4"/>
       <c r="B73" s="2">
         <v>68</v>
@@ -11862,7 +11882,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="74" spans="1:27" x14ac:dyDescent="0.6">
+    <row r="74" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A74" s="4"/>
       <c r="B74" s="2">
         <v>69</v>
@@ -11940,7 +11960,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="75" spans="1:27" x14ac:dyDescent="0.6">
+    <row r="75" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A75" s="4"/>
       <c r="B75" s="2">
         <v>70</v>
@@ -12018,7 +12038,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="76" spans="1:27" x14ac:dyDescent="0.6">
+    <row r="76" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A76" s="4"/>
       <c r="B76" s="2">
         <v>71</v>
@@ -12096,7 +12116,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="77" spans="1:27" x14ac:dyDescent="0.6">
+    <row r="77" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A77" s="4"/>
       <c r="B77" s="2">
         <v>72</v>
@@ -12174,7 +12194,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="78" spans="1:27" x14ac:dyDescent="0.6">
+    <row r="78" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A78" s="4"/>
       <c r="B78" s="2">
         <v>73</v>
@@ -12252,7 +12272,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="79" spans="1:27" x14ac:dyDescent="0.6">
+    <row r="79" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A79" s="4"/>
       <c r="B79" s="2">
         <v>74</v>
@@ -12330,7 +12350,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="80" spans="1:27" x14ac:dyDescent="0.6">
+    <row r="80" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A80" s="4"/>
       <c r="B80" s="2">
         <v>75</v>
@@ -12408,7 +12428,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="81" spans="1:27" x14ac:dyDescent="0.6">
+    <row r="81" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A81" s="4"/>
       <c r="B81" s="2">
         <v>76</v>
@@ -12486,7 +12506,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="82" spans="1:27" x14ac:dyDescent="0.6">
+    <row r="82" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A82" s="4"/>
       <c r="B82" s="2">
         <v>77</v>
@@ -12564,7 +12584,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="83" spans="1:27" x14ac:dyDescent="0.6">
+    <row r="83" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A83" s="4"/>
       <c r="B83" s="2">
         <v>78</v>
@@ -12642,7 +12662,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="84" spans="1:27" x14ac:dyDescent="0.6">
+    <row r="84" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A84" s="4"/>
       <c r="B84" s="2">
         <v>79</v>
@@ -12720,7 +12740,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="85" spans="1:27" x14ac:dyDescent="0.6">
+    <row r="85" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A85" s="4"/>
       <c r="B85" s="2">
         <v>80</v>
@@ -12798,7 +12818,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="86" spans="1:27" x14ac:dyDescent="0.6">
+    <row r="86" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A86" s="4"/>
       <c r="B86" s="2">
         <v>81</v>
@@ -12876,7 +12896,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="87" spans="1:27" x14ac:dyDescent="0.6">
+    <row r="87" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A87" s="4"/>
       <c r="B87" s="2">
         <v>82</v>
@@ -12954,7 +12974,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="88" spans="1:27" x14ac:dyDescent="0.6">
+    <row r="88" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A88" s="4"/>
       <c r="B88" s="2">
         <v>83</v>
@@ -13032,7 +13052,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="89" spans="1:27" x14ac:dyDescent="0.6">
+    <row r="89" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A89" s="4"/>
       <c r="B89" s="2">
         <v>84</v>
@@ -13110,7 +13130,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="90" spans="1:27" x14ac:dyDescent="0.6">
+    <row r="90" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A90" s="4"/>
       <c r="B90" s="2">
         <v>85</v>
@@ -13188,7 +13208,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="91" spans="1:27" x14ac:dyDescent="0.6">
+    <row r="91" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A91" s="4"/>
       <c r="B91" s="2">
         <v>86</v>
@@ -13266,7 +13286,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="92" spans="1:27" x14ac:dyDescent="0.6">
+    <row r="92" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A92" s="4"/>
       <c r="B92" s="2">
         <v>87</v>
@@ -13344,7 +13364,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="93" spans="1:27" x14ac:dyDescent="0.6">
+    <row r="93" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A93" s="4"/>
       <c r="B93" s="2">
         <v>88</v>
@@ -13422,7 +13442,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="94" spans="1:27" x14ac:dyDescent="0.6">
+    <row r="94" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A94" s="4"/>
       <c r="B94" s="2">
         <v>89</v>
@@ -13500,7 +13520,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="95" spans="1:27" x14ac:dyDescent="0.6">
+    <row r="95" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A95" s="4"/>
       <c r="B95" s="2">
         <v>90</v>
@@ -13578,7 +13598,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="96" spans="1:27" x14ac:dyDescent="0.6">
+    <row r="96" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A96" s="4"/>
       <c r="B96" s="2">
         <v>91</v>
@@ -13656,7 +13676,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="97" spans="1:27" x14ac:dyDescent="0.6">
+    <row r="97" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A97" s="4"/>
       <c r="B97" s="2">
         <v>92</v>
@@ -13734,7 +13754,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="98" spans="1:27" x14ac:dyDescent="0.6">
+    <row r="98" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A98" s="4"/>
       <c r="B98" s="2">
         <v>93</v>
@@ -13812,7 +13832,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="99" spans="1:27" x14ac:dyDescent="0.6">
+    <row r="99" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A99" s="4"/>
       <c r="B99" s="2">
         <v>94</v>
@@ -13890,7 +13910,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="100" spans="1:27" x14ac:dyDescent="0.6">
+    <row r="100" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A100" s="4"/>
       <c r="B100" s="2">
         <v>95</v>
@@ -13968,7 +13988,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="101" spans="1:27" x14ac:dyDescent="0.6">
+    <row r="101" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A101" s="4"/>
       <c r="B101" s="2">
         <v>96</v>
@@ -14046,7 +14066,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="102" spans="1:27" x14ac:dyDescent="0.6">
+    <row r="102" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A102" s="4"/>
       <c r="B102" s="2">
         <v>97</v>
@@ -14124,7 +14144,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="103" spans="1:27" x14ac:dyDescent="0.6">
+    <row r="103" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A103" s="4"/>
       <c r="B103" s="2">
         <v>98</v>
@@ -14202,7 +14222,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="104" spans="1:27" x14ac:dyDescent="0.6">
+    <row r="104" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A104" s="4"/>
       <c r="B104" s="3">
         <v>99</v>
@@ -14280,7 +14300,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="105" spans="1:27" x14ac:dyDescent="0.6">
+    <row r="105" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A105" s="4"/>
       <c r="B105" s="2">
         <v>100</v>
@@ -14358,11 +14378,11 @@
         <v>22</v>
       </c>
     </row>
-    <row r="106" spans="1:27" x14ac:dyDescent="0.6">
-      <c r="B106" s="133" t="s">
+    <row r="106" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="B106" s="134" t="s">
         <v>14</v>
       </c>
-      <c r="C106" s="133"/>
+      <c r="C106" s="134"/>
       <c r="D106" s="5">
         <f>SUM(D6:D105)</f>
         <v>87316</v>
@@ -14373,10 +14393,10 @@
       <c r="F106" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="I106" s="133" t="s">
+      <c r="I106" s="134" t="s">
         <v>4</v>
       </c>
-      <c r="J106" s="133"/>
+      <c r="J106" s="134"/>
       <c r="K106" s="5">
         <f>SUM(K6:K105)</f>
         <v>360244</v>
@@ -14387,10 +14407,10 @@
       <c r="M106" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="P106" s="133" t="s">
+      <c r="P106" s="134" t="s">
         <v>4</v>
       </c>
-      <c r="Q106" s="133"/>
+      <c r="Q106" s="134"/>
       <c r="R106" s="5">
         <f>SUM(Q6:Q105)</f>
         <v>2195776.0000000005</v>
@@ -14401,10 +14421,10 @@
       <c r="T106" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="W106" s="133" t="s">
+      <c r="W106" s="134" t="s">
         <v>4</v>
       </c>
-      <c r="X106" s="133"/>
+      <c r="X106" s="134"/>
       <c r="Y106" s="5">
         <f>SUM(X6:X105)</f>
         <v>5760000</v>
@@ -14416,7 +14436,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="108" spans="1:27" x14ac:dyDescent="0.6">
+    <row r="108" spans="1:27" x14ac:dyDescent="0.3">
       <c r="C108">
         <f>POWER((7+0.4*(0-1)),2)</f>
         <v>43.559999999999995</v>
@@ -14432,6 +14452,22 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="P106:Q106"/>
+    <mergeCell ref="W106:X106"/>
+    <mergeCell ref="Z3:AA3"/>
+    <mergeCell ref="Z4:AA4"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="P1:Q2"/>
+    <mergeCell ref="R1:T2"/>
+    <mergeCell ref="W1:X2"/>
+    <mergeCell ref="Y1:AA2"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="P3:R3"/>
+    <mergeCell ref="P4:R4"/>
+    <mergeCell ref="W3:Y3"/>
+    <mergeCell ref="W4:Y4"/>
     <mergeCell ref="B106:C106"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="I3:K3"/>
@@ -14444,22 +14480,6 @@
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="B4:D4"/>
-    <mergeCell ref="P1:Q2"/>
-    <mergeCell ref="R1:T2"/>
-    <mergeCell ref="W1:X2"/>
-    <mergeCell ref="Y1:AA2"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="P3:R3"/>
-    <mergeCell ref="P4:R4"/>
-    <mergeCell ref="W3:Y3"/>
-    <mergeCell ref="W4:Y4"/>
-    <mergeCell ref="P106:Q106"/>
-    <mergeCell ref="W106:X106"/>
-    <mergeCell ref="Z3:AA3"/>
-    <mergeCell ref="Z4:AA4"/>
-    <mergeCell ref="S3:T3"/>
-    <mergeCell ref="S4:T4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14472,10 +14492,10 @@
   <dimension ref="A1:N204"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="2.25" customWidth="1"/>
     <col min="3" max="3" width="12.125" customWidth="1"/>
@@ -14487,69 +14507,69 @@
     <col min="14" max="14" width="27.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="C1" s="153" t="s">
+    <row r="1" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C1" s="154" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="153"/>
-      <c r="E1" s="153"/>
-      <c r="F1" s="153"/>
-      <c r="G1" s="153"/>
-      <c r="H1" s="153"/>
-      <c r="I1" s="153"/>
-    </row>
-    <row r="2" spans="2:14" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="C2" s="153"/>
-      <c r="D2" s="153"/>
-      <c r="E2" s="153"/>
-      <c r="F2" s="153"/>
-      <c r="G2" s="153"/>
-      <c r="H2" s="153"/>
-      <c r="I2" s="153"/>
-    </row>
-    <row r="3" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="D1" s="154"/>
+      <c r="E1" s="154"/>
+      <c r="F1" s="154"/>
+      <c r="G1" s="154"/>
+      <c r="H1" s="154"/>
+      <c r="I1" s="154"/>
+    </row>
+    <row r="2" spans="2:14" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C2" s="154"/>
+      <c r="D2" s="154"/>
+      <c r="E2" s="154"/>
+      <c r="F2" s="154"/>
+      <c r="G2" s="154"/>
+      <c r="H2" s="154"/>
+      <c r="I2" s="154"/>
+    </row>
+    <row r="3" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="20"/>
-      <c r="C3" s="166" t="s">
+      <c r="C3" s="167" t="s">
         <v>88</v>
       </c>
-      <c r="D3" s="166"/>
+      <c r="D3" s="167"/>
       <c r="E3" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="166" t="s">
+      <c r="F3" s="167" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="166"/>
-      <c r="H3" s="166"/>
-      <c r="I3" s="166"/>
-      <c r="K3" s="154" t="s">
+      <c r="G3" s="167"/>
+      <c r="H3" s="167"/>
+      <c r="I3" s="167"/>
+      <c r="K3" s="155" t="s">
         <v>146</v>
       </c>
-      <c r="L3" s="155"/>
-      <c r="M3" s="155"/>
-      <c r="N3" s="156"/>
-    </row>
-    <row r="4" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="L3" s="156"/>
+      <c r="M3" s="156"/>
+      <c r="N3" s="157"/>
+    </row>
+    <row r="4" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="42"/>
-      <c r="C4" s="134" t="s">
+      <c r="C4" s="135" t="s">
         <v>92</v>
       </c>
-      <c r="D4" s="134"/>
+      <c r="D4" s="135"/>
       <c r="E4" s="23" t="s">
         <v>145</v>
       </c>
-      <c r="F4" s="134" t="s">
+      <c r="F4" s="135" t="s">
         <v>26</v>
       </c>
-      <c r="G4" s="134"/>
-      <c r="H4" s="134"/>
-      <c r="I4" s="134"/>
-      <c r="K4" s="157"/>
-      <c r="L4" s="158"/>
-      <c r="M4" s="158"/>
-      <c r="N4" s="159"/>
-    </row>
-    <row r="5" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="G4" s="135"/>
+      <c r="H4" s="135"/>
+      <c r="I4" s="135"/>
+      <c r="K4" s="158"/>
+      <c r="L4" s="159"/>
+      <c r="M4" s="159"/>
+      <c r="N4" s="160"/>
+    </row>
+    <row r="5" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="25"/>
       <c r="C5" s="10" t="s">
         <v>87</v>
@@ -14572,14 +14592,14 @@
       <c r="I5" s="50" t="s">
         <v>98</v>
       </c>
-      <c r="K5" s="160" t="s">
+      <c r="K5" s="161" t="s">
         <v>91</v>
       </c>
-      <c r="L5" s="161"/>
-      <c r="M5" s="161"/>
-      <c r="N5" s="162"/>
-    </row>
-    <row r="6" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="L5" s="162"/>
+      <c r="M5" s="162"/>
+      <c r="N5" s="163"/>
+    </row>
+    <row r="6" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="4"/>
       <c r="C6" s="2">
         <v>1</v>
@@ -14608,12 +14628,12 @@
         <f t="shared" ref="I6:I37" si="3">ROUND(H6:H105,0)</f>
         <v>2</v>
       </c>
-      <c r="K6" s="163"/>
-      <c r="L6" s="164"/>
-      <c r="M6" s="164"/>
-      <c r="N6" s="165"/>
-    </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.6">
+      <c r="K6" s="164"/>
+      <c r="L6" s="165"/>
+      <c r="M6" s="165"/>
+      <c r="N6" s="166"/>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B7" s="4"/>
       <c r="C7" s="2">
         <v>2</v>
@@ -14644,7 +14664,7 @@
       </c>
       <c r="K7" s="40"/>
     </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.6">
+    <row r="8" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B8" s="4"/>
       <c r="C8" s="2">
         <v>3</v>
@@ -14674,7 +14694,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.6">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B9" s="4"/>
       <c r="C9" s="2">
         <v>4</v>
@@ -14704,7 +14724,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.6">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B10" s="4"/>
       <c r="C10" s="2">
         <v>5</v>
@@ -14734,7 +14754,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.6">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B11" s="4"/>
       <c r="C11" s="2">
         <v>6</v>
@@ -14764,7 +14784,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.6">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B12" s="4"/>
       <c r="C12" s="2">
         <v>7</v>
@@ -14794,7 +14814,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.6">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B13" s="4"/>
       <c r="C13" s="2">
         <v>8</v>
@@ -14824,7 +14844,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.6">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B14" s="4"/>
       <c r="C14" s="2">
         <v>9</v>
@@ -14854,7 +14874,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.6">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B15" s="4"/>
       <c r="C15" s="2">
         <v>10</v>
@@ -14884,7 +14904,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.6">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B16" s="4"/>
       <c r="C16" s="2">
         <v>11</v>
@@ -14914,7 +14934,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.6">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="4"/>
       <c r="C17" s="2">
         <v>12</v>
@@ -14944,7 +14964,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.6">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B18" s="4"/>
       <c r="C18" s="2">
         <v>13</v>
@@ -14974,7 +14994,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.6">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="4"/>
       <c r="C19" s="2">
         <v>14</v>
@@ -15004,7 +15024,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.6">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="4"/>
       <c r="C20" s="2">
         <v>15</v>
@@ -15034,7 +15054,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.6">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B21" s="4"/>
       <c r="C21" s="2">
         <v>16</v>
@@ -15064,7 +15084,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.6">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" s="4"/>
       <c r="C22" s="2">
         <v>17</v>
@@ -15094,7 +15114,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.6">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B23" s="4"/>
       <c r="C23" s="2">
         <v>18</v>
@@ -15124,7 +15144,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.6">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B24" s="4"/>
       <c r="C24" s="2">
         <v>19</v>
@@ -15154,7 +15174,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.6">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B25" s="4"/>
       <c r="C25" s="2">
         <v>20</v>
@@ -15184,7 +15204,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.6">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" s="4"/>
       <c r="C26" s="2">
         <v>21</v>
@@ -15214,7 +15234,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.6">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B27" s="4"/>
       <c r="C27" s="2">
         <v>22</v>
@@ -15244,7 +15264,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.6">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B28" s="4"/>
       <c r="C28" s="2">
         <v>23</v>
@@ -15274,7 +15294,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.6">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B29" s="4"/>
       <c r="C29" s="2">
         <v>24</v>
@@ -15304,7 +15324,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.6">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B30" s="4"/>
       <c r="C30" s="2">
         <v>25</v>
@@ -15334,7 +15354,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.6">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31" s="4"/>
       <c r="C31" s="2">
         <v>26</v>
@@ -15364,7 +15384,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.6">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32" s="4"/>
       <c r="C32" s="2">
         <v>27</v>
@@ -15394,7 +15414,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B33" s="4"/>
       <c r="C33" s="2">
         <v>28</v>
@@ -15424,7 +15444,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B34" s="4"/>
       <c r="C34" s="2">
         <v>29</v>
@@ -15454,7 +15474,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="39"/>
       <c r="B35" s="4"/>
       <c r="C35" s="2">
@@ -15485,7 +15505,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B36" s="4"/>
       <c r="C36" s="2">
         <v>31</v>
@@ -15515,7 +15535,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B37" s="4"/>
       <c r="C37" s="2">
         <v>32</v>
@@ -15545,7 +15565,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B38" s="4"/>
       <c r="C38" s="2">
         <v>33</v>
@@ -15575,7 +15595,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B39" s="4"/>
       <c r="C39" s="2">
         <v>34</v>
@@ -15605,7 +15625,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B40" s="4"/>
       <c r="C40" s="2">
         <v>35</v>
@@ -15635,7 +15655,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B41" s="4"/>
       <c r="C41" s="2">
         <v>36</v>
@@ -15665,7 +15685,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B42" s="4"/>
       <c r="C42" s="2">
         <v>37</v>
@@ -15695,7 +15715,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B43" s="4"/>
       <c r="C43" s="2">
         <v>38</v>
@@ -15725,7 +15745,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B44" s="4"/>
       <c r="C44" s="2">
         <v>39</v>
@@ -15755,7 +15775,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B45" s="4"/>
       <c r="C45" s="2">
         <v>40</v>
@@ -15785,7 +15805,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B46" s="4"/>
       <c r="C46" s="2">
         <v>41</v>
@@ -15815,7 +15835,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B47" s="4"/>
       <c r="C47" s="2">
         <v>42</v>
@@ -15845,7 +15865,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B48" s="4"/>
       <c r="C48" s="2">
         <v>43</v>
@@ -15875,7 +15895,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.6">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B49" s="4"/>
       <c r="C49" s="2">
         <v>44</v>
@@ -15905,7 +15925,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.6">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B50" s="4"/>
       <c r="C50" s="2">
         <v>45</v>
@@ -15935,7 +15955,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.6">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B51" s="4"/>
       <c r="C51" s="2">
         <v>46</v>
@@ -15965,7 +15985,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.6">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B52" s="4"/>
       <c r="C52" s="2">
         <v>47</v>
@@ -15995,7 +16015,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.6">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B53" s="4"/>
       <c r="C53" s="2">
         <v>48</v>
@@ -16025,7 +16045,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.6">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B54" s="4"/>
       <c r="C54" s="2">
         <v>49</v>
@@ -16055,7 +16075,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.6">
+    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B55" s="4"/>
       <c r="C55" s="2">
         <v>50</v>
@@ -16085,7 +16105,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.6">
+    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B56" s="4"/>
       <c r="C56" s="2">
         <v>51</v>
@@ -16115,7 +16135,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.6">
+    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B57" s="4"/>
       <c r="C57" s="2">
         <v>52</v>
@@ -16145,7 +16165,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.6">
+    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B58" s="4"/>
       <c r="C58" s="2">
         <v>53</v>
@@ -16175,7 +16195,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.6">
+    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B59" s="4"/>
       <c r="C59" s="2">
         <v>54</v>
@@ -16205,7 +16225,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.6">
+    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B60" s="4"/>
       <c r="C60" s="2">
         <v>55</v>
@@ -16235,7 +16255,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.6">
+    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B61" s="4"/>
       <c r="C61" s="2">
         <v>56</v>
@@ -16265,7 +16285,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.6">
+    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B62" s="4"/>
       <c r="C62" s="2">
         <v>57</v>
@@ -16295,7 +16315,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.6">
+    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B63" s="4"/>
       <c r="C63" s="2">
         <v>58</v>
@@ -16325,7 +16345,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.6">
+    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B64" s="4"/>
       <c r="C64" s="2">
         <v>59</v>
@@ -16355,7 +16375,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.6">
+    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B65" s="4"/>
       <c r="C65" s="2">
         <v>60</v>
@@ -16385,7 +16405,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.6">
+    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B66" s="4"/>
       <c r="C66" s="2">
         <v>61</v>
@@ -16415,7 +16435,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.6">
+    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B67" s="4"/>
       <c r="C67" s="2">
         <v>62</v>
@@ -16445,7 +16465,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.6">
+    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B68" s="4"/>
       <c r="C68" s="2">
         <v>63</v>
@@ -16475,7 +16495,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.6">
+    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B69" s="4"/>
       <c r="C69" s="2">
         <v>64</v>
@@ -16505,7 +16525,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.6">
+    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B70" s="4"/>
       <c r="C70" s="2">
         <v>65</v>
@@ -16535,7 +16555,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.6">
+    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B71" s="4"/>
       <c r="C71" s="2">
         <v>66</v>
@@ -16565,7 +16585,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.6">
+    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B72" s="4"/>
       <c r="C72" s="2">
         <v>67</v>
@@ -16595,7 +16615,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.6">
+    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B73" s="4"/>
       <c r="C73" s="2">
         <v>68</v>
@@ -16625,7 +16645,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.6">
+    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B74" s="4"/>
       <c r="C74" s="2">
         <v>69</v>
@@ -16655,7 +16675,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.6">
+    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B75" s="4"/>
       <c r="C75" s="2">
         <v>70</v>
@@ -16685,7 +16705,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.6">
+    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B76" s="4"/>
       <c r="C76" s="2">
         <v>71</v>
@@ -16715,7 +16735,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.6">
+    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B77" s="4"/>
       <c r="C77" s="2">
         <v>72</v>
@@ -16745,7 +16765,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.6">
+    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B78" s="4"/>
       <c r="C78" s="2">
         <v>73</v>
@@ -16775,7 +16795,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.6">
+    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B79" s="4"/>
       <c r="C79" s="2">
         <v>74</v>
@@ -16805,7 +16825,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.6">
+    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B80" s="4"/>
       <c r="C80" s="2">
         <v>75</v>
@@ -16835,7 +16855,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.6">
+    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B81" s="4"/>
       <c r="C81" s="2">
         <v>76</v>
@@ -16865,7 +16885,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.6">
+    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B82" s="4"/>
       <c r="C82" s="2">
         <v>77</v>
@@ -16895,7 +16915,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.6">
+    <row r="83" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B83" s="4"/>
       <c r="C83" s="2">
         <v>78</v>
@@ -16925,7 +16945,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.6">
+    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B84" s="4"/>
       <c r="C84" s="2">
         <v>79</v>
@@ -16955,7 +16975,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.6">
+    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B85" s="4"/>
       <c r="C85" s="2">
         <v>80</v>
@@ -16985,7 +17005,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.6">
+    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B86" s="4"/>
       <c r="C86" s="2">
         <v>81</v>
@@ -17015,7 +17035,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.6">
+    <row r="87" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B87" s="4"/>
       <c r="C87" s="2">
         <v>82</v>
@@ -17045,7 +17065,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.6">
+    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B88" s="4"/>
       <c r="C88" s="2">
         <v>83</v>
@@ -17075,7 +17095,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.6">
+    <row r="89" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B89" s="4"/>
       <c r="C89" s="2">
         <v>84</v>
@@ -17105,7 +17125,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.6">
+    <row r="90" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B90" s="4"/>
       <c r="C90" s="2">
         <v>85</v>
@@ -17135,7 +17155,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.6">
+    <row r="91" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B91" s="4"/>
       <c r="C91" s="2">
         <v>86</v>
@@ -17165,7 +17185,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.6">
+    <row r="92" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B92" s="4"/>
       <c r="C92" s="2">
         <v>87</v>
@@ -17195,7 +17215,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.6">
+    <row r="93" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B93" s="4"/>
       <c r="C93" s="2">
         <v>88</v>
@@ -17225,7 +17245,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.6">
+    <row r="94" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B94" s="4"/>
       <c r="C94" s="2">
         <v>89</v>
@@ -17255,7 +17275,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.6">
+    <row r="95" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B95" s="4"/>
       <c r="C95" s="2">
         <v>90</v>
@@ -17285,7 +17305,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.6">
+    <row r="96" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B96" s="4"/>
       <c r="C96" s="2">
         <v>91</v>
@@ -17315,7 +17335,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.6">
+    <row r="97" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B97" s="4"/>
       <c r="C97" s="2">
         <v>92</v>
@@ -17345,7 +17365,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.6">
+    <row r="98" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B98" s="4"/>
       <c r="C98" s="2">
         <v>93</v>
@@ -17375,7 +17395,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.6">
+    <row r="99" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B99" s="4"/>
       <c r="C99" s="2">
         <v>94</v>
@@ -17405,7 +17425,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.6">
+    <row r="100" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B100" s="4"/>
       <c r="C100" s="2">
         <v>95</v>
@@ -17435,7 +17455,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.6">
+    <row r="101" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B101" s="4"/>
       <c r="C101" s="2">
         <v>96</v>
@@ -17465,7 +17485,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.6">
+    <row r="102" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B102" s="4"/>
       <c r="C102" s="2">
         <v>97</v>
@@ -17495,7 +17515,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.6">
+    <row r="103" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B103" s="4"/>
       <c r="C103" s="2">
         <v>98</v>
@@ -17525,7 +17545,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.6">
+    <row r="104" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B104" s="4"/>
       <c r="C104" s="2">
         <v>99</v>
@@ -17555,7 +17575,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.6">
+    <row r="105" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B105" s="4"/>
       <c r="C105" s="2">
         <v>100</v>
@@ -17585,301 +17605,301 @@
         <v>311</v>
       </c>
     </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.6">
+    <row r="106" spans="2:9" x14ac:dyDescent="0.3">
       <c r="E106" s="4"/>
     </row>
-    <row r="107" spans="2:9" x14ac:dyDescent="0.6">
+    <row r="107" spans="2:9" x14ac:dyDescent="0.3">
       <c r="E107" s="4"/>
     </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.6">
+    <row r="108" spans="2:9" x14ac:dyDescent="0.3">
       <c r="E108" s="4"/>
     </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.6">
+    <row r="109" spans="2:9" x14ac:dyDescent="0.3">
       <c r="E109" s="4"/>
     </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.6">
+    <row r="110" spans="2:9" x14ac:dyDescent="0.3">
       <c r="E110" s="4"/>
     </row>
-    <row r="111" spans="2:9" x14ac:dyDescent="0.6">
+    <row r="111" spans="2:9" x14ac:dyDescent="0.3">
       <c r="E111" s="4"/>
     </row>
-    <row r="112" spans="2:9" x14ac:dyDescent="0.6">
+    <row r="112" spans="2:9" x14ac:dyDescent="0.3">
       <c r="E112" s="4"/>
     </row>
-    <row r="113" spans="5:5" x14ac:dyDescent="0.6">
+    <row r="113" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E113" s="4"/>
     </row>
-    <row r="114" spans="5:5" x14ac:dyDescent="0.6">
+    <row r="114" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E114" s="4"/>
     </row>
-    <row r="115" spans="5:5" x14ac:dyDescent="0.6">
+    <row r="115" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E115" s="4"/>
     </row>
-    <row r="116" spans="5:5" x14ac:dyDescent="0.6">
+    <row r="116" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E116" s="4"/>
     </row>
-    <row r="117" spans="5:5" x14ac:dyDescent="0.6">
+    <row r="117" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E117" s="4"/>
     </row>
-    <row r="118" spans="5:5" x14ac:dyDescent="0.6">
+    <row r="118" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E118" s="4"/>
     </row>
-    <row r="119" spans="5:5" x14ac:dyDescent="0.6">
+    <row r="119" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E119" s="4"/>
     </row>
-    <row r="120" spans="5:5" x14ac:dyDescent="0.6">
+    <row r="120" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E120" s="4"/>
     </row>
-    <row r="121" spans="5:5" x14ac:dyDescent="0.6">
+    <row r="121" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E121" s="4"/>
     </row>
-    <row r="122" spans="5:5" x14ac:dyDescent="0.6">
+    <row r="122" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E122" s="4"/>
     </row>
-    <row r="123" spans="5:5" x14ac:dyDescent="0.6">
+    <row r="123" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E123" s="4"/>
     </row>
-    <row r="124" spans="5:5" x14ac:dyDescent="0.6">
+    <row r="124" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E124" s="4"/>
     </row>
-    <row r="125" spans="5:5" x14ac:dyDescent="0.6">
+    <row r="125" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E125" s="4"/>
     </row>
-    <row r="126" spans="5:5" x14ac:dyDescent="0.6">
+    <row r="126" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E126" s="4"/>
     </row>
-    <row r="127" spans="5:5" x14ac:dyDescent="0.6">
+    <row r="127" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E127" s="4"/>
     </row>
-    <row r="128" spans="5:5" x14ac:dyDescent="0.6">
+    <row r="128" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E128" s="4"/>
     </row>
-    <row r="129" spans="5:5" x14ac:dyDescent="0.6">
+    <row r="129" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E129" s="4"/>
     </row>
-    <row r="130" spans="5:5" x14ac:dyDescent="0.6">
+    <row r="130" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E130" s="4"/>
     </row>
-    <row r="131" spans="5:5" x14ac:dyDescent="0.6">
+    <row r="131" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E131" s="4"/>
     </row>
-    <row r="132" spans="5:5" x14ac:dyDescent="0.6">
+    <row r="132" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E132" s="4"/>
     </row>
-    <row r="133" spans="5:5" x14ac:dyDescent="0.6">
+    <row r="133" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E133" s="4"/>
     </row>
-    <row r="134" spans="5:5" x14ac:dyDescent="0.6">
+    <row r="134" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E134" s="4"/>
     </row>
-    <row r="135" spans="5:5" x14ac:dyDescent="0.6">
+    <row r="135" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E135" s="4"/>
     </row>
-    <row r="136" spans="5:5" x14ac:dyDescent="0.6">
+    <row r="136" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E136" s="4"/>
     </row>
-    <row r="137" spans="5:5" x14ac:dyDescent="0.6">
+    <row r="137" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E137" s="4"/>
     </row>
-    <row r="138" spans="5:5" x14ac:dyDescent="0.6">
+    <row r="138" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E138" s="4"/>
     </row>
-    <row r="139" spans="5:5" x14ac:dyDescent="0.6">
+    <row r="139" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E139" s="4"/>
     </row>
-    <row r="140" spans="5:5" x14ac:dyDescent="0.6">
+    <row r="140" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E140" s="4"/>
     </row>
-    <row r="141" spans="5:5" x14ac:dyDescent="0.6">
+    <row r="141" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E141" s="4"/>
     </row>
-    <row r="142" spans="5:5" x14ac:dyDescent="0.6">
+    <row r="142" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E142" s="4"/>
     </row>
-    <row r="143" spans="5:5" x14ac:dyDescent="0.6">
+    <row r="143" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E143" s="4"/>
     </row>
-    <row r="144" spans="5:5" x14ac:dyDescent="0.6">
+    <row r="144" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E144" s="4"/>
     </row>
-    <row r="145" spans="5:5" x14ac:dyDescent="0.6">
+    <row r="145" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E145" s="4"/>
     </row>
-    <row r="146" spans="5:5" x14ac:dyDescent="0.6">
+    <row r="146" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E146" s="4"/>
     </row>
-    <row r="147" spans="5:5" x14ac:dyDescent="0.6">
+    <row r="147" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E147" s="4"/>
     </row>
-    <row r="148" spans="5:5" x14ac:dyDescent="0.6">
+    <row r="148" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E148" s="4"/>
     </row>
-    <row r="149" spans="5:5" x14ac:dyDescent="0.6">
+    <row r="149" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E149" s="4"/>
     </row>
-    <row r="150" spans="5:5" x14ac:dyDescent="0.6">
+    <row r="150" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E150" s="4"/>
     </row>
-    <row r="151" spans="5:5" x14ac:dyDescent="0.6">
+    <row r="151" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E151" s="4"/>
     </row>
-    <row r="152" spans="5:5" x14ac:dyDescent="0.6">
+    <row r="152" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E152" s="4"/>
     </row>
-    <row r="153" spans="5:5" x14ac:dyDescent="0.6">
+    <row r="153" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E153" s="4"/>
     </row>
-    <row r="154" spans="5:5" x14ac:dyDescent="0.6">
+    <row r="154" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E154" s="4"/>
     </row>
-    <row r="155" spans="5:5" x14ac:dyDescent="0.6">
+    <row r="155" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E155" s="4"/>
     </row>
-    <row r="156" spans="5:5" x14ac:dyDescent="0.6">
+    <row r="156" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E156" s="4"/>
     </row>
-    <row r="157" spans="5:5" x14ac:dyDescent="0.6">
+    <row r="157" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E157" s="4"/>
     </row>
-    <row r="158" spans="5:5" x14ac:dyDescent="0.6">
+    <row r="158" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E158" s="4"/>
     </row>
-    <row r="159" spans="5:5" x14ac:dyDescent="0.6">
+    <row r="159" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E159" s="4"/>
     </row>
-    <row r="160" spans="5:5" x14ac:dyDescent="0.6">
+    <row r="160" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E160" s="4"/>
     </row>
-    <row r="161" spans="5:5" x14ac:dyDescent="0.6">
+    <row r="161" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E161" s="4"/>
     </row>
-    <row r="162" spans="5:5" x14ac:dyDescent="0.6">
+    <row r="162" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E162" s="4"/>
     </row>
-    <row r="163" spans="5:5" x14ac:dyDescent="0.6">
+    <row r="163" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E163" s="4"/>
     </row>
-    <row r="164" spans="5:5" x14ac:dyDescent="0.6">
+    <row r="164" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E164" s="4"/>
     </row>
-    <row r="165" spans="5:5" x14ac:dyDescent="0.6">
+    <row r="165" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E165" s="4"/>
     </row>
-    <row r="166" spans="5:5" x14ac:dyDescent="0.6">
+    <row r="166" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E166" s="4"/>
     </row>
-    <row r="167" spans="5:5" x14ac:dyDescent="0.6">
+    <row r="167" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E167" s="4"/>
     </row>
-    <row r="168" spans="5:5" x14ac:dyDescent="0.6">
+    <row r="168" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E168" s="4"/>
     </row>
-    <row r="169" spans="5:5" x14ac:dyDescent="0.6">
+    <row r="169" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E169" s="4"/>
     </row>
-    <row r="170" spans="5:5" x14ac:dyDescent="0.6">
+    <row r="170" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E170" s="4"/>
     </row>
-    <row r="171" spans="5:5" x14ac:dyDescent="0.6">
+    <row r="171" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E171" s="4"/>
     </row>
-    <row r="172" spans="5:5" x14ac:dyDescent="0.6">
+    <row r="172" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E172" s="4"/>
     </row>
-    <row r="173" spans="5:5" x14ac:dyDescent="0.6">
+    <row r="173" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E173" s="4"/>
     </row>
-    <row r="174" spans="5:5" x14ac:dyDescent="0.6">
+    <row r="174" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E174" s="4"/>
     </row>
-    <row r="175" spans="5:5" x14ac:dyDescent="0.6">
+    <row r="175" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E175" s="4"/>
     </row>
-    <row r="176" spans="5:5" x14ac:dyDescent="0.6">
+    <row r="176" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E176" s="4"/>
     </row>
-    <row r="177" spans="5:5" x14ac:dyDescent="0.6">
+    <row r="177" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E177" s="4"/>
     </row>
-    <row r="178" spans="5:5" x14ac:dyDescent="0.6">
+    <row r="178" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E178" s="4"/>
     </row>
-    <row r="179" spans="5:5" x14ac:dyDescent="0.6">
+    <row r="179" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E179" s="4"/>
     </row>
-    <row r="180" spans="5:5" x14ac:dyDescent="0.6">
+    <row r="180" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E180" s="4"/>
     </row>
-    <row r="181" spans="5:5" x14ac:dyDescent="0.6">
+    <row r="181" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E181" s="4"/>
     </row>
-    <row r="182" spans="5:5" x14ac:dyDescent="0.6">
+    <row r="182" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E182" s="4"/>
     </row>
-    <row r="183" spans="5:5" x14ac:dyDescent="0.6">
+    <row r="183" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E183" s="4"/>
     </row>
-    <row r="184" spans="5:5" x14ac:dyDescent="0.6">
+    <row r="184" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E184" s="4"/>
     </row>
-    <row r="185" spans="5:5" x14ac:dyDescent="0.6">
+    <row r="185" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E185" s="4"/>
     </row>
-    <row r="186" spans="5:5" x14ac:dyDescent="0.6">
+    <row r="186" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E186" s="4"/>
     </row>
-    <row r="187" spans="5:5" x14ac:dyDescent="0.6">
+    <row r="187" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E187" s="4"/>
     </row>
-    <row r="188" spans="5:5" x14ac:dyDescent="0.6">
+    <row r="188" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E188" s="4"/>
     </row>
-    <row r="189" spans="5:5" x14ac:dyDescent="0.6">
+    <row r="189" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E189" s="4"/>
     </row>
-    <row r="190" spans="5:5" x14ac:dyDescent="0.6">
+    <row r="190" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E190" s="4"/>
     </row>
-    <row r="191" spans="5:5" x14ac:dyDescent="0.6">
+    <row r="191" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E191" s="4"/>
     </row>
-    <row r="192" spans="5:5" x14ac:dyDescent="0.6">
+    <row r="192" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E192" s="4"/>
     </row>
-    <row r="193" spans="5:5" x14ac:dyDescent="0.6">
+    <row r="193" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E193" s="4"/>
     </row>
-    <row r="194" spans="5:5" x14ac:dyDescent="0.6">
+    <row r="194" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E194" s="4"/>
     </row>
-    <row r="195" spans="5:5" x14ac:dyDescent="0.6">
+    <row r="195" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E195" s="4"/>
     </row>
-    <row r="196" spans="5:5" x14ac:dyDescent="0.6">
+    <row r="196" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E196" s="4"/>
     </row>
-    <row r="197" spans="5:5" x14ac:dyDescent="0.6">
+    <row r="197" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E197" s="4"/>
     </row>
-    <row r="198" spans="5:5" x14ac:dyDescent="0.6">
+    <row r="198" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E198" s="4"/>
     </row>
-    <row r="199" spans="5:5" x14ac:dyDescent="0.6">
+    <row r="199" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E199" s="4"/>
     </row>
-    <row r="200" spans="5:5" x14ac:dyDescent="0.6">
+    <row r="200" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E200" s="4"/>
     </row>
-    <row r="201" spans="5:5" x14ac:dyDescent="0.6">
+    <row r="201" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E201" s="4"/>
     </row>
-    <row r="202" spans="5:5" x14ac:dyDescent="0.6">
+    <row r="202" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E202" s="4"/>
     </row>
-    <row r="203" spans="5:5" x14ac:dyDescent="0.6">
+    <row r="203" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E203" s="4"/>
     </row>
-    <row r="204" spans="5:5" x14ac:dyDescent="0.6">
+    <row r="204" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E204" s="4"/>
     </row>
   </sheetData>
@@ -17899,952 +17919,428 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N59"/>
+  <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.75" style="41" customWidth="1"/>
-    <col min="2" max="2" width="11.5625" style="41" customWidth="1"/>
-    <col min="3" max="3" width="10.6875" style="41" customWidth="1"/>
-    <col min="4" max="4" width="11" style="41" customWidth="1"/>
-    <col min="5" max="5" width="9.75" style="41" customWidth="1"/>
-    <col min="6" max="6" width="10" style="41" customWidth="1"/>
-    <col min="7" max="7" width="11.375" style="41" customWidth="1"/>
-    <col min="8" max="8" width="10.375" style="41" customWidth="1"/>
-    <col min="9" max="9" width="10.625" style="41" customWidth="1"/>
-    <col min="10" max="10" width="10.125" style="41" customWidth="1"/>
-    <col min="11" max="11" width="10.25" style="41" customWidth="1"/>
-    <col min="12" max="12" width="10" style="41" customWidth="1"/>
-    <col min="13" max="13" width="10.125" style="41" customWidth="1"/>
-    <col min="14" max="14" width="10.375" style="41" customWidth="1"/>
-    <col min="15" max="15" width="11" style="41" customWidth="1"/>
-    <col min="16" max="16384" width="9" style="41"/>
+    <col min="1" max="1" width="24" style="41" customWidth="1"/>
+    <col min="2" max="2" width="10.75" style="41" customWidth="1"/>
+    <col min="3" max="3" width="11" style="41" customWidth="1"/>
+    <col min="4" max="4" width="9.75" style="41" customWidth="1"/>
+    <col min="5" max="5" width="10" style="41" customWidth="1"/>
+    <col min="6" max="6" width="11.375" style="41" customWidth="1"/>
+    <col min="7" max="7" width="10.375" style="41" customWidth="1"/>
+    <col min="8" max="8" width="10.625" style="41" customWidth="1"/>
+    <col min="9" max="9" width="10.125" style="41" customWidth="1"/>
+    <col min="10" max="10" width="10.25" style="41" customWidth="1"/>
+    <col min="11" max="11" width="10" style="41" customWidth="1"/>
+    <col min="12" max="12" width="10.125" style="41" customWidth="1"/>
+    <col min="13" max="13" width="10.375" style="41" customWidth="1"/>
+    <col min="14" max="14" width="11" style="41" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="41"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="38" t="s">
         <v>86</v>
       </c>
       <c r="B1" s="38" t="s">
-        <v>93</v>
+        <v>172</v>
       </c>
       <c r="C1" s="38" t="s">
-        <v>172</v>
+        <v>186</v>
       </c>
       <c r="D1" s="38" t="s">
-        <v>94</v>
+        <v>173</v>
       </c>
       <c r="E1" s="38" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F1" s="38" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G1" s="38" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="H1" s="38" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="I1" s="38" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="J1" s="38" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K1" s="38" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L1" s="38" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M1" s="38" t="s">
-        <v>181</v>
-      </c>
-      <c r="N1" s="38" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="N1" s="66" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="B2" s="63" t="s">
-        <v>164</v>
-      </c>
-      <c r="C2" s="63">
+        <v>187</v>
+      </c>
+      <c r="B2" s="63">
         <v>1</v>
       </c>
-      <c r="D2" s="64" t="s">
-        <v>95</v>
+      <c r="C2" s="64">
+        <v>1</v>
+      </c>
+      <c r="D2" s="63">
+        <v>50</v>
       </c>
       <c r="E2" s="63">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="F2" s="63">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="G2" s="63">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="H2" s="63">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="I2" s="63">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="J2" s="63">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="K2" s="63">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="L2" s="63">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="M2" s="63">
-        <v>210</v>
-      </c>
-      <c r="N2" s="63">
         <v>230</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="N2" s="63" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="63" t="s">
         <v>158</v>
       </c>
-      <c r="B3" s="63" t="s">
-        <v>165</v>
-      </c>
-      <c r="C3" s="63">
+      <c r="B3" s="63">
         <v>2</v>
       </c>
-      <c r="D3" s="64" t="s">
-        <v>95</v>
+      <c r="C3" s="64">
+        <v>0</v>
+      </c>
+      <c r="D3" s="63">
+        <v>430</v>
       </c>
       <c r="E3" s="63">
-        <v>430</v>
+        <v>460</v>
       </c>
       <c r="F3" s="63">
-        <v>460</v>
+        <v>490</v>
       </c>
       <c r="G3" s="63">
-        <v>490</v>
+        <v>520</v>
       </c>
       <c r="H3" s="63">
-        <v>520</v>
+        <v>550</v>
       </c>
       <c r="I3" s="63">
-        <v>550</v>
+        <v>580</v>
       </c>
       <c r="J3" s="63">
-        <v>580</v>
+        <v>610</v>
       </c>
       <c r="K3" s="63">
-        <v>610</v>
+        <v>640</v>
       </c>
       <c r="L3" s="63">
-        <v>640</v>
+        <v>670</v>
       </c>
       <c r="M3" s="63">
-        <v>670</v>
-      </c>
-      <c r="N3" s="63">
         <v>700</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="N3" s="63" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="63" t="s">
         <v>157</v>
       </c>
-      <c r="B4" s="63" t="s">
-        <v>166</v>
-      </c>
-      <c r="C4" s="63">
+      <c r="B4" s="63">
         <v>3</v>
       </c>
-      <c r="D4" s="64" t="s">
-        <v>95</v>
+      <c r="C4" s="64">
+        <v>0</v>
+      </c>
+      <c r="D4" s="63">
+        <v>700</v>
       </c>
       <c r="E4" s="63">
-        <v>700</v>
+        <v>740</v>
       </c>
       <c r="F4" s="63">
-        <v>740</v>
+        <v>780</v>
       </c>
       <c r="G4" s="63">
-        <v>780</v>
+        <v>820</v>
       </c>
       <c r="H4" s="63">
-        <v>820</v>
+        <v>860</v>
       </c>
       <c r="I4" s="63">
-        <v>860</v>
+        <v>900</v>
       </c>
       <c r="J4" s="63">
-        <v>900</v>
+        <v>940</v>
       </c>
       <c r="K4" s="63">
-        <v>940</v>
+        <v>980</v>
       </c>
       <c r="L4" s="63">
-        <v>980</v>
+        <v>1020</v>
       </c>
       <c r="M4" s="63">
-        <v>1020</v>
-      </c>
-      <c r="N4" s="63">
         <v>1060</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="N4" s="63" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="63" t="s">
         <v>159</v>
       </c>
-      <c r="B5" s="63" t="s">
-        <v>167</v>
-      </c>
-      <c r="C5" s="63">
+      <c r="B5" s="63">
         <v>4</v>
       </c>
-      <c r="D5" s="64" t="s">
-        <v>95</v>
+      <c r="C5" s="64">
+        <v>0</v>
+      </c>
+      <c r="D5" s="63">
+        <v>1200</v>
       </c>
       <c r="E5" s="63">
-        <v>1200</v>
+        <v>1250</v>
       </c>
       <c r="F5" s="63">
-        <v>1250</v>
+        <v>1300</v>
       </c>
       <c r="G5" s="63">
-        <v>1300</v>
+        <v>1350</v>
       </c>
       <c r="H5" s="63">
-        <v>1350</v>
+        <v>1400</v>
       </c>
       <c r="I5" s="63">
-        <v>1400</v>
+        <v>1450</v>
       </c>
       <c r="J5" s="63">
-        <v>1450</v>
+        <v>1500</v>
       </c>
       <c r="K5" s="63">
-        <v>1500</v>
+        <v>1550</v>
       </c>
       <c r="L5" s="63">
-        <v>1550</v>
+        <v>1600</v>
       </c>
       <c r="M5" s="63">
-        <v>1600</v>
-      </c>
-      <c r="N5" s="63">
         <v>1650</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="N5" s="63" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="63" t="s">
         <v>160</v>
       </c>
-      <c r="B6" s="63" t="s">
-        <v>168</v>
-      </c>
-      <c r="C6" s="63">
+      <c r="B6" s="63">
         <v>5</v>
       </c>
-      <c r="D6" s="64" t="s">
-        <v>95</v>
+      <c r="C6" s="64">
+        <v>0</v>
+      </c>
+      <c r="D6" s="63">
+        <v>2000</v>
       </c>
       <c r="E6" s="63">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="F6" s="63">
-        <v>2100</v>
+        <v>2200</v>
       </c>
       <c r="G6" s="63">
-        <v>2200</v>
+        <v>2300</v>
       </c>
       <c r="H6" s="63">
-        <v>2300</v>
+        <v>2400</v>
       </c>
       <c r="I6" s="63">
-        <v>2400</v>
+        <v>2500</v>
       </c>
       <c r="J6" s="63">
-        <v>2500</v>
+        <v>2600</v>
       </c>
       <c r="K6" s="63">
-        <v>2600</v>
+        <v>2700</v>
       </c>
       <c r="L6" s="63">
-        <v>2700</v>
+        <v>2800</v>
       </c>
       <c r="M6" s="63">
-        <v>2800</v>
-      </c>
-      <c r="N6" s="63">
         <v>2900</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="N6" s="63" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="63" t="s">
         <v>161</v>
       </c>
-      <c r="B7" s="63" t="s">
-        <v>169</v>
-      </c>
-      <c r="C7" s="63">
+      <c r="B7" s="63">
         <v>6</v>
       </c>
-      <c r="D7" s="64" t="s">
-        <v>95</v>
+      <c r="C7" s="64">
+        <v>0</v>
+      </c>
+      <c r="D7" s="63">
+        <v>4500</v>
       </c>
       <c r="E7" s="63">
-        <v>4500</v>
+        <v>4650</v>
       </c>
       <c r="F7" s="63">
-        <v>4650</v>
+        <v>4800</v>
       </c>
       <c r="G7" s="63">
-        <v>4800</v>
+        <v>4950</v>
       </c>
       <c r="H7" s="63">
-        <v>4950</v>
+        <v>5100</v>
       </c>
       <c r="I7" s="63">
-        <v>5100</v>
+        <v>5250</v>
       </c>
       <c r="J7" s="63">
-        <v>5250</v>
+        <v>5400</v>
       </c>
       <c r="K7" s="63">
-        <v>5400</v>
+        <v>5550</v>
       </c>
       <c r="L7" s="63">
-        <v>5550</v>
+        <v>5700</v>
       </c>
       <c r="M7" s="63">
-        <v>5700</v>
-      </c>
-      <c r="N7" s="63">
         <v>5850</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="N7" s="63" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="63" t="s">
         <v>162</v>
       </c>
-      <c r="B8" s="63" t="s">
-        <v>170</v>
-      </c>
-      <c r="C8" s="63">
+      <c r="B8" s="63">
         <v>7</v>
       </c>
-      <c r="D8" s="64" t="s">
-        <v>95</v>
+      <c r="C8" s="64">
+        <v>0</v>
+      </c>
+      <c r="D8" s="63">
+        <v>7000</v>
       </c>
       <c r="E8" s="63">
-        <v>7000</v>
+        <v>7200</v>
       </c>
       <c r="F8" s="63">
-        <v>7200</v>
+        <v>7400</v>
       </c>
       <c r="G8" s="63">
-        <v>7400</v>
+        <v>7600</v>
       </c>
       <c r="H8" s="63">
-        <v>7600</v>
+        <v>7800</v>
       </c>
       <c r="I8" s="63">
-        <v>7800</v>
+        <v>8000</v>
       </c>
       <c r="J8" s="63">
-        <v>8000</v>
+        <v>8200</v>
       </c>
       <c r="K8" s="63">
-        <v>8200</v>
+        <v>8400</v>
       </c>
       <c r="L8" s="63">
-        <v>8400</v>
+        <v>8600</v>
       </c>
       <c r="M8" s="63">
-        <v>8600</v>
-      </c>
-      <c r="N8" s="63">
         <v>8800</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="N8" s="63" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="63" t="s">
-        <v>163</v>
-      </c>
-      <c r="B9" s="63" t="s">
-        <v>171</v>
-      </c>
-      <c r="C9" s="63">
+        <v>188</v>
+      </c>
+      <c r="B9" s="63">
         <v>8</v>
       </c>
-      <c r="D9" s="64" t="s">
-        <v>95</v>
+      <c r="C9" s="64">
+        <v>0</v>
+      </c>
+      <c r="D9" s="63">
+        <v>10000</v>
       </c>
       <c r="E9" s="63">
-        <v>10000</v>
+        <v>10500</v>
       </c>
       <c r="F9" s="63">
-        <v>10500</v>
+        <v>11000</v>
       </c>
       <c r="G9" s="63">
-        <v>11000</v>
+        <v>11500</v>
       </c>
       <c r="H9" s="63">
-        <v>11500</v>
+        <v>12000</v>
       </c>
       <c r="I9" s="63">
-        <v>12000</v>
+        <v>12500</v>
       </c>
       <c r="J9" s="63">
-        <v>12500</v>
+        <v>13000</v>
       </c>
       <c r="K9" s="63">
-        <v>13000</v>
+        <v>13500</v>
       </c>
       <c r="L9" s="63">
-        <v>13500</v>
+        <v>14000</v>
       </c>
       <c r="M9" s="63">
-        <v>14000</v>
-      </c>
-      <c r="N9" s="63">
         <v>14500</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="12" spans="1:14" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.6">
-      <c r="A46" s="167" t="s">
-        <v>183</v>
-      </c>
-      <c r="B46" s="167"/>
-      <c r="C46" s="167"/>
-      <c r="D46" s="167"/>
-      <c r="E46" s="167"/>
-      <c r="F46" s="167"/>
-      <c r="G46" s="167"/>
-      <c r="H46" s="167"/>
-      <c r="I46" s="167"/>
-      <c r="J46" s="167"/>
-      <c r="K46" s="167"/>
-      <c r="L46" s="167"/>
-      <c r="M46" s="167"/>
-      <c r="N46" s="167"/>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.6">
-      <c r="A47" s="168"/>
-      <c r="B47" s="168"/>
-      <c r="C47" s="168"/>
-      <c r="D47" s="168"/>
-      <c r="E47" s="168"/>
-      <c r="F47" s="168"/>
-      <c r="G47" s="168"/>
-      <c r="H47" s="168"/>
-      <c r="I47" s="168"/>
-      <c r="J47" s="168"/>
-      <c r="K47" s="168"/>
-      <c r="L47" s="168"/>
-      <c r="M47" s="168"/>
-      <c r="N47" s="168"/>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.6">
-      <c r="A48" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="B48" s="38" t="s">
-        <v>93</v>
-      </c>
-      <c r="C48" s="38" t="s">
-        <v>172</v>
-      </c>
-      <c r="D48" s="38" t="s">
-        <v>94</v>
-      </c>
-      <c r="E48" s="38" t="s">
-        <v>147</v>
-      </c>
-      <c r="F48" s="38" t="s">
-        <v>148</v>
-      </c>
-      <c r="G48" s="38" t="s">
-        <v>149</v>
-      </c>
-      <c r="H48" s="38" t="s">
-        <v>150</v>
-      </c>
-      <c r="I48" s="38" t="s">
-        <v>151</v>
-      </c>
-      <c r="J48" s="38" t="s">
-        <v>152</v>
-      </c>
-      <c r="K48" s="38" t="s">
-        <v>153</v>
-      </c>
-      <c r="L48" s="38" t="s">
-        <v>154</v>
-      </c>
-      <c r="M48" s="38" t="s">
-        <v>155</v>
-      </c>
-      <c r="N48" s="38" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.6">
-      <c r="A49" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="B49" s="63" t="s">
-        <v>164</v>
-      </c>
-      <c r="C49" s="63">
-        <v>1</v>
-      </c>
-      <c r="D49" s="64" t="s">
-        <v>95</v>
-      </c>
-      <c r="E49" s="65">
-        <f t="shared" ref="E49:E56" si="0">POWER((3+0.2*(E2:N2-25)),2)</f>
-        <v>64</v>
-      </c>
-      <c r="F49" s="65">
-        <f t="shared" ref="F49:N56" si="1">POWER((3+0.2*(F2:P2-25)),2)</f>
-        <v>144</v>
-      </c>
-      <c r="G49" s="65">
-        <f t="shared" si="1"/>
-        <v>256</v>
-      </c>
-      <c r="H49" s="65">
-        <f t="shared" si="1"/>
-        <v>400</v>
-      </c>
-      <c r="I49" s="65">
-        <f t="shared" si="1"/>
-        <v>576</v>
-      </c>
-      <c r="J49" s="65">
-        <f t="shared" si="1"/>
-        <v>784</v>
-      </c>
-      <c r="K49" s="65">
-        <f t="shared" si="1"/>
-        <v>1024</v>
-      </c>
-      <c r="L49" s="65">
-        <f t="shared" si="1"/>
-        <v>1296</v>
-      </c>
-      <c r="M49" s="65">
-        <f t="shared" si="1"/>
-        <v>1600</v>
-      </c>
-      <c r="N49" s="65">
-        <f t="shared" si="1"/>
-        <v>1936</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.6">
-      <c r="A50" s="63" t="s">
-        <v>158</v>
-      </c>
-      <c r="B50" s="63" t="s">
-        <v>165</v>
-      </c>
-      <c r="C50" s="63">
-        <v>2</v>
-      </c>
-      <c r="D50" s="64" t="s">
-        <v>95</v>
-      </c>
-      <c r="E50" s="65">
-        <f t="shared" si="0"/>
-        <v>7056</v>
-      </c>
-      <c r="F50" s="65">
-        <f t="shared" si="1"/>
-        <v>8100</v>
-      </c>
-      <c r="G50" s="65">
-        <f t="shared" si="1"/>
-        <v>9216</v>
-      </c>
-      <c r="H50" s="65">
-        <f t="shared" si="1"/>
-        <v>10404</v>
-      </c>
-      <c r="I50" s="65">
-        <f t="shared" si="1"/>
-        <v>11664</v>
-      </c>
-      <c r="J50" s="65">
-        <f t="shared" si="1"/>
-        <v>12996</v>
-      </c>
-      <c r="K50" s="65">
-        <f t="shared" si="1"/>
-        <v>14400</v>
-      </c>
-      <c r="L50" s="65">
-        <f t="shared" si="1"/>
-        <v>15876</v>
-      </c>
-      <c r="M50" s="65">
-        <f t="shared" si="1"/>
-        <v>17424</v>
-      </c>
-      <c r="N50" s="65">
-        <f t="shared" si="1"/>
-        <v>19044</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.6">
-      <c r="A51" s="63" t="s">
-        <v>157</v>
-      </c>
-      <c r="B51" s="63" t="s">
-        <v>166</v>
-      </c>
-      <c r="C51" s="63">
-        <v>3</v>
-      </c>
-      <c r="D51" s="64" t="s">
-        <v>95</v>
-      </c>
-      <c r="E51" s="65">
-        <f t="shared" si="0"/>
-        <v>19044</v>
-      </c>
-      <c r="F51" s="65">
-        <f t="shared" si="1"/>
-        <v>21316</v>
-      </c>
-      <c r="G51" s="65">
-        <f t="shared" si="1"/>
-        <v>23716</v>
-      </c>
-      <c r="H51" s="65">
-        <f t="shared" si="1"/>
-        <v>26244</v>
-      </c>
-      <c r="I51" s="65">
-        <f t="shared" si="1"/>
-        <v>28900</v>
-      </c>
-      <c r="J51" s="65">
-        <f t="shared" si="1"/>
-        <v>31684</v>
-      </c>
-      <c r="K51" s="65">
-        <f t="shared" si="1"/>
-        <v>34596</v>
-      </c>
-      <c r="L51" s="65">
-        <f t="shared" si="1"/>
-        <v>37636</v>
-      </c>
-      <c r="M51" s="65">
-        <f t="shared" si="1"/>
-        <v>40804</v>
-      </c>
-      <c r="N51" s="65">
-        <f t="shared" si="1"/>
-        <v>44100</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.6">
-      <c r="A52" s="63" t="s">
-        <v>159</v>
-      </c>
-      <c r="B52" s="63" t="s">
-        <v>167</v>
-      </c>
-      <c r="C52" s="63">
-        <v>4</v>
-      </c>
-      <c r="D52" s="64" t="s">
-        <v>95</v>
-      </c>
-      <c r="E52" s="65">
-        <f t="shared" si="0"/>
-        <v>56644</v>
-      </c>
-      <c r="F52" s="65">
-        <f t="shared" si="1"/>
-        <v>61504</v>
-      </c>
-      <c r="G52" s="65">
-        <f t="shared" si="1"/>
-        <v>66564</v>
-      </c>
-      <c r="H52" s="65">
-        <f t="shared" si="1"/>
-        <v>71824</v>
-      </c>
-      <c r="I52" s="65">
-        <f t="shared" si="1"/>
-        <v>77284</v>
-      </c>
-      <c r="J52" s="65">
-        <f t="shared" si="1"/>
-        <v>82944</v>
-      </c>
-      <c r="K52" s="65">
-        <f t="shared" si="1"/>
-        <v>88804</v>
-      </c>
-      <c r="L52" s="65">
-        <f t="shared" si="1"/>
-        <v>94864</v>
-      </c>
-      <c r="M52" s="65">
-        <f t="shared" si="1"/>
-        <v>101124</v>
-      </c>
-      <c r="N52" s="65">
-        <f t="shared" si="1"/>
-        <v>107584</v>
-      </c>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.6">
-      <c r="A53" s="63" t="s">
-        <v>160</v>
-      </c>
-      <c r="B53" s="63" t="s">
-        <v>168</v>
-      </c>
-      <c r="C53" s="63">
-        <v>5</v>
-      </c>
-      <c r="D53" s="64" t="s">
-        <v>95</v>
-      </c>
-      <c r="E53" s="65">
-        <f t="shared" si="0"/>
-        <v>158404</v>
-      </c>
-      <c r="F53" s="65">
-        <f t="shared" si="1"/>
-        <v>174724</v>
-      </c>
-      <c r="G53" s="65">
-        <f t="shared" si="1"/>
-        <v>191844</v>
-      </c>
-      <c r="H53" s="65">
-        <f t="shared" si="1"/>
-        <v>209764</v>
-      </c>
-      <c r="I53" s="65">
-        <f t="shared" si="1"/>
-        <v>228484</v>
-      </c>
-      <c r="J53" s="65">
-        <f t="shared" si="1"/>
-        <v>248004</v>
-      </c>
-      <c r="K53" s="65">
-        <f t="shared" si="1"/>
-        <v>268324</v>
-      </c>
-      <c r="L53" s="65">
-        <f t="shared" si="1"/>
-        <v>289444</v>
-      </c>
-      <c r="M53" s="65">
-        <f t="shared" si="1"/>
-        <v>311364</v>
-      </c>
-      <c r="N53" s="65">
-        <f t="shared" si="1"/>
-        <v>334084</v>
-      </c>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.6">
-      <c r="A54" s="63" t="s">
-        <v>161</v>
-      </c>
-      <c r="B54" s="63" t="s">
-        <v>169</v>
-      </c>
-      <c r="C54" s="63">
-        <v>6</v>
-      </c>
-      <c r="D54" s="64" t="s">
-        <v>95</v>
-      </c>
-      <c r="E54" s="65">
-        <f t="shared" si="0"/>
-        <v>806404</v>
-      </c>
-      <c r="F54" s="65">
-        <f t="shared" si="1"/>
-        <v>861184</v>
-      </c>
-      <c r="G54" s="65">
-        <f t="shared" si="1"/>
-        <v>917764</v>
-      </c>
-      <c r="H54" s="65">
-        <f t="shared" si="1"/>
-        <v>976144</v>
-      </c>
-      <c r="I54" s="65">
-        <f t="shared" si="1"/>
-        <v>1036324</v>
-      </c>
-      <c r="J54" s="65">
-        <f t="shared" si="1"/>
-        <v>1098304</v>
-      </c>
-      <c r="K54" s="65">
-        <f t="shared" si="1"/>
-        <v>1162084</v>
-      </c>
-      <c r="L54" s="65">
-        <f t="shared" si="1"/>
-        <v>1227664</v>
-      </c>
-      <c r="M54" s="65">
-        <f t="shared" si="1"/>
-        <v>1295044</v>
-      </c>
-      <c r="N54" s="65">
-        <f t="shared" si="1"/>
-        <v>1364224</v>
-      </c>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.6">
-      <c r="A55" s="63" t="s">
-        <v>162</v>
-      </c>
-      <c r="B55" s="63" t="s">
-        <v>170</v>
-      </c>
-      <c r="C55" s="63">
-        <v>7</v>
-      </c>
-      <c r="D55" s="64" t="s">
-        <v>95</v>
-      </c>
-      <c r="E55" s="65">
-        <f t="shared" si="0"/>
-        <v>1954404</v>
-      </c>
-      <c r="F55" s="65">
-        <f t="shared" si="1"/>
-        <v>2067844</v>
-      </c>
-      <c r="G55" s="65">
-        <f t="shared" si="1"/>
-        <v>2184484</v>
-      </c>
-      <c r="H55" s="65">
-        <f t="shared" si="1"/>
-        <v>2304324</v>
-      </c>
-      <c r="I55" s="65">
-        <f t="shared" si="1"/>
-        <v>2427364</v>
-      </c>
-      <c r="J55" s="65">
-        <f t="shared" si="1"/>
-        <v>2553604</v>
-      </c>
-      <c r="K55" s="65">
-        <f t="shared" si="1"/>
-        <v>2683044</v>
-      </c>
-      <c r="L55" s="65">
-        <f t="shared" si="1"/>
-        <v>2815684</v>
-      </c>
-      <c r="M55" s="65">
-        <f t="shared" si="1"/>
-        <v>2951524</v>
-      </c>
-      <c r="N55" s="65">
-        <f t="shared" si="1"/>
-        <v>3090564</v>
-      </c>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.6">
-      <c r="A56" s="63" t="s">
-        <v>163</v>
-      </c>
-      <c r="B56" s="63" t="s">
-        <v>171</v>
-      </c>
-      <c r="C56" s="63">
-        <v>8</v>
-      </c>
-      <c r="D56" s="64" t="s">
-        <v>95</v>
-      </c>
-      <c r="E56" s="65">
-        <f t="shared" si="0"/>
-        <v>3992004</v>
-      </c>
-      <c r="F56" s="65">
-        <f t="shared" si="1"/>
-        <v>4401604</v>
-      </c>
-      <c r="G56" s="65">
-        <f t="shared" si="1"/>
-        <v>4831204</v>
-      </c>
-      <c r="H56" s="65">
-        <f t="shared" si="1"/>
-        <v>5280804</v>
-      </c>
-      <c r="I56" s="65">
-        <f t="shared" si="1"/>
-        <v>5750404</v>
-      </c>
-      <c r="J56" s="65">
-        <f t="shared" si="1"/>
-        <v>6240004</v>
-      </c>
-      <c r="K56" s="65">
-        <f t="shared" si="1"/>
-        <v>6749604</v>
-      </c>
-      <c r="L56" s="65">
-        <f t="shared" si="1"/>
-        <v>7279204</v>
-      </c>
-      <c r="M56" s="65">
-        <f t="shared" si="1"/>
-        <v>7828804</v>
-      </c>
-      <c r="N56" s="65">
-        <f t="shared" si="1"/>
-        <v>8398404</v>
-      </c>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.6">
-      <c r="D59" s="169" t="s">
-        <v>184</v>
-      </c>
-      <c r="E59" s="169"/>
-      <c r="F59" s="169"/>
+      <c r="N9" s="63" t="b">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A46:N47"/>
-    <mergeCell ref="D59:F59"/>
-  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -18853,13 +18349,613 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="33.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1" s="168" t="s">
+        <v>183</v>
+      </c>
+      <c r="B1" s="168"/>
+      <c r="C1" s="168"/>
+      <c r="D1" s="168"/>
+      <c r="E1" s="168"/>
+      <c r="F1" s="168"/>
+      <c r="G1" s="168"/>
+      <c r="H1" s="168"/>
+      <c r="I1" s="168"/>
+      <c r="J1" s="168"/>
+      <c r="K1" s="168"/>
+      <c r="L1" s="168"/>
+      <c r="M1" s="168"/>
+      <c r="N1" s="168"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" s="169"/>
+      <c r="B2" s="169"/>
+      <c r="C2" s="169"/>
+      <c r="D2" s="169"/>
+      <c r="E2" s="169"/>
+      <c r="F2" s="169"/>
+      <c r="G2" s="169"/>
+      <c r="H2" s="169"/>
+      <c r="I2" s="169"/>
+      <c r="J2" s="169"/>
+      <c r="K2" s="169"/>
+      <c r="L2" s="169"/>
+      <c r="M2" s="169"/>
+      <c r="N2" s="169"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="B3" s="38" t="s">
+        <v>93</v>
+      </c>
+      <c r="C3" s="38" t="s">
+        <v>172</v>
+      </c>
+      <c r="D3" s="38" t="s">
+        <v>94</v>
+      </c>
+      <c r="E3" s="38" t="s">
+        <v>147</v>
+      </c>
+      <c r="F3" s="38" t="s">
+        <v>148</v>
+      </c>
+      <c r="G3" s="38" t="s">
+        <v>149</v>
+      </c>
+      <c r="H3" s="38" t="s">
+        <v>150</v>
+      </c>
+      <c r="I3" s="38" t="s">
+        <v>151</v>
+      </c>
+      <c r="J3" s="38" t="s">
+        <v>152</v>
+      </c>
+      <c r="K3" s="38" t="s">
+        <v>153</v>
+      </c>
+      <c r="L3" s="38" t="s">
+        <v>154</v>
+      </c>
+      <c r="M3" s="38" t="s">
+        <v>155</v>
+      </c>
+      <c r="N3" s="38" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B4" s="63" t="s">
+        <v>164</v>
+      </c>
+      <c r="C4" s="63">
+        <v>1</v>
+      </c>
+      <c r="D4" s="64" t="s">
+        <v>95</v>
+      </c>
+      <c r="E4" s="65">
+        <f>POWER((3+0.2*(weaponData!D2:M2-25)),2)</f>
+        <v>144</v>
+      </c>
+      <c r="F4" s="65">
+        <f>POWER((3+0.2*(weaponData!E2:O2-25)),2)</f>
+        <v>256</v>
+      </c>
+      <c r="G4" s="65">
+        <f>POWER((3+0.2*(weaponData!F2:P2-25)),2)</f>
+        <v>400</v>
+      </c>
+      <c r="H4" s="65">
+        <f>POWER((3+0.2*(weaponData!G2:Q2-25)),2)</f>
+        <v>576</v>
+      </c>
+      <c r="I4" s="65">
+        <f>POWER((3+0.2*(weaponData!H2:R2-25)),2)</f>
+        <v>784</v>
+      </c>
+      <c r="J4" s="65">
+        <f>POWER((3+0.2*(weaponData!I2:S2-25)),2)</f>
+        <v>1024</v>
+      </c>
+      <c r="K4" s="65">
+        <f>POWER((3+0.2*(weaponData!J2:T2-25)),2)</f>
+        <v>1296</v>
+      </c>
+      <c r="L4" s="65">
+        <f>POWER((3+0.2*(weaponData!K2:U2-25)),2)</f>
+        <v>1600</v>
+      </c>
+      <c r="M4" s="65">
+        <f>POWER((3+0.2*(weaponData!L2:V2-25)),2)</f>
+        <v>1936</v>
+      </c>
+      <c r="N4" s="65">
+        <f>POWER((3+0.2*(weaponData!M2:W2-25)),2)</f>
+        <v>3.2400000000000024</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" s="63" t="s">
+        <v>158</v>
+      </c>
+      <c r="B5" s="63" t="s">
+        <v>165</v>
+      </c>
+      <c r="C5" s="63">
+        <v>2</v>
+      </c>
+      <c r="D5" s="64" t="s">
+        <v>95</v>
+      </c>
+      <c r="E5" s="65">
+        <f>POWER((3+0.2*(weaponData!D3:M3-25)),2)</f>
+        <v>8100</v>
+      </c>
+      <c r="F5" s="65">
+        <f>POWER((3+0.2*(weaponData!E3:O3-25)),2)</f>
+        <v>9216</v>
+      </c>
+      <c r="G5" s="65">
+        <f>POWER((3+0.2*(weaponData!F3:P3-25)),2)</f>
+        <v>10404</v>
+      </c>
+      <c r="H5" s="65">
+        <f>POWER((3+0.2*(weaponData!G3:Q3-25)),2)</f>
+        <v>11664</v>
+      </c>
+      <c r="I5" s="65">
+        <f>POWER((3+0.2*(weaponData!H3:R3-25)),2)</f>
+        <v>12996</v>
+      </c>
+      <c r="J5" s="65">
+        <f>POWER((3+0.2*(weaponData!I3:S3-25)),2)</f>
+        <v>14400</v>
+      </c>
+      <c r="K5" s="65">
+        <f>POWER((3+0.2*(weaponData!J3:T3-25)),2)</f>
+        <v>15876</v>
+      </c>
+      <c r="L5" s="65">
+        <f>POWER((3+0.2*(weaponData!K3:U3-25)),2)</f>
+        <v>17424</v>
+      </c>
+      <c r="M5" s="65">
+        <f>POWER((3+0.2*(weaponData!L3:V3-25)),2)</f>
+        <v>19044</v>
+      </c>
+      <c r="N5" s="65">
+        <f>POWER((3+0.2*(weaponData!M3:W3-25)),2)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6" s="63" t="s">
+        <v>157</v>
+      </c>
+      <c r="B6" s="63" t="s">
+        <v>166</v>
+      </c>
+      <c r="C6" s="63">
+        <v>3</v>
+      </c>
+      <c r="D6" s="64" t="s">
+        <v>95</v>
+      </c>
+      <c r="E6" s="65">
+        <f>POWER((3+0.2*(weaponData!D4:M4-25)),2)</f>
+        <v>21316</v>
+      </c>
+      <c r="F6" s="65">
+        <f>POWER((3+0.2*(weaponData!E4:O4-25)),2)</f>
+        <v>23716</v>
+      </c>
+      <c r="G6" s="65">
+        <f>POWER((3+0.2*(weaponData!F4:P4-25)),2)</f>
+        <v>26244</v>
+      </c>
+      <c r="H6" s="65">
+        <f>POWER((3+0.2*(weaponData!G4:Q4-25)),2)</f>
+        <v>28900</v>
+      </c>
+      <c r="I6" s="65">
+        <f>POWER((3+0.2*(weaponData!H4:R4-25)),2)</f>
+        <v>31684</v>
+      </c>
+      <c r="J6" s="65">
+        <f>POWER((3+0.2*(weaponData!I4:S4-25)),2)</f>
+        <v>34596</v>
+      </c>
+      <c r="K6" s="65">
+        <f>POWER((3+0.2*(weaponData!J4:T4-25)),2)</f>
+        <v>37636</v>
+      </c>
+      <c r="L6" s="65">
+        <f>POWER((3+0.2*(weaponData!K4:U4-25)),2)</f>
+        <v>40804</v>
+      </c>
+      <c r="M6" s="65">
+        <f>POWER((3+0.2*(weaponData!L4:V4-25)),2)</f>
+        <v>44100</v>
+      </c>
+      <c r="N6" s="65">
+        <f>POWER((3+0.2*(weaponData!M4:W4-25)),2)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7" s="63" t="s">
+        <v>159</v>
+      </c>
+      <c r="B7" s="63" t="s">
+        <v>167</v>
+      </c>
+      <c r="C7" s="63">
+        <v>4</v>
+      </c>
+      <c r="D7" s="64" t="s">
+        <v>95</v>
+      </c>
+      <c r="E7" s="65">
+        <f>POWER((3+0.2*(weaponData!D5:M5-25)),2)</f>
+        <v>61504</v>
+      </c>
+      <c r="F7" s="65">
+        <f>POWER((3+0.2*(weaponData!E5:O5-25)),2)</f>
+        <v>66564</v>
+      </c>
+      <c r="G7" s="65">
+        <f>POWER((3+0.2*(weaponData!F5:P5-25)),2)</f>
+        <v>71824</v>
+      </c>
+      <c r="H7" s="65">
+        <f>POWER((3+0.2*(weaponData!G5:Q5-25)),2)</f>
+        <v>77284</v>
+      </c>
+      <c r="I7" s="65">
+        <f>POWER((3+0.2*(weaponData!H5:R5-25)),2)</f>
+        <v>82944</v>
+      </c>
+      <c r="J7" s="65">
+        <f>POWER((3+0.2*(weaponData!I5:S5-25)),2)</f>
+        <v>88804</v>
+      </c>
+      <c r="K7" s="65">
+        <f>POWER((3+0.2*(weaponData!J5:T5-25)),2)</f>
+        <v>94864</v>
+      </c>
+      <c r="L7" s="65">
+        <f>POWER((3+0.2*(weaponData!K5:U5-25)),2)</f>
+        <v>101124</v>
+      </c>
+      <c r="M7" s="65">
+        <f>POWER((3+0.2*(weaponData!L5:V5-25)),2)</f>
+        <v>107584</v>
+      </c>
+      <c r="N7" s="65">
+        <f>POWER((3+0.2*(weaponData!M5:W5-25)),2)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8" s="63" t="s">
+        <v>160</v>
+      </c>
+      <c r="B8" s="63" t="s">
+        <v>168</v>
+      </c>
+      <c r="C8" s="63">
+        <v>5</v>
+      </c>
+      <c r="D8" s="64" t="s">
+        <v>95</v>
+      </c>
+      <c r="E8" s="65">
+        <f>POWER((3+0.2*(weaponData!D6:M6-25)),2)</f>
+        <v>174724</v>
+      </c>
+      <c r="F8" s="65">
+        <f>POWER((3+0.2*(weaponData!E6:O6-25)),2)</f>
+        <v>191844</v>
+      </c>
+      <c r="G8" s="65">
+        <f>POWER((3+0.2*(weaponData!F6:P6-25)),2)</f>
+        <v>209764</v>
+      </c>
+      <c r="H8" s="65">
+        <f>POWER((3+0.2*(weaponData!G6:Q6-25)),2)</f>
+        <v>228484</v>
+      </c>
+      <c r="I8" s="65">
+        <f>POWER((3+0.2*(weaponData!H6:R6-25)),2)</f>
+        <v>248004</v>
+      </c>
+      <c r="J8" s="65">
+        <f>POWER((3+0.2*(weaponData!I6:S6-25)),2)</f>
+        <v>268324</v>
+      </c>
+      <c r="K8" s="65">
+        <f>POWER((3+0.2*(weaponData!J6:T6-25)),2)</f>
+        <v>289444</v>
+      </c>
+      <c r="L8" s="65">
+        <f>POWER((3+0.2*(weaponData!K6:U6-25)),2)</f>
+        <v>311364</v>
+      </c>
+      <c r="M8" s="65">
+        <f>POWER((3+0.2*(weaponData!L6:V6-25)),2)</f>
+        <v>334084</v>
+      </c>
+      <c r="N8" s="65">
+        <f>POWER((3+0.2*(weaponData!M6:W6-25)),2)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9" s="63" t="s">
+        <v>161</v>
+      </c>
+      <c r="B9" s="63" t="s">
+        <v>169</v>
+      </c>
+      <c r="C9" s="63">
+        <v>6</v>
+      </c>
+      <c r="D9" s="64" t="s">
+        <v>95</v>
+      </c>
+      <c r="E9" s="65">
+        <f>POWER((3+0.2*(weaponData!D7:M7-25)),2)</f>
+        <v>861184</v>
+      </c>
+      <c r="F9" s="65">
+        <f>POWER((3+0.2*(weaponData!E7:O7-25)),2)</f>
+        <v>917764</v>
+      </c>
+      <c r="G9" s="65">
+        <f>POWER((3+0.2*(weaponData!F7:P7-25)),2)</f>
+        <v>976144</v>
+      </c>
+      <c r="H9" s="65">
+        <f>POWER((3+0.2*(weaponData!G7:Q7-25)),2)</f>
+        <v>1036324</v>
+      </c>
+      <c r="I9" s="65">
+        <f>POWER((3+0.2*(weaponData!H7:R7-25)),2)</f>
+        <v>1098304</v>
+      </c>
+      <c r="J9" s="65">
+        <f>POWER((3+0.2*(weaponData!I7:S7-25)),2)</f>
+        <v>1162084</v>
+      </c>
+      <c r="K9" s="65">
+        <f>POWER((3+0.2*(weaponData!J7:T7-25)),2)</f>
+        <v>1227664</v>
+      </c>
+      <c r="L9" s="65">
+        <f>POWER((3+0.2*(weaponData!K7:U7-25)),2)</f>
+        <v>1295044</v>
+      </c>
+      <c r="M9" s="65">
+        <f>POWER((3+0.2*(weaponData!L7:V7-25)),2)</f>
+        <v>1364224</v>
+      </c>
+      <c r="N9" s="65">
+        <f>POWER((3+0.2*(weaponData!M7:W7-25)),2)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10" s="63" t="s">
+        <v>162</v>
+      </c>
+      <c r="B10" s="63" t="s">
+        <v>170</v>
+      </c>
+      <c r="C10" s="63">
+        <v>7</v>
+      </c>
+      <c r="D10" s="64" t="s">
+        <v>95</v>
+      </c>
+      <c r="E10" s="65">
+        <f>POWER((3+0.2*(weaponData!D8:M8-25)),2)</f>
+        <v>2067844</v>
+      </c>
+      <c r="F10" s="65">
+        <f>POWER((3+0.2*(weaponData!E8:O8-25)),2)</f>
+        <v>2184484</v>
+      </c>
+      <c r="G10" s="65">
+        <f>POWER((3+0.2*(weaponData!F8:P8-25)),2)</f>
+        <v>2304324</v>
+      </c>
+      <c r="H10" s="65">
+        <f>POWER((3+0.2*(weaponData!G8:Q8-25)),2)</f>
+        <v>2427364</v>
+      </c>
+      <c r="I10" s="65">
+        <f>POWER((3+0.2*(weaponData!H8:R8-25)),2)</f>
+        <v>2553604</v>
+      </c>
+      <c r="J10" s="65">
+        <f>POWER((3+0.2*(weaponData!I8:S8-25)),2)</f>
+        <v>2683044</v>
+      </c>
+      <c r="K10" s="65">
+        <f>POWER((3+0.2*(weaponData!J8:T8-25)),2)</f>
+        <v>2815684</v>
+      </c>
+      <c r="L10" s="65">
+        <f>POWER((3+0.2*(weaponData!K8:U8-25)),2)</f>
+        <v>2951524</v>
+      </c>
+      <c r="M10" s="65">
+        <f>POWER((3+0.2*(weaponData!L8:V8-25)),2)</f>
+        <v>3090564</v>
+      </c>
+      <c r="N10" s="65">
+        <f>POWER((3+0.2*(weaponData!M8:W8-25)),2)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11" s="63" t="s">
+        <v>163</v>
+      </c>
+      <c r="B11" s="63" t="s">
+        <v>171</v>
+      </c>
+      <c r="C11" s="63">
+        <v>8</v>
+      </c>
+      <c r="D11" s="64" t="s">
+        <v>95</v>
+      </c>
+      <c r="E11" s="65">
+        <f>POWER((3+0.2*(weaponData!D9:M9-25)),2)</f>
+        <v>4401604</v>
+      </c>
+      <c r="F11" s="65">
+        <f>POWER((3+0.2*(weaponData!E9:O9-25)),2)</f>
+        <v>4831204</v>
+      </c>
+      <c r="G11" s="65">
+        <f>POWER((3+0.2*(weaponData!F9:P9-25)),2)</f>
+        <v>5280804</v>
+      </c>
+      <c r="H11" s="65">
+        <f>POWER((3+0.2*(weaponData!G9:Q9-25)),2)</f>
+        <v>5750404</v>
+      </c>
+      <c r="I11" s="65">
+        <f>POWER((3+0.2*(weaponData!H9:R9-25)),2)</f>
+        <v>6240004</v>
+      </c>
+      <c r="J11" s="65">
+        <f>POWER((3+0.2*(weaponData!I9:S9-25)),2)</f>
+        <v>6749604</v>
+      </c>
+      <c r="K11" s="65">
+        <f>POWER((3+0.2*(weaponData!J9:T9-25)),2)</f>
+        <v>7279204</v>
+      </c>
+      <c r="L11" s="65">
+        <f>POWER((3+0.2*(weaponData!K9:U9-25)),2)</f>
+        <v>7828804</v>
+      </c>
+      <c r="M11" s="65">
+        <f>POWER((3+0.2*(weaponData!L9:V9-25)),2)</f>
+        <v>8398404</v>
+      </c>
+      <c r="N11" s="65">
+        <f>POWER((3+0.2*(weaponData!M9:W9-25)),2)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A12" s="41"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="41"/>
+      <c r="I12" s="41"/>
+      <c r="J12" s="41"/>
+      <c r="K12" s="41"/>
+      <c r="L12" s="41"/>
+      <c r="M12" s="41"/>
+      <c r="N12" s="41"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A13" s="41"/>
+      <c r="B13" s="41"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="41"/>
+      <c r="I13" s="41"/>
+      <c r="J13" s="41"/>
+      <c r="K13" s="41"/>
+      <c r="L13" s="41"/>
+      <c r="M13" s="41"/>
+      <c r="N13" s="41"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A14" s="41"/>
+      <c r="B14" s="41"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="170" t="s">
+        <v>184</v>
+      </c>
+      <c r="E14" s="170"/>
+      <c r="F14" s="170"/>
+      <c r="G14" s="41"/>
+      <c r="H14" s="41"/>
+      <c r="I14" s="41"/>
+      <c r="J14" s="41"/>
+      <c r="K14" s="41"/>
+      <c r="L14" s="41"/>
+      <c r="M14" s="41"/>
+      <c r="N14" s="41"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A15" s="41"/>
+      <c r="B15" s="41"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="41"/>
+      <c r="H15" s="41"/>
+      <c r="I15" s="41"/>
+      <c r="J15" s="41"/>
+      <c r="K15" s="41"/>
+      <c r="L15" s="41"/>
+      <c r="M15" s="41"/>
+      <c r="N15" s="41"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:N2"/>
+    <mergeCell ref="D14:F14"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:N23"/>
   <sheetViews>
     <sheetView topLeftCell="G1" workbookViewId="0">
       <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="4" max="4" width="12" customWidth="1"/>
     <col min="5" max="5" width="30.875" customWidth="1"/>
@@ -18873,29 +18969,29 @@
     <col min="14" max="14" width="10.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="C1" s="153" t="s">
+    <row r="1" spans="3:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C1" s="154" t="s">
         <v>63</v>
       </c>
-      <c r="D1" s="153"/>
-      <c r="E1" s="153"/>
-      <c r="F1" s="153"/>
-      <c r="G1" s="153"/>
+      <c r="D1" s="154"/>
+      <c r="E1" s="154"/>
+      <c r="F1" s="154"/>
+      <c r="G1" s="154"/>
       <c r="I1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="3:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="C2" s="153"/>
-      <c r="D2" s="153"/>
-      <c r="E2" s="153"/>
-      <c r="F2" s="153"/>
-      <c r="G2" s="153"/>
+    <row r="2" spans="3:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C2" s="154"/>
+      <c r="D2" s="154"/>
+      <c r="E2" s="154"/>
+      <c r="F2" s="154"/>
+      <c r="G2" s="154"/>
       <c r="I2" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="3" spans="3:14" x14ac:dyDescent="0.6">
+    <row r="3" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C3" s="12" t="s">
         <v>29</v>
       </c>
@@ -18930,8 +19026,8 @@
         <v>99</v>
       </c>
     </row>
-    <row r="4" spans="3:14" x14ac:dyDescent="0.6">
-      <c r="C4" s="172" t="s">
+    <row r="4" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C4" s="173" t="s">
         <v>32</v>
       </c>
       <c r="D4" s="13" t="s">
@@ -18965,8 +19061,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="3:14" x14ac:dyDescent="0.6">
-      <c r="C5" s="173"/>
+    <row r="5" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C5" s="174"/>
       <c r="D5" s="13" t="s">
         <v>34</v>
       </c>
@@ -18998,8 +19094,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="3:14" x14ac:dyDescent="0.6">
-      <c r="C6" s="173"/>
+    <row r="6" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C6" s="174"/>
       <c r="D6" s="13" t="s">
         <v>35</v>
       </c>
@@ -19031,8 +19127,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="3:14" x14ac:dyDescent="0.6">
-      <c r="C7" s="173"/>
+    <row r="7" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C7" s="174"/>
       <c r="D7" s="13" t="s">
         <v>36</v>
       </c>
@@ -19064,8 +19160,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="3:14" x14ac:dyDescent="0.6">
-      <c r="C8" s="173"/>
+    <row r="8" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C8" s="174"/>
       <c r="D8" s="13" t="s">
         <v>37</v>
       </c>
@@ -19097,8 +19193,8 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="9" spans="3:14" x14ac:dyDescent="0.6">
-      <c r="C9" s="173"/>
+    <row r="9" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C9" s="174"/>
       <c r="D9" s="13" t="s">
         <v>38</v>
       </c>
@@ -19130,8 +19226,8 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="10" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="C10" s="173"/>
+    <row r="10" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C10" s="174"/>
       <c r="D10" s="13" t="s">
         <v>39</v>
       </c>
@@ -19163,8 +19259,8 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="11" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="C11" s="173"/>
+    <row r="11" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C11" s="174"/>
       <c r="D11" s="13" t="s">
         <v>40</v>
       </c>
@@ -19196,8 +19292,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="3:14" x14ac:dyDescent="0.6">
-      <c r="C12" s="170" t="s">
+    <row r="12" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C12" s="171" t="s">
         <v>42</v>
       </c>
       <c r="D12" s="14" t="s">
@@ -19231,8 +19327,8 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="13" spans="3:14" x14ac:dyDescent="0.6">
-      <c r="C13" s="171"/>
+    <row r="13" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C13" s="172"/>
       <c r="D13" s="14" t="s">
         <v>44</v>
       </c>
@@ -19264,8 +19360,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="3:14" x14ac:dyDescent="0.6">
-      <c r="C14" s="171"/>
+    <row r="14" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C14" s="172"/>
       <c r="D14" s="14" t="s">
         <v>45</v>
       </c>
@@ -19297,8 +19393,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="3:14" x14ac:dyDescent="0.6">
-      <c r="C15" s="171"/>
+    <row r="15" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C15" s="172"/>
       <c r="D15" s="14" t="s">
         <v>46</v>
       </c>
@@ -19330,8 +19426,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="3:14" x14ac:dyDescent="0.6">
-      <c r="C16" s="171"/>
+    <row r="16" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C16" s="172"/>
       <c r="D16" s="14" t="s">
         <v>47</v>
       </c>
@@ -19363,8 +19459,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.6">
-      <c r="C17" s="171"/>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C17" s="172"/>
       <c r="D17" s="14" t="s">
         <v>48</v>
       </c>
@@ -19396,8 +19492,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.6">
-      <c r="C18" s="171"/>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C18" s="172"/>
       <c r="D18" s="14" t="s">
         <v>49</v>
       </c>
@@ -19429,8 +19525,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.6">
-      <c r="C19" s="171"/>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C19" s="172"/>
       <c r="D19" s="14" t="s">
         <v>50</v>
       </c>
@@ -19462,8 +19558,8 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="22" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="23" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="22" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="23" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="C12:C19"/>
@@ -19476,7 +19572,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:C104"/>
   <sheetViews>
@@ -19484,7 +19580,7 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="14.5" customWidth="1"/>
     <col min="3" max="3" width="33.5" customWidth="1"/>
@@ -19494,17 +19590,17 @@
     <col min="9" max="9" width="11.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B2" s="174" t="s">
+    <row r="2" spans="2:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="175" t="s">
         <v>128</v>
       </c>
-      <c r="C2" s="153"/>
-    </row>
-    <row r="3" spans="2:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B3" s="153"/>
-      <c r="C3" s="153"/>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.6">
+      <c r="C2" s="154"/>
+    </row>
+    <row r="3" spans="2:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="154"/>
+      <c r="C3" s="154"/>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B4" s="24" t="s">
         <v>130</v>
       </c>
@@ -19512,7 +19608,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.6">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B5" s="9">
         <v>1</v>
       </c>
@@ -19521,7 +19617,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.6">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B6" s="9">
         <v>2</v>
       </c>
@@ -19530,7 +19626,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.6">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B7" s="9">
         <v>3</v>
       </c>
@@ -19539,7 +19635,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.6">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B8" s="9">
         <v>4</v>
       </c>
@@ -19548,7 +19644,7 @@
         <v>1225</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.6">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B9" s="9">
         <v>5</v>
       </c>
@@ -19557,7 +19653,7 @@
         <v>1849</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.6">
+    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B10" s="9">
         <v>6</v>
       </c>
@@ -19566,7 +19662,7 @@
         <v>2601</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.6">
+    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B11" s="9">
         <v>7</v>
       </c>
@@ -19575,7 +19671,7 @@
         <v>3481</v>
       </c>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.6">
+    <row r="12" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B12" s="9">
         <v>8</v>
       </c>
@@ -19584,7 +19680,7 @@
         <v>4489</v>
       </c>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.6">
+    <row r="13" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B13" s="9">
         <v>9</v>
       </c>
@@ -19593,7 +19689,7 @@
         <v>5625</v>
       </c>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.6">
+    <row r="14" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B14" s="9">
         <v>10</v>
       </c>
@@ -19602,7 +19698,7 @@
         <v>6889</v>
       </c>
     </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.6">
+    <row r="15" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B15" s="9">
         <v>11</v>
       </c>
@@ -19611,7 +19707,7 @@
         <v>8281</v>
       </c>
     </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.6">
+    <row r="16" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B16" s="9">
         <v>12</v>
       </c>
@@ -19620,7 +19716,7 @@
         <v>9801</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.6">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B17" s="9">
         <v>13</v>
       </c>
@@ -19629,7 +19725,7 @@
         <v>11449</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.6">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B18" s="9">
         <v>14</v>
       </c>
@@ -19638,7 +19734,7 @@
         <v>13225</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.6">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B19" s="9">
         <v>15</v>
       </c>
@@ -19647,7 +19743,7 @@
         <v>15129</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.6">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B20" s="9">
         <v>16</v>
       </c>
@@ -19656,7 +19752,7 @@
         <v>17161</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.6">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B21" s="9">
         <v>17</v>
       </c>
@@ -19665,7 +19761,7 @@
         <v>19321</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.6">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B22" s="9">
         <v>18</v>
       </c>
@@ -19674,7 +19770,7 @@
         <v>21609</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.6">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B23" s="9">
         <v>19</v>
       </c>
@@ -19683,7 +19779,7 @@
         <v>24025</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.6">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B24" s="9">
         <v>20</v>
       </c>
@@ -19692,7 +19788,7 @@
         <v>26569</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.6">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B25" s="9">
         <v>21</v>
       </c>
@@ -19701,7 +19797,7 @@
         <v>29241</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.6">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B26" s="9">
         <v>22</v>
       </c>
@@ -19710,7 +19806,7 @@
         <v>32041</v>
       </c>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.6">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B27" s="9">
         <v>23</v>
       </c>
@@ -19719,7 +19815,7 @@
         <v>34969</v>
       </c>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.6">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B28" s="9">
         <v>24</v>
       </c>
@@ -19728,7 +19824,7 @@
         <v>38025</v>
       </c>
     </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.6">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B29" s="9">
         <v>25</v>
       </c>
@@ -19737,7 +19833,7 @@
         <v>41209</v>
       </c>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.6">
+    <row r="30" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B30" s="9">
         <v>26</v>
       </c>
@@ -19746,7 +19842,7 @@
         <v>44521</v>
       </c>
     </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.6">
+    <row r="31" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B31" s="9">
         <v>27</v>
       </c>
@@ -19755,7 +19851,7 @@
         <v>47961</v>
       </c>
     </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.6">
+    <row r="32" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B32" s="9">
         <v>28</v>
       </c>
@@ -19764,7 +19860,7 @@
         <v>51529</v>
       </c>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.6">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B33" s="9">
         <v>29</v>
       </c>
@@ -19773,7 +19869,7 @@
         <v>55225</v>
       </c>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.6">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B34" s="9">
         <v>30</v>
       </c>
@@ -19782,7 +19878,7 @@
         <v>59049</v>
       </c>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.6">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B35" s="9">
         <v>31</v>
       </c>
@@ -19791,7 +19887,7 @@
         <v>63001</v>
       </c>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.6">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B36" s="9">
         <v>32</v>
       </c>
@@ -19800,7 +19896,7 @@
         <v>67081</v>
       </c>
     </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.6">
+    <row r="37" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B37" s="9">
         <v>33</v>
       </c>
@@ -19809,7 +19905,7 @@
         <v>71289</v>
       </c>
     </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.6">
+    <row r="38" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B38" s="9">
         <v>34</v>
       </c>
@@ -19818,7 +19914,7 @@
         <v>75625</v>
       </c>
     </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.6">
+    <row r="39" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B39" s="9">
         <v>35</v>
       </c>
@@ -19827,7 +19923,7 @@
         <v>80089</v>
       </c>
     </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.6">
+    <row r="40" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B40" s="9">
         <v>36</v>
       </c>
@@ -19836,7 +19932,7 @@
         <v>84681</v>
       </c>
     </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.6">
+    <row r="41" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B41" s="9">
         <v>37</v>
       </c>
@@ -19845,7 +19941,7 @@
         <v>89401</v>
       </c>
     </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.6">
+    <row r="42" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B42" s="9">
         <v>38</v>
       </c>
@@ -19854,7 +19950,7 @@
         <v>94249</v>
       </c>
     </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.6">
+    <row r="43" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B43" s="9">
         <v>39</v>
       </c>
@@ -19863,7 +19959,7 @@
         <v>99225</v>
       </c>
     </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.6">
+    <row r="44" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B44" s="9">
         <v>40</v>
       </c>
@@ -19872,7 +19968,7 @@
         <v>104329</v>
       </c>
     </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.6">
+    <row r="45" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B45" s="9">
         <v>41</v>
       </c>
@@ -19881,7 +19977,7 @@
         <v>109561</v>
       </c>
     </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.6">
+    <row r="46" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B46" s="9">
         <v>42</v>
       </c>
@@ -19890,7 +19986,7 @@
         <v>114921</v>
       </c>
     </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.6">
+    <row r="47" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B47" s="9">
         <v>43</v>
       </c>
@@ -19899,7 +19995,7 @@
         <v>120409</v>
       </c>
     </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.6">
+    <row r="48" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B48" s="9">
         <v>44</v>
       </c>
@@ -19908,7 +20004,7 @@
         <v>126025</v>
       </c>
     </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.6">
+    <row r="49" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B49" s="9">
         <v>45</v>
       </c>
@@ -19917,7 +20013,7 @@
         <v>131769</v>
       </c>
     </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.6">
+    <row r="50" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B50" s="9">
         <v>46</v>
       </c>
@@ -19926,7 +20022,7 @@
         <v>137641</v>
       </c>
     </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.6">
+    <row r="51" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B51" s="9">
         <v>47</v>
       </c>
@@ -19935,7 +20031,7 @@
         <v>143641</v>
       </c>
     </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.6">
+    <row r="52" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B52" s="9">
         <v>48</v>
       </c>
@@ -19944,7 +20040,7 @@
         <v>149769</v>
       </c>
     </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.6">
+    <row r="53" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B53" s="9">
         <v>49</v>
       </c>
@@ -19953,7 +20049,7 @@
         <v>156025</v>
       </c>
     </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.6">
+    <row r="54" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B54" s="9">
         <v>50</v>
       </c>
@@ -19962,7 +20058,7 @@
         <v>162409</v>
       </c>
     </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.6">
+    <row r="55" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B55" s="9">
         <v>51</v>
       </c>
@@ -19971,7 +20067,7 @@
         <v>168921</v>
       </c>
     </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.6">
+    <row r="56" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B56" s="9">
         <v>52</v>
       </c>
@@ -19980,7 +20076,7 @@
         <v>175561</v>
       </c>
     </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.6">
+    <row r="57" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B57" s="9">
         <v>53</v>
       </c>
@@ -19989,7 +20085,7 @@
         <v>182329</v>
       </c>
     </row>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.6">
+    <row r="58" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B58" s="9">
         <v>54</v>
       </c>
@@ -19998,7 +20094,7 @@
         <v>189225</v>
       </c>
     </row>
-    <row r="59" spans="2:3" x14ac:dyDescent="0.6">
+    <row r="59" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B59" s="9">
         <v>55</v>
       </c>
@@ -20007,7 +20103,7 @@
         <v>196249</v>
       </c>
     </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.6">
+    <row r="60" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B60" s="9">
         <v>56</v>
       </c>
@@ -20016,7 +20112,7 @@
         <v>203401</v>
       </c>
     </row>
-    <row r="61" spans="2:3" x14ac:dyDescent="0.6">
+    <row r="61" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B61" s="9">
         <v>57</v>
       </c>
@@ -20025,7 +20121,7 @@
         <v>210681</v>
       </c>
     </row>
-    <row r="62" spans="2:3" x14ac:dyDescent="0.6">
+    <row r="62" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B62" s="9">
         <v>58</v>
       </c>
@@ -20034,7 +20130,7 @@
         <v>218089</v>
       </c>
     </row>
-    <row r="63" spans="2:3" x14ac:dyDescent="0.6">
+    <row r="63" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B63" s="9">
         <v>59</v>
       </c>
@@ -20043,7 +20139,7 @@
         <v>225625</v>
       </c>
     </row>
-    <row r="64" spans="2:3" x14ac:dyDescent="0.6">
+    <row r="64" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B64" s="9">
         <v>60</v>
       </c>
@@ -20052,7 +20148,7 @@
         <v>233289</v>
       </c>
     </row>
-    <row r="65" spans="2:3" x14ac:dyDescent="0.6">
+    <row r="65" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B65" s="9">
         <v>61</v>
       </c>
@@ -20061,7 +20157,7 @@
         <v>241081</v>
       </c>
     </row>
-    <row r="66" spans="2:3" x14ac:dyDescent="0.6">
+    <row r="66" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B66" s="9">
         <v>62</v>
       </c>
@@ -20070,7 +20166,7 @@
         <v>249001</v>
       </c>
     </row>
-    <row r="67" spans="2:3" x14ac:dyDescent="0.6">
+    <row r="67" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B67" s="9">
         <v>63</v>
       </c>
@@ -20079,7 +20175,7 @@
         <v>257049</v>
       </c>
     </row>
-    <row r="68" spans="2:3" x14ac:dyDescent="0.6">
+    <row r="68" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B68" s="9">
         <v>64</v>
       </c>
@@ -20088,7 +20184,7 @@
         <v>265225</v>
       </c>
     </row>
-    <row r="69" spans="2:3" x14ac:dyDescent="0.6">
+    <row r="69" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B69" s="9">
         <v>65</v>
       </c>
@@ -20097,7 +20193,7 @@
         <v>273529</v>
       </c>
     </row>
-    <row r="70" spans="2:3" x14ac:dyDescent="0.6">
+    <row r="70" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B70" s="9">
         <v>66</v>
       </c>
@@ -20106,7 +20202,7 @@
         <v>281961</v>
       </c>
     </row>
-    <row r="71" spans="2:3" x14ac:dyDescent="0.6">
+    <row r="71" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B71" s="9">
         <v>67</v>
       </c>
@@ -20115,7 +20211,7 @@
         <v>290521</v>
       </c>
     </row>
-    <row r="72" spans="2:3" x14ac:dyDescent="0.6">
+    <row r="72" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B72" s="9">
         <v>68</v>
       </c>
@@ -20124,7 +20220,7 @@
         <v>299209</v>
       </c>
     </row>
-    <row r="73" spans="2:3" x14ac:dyDescent="0.6">
+    <row r="73" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B73" s="9">
         <v>69</v>
       </c>
@@ -20133,7 +20229,7 @@
         <v>308025</v>
       </c>
     </row>
-    <row r="74" spans="2:3" x14ac:dyDescent="0.6">
+    <row r="74" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B74" s="9">
         <v>70</v>
       </c>
@@ -20142,7 +20238,7 @@
         <v>316969</v>
       </c>
     </row>
-    <row r="75" spans="2:3" x14ac:dyDescent="0.6">
+    <row r="75" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B75" s="9">
         <v>71</v>
       </c>
@@ -20151,7 +20247,7 @@
         <v>326041</v>
       </c>
     </row>
-    <row r="76" spans="2:3" x14ac:dyDescent="0.6">
+    <row r="76" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B76" s="9">
         <v>72</v>
       </c>
@@ -20160,7 +20256,7 @@
         <v>335241</v>
       </c>
     </row>
-    <row r="77" spans="2:3" x14ac:dyDescent="0.6">
+    <row r="77" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B77" s="9">
         <v>73</v>
       </c>
@@ -20169,7 +20265,7 @@
         <v>344569</v>
       </c>
     </row>
-    <row r="78" spans="2:3" x14ac:dyDescent="0.6">
+    <row r="78" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B78" s="9">
         <v>74</v>
       </c>
@@ -20178,7 +20274,7 @@
         <v>354025</v>
       </c>
     </row>
-    <row r="79" spans="2:3" x14ac:dyDescent="0.6">
+    <row r="79" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B79" s="9">
         <v>75</v>
       </c>
@@ -20187,7 +20283,7 @@
         <v>363609</v>
       </c>
     </row>
-    <row r="80" spans="2:3" x14ac:dyDescent="0.6">
+    <row r="80" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B80" s="9">
         <v>76</v>
       </c>
@@ -20196,7 +20292,7 @@
         <v>373321</v>
       </c>
     </row>
-    <row r="81" spans="2:3" x14ac:dyDescent="0.6">
+    <row r="81" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B81" s="9">
         <v>77</v>
       </c>
@@ -20205,7 +20301,7 @@
         <v>383161</v>
       </c>
     </row>
-    <row r="82" spans="2:3" x14ac:dyDescent="0.6">
+    <row r="82" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B82" s="9">
         <v>78</v>
       </c>
@@ -20214,7 +20310,7 @@
         <v>393129</v>
       </c>
     </row>
-    <row r="83" spans="2:3" x14ac:dyDescent="0.6">
+    <row r="83" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B83" s="9">
         <v>79</v>
       </c>
@@ -20223,7 +20319,7 @@
         <v>403225</v>
       </c>
     </row>
-    <row r="84" spans="2:3" x14ac:dyDescent="0.6">
+    <row r="84" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B84" s="9">
         <v>80</v>
       </c>
@@ -20232,7 +20328,7 @@
         <v>413449</v>
       </c>
     </row>
-    <row r="85" spans="2:3" x14ac:dyDescent="0.6">
+    <row r="85" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B85" s="9">
         <v>81</v>
       </c>
@@ -20241,7 +20337,7 @@
         <v>423801</v>
       </c>
     </row>
-    <row r="86" spans="2:3" x14ac:dyDescent="0.6">
+    <row r="86" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B86" s="9">
         <v>82</v>
       </c>
@@ -20250,7 +20346,7 @@
         <v>434281</v>
       </c>
     </row>
-    <row r="87" spans="2:3" x14ac:dyDescent="0.6">
+    <row r="87" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B87" s="9">
         <v>83</v>
       </c>
@@ -20259,7 +20355,7 @@
         <v>444889</v>
       </c>
     </row>
-    <row r="88" spans="2:3" x14ac:dyDescent="0.6">
+    <row r="88" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B88" s="9">
         <v>84</v>
       </c>
@@ -20268,7 +20364,7 @@
         <v>455625</v>
       </c>
     </row>
-    <row r="89" spans="2:3" x14ac:dyDescent="0.6">
+    <row r="89" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B89" s="9">
         <v>85</v>
       </c>
@@ -20277,7 +20373,7 @@
         <v>466489</v>
       </c>
     </row>
-    <row r="90" spans="2:3" x14ac:dyDescent="0.6">
+    <row r="90" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B90" s="9">
         <v>86</v>
       </c>
@@ -20286,7 +20382,7 @@
         <v>477481</v>
       </c>
     </row>
-    <row r="91" spans="2:3" x14ac:dyDescent="0.6">
+    <row r="91" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B91" s="9">
         <v>87</v>
       </c>
@@ -20295,7 +20391,7 @@
         <v>488601</v>
       </c>
     </row>
-    <row r="92" spans="2:3" x14ac:dyDescent="0.6">
+    <row r="92" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B92" s="9">
         <v>88</v>
       </c>
@@ -20304,7 +20400,7 @@
         <v>499849</v>
       </c>
     </row>
-    <row r="93" spans="2:3" x14ac:dyDescent="0.6">
+    <row r="93" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B93" s="9">
         <v>89</v>
       </c>
@@ -20313,7 +20409,7 @@
         <v>511225</v>
       </c>
     </row>
-    <row r="94" spans="2:3" x14ac:dyDescent="0.6">
+    <row r="94" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B94" s="9">
         <v>90</v>
       </c>
@@ -20322,7 +20418,7 @@
         <v>522729</v>
       </c>
     </row>
-    <row r="95" spans="2:3" x14ac:dyDescent="0.6">
+    <row r="95" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B95" s="9">
         <v>91</v>
       </c>
@@ -20331,7 +20427,7 @@
         <v>534361</v>
       </c>
     </row>
-    <row r="96" spans="2:3" x14ac:dyDescent="0.6">
+    <row r="96" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B96" s="9">
         <v>92</v>
       </c>
@@ -20340,7 +20436,7 @@
         <v>546121</v>
       </c>
     </row>
-    <row r="97" spans="2:3" x14ac:dyDescent="0.6">
+    <row r="97" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B97" s="9">
         <v>93</v>
       </c>
@@ -20349,7 +20445,7 @@
         <v>558009</v>
       </c>
     </row>
-    <row r="98" spans="2:3" x14ac:dyDescent="0.6">
+    <row r="98" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B98" s="9">
         <v>94</v>
       </c>
@@ -20358,7 +20454,7 @@
         <v>570025</v>
       </c>
     </row>
-    <row r="99" spans="2:3" x14ac:dyDescent="0.6">
+    <row r="99" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B99" s="9">
         <v>95</v>
       </c>
@@ -20367,7 +20463,7 @@
         <v>582169</v>
       </c>
     </row>
-    <row r="100" spans="2:3" x14ac:dyDescent="0.6">
+    <row r="100" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B100" s="9">
         <v>96</v>
       </c>
@@ -20376,7 +20472,7 @@
         <v>594441</v>
       </c>
     </row>
-    <row r="101" spans="2:3" x14ac:dyDescent="0.6">
+    <row r="101" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B101" s="9">
         <v>97</v>
       </c>
@@ -20385,7 +20481,7 @@
         <v>606841</v>
       </c>
     </row>
-    <row r="102" spans="2:3" x14ac:dyDescent="0.6">
+    <row r="102" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B102" s="9">
         <v>98</v>
       </c>
@@ -20394,7 +20490,7 @@
         <v>619369</v>
       </c>
     </row>
-    <row r="103" spans="2:3" x14ac:dyDescent="0.6">
+    <row r="103" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B103" s="9">
         <v>99</v>
       </c>
@@ -20403,7 +20499,7 @@
         <v>632025</v>
       </c>
     </row>
-    <row r="104" spans="2:3" x14ac:dyDescent="0.6">
+    <row r="104" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B104" s="9">
         <v>100</v>
       </c>
@@ -20421,7 +20517,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G12"/>
   <sheetViews>
@@ -20429,7 +20525,7 @@
       <selection activeCell="B4" sqref="B4:G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="21" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
@@ -20439,25 +20535,25 @@
     <col min="7" max="7" width="12.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B2" s="167" t="s">
+    <row r="2" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="168" t="s">
         <v>144</v>
       </c>
-      <c r="C2" s="167"/>
-      <c r="D2" s="167"/>
-      <c r="E2" s="167"/>
-      <c r="F2" s="167"/>
-      <c r="G2" s="167"/>
-    </row>
-    <row r="3" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B3" s="168"/>
-      <c r="C3" s="168"/>
-      <c r="D3" s="168"/>
-      <c r="E3" s="168"/>
-      <c r="F3" s="168"/>
-      <c r="G3" s="168"/>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.6">
+      <c r="C2" s="168"/>
+      <c r="D2" s="168"/>
+      <c r="E2" s="168"/>
+      <c r="F2" s="168"/>
+      <c r="G2" s="168"/>
+    </row>
+    <row r="3" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="169"/>
+      <c r="C3" s="169"/>
+      <c r="D3" s="169"/>
+      <c r="E3" s="169"/>
+      <c r="F3" s="169"/>
+      <c r="G3" s="169"/>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B4" s="38" t="s">
         <v>132</v>
       </c>
@@ -20477,7 +20573,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.6">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B5" s="51" t="s">
         <v>135</v>
       </c>
@@ -20497,7 +20593,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.6">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B6" s="51" t="s">
         <v>135</v>
       </c>
@@ -20517,7 +20613,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.6">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B7" s="52" t="s">
         <v>141</v>
       </c>
@@ -20537,7 +20633,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.6">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B8" s="52" t="s">
         <v>141</v>
       </c>
@@ -20557,7 +20653,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.6">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B9" s="53" t="s">
         <v>142</v>
       </c>
@@ -20577,7 +20673,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.6">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B10" s="53" t="s">
         <v>142</v>
       </c>
@@ -20597,7 +20693,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.6">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B11" s="54" t="s">
         <v>143</v>
       </c>
@@ -20617,7 +20713,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.6">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B12" s="54" t="s">
         <v>143</v>
       </c>

--- a/Project1/Assets/Script/Data/weaponDB.xlsx
+++ b/Project1/Assets/Script/Data/weaponDB.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="719" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="719" uniqueCount="190">
   <si>
     <t>훈련 [ n = 레벨 값 ]</t>
   </si>
@@ -1115,6 +1115,10 @@
   </si>
   <si>
     <t>weapon_double-edged-ax</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>weapon_wooden-branch</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -14491,7 +14495,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N204"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
@@ -17921,8 +17925,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -17990,7 +17994,7 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B2" s="63">
         <v>1</v>
@@ -17999,19 +18003,19 @@
         <v>1</v>
       </c>
       <c r="D2" s="63">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="E2" s="63">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="F2" s="63">
         <v>90</v>
       </c>
       <c r="G2" s="63">
-        <v>110</v>
+        <v>152</v>
       </c>
       <c r="H2" s="63">
-        <v>130</v>
+        <v>178</v>
       </c>
       <c r="I2" s="63">
         <v>150</v>
@@ -18352,7 +18356,7 @@
   <dimension ref="A1:N15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:A11"/>
+      <selection activeCell="D14" sqref="D14:F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -18453,7 +18457,7 @@
       </c>
       <c r="E4" s="65">
         <f>POWER((3+0.2*(weaponData!D2:M2-25)),2)</f>
-        <v>144</v>
+        <v>84.639999999999986</v>
       </c>
       <c r="F4" s="65">
         <f>POWER((3+0.2*(weaponData!E2:O2-25)),2)</f>
@@ -18461,11 +18465,11 @@
       </c>
       <c r="G4" s="65">
         <f>POWER((3+0.2*(weaponData!F2:P2-25)),2)</f>
-        <v>400</v>
+        <v>806.56000000000017</v>
       </c>
       <c r="H4" s="65">
         <f>POWER((3+0.2*(weaponData!G2:Q2-25)),2)</f>
-        <v>576</v>
+        <v>1128.96</v>
       </c>
       <c r="I4" s="65">
         <f>POWER((3+0.2*(weaponData!H2:R2-25)),2)</f>

--- a/Project1/Assets/Script/Data/weaponDB.xlsx
+++ b/Project1/Assets/Script/Data/weaponDB.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TeamProject1\Project1\Assets\Script\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\whdns\OneDrive\바탕 화면\새 폴더\TeamProject1\Project1\Assets\Script\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{116450E0-63AB-46A5-8036-35A8D82B874A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="1155" windowWidth="17055" windowHeight="12975" tabRatio="599" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="599" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="시스템 기획" sheetId="2" r:id="rId1"/>
@@ -21,7 +22,7 @@
     <sheet name="보물 DB" sheetId="10" r:id="rId7"/>
     <sheet name="수색 DB" sheetId="11" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="719" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="208">
   <si>
     <t>훈련 [ n = 레벨 값 ]</t>
   </si>
@@ -1114,18 +1115,71 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>weapon_double-edged-ax</t>
+    <t>weapon_1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>weapon_wooden-branch</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>weapon_9</t>
+  </si>
+  <si>
+    <t>weapon_10</t>
+  </si>
+  <si>
+    <t>weapon_11</t>
+  </si>
+  <si>
+    <t>weapon_12</t>
+  </si>
+  <si>
+    <t>weapon_13</t>
+  </si>
+  <si>
+    <t>weapon_14</t>
+  </si>
+  <si>
+    <t>weapon_15</t>
+  </si>
+  <si>
+    <t>weapon_16</t>
+  </si>
+  <si>
+    <t>weapon_17</t>
+  </si>
+  <si>
+    <t>weapon_18</t>
+  </si>
+  <si>
+    <t>weapon_19</t>
+  </si>
+  <si>
+    <t>weapon_20</t>
+  </si>
+  <si>
+    <t>weapon_2</t>
+  </si>
+  <si>
+    <t>weapon_3</t>
+  </si>
+  <si>
+    <t>weapon_4</t>
+  </si>
+  <si>
+    <t>weapon_5</t>
+  </si>
+  <si>
+    <t>weapon_6</t>
+  </si>
+  <si>
+    <t>weapon_7</t>
+  </si>
+  <si>
+    <t>weapon_8</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0%"/>
   </numFmts>
@@ -1733,7 +1787,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="176">
+  <cellXfs count="178">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1935,31 +1989,19 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1989,6 +2031,78 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2011,18 +2125,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2091,55 +2193,13 @@
     <xf numFmtId="0" fontId="2" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2191,9 +2251,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2261,6 +2318,9 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2580,7 +2640,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AV78"/>
   <sheetViews>
     <sheetView topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
@@ -2644,33 +2704,33 @@
     </row>
     <row r="2" spans="1:48" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8"/>
-      <c r="B2" s="67" t="s">
+      <c r="B2" s="96" t="s">
         <v>68</v>
       </c>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="68"/>
-      <c r="H2" s="68"/>
-      <c r="I2" s="68"/>
-      <c r="J2" s="68"/>
-      <c r="K2" s="68"/>
-      <c r="L2" s="68"/>
-      <c r="M2" s="68"/>
-      <c r="N2" s="68"/>
-      <c r="O2" s="68"/>
-      <c r="P2" s="68"/>
-      <c r="Q2" s="68"/>
-      <c r="R2" s="68"/>
-      <c r="S2" s="68"/>
-      <c r="T2" s="68"/>
-      <c r="U2" s="68"/>
-      <c r="V2" s="68"/>
-      <c r="W2" s="68"/>
-      <c r="X2" s="68"/>
-      <c r="Y2" s="68"/>
-      <c r="Z2" s="69"/>
+      <c r="C2" s="97"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="97"/>
+      <c r="F2" s="97"/>
+      <c r="G2" s="97"/>
+      <c r="H2" s="97"/>
+      <c r="I2" s="97"/>
+      <c r="J2" s="97"/>
+      <c r="K2" s="97"/>
+      <c r="L2" s="97"/>
+      <c r="M2" s="97"/>
+      <c r="N2" s="97"/>
+      <c r="O2" s="97"/>
+      <c r="P2" s="97"/>
+      <c r="Q2" s="97"/>
+      <c r="R2" s="97"/>
+      <c r="S2" s="97"/>
+      <c r="T2" s="97"/>
+      <c r="U2" s="97"/>
+      <c r="V2" s="97"/>
+      <c r="W2" s="97"/>
+      <c r="X2" s="97"/>
+      <c r="Y2" s="97"/>
+      <c r="Z2" s="98"/>
       <c r="AA2" s="8"/>
       <c r="AB2" s="8"/>
       <c r="AC2" s="8"/>
@@ -2696,31 +2756,31 @@
     </row>
     <row r="3" spans="1:48" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="8"/>
-      <c r="B3" s="70"/>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="71"/>
-      <c r="H3" s="71"/>
-      <c r="I3" s="71"/>
-      <c r="J3" s="71"/>
-      <c r="K3" s="71"/>
-      <c r="L3" s="71"/>
-      <c r="M3" s="71"/>
-      <c r="N3" s="71"/>
-      <c r="O3" s="71"/>
-      <c r="P3" s="71"/>
-      <c r="Q3" s="71"/>
-      <c r="R3" s="71"/>
-      <c r="S3" s="71"/>
-      <c r="T3" s="71"/>
-      <c r="U3" s="71"/>
-      <c r="V3" s="71"/>
-      <c r="W3" s="71"/>
-      <c r="X3" s="71"/>
-      <c r="Y3" s="71"/>
-      <c r="Z3" s="72"/>
+      <c r="B3" s="99"/>
+      <c r="C3" s="100"/>
+      <c r="D3" s="100"/>
+      <c r="E3" s="100"/>
+      <c r="F3" s="100"/>
+      <c r="G3" s="100"/>
+      <c r="H3" s="100"/>
+      <c r="I3" s="100"/>
+      <c r="J3" s="100"/>
+      <c r="K3" s="100"/>
+      <c r="L3" s="100"/>
+      <c r="M3" s="100"/>
+      <c r="N3" s="100"/>
+      <c r="O3" s="100"/>
+      <c r="P3" s="100"/>
+      <c r="Q3" s="100"/>
+      <c r="R3" s="100"/>
+      <c r="S3" s="100"/>
+      <c r="T3" s="100"/>
+      <c r="U3" s="100"/>
+      <c r="V3" s="100"/>
+      <c r="W3" s="100"/>
+      <c r="X3" s="100"/>
+      <c r="Y3" s="100"/>
+      <c r="Z3" s="101"/>
       <c r="AA3" s="8"/>
       <c r="AB3" s="8"/>
       <c r="AC3" s="8"/>
@@ -2746,31 +2806,31 @@
     </row>
     <row r="4" spans="1:48" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="8"/>
-      <c r="B4" s="73"/>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="74"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="74"/>
-      <c r="I4" s="74"/>
-      <c r="J4" s="74"/>
-      <c r="K4" s="74"/>
-      <c r="L4" s="74"/>
-      <c r="M4" s="74"/>
-      <c r="N4" s="74"/>
-      <c r="O4" s="74"/>
-      <c r="P4" s="74"/>
-      <c r="Q4" s="74"/>
-      <c r="R4" s="74"/>
-      <c r="S4" s="74"/>
-      <c r="T4" s="74"/>
-      <c r="U4" s="74"/>
-      <c r="V4" s="74"/>
-      <c r="W4" s="74"/>
-      <c r="X4" s="74"/>
-      <c r="Y4" s="74"/>
-      <c r="Z4" s="75"/>
+      <c r="B4" s="102"/>
+      <c r="C4" s="103"/>
+      <c r="D4" s="103"/>
+      <c r="E4" s="103"/>
+      <c r="F4" s="103"/>
+      <c r="G4" s="103"/>
+      <c r="H4" s="103"/>
+      <c r="I4" s="103"/>
+      <c r="J4" s="103"/>
+      <c r="K4" s="103"/>
+      <c r="L4" s="103"/>
+      <c r="M4" s="103"/>
+      <c r="N4" s="103"/>
+      <c r="O4" s="103"/>
+      <c r="P4" s="103"/>
+      <c r="Q4" s="103"/>
+      <c r="R4" s="103"/>
+      <c r="S4" s="103"/>
+      <c r="T4" s="103"/>
+      <c r="U4" s="103"/>
+      <c r="V4" s="103"/>
+      <c r="W4" s="103"/>
+      <c r="X4" s="103"/>
+      <c r="Y4" s="103"/>
+      <c r="Z4" s="104"/>
       <c r="AA4" s="8"/>
       <c r="AB4" s="8"/>
       <c r="AC4" s="8"/>
@@ -2896,10 +2956,10 @@
     </row>
     <row r="7" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A7" s="8"/>
-      <c r="B7" s="115" t="s">
+      <c r="B7" s="131" t="s">
         <v>67</v>
       </c>
-      <c r="C7" s="116"/>
+      <c r="C7" s="132"/>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
@@ -2948,8 +3008,8 @@
     </row>
     <row r="8" spans="1:48" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="8"/>
-      <c r="B8" s="117"/>
-      <c r="C8" s="118"/>
+      <c r="B8" s="133"/>
+      <c r="C8" s="134"/>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
@@ -3058,27 +3118,27 @@
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
-      <c r="L10" s="103" t="s">
+      <c r="L10" s="119" t="s">
         <v>69</v>
       </c>
-      <c r="M10" s="104"/>
-      <c r="N10" s="97" t="s">
+      <c r="M10" s="120"/>
+      <c r="N10" s="113" t="s">
         <v>24</v>
       </c>
-      <c r="O10" s="98"/>
-      <c r="P10" s="76" t="s">
+      <c r="O10" s="114"/>
+      <c r="P10" s="72" t="s">
         <v>127</v>
       </c>
-      <c r="Q10" s="77"/>
-      <c r="R10" s="77"/>
-      <c r="S10" s="77"/>
-      <c r="T10" s="77"/>
-      <c r="U10" s="77"/>
-      <c r="V10" s="77"/>
-      <c r="W10" s="77"/>
-      <c r="X10" s="77"/>
-      <c r="Y10" s="77"/>
-      <c r="Z10" s="78"/>
+      <c r="Q10" s="73"/>
+      <c r="R10" s="73"/>
+      <c r="S10" s="73"/>
+      <c r="T10" s="73"/>
+      <c r="U10" s="73"/>
+      <c r="V10" s="73"/>
+      <c r="W10" s="73"/>
+      <c r="X10" s="73"/>
+      <c r="Y10" s="73"/>
+      <c r="Z10" s="74"/>
       <c r="AA10" s="8"/>
       <c r="AB10" s="8"/>
       <c r="AC10" s="8"/>
@@ -3114,21 +3174,21 @@
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
-      <c r="L11" s="105"/>
-      <c r="M11" s="106"/>
-      <c r="N11" s="99"/>
-      <c r="O11" s="100"/>
-      <c r="P11" s="79"/>
-      <c r="Q11" s="80"/>
-      <c r="R11" s="80"/>
-      <c r="S11" s="80"/>
-      <c r="T11" s="80"/>
-      <c r="U11" s="80"/>
-      <c r="V11" s="80"/>
-      <c r="W11" s="80"/>
-      <c r="X11" s="80"/>
-      <c r="Y11" s="80"/>
-      <c r="Z11" s="81"/>
+      <c r="L11" s="121"/>
+      <c r="M11" s="122"/>
+      <c r="N11" s="115"/>
+      <c r="O11" s="116"/>
+      <c r="P11" s="75"/>
+      <c r="Q11" s="76"/>
+      <c r="R11" s="76"/>
+      <c r="S11" s="76"/>
+      <c r="T11" s="76"/>
+      <c r="U11" s="76"/>
+      <c r="V11" s="76"/>
+      <c r="W11" s="76"/>
+      <c r="X11" s="76"/>
+      <c r="Y11" s="76"/>
+      <c r="Z11" s="77"/>
       <c r="AA11" s="8"/>
       <c r="AB11" s="8"/>
       <c r="AC11" s="8"/>
@@ -3164,21 +3224,21 @@
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
-      <c r="L12" s="105"/>
-      <c r="M12" s="106"/>
-      <c r="N12" s="99"/>
-      <c r="O12" s="100"/>
-      <c r="P12" s="79"/>
-      <c r="Q12" s="80"/>
-      <c r="R12" s="80"/>
-      <c r="S12" s="80"/>
-      <c r="T12" s="80"/>
-      <c r="U12" s="80"/>
-      <c r="V12" s="80"/>
-      <c r="W12" s="80"/>
-      <c r="X12" s="80"/>
-      <c r="Y12" s="80"/>
-      <c r="Z12" s="81"/>
+      <c r="L12" s="121"/>
+      <c r="M12" s="122"/>
+      <c r="N12" s="115"/>
+      <c r="O12" s="116"/>
+      <c r="P12" s="75"/>
+      <c r="Q12" s="76"/>
+      <c r="R12" s="76"/>
+      <c r="S12" s="76"/>
+      <c r="T12" s="76"/>
+      <c r="U12" s="76"/>
+      <c r="V12" s="76"/>
+      <c r="W12" s="76"/>
+      <c r="X12" s="76"/>
+      <c r="Y12" s="76"/>
+      <c r="Z12" s="77"/>
       <c r="AA12" s="8"/>
       <c r="AB12" s="8"/>
       <c r="AC12" s="8"/>
@@ -3206,33 +3266,33 @@
       <c r="A13" s="8"/>
       <c r="B13" s="28"/>
       <c r="C13" s="29"/>
-      <c r="D13" s="115" t="s">
+      <c r="D13" s="131" t="s">
         <v>69</v>
       </c>
-      <c r="E13" s="116"/>
+      <c r="E13" s="132"/>
       <c r="F13" s="30"/>
       <c r="G13" s="31"/>
-      <c r="H13" s="89" t="s">
+      <c r="H13" s="109" t="s">
         <v>71</v>
       </c>
-      <c r="I13" s="90"/>
+      <c r="I13" s="110"/>
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
-      <c r="L13" s="105"/>
-      <c r="M13" s="106"/>
-      <c r="N13" s="101"/>
-      <c r="O13" s="102"/>
-      <c r="P13" s="82"/>
-      <c r="Q13" s="83"/>
-      <c r="R13" s="83"/>
-      <c r="S13" s="83"/>
-      <c r="T13" s="83"/>
-      <c r="U13" s="83"/>
-      <c r="V13" s="83"/>
-      <c r="W13" s="83"/>
-      <c r="X13" s="83"/>
-      <c r="Y13" s="83"/>
-      <c r="Z13" s="84"/>
+      <c r="L13" s="121"/>
+      <c r="M13" s="122"/>
+      <c r="N13" s="117"/>
+      <c r="O13" s="118"/>
+      <c r="P13" s="78"/>
+      <c r="Q13" s="79"/>
+      <c r="R13" s="79"/>
+      <c r="S13" s="79"/>
+      <c r="T13" s="79"/>
+      <c r="U13" s="79"/>
+      <c r="V13" s="79"/>
+      <c r="W13" s="79"/>
+      <c r="X13" s="79"/>
+      <c r="Y13" s="79"/>
+      <c r="Z13" s="80"/>
       <c r="AA13" s="8"/>
       <c r="AB13" s="8"/>
       <c r="AC13" s="8"/>
@@ -3260,33 +3320,33 @@
       <c r="A14" s="8"/>
       <c r="B14" s="8"/>
       <c r="C14" s="32"/>
-      <c r="D14" s="117"/>
-      <c r="E14" s="118"/>
+      <c r="D14" s="133"/>
+      <c r="E14" s="134"/>
       <c r="F14" s="33"/>
       <c r="G14" s="8"/>
-      <c r="H14" s="91"/>
-      <c r="I14" s="92"/>
+      <c r="H14" s="111"/>
+      <c r="I14" s="112"/>
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
-      <c r="L14" s="105"/>
-      <c r="M14" s="106"/>
-      <c r="N14" s="97" t="s">
+      <c r="L14" s="121"/>
+      <c r="M14" s="122"/>
+      <c r="N14" s="113" t="s">
         <v>70</v>
       </c>
-      <c r="O14" s="98"/>
-      <c r="P14" s="76" t="s">
+      <c r="O14" s="114"/>
+      <c r="P14" s="72" t="s">
         <v>125</v>
       </c>
-      <c r="Q14" s="77"/>
-      <c r="R14" s="77"/>
-      <c r="S14" s="77"/>
-      <c r="T14" s="77"/>
-      <c r="U14" s="77"/>
-      <c r="V14" s="77"/>
-      <c r="W14" s="77"/>
-      <c r="X14" s="77"/>
-      <c r="Y14" s="77"/>
-      <c r="Z14" s="78"/>
+      <c r="Q14" s="73"/>
+      <c r="R14" s="73"/>
+      <c r="S14" s="73"/>
+      <c r="T14" s="73"/>
+      <c r="U14" s="73"/>
+      <c r="V14" s="73"/>
+      <c r="W14" s="73"/>
+      <c r="X14" s="73"/>
+      <c r="Y14" s="73"/>
+      <c r="Z14" s="74"/>
       <c r="AA14" s="8"/>
       <c r="AB14" s="8"/>
       <c r="AC14" s="8"/>
@@ -3322,21 +3382,21 @@
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
-      <c r="L15" s="105"/>
-      <c r="M15" s="106"/>
-      <c r="N15" s="99"/>
-      <c r="O15" s="100"/>
-      <c r="P15" s="79"/>
-      <c r="Q15" s="80"/>
-      <c r="R15" s="80"/>
-      <c r="S15" s="80"/>
-      <c r="T15" s="80"/>
-      <c r="U15" s="80"/>
-      <c r="V15" s="80"/>
-      <c r="W15" s="80"/>
-      <c r="X15" s="80"/>
-      <c r="Y15" s="80"/>
-      <c r="Z15" s="81"/>
+      <c r="L15" s="121"/>
+      <c r="M15" s="122"/>
+      <c r="N15" s="115"/>
+      <c r="O15" s="116"/>
+      <c r="P15" s="75"/>
+      <c r="Q15" s="76"/>
+      <c r="R15" s="76"/>
+      <c r="S15" s="76"/>
+      <c r="T15" s="76"/>
+      <c r="U15" s="76"/>
+      <c r="V15" s="76"/>
+      <c r="W15" s="76"/>
+      <c r="X15" s="76"/>
+      <c r="Y15" s="76"/>
+      <c r="Z15" s="77"/>
       <c r="AA15" s="8"/>
       <c r="AB15" s="8"/>
       <c r="AC15" s="8"/>
@@ -3372,21 +3432,21 @@
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
-      <c r="L16" s="105"/>
-      <c r="M16" s="106"/>
-      <c r="N16" s="99"/>
-      <c r="O16" s="100"/>
-      <c r="P16" s="79"/>
-      <c r="Q16" s="80"/>
-      <c r="R16" s="80"/>
-      <c r="S16" s="80"/>
-      <c r="T16" s="80"/>
-      <c r="U16" s="80"/>
-      <c r="V16" s="80"/>
-      <c r="W16" s="80"/>
-      <c r="X16" s="80"/>
-      <c r="Y16" s="80"/>
-      <c r="Z16" s="81"/>
+      <c r="L16" s="121"/>
+      <c r="M16" s="122"/>
+      <c r="N16" s="115"/>
+      <c r="O16" s="116"/>
+      <c r="P16" s="75"/>
+      <c r="Q16" s="76"/>
+      <c r="R16" s="76"/>
+      <c r="S16" s="76"/>
+      <c r="T16" s="76"/>
+      <c r="U16" s="76"/>
+      <c r="V16" s="76"/>
+      <c r="W16" s="76"/>
+      <c r="X16" s="76"/>
+      <c r="Y16" s="76"/>
+      <c r="Z16" s="77"/>
       <c r="AA16" s="8"/>
       <c r="AB16" s="8"/>
       <c r="AC16" s="8"/>
@@ -3418,27 +3478,27 @@
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="34"/>
-      <c r="H17" s="89" t="s">
+      <c r="H17" s="109" t="s">
         <v>70</v>
       </c>
-      <c r="I17" s="90"/>
+      <c r="I17" s="110"/>
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
-      <c r="L17" s="107"/>
-      <c r="M17" s="108"/>
-      <c r="N17" s="101"/>
-      <c r="O17" s="102"/>
-      <c r="P17" s="82"/>
-      <c r="Q17" s="83"/>
-      <c r="R17" s="83"/>
-      <c r="S17" s="83"/>
-      <c r="T17" s="83"/>
-      <c r="U17" s="83"/>
-      <c r="V17" s="83"/>
-      <c r="W17" s="83"/>
-      <c r="X17" s="83"/>
-      <c r="Y17" s="83"/>
-      <c r="Z17" s="84"/>
+      <c r="L17" s="123"/>
+      <c r="M17" s="124"/>
+      <c r="N17" s="117"/>
+      <c r="O17" s="118"/>
+      <c r="P17" s="78"/>
+      <c r="Q17" s="79"/>
+      <c r="R17" s="79"/>
+      <c r="S17" s="79"/>
+      <c r="T17" s="79"/>
+      <c r="U17" s="79"/>
+      <c r="V17" s="79"/>
+      <c r="W17" s="79"/>
+      <c r="X17" s="79"/>
+      <c r="Y17" s="79"/>
+      <c r="Z17" s="80"/>
       <c r="AA17" s="8"/>
       <c r="AB17" s="8"/>
       <c r="AC17" s="8"/>
@@ -3470,31 +3530,31 @@
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="35"/>
-      <c r="H18" s="91"/>
-      <c r="I18" s="92"/>
+      <c r="H18" s="111"/>
+      <c r="I18" s="112"/>
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
-      <c r="L18" s="109" t="s">
+      <c r="L18" s="125" t="s">
         <v>72</v>
       </c>
-      <c r="M18" s="110"/>
-      <c r="N18" s="127" t="s">
+      <c r="M18" s="126"/>
+      <c r="N18" s="94" t="s">
         <v>73</v>
       </c>
-      <c r="O18" s="128"/>
-      <c r="P18" s="76" t="s">
+      <c r="O18" s="89"/>
+      <c r="P18" s="72" t="s">
         <v>124</v>
       </c>
-      <c r="Q18" s="122"/>
-      <c r="R18" s="122"/>
-      <c r="S18" s="122"/>
-      <c r="T18" s="122"/>
-      <c r="U18" s="122"/>
-      <c r="V18" s="122"/>
-      <c r="W18" s="122"/>
-      <c r="X18" s="122"/>
-      <c r="Y18" s="122"/>
-      <c r="Z18" s="123"/>
+      <c r="Q18" s="81"/>
+      <c r="R18" s="81"/>
+      <c r="S18" s="81"/>
+      <c r="T18" s="81"/>
+      <c r="U18" s="81"/>
+      <c r="V18" s="81"/>
+      <c r="W18" s="81"/>
+      <c r="X18" s="81"/>
+      <c r="Y18" s="81"/>
+      <c r="Z18" s="82"/>
       <c r="AA18" s="8"/>
       <c r="AB18" s="8"/>
       <c r="AC18" s="8"/>
@@ -3530,21 +3590,21 @@
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
       <c r="K19" s="8"/>
-      <c r="L19" s="111"/>
-      <c r="M19" s="112"/>
-      <c r="N19" s="129"/>
-      <c r="O19" s="130"/>
-      <c r="P19" s="124"/>
-      <c r="Q19" s="125"/>
-      <c r="R19" s="125"/>
-      <c r="S19" s="125"/>
-      <c r="T19" s="125"/>
-      <c r="U19" s="125"/>
-      <c r="V19" s="125"/>
-      <c r="W19" s="125"/>
-      <c r="X19" s="125"/>
-      <c r="Y19" s="125"/>
-      <c r="Z19" s="126"/>
+      <c r="L19" s="127"/>
+      <c r="M19" s="128"/>
+      <c r="N19" s="95"/>
+      <c r="O19" s="93"/>
+      <c r="P19" s="83"/>
+      <c r="Q19" s="84"/>
+      <c r="R19" s="84"/>
+      <c r="S19" s="84"/>
+      <c r="T19" s="84"/>
+      <c r="U19" s="84"/>
+      <c r="V19" s="84"/>
+      <c r="W19" s="84"/>
+      <c r="X19" s="84"/>
+      <c r="Y19" s="84"/>
+      <c r="Z19" s="85"/>
       <c r="AA19" s="8"/>
       <c r="AB19" s="8"/>
       <c r="AC19" s="8"/>
@@ -3580,25 +3640,25 @@
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
-      <c r="L20" s="111"/>
-      <c r="M20" s="112"/>
-      <c r="N20" s="127" t="s">
+      <c r="L20" s="127"/>
+      <c r="M20" s="128"/>
+      <c r="N20" s="94" t="s">
         <v>74</v>
       </c>
-      <c r="O20" s="128"/>
-      <c r="P20" s="131" t="s">
+      <c r="O20" s="89"/>
+      <c r="P20" s="86" t="s">
         <v>123</v>
       </c>
-      <c r="Q20" s="122"/>
-      <c r="R20" s="122"/>
-      <c r="S20" s="122"/>
-      <c r="T20" s="122"/>
-      <c r="U20" s="122"/>
-      <c r="V20" s="122"/>
-      <c r="W20" s="122"/>
-      <c r="X20" s="122"/>
-      <c r="Y20" s="122"/>
-      <c r="Z20" s="123"/>
+      <c r="Q20" s="81"/>
+      <c r="R20" s="81"/>
+      <c r="S20" s="81"/>
+      <c r="T20" s="81"/>
+      <c r="U20" s="81"/>
+      <c r="V20" s="81"/>
+      <c r="W20" s="81"/>
+      <c r="X20" s="81"/>
+      <c r="Y20" s="81"/>
+      <c r="Z20" s="82"/>
       <c r="AA20" s="8"/>
       <c r="AB20" s="8"/>
       <c r="AC20" s="8"/>
@@ -3626,33 +3686,33 @@
       <c r="A21" s="8"/>
       <c r="B21" s="8"/>
       <c r="C21" s="29"/>
-      <c r="D21" s="85" t="s">
+      <c r="D21" s="105" t="s">
         <v>72</v>
       </c>
-      <c r="E21" s="86"/>
+      <c r="E21" s="106"/>
       <c r="F21" s="30"/>
       <c r="G21" s="31"/>
-      <c r="H21" s="93" t="s">
+      <c r="H21" s="68" t="s">
         <v>73</v>
       </c>
-      <c r="I21" s="94"/>
+      <c r="I21" s="69"/>
       <c r="J21" s="8"/>
       <c r="K21" s="8"/>
-      <c r="L21" s="111"/>
-      <c r="M21" s="112"/>
-      <c r="N21" s="129"/>
-      <c r="O21" s="130"/>
-      <c r="P21" s="124"/>
-      <c r="Q21" s="125"/>
-      <c r="R21" s="125"/>
-      <c r="S21" s="125"/>
-      <c r="T21" s="125"/>
-      <c r="U21" s="125"/>
-      <c r="V21" s="125"/>
-      <c r="W21" s="125"/>
-      <c r="X21" s="125"/>
-      <c r="Y21" s="125"/>
-      <c r="Z21" s="126"/>
+      <c r="L21" s="127"/>
+      <c r="M21" s="128"/>
+      <c r="N21" s="95"/>
+      <c r="O21" s="93"/>
+      <c r="P21" s="83"/>
+      <c r="Q21" s="84"/>
+      <c r="R21" s="84"/>
+      <c r="S21" s="84"/>
+      <c r="T21" s="84"/>
+      <c r="U21" s="84"/>
+      <c r="V21" s="84"/>
+      <c r="W21" s="84"/>
+      <c r="X21" s="84"/>
+      <c r="Y21" s="84"/>
+      <c r="Z21" s="85"/>
       <c r="AA21" s="8"/>
       <c r="AB21" s="8"/>
       <c r="AC21" s="8"/>
@@ -3680,33 +3740,33 @@
       <c r="A22" s="8"/>
       <c r="B22" s="8"/>
       <c r="C22" s="36"/>
-      <c r="D22" s="87"/>
-      <c r="E22" s="88"/>
+      <c r="D22" s="107"/>
+      <c r="E22" s="108"/>
       <c r="F22" s="33"/>
       <c r="G22" s="8"/>
-      <c r="H22" s="95"/>
-      <c r="I22" s="96"/>
+      <c r="H22" s="70"/>
+      <c r="I22" s="71"/>
       <c r="J22" s="8"/>
       <c r="K22" s="8"/>
-      <c r="L22" s="111"/>
-      <c r="M22" s="112"/>
-      <c r="N22" s="119" t="s">
+      <c r="L22" s="127"/>
+      <c r="M22" s="128"/>
+      <c r="N22" s="88" t="s">
         <v>75</v>
       </c>
-      <c r="O22" s="128"/>
-      <c r="P22" s="132" t="s">
+      <c r="O22" s="89"/>
+      <c r="P22" s="87" t="s">
         <v>122</v>
       </c>
-      <c r="Q22" s="77"/>
-      <c r="R22" s="77"/>
-      <c r="S22" s="77"/>
-      <c r="T22" s="77"/>
-      <c r="U22" s="77"/>
-      <c r="V22" s="77"/>
-      <c r="W22" s="77"/>
-      <c r="X22" s="77"/>
-      <c r="Y22" s="77"/>
-      <c r="Z22" s="78"/>
+      <c r="Q22" s="73"/>
+      <c r="R22" s="73"/>
+      <c r="S22" s="73"/>
+      <c r="T22" s="73"/>
+      <c r="U22" s="73"/>
+      <c r="V22" s="73"/>
+      <c r="W22" s="73"/>
+      <c r="X22" s="73"/>
+      <c r="Y22" s="73"/>
+      <c r="Z22" s="74"/>
       <c r="AA22" s="8"/>
       <c r="AB22" s="8"/>
       <c r="AC22" s="8"/>
@@ -3742,21 +3802,21 @@
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
       <c r="K23" s="8"/>
-      <c r="L23" s="111"/>
-      <c r="M23" s="112"/>
-      <c r="N23" s="120"/>
-      <c r="O23" s="133"/>
-      <c r="P23" s="79"/>
-      <c r="Q23" s="80"/>
-      <c r="R23" s="80"/>
-      <c r="S23" s="80"/>
-      <c r="T23" s="80"/>
-      <c r="U23" s="80"/>
-      <c r="V23" s="80"/>
-      <c r="W23" s="80"/>
-      <c r="X23" s="80"/>
-      <c r="Y23" s="80"/>
-      <c r="Z23" s="81"/>
+      <c r="L23" s="127"/>
+      <c r="M23" s="128"/>
+      <c r="N23" s="90"/>
+      <c r="O23" s="91"/>
+      <c r="P23" s="75"/>
+      <c r="Q23" s="76"/>
+      <c r="R23" s="76"/>
+      <c r="S23" s="76"/>
+      <c r="T23" s="76"/>
+      <c r="U23" s="76"/>
+      <c r="V23" s="76"/>
+      <c r="W23" s="76"/>
+      <c r="X23" s="76"/>
+      <c r="Y23" s="76"/>
+      <c r="Z23" s="77"/>
       <c r="AA23" s="8"/>
       <c r="AB23" s="8"/>
       <c r="AC23" s="8"/>
@@ -3792,21 +3852,21 @@
       <c r="I24" s="8"/>
       <c r="J24" s="8"/>
       <c r="K24" s="8"/>
-      <c r="L24" s="111"/>
-      <c r="M24" s="112"/>
-      <c r="N24" s="120"/>
-      <c r="O24" s="133"/>
-      <c r="P24" s="79"/>
-      <c r="Q24" s="80"/>
-      <c r="R24" s="80"/>
-      <c r="S24" s="80"/>
-      <c r="T24" s="80"/>
-      <c r="U24" s="80"/>
-      <c r="V24" s="80"/>
-      <c r="W24" s="80"/>
-      <c r="X24" s="80"/>
-      <c r="Y24" s="80"/>
-      <c r="Z24" s="81"/>
+      <c r="L24" s="127"/>
+      <c r="M24" s="128"/>
+      <c r="N24" s="90"/>
+      <c r="O24" s="91"/>
+      <c r="P24" s="75"/>
+      <c r="Q24" s="76"/>
+      <c r="R24" s="76"/>
+      <c r="S24" s="76"/>
+      <c r="T24" s="76"/>
+      <c r="U24" s="76"/>
+      <c r="V24" s="76"/>
+      <c r="W24" s="76"/>
+      <c r="X24" s="76"/>
+      <c r="Y24" s="76"/>
+      <c r="Z24" s="77"/>
       <c r="AA24" s="8"/>
       <c r="AB24" s="8"/>
       <c r="AC24" s="8"/>
@@ -3842,21 +3902,21 @@
       <c r="I25" s="8"/>
       <c r="J25" s="8"/>
       <c r="K25" s="8"/>
-      <c r="L25" s="111"/>
-      <c r="M25" s="112"/>
-      <c r="N25" s="121"/>
-      <c r="O25" s="130"/>
-      <c r="P25" s="82"/>
-      <c r="Q25" s="83"/>
-      <c r="R25" s="83"/>
-      <c r="S25" s="83"/>
-      <c r="T25" s="83"/>
-      <c r="U25" s="83"/>
-      <c r="V25" s="83"/>
-      <c r="W25" s="83"/>
-      <c r="X25" s="83"/>
-      <c r="Y25" s="83"/>
-      <c r="Z25" s="84"/>
+      <c r="L25" s="127"/>
+      <c r="M25" s="128"/>
+      <c r="N25" s="92"/>
+      <c r="O25" s="93"/>
+      <c r="P25" s="78"/>
+      <c r="Q25" s="79"/>
+      <c r="R25" s="79"/>
+      <c r="S25" s="79"/>
+      <c r="T25" s="79"/>
+      <c r="U25" s="79"/>
+      <c r="V25" s="79"/>
+      <c r="W25" s="79"/>
+      <c r="X25" s="79"/>
+      <c r="Y25" s="79"/>
+      <c r="Z25" s="80"/>
       <c r="AA25" s="8"/>
       <c r="AB25" s="8"/>
       <c r="AC25" s="8"/>
@@ -3888,31 +3948,31 @@
       <c r="E26" s="8"/>
       <c r="F26" s="28"/>
       <c r="G26" s="28"/>
-      <c r="H26" s="93" t="s">
+      <c r="H26" s="68" t="s">
         <v>74</v>
       </c>
-      <c r="I26" s="94"/>
+      <c r="I26" s="69"/>
       <c r="J26" s="8"/>
       <c r="K26" s="8"/>
-      <c r="L26" s="111"/>
-      <c r="M26" s="112"/>
-      <c r="N26" s="119" t="s">
+      <c r="L26" s="127"/>
+      <c r="M26" s="128"/>
+      <c r="N26" s="88" t="s">
         <v>76</v>
       </c>
-      <c r="O26" s="119"/>
-      <c r="P26" s="76" t="s">
+      <c r="O26" s="88"/>
+      <c r="P26" s="72" t="s">
         <v>131</v>
       </c>
-      <c r="Q26" s="77"/>
-      <c r="R26" s="77"/>
-      <c r="S26" s="77"/>
-      <c r="T26" s="77"/>
-      <c r="U26" s="77"/>
-      <c r="V26" s="77"/>
-      <c r="W26" s="77"/>
-      <c r="X26" s="77"/>
-      <c r="Y26" s="77"/>
-      <c r="Z26" s="78"/>
+      <c r="Q26" s="73"/>
+      <c r="R26" s="73"/>
+      <c r="S26" s="73"/>
+      <c r="T26" s="73"/>
+      <c r="U26" s="73"/>
+      <c r="V26" s="73"/>
+      <c r="W26" s="73"/>
+      <c r="X26" s="73"/>
+      <c r="Y26" s="73"/>
+      <c r="Z26" s="74"/>
       <c r="AA26" s="8"/>
       <c r="AB26" s="8"/>
       <c r="AC26" s="8"/>
@@ -3944,25 +4004,25 @@
       <c r="E27" s="8"/>
       <c r="F27" s="28"/>
       <c r="G27" s="36"/>
-      <c r="H27" s="95"/>
-      <c r="I27" s="96"/>
+      <c r="H27" s="70"/>
+      <c r="I27" s="71"/>
       <c r="J27" s="8"/>
       <c r="K27" s="8"/>
-      <c r="L27" s="111"/>
-      <c r="M27" s="112"/>
-      <c r="N27" s="120"/>
-      <c r="O27" s="120"/>
-      <c r="P27" s="79"/>
-      <c r="Q27" s="80"/>
-      <c r="R27" s="80"/>
-      <c r="S27" s="80"/>
-      <c r="T27" s="80"/>
-      <c r="U27" s="80"/>
-      <c r="V27" s="80"/>
-      <c r="W27" s="80"/>
-      <c r="X27" s="80"/>
-      <c r="Y27" s="80"/>
-      <c r="Z27" s="81"/>
+      <c r="L27" s="127"/>
+      <c r="M27" s="128"/>
+      <c r="N27" s="90"/>
+      <c r="O27" s="90"/>
+      <c r="P27" s="75"/>
+      <c r="Q27" s="76"/>
+      <c r="R27" s="76"/>
+      <c r="S27" s="76"/>
+      <c r="T27" s="76"/>
+      <c r="U27" s="76"/>
+      <c r="V27" s="76"/>
+      <c r="W27" s="76"/>
+      <c r="X27" s="76"/>
+      <c r="Y27" s="76"/>
+      <c r="Z27" s="77"/>
       <c r="AA27" s="8"/>
       <c r="AB27" s="8"/>
       <c r="AC27" s="8"/>
@@ -3998,21 +4058,21 @@
       <c r="I28" s="8"/>
       <c r="J28" s="8"/>
       <c r="K28" s="8"/>
-      <c r="L28" s="111"/>
-      <c r="M28" s="112"/>
-      <c r="N28" s="120"/>
-      <c r="O28" s="120"/>
-      <c r="P28" s="79"/>
-      <c r="Q28" s="80"/>
-      <c r="R28" s="80"/>
-      <c r="S28" s="80"/>
-      <c r="T28" s="80"/>
-      <c r="U28" s="80"/>
-      <c r="V28" s="80"/>
-      <c r="W28" s="80"/>
-      <c r="X28" s="80"/>
-      <c r="Y28" s="80"/>
-      <c r="Z28" s="81"/>
+      <c r="L28" s="127"/>
+      <c r="M28" s="128"/>
+      <c r="N28" s="90"/>
+      <c r="O28" s="90"/>
+      <c r="P28" s="75"/>
+      <c r="Q28" s="76"/>
+      <c r="R28" s="76"/>
+      <c r="S28" s="76"/>
+      <c r="T28" s="76"/>
+      <c r="U28" s="76"/>
+      <c r="V28" s="76"/>
+      <c r="W28" s="76"/>
+      <c r="X28" s="76"/>
+      <c r="Y28" s="76"/>
+      <c r="Z28" s="77"/>
       <c r="AA28" s="8"/>
       <c r="AB28" s="8"/>
       <c r="AC28" s="8"/>
@@ -4048,21 +4108,21 @@
       <c r="I29" s="8"/>
       <c r="J29" s="8"/>
       <c r="K29" s="8"/>
-      <c r="L29" s="111"/>
-      <c r="M29" s="112"/>
-      <c r="N29" s="121"/>
-      <c r="O29" s="121"/>
-      <c r="P29" s="82"/>
-      <c r="Q29" s="83"/>
-      <c r="R29" s="83"/>
-      <c r="S29" s="83"/>
-      <c r="T29" s="83"/>
-      <c r="U29" s="83"/>
-      <c r="V29" s="83"/>
-      <c r="W29" s="83"/>
-      <c r="X29" s="83"/>
-      <c r="Y29" s="83"/>
-      <c r="Z29" s="84"/>
+      <c r="L29" s="127"/>
+      <c r="M29" s="128"/>
+      <c r="N29" s="92"/>
+      <c r="O29" s="92"/>
+      <c r="P29" s="78"/>
+      <c r="Q29" s="79"/>
+      <c r="R29" s="79"/>
+      <c r="S29" s="79"/>
+      <c r="T29" s="79"/>
+      <c r="U29" s="79"/>
+      <c r="V29" s="79"/>
+      <c r="W29" s="79"/>
+      <c r="X29" s="79"/>
+      <c r="Y29" s="79"/>
+      <c r="Z29" s="80"/>
       <c r="AA29" s="8"/>
       <c r="AB29" s="8"/>
       <c r="AC29" s="8"/>
@@ -4098,25 +4158,25 @@
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
       <c r="K30" s="8"/>
-      <c r="L30" s="111"/>
-      <c r="M30" s="112"/>
-      <c r="N30" s="127" t="s">
+      <c r="L30" s="127"/>
+      <c r="M30" s="128"/>
+      <c r="N30" s="94" t="s">
         <v>77</v>
       </c>
-      <c r="O30" s="128"/>
-      <c r="P30" s="76" t="s">
+      <c r="O30" s="89"/>
+      <c r="P30" s="72" t="s">
         <v>121</v>
       </c>
-      <c r="Q30" s="122"/>
-      <c r="R30" s="122"/>
-      <c r="S30" s="122"/>
-      <c r="T30" s="122"/>
-      <c r="U30" s="122"/>
-      <c r="V30" s="122"/>
-      <c r="W30" s="122"/>
-      <c r="X30" s="122"/>
-      <c r="Y30" s="122"/>
-      <c r="Z30" s="123"/>
+      <c r="Q30" s="81"/>
+      <c r="R30" s="81"/>
+      <c r="S30" s="81"/>
+      <c r="T30" s="81"/>
+      <c r="U30" s="81"/>
+      <c r="V30" s="81"/>
+      <c r="W30" s="81"/>
+      <c r="X30" s="81"/>
+      <c r="Y30" s="81"/>
+      <c r="Z30" s="82"/>
       <c r="AA30" s="8"/>
       <c r="AB30" s="8"/>
       <c r="AC30" s="8"/>
@@ -4148,27 +4208,27 @@
       <c r="E31" s="8"/>
       <c r="F31" s="28"/>
       <c r="G31" s="28"/>
-      <c r="H31" s="93" t="s">
+      <c r="H31" s="68" t="s">
         <v>75</v>
       </c>
-      <c r="I31" s="94"/>
+      <c r="I31" s="69"/>
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
-      <c r="L31" s="113"/>
-      <c r="M31" s="114"/>
-      <c r="N31" s="129"/>
-      <c r="O31" s="130"/>
-      <c r="P31" s="124"/>
-      <c r="Q31" s="125"/>
-      <c r="R31" s="125"/>
-      <c r="S31" s="125"/>
-      <c r="T31" s="125"/>
-      <c r="U31" s="125"/>
-      <c r="V31" s="125"/>
-      <c r="W31" s="125"/>
-      <c r="X31" s="125"/>
-      <c r="Y31" s="125"/>
-      <c r="Z31" s="126"/>
+      <c r="L31" s="129"/>
+      <c r="M31" s="130"/>
+      <c r="N31" s="95"/>
+      <c r="O31" s="93"/>
+      <c r="P31" s="83"/>
+      <c r="Q31" s="84"/>
+      <c r="R31" s="84"/>
+      <c r="S31" s="84"/>
+      <c r="T31" s="84"/>
+      <c r="U31" s="84"/>
+      <c r="V31" s="84"/>
+      <c r="W31" s="84"/>
+      <c r="X31" s="84"/>
+      <c r="Y31" s="84"/>
+      <c r="Z31" s="85"/>
       <c r="AA31" s="8"/>
       <c r="AB31" s="8"/>
       <c r="AC31" s="8"/>
@@ -4200,8 +4260,8 @@
       <c r="E32" s="8"/>
       <c r="F32" s="28"/>
       <c r="G32" s="36"/>
-      <c r="H32" s="95"/>
-      <c r="I32" s="96"/>
+      <c r="H32" s="70"/>
+      <c r="I32" s="71"/>
       <c r="J32" s="8"/>
       <c r="K32" s="8"/>
       <c r="L32" s="8"/>
@@ -4400,10 +4460,10 @@
       <c r="E36" s="8"/>
       <c r="F36" s="28"/>
       <c r="G36" s="28"/>
-      <c r="H36" s="93" t="s">
+      <c r="H36" s="68" t="s">
         <v>76</v>
       </c>
-      <c r="I36" s="94"/>
+      <c r="I36" s="69"/>
       <c r="J36" s="8"/>
       <c r="K36" s="8"/>
       <c r="L36" s="8"/>
@@ -4452,8 +4512,8 @@
       <c r="E37" s="8"/>
       <c r="F37" s="28"/>
       <c r="G37" s="36"/>
-      <c r="H37" s="95"/>
-      <c r="I37" s="96"/>
+      <c r="H37" s="70"/>
+      <c r="I37" s="71"/>
       <c r="J37" s="8"/>
       <c r="K37" s="8"/>
       <c r="L37" s="8"/>
@@ -4652,10 +4712,10 @@
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="29"/>
-      <c r="H41" s="93" t="s">
+      <c r="H41" s="68" t="s">
         <v>77</v>
       </c>
-      <c r="I41" s="94"/>
+      <c r="I41" s="69"/>
       <c r="J41" s="8"/>
       <c r="K41" s="8"/>
       <c r="L41" s="8"/>
@@ -4704,8 +4764,8 @@
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="36"/>
-      <c r="H42" s="95"/>
-      <c r="I42" s="96"/>
+      <c r="H42" s="70"/>
+      <c r="I42" s="71"/>
       <c r="J42" s="19"/>
       <c r="K42" s="19"/>
       <c r="L42" s="19"/>
@@ -6337,17 +6397,6 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="H41:I42"/>
-    <mergeCell ref="H36:I37"/>
-    <mergeCell ref="H31:I32"/>
-    <mergeCell ref="H26:I27"/>
-    <mergeCell ref="P10:Z13"/>
-    <mergeCell ref="P18:Z19"/>
-    <mergeCell ref="P20:Z21"/>
-    <mergeCell ref="P22:Z25"/>
-    <mergeCell ref="N22:O25"/>
-    <mergeCell ref="N18:O19"/>
-    <mergeCell ref="N20:O21"/>
     <mergeCell ref="B2:Z4"/>
     <mergeCell ref="P14:Z17"/>
     <mergeCell ref="D21:E22"/>
@@ -6364,6 +6413,17 @@
     <mergeCell ref="P26:Z29"/>
     <mergeCell ref="P30:Z31"/>
     <mergeCell ref="N30:O31"/>
+    <mergeCell ref="H41:I42"/>
+    <mergeCell ref="H36:I37"/>
+    <mergeCell ref="H31:I32"/>
+    <mergeCell ref="H26:I27"/>
+    <mergeCell ref="P10:Z13"/>
+    <mergeCell ref="P18:Z19"/>
+    <mergeCell ref="P20:Z21"/>
+    <mergeCell ref="P22:Z25"/>
+    <mergeCell ref="N22:O25"/>
+    <mergeCell ref="N18:O19"/>
+    <mergeCell ref="N20:O21"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6371,7 +6431,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AA108"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -6385,140 +6445,140 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="136" t="s">
+      <c r="B1" s="138" t="s">
         <v>78</v>
       </c>
-      <c r="C1" s="145"/>
-      <c r="D1" s="136" t="s">
+      <c r="C1" s="147"/>
+      <c r="D1" s="138" t="s">
         <v>80</v>
       </c>
-      <c r="E1" s="148"/>
-      <c r="F1" s="149"/>
-      <c r="I1" s="136" t="s">
+      <c r="E1" s="150"/>
+      <c r="F1" s="151"/>
+      <c r="I1" s="138" t="s">
         <v>79</v>
       </c>
-      <c r="J1" s="137"/>
-      <c r="K1" s="136" t="s">
+      <c r="J1" s="139"/>
+      <c r="K1" s="138" t="s">
         <v>81</v>
       </c>
-      <c r="L1" s="140"/>
-      <c r="M1" s="141"/>
-      <c r="P1" s="153" t="s">
+      <c r="L1" s="142"/>
+      <c r="M1" s="143"/>
+      <c r="P1" s="137" t="s">
         <v>82</v>
       </c>
-      <c r="Q1" s="153"/>
-      <c r="R1" s="153" t="s">
+      <c r="Q1" s="137"/>
+      <c r="R1" s="137" t="s">
         <v>83</v>
       </c>
-      <c r="S1" s="153"/>
-      <c r="T1" s="153"/>
-      <c r="W1" s="153" t="s">
+      <c r="S1" s="137"/>
+      <c r="T1" s="137"/>
+      <c r="W1" s="137" t="s">
         <v>84</v>
       </c>
-      <c r="X1" s="153"/>
-      <c r="Y1" s="153" t="s">
+      <c r="X1" s="137"/>
+      <c r="Y1" s="137" t="s">
         <v>85</v>
       </c>
-      <c r="Z1" s="153"/>
-      <c r="AA1" s="153"/>
+      <c r="Z1" s="137"/>
+      <c r="AA1" s="137"/>
     </row>
     <row r="2" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="146"/>
-      <c r="C2" s="147"/>
-      <c r="D2" s="150"/>
-      <c r="E2" s="151"/>
-      <c r="F2" s="152"/>
-      <c r="I2" s="138"/>
-      <c r="J2" s="139"/>
-      <c r="K2" s="142"/>
-      <c r="L2" s="143"/>
-      <c r="M2" s="144"/>
-      <c r="P2" s="153"/>
-      <c r="Q2" s="153"/>
-      <c r="R2" s="153"/>
-      <c r="S2" s="153"/>
-      <c r="T2" s="153"/>
-      <c r="W2" s="153"/>
-      <c r="X2" s="153"/>
-      <c r="Y2" s="153"/>
-      <c r="Z2" s="153"/>
-      <c r="AA2" s="153"/>
+      <c r="B2" s="148"/>
+      <c r="C2" s="149"/>
+      <c r="D2" s="152"/>
+      <c r="E2" s="153"/>
+      <c r="F2" s="154"/>
+      <c r="I2" s="140"/>
+      <c r="J2" s="141"/>
+      <c r="K2" s="144"/>
+      <c r="L2" s="145"/>
+      <c r="M2" s="146"/>
+      <c r="P2" s="137"/>
+      <c r="Q2" s="137"/>
+      <c r="R2" s="137"/>
+      <c r="S2" s="137"/>
+      <c r="T2" s="137"/>
+      <c r="W2" s="137"/>
+      <c r="X2" s="137"/>
+      <c r="Y2" s="137"/>
+      <c r="Z2" s="137"/>
+      <c r="AA2" s="137"/>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="B3" s="135" t="s">
+      <c r="B3" s="136" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="135"/>
-      <c r="D3" s="135"/>
-      <c r="E3" s="135" t="s">
+      <c r="C3" s="136"/>
+      <c r="D3" s="136"/>
+      <c r="E3" s="136" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="135"/>
-      <c r="I3" s="135" t="s">
+      <c r="F3" s="136"/>
+      <c r="I3" s="136" t="s">
         <v>18</v>
       </c>
-      <c r="J3" s="135"/>
-      <c r="K3" s="135"/>
-      <c r="L3" s="135" t="s">
+      <c r="J3" s="136"/>
+      <c r="K3" s="136"/>
+      <c r="L3" s="136" t="s">
         <v>19</v>
       </c>
-      <c r="M3" s="135"/>
-      <c r="P3" s="135" t="s">
+      <c r="M3" s="136"/>
+      <c r="P3" s="136" t="s">
         <v>0</v>
       </c>
-      <c r="Q3" s="135"/>
-      <c r="R3" s="135"/>
-      <c r="S3" s="135" t="s">
+      <c r="Q3" s="136"/>
+      <c r="R3" s="136"/>
+      <c r="S3" s="136" t="s">
         <v>19</v>
       </c>
-      <c r="T3" s="135"/>
-      <c r="W3" s="135" t="s">
+      <c r="T3" s="136"/>
+      <c r="W3" s="136" t="s">
         <v>0</v>
       </c>
-      <c r="X3" s="135"/>
-      <c r="Y3" s="135"/>
-      <c r="Z3" s="135" t="s">
+      <c r="X3" s="136"/>
+      <c r="Y3" s="136"/>
+      <c r="Z3" s="136" t="s">
         <v>19</v>
       </c>
-      <c r="AA3" s="135"/>
+      <c r="AA3" s="136"/>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="B4" s="135" t="s">
+      <c r="B4" s="136" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="135"/>
-      <c r="D4" s="135"/>
-      <c r="E4" s="135" t="s">
+      <c r="C4" s="136"/>
+      <c r="D4" s="136"/>
+      <c r="E4" s="136" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="135"/>
-      <c r="I4" s="135" t="s">
+      <c r="F4" s="136"/>
+      <c r="I4" s="136" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="135"/>
-      <c r="K4" s="135"/>
-      <c r="L4" s="135" t="s">
+      <c r="J4" s="136"/>
+      <c r="K4" s="136"/>
+      <c r="L4" s="136" t="s">
         <v>20</v>
       </c>
-      <c r="M4" s="135"/>
-      <c r="P4" s="135" t="s">
+      <c r="M4" s="136"/>
+      <c r="P4" s="136" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="135"/>
-      <c r="R4" s="135"/>
-      <c r="S4" s="135" t="s">
+      <c r="Q4" s="136"/>
+      <c r="R4" s="136"/>
+      <c r="S4" s="136" t="s">
         <v>21</v>
       </c>
-      <c r="T4" s="135"/>
-      <c r="W4" s="135" t="s">
+      <c r="T4" s="136"/>
+      <c r="W4" s="136" t="s">
         <v>8</v>
       </c>
-      <c r="X4" s="135"/>
-      <c r="Y4" s="135"/>
-      <c r="Z4" s="135" t="s">
+      <c r="X4" s="136"/>
+      <c r="Y4" s="136"/>
+      <c r="Z4" s="136" t="s">
         <v>21</v>
       </c>
-      <c r="AA4" s="135"/>
+      <c r="AA4" s="136"/>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B5" s="10" t="s">
@@ -14383,10 +14443,10 @@
       </c>
     </row>
     <row r="106" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="B106" s="134" t="s">
+      <c r="B106" s="135" t="s">
         <v>14</v>
       </c>
-      <c r="C106" s="134"/>
+      <c r="C106" s="135"/>
       <c r="D106" s="5">
         <f>SUM(D6:D105)</f>
         <v>87316</v>
@@ -14397,10 +14457,10 @@
       <c r="F106" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="I106" s="134" t="s">
+      <c r="I106" s="135" t="s">
         <v>4</v>
       </c>
-      <c r="J106" s="134"/>
+      <c r="J106" s="135"/>
       <c r="K106" s="5">
         <f>SUM(K6:K105)</f>
         <v>360244</v>
@@ -14411,10 +14471,10 @@
       <c r="M106" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="P106" s="134" t="s">
+      <c r="P106" s="135" t="s">
         <v>4</v>
       </c>
-      <c r="Q106" s="134"/>
+      <c r="Q106" s="135"/>
       <c r="R106" s="5">
         <f>SUM(Q6:Q105)</f>
         <v>2195776.0000000005</v>
@@ -14425,10 +14485,10 @@
       <c r="T106" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="W106" s="134" t="s">
+      <c r="W106" s="135" t="s">
         <v>4</v>
       </c>
-      <c r="X106" s="134"/>
+      <c r="X106" s="135"/>
       <c r="Y106" s="5">
         <f>SUM(X6:X105)</f>
         <v>5760000</v>
@@ -14456,22 +14516,6 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="P106:Q106"/>
-    <mergeCell ref="W106:X106"/>
-    <mergeCell ref="Z3:AA3"/>
-    <mergeCell ref="Z4:AA4"/>
-    <mergeCell ref="S3:T3"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="P1:Q2"/>
-    <mergeCell ref="R1:T2"/>
-    <mergeCell ref="W1:X2"/>
-    <mergeCell ref="Y1:AA2"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="P3:R3"/>
-    <mergeCell ref="P4:R4"/>
-    <mergeCell ref="W3:Y3"/>
-    <mergeCell ref="W4:Y4"/>
     <mergeCell ref="B106:C106"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="I3:K3"/>
@@ -14484,6 +14528,22 @@
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="B4:D4"/>
+    <mergeCell ref="P1:Q2"/>
+    <mergeCell ref="R1:T2"/>
+    <mergeCell ref="W1:X2"/>
+    <mergeCell ref="Y1:AA2"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="P3:R3"/>
+    <mergeCell ref="P4:R4"/>
+    <mergeCell ref="W3:Y3"/>
+    <mergeCell ref="W4:Y4"/>
+    <mergeCell ref="P106:Q106"/>
+    <mergeCell ref="W106:X106"/>
+    <mergeCell ref="Z3:AA3"/>
+    <mergeCell ref="Z4:AA4"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="S4:T4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14492,7 +14552,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:N204"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
@@ -14512,66 +14572,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C1" s="154" t="s">
+      <c r="C1" s="155" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="154"/>
-      <c r="E1" s="154"/>
-      <c r="F1" s="154"/>
-      <c r="G1" s="154"/>
-      <c r="H1" s="154"/>
-      <c r="I1" s="154"/>
+      <c r="D1" s="155"/>
+      <c r="E1" s="155"/>
+      <c r="F1" s="155"/>
+      <c r="G1" s="155"/>
+      <c r="H1" s="155"/>
+      <c r="I1" s="155"/>
     </row>
     <row r="2" spans="2:14" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C2" s="154"/>
-      <c r="D2" s="154"/>
-      <c r="E2" s="154"/>
-      <c r="F2" s="154"/>
-      <c r="G2" s="154"/>
-      <c r="H2" s="154"/>
-      <c r="I2" s="154"/>
+      <c r="C2" s="155"/>
+      <c r="D2" s="155"/>
+      <c r="E2" s="155"/>
+      <c r="F2" s="155"/>
+      <c r="G2" s="155"/>
+      <c r="H2" s="155"/>
+      <c r="I2" s="155"/>
     </row>
     <row r="3" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="20"/>
-      <c r="C3" s="167" t="s">
+      <c r="C3" s="168" t="s">
         <v>88</v>
       </c>
-      <c r="D3" s="167"/>
+      <c r="D3" s="168"/>
       <c r="E3" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="167" t="s">
+      <c r="F3" s="168" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="167"/>
-      <c r="H3" s="167"/>
-      <c r="I3" s="167"/>
-      <c r="K3" s="155" t="s">
+      <c r="G3" s="168"/>
+      <c r="H3" s="168"/>
+      <c r="I3" s="168"/>
+      <c r="K3" s="156" t="s">
         <v>146</v>
       </c>
-      <c r="L3" s="156"/>
-      <c r="M3" s="156"/>
-      <c r="N3" s="157"/>
+      <c r="L3" s="157"/>
+      <c r="M3" s="157"/>
+      <c r="N3" s="158"/>
     </row>
     <row r="4" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="42"/>
-      <c r="C4" s="135" t="s">
+      <c r="C4" s="136" t="s">
         <v>92</v>
       </c>
-      <c r="D4" s="135"/>
+      <c r="D4" s="136"/>
       <c r="E4" s="23" t="s">
         <v>145</v>
       </c>
-      <c r="F4" s="135" t="s">
+      <c r="F4" s="136" t="s">
         <v>26</v>
       </c>
-      <c r="G4" s="135"/>
-      <c r="H4" s="135"/>
-      <c r="I4" s="135"/>
-      <c r="K4" s="158"/>
-      <c r="L4" s="159"/>
-      <c r="M4" s="159"/>
-      <c r="N4" s="160"/>
+      <c r="G4" s="136"/>
+      <c r="H4" s="136"/>
+      <c r="I4" s="136"/>
+      <c r="K4" s="159"/>
+      <c r="L4" s="160"/>
+      <c r="M4" s="160"/>
+      <c r="N4" s="161"/>
     </row>
     <row r="5" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="25"/>
@@ -14596,12 +14656,12 @@
       <c r="I5" s="50" t="s">
         <v>98</v>
       </c>
-      <c r="K5" s="161" t="s">
+      <c r="K5" s="162" t="s">
         <v>91</v>
       </c>
-      <c r="L5" s="162"/>
-      <c r="M5" s="162"/>
-      <c r="N5" s="163"/>
+      <c r="L5" s="163"/>
+      <c r="M5" s="163"/>
+      <c r="N5" s="164"/>
     </row>
     <row r="6" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="4"/>
@@ -14632,10 +14692,10 @@
         <f t="shared" ref="I6:I37" si="3">ROUND(H6:H105,0)</f>
         <v>2</v>
       </c>
-      <c r="K6" s="164"/>
-      <c r="L6" s="165"/>
-      <c r="M6" s="165"/>
-      <c r="N6" s="166"/>
+      <c r="K6" s="165"/>
+      <c r="L6" s="166"/>
+      <c r="M6" s="166"/>
+      <c r="N6" s="167"/>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B7" s="4"/>
@@ -17922,18 +17982,18 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24" style="41" customWidth="1"/>
-    <col min="2" max="2" width="10.75" style="41" customWidth="1"/>
-    <col min="3" max="3" width="11" style="41" customWidth="1"/>
+    <col min="1" max="1" width="11.125" style="41" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5" style="41" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.75" style="41" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.75" style="41" customWidth="1"/>
     <col min="5" max="5" width="10" style="41" customWidth="1"/>
     <col min="6" max="6" width="11.375" style="41" customWidth="1"/>
@@ -17994,7 +18054,7 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B2" s="63">
         <v>1</v>
@@ -18002,43 +18062,43 @@
       <c r="C2" s="64">
         <v>1</v>
       </c>
-      <c r="D2" s="63">
-        <v>11</v>
+      <c r="D2" s="177">
+        <v>50</v>
       </c>
       <c r="E2" s="63">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="F2" s="63">
+        <v>70</v>
+      </c>
+      <c r="G2" s="63">
+        <v>80</v>
+      </c>
+      <c r="H2" s="63">
         <v>90</v>
       </c>
-      <c r="G2" s="63">
-        <v>152</v>
-      </c>
-      <c r="H2" s="63">
-        <v>178</v>
-      </c>
       <c r="I2" s="63">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="J2" s="63">
-        <v>170</v>
+        <v>110</v>
       </c>
       <c r="K2" s="63">
-        <v>190</v>
+        <v>120</v>
       </c>
       <c r="L2" s="63">
-        <v>210</v>
+        <v>130</v>
       </c>
       <c r="M2" s="63">
-        <v>230</v>
+        <v>140</v>
       </c>
       <c r="N2" s="63" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="63" t="s">
-        <v>158</v>
+      <c r="A3" s="2" t="s">
+        <v>201</v>
       </c>
       <c r="B3" s="63">
         <v>2</v>
@@ -18046,43 +18106,43 @@
       <c r="C3" s="64">
         <v>0</v>
       </c>
-      <c r="D3" s="63">
-        <v>430</v>
+      <c r="D3" s="177">
+        <v>200</v>
       </c>
       <c r="E3" s="63">
-        <v>460</v>
+        <v>240</v>
       </c>
       <c r="F3" s="63">
-        <v>490</v>
+        <v>280</v>
       </c>
       <c r="G3" s="63">
+        <v>320</v>
+      </c>
+      <c r="H3" s="63">
+        <v>360</v>
+      </c>
+      <c r="I3" s="63">
+        <v>400</v>
+      </c>
+      <c r="J3" s="63">
+        <v>440</v>
+      </c>
+      <c r="K3" s="63">
+        <v>480</v>
+      </c>
+      <c r="L3" s="63">
         <v>520</v>
       </c>
-      <c r="H3" s="63">
-        <v>550</v>
-      </c>
-      <c r="I3" s="63">
-        <v>580</v>
-      </c>
-      <c r="J3" s="63">
-        <v>610</v>
-      </c>
-      <c r="K3" s="63">
-        <v>640</v>
-      </c>
-      <c r="L3" s="63">
-        <v>670</v>
-      </c>
       <c r="M3" s="63">
-        <v>700</v>
+        <v>560</v>
       </c>
       <c r="N3" s="63" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="63" t="s">
-        <v>157</v>
+      <c r="A4" s="2" t="s">
+        <v>202</v>
       </c>
       <c r="B4" s="63">
         <v>3</v>
@@ -18090,43 +18150,43 @@
       <c r="C4" s="64">
         <v>0</v>
       </c>
-      <c r="D4" s="63">
-        <v>700</v>
+      <c r="D4" s="177">
+        <v>800</v>
       </c>
       <c r="E4" s="63">
-        <v>740</v>
+        <v>960</v>
       </c>
       <c r="F4" s="63">
-        <v>780</v>
+        <v>1120</v>
       </c>
       <c r="G4" s="63">
-        <v>820</v>
+        <v>1280</v>
       </c>
       <c r="H4" s="63">
-        <v>860</v>
+        <v>1440</v>
       </c>
       <c r="I4" s="63">
-        <v>900</v>
+        <v>1600</v>
       </c>
       <c r="J4" s="63">
-        <v>940</v>
+        <v>1760</v>
       </c>
       <c r="K4" s="63">
-        <v>980</v>
+        <v>1920</v>
       </c>
       <c r="L4" s="63">
-        <v>1020</v>
+        <v>2080</v>
       </c>
       <c r="M4" s="63">
-        <v>1060</v>
+        <v>2240</v>
       </c>
       <c r="N4" s="63" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="63" t="s">
-        <v>159</v>
+      <c r="A5" s="2" t="s">
+        <v>203</v>
       </c>
       <c r="B5" s="63">
         <v>4</v>
@@ -18134,43 +18194,43 @@
       <c r="C5" s="64">
         <v>0</v>
       </c>
-      <c r="D5" s="63">
-        <v>1200</v>
+      <c r="D5" s="177">
+        <v>3200</v>
       </c>
       <c r="E5" s="63">
-        <v>1250</v>
-      </c>
-      <c r="F5" s="63">
-        <v>1300</v>
+        <v>3840</v>
+      </c>
+      <c r="F5" s="177">
+        <v>4480</v>
       </c>
       <c r="G5" s="63">
-        <v>1350</v>
-      </c>
-      <c r="H5" s="63">
-        <v>1400</v>
+        <v>5120</v>
+      </c>
+      <c r="H5" s="177">
+        <v>5760</v>
       </c>
       <c r="I5" s="63">
-        <v>1450</v>
-      </c>
-      <c r="J5" s="63">
-        <v>1500</v>
+        <v>6400</v>
+      </c>
+      <c r="J5" s="177">
+        <v>7040</v>
       </c>
       <c r="K5" s="63">
-        <v>1550</v>
-      </c>
-      <c r="L5" s="63">
-        <v>1600</v>
+        <v>7680</v>
+      </c>
+      <c r="L5" s="177">
+        <v>8320</v>
       </c>
       <c r="M5" s="63">
-        <v>1650</v>
+        <v>8960</v>
       </c>
       <c r="N5" s="63" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="63" t="s">
-        <v>160</v>
+      <c r="A6" s="2" t="s">
+        <v>204</v>
       </c>
       <c r="B6" s="63">
         <v>5</v>
@@ -18178,43 +18238,43 @@
       <c r="C6" s="64">
         <v>0</v>
       </c>
-      <c r="D6" s="63">
-        <v>2000</v>
+      <c r="D6" s="177">
+        <v>12800</v>
       </c>
       <c r="E6" s="63">
-        <v>2100</v>
-      </c>
-      <c r="F6" s="63">
-        <v>2200</v>
+        <v>15360</v>
+      </c>
+      <c r="F6" s="177">
+        <v>17920</v>
       </c>
       <c r="G6" s="63">
-        <v>2300</v>
-      </c>
-      <c r="H6" s="63">
-        <v>2400</v>
+        <v>20480</v>
+      </c>
+      <c r="H6" s="177">
+        <v>23040</v>
       </c>
       <c r="I6" s="63">
-        <v>2500</v>
-      </c>
-      <c r="J6" s="63">
-        <v>2600</v>
+        <v>25600</v>
+      </c>
+      <c r="J6" s="177">
+        <v>28160</v>
       </c>
       <c r="K6" s="63">
-        <v>2700</v>
-      </c>
-      <c r="L6" s="63">
-        <v>2800</v>
+        <v>30720</v>
+      </c>
+      <c r="L6" s="177">
+        <v>33280</v>
       </c>
       <c r="M6" s="63">
-        <v>2900</v>
+        <v>35840</v>
       </c>
       <c r="N6" s="63" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="63" t="s">
-        <v>161</v>
+      <c r="A7" s="2" t="s">
+        <v>205</v>
       </c>
       <c r="B7" s="63">
         <v>6</v>
@@ -18222,43 +18282,43 @@
       <c r="C7" s="64">
         <v>0</v>
       </c>
-      <c r="D7" s="63">
-        <v>4500</v>
+      <c r="D7" s="177">
+        <v>51200</v>
       </c>
       <c r="E7" s="63">
-        <v>4650</v>
-      </c>
-      <c r="F7" s="63">
-        <v>4800</v>
+        <v>61440</v>
+      </c>
+      <c r="F7" s="177">
+        <v>71680</v>
       </c>
       <c r="G7" s="63">
-        <v>4950</v>
-      </c>
-      <c r="H7" s="63">
-        <v>5100</v>
+        <v>81920</v>
+      </c>
+      <c r="H7" s="177">
+        <v>92160</v>
       </c>
       <c r="I7" s="63">
-        <v>5250</v>
-      </c>
-      <c r="J7" s="63">
-        <v>5400</v>
+        <v>102400</v>
+      </c>
+      <c r="J7" s="177">
+        <v>112640</v>
       </c>
       <c r="K7" s="63">
-        <v>5550</v>
-      </c>
-      <c r="L7" s="63">
-        <v>5700</v>
+        <v>122880</v>
+      </c>
+      <c r="L7" s="177">
+        <v>133120</v>
       </c>
       <c r="M7" s="63">
-        <v>5850</v>
+        <v>143360</v>
       </c>
       <c r="N7" s="63" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8" s="63" t="s">
-        <v>162</v>
+      <c r="A8" s="2" t="s">
+        <v>206</v>
       </c>
       <c r="B8" s="63">
         <v>7</v>
@@ -18266,43 +18326,43 @@
       <c r="C8" s="64">
         <v>0</v>
       </c>
-      <c r="D8" s="63">
-        <v>7000</v>
+      <c r="D8" s="177">
+        <v>204800</v>
       </c>
       <c r="E8" s="63">
-        <v>7200</v>
-      </c>
-      <c r="F8" s="63">
-        <v>7400</v>
+        <v>245760</v>
+      </c>
+      <c r="F8" s="177">
+        <v>286720</v>
       </c>
       <c r="G8" s="63">
-        <v>7600</v>
-      </c>
-      <c r="H8" s="63">
-        <v>7800</v>
+        <v>327680</v>
+      </c>
+      <c r="H8" s="177">
+        <v>368640</v>
       </c>
       <c r="I8" s="63">
-        <v>8000</v>
-      </c>
-      <c r="J8" s="63">
-        <v>8200</v>
+        <v>409600</v>
+      </c>
+      <c r="J8" s="177">
+        <v>450560</v>
       </c>
       <c r="K8" s="63">
-        <v>8400</v>
-      </c>
-      <c r="L8" s="63">
-        <v>8600</v>
+        <v>491520</v>
+      </c>
+      <c r="L8" s="177">
+        <v>532480</v>
       </c>
       <c r="M8" s="63">
-        <v>8800</v>
+        <v>573440</v>
       </c>
       <c r="N8" s="63" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9" s="63" t="s">
-        <v>188</v>
+      <c r="A9" s="2" t="s">
+        <v>207</v>
       </c>
       <c r="B9" s="63">
         <v>8</v>
@@ -18310,37 +18370,565 @@
       <c r="C9" s="64">
         <v>0</v>
       </c>
-      <c r="D9" s="63">
-        <v>10000</v>
+      <c r="D9" s="177">
+        <v>819200</v>
       </c>
       <c r="E9" s="63">
-        <v>10500</v>
-      </c>
-      <c r="F9" s="63">
-        <v>11000</v>
+        <v>983040</v>
+      </c>
+      <c r="F9" s="177">
+        <v>1146880</v>
       </c>
       <c r="G9" s="63">
-        <v>11500</v>
-      </c>
-      <c r="H9" s="63">
-        <v>12000</v>
+        <v>1310720</v>
+      </c>
+      <c r="H9" s="177">
+        <v>1474560</v>
       </c>
       <c r="I9" s="63">
-        <v>12500</v>
-      </c>
-      <c r="J9" s="63">
-        <v>13000</v>
+        <v>1638400</v>
+      </c>
+      <c r="J9" s="177">
+        <v>1802240</v>
       </c>
       <c r="K9" s="63">
-        <v>13500</v>
-      </c>
-      <c r="L9" s="63">
-        <v>14000</v>
+        <v>1966080</v>
+      </c>
+      <c r="L9" s="177">
+        <v>2129920</v>
       </c>
       <c r="M9" s="63">
-        <v>14500</v>
+        <v>2293760</v>
       </c>
       <c r="N9" s="63" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B10" s="63">
+        <v>9</v>
+      </c>
+      <c r="C10" s="67">
+        <v>0</v>
+      </c>
+      <c r="D10" s="177">
+        <v>3276800</v>
+      </c>
+      <c r="E10" s="63">
+        <v>3932160</v>
+      </c>
+      <c r="F10" s="63">
+        <v>4587520</v>
+      </c>
+      <c r="G10" s="63">
+        <v>5242880</v>
+      </c>
+      <c r="H10" s="63">
+        <v>5898240</v>
+      </c>
+      <c r="I10" s="63">
+        <v>6553600</v>
+      </c>
+      <c r="J10" s="63">
+        <v>7208960</v>
+      </c>
+      <c r="K10" s="63">
+        <v>7864320</v>
+      </c>
+      <c r="L10" s="63">
+        <v>8519680</v>
+      </c>
+      <c r="M10" s="63">
+        <v>9175040</v>
+      </c>
+      <c r="N10" s="63" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B11" s="63">
+        <v>10</v>
+      </c>
+      <c r="C11" s="67">
+        <v>0</v>
+      </c>
+      <c r="D11" s="177">
+        <v>13107200</v>
+      </c>
+      <c r="E11" s="63">
+        <v>15728640</v>
+      </c>
+      <c r="F11" s="63">
+        <v>18350080</v>
+      </c>
+      <c r="G11" s="63">
+        <v>20971520</v>
+      </c>
+      <c r="H11" s="63">
+        <v>23592960</v>
+      </c>
+      <c r="I11" s="63">
+        <v>26214400</v>
+      </c>
+      <c r="J11" s="63">
+        <v>28835840</v>
+      </c>
+      <c r="K11" s="63">
+        <v>31457280</v>
+      </c>
+      <c r="L11" s="63">
+        <v>34078720</v>
+      </c>
+      <c r="M11" s="63">
+        <v>36700160</v>
+      </c>
+      <c r="N11" s="63" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B12" s="63">
+        <v>11</v>
+      </c>
+      <c r="C12" s="67">
+        <v>0</v>
+      </c>
+      <c r="D12" s="177">
+        <v>52428800</v>
+      </c>
+      <c r="E12" s="63">
+        <v>62914560</v>
+      </c>
+      <c r="F12" s="63">
+        <v>73400320</v>
+      </c>
+      <c r="G12" s="63">
+        <v>83886080</v>
+      </c>
+      <c r="H12" s="63">
+        <v>94371840</v>
+      </c>
+      <c r="I12" s="63">
+        <v>104857600</v>
+      </c>
+      <c r="J12" s="63">
+        <v>115343360</v>
+      </c>
+      <c r="K12" s="63">
+        <v>125829120</v>
+      </c>
+      <c r="L12" s="63">
+        <v>136314880</v>
+      </c>
+      <c r="M12" s="63">
+        <v>146800640</v>
+      </c>
+      <c r="N12" s="63" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B13" s="63">
+        <v>12</v>
+      </c>
+      <c r="C13" s="67">
+        <v>0</v>
+      </c>
+      <c r="D13" s="177">
+        <v>209715200</v>
+      </c>
+      <c r="E13" s="63">
+        <v>251658240</v>
+      </c>
+      <c r="F13" s="63">
+        <v>293601280</v>
+      </c>
+      <c r="G13" s="63">
+        <v>335544320</v>
+      </c>
+      <c r="H13" s="63">
+        <v>377487360</v>
+      </c>
+      <c r="I13" s="63">
+        <v>419430400</v>
+      </c>
+      <c r="J13" s="63">
+        <v>461373440</v>
+      </c>
+      <c r="K13" s="63">
+        <v>503316480</v>
+      </c>
+      <c r="L13" s="63">
+        <v>545259520</v>
+      </c>
+      <c r="M13" s="63">
+        <v>587202560</v>
+      </c>
+      <c r="N13" s="63" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B14" s="63">
+        <v>13</v>
+      </c>
+      <c r="C14" s="67">
+        <v>0</v>
+      </c>
+      <c r="D14" s="177">
+        <v>838860800</v>
+      </c>
+      <c r="E14" s="63">
+        <v>1006632960</v>
+      </c>
+      <c r="F14" s="63">
+        <v>1174405120</v>
+      </c>
+      <c r="G14" s="63">
+        <v>1342177280</v>
+      </c>
+      <c r="H14" s="63">
+        <v>1509949440</v>
+      </c>
+      <c r="I14" s="63">
+        <v>1677721600</v>
+      </c>
+      <c r="J14" s="63">
+        <v>1845493760</v>
+      </c>
+      <c r="K14" s="63">
+        <v>2013265920</v>
+      </c>
+      <c r="L14" s="63">
+        <v>2181038080</v>
+      </c>
+      <c r="M14" s="63">
+        <v>2348810240</v>
+      </c>
+      <c r="N14" s="63" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B15" s="63">
+        <v>14</v>
+      </c>
+      <c r="C15" s="67">
+        <v>0</v>
+      </c>
+      <c r="D15" s="177">
+        <v>3355443200</v>
+      </c>
+      <c r="E15" s="63">
+        <v>4026531840</v>
+      </c>
+      <c r="F15" s="63">
+        <v>4697620480</v>
+      </c>
+      <c r="G15" s="63">
+        <v>5368709120</v>
+      </c>
+      <c r="H15" s="63">
+        <v>6039797760</v>
+      </c>
+      <c r="I15" s="63">
+        <v>6710886400</v>
+      </c>
+      <c r="J15" s="63">
+        <v>7381975040</v>
+      </c>
+      <c r="K15" s="63">
+        <v>8053063680</v>
+      </c>
+      <c r="L15" s="63">
+        <v>8724152320</v>
+      </c>
+      <c r="M15" s="63">
+        <v>9395240960</v>
+      </c>
+      <c r="N15" s="63" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B16" s="63">
+        <v>15</v>
+      </c>
+      <c r="C16" s="67">
+        <v>0</v>
+      </c>
+      <c r="D16" s="177">
+        <v>13421772800</v>
+      </c>
+      <c r="E16" s="63">
+        <v>16106127360</v>
+      </c>
+      <c r="F16" s="63">
+        <v>18790481920</v>
+      </c>
+      <c r="G16" s="63">
+        <v>21474836480</v>
+      </c>
+      <c r="H16" s="63">
+        <v>24159191040</v>
+      </c>
+      <c r="I16" s="63">
+        <v>26843545600</v>
+      </c>
+      <c r="J16" s="63">
+        <v>29527900160</v>
+      </c>
+      <c r="K16" s="63">
+        <v>32212254720</v>
+      </c>
+      <c r="L16" s="63">
+        <v>34896609280</v>
+      </c>
+      <c r="M16" s="63">
+        <v>37580963840</v>
+      </c>
+      <c r="N16" s="63" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B17" s="63">
+        <v>16</v>
+      </c>
+      <c r="C17" s="67">
+        <v>0</v>
+      </c>
+      <c r="D17" s="177">
+        <v>53687091200</v>
+      </c>
+      <c r="E17" s="63">
+        <v>64424509440</v>
+      </c>
+      <c r="F17" s="63">
+        <v>75161927680</v>
+      </c>
+      <c r="G17" s="63">
+        <v>85899345920</v>
+      </c>
+      <c r="H17" s="63">
+        <v>96636764160</v>
+      </c>
+      <c r="I17" s="63">
+        <v>107374182400</v>
+      </c>
+      <c r="J17" s="63">
+        <v>118111600640</v>
+      </c>
+      <c r="K17" s="63">
+        <v>128849018880</v>
+      </c>
+      <c r="L17" s="63">
+        <v>139586437120</v>
+      </c>
+      <c r="M17" s="63">
+        <v>150323855360</v>
+      </c>
+      <c r="N17" s="63" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B18" s="63">
+        <v>17</v>
+      </c>
+      <c r="C18" s="67">
+        <v>0</v>
+      </c>
+      <c r="D18" s="177">
+        <v>214748364800</v>
+      </c>
+      <c r="E18" s="63">
+        <v>257698037760</v>
+      </c>
+      <c r="F18" s="63">
+        <v>300647710720</v>
+      </c>
+      <c r="G18" s="63">
+        <v>343597383680</v>
+      </c>
+      <c r="H18" s="63">
+        <v>386547056640</v>
+      </c>
+      <c r="I18" s="63">
+        <v>429496729600</v>
+      </c>
+      <c r="J18" s="63">
+        <v>472446402560</v>
+      </c>
+      <c r="K18" s="63">
+        <v>515396075520</v>
+      </c>
+      <c r="L18" s="63">
+        <v>558345748480</v>
+      </c>
+      <c r="M18" s="63">
+        <v>601295421440</v>
+      </c>
+      <c r="N18" s="63" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B19" s="63">
+        <v>18</v>
+      </c>
+      <c r="C19" s="67">
+        <v>0</v>
+      </c>
+      <c r="D19" s="177">
+        <v>858993459200</v>
+      </c>
+      <c r="E19" s="63">
+        <v>1030792151040</v>
+      </c>
+      <c r="F19" s="63">
+        <v>1202590842880</v>
+      </c>
+      <c r="G19" s="63">
+        <v>1374389534720</v>
+      </c>
+      <c r="H19" s="63">
+        <v>1546188226560</v>
+      </c>
+      <c r="I19" s="63">
+        <v>1717986918400</v>
+      </c>
+      <c r="J19" s="63">
+        <v>1889785610240</v>
+      </c>
+      <c r="K19" s="63">
+        <v>2061584302080</v>
+      </c>
+      <c r="L19" s="63">
+        <v>2233382993920</v>
+      </c>
+      <c r="M19" s="63">
+        <v>2405181685760</v>
+      </c>
+      <c r="N19" s="63" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="B20" s="63">
+        <v>19</v>
+      </c>
+      <c r="C20" s="67">
+        <v>0</v>
+      </c>
+      <c r="D20" s="177">
+        <v>3435973836800</v>
+      </c>
+      <c r="E20" s="63">
+        <v>4123168604160</v>
+      </c>
+      <c r="F20" s="63">
+        <v>4810363371520</v>
+      </c>
+      <c r="G20" s="63">
+        <v>5497558138880</v>
+      </c>
+      <c r="H20" s="63">
+        <v>6184752906240</v>
+      </c>
+      <c r="I20" s="63">
+        <v>1717986918400</v>
+      </c>
+      <c r="J20" s="63">
+        <v>7559142440960</v>
+      </c>
+      <c r="K20" s="63">
+        <v>8246337208320</v>
+      </c>
+      <c r="L20" s="63">
+        <v>8933531975680</v>
+      </c>
+      <c r="M20" s="63">
+        <v>9620726743040</v>
+      </c>
+      <c r="N20" s="63" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B21" s="63">
+        <v>20</v>
+      </c>
+      <c r="C21" s="67">
+        <v>0</v>
+      </c>
+      <c r="D21" s="177">
+        <v>13743895347200</v>
+      </c>
+      <c r="E21" s="63">
+        <v>16492674416640</v>
+      </c>
+      <c r="F21" s="63">
+        <v>19241453486080</v>
+      </c>
+      <c r="G21" s="63">
+        <v>21990232555520</v>
+      </c>
+      <c r="H21" s="63">
+        <v>24739011624960</v>
+      </c>
+      <c r="I21" s="63">
+        <v>27487790694400</v>
+      </c>
+      <c r="J21" s="63">
+        <v>30236569763840</v>
+      </c>
+      <c r="K21" s="63">
+        <v>32985348833280</v>
+      </c>
+      <c r="L21" s="63">
+        <v>35734127902720</v>
+      </c>
+      <c r="M21" s="63">
+        <v>38482906972160</v>
+      </c>
+      <c r="N21" s="63" t="b">
         <v>0</v>
       </c>
     </row>
@@ -18352,7 +18940,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:N15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -18365,38 +18953,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" s="168" t="s">
+      <c r="A1" s="169" t="s">
         <v>183</v>
       </c>
-      <c r="B1" s="168"/>
-      <c r="C1" s="168"/>
-      <c r="D1" s="168"/>
-      <c r="E1" s="168"/>
-      <c r="F1" s="168"/>
-      <c r="G1" s="168"/>
-      <c r="H1" s="168"/>
-      <c r="I1" s="168"/>
-      <c r="J1" s="168"/>
-      <c r="K1" s="168"/>
-      <c r="L1" s="168"/>
-      <c r="M1" s="168"/>
-      <c r="N1" s="168"/>
+      <c r="B1" s="169"/>
+      <c r="C1" s="169"/>
+      <c r="D1" s="169"/>
+      <c r="E1" s="169"/>
+      <c r="F1" s="169"/>
+      <c r="G1" s="169"/>
+      <c r="H1" s="169"/>
+      <c r="I1" s="169"/>
+      <c r="J1" s="169"/>
+      <c r="K1" s="169"/>
+      <c r="L1" s="169"/>
+      <c r="M1" s="169"/>
+      <c r="N1" s="169"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="169"/>
-      <c r="B2" s="169"/>
-      <c r="C2" s="169"/>
-      <c r="D2" s="169"/>
-      <c r="E2" s="169"/>
-      <c r="F2" s="169"/>
-      <c r="G2" s="169"/>
-      <c r="H2" s="169"/>
-      <c r="I2" s="169"/>
-      <c r="J2" s="169"/>
-      <c r="K2" s="169"/>
-      <c r="L2" s="169"/>
-      <c r="M2" s="169"/>
-      <c r="N2" s="169"/>
+      <c r="A2" s="170"/>
+      <c r="B2" s="170"/>
+      <c r="C2" s="170"/>
+      <c r="D2" s="170"/>
+      <c r="E2" s="170"/>
+      <c r="F2" s="170"/>
+      <c r="G2" s="170"/>
+      <c r="H2" s="170"/>
+      <c r="I2" s="170"/>
+      <c r="J2" s="170"/>
+      <c r="K2" s="170"/>
+      <c r="L2" s="170"/>
+      <c r="M2" s="170"/>
+      <c r="N2" s="170"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="38" t="s">
@@ -18457,39 +19045,39 @@
       </c>
       <c r="E4" s="65">
         <f>POWER((3+0.2*(weaponData!D2:M2-25)),2)</f>
-        <v>84.639999999999986</v>
+        <v>100</v>
       </c>
       <c r="F4" s="65">
         <f>POWER((3+0.2*(weaponData!E2:O2-25)),2)</f>
-        <v>256</v>
+        <v>144</v>
       </c>
       <c r="G4" s="65">
         <f>POWER((3+0.2*(weaponData!F2:P2-25)),2)</f>
-        <v>806.56000000000017</v>
+        <v>196</v>
       </c>
       <c r="H4" s="65">
         <f>POWER((3+0.2*(weaponData!G2:Q2-25)),2)</f>
-        <v>1128.96</v>
+        <v>256</v>
       </c>
       <c r="I4" s="65">
         <f>POWER((3+0.2*(weaponData!H2:R2-25)),2)</f>
-        <v>784</v>
+        <v>324</v>
       </c>
       <c r="J4" s="65">
         <f>POWER((3+0.2*(weaponData!I2:S2-25)),2)</f>
-        <v>1024</v>
+        <v>400</v>
       </c>
       <c r="K4" s="65">
         <f>POWER((3+0.2*(weaponData!J2:T2-25)),2)</f>
-        <v>1296</v>
+        <v>484</v>
       </c>
       <c r="L4" s="65">
         <f>POWER((3+0.2*(weaponData!K2:U2-25)),2)</f>
-        <v>1600</v>
+        <v>576</v>
       </c>
       <c r="M4" s="65">
         <f>POWER((3+0.2*(weaponData!L2:V2-25)),2)</f>
-        <v>1936</v>
+        <v>676</v>
       </c>
       <c r="N4" s="65">
         <f>POWER((3+0.2*(weaponData!M2:W2-25)),2)</f>
@@ -18511,39 +19099,39 @@
       </c>
       <c r="E5" s="65">
         <f>POWER((3+0.2*(weaponData!D3:M3-25)),2)</f>
-        <v>8100</v>
+        <v>2116</v>
       </c>
       <c r="F5" s="65">
         <f>POWER((3+0.2*(weaponData!E3:O3-25)),2)</f>
-        <v>9216</v>
+        <v>2916</v>
       </c>
       <c r="G5" s="65">
         <f>POWER((3+0.2*(weaponData!F3:P3-25)),2)</f>
-        <v>10404</v>
+        <v>3844</v>
       </c>
       <c r="H5" s="65">
         <f>POWER((3+0.2*(weaponData!G3:Q3-25)),2)</f>
-        <v>11664</v>
+        <v>4900</v>
       </c>
       <c r="I5" s="65">
         <f>POWER((3+0.2*(weaponData!H3:R3-25)),2)</f>
-        <v>12996</v>
+        <v>6084</v>
       </c>
       <c r="J5" s="65">
         <f>POWER((3+0.2*(weaponData!I3:S3-25)),2)</f>
-        <v>14400</v>
+        <v>7396</v>
       </c>
       <c r="K5" s="65">
         <f>POWER((3+0.2*(weaponData!J3:T3-25)),2)</f>
-        <v>15876</v>
+        <v>8836</v>
       </c>
       <c r="L5" s="65">
         <f>POWER((3+0.2*(weaponData!K3:U3-25)),2)</f>
-        <v>17424</v>
+        <v>10404</v>
       </c>
       <c r="M5" s="65">
         <f>POWER((3+0.2*(weaponData!L3:V3-25)),2)</f>
-        <v>19044</v>
+        <v>12100</v>
       </c>
       <c r="N5" s="65">
         <f>POWER((3+0.2*(weaponData!M3:W3-25)),2)</f>
@@ -18565,39 +19153,39 @@
       </c>
       <c r="E6" s="65">
         <f>POWER((3+0.2*(weaponData!D4:M4-25)),2)</f>
-        <v>21316</v>
+        <v>36100</v>
       </c>
       <c r="F6" s="65">
         <f>POWER((3+0.2*(weaponData!E4:O4-25)),2)</f>
-        <v>23716</v>
+        <v>49284</v>
       </c>
       <c r="G6" s="65">
         <f>POWER((3+0.2*(weaponData!F4:P4-25)),2)</f>
-        <v>26244</v>
+        <v>64516</v>
       </c>
       <c r="H6" s="65">
         <f>POWER((3+0.2*(weaponData!G4:Q4-25)),2)</f>
-        <v>28900</v>
+        <v>81796</v>
       </c>
       <c r="I6" s="65">
         <f>POWER((3+0.2*(weaponData!H4:R4-25)),2)</f>
-        <v>31684</v>
+        <v>101124</v>
       </c>
       <c r="J6" s="65">
         <f>POWER((3+0.2*(weaponData!I4:S4-25)),2)</f>
-        <v>34596</v>
+        <v>122500</v>
       </c>
       <c r="K6" s="65">
         <f>POWER((3+0.2*(weaponData!J4:T4-25)),2)</f>
-        <v>37636</v>
+        <v>145924</v>
       </c>
       <c r="L6" s="65">
         <f>POWER((3+0.2*(weaponData!K4:U4-25)),2)</f>
-        <v>40804</v>
+        <v>171396</v>
       </c>
       <c r="M6" s="65">
         <f>POWER((3+0.2*(weaponData!L4:V4-25)),2)</f>
-        <v>44100</v>
+        <v>198916</v>
       </c>
       <c r="N6" s="65">
         <f>POWER((3+0.2*(weaponData!M4:W4-25)),2)</f>
@@ -18619,39 +19207,39 @@
       </c>
       <c r="E7" s="65">
         <f>POWER((3+0.2*(weaponData!D5:M5-25)),2)</f>
-        <v>61504</v>
+        <v>586756</v>
       </c>
       <c r="F7" s="65">
         <f>POWER((3+0.2*(weaponData!E5:O5-25)),2)</f>
-        <v>66564</v>
+        <v>799236</v>
       </c>
       <c r="G7" s="65">
         <f>POWER((3+0.2*(weaponData!F5:P5-25)),2)</f>
-        <v>71824</v>
+        <v>1044484</v>
       </c>
       <c r="H7" s="65">
         <f>POWER((3+0.2*(weaponData!G5:Q5-25)),2)</f>
-        <v>77284</v>
+        <v>1322500</v>
       </c>
       <c r="I7" s="65">
         <f>POWER((3+0.2*(weaponData!H5:R5-25)),2)</f>
-        <v>82944</v>
+        <v>1633284</v>
       </c>
       <c r="J7" s="65">
         <f>POWER((3+0.2*(weaponData!I5:S5-25)),2)</f>
-        <v>88804</v>
+        <v>1976836</v>
       </c>
       <c r="K7" s="65">
         <f>POWER((3+0.2*(weaponData!J5:T5-25)),2)</f>
-        <v>94864</v>
+        <v>2353156</v>
       </c>
       <c r="L7" s="65">
         <f>POWER((3+0.2*(weaponData!K5:U5-25)),2)</f>
-        <v>101124</v>
+        <v>2762244</v>
       </c>
       <c r="M7" s="65">
         <f>POWER((3+0.2*(weaponData!L5:V5-25)),2)</f>
-        <v>107584</v>
+        <v>3204100</v>
       </c>
       <c r="N7" s="65">
         <f>POWER((3+0.2*(weaponData!M5:W5-25)),2)</f>
@@ -18673,39 +19261,39 @@
       </c>
       <c r="E8" s="65">
         <f>POWER((3+0.2*(weaponData!D6:M6-25)),2)</f>
-        <v>174724</v>
+        <v>9424900</v>
       </c>
       <c r="F8" s="65">
         <f>POWER((3+0.2*(weaponData!E6:O6-25)),2)</f>
-        <v>191844</v>
+        <v>12830724</v>
       </c>
       <c r="G8" s="65">
         <f>POWER((3+0.2*(weaponData!F6:P6-25)),2)</f>
-        <v>209764</v>
+        <v>16760836</v>
       </c>
       <c r="H8" s="65">
         <f>POWER((3+0.2*(weaponData!G6:Q6-25)),2)</f>
-        <v>228484</v>
+        <v>21215236</v>
       </c>
       <c r="I8" s="65">
         <f>POWER((3+0.2*(weaponData!H6:R6-25)),2)</f>
-        <v>248004</v>
+        <v>26193924</v>
       </c>
       <c r="J8" s="65">
         <f>POWER((3+0.2*(weaponData!I6:S6-25)),2)</f>
-        <v>268324</v>
+        <v>31696900</v>
       </c>
       <c r="K8" s="65">
         <f>POWER((3+0.2*(weaponData!J6:T6-25)),2)</f>
-        <v>289444</v>
+        <v>37724164</v>
       </c>
       <c r="L8" s="65">
         <f>POWER((3+0.2*(weaponData!K6:U6-25)),2)</f>
-        <v>311364</v>
+        <v>44275716</v>
       </c>
       <c r="M8" s="65">
         <f>POWER((3+0.2*(weaponData!L6:V6-25)),2)</f>
-        <v>334084</v>
+        <v>51351556</v>
       </c>
       <c r="N8" s="65">
         <f>POWER((3+0.2*(weaponData!M6:W6-25)),2)</f>
@@ -18727,39 +19315,39 @@
       </c>
       <c r="E9" s="65">
         <f>POWER((3+0.2*(weaponData!D7:M7-25)),2)</f>
-        <v>861184</v>
+        <v>150945796</v>
       </c>
       <c r="F9" s="65">
         <f>POWER((3+0.2*(weaponData!E7:O7-25)),2)</f>
-        <v>917764</v>
+        <v>205463556</v>
       </c>
       <c r="G9" s="65">
         <f>POWER((3+0.2*(weaponData!F7:P7-25)),2)</f>
-        <v>976144</v>
+        <v>268369924</v>
       </c>
       <c r="H9" s="65">
         <f>POWER((3+0.2*(weaponData!G7:Q7-25)),2)</f>
-        <v>1036324</v>
+        <v>339664900</v>
       </c>
       <c r="I9" s="65">
         <f>POWER((3+0.2*(weaponData!H7:R7-25)),2)</f>
-        <v>1098304</v>
+        <v>419348484</v>
       </c>
       <c r="J9" s="65">
         <f>POWER((3+0.2*(weaponData!I7:S7-25)),2)</f>
-        <v>1162084</v>
+        <v>507420676</v>
       </c>
       <c r="K9" s="65">
         <f>POWER((3+0.2*(weaponData!J7:T7-25)),2)</f>
-        <v>1227664</v>
+        <v>603881476</v>
       </c>
       <c r="L9" s="65">
         <f>POWER((3+0.2*(weaponData!K7:U7-25)),2)</f>
-        <v>1295044</v>
+        <v>708730884</v>
       </c>
       <c r="M9" s="65">
         <f>POWER((3+0.2*(weaponData!L7:V7-25)),2)</f>
-        <v>1364224</v>
+        <v>821968900</v>
       </c>
       <c r="N9" s="65">
         <f>POWER((3+0.2*(weaponData!M7:W7-25)),2)</f>
@@ -18781,39 +19369,39 @@
       </c>
       <c r="E10" s="65">
         <f>POWER((3+0.2*(weaponData!D8:M8-25)),2)</f>
-        <v>2067844</v>
+        <v>2415722500</v>
       </c>
       <c r="F10" s="65">
         <f>POWER((3+0.2*(weaponData!E8:O8-25)),2)</f>
-        <v>2184484</v>
+        <v>3288104964</v>
       </c>
       <c r="G10" s="65">
         <f>POWER((3+0.2*(weaponData!F8:P8-25)),2)</f>
-        <v>2304324</v>
+        <v>4294705156</v>
       </c>
       <c r="H10" s="65">
         <f>POWER((3+0.2*(weaponData!G8:Q8-25)),2)</f>
-        <v>2427364</v>
+        <v>5435523076</v>
       </c>
       <c r="I10" s="65">
         <f>POWER((3+0.2*(weaponData!H8:R8-25)),2)</f>
-        <v>2553604</v>
+        <v>6710558724</v>
       </c>
       <c r="J10" s="65">
         <f>POWER((3+0.2*(weaponData!I8:S8-25)),2)</f>
-        <v>2683044</v>
+        <v>8119812100</v>
       </c>
       <c r="K10" s="65">
         <f>POWER((3+0.2*(weaponData!J8:T8-25)),2)</f>
-        <v>2815684</v>
+        <v>9663283204</v>
       </c>
       <c r="L10" s="65">
         <f>POWER((3+0.2*(weaponData!K8:U8-25)),2)</f>
-        <v>2951524</v>
+        <v>11340972036</v>
       </c>
       <c r="M10" s="65">
         <f>POWER((3+0.2*(weaponData!L8:V8-25)),2)</f>
-        <v>3090564</v>
+        <v>13152878596</v>
       </c>
       <c r="N10" s="65">
         <f>POWER((3+0.2*(weaponData!M8:W8-25)),2)</f>
@@ -18835,39 +19423,39 @@
       </c>
       <c r="E11" s="65">
         <f>POWER((3+0.2*(weaponData!D9:M9-25)),2)</f>
-        <v>4401604</v>
+        <v>38653919236</v>
       </c>
       <c r="F11" s="65">
         <f>POWER((3+0.2*(weaponData!E9:O9-25)),2)</f>
-        <v>4831204</v>
+        <v>52612431876</v>
       </c>
       <c r="G11" s="65">
         <f>POWER((3+0.2*(weaponData!F9:P9-25)),2)</f>
-        <v>5280804</v>
+        <v>68718428164</v>
       </c>
       <c r="H11" s="65">
         <f>POWER((3+0.2*(weaponData!G9:Q9-25)),2)</f>
-        <v>5750404</v>
+        <v>86971908100</v>
       </c>
       <c r="I11" s="65">
         <f>POWER((3+0.2*(weaponData!H9:R9-25)),2)</f>
-        <v>6240004</v>
+        <v>107372871684</v>
       </c>
       <c r="J11" s="65">
         <f>POWER((3+0.2*(weaponData!I9:S9-25)),2)</f>
-        <v>6749604</v>
+        <v>129921318916</v>
       </c>
       <c r="K11" s="65">
         <f>POWER((3+0.2*(weaponData!J9:T9-25)),2)</f>
-        <v>7279204</v>
+        <v>154617249796</v>
       </c>
       <c r="L11" s="65">
         <f>POWER((3+0.2*(weaponData!K9:U9-25)),2)</f>
-        <v>7828804</v>
+        <v>181460664324</v>
       </c>
       <c r="M11" s="65">
         <f>POWER((3+0.2*(weaponData!L9:V9-25)),2)</f>
-        <v>8398404</v>
+        <v>210451562500</v>
       </c>
       <c r="N11" s="65">
         <f>POWER((3+0.2*(weaponData!M9:W9-25)),2)</f>
@@ -18910,11 +19498,11 @@
       <c r="A14" s="41"/>
       <c r="B14" s="41"/>
       <c r="C14" s="41"/>
-      <c r="D14" s="170" t="s">
+      <c r="D14" s="171" t="s">
         <v>184</v>
       </c>
-      <c r="E14" s="170"/>
-      <c r="F14" s="170"/>
+      <c r="E14" s="171"/>
+      <c r="F14" s="171"/>
       <c r="G14" s="41"/>
       <c r="H14" s="41"/>
       <c r="I14" s="41"/>
@@ -18952,7 +19540,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="C1:N23"/>
   <sheetViews>
     <sheetView topLeftCell="G1" workbookViewId="0">
@@ -18974,23 +19562,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C1" s="154" t="s">
+      <c r="C1" s="155" t="s">
         <v>63</v>
       </c>
-      <c r="D1" s="154"/>
-      <c r="E1" s="154"/>
-      <c r="F1" s="154"/>
-      <c r="G1" s="154"/>
+      <c r="D1" s="155"/>
+      <c r="E1" s="155"/>
+      <c r="F1" s="155"/>
+      <c r="G1" s="155"/>
       <c r="I1" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="2" spans="3:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C2" s="154"/>
-      <c r="D2" s="154"/>
-      <c r="E2" s="154"/>
-      <c r="F2" s="154"/>
-      <c r="G2" s="154"/>
+      <c r="C2" s="155"/>
+      <c r="D2" s="155"/>
+      <c r="E2" s="155"/>
+      <c r="F2" s="155"/>
+      <c r="G2" s="155"/>
       <c r="I2" t="s">
         <v>101</v>
       </c>
@@ -19031,7 +19619,7 @@
       </c>
     </row>
     <row r="4" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C4" s="173" t="s">
+      <c r="C4" s="174" t="s">
         <v>32</v>
       </c>
       <c r="D4" s="13" t="s">
@@ -19066,7 +19654,7 @@
       </c>
     </row>
     <row r="5" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C5" s="174"/>
+      <c r="C5" s="175"/>
       <c r="D5" s="13" t="s">
         <v>34</v>
       </c>
@@ -19099,7 +19687,7 @@
       </c>
     </row>
     <row r="6" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C6" s="174"/>
+      <c r="C6" s="175"/>
       <c r="D6" s="13" t="s">
         <v>35</v>
       </c>
@@ -19132,7 +19720,7 @@
       </c>
     </row>
     <row r="7" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C7" s="174"/>
+      <c r="C7" s="175"/>
       <c r="D7" s="13" t="s">
         <v>36</v>
       </c>
@@ -19165,7 +19753,7 @@
       </c>
     </row>
     <row r="8" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C8" s="174"/>
+      <c r="C8" s="175"/>
       <c r="D8" s="13" t="s">
         <v>37</v>
       </c>
@@ -19198,7 +19786,7 @@
       </c>
     </row>
     <row r="9" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C9" s="174"/>
+      <c r="C9" s="175"/>
       <c r="D9" s="13" t="s">
         <v>38</v>
       </c>
@@ -19231,7 +19819,7 @@
       </c>
     </row>
     <row r="10" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="174"/>
+      <c r="C10" s="175"/>
       <c r="D10" s="13" t="s">
         <v>39</v>
       </c>
@@ -19264,7 +19852,7 @@
       </c>
     </row>
     <row r="11" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C11" s="174"/>
+      <c r="C11" s="175"/>
       <c r="D11" s="13" t="s">
         <v>40</v>
       </c>
@@ -19297,7 +19885,7 @@
       </c>
     </row>
     <row r="12" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C12" s="171" t="s">
+      <c r="C12" s="172" t="s">
         <v>42</v>
       </c>
       <c r="D12" s="14" t="s">
@@ -19332,7 +19920,7 @@
       </c>
     </row>
     <row r="13" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C13" s="172"/>
+      <c r="C13" s="173"/>
       <c r="D13" s="14" t="s">
         <v>44</v>
       </c>
@@ -19365,7 +19953,7 @@
       </c>
     </row>
     <row r="14" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C14" s="172"/>
+      <c r="C14" s="173"/>
       <c r="D14" s="14" t="s">
         <v>45</v>
       </c>
@@ -19398,7 +19986,7 @@
       </c>
     </row>
     <row r="15" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C15" s="172"/>
+      <c r="C15" s="173"/>
       <c r="D15" s="14" t="s">
         <v>46</v>
       </c>
@@ -19431,7 +20019,7 @@
       </c>
     </row>
     <row r="16" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C16" s="172"/>
+      <c r="C16" s="173"/>
       <c r="D16" s="14" t="s">
         <v>47</v>
       </c>
@@ -19464,7 +20052,7 @@
       </c>
     </row>
     <row r="17" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C17" s="172"/>
+      <c r="C17" s="173"/>
       <c r="D17" s="14" t="s">
         <v>48</v>
       </c>
@@ -19497,7 +20085,7 @@
       </c>
     </row>
     <row r="18" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C18" s="172"/>
+      <c r="C18" s="173"/>
       <c r="D18" s="14" t="s">
         <v>49</v>
       </c>
@@ -19530,7 +20118,7 @@
       </c>
     </row>
     <row r="19" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C19" s="172"/>
+      <c r="C19" s="173"/>
       <c r="D19" s="14" t="s">
         <v>50</v>
       </c>
@@ -19577,7 +20165,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="B2:C104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -19595,14 +20183,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="175" t="s">
+      <c r="B2" s="176" t="s">
         <v>128</v>
       </c>
-      <c r="C2" s="154"/>
+      <c r="C2" s="155"/>
     </row>
     <row r="3" spans="2:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="154"/>
-      <c r="C3" s="154"/>
+      <c r="B3" s="155"/>
+      <c r="C3" s="155"/>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B4" s="24" t="s">
@@ -20522,7 +21110,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="B2:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -20540,22 +21128,22 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="168" t="s">
+      <c r="B2" s="169" t="s">
         <v>144</v>
       </c>
-      <c r="C2" s="168"/>
-      <c r="D2" s="168"/>
-      <c r="E2" s="168"/>
-      <c r="F2" s="168"/>
-      <c r="G2" s="168"/>
+      <c r="C2" s="169"/>
+      <c r="D2" s="169"/>
+      <c r="E2" s="169"/>
+      <c r="F2" s="169"/>
+      <c r="G2" s="169"/>
     </row>
     <row r="3" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="169"/>
-      <c r="C3" s="169"/>
-      <c r="D3" s="169"/>
-      <c r="E3" s="169"/>
-      <c r="F3" s="169"/>
-      <c r="G3" s="169"/>
+      <c r="B3" s="170"/>
+      <c r="C3" s="170"/>
+      <c r="D3" s="170"/>
+      <c r="E3" s="170"/>
+      <c r="F3" s="170"/>
+      <c r="G3" s="170"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B4" s="38" t="s">

--- a/Project1/Assets/Script/Data/weaponDB.xlsx
+++ b/Project1/Assets/Script/Data/weaponDB.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\whdns\OneDrive\바탕 화면\새 폴더\TeamProject1\Project1\Assets\Script\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\원형\Desktop\TeamProject1\Project1\Assets\Script\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{116450E0-63AB-46A5-8036-35A8D82B874A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="599" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="599" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="시스템 기획" sheetId="2" r:id="rId1"/>
@@ -22,7 +21,7 @@
     <sheet name="보물 DB" sheetId="10" r:id="rId7"/>
     <sheet name="수색 DB" sheetId="11" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1179,7 +1178,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0%"/>
   </numFmts>
@@ -1787,7 +1786,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="178">
+  <cellXfs count="179">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2319,7 +2318,10 @@
     <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2640,7 +2642,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AV78"/>
   <sheetViews>
     <sheetView topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
@@ -6431,7 +6433,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA108"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -14552,7 +14554,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N204"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
@@ -17982,11 +17984,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -17994,16 +17996,16 @@
     <col min="1" max="1" width="11.125" style="41" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.5" style="41" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.75" style="41" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.75" style="41" customWidth="1"/>
-    <col min="5" max="5" width="10" style="41" customWidth="1"/>
-    <col min="6" max="6" width="11.375" style="41" customWidth="1"/>
-    <col min="7" max="7" width="10.375" style="41" customWidth="1"/>
-    <col min="8" max="8" width="10.625" style="41" customWidth="1"/>
-    <col min="9" max="9" width="10.125" style="41" customWidth="1"/>
-    <col min="10" max="10" width="10.25" style="41" customWidth="1"/>
-    <col min="11" max="11" width="10" style="41" customWidth="1"/>
-    <col min="12" max="12" width="10.125" style="41" customWidth="1"/>
-    <col min="13" max="13" width="10.375" style="41" customWidth="1"/>
+    <col min="4" max="4" width="25.375" style="41" customWidth="1"/>
+    <col min="5" max="5" width="27.5" style="41" customWidth="1"/>
+    <col min="6" max="6" width="19.125" style="41" customWidth="1"/>
+    <col min="7" max="7" width="17.875" style="41" customWidth="1"/>
+    <col min="8" max="8" width="20.25" style="41" customWidth="1"/>
+    <col min="9" max="9" width="22.5" style="41" customWidth="1"/>
+    <col min="10" max="10" width="20.875" style="41" customWidth="1"/>
+    <col min="11" max="11" width="21.75" style="41" customWidth="1"/>
+    <col min="12" max="12" width="17.5" style="41" customWidth="1"/>
+    <col min="13" max="13" width="17.625" style="41" customWidth="1"/>
     <col min="14" max="14" width="11" style="41" customWidth="1"/>
     <col min="15" max="16384" width="9" style="41"/>
   </cols>
@@ -18065,31 +18067,31 @@
       <c r="D2" s="177">
         <v>50</v>
       </c>
-      <c r="E2" s="63">
+      <c r="E2" s="178">
         <v>60</v>
       </c>
-      <c r="F2" s="63">
+      <c r="F2" s="178">
         <v>70</v>
       </c>
-      <c r="G2" s="63">
+      <c r="G2" s="178">
         <v>80</v>
       </c>
-      <c r="H2" s="63">
+      <c r="H2" s="178">
         <v>90</v>
       </c>
-      <c r="I2" s="63">
+      <c r="I2" s="178">
         <v>100</v>
       </c>
-      <c r="J2" s="63">
+      <c r="J2" s="178">
         <v>110</v>
       </c>
-      <c r="K2" s="63">
+      <c r="K2" s="178">
         <v>120</v>
       </c>
-      <c r="L2" s="63">
+      <c r="L2" s="178">
         <v>130</v>
       </c>
-      <c r="M2" s="63">
+      <c r="M2" s="178">
         <v>140</v>
       </c>
       <c r="N2" s="63" t="b">
@@ -18109,31 +18111,31 @@
       <c r="D3" s="177">
         <v>200</v>
       </c>
-      <c r="E3" s="63">
+      <c r="E3" s="178">
         <v>240</v>
       </c>
-      <c r="F3" s="63">
+      <c r="F3" s="178">
         <v>280</v>
       </c>
-      <c r="G3" s="63">
+      <c r="G3" s="178">
         <v>320</v>
       </c>
-      <c r="H3" s="63">
+      <c r="H3" s="178">
         <v>360</v>
       </c>
-      <c r="I3" s="63">
+      <c r="I3" s="178">
         <v>400</v>
       </c>
-      <c r="J3" s="63">
+      <c r="J3" s="178">
         <v>440</v>
       </c>
-      <c r="K3" s="63">
+      <c r="K3" s="178">
         <v>480</v>
       </c>
-      <c r="L3" s="63">
+      <c r="L3" s="178">
         <v>520</v>
       </c>
-      <c r="M3" s="63">
+      <c r="M3" s="178">
         <v>560</v>
       </c>
       <c r="N3" s="63" t="b">
@@ -18153,31 +18155,31 @@
       <c r="D4" s="177">
         <v>800</v>
       </c>
-      <c r="E4" s="63">
+      <c r="E4" s="178">
         <v>960</v>
       </c>
-      <c r="F4" s="63">
+      <c r="F4" s="178">
         <v>1120</v>
       </c>
-      <c r="G4" s="63">
+      <c r="G4" s="178">
         <v>1280</v>
       </c>
-      <c r="H4" s="63">
+      <c r="H4" s="178">
         <v>1440</v>
       </c>
-      <c r="I4" s="63">
+      <c r="I4" s="178">
         <v>1600</v>
       </c>
-      <c r="J4" s="63">
+      <c r="J4" s="178">
         <v>1760</v>
       </c>
-      <c r="K4" s="63">
+      <c r="K4" s="178">
         <v>1920</v>
       </c>
-      <c r="L4" s="63">
+      <c r="L4" s="178">
         <v>2080</v>
       </c>
-      <c r="M4" s="63">
+      <c r="M4" s="178">
         <v>2240</v>
       </c>
       <c r="N4" s="63" t="b">
@@ -18197,31 +18199,31 @@
       <c r="D5" s="177">
         <v>3200</v>
       </c>
-      <c r="E5" s="63">
+      <c r="E5" s="178">
         <v>3840</v>
       </c>
       <c r="F5" s="177">
         <v>4480</v>
       </c>
-      <c r="G5" s="63">
+      <c r="G5" s="178">
         <v>5120</v>
       </c>
       <c r="H5" s="177">
         <v>5760</v>
       </c>
-      <c r="I5" s="63">
+      <c r="I5" s="178">
         <v>6400</v>
       </c>
       <c r="J5" s="177">
         <v>7040</v>
       </c>
-      <c r="K5" s="63">
+      <c r="K5" s="178">
         <v>7680</v>
       </c>
       <c r="L5" s="177">
         <v>8320</v>
       </c>
-      <c r="M5" s="63">
+      <c r="M5" s="178">
         <v>8960</v>
       </c>
       <c r="N5" s="63" t="b">
@@ -18241,31 +18243,31 @@
       <c r="D6" s="177">
         <v>12800</v>
       </c>
-      <c r="E6" s="63">
+      <c r="E6" s="178">
         <v>15360</v>
       </c>
       <c r="F6" s="177">
         <v>17920</v>
       </c>
-      <c r="G6" s="63">
+      <c r="G6" s="178">
         <v>20480</v>
       </c>
       <c r="H6" s="177">
         <v>23040</v>
       </c>
-      <c r="I6" s="63">
+      <c r="I6" s="178">
         <v>25600</v>
       </c>
       <c r="J6" s="177">
         <v>28160</v>
       </c>
-      <c r="K6" s="63">
+      <c r="K6" s="178">
         <v>30720</v>
       </c>
       <c r="L6" s="177">
         <v>33280</v>
       </c>
-      <c r="M6" s="63">
+      <c r="M6" s="178">
         <v>35840</v>
       </c>
       <c r="N6" s="63" t="b">
@@ -18285,31 +18287,31 @@
       <c r="D7" s="177">
         <v>51200</v>
       </c>
-      <c r="E7" s="63">
+      <c r="E7" s="178">
         <v>61440</v>
       </c>
       <c r="F7" s="177">
         <v>71680</v>
       </c>
-      <c r="G7" s="63">
+      <c r="G7" s="178">
         <v>81920</v>
       </c>
       <c r="H7" s="177">
         <v>92160</v>
       </c>
-      <c r="I7" s="63">
+      <c r="I7" s="178">
         <v>102400</v>
       </c>
       <c r="J7" s="177">
         <v>112640</v>
       </c>
-      <c r="K7" s="63">
+      <c r="K7" s="178">
         <v>122880</v>
       </c>
       <c r="L7" s="177">
         <v>133120</v>
       </c>
-      <c r="M7" s="63">
+      <c r="M7" s="178">
         <v>143360</v>
       </c>
       <c r="N7" s="63" t="b">
@@ -18329,31 +18331,31 @@
       <c r="D8" s="177">
         <v>204800</v>
       </c>
-      <c r="E8" s="63">
+      <c r="E8" s="178">
         <v>245760</v>
       </c>
       <c r="F8" s="177">
         <v>286720</v>
       </c>
-      <c r="G8" s="63">
+      <c r="G8" s="178">
         <v>327680</v>
       </c>
       <c r="H8" s="177">
         <v>368640</v>
       </c>
-      <c r="I8" s="63">
+      <c r="I8" s="178">
         <v>409600</v>
       </c>
       <c r="J8" s="177">
         <v>450560</v>
       </c>
-      <c r="K8" s="63">
+      <c r="K8" s="178">
         <v>491520</v>
       </c>
       <c r="L8" s="177">
         <v>532480</v>
       </c>
-      <c r="M8" s="63">
+      <c r="M8" s="178">
         <v>573440</v>
       </c>
       <c r="N8" s="63" t="b">
@@ -18373,31 +18375,31 @@
       <c r="D9" s="177">
         <v>819200</v>
       </c>
-      <c r="E9" s="63">
+      <c r="E9" s="178">
         <v>983040</v>
       </c>
       <c r="F9" s="177">
         <v>1146880</v>
       </c>
-      <c r="G9" s="63">
+      <c r="G9" s="178">
         <v>1310720</v>
       </c>
       <c r="H9" s="177">
         <v>1474560</v>
       </c>
-      <c r="I9" s="63">
+      <c r="I9" s="178">
         <v>1638400</v>
       </c>
       <c r="J9" s="177">
         <v>1802240</v>
       </c>
-      <c r="K9" s="63">
+      <c r="K9" s="178">
         <v>1966080</v>
       </c>
       <c r="L9" s="177">
         <v>2129920</v>
       </c>
-      <c r="M9" s="63">
+      <c r="M9" s="178">
         <v>2293760</v>
       </c>
       <c r="N9" s="63" t="b">
@@ -18417,31 +18419,31 @@
       <c r="D10" s="177">
         <v>3276800</v>
       </c>
-      <c r="E10" s="63">
+      <c r="E10" s="178">
         <v>3932160</v>
       </c>
-      <c r="F10" s="63">
+      <c r="F10" s="178">
         <v>4587520</v>
       </c>
-      <c r="G10" s="63">
+      <c r="G10" s="178">
         <v>5242880</v>
       </c>
-      <c r="H10" s="63">
+      <c r="H10" s="178">
         <v>5898240</v>
       </c>
-      <c r="I10" s="63">
+      <c r="I10" s="178">
         <v>6553600</v>
       </c>
-      <c r="J10" s="63">
+      <c r="J10" s="178">
         <v>7208960</v>
       </c>
-      <c r="K10" s="63">
+      <c r="K10" s="178">
         <v>7864320</v>
       </c>
-      <c r="L10" s="63">
+      <c r="L10" s="178">
         <v>8519680</v>
       </c>
-      <c r="M10" s="63">
+      <c r="M10" s="178">
         <v>9175040</v>
       </c>
       <c r="N10" s="63" t="b">
@@ -18461,31 +18463,31 @@
       <c r="D11" s="177">
         <v>13107200</v>
       </c>
-      <c r="E11" s="63">
+      <c r="E11" s="178">
         <v>15728640</v>
       </c>
-      <c r="F11" s="63">
+      <c r="F11" s="178">
         <v>18350080</v>
       </c>
-      <c r="G11" s="63">
+      <c r="G11" s="178">
         <v>20971520</v>
       </c>
-      <c r="H11" s="63">
+      <c r="H11" s="178">
         <v>23592960</v>
       </c>
-      <c r="I11" s="63">
+      <c r="I11" s="178">
         <v>26214400</v>
       </c>
-      <c r="J11" s="63">
+      <c r="J11" s="178">
         <v>28835840</v>
       </c>
-      <c r="K11" s="63">
+      <c r="K11" s="178">
         <v>31457280</v>
       </c>
-      <c r="L11" s="63">
+      <c r="L11" s="178">
         <v>34078720</v>
       </c>
-      <c r="M11" s="63">
+      <c r="M11" s="178">
         <v>36700160</v>
       </c>
       <c r="N11" s="63" t="b">
@@ -18505,31 +18507,31 @@
       <c r="D12" s="177">
         <v>52428800</v>
       </c>
-      <c r="E12" s="63">
+      <c r="E12" s="178">
         <v>62914560</v>
       </c>
-      <c r="F12" s="63">
+      <c r="F12" s="178">
         <v>73400320</v>
       </c>
-      <c r="G12" s="63">
+      <c r="G12" s="178">
         <v>83886080</v>
       </c>
-      <c r="H12" s="63">
+      <c r="H12" s="178">
         <v>94371840</v>
       </c>
-      <c r="I12" s="63">
+      <c r="I12" s="178">
         <v>104857600</v>
       </c>
-      <c r="J12" s="63">
+      <c r="J12" s="178">
         <v>115343360</v>
       </c>
-      <c r="K12" s="63">
+      <c r="K12" s="178">
         <v>125829120</v>
       </c>
-      <c r="L12" s="63">
+      <c r="L12" s="178">
         <v>136314880</v>
       </c>
-      <c r="M12" s="63">
+      <c r="M12" s="178">
         <v>146800640</v>
       </c>
       <c r="N12" s="63" t="b">
@@ -18549,31 +18551,31 @@
       <c r="D13" s="177">
         <v>209715200</v>
       </c>
-      <c r="E13" s="63">
+      <c r="E13" s="178">
         <v>251658240</v>
       </c>
-      <c r="F13" s="63">
+      <c r="F13" s="178">
         <v>293601280</v>
       </c>
-      <c r="G13" s="63">
+      <c r="G13" s="178">
         <v>335544320</v>
       </c>
-      <c r="H13" s="63">
+      <c r="H13" s="178">
         <v>377487360</v>
       </c>
-      <c r="I13" s="63">
+      <c r="I13" s="178">
         <v>419430400</v>
       </c>
-      <c r="J13" s="63">
+      <c r="J13" s="178">
         <v>461373440</v>
       </c>
-      <c r="K13" s="63">
+      <c r="K13" s="178">
         <v>503316480</v>
       </c>
-      <c r="L13" s="63">
+      <c r="L13" s="178">
         <v>545259520</v>
       </c>
-      <c r="M13" s="63">
+      <c r="M13" s="178">
         <v>587202560</v>
       </c>
       <c r="N13" s="63" t="b">
@@ -18593,31 +18595,31 @@
       <c r="D14" s="177">
         <v>838860800</v>
       </c>
-      <c r="E14" s="63">
+      <c r="E14" s="178">
         <v>1006632960</v>
       </c>
-      <c r="F14" s="63">
+      <c r="F14" s="178">
         <v>1174405120</v>
       </c>
-      <c r="G14" s="63">
+      <c r="G14" s="178">
         <v>1342177280</v>
       </c>
-      <c r="H14" s="63">
+      <c r="H14" s="178">
         <v>1509949440</v>
       </c>
-      <c r="I14" s="63">
+      <c r="I14" s="178">
         <v>1677721600</v>
       </c>
-      <c r="J14" s="63">
+      <c r="J14" s="178">
         <v>1845493760</v>
       </c>
-      <c r="K14" s="63">
+      <c r="K14" s="178">
         <v>2013265920</v>
       </c>
-      <c r="L14" s="63">
+      <c r="L14" s="178">
         <v>2181038080</v>
       </c>
-      <c r="M14" s="63">
+      <c r="M14" s="178">
         <v>2348810240</v>
       </c>
       <c r="N14" s="63" t="b">
@@ -18637,31 +18639,31 @@
       <c r="D15" s="177">
         <v>3355443200</v>
       </c>
-      <c r="E15" s="63">
+      <c r="E15" s="178">
         <v>4026531840</v>
       </c>
-      <c r="F15" s="63">
+      <c r="F15" s="178">
         <v>4697620480</v>
       </c>
-      <c r="G15" s="63">
+      <c r="G15" s="178">
         <v>5368709120</v>
       </c>
-      <c r="H15" s="63">
+      <c r="H15" s="178">
         <v>6039797760</v>
       </c>
-      <c r="I15" s="63">
+      <c r="I15" s="178">
         <v>6710886400</v>
       </c>
-      <c r="J15" s="63">
+      <c r="J15" s="178">
         <v>7381975040</v>
       </c>
-      <c r="K15" s="63">
+      <c r="K15" s="178">
         <v>8053063680</v>
       </c>
-      <c r="L15" s="63">
+      <c r="L15" s="178">
         <v>8724152320</v>
       </c>
-      <c r="M15" s="63">
+      <c r="M15" s="178">
         <v>9395240960</v>
       </c>
       <c r="N15" s="63" t="b">
@@ -18681,31 +18683,31 @@
       <c r="D16" s="177">
         <v>13421772800</v>
       </c>
-      <c r="E16" s="63">
+      <c r="E16" s="178">
         <v>16106127360</v>
       </c>
-      <c r="F16" s="63">
+      <c r="F16" s="178">
         <v>18790481920</v>
       </c>
-      <c r="G16" s="63">
+      <c r="G16" s="178">
         <v>21474836480</v>
       </c>
-      <c r="H16" s="63">
+      <c r="H16" s="178">
         <v>24159191040</v>
       </c>
-      <c r="I16" s="63">
+      <c r="I16" s="178">
         <v>26843545600</v>
       </c>
-      <c r="J16" s="63">
+      <c r="J16" s="178">
         <v>29527900160</v>
       </c>
-      <c r="K16" s="63">
+      <c r="K16" s="178">
         <v>32212254720</v>
       </c>
-      <c r="L16" s="63">
+      <c r="L16" s="178">
         <v>34896609280</v>
       </c>
-      <c r="M16" s="63">
+      <c r="M16" s="178">
         <v>37580963840</v>
       </c>
       <c r="N16" s="63" t="b">
@@ -18725,31 +18727,31 @@
       <c r="D17" s="177">
         <v>53687091200</v>
       </c>
-      <c r="E17" s="63">
+      <c r="E17" s="178">
         <v>64424509440</v>
       </c>
-      <c r="F17" s="63">
+      <c r="F17" s="178">
         <v>75161927680</v>
       </c>
-      <c r="G17" s="63">
+      <c r="G17" s="178">
         <v>85899345920</v>
       </c>
-      <c r="H17" s="63">
+      <c r="H17" s="178">
         <v>96636764160</v>
       </c>
-      <c r="I17" s="63">
+      <c r="I17" s="178">
         <v>107374182400</v>
       </c>
-      <c r="J17" s="63">
+      <c r="J17" s="178">
         <v>118111600640</v>
       </c>
-      <c r="K17" s="63">
+      <c r="K17" s="178">
         <v>128849018880</v>
       </c>
-      <c r="L17" s="63">
+      <c r="L17" s="178">
         <v>139586437120</v>
       </c>
-      <c r="M17" s="63">
+      <c r="M17" s="178">
         <v>150323855360</v>
       </c>
       <c r="N17" s="63" t="b">
@@ -18769,31 +18771,31 @@
       <c r="D18" s="177">
         <v>214748364800</v>
       </c>
-      <c r="E18" s="63">
+      <c r="E18" s="178">
         <v>257698037760</v>
       </c>
-      <c r="F18" s="63">
+      <c r="F18" s="178">
         <v>300647710720</v>
       </c>
-      <c r="G18" s="63">
+      <c r="G18" s="178">
         <v>343597383680</v>
       </c>
-      <c r="H18" s="63">
+      <c r="H18" s="178">
         <v>386547056640</v>
       </c>
-      <c r="I18" s="63">
+      <c r="I18" s="178">
         <v>429496729600</v>
       </c>
-      <c r="J18" s="63">
+      <c r="J18" s="178">
         <v>472446402560</v>
       </c>
-      <c r="K18" s="63">
+      <c r="K18" s="178">
         <v>515396075520</v>
       </c>
-      <c r="L18" s="63">
+      <c r="L18" s="178">
         <v>558345748480</v>
       </c>
-      <c r="M18" s="63">
+      <c r="M18" s="178">
         <v>601295421440</v>
       </c>
       <c r="N18" s="63" t="b">
@@ -18813,31 +18815,31 @@
       <c r="D19" s="177">
         <v>858993459200</v>
       </c>
-      <c r="E19" s="63">
+      <c r="E19" s="178">
         <v>1030792151040</v>
       </c>
-      <c r="F19" s="63">
+      <c r="F19" s="178">
         <v>1202590842880</v>
       </c>
-      <c r="G19" s="63">
+      <c r="G19" s="178">
         <v>1374389534720</v>
       </c>
-      <c r="H19" s="63">
+      <c r="H19" s="178">
         <v>1546188226560</v>
       </c>
-      <c r="I19" s="63">
+      <c r="I19" s="178">
         <v>1717986918400</v>
       </c>
-      <c r="J19" s="63">
+      <c r="J19" s="178">
         <v>1889785610240</v>
       </c>
-      <c r="K19" s="63">
+      <c r="K19" s="178">
         <v>2061584302080</v>
       </c>
-      <c r="L19" s="63">
+      <c r="L19" s="178">
         <v>2233382993920</v>
       </c>
-      <c r="M19" s="63">
+      <c r="M19" s="178">
         <v>2405181685760</v>
       </c>
       <c r="N19" s="63" t="b">
@@ -18857,31 +18859,31 @@
       <c r="D20" s="177">
         <v>3435973836800</v>
       </c>
-      <c r="E20" s="63">
+      <c r="E20" s="178">
         <v>4123168604160</v>
       </c>
-      <c r="F20" s="63">
+      <c r="F20" s="178">
         <v>4810363371520</v>
       </c>
-      <c r="G20" s="63">
+      <c r="G20" s="178">
         <v>5497558138880</v>
       </c>
-      <c r="H20" s="63">
+      <c r="H20" s="178">
         <v>6184752906240</v>
       </c>
-      <c r="I20" s="63">
+      <c r="I20" s="178">
         <v>1717986918400</v>
       </c>
-      <c r="J20" s="63">
+      <c r="J20" s="178">
         <v>7559142440960</v>
       </c>
-      <c r="K20" s="63">
+      <c r="K20" s="178">
         <v>8246337208320</v>
       </c>
-      <c r="L20" s="63">
+      <c r="L20" s="178">
         <v>8933531975680</v>
       </c>
-      <c r="M20" s="63">
+      <c r="M20" s="178">
         <v>9620726743040</v>
       </c>
       <c r="N20" s="63" t="b">
@@ -18901,31 +18903,31 @@
       <c r="D21" s="177">
         <v>13743895347200</v>
       </c>
-      <c r="E21" s="63">
+      <c r="E21" s="178">
         <v>16492674416640</v>
       </c>
-      <c r="F21" s="63">
+      <c r="F21" s="178">
         <v>19241453486080</v>
       </c>
-      <c r="G21" s="63">
+      <c r="G21" s="178">
         <v>21990232555520</v>
       </c>
-      <c r="H21" s="63">
+      <c r="H21" s="178">
         <v>24739011624960</v>
       </c>
-      <c r="I21" s="63">
+      <c r="I21" s="178">
         <v>27487790694400</v>
       </c>
-      <c r="J21" s="63">
+      <c r="J21" s="178">
         <v>30236569763840</v>
       </c>
-      <c r="K21" s="63">
+      <c r="K21" s="178">
         <v>32985348833280</v>
       </c>
-      <c r="L21" s="63">
+      <c r="L21" s="178">
         <v>35734127902720</v>
       </c>
-      <c r="M21" s="63">
+      <c r="M21" s="178">
         <v>38482906972160</v>
       </c>
       <c r="N21" s="63" t="b">
@@ -18940,7 +18942,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -19540,7 +19542,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:N23"/>
   <sheetViews>
     <sheetView topLeftCell="G1" workbookViewId="0">
@@ -20165,7 +20167,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:C104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -21110,7 +21112,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/Project1/Assets/Script/Data/weaponDB.xlsx
+++ b/Project1/Assets/Script/Data/weaponDB.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\원형\Desktop\TeamProject1\Project1\Assets\Script\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TeamProject1\Project1\Assets\Script\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1114,65 +1114,84 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>weapon_1</t>
+    <t>weapon1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>weapon_9</t>
+    <t>weapon2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>weapon_10</t>
+    <t>weapon3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>weapon_11</t>
+    <t>weapon4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>weapon_12</t>
+    <t>weapon5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>weapon_13</t>
+    <t>weapon6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>weapon_14</t>
+    <t>weapon7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>weapon_15</t>
+    <t>weapon8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>weapon_16</t>
+    <t>weapon9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>weapon_17</t>
+    <t>weapon10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>weapon_18</t>
+    <t>weapon11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>weapon_19</t>
+    <t>weapon12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>weapon_20</t>
+    <t>weapon13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>weapon_2</t>
+    <t>weapon14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>weapon_3</t>
+    <t>weapon15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>weapon_4</t>
+    <t>weapon16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>weapon_5</t>
+    <t>weapon17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>weapon_6</t>
+    <t>weapon18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>weapon_7</t>
+    <t>weapon19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>weapon_8</t>
+    <t>weapon20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1991,16 +2010,37 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2030,78 +2070,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2124,6 +2092,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2192,13 +2172,55 @@
     <xf numFmtId="0" fontId="2" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2250,6 +2272,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2317,12 +2342,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2706,33 +2725,33 @@
     </row>
     <row r="2" spans="1:48" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8"/>
-      <c r="B2" s="96" t="s">
+      <c r="B2" s="70" t="s">
         <v>68</v>
       </c>
-      <c r="C2" s="97"/>
-      <c r="D2" s="97"/>
-      <c r="E2" s="97"/>
-      <c r="F2" s="97"/>
-      <c r="G2" s="97"/>
-      <c r="H2" s="97"/>
-      <c r="I2" s="97"/>
-      <c r="J2" s="97"/>
-      <c r="K2" s="97"/>
-      <c r="L2" s="97"/>
-      <c r="M2" s="97"/>
-      <c r="N2" s="97"/>
-      <c r="O2" s="97"/>
-      <c r="P2" s="97"/>
-      <c r="Q2" s="97"/>
-      <c r="R2" s="97"/>
-      <c r="S2" s="97"/>
-      <c r="T2" s="97"/>
-      <c r="U2" s="97"/>
-      <c r="V2" s="97"/>
-      <c r="W2" s="97"/>
-      <c r="X2" s="97"/>
-      <c r="Y2" s="97"/>
-      <c r="Z2" s="98"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="71"/>
+      <c r="I2" s="71"/>
+      <c r="J2" s="71"/>
+      <c r="K2" s="71"/>
+      <c r="L2" s="71"/>
+      <c r="M2" s="71"/>
+      <c r="N2" s="71"/>
+      <c r="O2" s="71"/>
+      <c r="P2" s="71"/>
+      <c r="Q2" s="71"/>
+      <c r="R2" s="71"/>
+      <c r="S2" s="71"/>
+      <c r="T2" s="71"/>
+      <c r="U2" s="71"/>
+      <c r="V2" s="71"/>
+      <c r="W2" s="71"/>
+      <c r="X2" s="71"/>
+      <c r="Y2" s="71"/>
+      <c r="Z2" s="72"/>
       <c r="AA2" s="8"/>
       <c r="AB2" s="8"/>
       <c r="AC2" s="8"/>
@@ -2758,31 +2777,31 @@
     </row>
     <row r="3" spans="1:48" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="8"/>
-      <c r="B3" s="99"/>
-      <c r="C3" s="100"/>
-      <c r="D3" s="100"/>
-      <c r="E3" s="100"/>
-      <c r="F3" s="100"/>
-      <c r="G3" s="100"/>
-      <c r="H3" s="100"/>
-      <c r="I3" s="100"/>
-      <c r="J3" s="100"/>
-      <c r="K3" s="100"/>
-      <c r="L3" s="100"/>
-      <c r="M3" s="100"/>
-      <c r="N3" s="100"/>
-      <c r="O3" s="100"/>
-      <c r="P3" s="100"/>
-      <c r="Q3" s="100"/>
-      <c r="R3" s="100"/>
-      <c r="S3" s="100"/>
-      <c r="T3" s="100"/>
-      <c r="U3" s="100"/>
-      <c r="V3" s="100"/>
-      <c r="W3" s="100"/>
-      <c r="X3" s="100"/>
-      <c r="Y3" s="100"/>
-      <c r="Z3" s="101"/>
+      <c r="B3" s="73"/>
+      <c r="C3" s="74"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="74"/>
+      <c r="H3" s="74"/>
+      <c r="I3" s="74"/>
+      <c r="J3" s="74"/>
+      <c r="K3" s="74"/>
+      <c r="L3" s="74"/>
+      <c r="M3" s="74"/>
+      <c r="N3" s="74"/>
+      <c r="O3" s="74"/>
+      <c r="P3" s="74"/>
+      <c r="Q3" s="74"/>
+      <c r="R3" s="74"/>
+      <c r="S3" s="74"/>
+      <c r="T3" s="74"/>
+      <c r="U3" s="74"/>
+      <c r="V3" s="74"/>
+      <c r="W3" s="74"/>
+      <c r="X3" s="74"/>
+      <c r="Y3" s="74"/>
+      <c r="Z3" s="75"/>
       <c r="AA3" s="8"/>
       <c r="AB3" s="8"/>
       <c r="AC3" s="8"/>
@@ -2808,31 +2827,31 @@
     </row>
     <row r="4" spans="1:48" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="8"/>
-      <c r="B4" s="102"/>
-      <c r="C4" s="103"/>
-      <c r="D4" s="103"/>
-      <c r="E4" s="103"/>
-      <c r="F4" s="103"/>
-      <c r="G4" s="103"/>
-      <c r="H4" s="103"/>
-      <c r="I4" s="103"/>
-      <c r="J4" s="103"/>
-      <c r="K4" s="103"/>
-      <c r="L4" s="103"/>
-      <c r="M4" s="103"/>
-      <c r="N4" s="103"/>
-      <c r="O4" s="103"/>
-      <c r="P4" s="103"/>
-      <c r="Q4" s="103"/>
-      <c r="R4" s="103"/>
-      <c r="S4" s="103"/>
-      <c r="T4" s="103"/>
-      <c r="U4" s="103"/>
-      <c r="V4" s="103"/>
-      <c r="W4" s="103"/>
-      <c r="X4" s="103"/>
-      <c r="Y4" s="103"/>
-      <c r="Z4" s="104"/>
+      <c r="B4" s="76"/>
+      <c r="C4" s="77"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="77"/>
+      <c r="H4" s="77"/>
+      <c r="I4" s="77"/>
+      <c r="J4" s="77"/>
+      <c r="K4" s="77"/>
+      <c r="L4" s="77"/>
+      <c r="M4" s="77"/>
+      <c r="N4" s="77"/>
+      <c r="O4" s="77"/>
+      <c r="P4" s="77"/>
+      <c r="Q4" s="77"/>
+      <c r="R4" s="77"/>
+      <c r="S4" s="77"/>
+      <c r="T4" s="77"/>
+      <c r="U4" s="77"/>
+      <c r="V4" s="77"/>
+      <c r="W4" s="77"/>
+      <c r="X4" s="77"/>
+      <c r="Y4" s="77"/>
+      <c r="Z4" s="78"/>
       <c r="AA4" s="8"/>
       <c r="AB4" s="8"/>
       <c r="AC4" s="8"/>
@@ -2958,10 +2977,10 @@
     </row>
     <row r="7" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A7" s="8"/>
-      <c r="B7" s="131" t="s">
+      <c r="B7" s="118" t="s">
         <v>67</v>
       </c>
-      <c r="C7" s="132"/>
+      <c r="C7" s="119"/>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
@@ -3010,8 +3029,8 @@
     </row>
     <row r="8" spans="1:48" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="8"/>
-      <c r="B8" s="133"/>
-      <c r="C8" s="134"/>
+      <c r="B8" s="120"/>
+      <c r="C8" s="121"/>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
@@ -3120,27 +3139,27 @@
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
-      <c r="L10" s="119" t="s">
+      <c r="L10" s="106" t="s">
         <v>69</v>
       </c>
-      <c r="M10" s="120"/>
-      <c r="N10" s="113" t="s">
+      <c r="M10" s="107"/>
+      <c r="N10" s="100" t="s">
         <v>24</v>
       </c>
-      <c r="O10" s="114"/>
-      <c r="P10" s="72" t="s">
+      <c r="O10" s="101"/>
+      <c r="P10" s="79" t="s">
         <v>127</v>
       </c>
-      <c r="Q10" s="73"/>
-      <c r="R10" s="73"/>
-      <c r="S10" s="73"/>
-      <c r="T10" s="73"/>
-      <c r="U10" s="73"/>
-      <c r="V10" s="73"/>
-      <c r="W10" s="73"/>
-      <c r="X10" s="73"/>
-      <c r="Y10" s="73"/>
-      <c r="Z10" s="74"/>
+      <c r="Q10" s="80"/>
+      <c r="R10" s="80"/>
+      <c r="S10" s="80"/>
+      <c r="T10" s="80"/>
+      <c r="U10" s="80"/>
+      <c r="V10" s="80"/>
+      <c r="W10" s="80"/>
+      <c r="X10" s="80"/>
+      <c r="Y10" s="80"/>
+      <c r="Z10" s="81"/>
       <c r="AA10" s="8"/>
       <c r="AB10" s="8"/>
       <c r="AC10" s="8"/>
@@ -3176,21 +3195,21 @@
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
-      <c r="L11" s="121"/>
-      <c r="M11" s="122"/>
-      <c r="N11" s="115"/>
-      <c r="O11" s="116"/>
-      <c r="P11" s="75"/>
-      <c r="Q11" s="76"/>
-      <c r="R11" s="76"/>
-      <c r="S11" s="76"/>
-      <c r="T11" s="76"/>
-      <c r="U11" s="76"/>
-      <c r="V11" s="76"/>
-      <c r="W11" s="76"/>
-      <c r="X11" s="76"/>
-      <c r="Y11" s="76"/>
-      <c r="Z11" s="77"/>
+      <c r="L11" s="108"/>
+      <c r="M11" s="109"/>
+      <c r="N11" s="102"/>
+      <c r="O11" s="103"/>
+      <c r="P11" s="82"/>
+      <c r="Q11" s="83"/>
+      <c r="R11" s="83"/>
+      <c r="S11" s="83"/>
+      <c r="T11" s="83"/>
+      <c r="U11" s="83"/>
+      <c r="V11" s="83"/>
+      <c r="W11" s="83"/>
+      <c r="X11" s="83"/>
+      <c r="Y11" s="83"/>
+      <c r="Z11" s="84"/>
       <c r="AA11" s="8"/>
       <c r="AB11" s="8"/>
       <c r="AC11" s="8"/>
@@ -3226,21 +3245,21 @@
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
-      <c r="L12" s="121"/>
-      <c r="M12" s="122"/>
-      <c r="N12" s="115"/>
-      <c r="O12" s="116"/>
-      <c r="P12" s="75"/>
-      <c r="Q12" s="76"/>
-      <c r="R12" s="76"/>
-      <c r="S12" s="76"/>
-      <c r="T12" s="76"/>
-      <c r="U12" s="76"/>
-      <c r="V12" s="76"/>
-      <c r="W12" s="76"/>
-      <c r="X12" s="76"/>
-      <c r="Y12" s="76"/>
-      <c r="Z12" s="77"/>
+      <c r="L12" s="108"/>
+      <c r="M12" s="109"/>
+      <c r="N12" s="102"/>
+      <c r="O12" s="103"/>
+      <c r="P12" s="82"/>
+      <c r="Q12" s="83"/>
+      <c r="R12" s="83"/>
+      <c r="S12" s="83"/>
+      <c r="T12" s="83"/>
+      <c r="U12" s="83"/>
+      <c r="V12" s="83"/>
+      <c r="W12" s="83"/>
+      <c r="X12" s="83"/>
+      <c r="Y12" s="83"/>
+      <c r="Z12" s="84"/>
       <c r="AA12" s="8"/>
       <c r="AB12" s="8"/>
       <c r="AC12" s="8"/>
@@ -3268,33 +3287,33 @@
       <c r="A13" s="8"/>
       <c r="B13" s="28"/>
       <c r="C13" s="29"/>
-      <c r="D13" s="131" t="s">
+      <c r="D13" s="118" t="s">
         <v>69</v>
       </c>
-      <c r="E13" s="132"/>
+      <c r="E13" s="119"/>
       <c r="F13" s="30"/>
       <c r="G13" s="31"/>
-      <c r="H13" s="109" t="s">
+      <c r="H13" s="92" t="s">
         <v>71</v>
       </c>
-      <c r="I13" s="110"/>
+      <c r="I13" s="93"/>
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
-      <c r="L13" s="121"/>
-      <c r="M13" s="122"/>
-      <c r="N13" s="117"/>
-      <c r="O13" s="118"/>
-      <c r="P13" s="78"/>
-      <c r="Q13" s="79"/>
-      <c r="R13" s="79"/>
-      <c r="S13" s="79"/>
-      <c r="T13" s="79"/>
-      <c r="U13" s="79"/>
-      <c r="V13" s="79"/>
-      <c r="W13" s="79"/>
-      <c r="X13" s="79"/>
-      <c r="Y13" s="79"/>
-      <c r="Z13" s="80"/>
+      <c r="L13" s="108"/>
+      <c r="M13" s="109"/>
+      <c r="N13" s="104"/>
+      <c r="O13" s="105"/>
+      <c r="P13" s="85"/>
+      <c r="Q13" s="86"/>
+      <c r="R13" s="86"/>
+      <c r="S13" s="86"/>
+      <c r="T13" s="86"/>
+      <c r="U13" s="86"/>
+      <c r="V13" s="86"/>
+      <c r="W13" s="86"/>
+      <c r="X13" s="86"/>
+      <c r="Y13" s="86"/>
+      <c r="Z13" s="87"/>
       <c r="AA13" s="8"/>
       <c r="AB13" s="8"/>
       <c r="AC13" s="8"/>
@@ -3322,33 +3341,33 @@
       <c r="A14" s="8"/>
       <c r="B14" s="8"/>
       <c r="C14" s="32"/>
-      <c r="D14" s="133"/>
-      <c r="E14" s="134"/>
+      <c r="D14" s="120"/>
+      <c r="E14" s="121"/>
       <c r="F14" s="33"/>
       <c r="G14" s="8"/>
-      <c r="H14" s="111"/>
-      <c r="I14" s="112"/>
+      <c r="H14" s="94"/>
+      <c r="I14" s="95"/>
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
-      <c r="L14" s="121"/>
-      <c r="M14" s="122"/>
-      <c r="N14" s="113" t="s">
+      <c r="L14" s="108"/>
+      <c r="M14" s="109"/>
+      <c r="N14" s="100" t="s">
         <v>70</v>
       </c>
-      <c r="O14" s="114"/>
-      <c r="P14" s="72" t="s">
+      <c r="O14" s="101"/>
+      <c r="P14" s="79" t="s">
         <v>125</v>
       </c>
-      <c r="Q14" s="73"/>
-      <c r="R14" s="73"/>
-      <c r="S14" s="73"/>
-      <c r="T14" s="73"/>
-      <c r="U14" s="73"/>
-      <c r="V14" s="73"/>
-      <c r="W14" s="73"/>
-      <c r="X14" s="73"/>
-      <c r="Y14" s="73"/>
-      <c r="Z14" s="74"/>
+      <c r="Q14" s="80"/>
+      <c r="R14" s="80"/>
+      <c r="S14" s="80"/>
+      <c r="T14" s="80"/>
+      <c r="U14" s="80"/>
+      <c r="V14" s="80"/>
+      <c r="W14" s="80"/>
+      <c r="X14" s="80"/>
+      <c r="Y14" s="80"/>
+      <c r="Z14" s="81"/>
       <c r="AA14" s="8"/>
       <c r="AB14" s="8"/>
       <c r="AC14" s="8"/>
@@ -3384,21 +3403,21 @@
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
-      <c r="L15" s="121"/>
-      <c r="M15" s="122"/>
-      <c r="N15" s="115"/>
-      <c r="O15" s="116"/>
-      <c r="P15" s="75"/>
-      <c r="Q15" s="76"/>
-      <c r="R15" s="76"/>
-      <c r="S15" s="76"/>
-      <c r="T15" s="76"/>
-      <c r="U15" s="76"/>
-      <c r="V15" s="76"/>
-      <c r="W15" s="76"/>
-      <c r="X15" s="76"/>
-      <c r="Y15" s="76"/>
-      <c r="Z15" s="77"/>
+      <c r="L15" s="108"/>
+      <c r="M15" s="109"/>
+      <c r="N15" s="102"/>
+      <c r="O15" s="103"/>
+      <c r="P15" s="82"/>
+      <c r="Q15" s="83"/>
+      <c r="R15" s="83"/>
+      <c r="S15" s="83"/>
+      <c r="T15" s="83"/>
+      <c r="U15" s="83"/>
+      <c r="V15" s="83"/>
+      <c r="W15" s="83"/>
+      <c r="X15" s="83"/>
+      <c r="Y15" s="83"/>
+      <c r="Z15" s="84"/>
       <c r="AA15" s="8"/>
       <c r="AB15" s="8"/>
       <c r="AC15" s="8"/>
@@ -3434,21 +3453,21 @@
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
-      <c r="L16" s="121"/>
-      <c r="M16" s="122"/>
-      <c r="N16" s="115"/>
-      <c r="O16" s="116"/>
-      <c r="P16" s="75"/>
-      <c r="Q16" s="76"/>
-      <c r="R16" s="76"/>
-      <c r="S16" s="76"/>
-      <c r="T16" s="76"/>
-      <c r="U16" s="76"/>
-      <c r="V16" s="76"/>
-      <c r="W16" s="76"/>
-      <c r="X16" s="76"/>
-      <c r="Y16" s="76"/>
-      <c r="Z16" s="77"/>
+      <c r="L16" s="108"/>
+      <c r="M16" s="109"/>
+      <c r="N16" s="102"/>
+      <c r="O16" s="103"/>
+      <c r="P16" s="82"/>
+      <c r="Q16" s="83"/>
+      <c r="R16" s="83"/>
+      <c r="S16" s="83"/>
+      <c r="T16" s="83"/>
+      <c r="U16" s="83"/>
+      <c r="V16" s="83"/>
+      <c r="W16" s="83"/>
+      <c r="X16" s="83"/>
+      <c r="Y16" s="83"/>
+      <c r="Z16" s="84"/>
       <c r="AA16" s="8"/>
       <c r="AB16" s="8"/>
       <c r="AC16" s="8"/>
@@ -3480,27 +3499,27 @@
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="34"/>
-      <c r="H17" s="109" t="s">
+      <c r="H17" s="92" t="s">
         <v>70</v>
       </c>
-      <c r="I17" s="110"/>
+      <c r="I17" s="93"/>
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
-      <c r="L17" s="123"/>
-      <c r="M17" s="124"/>
-      <c r="N17" s="117"/>
-      <c r="O17" s="118"/>
-      <c r="P17" s="78"/>
-      <c r="Q17" s="79"/>
-      <c r="R17" s="79"/>
-      <c r="S17" s="79"/>
-      <c r="T17" s="79"/>
-      <c r="U17" s="79"/>
-      <c r="V17" s="79"/>
-      <c r="W17" s="79"/>
-      <c r="X17" s="79"/>
-      <c r="Y17" s="79"/>
-      <c r="Z17" s="80"/>
+      <c r="L17" s="110"/>
+      <c r="M17" s="111"/>
+      <c r="N17" s="104"/>
+      <c r="O17" s="105"/>
+      <c r="P17" s="85"/>
+      <c r="Q17" s="86"/>
+      <c r="R17" s="86"/>
+      <c r="S17" s="86"/>
+      <c r="T17" s="86"/>
+      <c r="U17" s="86"/>
+      <c r="V17" s="86"/>
+      <c r="W17" s="86"/>
+      <c r="X17" s="86"/>
+      <c r="Y17" s="86"/>
+      <c r="Z17" s="87"/>
       <c r="AA17" s="8"/>
       <c r="AB17" s="8"/>
       <c r="AC17" s="8"/>
@@ -3532,31 +3551,31 @@
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="35"/>
-      <c r="H18" s="111"/>
-      <c r="I18" s="112"/>
+      <c r="H18" s="94"/>
+      <c r="I18" s="95"/>
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
-      <c r="L18" s="125" t="s">
+      <c r="L18" s="112" t="s">
         <v>72</v>
       </c>
-      <c r="M18" s="126"/>
-      <c r="N18" s="94" t="s">
+      <c r="M18" s="113"/>
+      <c r="N18" s="130" t="s">
         <v>73</v>
       </c>
-      <c r="O18" s="89"/>
-      <c r="P18" s="72" t="s">
+      <c r="O18" s="131"/>
+      <c r="P18" s="79" t="s">
         <v>124</v>
       </c>
-      <c r="Q18" s="81"/>
-      <c r="R18" s="81"/>
-      <c r="S18" s="81"/>
-      <c r="T18" s="81"/>
-      <c r="U18" s="81"/>
-      <c r="V18" s="81"/>
-      <c r="W18" s="81"/>
-      <c r="X18" s="81"/>
-      <c r="Y18" s="81"/>
-      <c r="Z18" s="82"/>
+      <c r="Q18" s="125"/>
+      <c r="R18" s="125"/>
+      <c r="S18" s="125"/>
+      <c r="T18" s="125"/>
+      <c r="U18" s="125"/>
+      <c r="V18" s="125"/>
+      <c r="W18" s="125"/>
+      <c r="X18" s="125"/>
+      <c r="Y18" s="125"/>
+      <c r="Z18" s="126"/>
       <c r="AA18" s="8"/>
       <c r="AB18" s="8"/>
       <c r="AC18" s="8"/>
@@ -3592,21 +3611,21 @@
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
       <c r="K19" s="8"/>
-      <c r="L19" s="127"/>
-      <c r="M19" s="128"/>
-      <c r="N19" s="95"/>
-      <c r="O19" s="93"/>
-      <c r="P19" s="83"/>
-      <c r="Q19" s="84"/>
-      <c r="R19" s="84"/>
-      <c r="S19" s="84"/>
-      <c r="T19" s="84"/>
-      <c r="U19" s="84"/>
-      <c r="V19" s="84"/>
-      <c r="W19" s="84"/>
-      <c r="X19" s="84"/>
-      <c r="Y19" s="84"/>
-      <c r="Z19" s="85"/>
+      <c r="L19" s="114"/>
+      <c r="M19" s="115"/>
+      <c r="N19" s="132"/>
+      <c r="O19" s="133"/>
+      <c r="P19" s="127"/>
+      <c r="Q19" s="128"/>
+      <c r="R19" s="128"/>
+      <c r="S19" s="128"/>
+      <c r="T19" s="128"/>
+      <c r="U19" s="128"/>
+      <c r="V19" s="128"/>
+      <c r="W19" s="128"/>
+      <c r="X19" s="128"/>
+      <c r="Y19" s="128"/>
+      <c r="Z19" s="129"/>
       <c r="AA19" s="8"/>
       <c r="AB19" s="8"/>
       <c r="AC19" s="8"/>
@@ -3642,25 +3661,25 @@
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
-      <c r="L20" s="127"/>
-      <c r="M20" s="128"/>
-      <c r="N20" s="94" t="s">
+      <c r="L20" s="114"/>
+      <c r="M20" s="115"/>
+      <c r="N20" s="130" t="s">
         <v>74</v>
       </c>
-      <c r="O20" s="89"/>
-      <c r="P20" s="86" t="s">
+      <c r="O20" s="131"/>
+      <c r="P20" s="134" t="s">
         <v>123</v>
       </c>
-      <c r="Q20" s="81"/>
-      <c r="R20" s="81"/>
-      <c r="S20" s="81"/>
-      <c r="T20" s="81"/>
-      <c r="U20" s="81"/>
-      <c r="V20" s="81"/>
-      <c r="W20" s="81"/>
-      <c r="X20" s="81"/>
-      <c r="Y20" s="81"/>
-      <c r="Z20" s="82"/>
+      <c r="Q20" s="125"/>
+      <c r="R20" s="125"/>
+      <c r="S20" s="125"/>
+      <c r="T20" s="125"/>
+      <c r="U20" s="125"/>
+      <c r="V20" s="125"/>
+      <c r="W20" s="125"/>
+      <c r="X20" s="125"/>
+      <c r="Y20" s="125"/>
+      <c r="Z20" s="126"/>
       <c r="AA20" s="8"/>
       <c r="AB20" s="8"/>
       <c r="AC20" s="8"/>
@@ -3688,33 +3707,33 @@
       <c r="A21" s="8"/>
       <c r="B21" s="8"/>
       <c r="C21" s="29"/>
-      <c r="D21" s="105" t="s">
+      <c r="D21" s="88" t="s">
         <v>72</v>
       </c>
-      <c r="E21" s="106"/>
+      <c r="E21" s="89"/>
       <c r="F21" s="30"/>
       <c r="G21" s="31"/>
-      <c r="H21" s="68" t="s">
+      <c r="H21" s="96" t="s">
         <v>73</v>
       </c>
-      <c r="I21" s="69"/>
+      <c r="I21" s="97"/>
       <c r="J21" s="8"/>
       <c r="K21" s="8"/>
-      <c r="L21" s="127"/>
-      <c r="M21" s="128"/>
-      <c r="N21" s="95"/>
-      <c r="O21" s="93"/>
-      <c r="P21" s="83"/>
-      <c r="Q21" s="84"/>
-      <c r="R21" s="84"/>
-      <c r="S21" s="84"/>
-      <c r="T21" s="84"/>
-      <c r="U21" s="84"/>
-      <c r="V21" s="84"/>
-      <c r="W21" s="84"/>
-      <c r="X21" s="84"/>
-      <c r="Y21" s="84"/>
-      <c r="Z21" s="85"/>
+      <c r="L21" s="114"/>
+      <c r="M21" s="115"/>
+      <c r="N21" s="132"/>
+      <c r="O21" s="133"/>
+      <c r="P21" s="127"/>
+      <c r="Q21" s="128"/>
+      <c r="R21" s="128"/>
+      <c r="S21" s="128"/>
+      <c r="T21" s="128"/>
+      <c r="U21" s="128"/>
+      <c r="V21" s="128"/>
+      <c r="W21" s="128"/>
+      <c r="X21" s="128"/>
+      <c r="Y21" s="128"/>
+      <c r="Z21" s="129"/>
       <c r="AA21" s="8"/>
       <c r="AB21" s="8"/>
       <c r="AC21" s="8"/>
@@ -3742,33 +3761,33 @@
       <c r="A22" s="8"/>
       <c r="B22" s="8"/>
       <c r="C22" s="36"/>
-      <c r="D22" s="107"/>
-      <c r="E22" s="108"/>
+      <c r="D22" s="90"/>
+      <c r="E22" s="91"/>
       <c r="F22" s="33"/>
       <c r="G22" s="8"/>
-      <c r="H22" s="70"/>
-      <c r="I22" s="71"/>
+      <c r="H22" s="98"/>
+      <c r="I22" s="99"/>
       <c r="J22" s="8"/>
       <c r="K22" s="8"/>
-      <c r="L22" s="127"/>
-      <c r="M22" s="128"/>
-      <c r="N22" s="88" t="s">
+      <c r="L22" s="114"/>
+      <c r="M22" s="115"/>
+      <c r="N22" s="122" t="s">
         <v>75</v>
       </c>
-      <c r="O22" s="89"/>
-      <c r="P22" s="87" t="s">
+      <c r="O22" s="131"/>
+      <c r="P22" s="135" t="s">
         <v>122</v>
       </c>
-      <c r="Q22" s="73"/>
-      <c r="R22" s="73"/>
-      <c r="S22" s="73"/>
-      <c r="T22" s="73"/>
-      <c r="U22" s="73"/>
-      <c r="V22" s="73"/>
-      <c r="W22" s="73"/>
-      <c r="X22" s="73"/>
-      <c r="Y22" s="73"/>
-      <c r="Z22" s="74"/>
+      <c r="Q22" s="80"/>
+      <c r="R22" s="80"/>
+      <c r="S22" s="80"/>
+      <c r="T22" s="80"/>
+      <c r="U22" s="80"/>
+      <c r="V22" s="80"/>
+      <c r="W22" s="80"/>
+      <c r="X22" s="80"/>
+      <c r="Y22" s="80"/>
+      <c r="Z22" s="81"/>
       <c r="AA22" s="8"/>
       <c r="AB22" s="8"/>
       <c r="AC22" s="8"/>
@@ -3804,21 +3823,21 @@
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
       <c r="K23" s="8"/>
-      <c r="L23" s="127"/>
-      <c r="M23" s="128"/>
-      <c r="N23" s="90"/>
-      <c r="O23" s="91"/>
-      <c r="P23" s="75"/>
-      <c r="Q23" s="76"/>
-      <c r="R23" s="76"/>
-      <c r="S23" s="76"/>
-      <c r="T23" s="76"/>
-      <c r="U23" s="76"/>
-      <c r="V23" s="76"/>
-      <c r="W23" s="76"/>
-      <c r="X23" s="76"/>
-      <c r="Y23" s="76"/>
-      <c r="Z23" s="77"/>
+      <c r="L23" s="114"/>
+      <c r="M23" s="115"/>
+      <c r="N23" s="123"/>
+      <c r="O23" s="136"/>
+      <c r="P23" s="82"/>
+      <c r="Q23" s="83"/>
+      <c r="R23" s="83"/>
+      <c r="S23" s="83"/>
+      <c r="T23" s="83"/>
+      <c r="U23" s="83"/>
+      <c r="V23" s="83"/>
+      <c r="W23" s="83"/>
+      <c r="X23" s="83"/>
+      <c r="Y23" s="83"/>
+      <c r="Z23" s="84"/>
       <c r="AA23" s="8"/>
       <c r="AB23" s="8"/>
       <c r="AC23" s="8"/>
@@ -3854,21 +3873,21 @@
       <c r="I24" s="8"/>
       <c r="J24" s="8"/>
       <c r="K24" s="8"/>
-      <c r="L24" s="127"/>
-      <c r="M24" s="128"/>
-      <c r="N24" s="90"/>
-      <c r="O24" s="91"/>
-      <c r="P24" s="75"/>
-      <c r="Q24" s="76"/>
-      <c r="R24" s="76"/>
-      <c r="S24" s="76"/>
-      <c r="T24" s="76"/>
-      <c r="U24" s="76"/>
-      <c r="V24" s="76"/>
-      <c r="W24" s="76"/>
-      <c r="X24" s="76"/>
-      <c r="Y24" s="76"/>
-      <c r="Z24" s="77"/>
+      <c r="L24" s="114"/>
+      <c r="M24" s="115"/>
+      <c r="N24" s="123"/>
+      <c r="O24" s="136"/>
+      <c r="P24" s="82"/>
+      <c r="Q24" s="83"/>
+      <c r="R24" s="83"/>
+      <c r="S24" s="83"/>
+      <c r="T24" s="83"/>
+      <c r="U24" s="83"/>
+      <c r="V24" s="83"/>
+      <c r="W24" s="83"/>
+      <c r="X24" s="83"/>
+      <c r="Y24" s="83"/>
+      <c r="Z24" s="84"/>
       <c r="AA24" s="8"/>
       <c r="AB24" s="8"/>
       <c r="AC24" s="8"/>
@@ -3904,21 +3923,21 @@
       <c r="I25" s="8"/>
       <c r="J25" s="8"/>
       <c r="K25" s="8"/>
-      <c r="L25" s="127"/>
-      <c r="M25" s="128"/>
-      <c r="N25" s="92"/>
-      <c r="O25" s="93"/>
-      <c r="P25" s="78"/>
-      <c r="Q25" s="79"/>
-      <c r="R25" s="79"/>
-      <c r="S25" s="79"/>
-      <c r="T25" s="79"/>
-      <c r="U25" s="79"/>
-      <c r="V25" s="79"/>
-      <c r="W25" s="79"/>
-      <c r="X25" s="79"/>
-      <c r="Y25" s="79"/>
-      <c r="Z25" s="80"/>
+      <c r="L25" s="114"/>
+      <c r="M25" s="115"/>
+      <c r="N25" s="124"/>
+      <c r="O25" s="133"/>
+      <c r="P25" s="85"/>
+      <c r="Q25" s="86"/>
+      <c r="R25" s="86"/>
+      <c r="S25" s="86"/>
+      <c r="T25" s="86"/>
+      <c r="U25" s="86"/>
+      <c r="V25" s="86"/>
+      <c r="W25" s="86"/>
+      <c r="X25" s="86"/>
+      <c r="Y25" s="86"/>
+      <c r="Z25" s="87"/>
       <c r="AA25" s="8"/>
       <c r="AB25" s="8"/>
       <c r="AC25" s="8"/>
@@ -3950,31 +3969,31 @@
       <c r="E26" s="8"/>
       <c r="F26" s="28"/>
       <c r="G26" s="28"/>
-      <c r="H26" s="68" t="s">
+      <c r="H26" s="96" t="s">
         <v>74</v>
       </c>
-      <c r="I26" s="69"/>
+      <c r="I26" s="97"/>
       <c r="J26" s="8"/>
       <c r="K26" s="8"/>
-      <c r="L26" s="127"/>
-      <c r="M26" s="128"/>
-      <c r="N26" s="88" t="s">
+      <c r="L26" s="114"/>
+      <c r="M26" s="115"/>
+      <c r="N26" s="122" t="s">
         <v>76</v>
       </c>
-      <c r="O26" s="88"/>
-      <c r="P26" s="72" t="s">
+      <c r="O26" s="122"/>
+      <c r="P26" s="79" t="s">
         <v>131</v>
       </c>
-      <c r="Q26" s="73"/>
-      <c r="R26" s="73"/>
-      <c r="S26" s="73"/>
-      <c r="T26" s="73"/>
-      <c r="U26" s="73"/>
-      <c r="V26" s="73"/>
-      <c r="W26" s="73"/>
-      <c r="X26" s="73"/>
-      <c r="Y26" s="73"/>
-      <c r="Z26" s="74"/>
+      <c r="Q26" s="80"/>
+      <c r="R26" s="80"/>
+      <c r="S26" s="80"/>
+      <c r="T26" s="80"/>
+      <c r="U26" s="80"/>
+      <c r="V26" s="80"/>
+      <c r="W26" s="80"/>
+      <c r="X26" s="80"/>
+      <c r="Y26" s="80"/>
+      <c r="Z26" s="81"/>
       <c r="AA26" s="8"/>
       <c r="AB26" s="8"/>
       <c r="AC26" s="8"/>
@@ -4006,25 +4025,25 @@
       <c r="E27" s="8"/>
       <c r="F27" s="28"/>
       <c r="G27" s="36"/>
-      <c r="H27" s="70"/>
-      <c r="I27" s="71"/>
+      <c r="H27" s="98"/>
+      <c r="I27" s="99"/>
       <c r="J27" s="8"/>
       <c r="K27" s="8"/>
-      <c r="L27" s="127"/>
-      <c r="M27" s="128"/>
-      <c r="N27" s="90"/>
-      <c r="O27" s="90"/>
-      <c r="P27" s="75"/>
-      <c r="Q27" s="76"/>
-      <c r="R27" s="76"/>
-      <c r="S27" s="76"/>
-      <c r="T27" s="76"/>
-      <c r="U27" s="76"/>
-      <c r="V27" s="76"/>
-      <c r="W27" s="76"/>
-      <c r="X27" s="76"/>
-      <c r="Y27" s="76"/>
-      <c r="Z27" s="77"/>
+      <c r="L27" s="114"/>
+      <c r="M27" s="115"/>
+      <c r="N27" s="123"/>
+      <c r="O27" s="123"/>
+      <c r="P27" s="82"/>
+      <c r="Q27" s="83"/>
+      <c r="R27" s="83"/>
+      <c r="S27" s="83"/>
+      <c r="T27" s="83"/>
+      <c r="U27" s="83"/>
+      <c r="V27" s="83"/>
+      <c r="W27" s="83"/>
+      <c r="X27" s="83"/>
+      <c r="Y27" s="83"/>
+      <c r="Z27" s="84"/>
       <c r="AA27" s="8"/>
       <c r="AB27" s="8"/>
       <c r="AC27" s="8"/>
@@ -4060,21 +4079,21 @@
       <c r="I28" s="8"/>
       <c r="J28" s="8"/>
       <c r="K28" s="8"/>
-      <c r="L28" s="127"/>
-      <c r="M28" s="128"/>
-      <c r="N28" s="90"/>
-      <c r="O28" s="90"/>
-      <c r="P28" s="75"/>
-      <c r="Q28" s="76"/>
-      <c r="R28" s="76"/>
-      <c r="S28" s="76"/>
-      <c r="T28" s="76"/>
-      <c r="U28" s="76"/>
-      <c r="V28" s="76"/>
-      <c r="W28" s="76"/>
-      <c r="X28" s="76"/>
-      <c r="Y28" s="76"/>
-      <c r="Z28" s="77"/>
+      <c r="L28" s="114"/>
+      <c r="M28" s="115"/>
+      <c r="N28" s="123"/>
+      <c r="O28" s="123"/>
+      <c r="P28" s="82"/>
+      <c r="Q28" s="83"/>
+      <c r="R28" s="83"/>
+      <c r="S28" s="83"/>
+      <c r="T28" s="83"/>
+      <c r="U28" s="83"/>
+      <c r="V28" s="83"/>
+      <c r="W28" s="83"/>
+      <c r="X28" s="83"/>
+      <c r="Y28" s="83"/>
+      <c r="Z28" s="84"/>
       <c r="AA28" s="8"/>
       <c r="AB28" s="8"/>
       <c r="AC28" s="8"/>
@@ -4110,21 +4129,21 @@
       <c r="I29" s="8"/>
       <c r="J29" s="8"/>
       <c r="K29" s="8"/>
-      <c r="L29" s="127"/>
-      <c r="M29" s="128"/>
-      <c r="N29" s="92"/>
-      <c r="O29" s="92"/>
-      <c r="P29" s="78"/>
-      <c r="Q29" s="79"/>
-      <c r="R29" s="79"/>
-      <c r="S29" s="79"/>
-      <c r="T29" s="79"/>
-      <c r="U29" s="79"/>
-      <c r="V29" s="79"/>
-      <c r="W29" s="79"/>
-      <c r="X29" s="79"/>
-      <c r="Y29" s="79"/>
-      <c r="Z29" s="80"/>
+      <c r="L29" s="114"/>
+      <c r="M29" s="115"/>
+      <c r="N29" s="124"/>
+      <c r="O29" s="124"/>
+      <c r="P29" s="85"/>
+      <c r="Q29" s="86"/>
+      <c r="R29" s="86"/>
+      <c r="S29" s="86"/>
+      <c r="T29" s="86"/>
+      <c r="U29" s="86"/>
+      <c r="V29" s="86"/>
+      <c r="W29" s="86"/>
+      <c r="X29" s="86"/>
+      <c r="Y29" s="86"/>
+      <c r="Z29" s="87"/>
       <c r="AA29" s="8"/>
       <c r="AB29" s="8"/>
       <c r="AC29" s="8"/>
@@ -4160,25 +4179,25 @@
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
       <c r="K30" s="8"/>
-      <c r="L30" s="127"/>
-      <c r="M30" s="128"/>
-      <c r="N30" s="94" t="s">
+      <c r="L30" s="114"/>
+      <c r="M30" s="115"/>
+      <c r="N30" s="130" t="s">
         <v>77</v>
       </c>
-      <c r="O30" s="89"/>
-      <c r="P30" s="72" t="s">
+      <c r="O30" s="131"/>
+      <c r="P30" s="79" t="s">
         <v>121</v>
       </c>
-      <c r="Q30" s="81"/>
-      <c r="R30" s="81"/>
-      <c r="S30" s="81"/>
-      <c r="T30" s="81"/>
-      <c r="U30" s="81"/>
-      <c r="V30" s="81"/>
-      <c r="W30" s="81"/>
-      <c r="X30" s="81"/>
-      <c r="Y30" s="81"/>
-      <c r="Z30" s="82"/>
+      <c r="Q30" s="125"/>
+      <c r="R30" s="125"/>
+      <c r="S30" s="125"/>
+      <c r="T30" s="125"/>
+      <c r="U30" s="125"/>
+      <c r="V30" s="125"/>
+      <c r="W30" s="125"/>
+      <c r="X30" s="125"/>
+      <c r="Y30" s="125"/>
+      <c r="Z30" s="126"/>
       <c r="AA30" s="8"/>
       <c r="AB30" s="8"/>
       <c r="AC30" s="8"/>
@@ -4210,27 +4229,27 @@
       <c r="E31" s="8"/>
       <c r="F31" s="28"/>
       <c r="G31" s="28"/>
-      <c r="H31" s="68" t="s">
+      <c r="H31" s="96" t="s">
         <v>75</v>
       </c>
-      <c r="I31" s="69"/>
+      <c r="I31" s="97"/>
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
-      <c r="L31" s="129"/>
-      <c r="M31" s="130"/>
-      <c r="N31" s="95"/>
-      <c r="O31" s="93"/>
-      <c r="P31" s="83"/>
-      <c r="Q31" s="84"/>
-      <c r="R31" s="84"/>
-      <c r="S31" s="84"/>
-      <c r="T31" s="84"/>
-      <c r="U31" s="84"/>
-      <c r="V31" s="84"/>
-      <c r="W31" s="84"/>
-      <c r="X31" s="84"/>
-      <c r="Y31" s="84"/>
-      <c r="Z31" s="85"/>
+      <c r="L31" s="116"/>
+      <c r="M31" s="117"/>
+      <c r="N31" s="132"/>
+      <c r="O31" s="133"/>
+      <c r="P31" s="127"/>
+      <c r="Q31" s="128"/>
+      <c r="R31" s="128"/>
+      <c r="S31" s="128"/>
+      <c r="T31" s="128"/>
+      <c r="U31" s="128"/>
+      <c r="V31" s="128"/>
+      <c r="W31" s="128"/>
+      <c r="X31" s="128"/>
+      <c r="Y31" s="128"/>
+      <c r="Z31" s="129"/>
       <c r="AA31" s="8"/>
       <c r="AB31" s="8"/>
       <c r="AC31" s="8"/>
@@ -4262,8 +4281,8 @@
       <c r="E32" s="8"/>
       <c r="F32" s="28"/>
       <c r="G32" s="36"/>
-      <c r="H32" s="70"/>
-      <c r="I32" s="71"/>
+      <c r="H32" s="98"/>
+      <c r="I32" s="99"/>
       <c r="J32" s="8"/>
       <c r="K32" s="8"/>
       <c r="L32" s="8"/>
@@ -4462,10 +4481,10 @@
       <c r="E36" s="8"/>
       <c r="F36" s="28"/>
       <c r="G36" s="28"/>
-      <c r="H36" s="68" t="s">
+      <c r="H36" s="96" t="s">
         <v>76</v>
       </c>
-      <c r="I36" s="69"/>
+      <c r="I36" s="97"/>
       <c r="J36" s="8"/>
       <c r="K36" s="8"/>
       <c r="L36" s="8"/>
@@ -4514,8 +4533,8 @@
       <c r="E37" s="8"/>
       <c r="F37" s="28"/>
       <c r="G37" s="36"/>
-      <c r="H37" s="70"/>
-      <c r="I37" s="71"/>
+      <c r="H37" s="98"/>
+      <c r="I37" s="99"/>
       <c r="J37" s="8"/>
       <c r="K37" s="8"/>
       <c r="L37" s="8"/>
@@ -4714,10 +4733,10 @@
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="29"/>
-      <c r="H41" s="68" t="s">
+      <c r="H41" s="96" t="s">
         <v>77</v>
       </c>
-      <c r="I41" s="69"/>
+      <c r="I41" s="97"/>
       <c r="J41" s="8"/>
       <c r="K41" s="8"/>
       <c r="L41" s="8"/>
@@ -4766,8 +4785,8 @@
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="36"/>
-      <c r="H42" s="70"/>
-      <c r="I42" s="71"/>
+      <c r="H42" s="98"/>
+      <c r="I42" s="99"/>
       <c r="J42" s="19"/>
       <c r="K42" s="19"/>
       <c r="L42" s="19"/>
@@ -6399,6 +6418,17 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="H41:I42"/>
+    <mergeCell ref="H36:I37"/>
+    <mergeCell ref="H31:I32"/>
+    <mergeCell ref="H26:I27"/>
+    <mergeCell ref="P10:Z13"/>
+    <mergeCell ref="P18:Z19"/>
+    <mergeCell ref="P20:Z21"/>
+    <mergeCell ref="P22:Z25"/>
+    <mergeCell ref="N22:O25"/>
+    <mergeCell ref="N18:O19"/>
+    <mergeCell ref="N20:O21"/>
     <mergeCell ref="B2:Z4"/>
     <mergeCell ref="P14:Z17"/>
     <mergeCell ref="D21:E22"/>
@@ -6415,17 +6445,6 @@
     <mergeCell ref="P26:Z29"/>
     <mergeCell ref="P30:Z31"/>
     <mergeCell ref="N30:O31"/>
-    <mergeCell ref="H41:I42"/>
-    <mergeCell ref="H36:I37"/>
-    <mergeCell ref="H31:I32"/>
-    <mergeCell ref="H26:I27"/>
-    <mergeCell ref="P10:Z13"/>
-    <mergeCell ref="P18:Z19"/>
-    <mergeCell ref="P20:Z21"/>
-    <mergeCell ref="P22:Z25"/>
-    <mergeCell ref="N22:O25"/>
-    <mergeCell ref="N18:O19"/>
-    <mergeCell ref="N20:O21"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6447,140 +6466,140 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="138" t="s">
+      <c r="B1" s="139" t="s">
         <v>78</v>
       </c>
-      <c r="C1" s="147"/>
-      <c r="D1" s="138" t="s">
+      <c r="C1" s="148"/>
+      <c r="D1" s="139" t="s">
         <v>80</v>
       </c>
-      <c r="E1" s="150"/>
-      <c r="F1" s="151"/>
-      <c r="I1" s="138" t="s">
+      <c r="E1" s="151"/>
+      <c r="F1" s="152"/>
+      <c r="I1" s="139" t="s">
         <v>79</v>
       </c>
-      <c r="J1" s="139"/>
-      <c r="K1" s="138" t="s">
+      <c r="J1" s="140"/>
+      <c r="K1" s="139" t="s">
         <v>81</v>
       </c>
-      <c r="L1" s="142"/>
-      <c r="M1" s="143"/>
-      <c r="P1" s="137" t="s">
+      <c r="L1" s="143"/>
+      <c r="M1" s="144"/>
+      <c r="P1" s="156" t="s">
         <v>82</v>
       </c>
-      <c r="Q1" s="137"/>
-      <c r="R1" s="137" t="s">
+      <c r="Q1" s="156"/>
+      <c r="R1" s="156" t="s">
         <v>83</v>
       </c>
-      <c r="S1" s="137"/>
-      <c r="T1" s="137"/>
-      <c r="W1" s="137" t="s">
+      <c r="S1" s="156"/>
+      <c r="T1" s="156"/>
+      <c r="W1" s="156" t="s">
         <v>84</v>
       </c>
-      <c r="X1" s="137"/>
-      <c r="Y1" s="137" t="s">
+      <c r="X1" s="156"/>
+      <c r="Y1" s="156" t="s">
         <v>85</v>
       </c>
-      <c r="Z1" s="137"/>
-      <c r="AA1" s="137"/>
+      <c r="Z1" s="156"/>
+      <c r="AA1" s="156"/>
     </row>
     <row r="2" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="148"/>
-      <c r="C2" s="149"/>
-      <c r="D2" s="152"/>
-      <c r="E2" s="153"/>
-      <c r="F2" s="154"/>
-      <c r="I2" s="140"/>
-      <c r="J2" s="141"/>
-      <c r="K2" s="144"/>
-      <c r="L2" s="145"/>
-      <c r="M2" s="146"/>
-      <c r="P2" s="137"/>
-      <c r="Q2" s="137"/>
-      <c r="R2" s="137"/>
-      <c r="S2" s="137"/>
-      <c r="T2" s="137"/>
-      <c r="W2" s="137"/>
-      <c r="X2" s="137"/>
-      <c r="Y2" s="137"/>
-      <c r="Z2" s="137"/>
-      <c r="AA2" s="137"/>
+      <c r="B2" s="149"/>
+      <c r="C2" s="150"/>
+      <c r="D2" s="153"/>
+      <c r="E2" s="154"/>
+      <c r="F2" s="155"/>
+      <c r="I2" s="141"/>
+      <c r="J2" s="142"/>
+      <c r="K2" s="145"/>
+      <c r="L2" s="146"/>
+      <c r="M2" s="147"/>
+      <c r="P2" s="156"/>
+      <c r="Q2" s="156"/>
+      <c r="R2" s="156"/>
+      <c r="S2" s="156"/>
+      <c r="T2" s="156"/>
+      <c r="W2" s="156"/>
+      <c r="X2" s="156"/>
+      <c r="Y2" s="156"/>
+      <c r="Z2" s="156"/>
+      <c r="AA2" s="156"/>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="B3" s="136" t="s">
+      <c r="B3" s="138" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="136"/>
-      <c r="D3" s="136"/>
-      <c r="E3" s="136" t="s">
+      <c r="C3" s="138"/>
+      <c r="D3" s="138"/>
+      <c r="E3" s="138" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="136"/>
-      <c r="I3" s="136" t="s">
+      <c r="F3" s="138"/>
+      <c r="I3" s="138" t="s">
         <v>18</v>
       </c>
-      <c r="J3" s="136"/>
-      <c r="K3" s="136"/>
-      <c r="L3" s="136" t="s">
+      <c r="J3" s="138"/>
+      <c r="K3" s="138"/>
+      <c r="L3" s="138" t="s">
         <v>19</v>
       </c>
-      <c r="M3" s="136"/>
-      <c r="P3" s="136" t="s">
+      <c r="M3" s="138"/>
+      <c r="P3" s="138" t="s">
         <v>0</v>
       </c>
-      <c r="Q3" s="136"/>
-      <c r="R3" s="136"/>
-      <c r="S3" s="136" t="s">
+      <c r="Q3" s="138"/>
+      <c r="R3" s="138"/>
+      <c r="S3" s="138" t="s">
         <v>19</v>
       </c>
-      <c r="T3" s="136"/>
-      <c r="W3" s="136" t="s">
+      <c r="T3" s="138"/>
+      <c r="W3" s="138" t="s">
         <v>0</v>
       </c>
-      <c r="X3" s="136"/>
-      <c r="Y3" s="136"/>
-      <c r="Z3" s="136" t="s">
+      <c r="X3" s="138"/>
+      <c r="Y3" s="138"/>
+      <c r="Z3" s="138" t="s">
         <v>19</v>
       </c>
-      <c r="AA3" s="136"/>
+      <c r="AA3" s="138"/>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="B4" s="136" t="s">
+      <c r="B4" s="138" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="136"/>
-      <c r="D4" s="136"/>
-      <c r="E4" s="136" t="s">
+      <c r="C4" s="138"/>
+      <c r="D4" s="138"/>
+      <c r="E4" s="138" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="136"/>
-      <c r="I4" s="136" t="s">
+      <c r="F4" s="138"/>
+      <c r="I4" s="138" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="136"/>
-      <c r="K4" s="136"/>
-      <c r="L4" s="136" t="s">
+      <c r="J4" s="138"/>
+      <c r="K4" s="138"/>
+      <c r="L4" s="138" t="s">
         <v>20</v>
       </c>
-      <c r="M4" s="136"/>
-      <c r="P4" s="136" t="s">
+      <c r="M4" s="138"/>
+      <c r="P4" s="138" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="136"/>
-      <c r="R4" s="136"/>
-      <c r="S4" s="136" t="s">
+      <c r="Q4" s="138"/>
+      <c r="R4" s="138"/>
+      <c r="S4" s="138" t="s">
         <v>21</v>
       </c>
-      <c r="T4" s="136"/>
-      <c r="W4" s="136" t="s">
+      <c r="T4" s="138"/>
+      <c r="W4" s="138" t="s">
         <v>8</v>
       </c>
-      <c r="X4" s="136"/>
-      <c r="Y4" s="136"/>
-      <c r="Z4" s="136" t="s">
+      <c r="X4" s="138"/>
+      <c r="Y4" s="138"/>
+      <c r="Z4" s="138" t="s">
         <v>21</v>
       </c>
-      <c r="AA4" s="136"/>
+      <c r="AA4" s="138"/>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B5" s="10" t="s">
@@ -14445,10 +14464,10 @@
       </c>
     </row>
     <row r="106" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="B106" s="135" t="s">
+      <c r="B106" s="137" t="s">
         <v>14</v>
       </c>
-      <c r="C106" s="135"/>
+      <c r="C106" s="137"/>
       <c r="D106" s="5">
         <f>SUM(D6:D105)</f>
         <v>87316</v>
@@ -14459,10 +14478,10 @@
       <c r="F106" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="I106" s="135" t="s">
+      <c r="I106" s="137" t="s">
         <v>4</v>
       </c>
-      <c r="J106" s="135"/>
+      <c r="J106" s="137"/>
       <c r="K106" s="5">
         <f>SUM(K6:K105)</f>
         <v>360244</v>
@@ -14473,10 +14492,10 @@
       <c r="M106" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="P106" s="135" t="s">
+      <c r="P106" s="137" t="s">
         <v>4</v>
       </c>
-      <c r="Q106" s="135"/>
+      <c r="Q106" s="137"/>
       <c r="R106" s="5">
         <f>SUM(Q6:Q105)</f>
         <v>2195776.0000000005</v>
@@ -14487,10 +14506,10 @@
       <c r="T106" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="W106" s="135" t="s">
+      <c r="W106" s="137" t="s">
         <v>4</v>
       </c>
-      <c r="X106" s="135"/>
+      <c r="X106" s="137"/>
       <c r="Y106" s="5">
         <f>SUM(X6:X105)</f>
         <v>5760000</v>
@@ -14518,6 +14537,22 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="P106:Q106"/>
+    <mergeCell ref="W106:X106"/>
+    <mergeCell ref="Z3:AA3"/>
+    <mergeCell ref="Z4:AA4"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="P1:Q2"/>
+    <mergeCell ref="R1:T2"/>
+    <mergeCell ref="W1:X2"/>
+    <mergeCell ref="Y1:AA2"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="P3:R3"/>
+    <mergeCell ref="P4:R4"/>
+    <mergeCell ref="W3:Y3"/>
+    <mergeCell ref="W4:Y4"/>
     <mergeCell ref="B106:C106"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="I3:K3"/>
@@ -14530,22 +14565,6 @@
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="B4:D4"/>
-    <mergeCell ref="P1:Q2"/>
-    <mergeCell ref="R1:T2"/>
-    <mergeCell ref="W1:X2"/>
-    <mergeCell ref="Y1:AA2"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="P3:R3"/>
-    <mergeCell ref="P4:R4"/>
-    <mergeCell ref="W3:Y3"/>
-    <mergeCell ref="W4:Y4"/>
-    <mergeCell ref="P106:Q106"/>
-    <mergeCell ref="W106:X106"/>
-    <mergeCell ref="Z3:AA3"/>
-    <mergeCell ref="Z4:AA4"/>
-    <mergeCell ref="S3:T3"/>
-    <mergeCell ref="S4:T4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14574,66 +14593,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C1" s="155" t="s">
+      <c r="C1" s="157" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="155"/>
-      <c r="E1" s="155"/>
-      <c r="F1" s="155"/>
-      <c r="G1" s="155"/>
-      <c r="H1" s="155"/>
-      <c r="I1" s="155"/>
+      <c r="D1" s="157"/>
+      <c r="E1" s="157"/>
+      <c r="F1" s="157"/>
+      <c r="G1" s="157"/>
+      <c r="H1" s="157"/>
+      <c r="I1" s="157"/>
     </row>
     <row r="2" spans="2:14" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C2" s="155"/>
-      <c r="D2" s="155"/>
-      <c r="E2" s="155"/>
-      <c r="F2" s="155"/>
-      <c r="G2" s="155"/>
-      <c r="H2" s="155"/>
-      <c r="I2" s="155"/>
+      <c r="C2" s="157"/>
+      <c r="D2" s="157"/>
+      <c r="E2" s="157"/>
+      <c r="F2" s="157"/>
+      <c r="G2" s="157"/>
+      <c r="H2" s="157"/>
+      <c r="I2" s="157"/>
     </row>
     <row r="3" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="20"/>
-      <c r="C3" s="168" t="s">
+      <c r="C3" s="170" t="s">
         <v>88</v>
       </c>
-      <c r="D3" s="168"/>
+      <c r="D3" s="170"/>
       <c r="E3" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="168" t="s">
+      <c r="F3" s="170" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="168"/>
-      <c r="H3" s="168"/>
-      <c r="I3" s="168"/>
-      <c r="K3" s="156" t="s">
+      <c r="G3" s="170"/>
+      <c r="H3" s="170"/>
+      <c r="I3" s="170"/>
+      <c r="K3" s="158" t="s">
         <v>146</v>
       </c>
-      <c r="L3" s="157"/>
-      <c r="M3" s="157"/>
-      <c r="N3" s="158"/>
+      <c r="L3" s="159"/>
+      <c r="M3" s="159"/>
+      <c r="N3" s="160"/>
     </row>
     <row r="4" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="42"/>
-      <c r="C4" s="136" t="s">
+      <c r="C4" s="138" t="s">
         <v>92</v>
       </c>
-      <c r="D4" s="136"/>
+      <c r="D4" s="138"/>
       <c r="E4" s="23" t="s">
         <v>145</v>
       </c>
-      <c r="F4" s="136" t="s">
+      <c r="F4" s="138" t="s">
         <v>26</v>
       </c>
-      <c r="G4" s="136"/>
-      <c r="H4" s="136"/>
-      <c r="I4" s="136"/>
-      <c r="K4" s="159"/>
-      <c r="L4" s="160"/>
-      <c r="M4" s="160"/>
-      <c r="N4" s="161"/>
+      <c r="G4" s="138"/>
+      <c r="H4" s="138"/>
+      <c r="I4" s="138"/>
+      <c r="K4" s="161"/>
+      <c r="L4" s="162"/>
+      <c r="M4" s="162"/>
+      <c r="N4" s="163"/>
     </row>
     <row r="5" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="25"/>
@@ -14658,12 +14677,12 @@
       <c r="I5" s="50" t="s">
         <v>98</v>
       </c>
-      <c r="K5" s="162" t="s">
+      <c r="K5" s="164" t="s">
         <v>91</v>
       </c>
-      <c r="L5" s="163"/>
-      <c r="M5" s="163"/>
-      <c r="N5" s="164"/>
+      <c r="L5" s="165"/>
+      <c r="M5" s="165"/>
+      <c r="N5" s="166"/>
     </row>
     <row r="6" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="4"/>
@@ -14694,10 +14713,10 @@
         <f t="shared" ref="I6:I37" si="3">ROUND(H6:H105,0)</f>
         <v>2</v>
       </c>
-      <c r="K6" s="165"/>
-      <c r="L6" s="166"/>
-      <c r="M6" s="166"/>
-      <c r="N6" s="167"/>
+      <c r="K6" s="167"/>
+      <c r="L6" s="168"/>
+      <c r="M6" s="168"/>
+      <c r="N6" s="169"/>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B7" s="4"/>
@@ -17988,7 +18007,7 @@
   <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -18064,34 +18083,34 @@
       <c r="C2" s="64">
         <v>1</v>
       </c>
-      <c r="D2" s="177">
+      <c r="D2" s="68">
         <v>50</v>
       </c>
-      <c r="E2" s="178">
+      <c r="E2" s="69">
         <v>60</v>
       </c>
-      <c r="F2" s="178">
+      <c r="F2" s="69">
         <v>70</v>
       </c>
-      <c r="G2" s="178">
+      <c r="G2" s="69">
         <v>80</v>
       </c>
-      <c r="H2" s="178">
+      <c r="H2" s="69">
         <v>90</v>
       </c>
-      <c r="I2" s="178">
+      <c r="I2" s="69">
         <v>100</v>
       </c>
-      <c r="J2" s="178">
+      <c r="J2" s="69">
         <v>110</v>
       </c>
-      <c r="K2" s="178">
+      <c r="K2" s="69">
         <v>120</v>
       </c>
-      <c r="L2" s="178">
+      <c r="L2" s="69">
         <v>130</v>
       </c>
-      <c r="M2" s="178">
+      <c r="M2" s="69">
         <v>140</v>
       </c>
       <c r="N2" s="63" t="b">
@@ -18100,7 +18119,7 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="B3" s="63">
         <v>2</v>
@@ -18108,34 +18127,34 @@
       <c r="C3" s="64">
         <v>0</v>
       </c>
-      <c r="D3" s="177">
+      <c r="D3" s="68">
         <v>200</v>
       </c>
-      <c r="E3" s="178">
+      <c r="E3" s="69">
         <v>240</v>
       </c>
-      <c r="F3" s="178">
+      <c r="F3" s="69">
         <v>280</v>
       </c>
-      <c r="G3" s="178">
+      <c r="G3" s="69">
         <v>320</v>
       </c>
-      <c r="H3" s="178">
+      <c r="H3" s="69">
         <v>360</v>
       </c>
-      <c r="I3" s="178">
+      <c r="I3" s="69">
         <v>400</v>
       </c>
-      <c r="J3" s="178">
+      <c r="J3" s="69">
         <v>440</v>
       </c>
-      <c r="K3" s="178">
+      <c r="K3" s="69">
         <v>480</v>
       </c>
-      <c r="L3" s="178">
+      <c r="L3" s="69">
         <v>520</v>
       </c>
-      <c r="M3" s="178">
+      <c r="M3" s="69">
         <v>560</v>
       </c>
       <c r="N3" s="63" t="b">
@@ -18144,7 +18163,7 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="B4" s="63">
         <v>3</v>
@@ -18152,34 +18171,34 @@
       <c r="C4" s="64">
         <v>0</v>
       </c>
-      <c r="D4" s="177">
+      <c r="D4" s="68">
         <v>800</v>
       </c>
-      <c r="E4" s="178">
+      <c r="E4" s="69">
         <v>960</v>
       </c>
-      <c r="F4" s="178">
+      <c r="F4" s="69">
         <v>1120</v>
       </c>
-      <c r="G4" s="178">
+      <c r="G4" s="69">
         <v>1280</v>
       </c>
-      <c r="H4" s="178">
+      <c r="H4" s="69">
         <v>1440</v>
       </c>
-      <c r="I4" s="178">
+      <c r="I4" s="69">
         <v>1600</v>
       </c>
-      <c r="J4" s="178">
+      <c r="J4" s="69">
         <v>1760</v>
       </c>
-      <c r="K4" s="178">
+      <c r="K4" s="69">
         <v>1920</v>
       </c>
-      <c r="L4" s="178">
+      <c r="L4" s="69">
         <v>2080</v>
       </c>
-      <c r="M4" s="178">
+      <c r="M4" s="69">
         <v>2240</v>
       </c>
       <c r="N4" s="63" t="b">
@@ -18188,7 +18207,7 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="B5" s="63">
         <v>4</v>
@@ -18196,34 +18215,34 @@
       <c r="C5" s="64">
         <v>0</v>
       </c>
-      <c r="D5" s="177">
+      <c r="D5" s="68">
         <v>3200</v>
       </c>
-      <c r="E5" s="178">
+      <c r="E5" s="69">
         <v>3840</v>
       </c>
-      <c r="F5" s="177">
+      <c r="F5" s="68">
         <v>4480</v>
       </c>
-      <c r="G5" s="178">
+      <c r="G5" s="69">
         <v>5120</v>
       </c>
-      <c r="H5" s="177">
+      <c r="H5" s="68">
         <v>5760</v>
       </c>
-      <c r="I5" s="178">
+      <c r="I5" s="69">
         <v>6400</v>
       </c>
-      <c r="J5" s="177">
+      <c r="J5" s="68">
         <v>7040</v>
       </c>
-      <c r="K5" s="178">
+      <c r="K5" s="69">
         <v>7680</v>
       </c>
-      <c r="L5" s="177">
+      <c r="L5" s="68">
         <v>8320</v>
       </c>
-      <c r="M5" s="178">
+      <c r="M5" s="69">
         <v>8960</v>
       </c>
       <c r="N5" s="63" t="b">
@@ -18232,7 +18251,7 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="B6" s="63">
         <v>5</v>
@@ -18240,34 +18259,34 @@
       <c r="C6" s="64">
         <v>0</v>
       </c>
-      <c r="D6" s="177">
+      <c r="D6" s="68">
         <v>12800</v>
       </c>
-      <c r="E6" s="178">
+      <c r="E6" s="69">
         <v>15360</v>
       </c>
-      <c r="F6" s="177">
+      <c r="F6" s="68">
         <v>17920</v>
       </c>
-      <c r="G6" s="178">
+      <c r="G6" s="69">
         <v>20480</v>
       </c>
-      <c r="H6" s="177">
+      <c r="H6" s="68">
         <v>23040</v>
       </c>
-      <c r="I6" s="178">
+      <c r="I6" s="69">
         <v>25600</v>
       </c>
-      <c r="J6" s="177">
+      <c r="J6" s="68">
         <v>28160</v>
       </c>
-      <c r="K6" s="178">
+      <c r="K6" s="69">
         <v>30720</v>
       </c>
-      <c r="L6" s="177">
+      <c r="L6" s="68">
         <v>33280</v>
       </c>
-      <c r="M6" s="178">
+      <c r="M6" s="69">
         <v>35840</v>
       </c>
       <c r="N6" s="63" t="b">
@@ -18276,7 +18295,7 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="B7" s="63">
         <v>6</v>
@@ -18284,34 +18303,34 @@
       <c r="C7" s="64">
         <v>0</v>
       </c>
-      <c r="D7" s="177">
+      <c r="D7" s="68">
         <v>51200</v>
       </c>
-      <c r="E7" s="178">
+      <c r="E7" s="69">
         <v>61440</v>
       </c>
-      <c r="F7" s="177">
+      <c r="F7" s="68">
         <v>71680</v>
       </c>
-      <c r="G7" s="178">
+      <c r="G7" s="69">
         <v>81920</v>
       </c>
-      <c r="H7" s="177">
+      <c r="H7" s="68">
         <v>92160</v>
       </c>
-      <c r="I7" s="178">
+      <c r="I7" s="69">
         <v>102400</v>
       </c>
-      <c r="J7" s="177">
+      <c r="J7" s="68">
         <v>112640</v>
       </c>
-      <c r="K7" s="178">
+      <c r="K7" s="69">
         <v>122880</v>
       </c>
-      <c r="L7" s="177">
+      <c r="L7" s="68">
         <v>133120</v>
       </c>
-      <c r="M7" s="178">
+      <c r="M7" s="69">
         <v>143360</v>
       </c>
       <c r="N7" s="63" t="b">
@@ -18320,7 +18339,7 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="B8" s="63">
         <v>7</v>
@@ -18328,34 +18347,34 @@
       <c r="C8" s="64">
         <v>0</v>
       </c>
-      <c r="D8" s="177">
+      <c r="D8" s="68">
         <v>204800</v>
       </c>
-      <c r="E8" s="178">
+      <c r="E8" s="69">
         <v>245760</v>
       </c>
-      <c r="F8" s="177">
+      <c r="F8" s="68">
         <v>286720</v>
       </c>
-      <c r="G8" s="178">
+      <c r="G8" s="69">
         <v>327680</v>
       </c>
-      <c r="H8" s="177">
+      <c r="H8" s="68">
         <v>368640</v>
       </c>
-      <c r="I8" s="178">
+      <c r="I8" s="69">
         <v>409600</v>
       </c>
-      <c r="J8" s="177">
+      <c r="J8" s="68">
         <v>450560</v>
       </c>
-      <c r="K8" s="178">
+      <c r="K8" s="69">
         <v>491520</v>
       </c>
-      <c r="L8" s="177">
+      <c r="L8" s="68">
         <v>532480</v>
       </c>
-      <c r="M8" s="178">
+      <c r="M8" s="69">
         <v>573440</v>
       </c>
       <c r="N8" s="63" t="b">
@@ -18364,7 +18383,7 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="B9" s="63">
         <v>8</v>
@@ -18372,34 +18391,34 @@
       <c r="C9" s="64">
         <v>0</v>
       </c>
-      <c r="D9" s="177">
+      <c r="D9" s="68">
         <v>819200</v>
       </c>
-      <c r="E9" s="178">
+      <c r="E9" s="69">
         <v>983040</v>
       </c>
-      <c r="F9" s="177">
+      <c r="F9" s="68">
         <v>1146880</v>
       </c>
-      <c r="G9" s="178">
+      <c r="G9" s="69">
         <v>1310720</v>
       </c>
-      <c r="H9" s="177">
+      <c r="H9" s="68">
         <v>1474560</v>
       </c>
-      <c r="I9" s="178">
+      <c r="I9" s="69">
         <v>1638400</v>
       </c>
-      <c r="J9" s="177">
+      <c r="J9" s="68">
         <v>1802240</v>
       </c>
-      <c r="K9" s="178">
+      <c r="K9" s="69">
         <v>1966080</v>
       </c>
-      <c r="L9" s="177">
+      <c r="L9" s="68">
         <v>2129920</v>
       </c>
-      <c r="M9" s="178">
+      <c r="M9" s="69">
         <v>2293760</v>
       </c>
       <c r="N9" s="63" t="b">
@@ -18408,7 +18427,7 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="B10" s="63">
         <v>9</v>
@@ -18416,34 +18435,34 @@
       <c r="C10" s="67">
         <v>0</v>
       </c>
-      <c r="D10" s="177">
+      <c r="D10" s="68">
         <v>3276800</v>
       </c>
-      <c r="E10" s="178">
+      <c r="E10" s="69">
         <v>3932160</v>
       </c>
-      <c r="F10" s="178">
+      <c r="F10" s="69">
         <v>4587520</v>
       </c>
-      <c r="G10" s="178">
+      <c r="G10" s="69">
         <v>5242880</v>
       </c>
-      <c r="H10" s="178">
+      <c r="H10" s="69">
         <v>5898240</v>
       </c>
-      <c r="I10" s="178">
+      <c r="I10" s="69">
         <v>6553600</v>
       </c>
-      <c r="J10" s="178">
+      <c r="J10" s="69">
         <v>7208960</v>
       </c>
-      <c r="K10" s="178">
+      <c r="K10" s="69">
         <v>7864320</v>
       </c>
-      <c r="L10" s="178">
+      <c r="L10" s="69">
         <v>8519680</v>
       </c>
-      <c r="M10" s="178">
+      <c r="M10" s="69">
         <v>9175040</v>
       </c>
       <c r="N10" s="63" t="b">
@@ -18452,7 +18471,7 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="B11" s="63">
         <v>10</v>
@@ -18460,34 +18479,34 @@
       <c r="C11" s="67">
         <v>0</v>
       </c>
-      <c r="D11" s="177">
+      <c r="D11" s="68">
         <v>13107200</v>
       </c>
-      <c r="E11" s="178">
+      <c r="E11" s="69">
         <v>15728640</v>
       </c>
-      <c r="F11" s="178">
+      <c r="F11" s="69">
         <v>18350080</v>
       </c>
-      <c r="G11" s="178">
+      <c r="G11" s="69">
         <v>20971520</v>
       </c>
-      <c r="H11" s="178">
+      <c r="H11" s="69">
         <v>23592960</v>
       </c>
-      <c r="I11" s="178">
+      <c r="I11" s="69">
         <v>26214400</v>
       </c>
-      <c r="J11" s="178">
+      <c r="J11" s="69">
         <v>28835840</v>
       </c>
-      <c r="K11" s="178">
+      <c r="K11" s="69">
         <v>31457280</v>
       </c>
-      <c r="L11" s="178">
+      <c r="L11" s="69">
         <v>34078720</v>
       </c>
-      <c r="M11" s="178">
+      <c r="M11" s="69">
         <v>36700160</v>
       </c>
       <c r="N11" s="63" t="b">
@@ -18496,7 +18515,7 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="B12" s="63">
         <v>11</v>
@@ -18504,34 +18523,34 @@
       <c r="C12" s="67">
         <v>0</v>
       </c>
-      <c r="D12" s="177">
+      <c r="D12" s="68">
         <v>52428800</v>
       </c>
-      <c r="E12" s="178">
+      <c r="E12" s="69">
         <v>62914560</v>
       </c>
-      <c r="F12" s="178">
+      <c r="F12" s="69">
         <v>73400320</v>
       </c>
-      <c r="G12" s="178">
+      <c r="G12" s="69">
         <v>83886080</v>
       </c>
-      <c r="H12" s="178">
+      <c r="H12" s="69">
         <v>94371840</v>
       </c>
-      <c r="I12" s="178">
+      <c r="I12" s="69">
         <v>104857600</v>
       </c>
-      <c r="J12" s="178">
+      <c r="J12" s="69">
         <v>115343360</v>
       </c>
-      <c r="K12" s="178">
+      <c r="K12" s="69">
         <v>125829120</v>
       </c>
-      <c r="L12" s="178">
+      <c r="L12" s="69">
         <v>136314880</v>
       </c>
-      <c r="M12" s="178">
+      <c r="M12" s="69">
         <v>146800640</v>
       </c>
       <c r="N12" s="63" t="b">
@@ -18540,7 +18559,7 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="B13" s="63">
         <v>12</v>
@@ -18548,34 +18567,34 @@
       <c r="C13" s="67">
         <v>0</v>
       </c>
-      <c r="D13" s="177">
+      <c r="D13" s="68">
         <v>209715200</v>
       </c>
-      <c r="E13" s="178">
+      <c r="E13" s="69">
         <v>251658240</v>
       </c>
-      <c r="F13" s="178">
+      <c r="F13" s="69">
         <v>293601280</v>
       </c>
-      <c r="G13" s="178">
+      <c r="G13" s="69">
         <v>335544320</v>
       </c>
-      <c r="H13" s="178">
+      <c r="H13" s="69">
         <v>377487360</v>
       </c>
-      <c r="I13" s="178">
+      <c r="I13" s="69">
         <v>419430400</v>
       </c>
-      <c r="J13" s="178">
+      <c r="J13" s="69">
         <v>461373440</v>
       </c>
-      <c r="K13" s="178">
+      <c r="K13" s="69">
         <v>503316480</v>
       </c>
-      <c r="L13" s="178">
+      <c r="L13" s="69">
         <v>545259520</v>
       </c>
-      <c r="M13" s="178">
+      <c r="M13" s="69">
         <v>587202560</v>
       </c>
       <c r="N13" s="63" t="b">
@@ -18584,7 +18603,7 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="B14" s="63">
         <v>13</v>
@@ -18592,34 +18611,34 @@
       <c r="C14" s="67">
         <v>0</v>
       </c>
-      <c r="D14" s="177">
+      <c r="D14" s="68">
         <v>838860800</v>
       </c>
-      <c r="E14" s="178">
+      <c r="E14" s="69">
         <v>1006632960</v>
       </c>
-      <c r="F14" s="178">
+      <c r="F14" s="69">
         <v>1174405120</v>
       </c>
-      <c r="G14" s="178">
+      <c r="G14" s="69">
         <v>1342177280</v>
       </c>
-      <c r="H14" s="178">
+      <c r="H14" s="69">
         <v>1509949440</v>
       </c>
-      <c r="I14" s="178">
+      <c r="I14" s="69">
         <v>1677721600</v>
       </c>
-      <c r="J14" s="178">
+      <c r="J14" s="69">
         <v>1845493760</v>
       </c>
-      <c r="K14" s="178">
+      <c r="K14" s="69">
         <v>2013265920</v>
       </c>
-      <c r="L14" s="178">
+      <c r="L14" s="69">
         <v>2181038080</v>
       </c>
-      <c r="M14" s="178">
+      <c r="M14" s="69">
         <v>2348810240</v>
       </c>
       <c r="N14" s="63" t="b">
@@ -18628,7 +18647,7 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="B15" s="63">
         <v>14</v>
@@ -18636,34 +18655,34 @@
       <c r="C15" s="67">
         <v>0</v>
       </c>
-      <c r="D15" s="177">
+      <c r="D15" s="68">
         <v>3355443200</v>
       </c>
-      <c r="E15" s="178">
+      <c r="E15" s="69">
         <v>4026531840</v>
       </c>
-      <c r="F15" s="178">
+      <c r="F15" s="69">
         <v>4697620480</v>
       </c>
-      <c r="G15" s="178">
+      <c r="G15" s="69">
         <v>5368709120</v>
       </c>
-      <c r="H15" s="178">
+      <c r="H15" s="69">
         <v>6039797760</v>
       </c>
-      <c r="I15" s="178">
+      <c r="I15" s="69">
         <v>6710886400</v>
       </c>
-      <c r="J15" s="178">
+      <c r="J15" s="69">
         <v>7381975040</v>
       </c>
-      <c r="K15" s="178">
+      <c r="K15" s="69">
         <v>8053063680</v>
       </c>
-      <c r="L15" s="178">
+      <c r="L15" s="69">
         <v>8724152320</v>
       </c>
-      <c r="M15" s="178">
+      <c r="M15" s="69">
         <v>9395240960</v>
       </c>
       <c r="N15" s="63" t="b">
@@ -18672,7 +18691,7 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="B16" s="63">
         <v>15</v>
@@ -18680,34 +18699,34 @@
       <c r="C16" s="67">
         <v>0</v>
       </c>
-      <c r="D16" s="177">
+      <c r="D16" s="68">
         <v>13421772800</v>
       </c>
-      <c r="E16" s="178">
+      <c r="E16" s="69">
         <v>16106127360</v>
       </c>
-      <c r="F16" s="178">
+      <c r="F16" s="69">
         <v>18790481920</v>
       </c>
-      <c r="G16" s="178">
+      <c r="G16" s="69">
         <v>21474836480</v>
       </c>
-      <c r="H16" s="178">
+      <c r="H16" s="69">
         <v>24159191040</v>
       </c>
-      <c r="I16" s="178">
+      <c r="I16" s="69">
         <v>26843545600</v>
       </c>
-      <c r="J16" s="178">
+      <c r="J16" s="69">
         <v>29527900160</v>
       </c>
-      <c r="K16" s="178">
+      <c r="K16" s="69">
         <v>32212254720</v>
       </c>
-      <c r="L16" s="178">
+      <c r="L16" s="69">
         <v>34896609280</v>
       </c>
-      <c r="M16" s="178">
+      <c r="M16" s="69">
         <v>37580963840</v>
       </c>
       <c r="N16" s="63" t="b">
@@ -18716,7 +18735,7 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="B17" s="63">
         <v>16</v>
@@ -18724,34 +18743,34 @@
       <c r="C17" s="67">
         <v>0</v>
       </c>
-      <c r="D17" s="177">
+      <c r="D17" s="68">
         <v>53687091200</v>
       </c>
-      <c r="E17" s="178">
+      <c r="E17" s="69">
         <v>64424509440</v>
       </c>
-      <c r="F17" s="178">
+      <c r="F17" s="69">
         <v>75161927680</v>
       </c>
-      <c r="G17" s="178">
+      <c r="G17" s="69">
         <v>85899345920</v>
       </c>
-      <c r="H17" s="178">
+      <c r="H17" s="69">
         <v>96636764160</v>
       </c>
-      <c r="I17" s="178">
+      <c r="I17" s="69">
         <v>107374182400</v>
       </c>
-      <c r="J17" s="178">
+      <c r="J17" s="69">
         <v>118111600640</v>
       </c>
-      <c r="K17" s="178">
+      <c r="K17" s="69">
         <v>128849018880</v>
       </c>
-      <c r="L17" s="178">
+      <c r="L17" s="69">
         <v>139586437120</v>
       </c>
-      <c r="M17" s="178">
+      <c r="M17" s="69">
         <v>150323855360</v>
       </c>
       <c r="N17" s="63" t="b">
@@ -18760,7 +18779,7 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="B18" s="63">
         <v>17</v>
@@ -18768,34 +18787,34 @@
       <c r="C18" s="67">
         <v>0</v>
       </c>
-      <c r="D18" s="177">
+      <c r="D18" s="68">
         <v>214748364800</v>
       </c>
-      <c r="E18" s="178">
+      <c r="E18" s="69">
         <v>257698037760</v>
       </c>
-      <c r="F18" s="178">
+      <c r="F18" s="69">
         <v>300647710720</v>
       </c>
-      <c r="G18" s="178">
+      <c r="G18" s="69">
         <v>343597383680</v>
       </c>
-      <c r="H18" s="178">
+      <c r="H18" s="69">
         <v>386547056640</v>
       </c>
-      <c r="I18" s="178">
+      <c r="I18" s="69">
         <v>429496729600</v>
       </c>
-      <c r="J18" s="178">
+      <c r="J18" s="69">
         <v>472446402560</v>
       </c>
-      <c r="K18" s="178">
+      <c r="K18" s="69">
         <v>515396075520</v>
       </c>
-      <c r="L18" s="178">
+      <c r="L18" s="69">
         <v>558345748480</v>
       </c>
-      <c r="M18" s="178">
+      <c r="M18" s="69">
         <v>601295421440</v>
       </c>
       <c r="N18" s="63" t="b">
@@ -18804,7 +18823,7 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="B19" s="63">
         <v>18</v>
@@ -18812,34 +18831,34 @@
       <c r="C19" s="67">
         <v>0</v>
       </c>
-      <c r="D19" s="177">
+      <c r="D19" s="68">
         <v>858993459200</v>
       </c>
-      <c r="E19" s="178">
+      <c r="E19" s="69">
         <v>1030792151040</v>
       </c>
-      <c r="F19" s="178">
+      <c r="F19" s="69">
         <v>1202590842880</v>
       </c>
-      <c r="G19" s="178">
+      <c r="G19" s="69">
         <v>1374389534720</v>
       </c>
-      <c r="H19" s="178">
+      <c r="H19" s="69">
         <v>1546188226560</v>
       </c>
-      <c r="I19" s="178">
+      <c r="I19" s="69">
         <v>1717986918400</v>
       </c>
-      <c r="J19" s="178">
+      <c r="J19" s="69">
         <v>1889785610240</v>
       </c>
-      <c r="K19" s="178">
+      <c r="K19" s="69">
         <v>2061584302080</v>
       </c>
-      <c r="L19" s="178">
+      <c r="L19" s="69">
         <v>2233382993920</v>
       </c>
-      <c r="M19" s="178">
+      <c r="M19" s="69">
         <v>2405181685760</v>
       </c>
       <c r="N19" s="63" t="b">
@@ -18848,7 +18867,7 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="B20" s="63">
         <v>19</v>
@@ -18856,34 +18875,34 @@
       <c r="C20" s="67">
         <v>0</v>
       </c>
-      <c r="D20" s="177">
+      <c r="D20" s="68">
         <v>3435973836800</v>
       </c>
-      <c r="E20" s="178">
+      <c r="E20" s="69">
         <v>4123168604160</v>
       </c>
-      <c r="F20" s="178">
+      <c r="F20" s="69">
         <v>4810363371520</v>
       </c>
-      <c r="G20" s="178">
+      <c r="G20" s="69">
         <v>5497558138880</v>
       </c>
-      <c r="H20" s="178">
+      <c r="H20" s="69">
         <v>6184752906240</v>
       </c>
-      <c r="I20" s="178">
+      <c r="I20" s="69">
         <v>1717986918400</v>
       </c>
-      <c r="J20" s="178">
+      <c r="J20" s="69">
         <v>7559142440960</v>
       </c>
-      <c r="K20" s="178">
+      <c r="K20" s="69">
         <v>8246337208320</v>
       </c>
-      <c r="L20" s="178">
+      <c r="L20" s="69">
         <v>8933531975680</v>
       </c>
-      <c r="M20" s="178">
+      <c r="M20" s="69">
         <v>9620726743040</v>
       </c>
       <c r="N20" s="63" t="b">
@@ -18892,7 +18911,7 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="B21" s="63">
         <v>20</v>
@@ -18900,34 +18919,34 @@
       <c r="C21" s="67">
         <v>0</v>
       </c>
-      <c r="D21" s="177">
+      <c r="D21" s="68">
         <v>13743895347200</v>
       </c>
-      <c r="E21" s="178">
+      <c r="E21" s="69">
         <v>16492674416640</v>
       </c>
-      <c r="F21" s="178">
+      <c r="F21" s="69">
         <v>19241453486080</v>
       </c>
-      <c r="G21" s="178">
+      <c r="G21" s="69">
         <v>21990232555520</v>
       </c>
-      <c r="H21" s="178">
+      <c r="H21" s="69">
         <v>24739011624960</v>
       </c>
-      <c r="I21" s="178">
+      <c r="I21" s="69">
         <v>27487790694400</v>
       </c>
-      <c r="J21" s="178">
+      <c r="J21" s="69">
         <v>30236569763840</v>
       </c>
-      <c r="K21" s="178">
+      <c r="K21" s="69">
         <v>32985348833280</v>
       </c>
-      <c r="L21" s="178">
+      <c r="L21" s="69">
         <v>35734127902720</v>
       </c>
-      <c r="M21" s="178">
+      <c r="M21" s="69">
         <v>38482906972160</v>
       </c>
       <c r="N21" s="63" t="b">
@@ -18955,38 +18974,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" s="169" t="s">
+      <c r="A1" s="171" t="s">
         <v>183</v>
       </c>
-      <c r="B1" s="169"/>
-      <c r="C1" s="169"/>
-      <c r="D1" s="169"/>
-      <c r="E1" s="169"/>
-      <c r="F1" s="169"/>
-      <c r="G1" s="169"/>
-      <c r="H1" s="169"/>
-      <c r="I1" s="169"/>
-      <c r="J1" s="169"/>
-      <c r="K1" s="169"/>
-      <c r="L1" s="169"/>
-      <c r="M1" s="169"/>
-      <c r="N1" s="169"/>
+      <c r="B1" s="171"/>
+      <c r="C1" s="171"/>
+      <c r="D1" s="171"/>
+      <c r="E1" s="171"/>
+      <c r="F1" s="171"/>
+      <c r="G1" s="171"/>
+      <c r="H1" s="171"/>
+      <c r="I1" s="171"/>
+      <c r="J1" s="171"/>
+      <c r="K1" s="171"/>
+      <c r="L1" s="171"/>
+      <c r="M1" s="171"/>
+      <c r="N1" s="171"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="170"/>
-      <c r="B2" s="170"/>
-      <c r="C2" s="170"/>
-      <c r="D2" s="170"/>
-      <c r="E2" s="170"/>
-      <c r="F2" s="170"/>
-      <c r="G2" s="170"/>
-      <c r="H2" s="170"/>
-      <c r="I2" s="170"/>
-      <c r="J2" s="170"/>
-      <c r="K2" s="170"/>
-      <c r="L2" s="170"/>
-      <c r="M2" s="170"/>
-      <c r="N2" s="170"/>
+      <c r="A2" s="172"/>
+      <c r="B2" s="172"/>
+      <c r="C2" s="172"/>
+      <c r="D2" s="172"/>
+      <c r="E2" s="172"/>
+      <c r="F2" s="172"/>
+      <c r="G2" s="172"/>
+      <c r="H2" s="172"/>
+      <c r="I2" s="172"/>
+      <c r="J2" s="172"/>
+      <c r="K2" s="172"/>
+      <c r="L2" s="172"/>
+      <c r="M2" s="172"/>
+      <c r="N2" s="172"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="38" t="s">
@@ -19500,11 +19519,11 @@
       <c r="A14" s="41"/>
       <c r="B14" s="41"/>
       <c r="C14" s="41"/>
-      <c r="D14" s="171" t="s">
+      <c r="D14" s="173" t="s">
         <v>184</v>
       </c>
-      <c r="E14" s="171"/>
-      <c r="F14" s="171"/>
+      <c r="E14" s="173"/>
+      <c r="F14" s="173"/>
       <c r="G14" s="41"/>
       <c r="H14" s="41"/>
       <c r="I14" s="41"/>
@@ -19564,23 +19583,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C1" s="155" t="s">
+      <c r="C1" s="157" t="s">
         <v>63</v>
       </c>
-      <c r="D1" s="155"/>
-      <c r="E1" s="155"/>
-      <c r="F1" s="155"/>
-      <c r="G1" s="155"/>
+      <c r="D1" s="157"/>
+      <c r="E1" s="157"/>
+      <c r="F1" s="157"/>
+      <c r="G1" s="157"/>
       <c r="I1" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="2" spans="3:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C2" s="155"/>
-      <c r="D2" s="155"/>
-      <c r="E2" s="155"/>
-      <c r="F2" s="155"/>
-      <c r="G2" s="155"/>
+      <c r="C2" s="157"/>
+      <c r="D2" s="157"/>
+      <c r="E2" s="157"/>
+      <c r="F2" s="157"/>
+      <c r="G2" s="157"/>
       <c r="I2" t="s">
         <v>101</v>
       </c>
@@ -19621,7 +19640,7 @@
       </c>
     </row>
     <row r="4" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C4" s="174" t="s">
+      <c r="C4" s="176" t="s">
         <v>32</v>
       </c>
       <c r="D4" s="13" t="s">
@@ -19656,7 +19675,7 @@
       </c>
     </row>
     <row r="5" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C5" s="175"/>
+      <c r="C5" s="177"/>
       <c r="D5" s="13" t="s">
         <v>34</v>
       </c>
@@ -19689,7 +19708,7 @@
       </c>
     </row>
     <row r="6" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C6" s="175"/>
+      <c r="C6" s="177"/>
       <c r="D6" s="13" t="s">
         <v>35</v>
       </c>
@@ -19722,7 +19741,7 @@
       </c>
     </row>
     <row r="7" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C7" s="175"/>
+      <c r="C7" s="177"/>
       <c r="D7" s="13" t="s">
         <v>36</v>
       </c>
@@ -19755,7 +19774,7 @@
       </c>
     </row>
     <row r="8" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C8" s="175"/>
+      <c r="C8" s="177"/>
       <c r="D8" s="13" t="s">
         <v>37</v>
       </c>
@@ -19788,7 +19807,7 @@
       </c>
     </row>
     <row r="9" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C9" s="175"/>
+      <c r="C9" s="177"/>
       <c r="D9" s="13" t="s">
         <v>38</v>
       </c>
@@ -19821,7 +19840,7 @@
       </c>
     </row>
     <row r="10" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="175"/>
+      <c r="C10" s="177"/>
       <c r="D10" s="13" t="s">
         <v>39</v>
       </c>
@@ -19854,7 +19873,7 @@
       </c>
     </row>
     <row r="11" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C11" s="175"/>
+      <c r="C11" s="177"/>
       <c r="D11" s="13" t="s">
         <v>40</v>
       </c>
@@ -19887,7 +19906,7 @@
       </c>
     </row>
     <row r="12" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C12" s="172" t="s">
+      <c r="C12" s="174" t="s">
         <v>42</v>
       </c>
       <c r="D12" s="14" t="s">
@@ -19922,7 +19941,7 @@
       </c>
     </row>
     <row r="13" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C13" s="173"/>
+      <c r="C13" s="175"/>
       <c r="D13" s="14" t="s">
         <v>44</v>
       </c>
@@ -19955,7 +19974,7 @@
       </c>
     </row>
     <row r="14" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C14" s="173"/>
+      <c r="C14" s="175"/>
       <c r="D14" s="14" t="s">
         <v>45</v>
       </c>
@@ -19988,7 +20007,7 @@
       </c>
     </row>
     <row r="15" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C15" s="173"/>
+      <c r="C15" s="175"/>
       <c r="D15" s="14" t="s">
         <v>46</v>
       </c>
@@ -20021,7 +20040,7 @@
       </c>
     </row>
     <row r="16" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C16" s="173"/>
+      <c r="C16" s="175"/>
       <c r="D16" s="14" t="s">
         <v>47</v>
       </c>
@@ -20054,7 +20073,7 @@
       </c>
     </row>
     <row r="17" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C17" s="173"/>
+      <c r="C17" s="175"/>
       <c r="D17" s="14" t="s">
         <v>48</v>
       </c>
@@ -20087,7 +20106,7 @@
       </c>
     </row>
     <row r="18" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C18" s="173"/>
+      <c r="C18" s="175"/>
       <c r="D18" s="14" t="s">
         <v>49</v>
       </c>
@@ -20120,7 +20139,7 @@
       </c>
     </row>
     <row r="19" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C19" s="173"/>
+      <c r="C19" s="175"/>
       <c r="D19" s="14" t="s">
         <v>50</v>
       </c>
@@ -20185,14 +20204,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="176" t="s">
+      <c r="B2" s="178" t="s">
         <v>128</v>
       </c>
-      <c r="C2" s="155"/>
+      <c r="C2" s="157"/>
     </row>
     <row r="3" spans="2:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="155"/>
-      <c r="C3" s="155"/>
+      <c r="B3" s="157"/>
+      <c r="C3" s="157"/>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B4" s="24" t="s">
@@ -21130,22 +21149,22 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="169" t="s">
+      <c r="B2" s="171" t="s">
         <v>144</v>
       </c>
-      <c r="C2" s="169"/>
-      <c r="D2" s="169"/>
-      <c r="E2" s="169"/>
-      <c r="F2" s="169"/>
-      <c r="G2" s="169"/>
+      <c r="C2" s="171"/>
+      <c r="D2" s="171"/>
+      <c r="E2" s="171"/>
+      <c r="F2" s="171"/>
+      <c r="G2" s="171"/>
     </row>
     <row r="3" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="170"/>
-      <c r="C3" s="170"/>
-      <c r="D3" s="170"/>
-      <c r="E3" s="170"/>
-      <c r="F3" s="170"/>
-      <c r="G3" s="170"/>
+      <c r="B3" s="172"/>
+      <c r="C3" s="172"/>
+      <c r="D3" s="172"/>
+      <c r="E3" s="172"/>
+      <c r="F3" s="172"/>
+      <c r="G3" s="172"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B4" s="38" t="s">

--- a/Project1/Assets/Script/Data/weaponDB.xlsx
+++ b/Project1/Assets/Script/Data/weaponDB.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TeamProject1\Project1\Assets\Script\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\whdns\OneDrive\바탕 화면\깃허브 파일\TeamProject1\Project1\Assets\Script\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74CB1AE9-08F9-4DFC-9E2D-68C36E47FB73}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="599" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="599" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="시스템 기획" sheetId="2" r:id="rId1"/>
@@ -21,7 +22,7 @@
     <sheet name="보물 DB" sheetId="10" r:id="rId7"/>
     <sheet name="수색 DB" sheetId="11" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +30,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -1197,11 +1200,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1342,8 +1345,15 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
-  <fills count="17">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1437,6 +1447,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1805,7 +1821,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="179">
+  <cellXfs count="181">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2010,37 +2026,16 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2070,6 +2065,78 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2092,18 +2159,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2172,55 +2227,13 @@
     <xf numFmtId="0" fontId="2" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2272,9 +2285,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2342,6 +2352,18 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="16" fillId="17" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="17" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2661,7 +2683,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AV78"/>
   <sheetViews>
     <sheetView topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
@@ -2725,33 +2747,33 @@
     </row>
     <row r="2" spans="1:48" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8"/>
-      <c r="B2" s="70" t="s">
+      <c r="B2" s="96" t="s">
         <v>68</v>
       </c>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="71"/>
-      <c r="I2" s="71"/>
-      <c r="J2" s="71"/>
-      <c r="K2" s="71"/>
-      <c r="L2" s="71"/>
-      <c r="M2" s="71"/>
-      <c r="N2" s="71"/>
-      <c r="O2" s="71"/>
-      <c r="P2" s="71"/>
-      <c r="Q2" s="71"/>
-      <c r="R2" s="71"/>
-      <c r="S2" s="71"/>
-      <c r="T2" s="71"/>
-      <c r="U2" s="71"/>
-      <c r="V2" s="71"/>
-      <c r="W2" s="71"/>
-      <c r="X2" s="71"/>
-      <c r="Y2" s="71"/>
-      <c r="Z2" s="72"/>
+      <c r="C2" s="97"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="97"/>
+      <c r="F2" s="97"/>
+      <c r="G2" s="97"/>
+      <c r="H2" s="97"/>
+      <c r="I2" s="97"/>
+      <c r="J2" s="97"/>
+      <c r="K2" s="97"/>
+      <c r="L2" s="97"/>
+      <c r="M2" s="97"/>
+      <c r="N2" s="97"/>
+      <c r="O2" s="97"/>
+      <c r="P2" s="97"/>
+      <c r="Q2" s="97"/>
+      <c r="R2" s="97"/>
+      <c r="S2" s="97"/>
+      <c r="T2" s="97"/>
+      <c r="U2" s="97"/>
+      <c r="V2" s="97"/>
+      <c r="W2" s="97"/>
+      <c r="X2" s="97"/>
+      <c r="Y2" s="97"/>
+      <c r="Z2" s="98"/>
       <c r="AA2" s="8"/>
       <c r="AB2" s="8"/>
       <c r="AC2" s="8"/>
@@ -2777,31 +2799,31 @@
     </row>
     <row r="3" spans="1:48" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="8"/>
-      <c r="B3" s="73"/>
-      <c r="C3" s="74"/>
-      <c r="D3" s="74"/>
-      <c r="E3" s="74"/>
-      <c r="F3" s="74"/>
-      <c r="G3" s="74"/>
-      <c r="H3" s="74"/>
-      <c r="I3" s="74"/>
-      <c r="J3" s="74"/>
-      <c r="K3" s="74"/>
-      <c r="L3" s="74"/>
-      <c r="M3" s="74"/>
-      <c r="N3" s="74"/>
-      <c r="O3" s="74"/>
-      <c r="P3" s="74"/>
-      <c r="Q3" s="74"/>
-      <c r="R3" s="74"/>
-      <c r="S3" s="74"/>
-      <c r="T3" s="74"/>
-      <c r="U3" s="74"/>
-      <c r="V3" s="74"/>
-      <c r="W3" s="74"/>
-      <c r="X3" s="74"/>
-      <c r="Y3" s="74"/>
-      <c r="Z3" s="75"/>
+      <c r="B3" s="99"/>
+      <c r="C3" s="100"/>
+      <c r="D3" s="100"/>
+      <c r="E3" s="100"/>
+      <c r="F3" s="100"/>
+      <c r="G3" s="100"/>
+      <c r="H3" s="100"/>
+      <c r="I3" s="100"/>
+      <c r="J3" s="100"/>
+      <c r="K3" s="100"/>
+      <c r="L3" s="100"/>
+      <c r="M3" s="100"/>
+      <c r="N3" s="100"/>
+      <c r="O3" s="100"/>
+      <c r="P3" s="100"/>
+      <c r="Q3" s="100"/>
+      <c r="R3" s="100"/>
+      <c r="S3" s="100"/>
+      <c r="T3" s="100"/>
+      <c r="U3" s="100"/>
+      <c r="V3" s="100"/>
+      <c r="W3" s="100"/>
+      <c r="X3" s="100"/>
+      <c r="Y3" s="100"/>
+      <c r="Z3" s="101"/>
       <c r="AA3" s="8"/>
       <c r="AB3" s="8"/>
       <c r="AC3" s="8"/>
@@ -2827,31 +2849,31 @@
     </row>
     <row r="4" spans="1:48" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="8"/>
-      <c r="B4" s="76"/>
-      <c r="C4" s="77"/>
-      <c r="D4" s="77"/>
-      <c r="E4" s="77"/>
-      <c r="F4" s="77"/>
-      <c r="G4" s="77"/>
-      <c r="H4" s="77"/>
-      <c r="I4" s="77"/>
-      <c r="J4" s="77"/>
-      <c r="K4" s="77"/>
-      <c r="L4" s="77"/>
-      <c r="M4" s="77"/>
-      <c r="N4" s="77"/>
-      <c r="O4" s="77"/>
-      <c r="P4" s="77"/>
-      <c r="Q4" s="77"/>
-      <c r="R4" s="77"/>
-      <c r="S4" s="77"/>
-      <c r="T4" s="77"/>
-      <c r="U4" s="77"/>
-      <c r="V4" s="77"/>
-      <c r="W4" s="77"/>
-      <c r="X4" s="77"/>
-      <c r="Y4" s="77"/>
-      <c r="Z4" s="78"/>
+      <c r="B4" s="102"/>
+      <c r="C4" s="103"/>
+      <c r="D4" s="103"/>
+      <c r="E4" s="103"/>
+      <c r="F4" s="103"/>
+      <c r="G4" s="103"/>
+      <c r="H4" s="103"/>
+      <c r="I4" s="103"/>
+      <c r="J4" s="103"/>
+      <c r="K4" s="103"/>
+      <c r="L4" s="103"/>
+      <c r="M4" s="103"/>
+      <c r="N4" s="103"/>
+      <c r="O4" s="103"/>
+      <c r="P4" s="103"/>
+      <c r="Q4" s="103"/>
+      <c r="R4" s="103"/>
+      <c r="S4" s="103"/>
+      <c r="T4" s="103"/>
+      <c r="U4" s="103"/>
+      <c r="V4" s="103"/>
+      <c r="W4" s="103"/>
+      <c r="X4" s="103"/>
+      <c r="Y4" s="103"/>
+      <c r="Z4" s="104"/>
       <c r="AA4" s="8"/>
       <c r="AB4" s="8"/>
       <c r="AC4" s="8"/>
@@ -2977,10 +2999,10 @@
     </row>
     <row r="7" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A7" s="8"/>
-      <c r="B7" s="118" t="s">
+      <c r="B7" s="131" t="s">
         <v>67</v>
       </c>
-      <c r="C7" s="119"/>
+      <c r="C7" s="132"/>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
@@ -3029,8 +3051,8 @@
     </row>
     <row r="8" spans="1:48" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="8"/>
-      <c r="B8" s="120"/>
-      <c r="C8" s="121"/>
+      <c r="B8" s="133"/>
+      <c r="C8" s="134"/>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
@@ -3139,27 +3161,27 @@
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
-      <c r="L10" s="106" t="s">
+      <c r="L10" s="119" t="s">
         <v>69</v>
       </c>
-      <c r="M10" s="107"/>
-      <c r="N10" s="100" t="s">
+      <c r="M10" s="120"/>
+      <c r="N10" s="113" t="s">
         <v>24</v>
       </c>
-      <c r="O10" s="101"/>
-      <c r="P10" s="79" t="s">
+      <c r="O10" s="114"/>
+      <c r="P10" s="72" t="s">
         <v>127</v>
       </c>
-      <c r="Q10" s="80"/>
-      <c r="R10" s="80"/>
-      <c r="S10" s="80"/>
-      <c r="T10" s="80"/>
-      <c r="U10" s="80"/>
-      <c r="V10" s="80"/>
-      <c r="W10" s="80"/>
-      <c r="X10" s="80"/>
-      <c r="Y10" s="80"/>
-      <c r="Z10" s="81"/>
+      <c r="Q10" s="73"/>
+      <c r="R10" s="73"/>
+      <c r="S10" s="73"/>
+      <c r="T10" s="73"/>
+      <c r="U10" s="73"/>
+      <c r="V10" s="73"/>
+      <c r="W10" s="73"/>
+      <c r="X10" s="73"/>
+      <c r="Y10" s="73"/>
+      <c r="Z10" s="74"/>
       <c r="AA10" s="8"/>
       <c r="AB10" s="8"/>
       <c r="AC10" s="8"/>
@@ -3195,21 +3217,21 @@
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
-      <c r="L11" s="108"/>
-      <c r="M11" s="109"/>
-      <c r="N11" s="102"/>
-      <c r="O11" s="103"/>
-      <c r="P11" s="82"/>
-      <c r="Q11" s="83"/>
-      <c r="R11" s="83"/>
-      <c r="S11" s="83"/>
-      <c r="T11" s="83"/>
-      <c r="U11" s="83"/>
-      <c r="V11" s="83"/>
-      <c r="W11" s="83"/>
-      <c r="X11" s="83"/>
-      <c r="Y11" s="83"/>
-      <c r="Z11" s="84"/>
+      <c r="L11" s="121"/>
+      <c r="M11" s="122"/>
+      <c r="N11" s="115"/>
+      <c r="O11" s="116"/>
+      <c r="P11" s="75"/>
+      <c r="Q11" s="76"/>
+      <c r="R11" s="76"/>
+      <c r="S11" s="76"/>
+      <c r="T11" s="76"/>
+      <c r="U11" s="76"/>
+      <c r="V11" s="76"/>
+      <c r="W11" s="76"/>
+      <c r="X11" s="76"/>
+      <c r="Y11" s="76"/>
+      <c r="Z11" s="77"/>
       <c r="AA11" s="8"/>
       <c r="AB11" s="8"/>
       <c r="AC11" s="8"/>
@@ -3245,21 +3267,21 @@
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
-      <c r="L12" s="108"/>
-      <c r="M12" s="109"/>
-      <c r="N12" s="102"/>
-      <c r="O12" s="103"/>
-      <c r="P12" s="82"/>
-      <c r="Q12" s="83"/>
-      <c r="R12" s="83"/>
-      <c r="S12" s="83"/>
-      <c r="T12" s="83"/>
-      <c r="U12" s="83"/>
-      <c r="V12" s="83"/>
-      <c r="W12" s="83"/>
-      <c r="X12" s="83"/>
-      <c r="Y12" s="83"/>
-      <c r="Z12" s="84"/>
+      <c r="L12" s="121"/>
+      <c r="M12" s="122"/>
+      <c r="N12" s="115"/>
+      <c r="O12" s="116"/>
+      <c r="P12" s="75"/>
+      <c r="Q12" s="76"/>
+      <c r="R12" s="76"/>
+      <c r="S12" s="76"/>
+      <c r="T12" s="76"/>
+      <c r="U12" s="76"/>
+      <c r="V12" s="76"/>
+      <c r="W12" s="76"/>
+      <c r="X12" s="76"/>
+      <c r="Y12" s="76"/>
+      <c r="Z12" s="77"/>
       <c r="AA12" s="8"/>
       <c r="AB12" s="8"/>
       <c r="AC12" s="8"/>
@@ -3287,33 +3309,33 @@
       <c r="A13" s="8"/>
       <c r="B13" s="28"/>
       <c r="C13" s="29"/>
-      <c r="D13" s="118" t="s">
+      <c r="D13" s="131" t="s">
         <v>69</v>
       </c>
-      <c r="E13" s="119"/>
+      <c r="E13" s="132"/>
       <c r="F13" s="30"/>
       <c r="G13" s="31"/>
-      <c r="H13" s="92" t="s">
+      <c r="H13" s="109" t="s">
         <v>71</v>
       </c>
-      <c r="I13" s="93"/>
+      <c r="I13" s="110"/>
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
-      <c r="L13" s="108"/>
-      <c r="M13" s="109"/>
-      <c r="N13" s="104"/>
-      <c r="O13" s="105"/>
-      <c r="P13" s="85"/>
-      <c r="Q13" s="86"/>
-      <c r="R13" s="86"/>
-      <c r="S13" s="86"/>
-      <c r="T13" s="86"/>
-      <c r="U13" s="86"/>
-      <c r="V13" s="86"/>
-      <c r="W13" s="86"/>
-      <c r="X13" s="86"/>
-      <c r="Y13" s="86"/>
-      <c r="Z13" s="87"/>
+      <c r="L13" s="121"/>
+      <c r="M13" s="122"/>
+      <c r="N13" s="117"/>
+      <c r="O13" s="118"/>
+      <c r="P13" s="78"/>
+      <c r="Q13" s="79"/>
+      <c r="R13" s="79"/>
+      <c r="S13" s="79"/>
+      <c r="T13" s="79"/>
+      <c r="U13" s="79"/>
+      <c r="V13" s="79"/>
+      <c r="W13" s="79"/>
+      <c r="X13" s="79"/>
+      <c r="Y13" s="79"/>
+      <c r="Z13" s="80"/>
       <c r="AA13" s="8"/>
       <c r="AB13" s="8"/>
       <c r="AC13" s="8"/>
@@ -3341,33 +3363,33 @@
       <c r="A14" s="8"/>
       <c r="B14" s="8"/>
       <c r="C14" s="32"/>
-      <c r="D14" s="120"/>
-      <c r="E14" s="121"/>
+      <c r="D14" s="133"/>
+      <c r="E14" s="134"/>
       <c r="F14" s="33"/>
       <c r="G14" s="8"/>
-      <c r="H14" s="94"/>
-      <c r="I14" s="95"/>
+      <c r="H14" s="111"/>
+      <c r="I14" s="112"/>
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
-      <c r="L14" s="108"/>
-      <c r="M14" s="109"/>
-      <c r="N14" s="100" t="s">
+      <c r="L14" s="121"/>
+      <c r="M14" s="122"/>
+      <c r="N14" s="113" t="s">
         <v>70</v>
       </c>
-      <c r="O14" s="101"/>
-      <c r="P14" s="79" t="s">
+      <c r="O14" s="114"/>
+      <c r="P14" s="72" t="s">
         <v>125</v>
       </c>
-      <c r="Q14" s="80"/>
-      <c r="R14" s="80"/>
-      <c r="S14" s="80"/>
-      <c r="T14" s="80"/>
-      <c r="U14" s="80"/>
-      <c r="V14" s="80"/>
-      <c r="W14" s="80"/>
-      <c r="X14" s="80"/>
-      <c r="Y14" s="80"/>
-      <c r="Z14" s="81"/>
+      <c r="Q14" s="73"/>
+      <c r="R14" s="73"/>
+      <c r="S14" s="73"/>
+      <c r="T14" s="73"/>
+      <c r="U14" s="73"/>
+      <c r="V14" s="73"/>
+      <c r="W14" s="73"/>
+      <c r="X14" s="73"/>
+      <c r="Y14" s="73"/>
+      <c r="Z14" s="74"/>
       <c r="AA14" s="8"/>
       <c r="AB14" s="8"/>
       <c r="AC14" s="8"/>
@@ -3403,21 +3425,21 @@
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
-      <c r="L15" s="108"/>
-      <c r="M15" s="109"/>
-      <c r="N15" s="102"/>
-      <c r="O15" s="103"/>
-      <c r="P15" s="82"/>
-      <c r="Q15" s="83"/>
-      <c r="R15" s="83"/>
-      <c r="S15" s="83"/>
-      <c r="T15" s="83"/>
-      <c r="U15" s="83"/>
-      <c r="V15" s="83"/>
-      <c r="W15" s="83"/>
-      <c r="X15" s="83"/>
-      <c r="Y15" s="83"/>
-      <c r="Z15" s="84"/>
+      <c r="L15" s="121"/>
+      <c r="M15" s="122"/>
+      <c r="N15" s="115"/>
+      <c r="O15" s="116"/>
+      <c r="P15" s="75"/>
+      <c r="Q15" s="76"/>
+      <c r="R15" s="76"/>
+      <c r="S15" s="76"/>
+      <c r="T15" s="76"/>
+      <c r="U15" s="76"/>
+      <c r="V15" s="76"/>
+      <c r="W15" s="76"/>
+      <c r="X15" s="76"/>
+      <c r="Y15" s="76"/>
+      <c r="Z15" s="77"/>
       <c r="AA15" s="8"/>
       <c r="AB15" s="8"/>
       <c r="AC15" s="8"/>
@@ -3453,21 +3475,21 @@
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
-      <c r="L16" s="108"/>
-      <c r="M16" s="109"/>
-      <c r="N16" s="102"/>
-      <c r="O16" s="103"/>
-      <c r="P16" s="82"/>
-      <c r="Q16" s="83"/>
-      <c r="R16" s="83"/>
-      <c r="S16" s="83"/>
-      <c r="T16" s="83"/>
-      <c r="U16" s="83"/>
-      <c r="V16" s="83"/>
-      <c r="W16" s="83"/>
-      <c r="X16" s="83"/>
-      <c r="Y16" s="83"/>
-      <c r="Z16" s="84"/>
+      <c r="L16" s="121"/>
+      <c r="M16" s="122"/>
+      <c r="N16" s="115"/>
+      <c r="O16" s="116"/>
+      <c r="P16" s="75"/>
+      <c r="Q16" s="76"/>
+      <c r="R16" s="76"/>
+      <c r="S16" s="76"/>
+      <c r="T16" s="76"/>
+      <c r="U16" s="76"/>
+      <c r="V16" s="76"/>
+      <c r="W16" s="76"/>
+      <c r="X16" s="76"/>
+      <c r="Y16" s="76"/>
+      <c r="Z16" s="77"/>
       <c r="AA16" s="8"/>
       <c r="AB16" s="8"/>
       <c r="AC16" s="8"/>
@@ -3499,27 +3521,27 @@
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="34"/>
-      <c r="H17" s="92" t="s">
+      <c r="H17" s="109" t="s">
         <v>70</v>
       </c>
-      <c r="I17" s="93"/>
+      <c r="I17" s="110"/>
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
-      <c r="L17" s="110"/>
-      <c r="M17" s="111"/>
-      <c r="N17" s="104"/>
-      <c r="O17" s="105"/>
-      <c r="P17" s="85"/>
-      <c r="Q17" s="86"/>
-      <c r="R17" s="86"/>
-      <c r="S17" s="86"/>
-      <c r="T17" s="86"/>
-      <c r="U17" s="86"/>
-      <c r="V17" s="86"/>
-      <c r="W17" s="86"/>
-      <c r="X17" s="86"/>
-      <c r="Y17" s="86"/>
-      <c r="Z17" s="87"/>
+      <c r="L17" s="123"/>
+      <c r="M17" s="124"/>
+      <c r="N17" s="117"/>
+      <c r="O17" s="118"/>
+      <c r="P17" s="78"/>
+      <c r="Q17" s="79"/>
+      <c r="R17" s="79"/>
+      <c r="S17" s="79"/>
+      <c r="T17" s="79"/>
+      <c r="U17" s="79"/>
+      <c r="V17" s="79"/>
+      <c r="W17" s="79"/>
+      <c r="X17" s="79"/>
+      <c r="Y17" s="79"/>
+      <c r="Z17" s="80"/>
       <c r="AA17" s="8"/>
       <c r="AB17" s="8"/>
       <c r="AC17" s="8"/>
@@ -3551,31 +3573,31 @@
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="35"/>
-      <c r="H18" s="94"/>
-      <c r="I18" s="95"/>
+      <c r="H18" s="111"/>
+      <c r="I18" s="112"/>
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
-      <c r="L18" s="112" t="s">
+      <c r="L18" s="125" t="s">
         <v>72</v>
       </c>
-      <c r="M18" s="113"/>
-      <c r="N18" s="130" t="s">
+      <c r="M18" s="126"/>
+      <c r="N18" s="94" t="s">
         <v>73</v>
       </c>
-      <c r="O18" s="131"/>
-      <c r="P18" s="79" t="s">
+      <c r="O18" s="89"/>
+      <c r="P18" s="72" t="s">
         <v>124</v>
       </c>
-      <c r="Q18" s="125"/>
-      <c r="R18" s="125"/>
-      <c r="S18" s="125"/>
-      <c r="T18" s="125"/>
-      <c r="U18" s="125"/>
-      <c r="V18" s="125"/>
-      <c r="W18" s="125"/>
-      <c r="X18" s="125"/>
-      <c r="Y18" s="125"/>
-      <c r="Z18" s="126"/>
+      <c r="Q18" s="81"/>
+      <c r="R18" s="81"/>
+      <c r="S18" s="81"/>
+      <c r="T18" s="81"/>
+      <c r="U18" s="81"/>
+      <c r="V18" s="81"/>
+      <c r="W18" s="81"/>
+      <c r="X18" s="81"/>
+      <c r="Y18" s="81"/>
+      <c r="Z18" s="82"/>
       <c r="AA18" s="8"/>
       <c r="AB18" s="8"/>
       <c r="AC18" s="8"/>
@@ -3611,21 +3633,21 @@
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
       <c r="K19" s="8"/>
-      <c r="L19" s="114"/>
-      <c r="M19" s="115"/>
-      <c r="N19" s="132"/>
-      <c r="O19" s="133"/>
-      <c r="P19" s="127"/>
-      <c r="Q19" s="128"/>
-      <c r="R19" s="128"/>
-      <c r="S19" s="128"/>
-      <c r="T19" s="128"/>
-      <c r="U19" s="128"/>
-      <c r="V19" s="128"/>
-      <c r="W19" s="128"/>
-      <c r="X19" s="128"/>
-      <c r="Y19" s="128"/>
-      <c r="Z19" s="129"/>
+      <c r="L19" s="127"/>
+      <c r="M19" s="128"/>
+      <c r="N19" s="95"/>
+      <c r="O19" s="93"/>
+      <c r="P19" s="83"/>
+      <c r="Q19" s="84"/>
+      <c r="R19" s="84"/>
+      <c r="S19" s="84"/>
+      <c r="T19" s="84"/>
+      <c r="U19" s="84"/>
+      <c r="V19" s="84"/>
+      <c r="W19" s="84"/>
+      <c r="X19" s="84"/>
+      <c r="Y19" s="84"/>
+      <c r="Z19" s="85"/>
       <c r="AA19" s="8"/>
       <c r="AB19" s="8"/>
       <c r="AC19" s="8"/>
@@ -3661,25 +3683,25 @@
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
-      <c r="L20" s="114"/>
-      <c r="M20" s="115"/>
-      <c r="N20" s="130" t="s">
+      <c r="L20" s="127"/>
+      <c r="M20" s="128"/>
+      <c r="N20" s="94" t="s">
         <v>74</v>
       </c>
-      <c r="O20" s="131"/>
-      <c r="P20" s="134" t="s">
+      <c r="O20" s="89"/>
+      <c r="P20" s="86" t="s">
         <v>123</v>
       </c>
-      <c r="Q20" s="125"/>
-      <c r="R20" s="125"/>
-      <c r="S20" s="125"/>
-      <c r="T20" s="125"/>
-      <c r="U20" s="125"/>
-      <c r="V20" s="125"/>
-      <c r="W20" s="125"/>
-      <c r="X20" s="125"/>
-      <c r="Y20" s="125"/>
-      <c r="Z20" s="126"/>
+      <c r="Q20" s="81"/>
+      <c r="R20" s="81"/>
+      <c r="S20" s="81"/>
+      <c r="T20" s="81"/>
+      <c r="U20" s="81"/>
+      <c r="V20" s="81"/>
+      <c r="W20" s="81"/>
+      <c r="X20" s="81"/>
+      <c r="Y20" s="81"/>
+      <c r="Z20" s="82"/>
       <c r="AA20" s="8"/>
       <c r="AB20" s="8"/>
       <c r="AC20" s="8"/>
@@ -3707,33 +3729,33 @@
       <c r="A21" s="8"/>
       <c r="B21" s="8"/>
       <c r="C21" s="29"/>
-      <c r="D21" s="88" t="s">
+      <c r="D21" s="105" t="s">
         <v>72</v>
       </c>
-      <c r="E21" s="89"/>
+      <c r="E21" s="106"/>
       <c r="F21" s="30"/>
       <c r="G21" s="31"/>
-      <c r="H21" s="96" t="s">
+      <c r="H21" s="68" t="s">
         <v>73</v>
       </c>
-      <c r="I21" s="97"/>
+      <c r="I21" s="69"/>
       <c r="J21" s="8"/>
       <c r="K21" s="8"/>
-      <c r="L21" s="114"/>
-      <c r="M21" s="115"/>
-      <c r="N21" s="132"/>
-      <c r="O21" s="133"/>
-      <c r="P21" s="127"/>
-      <c r="Q21" s="128"/>
-      <c r="R21" s="128"/>
-      <c r="S21" s="128"/>
-      <c r="T21" s="128"/>
-      <c r="U21" s="128"/>
-      <c r="V21" s="128"/>
-      <c r="W21" s="128"/>
-      <c r="X21" s="128"/>
-      <c r="Y21" s="128"/>
-      <c r="Z21" s="129"/>
+      <c r="L21" s="127"/>
+      <c r="M21" s="128"/>
+      <c r="N21" s="95"/>
+      <c r="O21" s="93"/>
+      <c r="P21" s="83"/>
+      <c r="Q21" s="84"/>
+      <c r="R21" s="84"/>
+      <c r="S21" s="84"/>
+      <c r="T21" s="84"/>
+      <c r="U21" s="84"/>
+      <c r="V21" s="84"/>
+      <c r="W21" s="84"/>
+      <c r="X21" s="84"/>
+      <c r="Y21" s="84"/>
+      <c r="Z21" s="85"/>
       <c r="AA21" s="8"/>
       <c r="AB21" s="8"/>
       <c r="AC21" s="8"/>
@@ -3761,33 +3783,33 @@
       <c r="A22" s="8"/>
       <c r="B22" s="8"/>
       <c r="C22" s="36"/>
-      <c r="D22" s="90"/>
-      <c r="E22" s="91"/>
+      <c r="D22" s="107"/>
+      <c r="E22" s="108"/>
       <c r="F22" s="33"/>
       <c r="G22" s="8"/>
-      <c r="H22" s="98"/>
-      <c r="I22" s="99"/>
+      <c r="H22" s="70"/>
+      <c r="I22" s="71"/>
       <c r="J22" s="8"/>
       <c r="K22" s="8"/>
-      <c r="L22" s="114"/>
-      <c r="M22" s="115"/>
-      <c r="N22" s="122" t="s">
+      <c r="L22" s="127"/>
+      <c r="M22" s="128"/>
+      <c r="N22" s="88" t="s">
         <v>75</v>
       </c>
-      <c r="O22" s="131"/>
-      <c r="P22" s="135" t="s">
+      <c r="O22" s="89"/>
+      <c r="P22" s="87" t="s">
         <v>122</v>
       </c>
-      <c r="Q22" s="80"/>
-      <c r="R22" s="80"/>
-      <c r="S22" s="80"/>
-      <c r="T22" s="80"/>
-      <c r="U22" s="80"/>
-      <c r="V22" s="80"/>
-      <c r="W22" s="80"/>
-      <c r="X22" s="80"/>
-      <c r="Y22" s="80"/>
-      <c r="Z22" s="81"/>
+      <c r="Q22" s="73"/>
+      <c r="R22" s="73"/>
+      <c r="S22" s="73"/>
+      <c r="T22" s="73"/>
+      <c r="U22" s="73"/>
+      <c r="V22" s="73"/>
+      <c r="W22" s="73"/>
+      <c r="X22" s="73"/>
+      <c r="Y22" s="73"/>
+      <c r="Z22" s="74"/>
       <c r="AA22" s="8"/>
       <c r="AB22" s="8"/>
       <c r="AC22" s="8"/>
@@ -3823,21 +3845,21 @@
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
       <c r="K23" s="8"/>
-      <c r="L23" s="114"/>
-      <c r="M23" s="115"/>
-      <c r="N23" s="123"/>
-      <c r="O23" s="136"/>
-      <c r="P23" s="82"/>
-      <c r="Q23" s="83"/>
-      <c r="R23" s="83"/>
-      <c r="S23" s="83"/>
-      <c r="T23" s="83"/>
-      <c r="U23" s="83"/>
-      <c r="V23" s="83"/>
-      <c r="W23" s="83"/>
-      <c r="X23" s="83"/>
-      <c r="Y23" s="83"/>
-      <c r="Z23" s="84"/>
+      <c r="L23" s="127"/>
+      <c r="M23" s="128"/>
+      <c r="N23" s="90"/>
+      <c r="O23" s="91"/>
+      <c r="P23" s="75"/>
+      <c r="Q23" s="76"/>
+      <c r="R23" s="76"/>
+      <c r="S23" s="76"/>
+      <c r="T23" s="76"/>
+      <c r="U23" s="76"/>
+      <c r="V23" s="76"/>
+      <c r="W23" s="76"/>
+      <c r="X23" s="76"/>
+      <c r="Y23" s="76"/>
+      <c r="Z23" s="77"/>
       <c r="AA23" s="8"/>
       <c r="AB23" s="8"/>
       <c r="AC23" s="8"/>
@@ -3873,21 +3895,21 @@
       <c r="I24" s="8"/>
       <c r="J24" s="8"/>
       <c r="K24" s="8"/>
-      <c r="L24" s="114"/>
-      <c r="M24" s="115"/>
-      <c r="N24" s="123"/>
-      <c r="O24" s="136"/>
-      <c r="P24" s="82"/>
-      <c r="Q24" s="83"/>
-      <c r="R24" s="83"/>
-      <c r="S24" s="83"/>
-      <c r="T24" s="83"/>
-      <c r="U24" s="83"/>
-      <c r="V24" s="83"/>
-      <c r="W24" s="83"/>
-      <c r="X24" s="83"/>
-      <c r="Y24" s="83"/>
-      <c r="Z24" s="84"/>
+      <c r="L24" s="127"/>
+      <c r="M24" s="128"/>
+      <c r="N24" s="90"/>
+      <c r="O24" s="91"/>
+      <c r="P24" s="75"/>
+      <c r="Q24" s="76"/>
+      <c r="R24" s="76"/>
+      <c r="S24" s="76"/>
+      <c r="T24" s="76"/>
+      <c r="U24" s="76"/>
+      <c r="V24" s="76"/>
+      <c r="W24" s="76"/>
+      <c r="X24" s="76"/>
+      <c r="Y24" s="76"/>
+      <c r="Z24" s="77"/>
       <c r="AA24" s="8"/>
       <c r="AB24" s="8"/>
       <c r="AC24" s="8"/>
@@ -3923,21 +3945,21 @@
       <c r="I25" s="8"/>
       <c r="J25" s="8"/>
       <c r="K25" s="8"/>
-      <c r="L25" s="114"/>
-      <c r="M25" s="115"/>
-      <c r="N25" s="124"/>
-      <c r="O25" s="133"/>
-      <c r="P25" s="85"/>
-      <c r="Q25" s="86"/>
-      <c r="R25" s="86"/>
-      <c r="S25" s="86"/>
-      <c r="T25" s="86"/>
-      <c r="U25" s="86"/>
-      <c r="V25" s="86"/>
-      <c r="W25" s="86"/>
-      <c r="X25" s="86"/>
-      <c r="Y25" s="86"/>
-      <c r="Z25" s="87"/>
+      <c r="L25" s="127"/>
+      <c r="M25" s="128"/>
+      <c r="N25" s="92"/>
+      <c r="O25" s="93"/>
+      <c r="P25" s="78"/>
+      <c r="Q25" s="79"/>
+      <c r="R25" s="79"/>
+      <c r="S25" s="79"/>
+      <c r="T25" s="79"/>
+      <c r="U25" s="79"/>
+      <c r="V25" s="79"/>
+      <c r="W25" s="79"/>
+      <c r="X25" s="79"/>
+      <c r="Y25" s="79"/>
+      <c r="Z25" s="80"/>
       <c r="AA25" s="8"/>
       <c r="AB25" s="8"/>
       <c r="AC25" s="8"/>
@@ -3969,31 +3991,31 @@
       <c r="E26" s="8"/>
       <c r="F26" s="28"/>
       <c r="G26" s="28"/>
-      <c r="H26" s="96" t="s">
+      <c r="H26" s="68" t="s">
         <v>74</v>
       </c>
-      <c r="I26" s="97"/>
+      <c r="I26" s="69"/>
       <c r="J26" s="8"/>
       <c r="K26" s="8"/>
-      <c r="L26" s="114"/>
-      <c r="M26" s="115"/>
-      <c r="N26" s="122" t="s">
+      <c r="L26" s="127"/>
+      <c r="M26" s="128"/>
+      <c r="N26" s="88" t="s">
         <v>76</v>
       </c>
-      <c r="O26" s="122"/>
-      <c r="P26" s="79" t="s">
+      <c r="O26" s="88"/>
+      <c r="P26" s="72" t="s">
         <v>131</v>
       </c>
-      <c r="Q26" s="80"/>
-      <c r="R26" s="80"/>
-      <c r="S26" s="80"/>
-      <c r="T26" s="80"/>
-      <c r="U26" s="80"/>
-      <c r="V26" s="80"/>
-      <c r="W26" s="80"/>
-      <c r="X26" s="80"/>
-      <c r="Y26" s="80"/>
-      <c r="Z26" s="81"/>
+      <c r="Q26" s="73"/>
+      <c r="R26" s="73"/>
+      <c r="S26" s="73"/>
+      <c r="T26" s="73"/>
+      <c r="U26" s="73"/>
+      <c r="V26" s="73"/>
+      <c r="W26" s="73"/>
+      <c r="X26" s="73"/>
+      <c r="Y26" s="73"/>
+      <c r="Z26" s="74"/>
       <c r="AA26" s="8"/>
       <c r="AB26" s="8"/>
       <c r="AC26" s="8"/>
@@ -4025,25 +4047,25 @@
       <c r="E27" s="8"/>
       <c r="F27" s="28"/>
       <c r="G27" s="36"/>
-      <c r="H27" s="98"/>
-      <c r="I27" s="99"/>
+      <c r="H27" s="70"/>
+      <c r="I27" s="71"/>
       <c r="J27" s="8"/>
       <c r="K27" s="8"/>
-      <c r="L27" s="114"/>
-      <c r="M27" s="115"/>
-      <c r="N27" s="123"/>
-      <c r="O27" s="123"/>
-      <c r="P27" s="82"/>
-      <c r="Q27" s="83"/>
-      <c r="R27" s="83"/>
-      <c r="S27" s="83"/>
-      <c r="T27" s="83"/>
-      <c r="U27" s="83"/>
-      <c r="V27" s="83"/>
-      <c r="W27" s="83"/>
-      <c r="X27" s="83"/>
-      <c r="Y27" s="83"/>
-      <c r="Z27" s="84"/>
+      <c r="L27" s="127"/>
+      <c r="M27" s="128"/>
+      <c r="N27" s="90"/>
+      <c r="O27" s="90"/>
+      <c r="P27" s="75"/>
+      <c r="Q27" s="76"/>
+      <c r="R27" s="76"/>
+      <c r="S27" s="76"/>
+      <c r="T27" s="76"/>
+      <c r="U27" s="76"/>
+      <c r="V27" s="76"/>
+      <c r="W27" s="76"/>
+      <c r="X27" s="76"/>
+      <c r="Y27" s="76"/>
+      <c r="Z27" s="77"/>
       <c r="AA27" s="8"/>
       <c r="AB27" s="8"/>
       <c r="AC27" s="8"/>
@@ -4079,21 +4101,21 @@
       <c r="I28" s="8"/>
       <c r="J28" s="8"/>
       <c r="K28" s="8"/>
-      <c r="L28" s="114"/>
-      <c r="M28" s="115"/>
-      <c r="N28" s="123"/>
-      <c r="O28" s="123"/>
-      <c r="P28" s="82"/>
-      <c r="Q28" s="83"/>
-      <c r="R28" s="83"/>
-      <c r="S28" s="83"/>
-      <c r="T28" s="83"/>
-      <c r="U28" s="83"/>
-      <c r="V28" s="83"/>
-      <c r="W28" s="83"/>
-      <c r="X28" s="83"/>
-      <c r="Y28" s="83"/>
-      <c r="Z28" s="84"/>
+      <c r="L28" s="127"/>
+      <c r="M28" s="128"/>
+      <c r="N28" s="90"/>
+      <c r="O28" s="90"/>
+      <c r="P28" s="75"/>
+      <c r="Q28" s="76"/>
+      <c r="R28" s="76"/>
+      <c r="S28" s="76"/>
+      <c r="T28" s="76"/>
+      <c r="U28" s="76"/>
+      <c r="V28" s="76"/>
+      <c r="W28" s="76"/>
+      <c r="X28" s="76"/>
+      <c r="Y28" s="76"/>
+      <c r="Z28" s="77"/>
       <c r="AA28" s="8"/>
       <c r="AB28" s="8"/>
       <c r="AC28" s="8"/>
@@ -4129,21 +4151,21 @@
       <c r="I29" s="8"/>
       <c r="J29" s="8"/>
       <c r="K29" s="8"/>
-      <c r="L29" s="114"/>
-      <c r="M29" s="115"/>
-      <c r="N29" s="124"/>
-      <c r="O29" s="124"/>
-      <c r="P29" s="85"/>
-      <c r="Q29" s="86"/>
-      <c r="R29" s="86"/>
-      <c r="S29" s="86"/>
-      <c r="T29" s="86"/>
-      <c r="U29" s="86"/>
-      <c r="V29" s="86"/>
-      <c r="W29" s="86"/>
-      <c r="X29" s="86"/>
-      <c r="Y29" s="86"/>
-      <c r="Z29" s="87"/>
+      <c r="L29" s="127"/>
+      <c r="M29" s="128"/>
+      <c r="N29" s="92"/>
+      <c r="O29" s="92"/>
+      <c r="P29" s="78"/>
+      <c r="Q29" s="79"/>
+      <c r="R29" s="79"/>
+      <c r="S29" s="79"/>
+      <c r="T29" s="79"/>
+      <c r="U29" s="79"/>
+      <c r="V29" s="79"/>
+      <c r="W29" s="79"/>
+      <c r="X29" s="79"/>
+      <c r="Y29" s="79"/>
+      <c r="Z29" s="80"/>
       <c r="AA29" s="8"/>
       <c r="AB29" s="8"/>
       <c r="AC29" s="8"/>
@@ -4179,25 +4201,25 @@
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
       <c r="K30" s="8"/>
-      <c r="L30" s="114"/>
-      <c r="M30" s="115"/>
-      <c r="N30" s="130" t="s">
+      <c r="L30" s="127"/>
+      <c r="M30" s="128"/>
+      <c r="N30" s="94" t="s">
         <v>77</v>
       </c>
-      <c r="O30" s="131"/>
-      <c r="P30" s="79" t="s">
+      <c r="O30" s="89"/>
+      <c r="P30" s="72" t="s">
         <v>121</v>
       </c>
-      <c r="Q30" s="125"/>
-      <c r="R30" s="125"/>
-      <c r="S30" s="125"/>
-      <c r="T30" s="125"/>
-      <c r="U30" s="125"/>
-      <c r="V30" s="125"/>
-      <c r="W30" s="125"/>
-      <c r="X30" s="125"/>
-      <c r="Y30" s="125"/>
-      <c r="Z30" s="126"/>
+      <c r="Q30" s="81"/>
+      <c r="R30" s="81"/>
+      <c r="S30" s="81"/>
+      <c r="T30" s="81"/>
+      <c r="U30" s="81"/>
+      <c r="V30" s="81"/>
+      <c r="W30" s="81"/>
+      <c r="X30" s="81"/>
+      <c r="Y30" s="81"/>
+      <c r="Z30" s="82"/>
       <c r="AA30" s="8"/>
       <c r="AB30" s="8"/>
       <c r="AC30" s="8"/>
@@ -4229,27 +4251,27 @@
       <c r="E31" s="8"/>
       <c r="F31" s="28"/>
       <c r="G31" s="28"/>
-      <c r="H31" s="96" t="s">
+      <c r="H31" s="68" t="s">
         <v>75</v>
       </c>
-      <c r="I31" s="97"/>
+      <c r="I31" s="69"/>
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
-      <c r="L31" s="116"/>
-      <c r="M31" s="117"/>
-      <c r="N31" s="132"/>
-      <c r="O31" s="133"/>
-      <c r="P31" s="127"/>
-      <c r="Q31" s="128"/>
-      <c r="R31" s="128"/>
-      <c r="S31" s="128"/>
-      <c r="T31" s="128"/>
-      <c r="U31" s="128"/>
-      <c r="V31" s="128"/>
-      <c r="W31" s="128"/>
-      <c r="X31" s="128"/>
-      <c r="Y31" s="128"/>
-      <c r="Z31" s="129"/>
+      <c r="L31" s="129"/>
+      <c r="M31" s="130"/>
+      <c r="N31" s="95"/>
+      <c r="O31" s="93"/>
+      <c r="P31" s="83"/>
+      <c r="Q31" s="84"/>
+      <c r="R31" s="84"/>
+      <c r="S31" s="84"/>
+      <c r="T31" s="84"/>
+      <c r="U31" s="84"/>
+      <c r="V31" s="84"/>
+      <c r="W31" s="84"/>
+      <c r="X31" s="84"/>
+      <c r="Y31" s="84"/>
+      <c r="Z31" s="85"/>
       <c r="AA31" s="8"/>
       <c r="AB31" s="8"/>
       <c r="AC31" s="8"/>
@@ -4281,8 +4303,8 @@
       <c r="E32" s="8"/>
       <c r="F32" s="28"/>
       <c r="G32" s="36"/>
-      <c r="H32" s="98"/>
-      <c r="I32" s="99"/>
+      <c r="H32" s="70"/>
+      <c r="I32" s="71"/>
       <c r="J32" s="8"/>
       <c r="K32" s="8"/>
       <c r="L32" s="8"/>
@@ -4481,10 +4503,10 @@
       <c r="E36" s="8"/>
       <c r="F36" s="28"/>
       <c r="G36" s="28"/>
-      <c r="H36" s="96" t="s">
+      <c r="H36" s="68" t="s">
         <v>76</v>
       </c>
-      <c r="I36" s="97"/>
+      <c r="I36" s="69"/>
       <c r="J36" s="8"/>
       <c r="K36" s="8"/>
       <c r="L36" s="8"/>
@@ -4533,8 +4555,8 @@
       <c r="E37" s="8"/>
       <c r="F37" s="28"/>
       <c r="G37" s="36"/>
-      <c r="H37" s="98"/>
-      <c r="I37" s="99"/>
+      <c r="H37" s="70"/>
+      <c r="I37" s="71"/>
       <c r="J37" s="8"/>
       <c r="K37" s="8"/>
       <c r="L37" s="8"/>
@@ -4733,10 +4755,10 @@
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="29"/>
-      <c r="H41" s="96" t="s">
+      <c r="H41" s="68" t="s">
         <v>77</v>
       </c>
-      <c r="I41" s="97"/>
+      <c r="I41" s="69"/>
       <c r="J41" s="8"/>
       <c r="K41" s="8"/>
       <c r="L41" s="8"/>
@@ -4785,8 +4807,8 @@
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="36"/>
-      <c r="H42" s="98"/>
-      <c r="I42" s="99"/>
+      <c r="H42" s="70"/>
+      <c r="I42" s="71"/>
       <c r="J42" s="19"/>
       <c r="K42" s="19"/>
       <c r="L42" s="19"/>
@@ -6418,17 +6440,6 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="H41:I42"/>
-    <mergeCell ref="H36:I37"/>
-    <mergeCell ref="H31:I32"/>
-    <mergeCell ref="H26:I27"/>
-    <mergeCell ref="P10:Z13"/>
-    <mergeCell ref="P18:Z19"/>
-    <mergeCell ref="P20:Z21"/>
-    <mergeCell ref="P22:Z25"/>
-    <mergeCell ref="N22:O25"/>
-    <mergeCell ref="N18:O19"/>
-    <mergeCell ref="N20:O21"/>
     <mergeCell ref="B2:Z4"/>
     <mergeCell ref="P14:Z17"/>
     <mergeCell ref="D21:E22"/>
@@ -6445,6 +6456,17 @@
     <mergeCell ref="P26:Z29"/>
     <mergeCell ref="P30:Z31"/>
     <mergeCell ref="N30:O31"/>
+    <mergeCell ref="H41:I42"/>
+    <mergeCell ref="H36:I37"/>
+    <mergeCell ref="H31:I32"/>
+    <mergeCell ref="H26:I27"/>
+    <mergeCell ref="P10:Z13"/>
+    <mergeCell ref="P18:Z19"/>
+    <mergeCell ref="P20:Z21"/>
+    <mergeCell ref="P22:Z25"/>
+    <mergeCell ref="N22:O25"/>
+    <mergeCell ref="N18:O19"/>
+    <mergeCell ref="N20:O21"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6452,7 +6474,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AA108"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -6466,140 +6488,140 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="139" t="s">
+      <c r="B1" s="138" t="s">
         <v>78</v>
       </c>
-      <c r="C1" s="148"/>
-      <c r="D1" s="139" t="s">
+      <c r="C1" s="147"/>
+      <c r="D1" s="138" t="s">
         <v>80</v>
       </c>
-      <c r="E1" s="151"/>
-      <c r="F1" s="152"/>
-      <c r="I1" s="139" t="s">
+      <c r="E1" s="150"/>
+      <c r="F1" s="151"/>
+      <c r="I1" s="138" t="s">
         <v>79</v>
       </c>
-      <c r="J1" s="140"/>
-      <c r="K1" s="139" t="s">
+      <c r="J1" s="139"/>
+      <c r="K1" s="138" t="s">
         <v>81</v>
       </c>
-      <c r="L1" s="143"/>
-      <c r="M1" s="144"/>
-      <c r="P1" s="156" t="s">
+      <c r="L1" s="142"/>
+      <c r="M1" s="143"/>
+      <c r="P1" s="137" t="s">
         <v>82</v>
       </c>
-      <c r="Q1" s="156"/>
-      <c r="R1" s="156" t="s">
+      <c r="Q1" s="137"/>
+      <c r="R1" s="137" t="s">
         <v>83</v>
       </c>
-      <c r="S1" s="156"/>
-      <c r="T1" s="156"/>
-      <c r="W1" s="156" t="s">
+      <c r="S1" s="137"/>
+      <c r="T1" s="137"/>
+      <c r="W1" s="137" t="s">
         <v>84</v>
       </c>
-      <c r="X1" s="156"/>
-      <c r="Y1" s="156" t="s">
+      <c r="X1" s="137"/>
+      <c r="Y1" s="137" t="s">
         <v>85</v>
       </c>
-      <c r="Z1" s="156"/>
-      <c r="AA1" s="156"/>
+      <c r="Z1" s="137"/>
+      <c r="AA1" s="137"/>
     </row>
     <row r="2" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="149"/>
-      <c r="C2" s="150"/>
-      <c r="D2" s="153"/>
-      <c r="E2" s="154"/>
-      <c r="F2" s="155"/>
-      <c r="I2" s="141"/>
-      <c r="J2" s="142"/>
-      <c r="K2" s="145"/>
-      <c r="L2" s="146"/>
-      <c r="M2" s="147"/>
-      <c r="P2" s="156"/>
-      <c r="Q2" s="156"/>
-      <c r="R2" s="156"/>
-      <c r="S2" s="156"/>
-      <c r="T2" s="156"/>
-      <c r="W2" s="156"/>
-      <c r="X2" s="156"/>
-      <c r="Y2" s="156"/>
-      <c r="Z2" s="156"/>
-      <c r="AA2" s="156"/>
+      <c r="B2" s="148"/>
+      <c r="C2" s="149"/>
+      <c r="D2" s="152"/>
+      <c r="E2" s="153"/>
+      <c r="F2" s="154"/>
+      <c r="I2" s="140"/>
+      <c r="J2" s="141"/>
+      <c r="K2" s="144"/>
+      <c r="L2" s="145"/>
+      <c r="M2" s="146"/>
+      <c r="P2" s="137"/>
+      <c r="Q2" s="137"/>
+      <c r="R2" s="137"/>
+      <c r="S2" s="137"/>
+      <c r="T2" s="137"/>
+      <c r="W2" s="137"/>
+      <c r="X2" s="137"/>
+      <c r="Y2" s="137"/>
+      <c r="Z2" s="137"/>
+      <c r="AA2" s="137"/>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="B3" s="138" t="s">
+      <c r="B3" s="136" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="138"/>
-      <c r="D3" s="138"/>
-      <c r="E3" s="138" t="s">
+      <c r="C3" s="136"/>
+      <c r="D3" s="136"/>
+      <c r="E3" s="136" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="138"/>
-      <c r="I3" s="138" t="s">
+      <c r="F3" s="136"/>
+      <c r="I3" s="136" t="s">
         <v>18</v>
       </c>
-      <c r="J3" s="138"/>
-      <c r="K3" s="138"/>
-      <c r="L3" s="138" t="s">
+      <c r="J3" s="136"/>
+      <c r="K3" s="136"/>
+      <c r="L3" s="136" t="s">
         <v>19</v>
       </c>
-      <c r="M3" s="138"/>
-      <c r="P3" s="138" t="s">
+      <c r="M3" s="136"/>
+      <c r="P3" s="136" t="s">
         <v>0</v>
       </c>
-      <c r="Q3" s="138"/>
-      <c r="R3" s="138"/>
-      <c r="S3" s="138" t="s">
+      <c r="Q3" s="136"/>
+      <c r="R3" s="136"/>
+      <c r="S3" s="136" t="s">
         <v>19</v>
       </c>
-      <c r="T3" s="138"/>
-      <c r="W3" s="138" t="s">
+      <c r="T3" s="136"/>
+      <c r="W3" s="136" t="s">
         <v>0</v>
       </c>
-      <c r="X3" s="138"/>
-      <c r="Y3" s="138"/>
-      <c r="Z3" s="138" t="s">
+      <c r="X3" s="136"/>
+      <c r="Y3" s="136"/>
+      <c r="Z3" s="136" t="s">
         <v>19</v>
       </c>
-      <c r="AA3" s="138"/>
+      <c r="AA3" s="136"/>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="B4" s="138" t="s">
+      <c r="B4" s="136" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="138"/>
-      <c r="D4" s="138"/>
-      <c r="E4" s="138" t="s">
+      <c r="C4" s="136"/>
+      <c r="D4" s="136"/>
+      <c r="E4" s="136" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="138"/>
-      <c r="I4" s="138" t="s">
+      <c r="F4" s="136"/>
+      <c r="I4" s="136" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="138"/>
-      <c r="K4" s="138"/>
-      <c r="L4" s="138" t="s">
+      <c r="J4" s="136"/>
+      <c r="K4" s="136"/>
+      <c r="L4" s="136" t="s">
         <v>20</v>
       </c>
-      <c r="M4" s="138"/>
-      <c r="P4" s="138" t="s">
+      <c r="M4" s="136"/>
+      <c r="P4" s="136" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="138"/>
-      <c r="R4" s="138"/>
-      <c r="S4" s="138" t="s">
+      <c r="Q4" s="136"/>
+      <c r="R4" s="136"/>
+      <c r="S4" s="136" t="s">
         <v>21</v>
       </c>
-      <c r="T4" s="138"/>
-      <c r="W4" s="138" t="s">
+      <c r="T4" s="136"/>
+      <c r="W4" s="136" t="s">
         <v>8</v>
       </c>
-      <c r="X4" s="138"/>
-      <c r="Y4" s="138"/>
-      <c r="Z4" s="138" t="s">
+      <c r="X4" s="136"/>
+      <c r="Y4" s="136"/>
+      <c r="Z4" s="136" t="s">
         <v>21</v>
       </c>
-      <c r="AA4" s="138"/>
+      <c r="AA4" s="136"/>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B5" s="10" t="s">
@@ -14464,10 +14486,10 @@
       </c>
     </row>
     <row r="106" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="B106" s="137" t="s">
+      <c r="B106" s="135" t="s">
         <v>14</v>
       </c>
-      <c r="C106" s="137"/>
+      <c r="C106" s="135"/>
       <c r="D106" s="5">
         <f>SUM(D6:D105)</f>
         <v>87316</v>
@@ -14478,10 +14500,10 @@
       <c r="F106" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="I106" s="137" t="s">
+      <c r="I106" s="135" t="s">
         <v>4</v>
       </c>
-      <c r="J106" s="137"/>
+      <c r="J106" s="135"/>
       <c r="K106" s="5">
         <f>SUM(K6:K105)</f>
         <v>360244</v>
@@ -14492,10 +14514,10 @@
       <c r="M106" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="P106" s="137" t="s">
+      <c r="P106" s="135" t="s">
         <v>4</v>
       </c>
-      <c r="Q106" s="137"/>
+      <c r="Q106" s="135"/>
       <c r="R106" s="5">
         <f>SUM(Q6:Q105)</f>
         <v>2195776.0000000005</v>
@@ -14506,10 +14528,10 @@
       <c r="T106" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="W106" s="137" t="s">
+      <c r="W106" s="135" t="s">
         <v>4</v>
       </c>
-      <c r="X106" s="137"/>
+      <c r="X106" s="135"/>
       <c r="Y106" s="5">
         <f>SUM(X6:X105)</f>
         <v>5760000</v>
@@ -14537,22 +14559,6 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="P106:Q106"/>
-    <mergeCell ref="W106:X106"/>
-    <mergeCell ref="Z3:AA3"/>
-    <mergeCell ref="Z4:AA4"/>
-    <mergeCell ref="S3:T3"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="P1:Q2"/>
-    <mergeCell ref="R1:T2"/>
-    <mergeCell ref="W1:X2"/>
-    <mergeCell ref="Y1:AA2"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="P3:R3"/>
-    <mergeCell ref="P4:R4"/>
-    <mergeCell ref="W3:Y3"/>
-    <mergeCell ref="W4:Y4"/>
     <mergeCell ref="B106:C106"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="I3:K3"/>
@@ -14565,6 +14571,22 @@
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="B4:D4"/>
+    <mergeCell ref="P1:Q2"/>
+    <mergeCell ref="R1:T2"/>
+    <mergeCell ref="W1:X2"/>
+    <mergeCell ref="Y1:AA2"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="P3:R3"/>
+    <mergeCell ref="P4:R4"/>
+    <mergeCell ref="W3:Y3"/>
+    <mergeCell ref="W4:Y4"/>
+    <mergeCell ref="P106:Q106"/>
+    <mergeCell ref="W106:X106"/>
+    <mergeCell ref="Z3:AA3"/>
+    <mergeCell ref="Z4:AA4"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="S4:T4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14573,7 +14595,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:N204"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
@@ -14593,66 +14615,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C1" s="157" t="s">
+      <c r="C1" s="155" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="157"/>
-      <c r="E1" s="157"/>
-      <c r="F1" s="157"/>
-      <c r="G1" s="157"/>
-      <c r="H1" s="157"/>
-      <c r="I1" s="157"/>
+      <c r="D1" s="155"/>
+      <c r="E1" s="155"/>
+      <c r="F1" s="155"/>
+      <c r="G1" s="155"/>
+      <c r="H1" s="155"/>
+      <c r="I1" s="155"/>
     </row>
     <row r="2" spans="2:14" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C2" s="157"/>
-      <c r="D2" s="157"/>
-      <c r="E2" s="157"/>
-      <c r="F2" s="157"/>
-      <c r="G2" s="157"/>
-      <c r="H2" s="157"/>
-      <c r="I2" s="157"/>
+      <c r="C2" s="155"/>
+      <c r="D2" s="155"/>
+      <c r="E2" s="155"/>
+      <c r="F2" s="155"/>
+      <c r="G2" s="155"/>
+      <c r="H2" s="155"/>
+      <c r="I2" s="155"/>
     </row>
     <row r="3" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="20"/>
-      <c r="C3" s="170" t="s">
+      <c r="C3" s="168" t="s">
         <v>88</v>
       </c>
-      <c r="D3" s="170"/>
+      <c r="D3" s="168"/>
       <c r="E3" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="170" t="s">
+      <c r="F3" s="168" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="170"/>
-      <c r="H3" s="170"/>
-      <c r="I3" s="170"/>
-      <c r="K3" s="158" t="s">
+      <c r="G3" s="168"/>
+      <c r="H3" s="168"/>
+      <c r="I3" s="168"/>
+      <c r="K3" s="156" t="s">
         <v>146</v>
       </c>
-      <c r="L3" s="159"/>
-      <c r="M3" s="159"/>
-      <c r="N3" s="160"/>
+      <c r="L3" s="157"/>
+      <c r="M3" s="157"/>
+      <c r="N3" s="158"/>
     </row>
     <row r="4" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="42"/>
-      <c r="C4" s="138" t="s">
+      <c r="C4" s="136" t="s">
         <v>92</v>
       </c>
-      <c r="D4" s="138"/>
+      <c r="D4" s="136"/>
       <c r="E4" s="23" t="s">
         <v>145</v>
       </c>
-      <c r="F4" s="138" t="s">
+      <c r="F4" s="136" t="s">
         <v>26</v>
       </c>
-      <c r="G4" s="138"/>
-      <c r="H4" s="138"/>
-      <c r="I4" s="138"/>
-      <c r="K4" s="161"/>
-      <c r="L4" s="162"/>
-      <c r="M4" s="162"/>
-      <c r="N4" s="163"/>
+      <c r="G4" s="136"/>
+      <c r="H4" s="136"/>
+      <c r="I4" s="136"/>
+      <c r="K4" s="159"/>
+      <c r="L4" s="160"/>
+      <c r="M4" s="160"/>
+      <c r="N4" s="161"/>
     </row>
     <row r="5" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="25"/>
@@ -14677,12 +14699,12 @@
       <c r="I5" s="50" t="s">
         <v>98</v>
       </c>
-      <c r="K5" s="164" t="s">
+      <c r="K5" s="162" t="s">
         <v>91</v>
       </c>
-      <c r="L5" s="165"/>
-      <c r="M5" s="165"/>
-      <c r="N5" s="166"/>
+      <c r="L5" s="163"/>
+      <c r="M5" s="163"/>
+      <c r="N5" s="164"/>
     </row>
     <row r="6" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="4"/>
@@ -14713,10 +14735,10 @@
         <f t="shared" ref="I6:I37" si="3">ROUND(H6:H105,0)</f>
         <v>2</v>
       </c>
-      <c r="K6" s="167"/>
-      <c r="L6" s="168"/>
-      <c r="M6" s="168"/>
-      <c r="N6" s="169"/>
+      <c r="K6" s="165"/>
+      <c r="L6" s="166"/>
+      <c r="M6" s="166"/>
+      <c r="N6" s="167"/>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B7" s="4"/>
@@ -18003,11 +18025,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -18083,34 +18105,34 @@
       <c r="C2" s="64">
         <v>1</v>
       </c>
-      <c r="D2" s="68">
+      <c r="D2" s="177">
         <v>50</v>
       </c>
-      <c r="E2" s="69">
+      <c r="E2" s="177">
         <v>60</v>
       </c>
-      <c r="F2" s="69">
+      <c r="F2" s="177">
         <v>70</v>
       </c>
-      <c r="G2" s="69">
+      <c r="G2" s="177">
         <v>80</v>
       </c>
-      <c r="H2" s="69">
+      <c r="H2" s="177">
         <v>90</v>
       </c>
-      <c r="I2" s="69">
+      <c r="I2" s="177">
         <v>100</v>
       </c>
-      <c r="J2" s="69">
+      <c r="J2" s="177">
         <v>110</v>
       </c>
-      <c r="K2" s="69">
+      <c r="K2" s="177">
         <v>120</v>
       </c>
-      <c r="L2" s="69">
+      <c r="L2" s="177">
         <v>130</v>
       </c>
-      <c r="M2" s="69">
+      <c r="M2" s="177">
         <v>140</v>
       </c>
       <c r="N2" s="63" t="b">
@@ -18127,35 +18149,35 @@
       <c r="C3" s="64">
         <v>0</v>
       </c>
-      <c r="D3" s="68">
+      <c r="D3" s="177">
         <v>200</v>
       </c>
-      <c r="E3" s="69">
-        <v>240</v>
-      </c>
-      <c r="F3" s="69">
-        <v>280</v>
-      </c>
-      <c r="G3" s="69">
+      <c r="E3" s="177">
+        <v>230</v>
+      </c>
+      <c r="F3" s="177">
+        <v>260</v>
+      </c>
+      <c r="G3" s="177">
+        <v>290</v>
+      </c>
+      <c r="H3" s="177">
         <v>320</v>
       </c>
-      <c r="H3" s="69">
-        <v>360</v>
-      </c>
-      <c r="I3" s="69">
-        <v>400</v>
-      </c>
-      <c r="J3" s="69">
+      <c r="I3" s="177">
+        <v>350</v>
+      </c>
+      <c r="J3" s="177">
+        <v>380</v>
+      </c>
+      <c r="K3" s="177">
+        <v>410</v>
+      </c>
+      <c r="L3" s="177">
         <v>440</v>
       </c>
-      <c r="K3" s="69">
-        <v>480</v>
-      </c>
-      <c r="L3" s="69">
-        <v>520</v>
-      </c>
-      <c r="M3" s="69">
-        <v>560</v>
+      <c r="M3" s="177">
+        <v>470</v>
       </c>
       <c r="N3" s="63" t="b">
         <v>0</v>
@@ -18171,35 +18193,35 @@
       <c r="C4" s="64">
         <v>0</v>
       </c>
-      <c r="D4" s="68">
+      <c r="D4" s="177">
         <v>800</v>
       </c>
-      <c r="E4" s="69">
-        <v>960</v>
-      </c>
-      <c r="F4" s="69">
-        <v>1120</v>
-      </c>
-      <c r="G4" s="69">
-        <v>1280</v>
-      </c>
-      <c r="H4" s="69">
-        <v>1440</v>
-      </c>
-      <c r="I4" s="69">
-        <v>1600</v>
-      </c>
-      <c r="J4" s="69">
-        <v>1760</v>
-      </c>
-      <c r="K4" s="69">
-        <v>1920</v>
-      </c>
-      <c r="L4" s="69">
-        <v>2080</v>
-      </c>
-      <c r="M4" s="69">
-        <v>2240</v>
+      <c r="E4" s="177">
+        <v>803</v>
+      </c>
+      <c r="F4" s="177">
+        <v>806</v>
+      </c>
+      <c r="G4" s="177">
+        <v>809</v>
+      </c>
+      <c r="H4" s="177">
+        <v>812</v>
+      </c>
+      <c r="I4" s="177">
+        <v>815</v>
+      </c>
+      <c r="J4" s="177">
+        <v>818</v>
+      </c>
+      <c r="K4" s="177">
+        <v>821</v>
+      </c>
+      <c r="L4" s="177">
+        <v>824</v>
+      </c>
+      <c r="M4" s="177">
+        <v>827</v>
       </c>
       <c r="N4" s="63" t="b">
         <v>0</v>
@@ -18215,35 +18237,35 @@
       <c r="C5" s="64">
         <v>0</v>
       </c>
-      <c r="D5" s="68">
-        <v>3200</v>
-      </c>
-      <c r="E5" s="69">
-        <v>3840</v>
-      </c>
-      <c r="F5" s="68">
-        <v>4480</v>
-      </c>
-      <c r="G5" s="69">
-        <v>5120</v>
-      </c>
-      <c r="H5" s="68">
-        <v>5760</v>
-      </c>
-      <c r="I5" s="69">
-        <v>6400</v>
-      </c>
-      <c r="J5" s="68">
-        <v>7040</v>
-      </c>
-      <c r="K5" s="69">
-        <v>7680</v>
-      </c>
-      <c r="L5" s="68">
-        <v>8320</v>
-      </c>
-      <c r="M5" s="69">
-        <v>8960</v>
+      <c r="D5" s="178">
+        <v>831</v>
+      </c>
+      <c r="E5" s="177">
+        <v>835</v>
+      </c>
+      <c r="F5" s="177">
+        <v>839</v>
+      </c>
+      <c r="G5" s="177">
+        <v>843</v>
+      </c>
+      <c r="H5" s="177">
+        <v>847</v>
+      </c>
+      <c r="I5" s="177">
+        <v>851</v>
+      </c>
+      <c r="J5" s="177">
+        <v>855</v>
+      </c>
+      <c r="K5" s="177">
+        <v>859</v>
+      </c>
+      <c r="L5" s="177">
+        <v>863</v>
+      </c>
+      <c r="M5" s="177">
+        <v>867</v>
       </c>
       <c r="N5" s="63" t="b">
         <v>0</v>
@@ -18259,35 +18281,35 @@
       <c r="C6" s="64">
         <v>0</v>
       </c>
-      <c r="D6" s="68">
-        <v>12800</v>
-      </c>
-      <c r="E6" s="69">
-        <v>15360</v>
-      </c>
-      <c r="F6" s="68">
-        <v>17920</v>
-      </c>
-      <c r="G6" s="69">
-        <v>20480</v>
-      </c>
-      <c r="H6" s="68">
-        <v>23040</v>
-      </c>
-      <c r="I6" s="69">
-        <v>25600</v>
-      </c>
-      <c r="J6" s="68">
-        <v>28160</v>
-      </c>
-      <c r="K6" s="69">
-        <v>30720</v>
-      </c>
-      <c r="L6" s="68">
-        <v>33280</v>
-      </c>
-      <c r="M6" s="69">
-        <v>35840</v>
+      <c r="D6" s="178">
+        <v>27500</v>
+      </c>
+      <c r="E6" s="177">
+        <v>27505</v>
+      </c>
+      <c r="F6" s="177">
+        <v>27508</v>
+      </c>
+      <c r="G6" s="177">
+        <v>27511</v>
+      </c>
+      <c r="H6" s="177">
+        <v>27514</v>
+      </c>
+      <c r="I6" s="177">
+        <v>27517</v>
+      </c>
+      <c r="J6" s="177">
+        <v>27520</v>
+      </c>
+      <c r="K6" s="177">
+        <v>27523</v>
+      </c>
+      <c r="L6" s="177">
+        <v>27526</v>
+      </c>
+      <c r="M6" s="177">
+        <v>27529</v>
       </c>
       <c r="N6" s="63" t="b">
         <v>0</v>
@@ -18303,35 +18325,35 @@
       <c r="C7" s="64">
         <v>0</v>
       </c>
-      <c r="D7" s="68">
-        <v>51200</v>
-      </c>
-      <c r="E7" s="69">
-        <v>61440</v>
-      </c>
-      <c r="F7" s="68">
-        <v>71680</v>
-      </c>
-      <c r="G7" s="69">
-        <v>81920</v>
-      </c>
-      <c r="H7" s="68">
-        <v>92160</v>
-      </c>
-      <c r="I7" s="69">
-        <v>102400</v>
-      </c>
-      <c r="J7" s="68">
-        <v>112640</v>
-      </c>
-      <c r="K7" s="69">
-        <v>122880</v>
-      </c>
-      <c r="L7" s="68">
-        <v>133120</v>
-      </c>
-      <c r="M7" s="69">
-        <v>143360</v>
+      <c r="D7" s="178">
+        <v>225100</v>
+      </c>
+      <c r="E7" s="177">
+        <v>225106</v>
+      </c>
+      <c r="F7" s="177">
+        <v>225109</v>
+      </c>
+      <c r="G7" s="177">
+        <v>225112</v>
+      </c>
+      <c r="H7" s="177">
+        <v>225115</v>
+      </c>
+      <c r="I7" s="177">
+        <v>225118</v>
+      </c>
+      <c r="J7" s="177">
+        <v>225121</v>
+      </c>
+      <c r="K7" s="177">
+        <v>225124</v>
+      </c>
+      <c r="L7" s="177">
+        <v>225127</v>
+      </c>
+      <c r="M7" s="177">
+        <v>225130</v>
       </c>
       <c r="N7" s="63" t="b">
         <v>0</v>
@@ -18347,35 +18369,35 @@
       <c r="C8" s="64">
         <v>0</v>
       </c>
-      <c r="D8" s="68">
-        <v>204800</v>
-      </c>
-      <c r="E8" s="69">
-        <v>245760</v>
-      </c>
-      <c r="F8" s="68">
-        <v>286720</v>
-      </c>
-      <c r="G8" s="69">
-        <v>327680</v>
-      </c>
-      <c r="H8" s="68">
-        <v>368640</v>
-      </c>
-      <c r="I8" s="69">
-        <v>409600</v>
-      </c>
-      <c r="J8" s="68">
-        <v>450560</v>
-      </c>
-      <c r="K8" s="69">
-        <v>491520</v>
-      </c>
-      <c r="L8" s="68">
-        <v>532480</v>
-      </c>
-      <c r="M8" s="69">
-        <v>573440</v>
+      <c r="D8" s="178">
+        <v>2321300</v>
+      </c>
+      <c r="E8" s="177">
+        <v>2321307</v>
+      </c>
+      <c r="F8" s="177">
+        <v>2321310</v>
+      </c>
+      <c r="G8" s="177">
+        <v>2321313</v>
+      </c>
+      <c r="H8" s="177">
+        <v>2321316</v>
+      </c>
+      <c r="I8" s="177">
+        <v>2321319</v>
+      </c>
+      <c r="J8" s="177">
+        <v>2321322</v>
+      </c>
+      <c r="K8" s="177">
+        <v>2321325</v>
+      </c>
+      <c r="L8" s="177">
+        <v>2321328</v>
+      </c>
+      <c r="M8" s="177">
+        <v>2321331</v>
       </c>
       <c r="N8" s="63" t="b">
         <v>0</v>
@@ -18391,35 +18413,35 @@
       <c r="C9" s="64">
         <v>0</v>
       </c>
-      <c r="D9" s="68">
-        <v>819200</v>
-      </c>
-      <c r="E9" s="69">
-        <v>983040</v>
-      </c>
-      <c r="F9" s="68">
-        <v>1146880</v>
-      </c>
-      <c r="G9" s="69">
-        <v>1310720</v>
-      </c>
-      <c r="H9" s="68">
-        <v>1474560</v>
-      </c>
-      <c r="I9" s="69">
-        <v>1638400</v>
-      </c>
-      <c r="J9" s="68">
-        <v>1802240</v>
-      </c>
-      <c r="K9" s="69">
-        <v>1966080</v>
-      </c>
-      <c r="L9" s="68">
-        <v>2129920</v>
-      </c>
-      <c r="M9" s="69">
-        <v>2293760</v>
+      <c r="D9" s="178">
+        <v>28966900</v>
+      </c>
+      <c r="E9" s="177">
+        <v>28966908</v>
+      </c>
+      <c r="F9" s="177">
+        <v>28966911</v>
+      </c>
+      <c r="G9" s="177">
+        <v>28966914</v>
+      </c>
+      <c r="H9" s="177">
+        <v>28966917</v>
+      </c>
+      <c r="I9" s="177">
+        <v>28966920</v>
+      </c>
+      <c r="J9" s="177">
+        <v>28966923</v>
+      </c>
+      <c r="K9" s="177">
+        <v>28966926</v>
+      </c>
+      <c r="L9" s="177">
+        <v>28966929</v>
+      </c>
+      <c r="M9" s="177">
+        <v>28966932</v>
       </c>
       <c r="N9" s="63" t="b">
         <v>0</v>
@@ -18435,35 +18457,35 @@
       <c r="C10" s="67">
         <v>0</v>
       </c>
-      <c r="D10" s="68">
-        <v>3276800</v>
-      </c>
-      <c r="E10" s="69">
-        <v>3932160</v>
-      </c>
-      <c r="F10" s="69">
-        <v>4587520</v>
-      </c>
-      <c r="G10" s="69">
-        <v>5242880</v>
-      </c>
-      <c r="H10" s="69">
-        <v>5898240</v>
-      </c>
-      <c r="I10" s="69">
-        <v>6553600</v>
-      </c>
-      <c r="J10" s="69">
-        <v>7208960</v>
-      </c>
-      <c r="K10" s="69">
-        <v>7864320</v>
-      </c>
-      <c r="L10" s="69">
-        <v>8519680</v>
-      </c>
-      <c r="M10" s="69">
-        <v>9175040</v>
+      <c r="D10" s="178">
+        <v>422798300</v>
+      </c>
+      <c r="E10" s="177">
+        <v>422798309</v>
+      </c>
+      <c r="F10" s="177">
+        <v>422798312</v>
+      </c>
+      <c r="G10" s="177">
+        <v>422798315</v>
+      </c>
+      <c r="H10" s="177">
+        <v>422798318</v>
+      </c>
+      <c r="I10" s="177">
+        <v>422798321</v>
+      </c>
+      <c r="J10" s="177">
+        <v>422798324</v>
+      </c>
+      <c r="K10" s="177">
+        <v>422798327</v>
+      </c>
+      <c r="L10" s="177">
+        <v>422798330</v>
+      </c>
+      <c r="M10" s="177">
+        <v>422798333</v>
       </c>
       <c r="N10" s="63" t="b">
         <v>0</v>
@@ -18479,35 +18501,35 @@
       <c r="C11" s="67">
         <v>0</v>
       </c>
-      <c r="D11" s="68">
-        <v>13107200</v>
-      </c>
-      <c r="E11" s="69">
-        <v>15728640</v>
-      </c>
-      <c r="F11" s="69">
-        <v>18350080</v>
-      </c>
-      <c r="G11" s="69">
-        <v>20971520</v>
-      </c>
-      <c r="H11" s="69">
-        <v>23592960</v>
-      </c>
-      <c r="I11" s="69">
-        <v>26214400</v>
-      </c>
-      <c r="J11" s="69">
-        <v>28835840</v>
-      </c>
-      <c r="K11" s="69">
-        <v>31457280</v>
-      </c>
-      <c r="L11" s="69">
-        <v>34078720</v>
-      </c>
-      <c r="M11" s="69">
-        <v>36700160</v>
+      <c r="D11" s="178">
+        <v>7048293100</v>
+      </c>
+      <c r="E11" s="177">
+        <v>7048293110</v>
+      </c>
+      <c r="F11" s="177">
+        <v>7048293113</v>
+      </c>
+      <c r="G11" s="177">
+        <v>7048293116</v>
+      </c>
+      <c r="H11" s="177">
+        <v>7048293119</v>
+      </c>
+      <c r="I11" s="177">
+        <v>7048293122</v>
+      </c>
+      <c r="J11" s="177">
+        <v>7048293125</v>
+      </c>
+      <c r="K11" s="177">
+        <v>7048293128</v>
+      </c>
+      <c r="L11" s="177">
+        <v>7048293131</v>
+      </c>
+      <c r="M11" s="177">
+        <v>7048293134</v>
       </c>
       <c r="N11" s="63" t="b">
         <v>0</v>
@@ -18523,35 +18545,35 @@
       <c r="C12" s="67">
         <v>0</v>
       </c>
-      <c r="D12" s="68">
-        <v>52428800</v>
-      </c>
-      <c r="E12" s="69">
-        <v>62914560</v>
-      </c>
-      <c r="F12" s="69">
-        <v>73400320</v>
-      </c>
-      <c r="G12" s="69">
-        <v>83886080</v>
-      </c>
-      <c r="H12" s="69">
-        <v>94371840</v>
-      </c>
-      <c r="I12" s="69">
-        <v>104857600</v>
-      </c>
-      <c r="J12" s="69">
-        <v>115343360</v>
-      </c>
-      <c r="K12" s="69">
-        <v>125829120</v>
-      </c>
-      <c r="L12" s="69">
-        <v>136314880</v>
-      </c>
-      <c r="M12" s="69">
-        <v>146800640</v>
+      <c r="D12" s="178">
+        <v>131947819700</v>
+      </c>
+      <c r="E12" s="177">
+        <v>131947819711</v>
+      </c>
+      <c r="F12" s="177">
+        <v>131947819714</v>
+      </c>
+      <c r="G12" s="177">
+        <v>131947819717</v>
+      </c>
+      <c r="H12" s="177">
+        <v>131947819720</v>
+      </c>
+      <c r="I12" s="177">
+        <v>131947819723</v>
+      </c>
+      <c r="J12" s="177">
+        <v>131947819726</v>
+      </c>
+      <c r="K12" s="177">
+        <v>131947819729</v>
+      </c>
+      <c r="L12" s="177">
+        <v>131947819732</v>
+      </c>
+      <c r="M12" s="177">
+        <v>131947819735</v>
       </c>
       <c r="N12" s="63" t="b">
         <v>0</v>
@@ -18567,35 +18589,35 @@
       <c r="C13" s="67">
         <v>0</v>
       </c>
-      <c r="D13" s="68">
-        <v>209715200</v>
-      </c>
-      <c r="E13" s="69">
-        <v>251658240</v>
-      </c>
-      <c r="F13" s="69">
-        <v>293601280</v>
-      </c>
-      <c r="G13" s="69">
-        <v>335544320</v>
-      </c>
-      <c r="H13" s="69">
-        <v>377487360</v>
-      </c>
-      <c r="I13" s="69">
-        <v>419430400</v>
-      </c>
-      <c r="J13" s="69">
-        <v>461373440</v>
-      </c>
-      <c r="K13" s="69">
-        <v>503316480</v>
-      </c>
-      <c r="L13" s="69">
-        <v>545259520</v>
-      </c>
-      <c r="M13" s="69">
-        <v>587202560</v>
+      <c r="D13" s="178">
+        <v>2738771542900</v>
+      </c>
+      <c r="E13" s="177">
+        <v>2738771542912</v>
+      </c>
+      <c r="F13" s="177">
+        <v>2738771542915</v>
+      </c>
+      <c r="G13" s="177">
+        <v>2738771542918</v>
+      </c>
+      <c r="H13" s="177">
+        <v>2738771542921</v>
+      </c>
+      <c r="I13" s="177">
+        <v>2738771542924</v>
+      </c>
+      <c r="J13" s="177">
+        <v>2738771542927</v>
+      </c>
+      <c r="K13" s="177">
+        <v>2738771542930</v>
+      </c>
+      <c r="L13" s="177">
+        <v>2738771542933</v>
+      </c>
+      <c r="M13" s="177">
+        <v>2738771542936</v>
       </c>
       <c r="N13" s="63" t="b">
         <v>0</v>
@@ -18611,35 +18633,35 @@
       <c r="C14" s="67">
         <v>0</v>
       </c>
-      <c r="D14" s="68">
-        <v>838860800</v>
-      </c>
-      <c r="E14" s="69">
-        <v>1006632960</v>
-      </c>
-      <c r="F14" s="69">
-        <v>1174405120</v>
-      </c>
-      <c r="G14" s="69">
-        <v>1342177280</v>
-      </c>
-      <c r="H14" s="69">
-        <v>1509949440</v>
-      </c>
-      <c r="I14" s="69">
-        <v>1677721600</v>
-      </c>
-      <c r="J14" s="69">
-        <v>1845493760</v>
-      </c>
-      <c r="K14" s="69">
-        <v>2013265920</v>
-      </c>
-      <c r="L14" s="69">
-        <v>2181038080</v>
-      </c>
-      <c r="M14" s="69">
-        <v>2348810240</v>
+      <c r="D14" s="178">
+        <v>62399688866300</v>
+      </c>
+      <c r="E14" s="177">
+        <v>62399688866313</v>
+      </c>
+      <c r="F14" s="177">
+        <v>62399688866316</v>
+      </c>
+      <c r="G14" s="177">
+        <v>62399688866319</v>
+      </c>
+      <c r="H14" s="177">
+        <v>62399688866322</v>
+      </c>
+      <c r="I14" s="177">
+        <v>62399688866325</v>
+      </c>
+      <c r="J14" s="177">
+        <v>62399688866328</v>
+      </c>
+      <c r="K14" s="177">
+        <v>62399688866331</v>
+      </c>
+      <c r="L14" s="177">
+        <v>62399688866334</v>
+      </c>
+      <c r="M14" s="177">
+        <v>62399688866337</v>
       </c>
       <c r="N14" s="63" t="b">
         <v>0</v>
@@ -18655,35 +18677,35 @@
       <c r="C15" s="67">
         <v>0</v>
       </c>
-      <c r="D15" s="68">
-        <v>3355443200</v>
-      </c>
-      <c r="E15" s="69">
-        <v>4026531840</v>
-      </c>
-      <c r="F15" s="69">
-        <v>4697620480</v>
-      </c>
-      <c r="G15" s="69">
-        <v>5368709120</v>
-      </c>
-      <c r="H15" s="69">
-        <v>6039797760</v>
-      </c>
-      <c r="I15" s="69">
-        <v>6710886400</v>
-      </c>
-      <c r="J15" s="69">
-        <v>7381975040</v>
-      </c>
-      <c r="K15" s="69">
-        <v>8053063680</v>
-      </c>
-      <c r="L15" s="69">
-        <v>8724152320</v>
-      </c>
-      <c r="M15" s="69">
-        <v>9395240960</v>
+      <c r="D15" s="178">
+        <v>1547853022245100</v>
+      </c>
+      <c r="E15" s="177">
+        <v>1547853022245114</v>
+      </c>
+      <c r="F15" s="177">
+        <v>1547853022245117</v>
+      </c>
+      <c r="G15" s="177">
+        <v>1547853022245120</v>
+      </c>
+      <c r="H15" s="177">
+        <v>1547853022245123</v>
+      </c>
+      <c r="I15" s="177">
+        <v>1547853022245126</v>
+      </c>
+      <c r="J15" s="177">
+        <v>1547853022245129</v>
+      </c>
+      <c r="K15" s="177">
+        <v>1547853022245132</v>
+      </c>
+      <c r="L15" s="177">
+        <v>1547853022245135</v>
+      </c>
+      <c r="M15" s="177">
+        <v>1547853022245138</v>
       </c>
       <c r="N15" s="63" t="b">
         <v>0</v>
@@ -18699,35 +18721,35 @@
       <c r="C16" s="67">
         <v>0</v>
       </c>
-      <c r="D16" s="68">
-        <v>13421772800</v>
-      </c>
-      <c r="E16" s="69">
-        <v>16106127360</v>
-      </c>
-      <c r="F16" s="69">
-        <v>18790481920</v>
-      </c>
-      <c r="G16" s="69">
-        <v>21474836480</v>
-      </c>
-      <c r="H16" s="69">
-        <v>24159191040</v>
-      </c>
-      <c r="I16" s="69">
-        <v>26843545600</v>
-      </c>
-      <c r="J16" s="69">
-        <v>29527900160</v>
-      </c>
-      <c r="K16" s="69">
-        <v>32212254720</v>
-      </c>
-      <c r="L16" s="69">
-        <v>34896609280</v>
-      </c>
-      <c r="M16" s="69">
-        <v>37580963840</v>
+      <c r="D16" s="178">
+        <v>4.1518154446327696E+16</v>
+      </c>
+      <c r="E16" s="177">
+        <v>4.1518154446327712E+16</v>
+      </c>
+      <c r="F16" s="177">
+        <v>4.1518154446327712E+16</v>
+      </c>
+      <c r="G16" s="177">
+        <v>4.1518154446327712E+16</v>
+      </c>
+      <c r="H16" s="177">
+        <v>4.1518154446327712E+16</v>
+      </c>
+      <c r="I16" s="177">
+        <v>4.1518154446327712E+16</v>
+      </c>
+      <c r="J16" s="177">
+        <v>4.1518154446327712E+16</v>
+      </c>
+      <c r="K16" s="177">
+        <v>4.1518154446327712E+16</v>
+      </c>
+      <c r="L16" s="177">
+        <v>4.1518154446327712E+16</v>
+      </c>
+      <c r="M16" s="177">
+        <v>4.1518154446327712E+16</v>
       </c>
       <c r="N16" s="63" t="b">
         <v>0</v>
@@ -18743,35 +18765,35 @@
       <c r="C17" s="67">
         <v>0</v>
       </c>
-      <c r="D17" s="68">
-        <v>53687091200</v>
-      </c>
-      <c r="E17" s="69">
-        <v>64424509440</v>
-      </c>
-      <c r="F17" s="69">
-        <v>75161927680</v>
-      </c>
-      <c r="G17" s="69">
-        <v>85899345920</v>
-      </c>
-      <c r="H17" s="69">
-        <v>96636764160</v>
-      </c>
-      <c r="I17" s="69">
-        <v>107374182400</v>
-      </c>
-      <c r="J17" s="69">
-        <v>118111600640</v>
-      </c>
-      <c r="K17" s="69">
-        <v>128849018880</v>
-      </c>
-      <c r="L17" s="69">
-        <v>139586437120</v>
-      </c>
-      <c r="M17" s="69">
-        <v>150323855360</v>
+      <c r="D17" s="178">
+        <v>1.197287312545943E+18</v>
+      </c>
+      <c r="E17" s="177">
+        <v>1.197287312545943E+18</v>
+      </c>
+      <c r="F17" s="177">
+        <v>1.197287312545943E+18</v>
+      </c>
+      <c r="G17" s="177">
+        <v>1.197287312545943E+18</v>
+      </c>
+      <c r="H17" s="177">
+        <v>1.197287312545943E+18</v>
+      </c>
+      <c r="I17" s="177">
+        <v>1.197287312545943E+18</v>
+      </c>
+      <c r="J17" s="177">
+        <v>1.197287312545943E+18</v>
+      </c>
+      <c r="K17" s="177">
+        <v>1.197287312545943E+18</v>
+      </c>
+      <c r="L17" s="177">
+        <v>1.197287312545943E+18</v>
+      </c>
+      <c r="M17" s="177">
+        <v>1.197287312545943E+18</v>
       </c>
       <c r="N17" s="63" t="b">
         <v>0</v>
@@ -18787,35 +18809,35 @@
       <c r="C18" s="67">
         <v>0</v>
       </c>
-      <c r="D18" s="68">
-        <v>214748364800</v>
-      </c>
-      <c r="E18" s="69">
-        <v>257698037760</v>
-      </c>
-      <c r="F18" s="69">
-        <v>300647710720</v>
-      </c>
-      <c r="G18" s="69">
-        <v>343597383680</v>
-      </c>
-      <c r="H18" s="69">
-        <v>386547056640</v>
-      </c>
-      <c r="I18" s="69">
-        <v>429496729600</v>
-      </c>
-      <c r="J18" s="69">
-        <v>472446402560</v>
-      </c>
-      <c r="K18" s="69">
-        <v>515396075520</v>
-      </c>
-      <c r="L18" s="69">
-        <v>558345748480</v>
-      </c>
-      <c r="M18" s="69">
-        <v>601295421440</v>
+      <c r="D18" s="178">
+        <v>3.6936355738343793E+19</v>
+      </c>
+      <c r="E18" s="177">
+        <v>3.6936355738343793E+19</v>
+      </c>
+      <c r="F18" s="177">
+        <v>3.6936355738343793E+19</v>
+      </c>
+      <c r="G18" s="177">
+        <v>3.6936355738343793E+19</v>
+      </c>
+      <c r="H18" s="177">
+        <v>3.6936355738343793E+19</v>
+      </c>
+      <c r="I18" s="177">
+        <v>3.6936355738343793E+19</v>
+      </c>
+      <c r="J18" s="177">
+        <v>3.6936355738343793E+19</v>
+      </c>
+      <c r="K18" s="177">
+        <v>3.6936355738343793E+19</v>
+      </c>
+      <c r="L18" s="177">
+        <v>3.6936355738343793E+19</v>
+      </c>
+      <c r="M18" s="177">
+        <v>3.6936355738343793E+19</v>
       </c>
       <c r="N18" s="63" t="b">
         <v>0</v>
@@ -18831,35 +18853,35 @@
       <c r="C19" s="67">
         <v>0</v>
       </c>
-      <c r="D19" s="68">
-        <v>858993459200</v>
-      </c>
-      <c r="E19" s="69">
-        <v>1030792151040</v>
-      </c>
-      <c r="F19" s="69">
-        <v>1202590842880</v>
-      </c>
-      <c r="G19" s="69">
-        <v>1374389534720</v>
-      </c>
-      <c r="H19" s="69">
-        <v>1546188226560</v>
-      </c>
-      <c r="I19" s="69">
-        <v>1717986918400</v>
-      </c>
-      <c r="J19" s="69">
-        <v>1889785610240</v>
-      </c>
-      <c r="K19" s="69">
-        <v>2061584302080</v>
-      </c>
-      <c r="L19" s="69">
-        <v>2233382993920</v>
-      </c>
-      <c r="M19" s="69">
-        <v>2405181685760</v>
+      <c r="D19" s="178">
+        <v>1.213751488214001E+21</v>
+      </c>
+      <c r="E19" s="177">
+        <v>1.213751488214001E+21</v>
+      </c>
+      <c r="F19" s="177">
+        <v>1.213751488214001E+21</v>
+      </c>
+      <c r="G19" s="177">
+        <v>1.213751488214001E+21</v>
+      </c>
+      <c r="H19" s="177">
+        <v>1.213751488214001E+21</v>
+      </c>
+      <c r="I19" s="177">
+        <v>1.213751488214001E+21</v>
+      </c>
+      <c r="J19" s="177">
+        <v>1.213751488214001E+21</v>
+      </c>
+      <c r="K19" s="177">
+        <v>1.213751488214001E+21</v>
+      </c>
+      <c r="L19" s="177">
+        <v>1.213751488214001E+21</v>
+      </c>
+      <c r="M19" s="177">
+        <v>1.213751488214001E+21</v>
       </c>
       <c r="N19" s="63" t="b">
         <v>0</v>
@@ -18875,35 +18897,35 @@
       <c r="C20" s="67">
         <v>0</v>
       </c>
-      <c r="D20" s="68">
-        <v>3435973836800</v>
-      </c>
-      <c r="E20" s="69">
-        <v>4123168604160</v>
-      </c>
-      <c r="F20" s="69">
-        <v>4810363371520</v>
-      </c>
-      <c r="G20" s="69">
-        <v>5497558138880</v>
-      </c>
-      <c r="H20" s="69">
-        <v>6184752906240</v>
-      </c>
-      <c r="I20" s="69">
-        <v>1717986918400</v>
-      </c>
-      <c r="J20" s="69">
-        <v>7559142440960</v>
-      </c>
-      <c r="K20" s="69">
-        <v>8246337208320</v>
-      </c>
-      <c r="L20" s="69">
-        <v>8933531975680</v>
-      </c>
-      <c r="M20" s="69">
-        <v>9620726743040</v>
+      <c r="D20" s="178">
+        <v>4.2323260162233959E+22</v>
+      </c>
+      <c r="E20" s="177">
+        <v>4.2323260162233959E+22</v>
+      </c>
+      <c r="F20" s="177">
+        <v>4.2323260162233959E+22</v>
+      </c>
+      <c r="G20" s="177">
+        <v>4.2323260162233959E+22</v>
+      </c>
+      <c r="H20" s="177">
+        <v>4.2323260162233959E+22</v>
+      </c>
+      <c r="I20" s="177">
+        <v>4.2323260162233959E+22</v>
+      </c>
+      <c r="J20" s="177">
+        <v>4.2323260162233959E+22</v>
+      </c>
+      <c r="K20" s="177">
+        <v>4.2323260162233959E+22</v>
+      </c>
+      <c r="L20" s="177">
+        <v>4.2323260162233959E+22</v>
+      </c>
+      <c r="M20" s="177">
+        <v>4.2323260162233959E+22</v>
       </c>
       <c r="N20" s="63" t="b">
         <v>0</v>
@@ -18919,35 +18941,35 @@
       <c r="C21" s="67">
         <v>0</v>
       </c>
-      <c r="D21" s="68">
-        <v>13743895347200</v>
-      </c>
-      <c r="E21" s="69">
-        <v>16492674416640</v>
-      </c>
-      <c r="F21" s="69">
-        <v>19241453486080</v>
-      </c>
-      <c r="G21" s="69">
-        <v>21990232555520</v>
-      </c>
-      <c r="H21" s="69">
-        <v>24739011624960</v>
-      </c>
-      <c r="I21" s="69">
-        <v>27487790694400</v>
-      </c>
-      <c r="J21" s="69">
-        <v>30236569763840</v>
-      </c>
-      <c r="K21" s="69">
-        <v>32985348833280</v>
-      </c>
-      <c r="L21" s="69">
-        <v>35734127902720</v>
-      </c>
-      <c r="M21" s="69">
-        <v>38482906972160</v>
+      <c r="D21" s="179">
+        <v>1.5607895361992899E+24</v>
+      </c>
+      <c r="E21" s="180">
+        <v>1.5607895361992899E+24</v>
+      </c>
+      <c r="F21" s="177">
+        <v>1.5607895361992899E+24</v>
+      </c>
+      <c r="G21" s="177">
+        <v>1.5607895361992899E+24</v>
+      </c>
+      <c r="H21" s="177">
+        <v>1.5607895361992899E+24</v>
+      </c>
+      <c r="I21" s="177">
+        <v>1.5607895361992899E+24</v>
+      </c>
+      <c r="J21" s="177">
+        <v>1.5607895361992899E+24</v>
+      </c>
+      <c r="K21" s="177">
+        <v>1.5607895361992899E+24</v>
+      </c>
+      <c r="L21" s="177">
+        <v>1.5607895361992899E+24</v>
+      </c>
+      <c r="M21" s="177">
+        <v>1.5607895361992899E+24</v>
       </c>
       <c r="N21" s="63" t="b">
         <v>0</v>
@@ -18961,7 +18983,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:N15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -18974,38 +18996,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" s="171" t="s">
+      <c r="A1" s="169" t="s">
         <v>183</v>
       </c>
-      <c r="B1" s="171"/>
-      <c r="C1" s="171"/>
-      <c r="D1" s="171"/>
-      <c r="E1" s="171"/>
-      <c r="F1" s="171"/>
-      <c r="G1" s="171"/>
-      <c r="H1" s="171"/>
-      <c r="I1" s="171"/>
-      <c r="J1" s="171"/>
-      <c r="K1" s="171"/>
-      <c r="L1" s="171"/>
-      <c r="M1" s="171"/>
-      <c r="N1" s="171"/>
+      <c r="B1" s="169"/>
+      <c r="C1" s="169"/>
+      <c r="D1" s="169"/>
+      <c r="E1" s="169"/>
+      <c r="F1" s="169"/>
+      <c r="G1" s="169"/>
+      <c r="H1" s="169"/>
+      <c r="I1" s="169"/>
+      <c r="J1" s="169"/>
+      <c r="K1" s="169"/>
+      <c r="L1" s="169"/>
+      <c r="M1" s="169"/>
+      <c r="N1" s="169"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="172"/>
-      <c r="B2" s="172"/>
-      <c r="C2" s="172"/>
-      <c r="D2" s="172"/>
-      <c r="E2" s="172"/>
-      <c r="F2" s="172"/>
-      <c r="G2" s="172"/>
-      <c r="H2" s="172"/>
-      <c r="I2" s="172"/>
-      <c r="J2" s="172"/>
-      <c r="K2" s="172"/>
-      <c r="L2" s="172"/>
-      <c r="M2" s="172"/>
-      <c r="N2" s="172"/>
+      <c r="A2" s="170"/>
+      <c r="B2" s="170"/>
+      <c r="C2" s="170"/>
+      <c r="D2" s="170"/>
+      <c r="E2" s="170"/>
+      <c r="F2" s="170"/>
+      <c r="G2" s="170"/>
+      <c r="H2" s="170"/>
+      <c r="I2" s="170"/>
+      <c r="J2" s="170"/>
+      <c r="K2" s="170"/>
+      <c r="L2" s="170"/>
+      <c r="M2" s="170"/>
+      <c r="N2" s="170"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="38" t="s">
@@ -19120,39 +19142,39 @@
       </c>
       <c r="E5" s="65">
         <f>POWER((3+0.2*(weaponData!D3:M3-25)),2)</f>
-        <v>2116</v>
+        <v>1936</v>
       </c>
       <c r="F5" s="65">
         <f>POWER((3+0.2*(weaponData!E3:O3-25)),2)</f>
-        <v>2916</v>
+        <v>2500</v>
       </c>
       <c r="G5" s="65">
         <f>POWER((3+0.2*(weaponData!F3:P3-25)),2)</f>
-        <v>3844</v>
+        <v>3136</v>
       </c>
       <c r="H5" s="65">
         <f>POWER((3+0.2*(weaponData!G3:Q3-25)),2)</f>
-        <v>4900</v>
+        <v>3844</v>
       </c>
       <c r="I5" s="65">
         <f>POWER((3+0.2*(weaponData!H3:R3-25)),2)</f>
-        <v>6084</v>
+        <v>4624</v>
       </c>
       <c r="J5" s="65">
         <f>POWER((3+0.2*(weaponData!I3:S3-25)),2)</f>
-        <v>7396</v>
+        <v>5476</v>
       </c>
       <c r="K5" s="65">
         <f>POWER((3+0.2*(weaponData!J3:T3-25)),2)</f>
-        <v>8836</v>
+        <v>6400</v>
       </c>
       <c r="L5" s="65">
         <f>POWER((3+0.2*(weaponData!K3:U3-25)),2)</f>
-        <v>10404</v>
+        <v>7396</v>
       </c>
       <c r="M5" s="65">
         <f>POWER((3+0.2*(weaponData!L3:V3-25)),2)</f>
-        <v>12100</v>
+        <v>8464</v>
       </c>
       <c r="N5" s="65">
         <f>POWER((3+0.2*(weaponData!M3:W3-25)),2)</f>
@@ -19174,39 +19196,39 @@
       </c>
       <c r="E6" s="65">
         <f>POWER((3+0.2*(weaponData!D4:M4-25)),2)</f>
-        <v>36100</v>
+        <v>25153.960000000006</v>
       </c>
       <c r="F6" s="65">
         <f>POWER((3+0.2*(weaponData!E4:O4-25)),2)</f>
-        <v>49284</v>
+        <v>25344.640000000007</v>
       </c>
       <c r="G6" s="65">
         <f>POWER((3+0.2*(weaponData!F4:P4-25)),2)</f>
-        <v>64516</v>
+        <v>25536.040000000005</v>
       </c>
       <c r="H6" s="65">
         <f>POWER((3+0.2*(weaponData!G4:Q4-25)),2)</f>
-        <v>81796</v>
+        <v>25728.160000000003</v>
       </c>
       <c r="I6" s="65">
         <f>POWER((3+0.2*(weaponData!H4:R4-25)),2)</f>
-        <v>101124</v>
+        <v>25921</v>
       </c>
       <c r="J6" s="65">
         <f>POWER((3+0.2*(weaponData!I4:S4-25)),2)</f>
-        <v>122500</v>
+        <v>26114.560000000009</v>
       </c>
       <c r="K6" s="65">
         <f>POWER((3+0.2*(weaponData!J4:T4-25)),2)</f>
-        <v>145924</v>
+        <v>26308.840000000004</v>
       </c>
       <c r="L6" s="65">
         <f>POWER((3+0.2*(weaponData!K4:U4-25)),2)</f>
-        <v>171396</v>
+        <v>26503.840000000004</v>
       </c>
       <c r="M6" s="65">
         <f>POWER((3+0.2*(weaponData!L4:V4-25)),2)</f>
-        <v>198916</v>
+        <v>26699.56</v>
       </c>
       <c r="N6" s="65">
         <f>POWER((3+0.2*(weaponData!M4:W4-25)),2)</f>
@@ -19228,39 +19250,39 @@
       </c>
       <c r="E7" s="65">
         <f>POWER((3+0.2*(weaponData!D5:M5-25)),2)</f>
-        <v>586756</v>
+        <v>27225</v>
       </c>
       <c r="F7" s="65">
         <f>POWER((3+0.2*(weaponData!E5:O5-25)),2)</f>
-        <v>799236</v>
+        <v>27489.640000000003</v>
       </c>
       <c r="G7" s="65">
         <f>POWER((3+0.2*(weaponData!F5:P5-25)),2)</f>
-        <v>1044484</v>
+        <v>27755.560000000009</v>
       </c>
       <c r="H7" s="65">
         <f>POWER((3+0.2*(weaponData!G5:Q5-25)),2)</f>
-        <v>1322500</v>
+        <v>28022.760000000002</v>
       </c>
       <c r="I7" s="65">
         <f>POWER((3+0.2*(weaponData!H5:R5-25)),2)</f>
-        <v>1633284</v>
+        <v>28291.240000000005</v>
       </c>
       <c r="J7" s="65">
         <f>POWER((3+0.2*(weaponData!I5:S5-25)),2)</f>
-        <v>1976836</v>
+        <v>28561</v>
       </c>
       <c r="K7" s="65">
         <f>POWER((3+0.2*(weaponData!J5:T5-25)),2)</f>
-        <v>2353156</v>
+        <v>28832.040000000005</v>
       </c>
       <c r="L7" s="65">
         <f>POWER((3+0.2*(weaponData!K5:U5-25)),2)</f>
-        <v>2762244</v>
+        <v>29104.360000000008</v>
       </c>
       <c r="M7" s="65">
         <f>POWER((3+0.2*(weaponData!L5:V5-25)),2)</f>
-        <v>3204100</v>
+        <v>29377.960000000003</v>
       </c>
       <c r="N7" s="65">
         <f>POWER((3+0.2*(weaponData!M5:W5-25)),2)</f>
@@ -19282,39 +19304,39 @@
       </c>
       <c r="E8" s="65">
         <f>POWER((3+0.2*(weaponData!D6:M6-25)),2)</f>
-        <v>9424900</v>
+        <v>30239001</v>
       </c>
       <c r="F8" s="65">
         <f>POWER((3+0.2*(weaponData!E6:O6-25)),2)</f>
-        <v>12830724</v>
+        <v>30245600.160000004</v>
       </c>
       <c r="G8" s="65">
         <f>POWER((3+0.2*(weaponData!F6:P6-25)),2)</f>
-        <v>16760836</v>
+        <v>30252200.040000007</v>
       </c>
       <c r="H8" s="65">
         <f>POWER((3+0.2*(weaponData!G6:Q6-25)),2)</f>
-        <v>21215236</v>
+        <v>30258800.640000001</v>
       </c>
       <c r="I8" s="65">
         <f>POWER((3+0.2*(weaponData!H6:R6-25)),2)</f>
-        <v>26193924</v>
+        <v>30265401.960000005</v>
       </c>
       <c r="J8" s="65">
         <f>POWER((3+0.2*(weaponData!I6:S6-25)),2)</f>
-        <v>31696900</v>
+        <v>30272004</v>
       </c>
       <c r="K8" s="65">
         <f>POWER((3+0.2*(weaponData!J6:T6-25)),2)</f>
-        <v>37724164</v>
+        <v>30278606.760000005</v>
       </c>
       <c r="L8" s="65">
         <f>POWER((3+0.2*(weaponData!K6:U6-25)),2)</f>
-        <v>44275716</v>
+        <v>30285210.24000001</v>
       </c>
       <c r="M8" s="65">
         <f>POWER((3+0.2*(weaponData!L6:V6-25)),2)</f>
-        <v>51351556</v>
+        <v>30291814.440000001</v>
       </c>
       <c r="N8" s="65">
         <f>POWER((3+0.2*(weaponData!M6:W6-25)),2)</f>
@@ -19336,39 +19358,39 @@
       </c>
       <c r="E9" s="65">
         <f>POWER((3+0.2*(weaponData!D7:M7-25)),2)</f>
-        <v>150945796</v>
+        <v>2026728368.6400003</v>
       </c>
       <c r="F9" s="65">
         <f>POWER((3+0.2*(weaponData!E7:O7-25)),2)</f>
-        <v>205463556</v>
+        <v>2026782392.0400002</v>
       </c>
       <c r="G9" s="65">
         <f>POWER((3+0.2*(weaponData!F7:P7-25)),2)</f>
-        <v>268369924</v>
+        <v>2026836416.1600001</v>
       </c>
       <c r="H9" s="65">
         <f>POWER((3+0.2*(weaponData!G7:Q7-25)),2)</f>
-        <v>339664900</v>
+        <v>2026890441</v>
       </c>
       <c r="I9" s="65">
         <f>POWER((3+0.2*(weaponData!H7:R7-25)),2)</f>
-        <v>419348484</v>
+        <v>2026944466.5600004</v>
       </c>
       <c r="J9" s="65">
         <f>POWER((3+0.2*(weaponData!I7:S7-25)),2)</f>
-        <v>507420676</v>
+        <v>2026998492.8400004</v>
       </c>
       <c r="K9" s="65">
         <f>POWER((3+0.2*(weaponData!J7:T7-25)),2)</f>
-        <v>603881476</v>
+        <v>2027052519.8400002</v>
       </c>
       <c r="L9" s="65">
         <f>POWER((3+0.2*(weaponData!K7:U7-25)),2)</f>
-        <v>708730884</v>
+        <v>2027106547.5600002</v>
       </c>
       <c r="M9" s="65">
         <f>POWER((3+0.2*(weaponData!L7:V7-25)),2)</f>
-        <v>821968900</v>
+        <v>2027160576</v>
       </c>
       <c r="N9" s="65">
         <f>POWER((3+0.2*(weaponData!M7:W7-25)),2)</f>
@@ -19390,39 +19412,39 @@
       </c>
       <c r="E10" s="65">
         <f>POWER((3+0.2*(weaponData!D8:M8-25)),2)</f>
-        <v>2415722500</v>
+        <v>215536790488.36002</v>
       </c>
       <c r="F10" s="65">
         <f>POWER((3+0.2*(weaponData!E8:O8-25)),2)</f>
-        <v>3288104964</v>
+        <v>215537347600</v>
       </c>
       <c r="G10" s="65">
         <f>POWER((3+0.2*(weaponData!F8:P8-25)),2)</f>
-        <v>4294705156</v>
+        <v>215537904712.36005</v>
       </c>
       <c r="H10" s="65">
         <f>POWER((3+0.2*(weaponData!G8:Q8-25)),2)</f>
-        <v>5435523076</v>
+        <v>215538461825.44</v>
       </c>
       <c r="I10" s="65">
         <f>POWER((3+0.2*(weaponData!H8:R8-25)),2)</f>
-        <v>6710558724</v>
+        <v>215539018939.24005</v>
       </c>
       <c r="J10" s="65">
         <f>POWER((3+0.2*(weaponData!I8:S8-25)),2)</f>
-        <v>8119812100</v>
+        <v>215539576053.76001</v>
       </c>
       <c r="K10" s="65">
         <f>POWER((3+0.2*(weaponData!J8:T8-25)),2)</f>
-        <v>9663283204</v>
+        <v>215540133169</v>
       </c>
       <c r="L10" s="65">
         <f>POWER((3+0.2*(weaponData!K8:U8-25)),2)</f>
-        <v>11340972036</v>
+        <v>215540690284.96002</v>
       </c>
       <c r="M10" s="65">
         <f>POWER((3+0.2*(weaponData!L8:V8-25)),2)</f>
-        <v>13152878596</v>
+        <v>215541247401.64001</v>
       </c>
       <c r="N10" s="65">
         <f>POWER((3+0.2*(weaponData!M8:W8-25)),2)</f>
@@ -19444,39 +19466,39 @@
       </c>
       <c r="E11" s="65">
         <f>POWER((3+0.2*(weaponData!D9:M9-25)),2)</f>
-        <v>38653919236</v>
+        <v>33563247189696.168</v>
       </c>
       <c r="F11" s="65">
         <f>POWER((3+0.2*(weaponData!E9:O9-25)),2)</f>
-        <v>52612431876</v>
+        <v>33563254141752.043</v>
       </c>
       <c r="G11" s="65">
         <f>POWER((3+0.2*(weaponData!F9:P9-25)),2)</f>
-        <v>68718428164</v>
+        <v>33563261093808.648</v>
       </c>
       <c r="H11" s="65">
         <f>POWER((3+0.2*(weaponData!G9:Q9-25)),2)</f>
-        <v>86971908100</v>
+        <v>33563268045865.965</v>
       </c>
       <c r="I11" s="65">
         <f>POWER((3+0.2*(weaponData!H9:R9-25)),2)</f>
-        <v>107372871684</v>
+        <v>33563274997924</v>
       </c>
       <c r="J11" s="65">
         <f>POWER((3+0.2*(weaponData!I9:S9-25)),2)</f>
-        <v>129921318916</v>
+        <v>33563281949982.766</v>
       </c>
       <c r="K11" s="65">
         <f>POWER((3+0.2*(weaponData!J9:T9-25)),2)</f>
-        <v>154617249796</v>
+        <v>33563288902042.242</v>
       </c>
       <c r="L11" s="65">
         <f>POWER((3+0.2*(weaponData!K9:U9-25)),2)</f>
-        <v>181460664324</v>
+        <v>33563295854102.449</v>
       </c>
       <c r="M11" s="65">
         <f>POWER((3+0.2*(weaponData!L9:V9-25)),2)</f>
-        <v>210451562500</v>
+        <v>33563302806163.363</v>
       </c>
       <c r="N11" s="65">
         <f>POWER((3+0.2*(weaponData!M9:W9-25)),2)</f>
@@ -19519,11 +19541,11 @@
       <c r="A14" s="41"/>
       <c r="B14" s="41"/>
       <c r="C14" s="41"/>
-      <c r="D14" s="173" t="s">
+      <c r="D14" s="171" t="s">
         <v>184</v>
       </c>
-      <c r="E14" s="173"/>
-      <c r="F14" s="173"/>
+      <c r="E14" s="171"/>
+      <c r="F14" s="171"/>
       <c r="G14" s="41"/>
       <c r="H14" s="41"/>
       <c r="I14" s="41"/>
@@ -19561,7 +19583,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="C1:N23"/>
   <sheetViews>
     <sheetView topLeftCell="G1" workbookViewId="0">
@@ -19583,23 +19605,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C1" s="157" t="s">
+      <c r="C1" s="155" t="s">
         <v>63</v>
       </c>
-      <c r="D1" s="157"/>
-      <c r="E1" s="157"/>
-      <c r="F1" s="157"/>
-      <c r="G1" s="157"/>
+      <c r="D1" s="155"/>
+      <c r="E1" s="155"/>
+      <c r="F1" s="155"/>
+      <c r="G1" s="155"/>
       <c r="I1" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="2" spans="3:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C2" s="157"/>
-      <c r="D2" s="157"/>
-      <c r="E2" s="157"/>
-      <c r="F2" s="157"/>
-      <c r="G2" s="157"/>
+      <c r="C2" s="155"/>
+      <c r="D2" s="155"/>
+      <c r="E2" s="155"/>
+      <c r="F2" s="155"/>
+      <c r="G2" s="155"/>
       <c r="I2" t="s">
         <v>101</v>
       </c>
@@ -19640,7 +19662,7 @@
       </c>
     </row>
     <row r="4" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C4" s="176" t="s">
+      <c r="C4" s="174" t="s">
         <v>32</v>
       </c>
       <c r="D4" s="13" t="s">
@@ -19675,7 +19697,7 @@
       </c>
     </row>
     <row r="5" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C5" s="177"/>
+      <c r="C5" s="175"/>
       <c r="D5" s="13" t="s">
         <v>34</v>
       </c>
@@ -19708,7 +19730,7 @@
       </c>
     </row>
     <row r="6" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C6" s="177"/>
+      <c r="C6" s="175"/>
       <c r="D6" s="13" t="s">
         <v>35</v>
       </c>
@@ -19741,7 +19763,7 @@
       </c>
     </row>
     <row r="7" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C7" s="177"/>
+      <c r="C7" s="175"/>
       <c r="D7" s="13" t="s">
         <v>36</v>
       </c>
@@ -19774,7 +19796,7 @@
       </c>
     </row>
     <row r="8" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C8" s="177"/>
+      <c r="C8" s="175"/>
       <c r="D8" s="13" t="s">
         <v>37</v>
       </c>
@@ -19807,7 +19829,7 @@
       </c>
     </row>
     <row r="9" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C9" s="177"/>
+      <c r="C9" s="175"/>
       <c r="D9" s="13" t="s">
         <v>38</v>
       </c>
@@ -19840,7 +19862,7 @@
       </c>
     </row>
     <row r="10" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="177"/>
+      <c r="C10" s="175"/>
       <c r="D10" s="13" t="s">
         <v>39</v>
       </c>
@@ -19873,7 +19895,7 @@
       </c>
     </row>
     <row r="11" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C11" s="177"/>
+      <c r="C11" s="175"/>
       <c r="D11" s="13" t="s">
         <v>40</v>
       </c>
@@ -19906,7 +19928,7 @@
       </c>
     </row>
     <row r="12" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C12" s="174" t="s">
+      <c r="C12" s="172" t="s">
         <v>42</v>
       </c>
       <c r="D12" s="14" t="s">
@@ -19941,7 +19963,7 @@
       </c>
     </row>
     <row r="13" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C13" s="175"/>
+      <c r="C13" s="173"/>
       <c r="D13" s="14" t="s">
         <v>44</v>
       </c>
@@ -19974,7 +19996,7 @@
       </c>
     </row>
     <row r="14" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C14" s="175"/>
+      <c r="C14" s="173"/>
       <c r="D14" s="14" t="s">
         <v>45</v>
       </c>
@@ -20007,7 +20029,7 @@
       </c>
     </row>
     <row r="15" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C15" s="175"/>
+      <c r="C15" s="173"/>
       <c r="D15" s="14" t="s">
         <v>46</v>
       </c>
@@ -20040,7 +20062,7 @@
       </c>
     </row>
     <row r="16" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C16" s="175"/>
+      <c r="C16" s="173"/>
       <c r="D16" s="14" t="s">
         <v>47</v>
       </c>
@@ -20073,7 +20095,7 @@
       </c>
     </row>
     <row r="17" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C17" s="175"/>
+      <c r="C17" s="173"/>
       <c r="D17" s="14" t="s">
         <v>48</v>
       </c>
@@ -20106,7 +20128,7 @@
       </c>
     </row>
     <row r="18" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C18" s="175"/>
+      <c r="C18" s="173"/>
       <c r="D18" s="14" t="s">
         <v>49</v>
       </c>
@@ -20139,7 +20161,7 @@
       </c>
     </row>
     <row r="19" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C19" s="175"/>
+      <c r="C19" s="173"/>
       <c r="D19" s="14" t="s">
         <v>50</v>
       </c>
@@ -20186,7 +20208,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="B2:C104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -20204,14 +20226,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="178" t="s">
+      <c r="B2" s="176" t="s">
         <v>128</v>
       </c>
-      <c r="C2" s="157"/>
+      <c r="C2" s="155"/>
     </row>
     <row r="3" spans="2:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="157"/>
-      <c r="C3" s="157"/>
+      <c r="B3" s="155"/>
+      <c r="C3" s="155"/>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B4" s="24" t="s">
@@ -21131,7 +21153,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="B2:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -21149,22 +21171,22 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="171" t="s">
+      <c r="B2" s="169" t="s">
         <v>144</v>
       </c>
-      <c r="C2" s="171"/>
-      <c r="D2" s="171"/>
-      <c r="E2" s="171"/>
-      <c r="F2" s="171"/>
-      <c r="G2" s="171"/>
+      <c r="C2" s="169"/>
+      <c r="D2" s="169"/>
+      <c r="E2" s="169"/>
+      <c r="F2" s="169"/>
+      <c r="G2" s="169"/>
     </row>
     <row r="3" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="172"/>
-      <c r="C3" s="172"/>
-      <c r="D3" s="172"/>
-      <c r="E3" s="172"/>
-      <c r="F3" s="172"/>
-      <c r="G3" s="172"/>
+      <c r="B3" s="170"/>
+      <c r="C3" s="170"/>
+      <c r="D3" s="170"/>
+      <c r="E3" s="170"/>
+      <c r="F3" s="170"/>
+      <c r="G3" s="170"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B4" s="38" t="s">

--- a/Project1/Assets/Script/Data/weaponDB.xlsx
+++ b/Project1/Assets/Script/Data/weaponDB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\whdns\OneDrive\바탕 화면\깃허브 파일\TeamProject1\Project1\Assets\Script\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74CB1AE9-08F9-4DFC-9E2D-68C36E47FB73}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{254C1D92-E007-41FF-9FD9-43BACEAAC44C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="599" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1201,8 +1201,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0.0%"/>
+    <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
@@ -1821,7 +1822,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="181">
+  <cellXfs count="179">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2025,6 +2026,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="17" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="16" fillId="17" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2352,18 +2359,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="16" fillId="17" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="17" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2747,33 +2742,33 @@
     </row>
     <row r="2" spans="1:48" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8"/>
-      <c r="B2" s="96" t="s">
+      <c r="B2" s="98" t="s">
         <v>68</v>
       </c>
-      <c r="C2" s="97"/>
-      <c r="D2" s="97"/>
-      <c r="E2" s="97"/>
-      <c r="F2" s="97"/>
-      <c r="G2" s="97"/>
-      <c r="H2" s="97"/>
-      <c r="I2" s="97"/>
-      <c r="J2" s="97"/>
-      <c r="K2" s="97"/>
-      <c r="L2" s="97"/>
-      <c r="M2" s="97"/>
-      <c r="N2" s="97"/>
-      <c r="O2" s="97"/>
-      <c r="P2" s="97"/>
-      <c r="Q2" s="97"/>
-      <c r="R2" s="97"/>
-      <c r="S2" s="97"/>
-      <c r="T2" s="97"/>
-      <c r="U2" s="97"/>
-      <c r="V2" s="97"/>
-      <c r="W2" s="97"/>
-      <c r="X2" s="97"/>
-      <c r="Y2" s="97"/>
-      <c r="Z2" s="98"/>
+      <c r="C2" s="99"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="99"/>
+      <c r="F2" s="99"/>
+      <c r="G2" s="99"/>
+      <c r="H2" s="99"/>
+      <c r="I2" s="99"/>
+      <c r="J2" s="99"/>
+      <c r="K2" s="99"/>
+      <c r="L2" s="99"/>
+      <c r="M2" s="99"/>
+      <c r="N2" s="99"/>
+      <c r="O2" s="99"/>
+      <c r="P2" s="99"/>
+      <c r="Q2" s="99"/>
+      <c r="R2" s="99"/>
+      <c r="S2" s="99"/>
+      <c r="T2" s="99"/>
+      <c r="U2" s="99"/>
+      <c r="V2" s="99"/>
+      <c r="W2" s="99"/>
+      <c r="X2" s="99"/>
+      <c r="Y2" s="99"/>
+      <c r="Z2" s="100"/>
       <c r="AA2" s="8"/>
       <c r="AB2" s="8"/>
       <c r="AC2" s="8"/>
@@ -2799,31 +2794,31 @@
     </row>
     <row r="3" spans="1:48" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="8"/>
-      <c r="B3" s="99"/>
-      <c r="C3" s="100"/>
-      <c r="D3" s="100"/>
-      <c r="E3" s="100"/>
-      <c r="F3" s="100"/>
-      <c r="G3" s="100"/>
-      <c r="H3" s="100"/>
-      <c r="I3" s="100"/>
-      <c r="J3" s="100"/>
-      <c r="K3" s="100"/>
-      <c r="L3" s="100"/>
-      <c r="M3" s="100"/>
-      <c r="N3" s="100"/>
-      <c r="O3" s="100"/>
-      <c r="P3" s="100"/>
-      <c r="Q3" s="100"/>
-      <c r="R3" s="100"/>
-      <c r="S3" s="100"/>
-      <c r="T3" s="100"/>
-      <c r="U3" s="100"/>
-      <c r="V3" s="100"/>
-      <c r="W3" s="100"/>
-      <c r="X3" s="100"/>
-      <c r="Y3" s="100"/>
-      <c r="Z3" s="101"/>
+      <c r="B3" s="101"/>
+      <c r="C3" s="102"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="102"/>
+      <c r="F3" s="102"/>
+      <c r="G3" s="102"/>
+      <c r="H3" s="102"/>
+      <c r="I3" s="102"/>
+      <c r="J3" s="102"/>
+      <c r="K3" s="102"/>
+      <c r="L3" s="102"/>
+      <c r="M3" s="102"/>
+      <c r="N3" s="102"/>
+      <c r="O3" s="102"/>
+      <c r="P3" s="102"/>
+      <c r="Q3" s="102"/>
+      <c r="R3" s="102"/>
+      <c r="S3" s="102"/>
+      <c r="T3" s="102"/>
+      <c r="U3" s="102"/>
+      <c r="V3" s="102"/>
+      <c r="W3" s="102"/>
+      <c r="X3" s="102"/>
+      <c r="Y3" s="102"/>
+      <c r="Z3" s="103"/>
       <c r="AA3" s="8"/>
       <c r="AB3" s="8"/>
       <c r="AC3" s="8"/>
@@ -2849,31 +2844,31 @@
     </row>
     <row r="4" spans="1:48" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="8"/>
-      <c r="B4" s="102"/>
-      <c r="C4" s="103"/>
-      <c r="D4" s="103"/>
-      <c r="E4" s="103"/>
-      <c r="F4" s="103"/>
-      <c r="G4" s="103"/>
-      <c r="H4" s="103"/>
-      <c r="I4" s="103"/>
-      <c r="J4" s="103"/>
-      <c r="K4" s="103"/>
-      <c r="L4" s="103"/>
-      <c r="M4" s="103"/>
-      <c r="N4" s="103"/>
-      <c r="O4" s="103"/>
-      <c r="P4" s="103"/>
-      <c r="Q4" s="103"/>
-      <c r="R4" s="103"/>
-      <c r="S4" s="103"/>
-      <c r="T4" s="103"/>
-      <c r="U4" s="103"/>
-      <c r="V4" s="103"/>
-      <c r="W4" s="103"/>
-      <c r="X4" s="103"/>
-      <c r="Y4" s="103"/>
-      <c r="Z4" s="104"/>
+      <c r="B4" s="104"/>
+      <c r="C4" s="105"/>
+      <c r="D4" s="105"/>
+      <c r="E4" s="105"/>
+      <c r="F4" s="105"/>
+      <c r="G4" s="105"/>
+      <c r="H4" s="105"/>
+      <c r="I4" s="105"/>
+      <c r="J4" s="105"/>
+      <c r="K4" s="105"/>
+      <c r="L4" s="105"/>
+      <c r="M4" s="105"/>
+      <c r="N4" s="105"/>
+      <c r="O4" s="105"/>
+      <c r="P4" s="105"/>
+      <c r="Q4" s="105"/>
+      <c r="R4" s="105"/>
+      <c r="S4" s="105"/>
+      <c r="T4" s="105"/>
+      <c r="U4" s="105"/>
+      <c r="V4" s="105"/>
+      <c r="W4" s="105"/>
+      <c r="X4" s="105"/>
+      <c r="Y4" s="105"/>
+      <c r="Z4" s="106"/>
       <c r="AA4" s="8"/>
       <c r="AB4" s="8"/>
       <c r="AC4" s="8"/>
@@ -2999,10 +2994,10 @@
     </row>
     <row r="7" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A7" s="8"/>
-      <c r="B7" s="131" t="s">
+      <c r="B7" s="133" t="s">
         <v>67</v>
       </c>
-      <c r="C7" s="132"/>
+      <c r="C7" s="134"/>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
@@ -3051,8 +3046,8 @@
     </row>
     <row r="8" spans="1:48" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="8"/>
-      <c r="B8" s="133"/>
-      <c r="C8" s="134"/>
+      <c r="B8" s="135"/>
+      <c r="C8" s="136"/>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
@@ -3161,27 +3156,27 @@
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
-      <c r="L10" s="119" t="s">
+      <c r="L10" s="121" t="s">
         <v>69</v>
       </c>
-      <c r="M10" s="120"/>
-      <c r="N10" s="113" t="s">
+      <c r="M10" s="122"/>
+      <c r="N10" s="115" t="s">
         <v>24</v>
       </c>
-      <c r="O10" s="114"/>
-      <c r="P10" s="72" t="s">
+      <c r="O10" s="116"/>
+      <c r="P10" s="74" t="s">
         <v>127</v>
       </c>
-      <c r="Q10" s="73"/>
-      <c r="R10" s="73"/>
-      <c r="S10" s="73"/>
-      <c r="T10" s="73"/>
-      <c r="U10" s="73"/>
-      <c r="V10" s="73"/>
-      <c r="W10" s="73"/>
-      <c r="X10" s="73"/>
-      <c r="Y10" s="73"/>
-      <c r="Z10" s="74"/>
+      <c r="Q10" s="75"/>
+      <c r="R10" s="75"/>
+      <c r="S10" s="75"/>
+      <c r="T10" s="75"/>
+      <c r="U10" s="75"/>
+      <c r="V10" s="75"/>
+      <c r="W10" s="75"/>
+      <c r="X10" s="75"/>
+      <c r="Y10" s="75"/>
+      <c r="Z10" s="76"/>
       <c r="AA10" s="8"/>
       <c r="AB10" s="8"/>
       <c r="AC10" s="8"/>
@@ -3217,21 +3212,21 @@
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
-      <c r="L11" s="121"/>
-      <c r="M11" s="122"/>
-      <c r="N11" s="115"/>
-      <c r="O11" s="116"/>
-      <c r="P11" s="75"/>
-      <c r="Q11" s="76"/>
-      <c r="R11" s="76"/>
-      <c r="S11" s="76"/>
-      <c r="T11" s="76"/>
-      <c r="U11" s="76"/>
-      <c r="V11" s="76"/>
-      <c r="W11" s="76"/>
-      <c r="X11" s="76"/>
-      <c r="Y11" s="76"/>
-      <c r="Z11" s="77"/>
+      <c r="L11" s="123"/>
+      <c r="M11" s="124"/>
+      <c r="N11" s="117"/>
+      <c r="O11" s="118"/>
+      <c r="P11" s="77"/>
+      <c r="Q11" s="78"/>
+      <c r="R11" s="78"/>
+      <c r="S11" s="78"/>
+      <c r="T11" s="78"/>
+      <c r="U11" s="78"/>
+      <c r="V11" s="78"/>
+      <c r="W11" s="78"/>
+      <c r="X11" s="78"/>
+      <c r="Y11" s="78"/>
+      <c r="Z11" s="79"/>
       <c r="AA11" s="8"/>
       <c r="AB11" s="8"/>
       <c r="AC11" s="8"/>
@@ -3267,21 +3262,21 @@
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
-      <c r="L12" s="121"/>
-      <c r="M12" s="122"/>
-      <c r="N12" s="115"/>
-      <c r="O12" s="116"/>
-      <c r="P12" s="75"/>
-      <c r="Q12" s="76"/>
-      <c r="R12" s="76"/>
-      <c r="S12" s="76"/>
-      <c r="T12" s="76"/>
-      <c r="U12" s="76"/>
-      <c r="V12" s="76"/>
-      <c r="W12" s="76"/>
-      <c r="X12" s="76"/>
-      <c r="Y12" s="76"/>
-      <c r="Z12" s="77"/>
+      <c r="L12" s="123"/>
+      <c r="M12" s="124"/>
+      <c r="N12" s="117"/>
+      <c r="O12" s="118"/>
+      <c r="P12" s="77"/>
+      <c r="Q12" s="78"/>
+      <c r="R12" s="78"/>
+      <c r="S12" s="78"/>
+      <c r="T12" s="78"/>
+      <c r="U12" s="78"/>
+      <c r="V12" s="78"/>
+      <c r="W12" s="78"/>
+      <c r="X12" s="78"/>
+      <c r="Y12" s="78"/>
+      <c r="Z12" s="79"/>
       <c r="AA12" s="8"/>
       <c r="AB12" s="8"/>
       <c r="AC12" s="8"/>
@@ -3309,33 +3304,33 @@
       <c r="A13" s="8"/>
       <c r="B13" s="28"/>
       <c r="C13" s="29"/>
-      <c r="D13" s="131" t="s">
+      <c r="D13" s="133" t="s">
         <v>69</v>
       </c>
-      <c r="E13" s="132"/>
+      <c r="E13" s="134"/>
       <c r="F13" s="30"/>
       <c r="G13" s="31"/>
-      <c r="H13" s="109" t="s">
+      <c r="H13" s="111" t="s">
         <v>71</v>
       </c>
-      <c r="I13" s="110"/>
+      <c r="I13" s="112"/>
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
-      <c r="L13" s="121"/>
-      <c r="M13" s="122"/>
-      <c r="N13" s="117"/>
-      <c r="O13" s="118"/>
-      <c r="P13" s="78"/>
-      <c r="Q13" s="79"/>
-      <c r="R13" s="79"/>
-      <c r="S13" s="79"/>
-      <c r="T13" s="79"/>
-      <c r="U13" s="79"/>
-      <c r="V13" s="79"/>
-      <c r="W13" s="79"/>
-      <c r="X13" s="79"/>
-      <c r="Y13" s="79"/>
-      <c r="Z13" s="80"/>
+      <c r="L13" s="123"/>
+      <c r="M13" s="124"/>
+      <c r="N13" s="119"/>
+      <c r="O13" s="120"/>
+      <c r="P13" s="80"/>
+      <c r="Q13" s="81"/>
+      <c r="R13" s="81"/>
+      <c r="S13" s="81"/>
+      <c r="T13" s="81"/>
+      <c r="U13" s="81"/>
+      <c r="V13" s="81"/>
+      <c r="W13" s="81"/>
+      <c r="X13" s="81"/>
+      <c r="Y13" s="81"/>
+      <c r="Z13" s="82"/>
       <c r="AA13" s="8"/>
       <c r="AB13" s="8"/>
       <c r="AC13" s="8"/>
@@ -3363,33 +3358,33 @@
       <c r="A14" s="8"/>
       <c r="B14" s="8"/>
       <c r="C14" s="32"/>
-      <c r="D14" s="133"/>
-      <c r="E14" s="134"/>
+      <c r="D14" s="135"/>
+      <c r="E14" s="136"/>
       <c r="F14" s="33"/>
       <c r="G14" s="8"/>
-      <c r="H14" s="111"/>
-      <c r="I14" s="112"/>
+      <c r="H14" s="113"/>
+      <c r="I14" s="114"/>
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
-      <c r="L14" s="121"/>
-      <c r="M14" s="122"/>
-      <c r="N14" s="113" t="s">
+      <c r="L14" s="123"/>
+      <c r="M14" s="124"/>
+      <c r="N14" s="115" t="s">
         <v>70</v>
       </c>
-      <c r="O14" s="114"/>
-      <c r="P14" s="72" t="s">
+      <c r="O14" s="116"/>
+      <c r="P14" s="74" t="s">
         <v>125</v>
       </c>
-      <c r="Q14" s="73"/>
-      <c r="R14" s="73"/>
-      <c r="S14" s="73"/>
-      <c r="T14" s="73"/>
-      <c r="U14" s="73"/>
-      <c r="V14" s="73"/>
-      <c r="W14" s="73"/>
-      <c r="X14" s="73"/>
-      <c r="Y14" s="73"/>
-      <c r="Z14" s="74"/>
+      <c r="Q14" s="75"/>
+      <c r="R14" s="75"/>
+      <c r="S14" s="75"/>
+      <c r="T14" s="75"/>
+      <c r="U14" s="75"/>
+      <c r="V14" s="75"/>
+      <c r="W14" s="75"/>
+      <c r="X14" s="75"/>
+      <c r="Y14" s="75"/>
+      <c r="Z14" s="76"/>
       <c r="AA14" s="8"/>
       <c r="AB14" s="8"/>
       <c r="AC14" s="8"/>
@@ -3425,21 +3420,21 @@
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
-      <c r="L15" s="121"/>
-      <c r="M15" s="122"/>
-      <c r="N15" s="115"/>
-      <c r="O15" s="116"/>
-      <c r="P15" s="75"/>
-      <c r="Q15" s="76"/>
-      <c r="R15" s="76"/>
-      <c r="S15" s="76"/>
-      <c r="T15" s="76"/>
-      <c r="U15" s="76"/>
-      <c r="V15" s="76"/>
-      <c r="W15" s="76"/>
-      <c r="X15" s="76"/>
-      <c r="Y15" s="76"/>
-      <c r="Z15" s="77"/>
+      <c r="L15" s="123"/>
+      <c r="M15" s="124"/>
+      <c r="N15" s="117"/>
+      <c r="O15" s="118"/>
+      <c r="P15" s="77"/>
+      <c r="Q15" s="78"/>
+      <c r="R15" s="78"/>
+      <c r="S15" s="78"/>
+      <c r="T15" s="78"/>
+      <c r="U15" s="78"/>
+      <c r="V15" s="78"/>
+      <c r="W15" s="78"/>
+      <c r="X15" s="78"/>
+      <c r="Y15" s="78"/>
+      <c r="Z15" s="79"/>
       <c r="AA15" s="8"/>
       <c r="AB15" s="8"/>
       <c r="AC15" s="8"/>
@@ -3475,21 +3470,21 @@
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
-      <c r="L16" s="121"/>
-      <c r="M16" s="122"/>
-      <c r="N16" s="115"/>
-      <c r="O16" s="116"/>
-      <c r="P16" s="75"/>
-      <c r="Q16" s="76"/>
-      <c r="R16" s="76"/>
-      <c r="S16" s="76"/>
-      <c r="T16" s="76"/>
-      <c r="U16" s="76"/>
-      <c r="V16" s="76"/>
-      <c r="W16" s="76"/>
-      <c r="X16" s="76"/>
-      <c r="Y16" s="76"/>
-      <c r="Z16" s="77"/>
+      <c r="L16" s="123"/>
+      <c r="M16" s="124"/>
+      <c r="N16" s="117"/>
+      <c r="O16" s="118"/>
+      <c r="P16" s="77"/>
+      <c r="Q16" s="78"/>
+      <c r="R16" s="78"/>
+      <c r="S16" s="78"/>
+      <c r="T16" s="78"/>
+      <c r="U16" s="78"/>
+      <c r="V16" s="78"/>
+      <c r="W16" s="78"/>
+      <c r="X16" s="78"/>
+      <c r="Y16" s="78"/>
+      <c r="Z16" s="79"/>
       <c r="AA16" s="8"/>
       <c r="AB16" s="8"/>
       <c r="AC16" s="8"/>
@@ -3521,27 +3516,27 @@
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="34"/>
-      <c r="H17" s="109" t="s">
+      <c r="H17" s="111" t="s">
         <v>70</v>
       </c>
-      <c r="I17" s="110"/>
+      <c r="I17" s="112"/>
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
-      <c r="L17" s="123"/>
-      <c r="M17" s="124"/>
-      <c r="N17" s="117"/>
-      <c r="O17" s="118"/>
-      <c r="P17" s="78"/>
-      <c r="Q17" s="79"/>
-      <c r="R17" s="79"/>
-      <c r="S17" s="79"/>
-      <c r="T17" s="79"/>
-      <c r="U17" s="79"/>
-      <c r="V17" s="79"/>
-      <c r="W17" s="79"/>
-      <c r="X17" s="79"/>
-      <c r="Y17" s="79"/>
-      <c r="Z17" s="80"/>
+      <c r="L17" s="125"/>
+      <c r="M17" s="126"/>
+      <c r="N17" s="119"/>
+      <c r="O17" s="120"/>
+      <c r="P17" s="80"/>
+      <c r="Q17" s="81"/>
+      <c r="R17" s="81"/>
+      <c r="S17" s="81"/>
+      <c r="T17" s="81"/>
+      <c r="U17" s="81"/>
+      <c r="V17" s="81"/>
+      <c r="W17" s="81"/>
+      <c r="X17" s="81"/>
+      <c r="Y17" s="81"/>
+      <c r="Z17" s="82"/>
       <c r="AA17" s="8"/>
       <c r="AB17" s="8"/>
       <c r="AC17" s="8"/>
@@ -3573,31 +3568,31 @@
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="35"/>
-      <c r="H18" s="111"/>
-      <c r="I18" s="112"/>
+      <c r="H18" s="113"/>
+      <c r="I18" s="114"/>
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
-      <c r="L18" s="125" t="s">
+      <c r="L18" s="127" t="s">
         <v>72</v>
       </c>
-      <c r="M18" s="126"/>
-      <c r="N18" s="94" t="s">
+      <c r="M18" s="128"/>
+      <c r="N18" s="96" t="s">
         <v>73</v>
       </c>
-      <c r="O18" s="89"/>
-      <c r="P18" s="72" t="s">
+      <c r="O18" s="91"/>
+      <c r="P18" s="74" t="s">
         <v>124</v>
       </c>
-      <c r="Q18" s="81"/>
-      <c r="R18" s="81"/>
-      <c r="S18" s="81"/>
-      <c r="T18" s="81"/>
-      <c r="U18" s="81"/>
-      <c r="V18" s="81"/>
-      <c r="W18" s="81"/>
-      <c r="X18" s="81"/>
-      <c r="Y18" s="81"/>
-      <c r="Z18" s="82"/>
+      <c r="Q18" s="83"/>
+      <c r="R18" s="83"/>
+      <c r="S18" s="83"/>
+      <c r="T18" s="83"/>
+      <c r="U18" s="83"/>
+      <c r="V18" s="83"/>
+      <c r="W18" s="83"/>
+      <c r="X18" s="83"/>
+      <c r="Y18" s="83"/>
+      <c r="Z18" s="84"/>
       <c r="AA18" s="8"/>
       <c r="AB18" s="8"/>
       <c r="AC18" s="8"/>
@@ -3633,21 +3628,21 @@
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
       <c r="K19" s="8"/>
-      <c r="L19" s="127"/>
-      <c r="M19" s="128"/>
-      <c r="N19" s="95"/>
-      <c r="O19" s="93"/>
-      <c r="P19" s="83"/>
-      <c r="Q19" s="84"/>
-      <c r="R19" s="84"/>
-      <c r="S19" s="84"/>
-      <c r="T19" s="84"/>
-      <c r="U19" s="84"/>
-      <c r="V19" s="84"/>
-      <c r="W19" s="84"/>
-      <c r="X19" s="84"/>
-      <c r="Y19" s="84"/>
-      <c r="Z19" s="85"/>
+      <c r="L19" s="129"/>
+      <c r="M19" s="130"/>
+      <c r="N19" s="97"/>
+      <c r="O19" s="95"/>
+      <c r="P19" s="85"/>
+      <c r="Q19" s="86"/>
+      <c r="R19" s="86"/>
+      <c r="S19" s="86"/>
+      <c r="T19" s="86"/>
+      <c r="U19" s="86"/>
+      <c r="V19" s="86"/>
+      <c r="W19" s="86"/>
+      <c r="X19" s="86"/>
+      <c r="Y19" s="86"/>
+      <c r="Z19" s="87"/>
       <c r="AA19" s="8"/>
       <c r="AB19" s="8"/>
       <c r="AC19" s="8"/>
@@ -3683,25 +3678,25 @@
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
-      <c r="L20" s="127"/>
-      <c r="M20" s="128"/>
-      <c r="N20" s="94" t="s">
+      <c r="L20" s="129"/>
+      <c r="M20" s="130"/>
+      <c r="N20" s="96" t="s">
         <v>74</v>
       </c>
-      <c r="O20" s="89"/>
-      <c r="P20" s="86" t="s">
+      <c r="O20" s="91"/>
+      <c r="P20" s="88" t="s">
         <v>123</v>
       </c>
-      <c r="Q20" s="81"/>
-      <c r="R20" s="81"/>
-      <c r="S20" s="81"/>
-      <c r="T20" s="81"/>
-      <c r="U20" s="81"/>
-      <c r="V20" s="81"/>
-      <c r="W20" s="81"/>
-      <c r="X20" s="81"/>
-      <c r="Y20" s="81"/>
-      <c r="Z20" s="82"/>
+      <c r="Q20" s="83"/>
+      <c r="R20" s="83"/>
+      <c r="S20" s="83"/>
+      <c r="T20" s="83"/>
+      <c r="U20" s="83"/>
+      <c r="V20" s="83"/>
+      <c r="W20" s="83"/>
+      <c r="X20" s="83"/>
+      <c r="Y20" s="83"/>
+      <c r="Z20" s="84"/>
       <c r="AA20" s="8"/>
       <c r="AB20" s="8"/>
       <c r="AC20" s="8"/>
@@ -3729,33 +3724,33 @@
       <c r="A21" s="8"/>
       <c r="B21" s="8"/>
       <c r="C21" s="29"/>
-      <c r="D21" s="105" t="s">
+      <c r="D21" s="107" t="s">
         <v>72</v>
       </c>
-      <c r="E21" s="106"/>
+      <c r="E21" s="108"/>
       <c r="F21" s="30"/>
       <c r="G21" s="31"/>
-      <c r="H21" s="68" t="s">
+      <c r="H21" s="70" t="s">
         <v>73</v>
       </c>
-      <c r="I21" s="69"/>
+      <c r="I21" s="71"/>
       <c r="J21" s="8"/>
       <c r="K21" s="8"/>
-      <c r="L21" s="127"/>
-      <c r="M21" s="128"/>
-      <c r="N21" s="95"/>
-      <c r="O21" s="93"/>
-      <c r="P21" s="83"/>
-      <c r="Q21" s="84"/>
-      <c r="R21" s="84"/>
-      <c r="S21" s="84"/>
-      <c r="T21" s="84"/>
-      <c r="U21" s="84"/>
-      <c r="V21" s="84"/>
-      <c r="W21" s="84"/>
-      <c r="X21" s="84"/>
-      <c r="Y21" s="84"/>
-      <c r="Z21" s="85"/>
+      <c r="L21" s="129"/>
+      <c r="M21" s="130"/>
+      <c r="N21" s="97"/>
+      <c r="O21" s="95"/>
+      <c r="P21" s="85"/>
+      <c r="Q21" s="86"/>
+      <c r="R21" s="86"/>
+      <c r="S21" s="86"/>
+      <c r="T21" s="86"/>
+      <c r="U21" s="86"/>
+      <c r="V21" s="86"/>
+      <c r="W21" s="86"/>
+      <c r="X21" s="86"/>
+      <c r="Y21" s="86"/>
+      <c r="Z21" s="87"/>
       <c r="AA21" s="8"/>
       <c r="AB21" s="8"/>
       <c r="AC21" s="8"/>
@@ -3783,33 +3778,33 @@
       <c r="A22" s="8"/>
       <c r="B22" s="8"/>
       <c r="C22" s="36"/>
-      <c r="D22" s="107"/>
-      <c r="E22" s="108"/>
+      <c r="D22" s="109"/>
+      <c r="E22" s="110"/>
       <c r="F22" s="33"/>
       <c r="G22" s="8"/>
-      <c r="H22" s="70"/>
-      <c r="I22" s="71"/>
+      <c r="H22" s="72"/>
+      <c r="I22" s="73"/>
       <c r="J22" s="8"/>
       <c r="K22" s="8"/>
-      <c r="L22" s="127"/>
-      <c r="M22" s="128"/>
-      <c r="N22" s="88" t="s">
+      <c r="L22" s="129"/>
+      <c r="M22" s="130"/>
+      <c r="N22" s="90" t="s">
         <v>75</v>
       </c>
-      <c r="O22" s="89"/>
-      <c r="P22" s="87" t="s">
+      <c r="O22" s="91"/>
+      <c r="P22" s="89" t="s">
         <v>122</v>
       </c>
-      <c r="Q22" s="73"/>
-      <c r="R22" s="73"/>
-      <c r="S22" s="73"/>
-      <c r="T22" s="73"/>
-      <c r="U22" s="73"/>
-      <c r="V22" s="73"/>
-      <c r="W22" s="73"/>
-      <c r="X22" s="73"/>
-      <c r="Y22" s="73"/>
-      <c r="Z22" s="74"/>
+      <c r="Q22" s="75"/>
+      <c r="R22" s="75"/>
+      <c r="S22" s="75"/>
+      <c r="T22" s="75"/>
+      <c r="U22" s="75"/>
+      <c r="V22" s="75"/>
+      <c r="W22" s="75"/>
+      <c r="X22" s="75"/>
+      <c r="Y22" s="75"/>
+      <c r="Z22" s="76"/>
       <c r="AA22" s="8"/>
       <c r="AB22" s="8"/>
       <c r="AC22" s="8"/>
@@ -3845,21 +3840,21 @@
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
       <c r="K23" s="8"/>
-      <c r="L23" s="127"/>
-      <c r="M23" s="128"/>
-      <c r="N23" s="90"/>
-      <c r="O23" s="91"/>
-      <c r="P23" s="75"/>
-      <c r="Q23" s="76"/>
-      <c r="R23" s="76"/>
-      <c r="S23" s="76"/>
-      <c r="T23" s="76"/>
-      <c r="U23" s="76"/>
-      <c r="V23" s="76"/>
-      <c r="W23" s="76"/>
-      <c r="X23" s="76"/>
-      <c r="Y23" s="76"/>
-      <c r="Z23" s="77"/>
+      <c r="L23" s="129"/>
+      <c r="M23" s="130"/>
+      <c r="N23" s="92"/>
+      <c r="O23" s="93"/>
+      <c r="P23" s="77"/>
+      <c r="Q23" s="78"/>
+      <c r="R23" s="78"/>
+      <c r="S23" s="78"/>
+      <c r="T23" s="78"/>
+      <c r="U23" s="78"/>
+      <c r="V23" s="78"/>
+      <c r="W23" s="78"/>
+      <c r="X23" s="78"/>
+      <c r="Y23" s="78"/>
+      <c r="Z23" s="79"/>
       <c r="AA23" s="8"/>
       <c r="AB23" s="8"/>
       <c r="AC23" s="8"/>
@@ -3895,21 +3890,21 @@
       <c r="I24" s="8"/>
       <c r="J24" s="8"/>
       <c r="K24" s="8"/>
-      <c r="L24" s="127"/>
-      <c r="M24" s="128"/>
-      <c r="N24" s="90"/>
-      <c r="O24" s="91"/>
-      <c r="P24" s="75"/>
-      <c r="Q24" s="76"/>
-      <c r="R24" s="76"/>
-      <c r="S24" s="76"/>
-      <c r="T24" s="76"/>
-      <c r="U24" s="76"/>
-      <c r="V24" s="76"/>
-      <c r="W24" s="76"/>
-      <c r="X24" s="76"/>
-      <c r="Y24" s="76"/>
-      <c r="Z24" s="77"/>
+      <c r="L24" s="129"/>
+      <c r="M24" s="130"/>
+      <c r="N24" s="92"/>
+      <c r="O24" s="93"/>
+      <c r="P24" s="77"/>
+      <c r="Q24" s="78"/>
+      <c r="R24" s="78"/>
+      <c r="S24" s="78"/>
+      <c r="T24" s="78"/>
+      <c r="U24" s="78"/>
+      <c r="V24" s="78"/>
+      <c r="W24" s="78"/>
+      <c r="X24" s="78"/>
+      <c r="Y24" s="78"/>
+      <c r="Z24" s="79"/>
       <c r="AA24" s="8"/>
       <c r="AB24" s="8"/>
       <c r="AC24" s="8"/>
@@ -3945,21 +3940,21 @@
       <c r="I25" s="8"/>
       <c r="J25" s="8"/>
       <c r="K25" s="8"/>
-      <c r="L25" s="127"/>
-      <c r="M25" s="128"/>
-      <c r="N25" s="92"/>
-      <c r="O25" s="93"/>
-      <c r="P25" s="78"/>
-      <c r="Q25" s="79"/>
-      <c r="R25" s="79"/>
-      <c r="S25" s="79"/>
-      <c r="T25" s="79"/>
-      <c r="U25" s="79"/>
-      <c r="V25" s="79"/>
-      <c r="W25" s="79"/>
-      <c r="X25" s="79"/>
-      <c r="Y25" s="79"/>
-      <c r="Z25" s="80"/>
+      <c r="L25" s="129"/>
+      <c r="M25" s="130"/>
+      <c r="N25" s="94"/>
+      <c r="O25" s="95"/>
+      <c r="P25" s="80"/>
+      <c r="Q25" s="81"/>
+      <c r="R25" s="81"/>
+      <c r="S25" s="81"/>
+      <c r="T25" s="81"/>
+      <c r="U25" s="81"/>
+      <c r="V25" s="81"/>
+      <c r="W25" s="81"/>
+      <c r="X25" s="81"/>
+      <c r="Y25" s="81"/>
+      <c r="Z25" s="82"/>
       <c r="AA25" s="8"/>
       <c r="AB25" s="8"/>
       <c r="AC25" s="8"/>
@@ -3991,31 +3986,31 @@
       <c r="E26" s="8"/>
       <c r="F26" s="28"/>
       <c r="G26" s="28"/>
-      <c r="H26" s="68" t="s">
+      <c r="H26" s="70" t="s">
         <v>74</v>
       </c>
-      <c r="I26" s="69"/>
+      <c r="I26" s="71"/>
       <c r="J26" s="8"/>
       <c r="K26" s="8"/>
-      <c r="L26" s="127"/>
-      <c r="M26" s="128"/>
-      <c r="N26" s="88" t="s">
+      <c r="L26" s="129"/>
+      <c r="M26" s="130"/>
+      <c r="N26" s="90" t="s">
         <v>76</v>
       </c>
-      <c r="O26" s="88"/>
-      <c r="P26" s="72" t="s">
+      <c r="O26" s="90"/>
+      <c r="P26" s="74" t="s">
         <v>131</v>
       </c>
-      <c r="Q26" s="73"/>
-      <c r="R26" s="73"/>
-      <c r="S26" s="73"/>
-      <c r="T26" s="73"/>
-      <c r="U26" s="73"/>
-      <c r="V26" s="73"/>
-      <c r="W26" s="73"/>
-      <c r="X26" s="73"/>
-      <c r="Y26" s="73"/>
-      <c r="Z26" s="74"/>
+      <c r="Q26" s="75"/>
+      <c r="R26" s="75"/>
+      <c r="S26" s="75"/>
+      <c r="T26" s="75"/>
+      <c r="U26" s="75"/>
+      <c r="V26" s="75"/>
+      <c r="W26" s="75"/>
+      <c r="X26" s="75"/>
+      <c r="Y26" s="75"/>
+      <c r="Z26" s="76"/>
       <c r="AA26" s="8"/>
       <c r="AB26" s="8"/>
       <c r="AC26" s="8"/>
@@ -4047,25 +4042,25 @@
       <c r="E27" s="8"/>
       <c r="F27" s="28"/>
       <c r="G27" s="36"/>
-      <c r="H27" s="70"/>
-      <c r="I27" s="71"/>
+      <c r="H27" s="72"/>
+      <c r="I27" s="73"/>
       <c r="J27" s="8"/>
       <c r="K27" s="8"/>
-      <c r="L27" s="127"/>
-      <c r="M27" s="128"/>
-      <c r="N27" s="90"/>
-      <c r="O27" s="90"/>
-      <c r="P27" s="75"/>
-      <c r="Q27" s="76"/>
-      <c r="R27" s="76"/>
-      <c r="S27" s="76"/>
-      <c r="T27" s="76"/>
-      <c r="U27" s="76"/>
-      <c r="V27" s="76"/>
-      <c r="W27" s="76"/>
-      <c r="X27" s="76"/>
-      <c r="Y27" s="76"/>
-      <c r="Z27" s="77"/>
+      <c r="L27" s="129"/>
+      <c r="M27" s="130"/>
+      <c r="N27" s="92"/>
+      <c r="O27" s="92"/>
+      <c r="P27" s="77"/>
+      <c r="Q27" s="78"/>
+      <c r="R27" s="78"/>
+      <c r="S27" s="78"/>
+      <c r="T27" s="78"/>
+      <c r="U27" s="78"/>
+      <c r="V27" s="78"/>
+      <c r="W27" s="78"/>
+      <c r="X27" s="78"/>
+      <c r="Y27" s="78"/>
+      <c r="Z27" s="79"/>
       <c r="AA27" s="8"/>
       <c r="AB27" s="8"/>
       <c r="AC27" s="8"/>
@@ -4101,21 +4096,21 @@
       <c r="I28" s="8"/>
       <c r="J28" s="8"/>
       <c r="K28" s="8"/>
-      <c r="L28" s="127"/>
-      <c r="M28" s="128"/>
-      <c r="N28" s="90"/>
-      <c r="O28" s="90"/>
-      <c r="P28" s="75"/>
-      <c r="Q28" s="76"/>
-      <c r="R28" s="76"/>
-      <c r="S28" s="76"/>
-      <c r="T28" s="76"/>
-      <c r="U28" s="76"/>
-      <c r="V28" s="76"/>
-      <c r="W28" s="76"/>
-      <c r="X28" s="76"/>
-      <c r="Y28" s="76"/>
-      <c r="Z28" s="77"/>
+      <c r="L28" s="129"/>
+      <c r="M28" s="130"/>
+      <c r="N28" s="92"/>
+      <c r="O28" s="92"/>
+      <c r="P28" s="77"/>
+      <c r="Q28" s="78"/>
+      <c r="R28" s="78"/>
+      <c r="S28" s="78"/>
+      <c r="T28" s="78"/>
+      <c r="U28" s="78"/>
+      <c r="V28" s="78"/>
+      <c r="W28" s="78"/>
+      <c r="X28" s="78"/>
+      <c r="Y28" s="78"/>
+      <c r="Z28" s="79"/>
       <c r="AA28" s="8"/>
       <c r="AB28" s="8"/>
       <c r="AC28" s="8"/>
@@ -4151,21 +4146,21 @@
       <c r="I29" s="8"/>
       <c r="J29" s="8"/>
       <c r="K29" s="8"/>
-      <c r="L29" s="127"/>
-      <c r="M29" s="128"/>
-      <c r="N29" s="92"/>
-      <c r="O29" s="92"/>
-      <c r="P29" s="78"/>
-      <c r="Q29" s="79"/>
-      <c r="R29" s="79"/>
-      <c r="S29" s="79"/>
-      <c r="T29" s="79"/>
-      <c r="U29" s="79"/>
-      <c r="V29" s="79"/>
-      <c r="W29" s="79"/>
-      <c r="X29" s="79"/>
-      <c r="Y29" s="79"/>
-      <c r="Z29" s="80"/>
+      <c r="L29" s="129"/>
+      <c r="M29" s="130"/>
+      <c r="N29" s="94"/>
+      <c r="O29" s="94"/>
+      <c r="P29" s="80"/>
+      <c r="Q29" s="81"/>
+      <c r="R29" s="81"/>
+      <c r="S29" s="81"/>
+      <c r="T29" s="81"/>
+      <c r="U29" s="81"/>
+      <c r="V29" s="81"/>
+      <c r="W29" s="81"/>
+      <c r="X29" s="81"/>
+      <c r="Y29" s="81"/>
+      <c r="Z29" s="82"/>
       <c r="AA29" s="8"/>
       <c r="AB29" s="8"/>
       <c r="AC29" s="8"/>
@@ -4201,25 +4196,25 @@
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
       <c r="K30" s="8"/>
-      <c r="L30" s="127"/>
-      <c r="M30" s="128"/>
-      <c r="N30" s="94" t="s">
+      <c r="L30" s="129"/>
+      <c r="M30" s="130"/>
+      <c r="N30" s="96" t="s">
         <v>77</v>
       </c>
-      <c r="O30" s="89"/>
-      <c r="P30" s="72" t="s">
+      <c r="O30" s="91"/>
+      <c r="P30" s="74" t="s">
         <v>121</v>
       </c>
-      <c r="Q30" s="81"/>
-      <c r="R30" s="81"/>
-      <c r="S30" s="81"/>
-      <c r="T30" s="81"/>
-      <c r="U30" s="81"/>
-      <c r="V30" s="81"/>
-      <c r="W30" s="81"/>
-      <c r="X30" s="81"/>
-      <c r="Y30" s="81"/>
-      <c r="Z30" s="82"/>
+      <c r="Q30" s="83"/>
+      <c r="R30" s="83"/>
+      <c r="S30" s="83"/>
+      <c r="T30" s="83"/>
+      <c r="U30" s="83"/>
+      <c r="V30" s="83"/>
+      <c r="W30" s="83"/>
+      <c r="X30" s="83"/>
+      <c r="Y30" s="83"/>
+      <c r="Z30" s="84"/>
       <c r="AA30" s="8"/>
       <c r="AB30" s="8"/>
       <c r="AC30" s="8"/>
@@ -4251,27 +4246,27 @@
       <c r="E31" s="8"/>
       <c r="F31" s="28"/>
       <c r="G31" s="28"/>
-      <c r="H31" s="68" t="s">
+      <c r="H31" s="70" t="s">
         <v>75</v>
       </c>
-      <c r="I31" s="69"/>
+      <c r="I31" s="71"/>
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
-      <c r="L31" s="129"/>
-      <c r="M31" s="130"/>
-      <c r="N31" s="95"/>
-      <c r="O31" s="93"/>
-      <c r="P31" s="83"/>
-      <c r="Q31" s="84"/>
-      <c r="R31" s="84"/>
-      <c r="S31" s="84"/>
-      <c r="T31" s="84"/>
-      <c r="U31" s="84"/>
-      <c r="V31" s="84"/>
-      <c r="W31" s="84"/>
-      <c r="X31" s="84"/>
-      <c r="Y31" s="84"/>
-      <c r="Z31" s="85"/>
+      <c r="L31" s="131"/>
+      <c r="M31" s="132"/>
+      <c r="N31" s="97"/>
+      <c r="O31" s="95"/>
+      <c r="P31" s="85"/>
+      <c r="Q31" s="86"/>
+      <c r="R31" s="86"/>
+      <c r="S31" s="86"/>
+      <c r="T31" s="86"/>
+      <c r="U31" s="86"/>
+      <c r="V31" s="86"/>
+      <c r="W31" s="86"/>
+      <c r="X31" s="86"/>
+      <c r="Y31" s="86"/>
+      <c r="Z31" s="87"/>
       <c r="AA31" s="8"/>
       <c r="AB31" s="8"/>
       <c r="AC31" s="8"/>
@@ -4303,8 +4298,8 @@
       <c r="E32" s="8"/>
       <c r="F32" s="28"/>
       <c r="G32" s="36"/>
-      <c r="H32" s="70"/>
-      <c r="I32" s="71"/>
+      <c r="H32" s="72"/>
+      <c r="I32" s="73"/>
       <c r="J32" s="8"/>
       <c r="K32" s="8"/>
       <c r="L32" s="8"/>
@@ -4503,10 +4498,10 @@
       <c r="E36" s="8"/>
       <c r="F36" s="28"/>
       <c r="G36" s="28"/>
-      <c r="H36" s="68" t="s">
+      <c r="H36" s="70" t="s">
         <v>76</v>
       </c>
-      <c r="I36" s="69"/>
+      <c r="I36" s="71"/>
       <c r="J36" s="8"/>
       <c r="K36" s="8"/>
       <c r="L36" s="8"/>
@@ -4555,8 +4550,8 @@
       <c r="E37" s="8"/>
       <c r="F37" s="28"/>
       <c r="G37" s="36"/>
-      <c r="H37" s="70"/>
-      <c r="I37" s="71"/>
+      <c r="H37" s="72"/>
+      <c r="I37" s="73"/>
       <c r="J37" s="8"/>
       <c r="K37" s="8"/>
       <c r="L37" s="8"/>
@@ -4755,10 +4750,10 @@
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="29"/>
-      <c r="H41" s="68" t="s">
+      <c r="H41" s="70" t="s">
         <v>77</v>
       </c>
-      <c r="I41" s="69"/>
+      <c r="I41" s="71"/>
       <c r="J41" s="8"/>
       <c r="K41" s="8"/>
       <c r="L41" s="8"/>
@@ -4807,8 +4802,8 @@
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="36"/>
-      <c r="H42" s="70"/>
-      <c r="I42" s="71"/>
+      <c r="H42" s="72"/>
+      <c r="I42" s="73"/>
       <c r="J42" s="19"/>
       <c r="K42" s="19"/>
       <c r="L42" s="19"/>
@@ -6488,140 +6483,140 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="138" t="s">
+      <c r="B1" s="140" t="s">
         <v>78</v>
       </c>
-      <c r="C1" s="147"/>
-      <c r="D1" s="138" t="s">
+      <c r="C1" s="149"/>
+      <c r="D1" s="140" t="s">
         <v>80</v>
       </c>
-      <c r="E1" s="150"/>
-      <c r="F1" s="151"/>
-      <c r="I1" s="138" t="s">
+      <c r="E1" s="152"/>
+      <c r="F1" s="153"/>
+      <c r="I1" s="140" t="s">
         <v>79</v>
       </c>
-      <c r="J1" s="139"/>
-      <c r="K1" s="138" t="s">
+      <c r="J1" s="141"/>
+      <c r="K1" s="140" t="s">
         <v>81</v>
       </c>
-      <c r="L1" s="142"/>
-      <c r="M1" s="143"/>
-      <c r="P1" s="137" t="s">
+      <c r="L1" s="144"/>
+      <c r="M1" s="145"/>
+      <c r="P1" s="139" t="s">
         <v>82</v>
       </c>
-      <c r="Q1" s="137"/>
-      <c r="R1" s="137" t="s">
+      <c r="Q1" s="139"/>
+      <c r="R1" s="139" t="s">
         <v>83</v>
       </c>
-      <c r="S1" s="137"/>
-      <c r="T1" s="137"/>
-      <c r="W1" s="137" t="s">
+      <c r="S1" s="139"/>
+      <c r="T1" s="139"/>
+      <c r="W1" s="139" t="s">
         <v>84</v>
       </c>
-      <c r="X1" s="137"/>
-      <c r="Y1" s="137" t="s">
+      <c r="X1" s="139"/>
+      <c r="Y1" s="139" t="s">
         <v>85</v>
       </c>
-      <c r="Z1" s="137"/>
-      <c r="AA1" s="137"/>
+      <c r="Z1" s="139"/>
+      <c r="AA1" s="139"/>
     </row>
     <row r="2" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="148"/>
-      <c r="C2" s="149"/>
-      <c r="D2" s="152"/>
-      <c r="E2" s="153"/>
-      <c r="F2" s="154"/>
-      <c r="I2" s="140"/>
-      <c r="J2" s="141"/>
-      <c r="K2" s="144"/>
-      <c r="L2" s="145"/>
-      <c r="M2" s="146"/>
-      <c r="P2" s="137"/>
-      <c r="Q2" s="137"/>
-      <c r="R2" s="137"/>
-      <c r="S2" s="137"/>
-      <c r="T2" s="137"/>
-      <c r="W2" s="137"/>
-      <c r="X2" s="137"/>
-      <c r="Y2" s="137"/>
-      <c r="Z2" s="137"/>
-      <c r="AA2" s="137"/>
+      <c r="B2" s="150"/>
+      <c r="C2" s="151"/>
+      <c r="D2" s="154"/>
+      <c r="E2" s="155"/>
+      <c r="F2" s="156"/>
+      <c r="I2" s="142"/>
+      <c r="J2" s="143"/>
+      <c r="K2" s="146"/>
+      <c r="L2" s="147"/>
+      <c r="M2" s="148"/>
+      <c r="P2" s="139"/>
+      <c r="Q2" s="139"/>
+      <c r="R2" s="139"/>
+      <c r="S2" s="139"/>
+      <c r="T2" s="139"/>
+      <c r="W2" s="139"/>
+      <c r="X2" s="139"/>
+      <c r="Y2" s="139"/>
+      <c r="Z2" s="139"/>
+      <c r="AA2" s="139"/>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="B3" s="136" t="s">
+      <c r="B3" s="138" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="136"/>
-      <c r="D3" s="136"/>
-      <c r="E3" s="136" t="s">
+      <c r="C3" s="138"/>
+      <c r="D3" s="138"/>
+      <c r="E3" s="138" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="136"/>
-      <c r="I3" s="136" t="s">
+      <c r="F3" s="138"/>
+      <c r="I3" s="138" t="s">
         <v>18</v>
       </c>
-      <c r="J3" s="136"/>
-      <c r="K3" s="136"/>
-      <c r="L3" s="136" t="s">
+      <c r="J3" s="138"/>
+      <c r="K3" s="138"/>
+      <c r="L3" s="138" t="s">
         <v>19</v>
       </c>
-      <c r="M3" s="136"/>
-      <c r="P3" s="136" t="s">
+      <c r="M3" s="138"/>
+      <c r="P3" s="138" t="s">
         <v>0</v>
       </c>
-      <c r="Q3" s="136"/>
-      <c r="R3" s="136"/>
-      <c r="S3" s="136" t="s">
+      <c r="Q3" s="138"/>
+      <c r="R3" s="138"/>
+      <c r="S3" s="138" t="s">
         <v>19</v>
       </c>
-      <c r="T3" s="136"/>
-      <c r="W3" s="136" t="s">
+      <c r="T3" s="138"/>
+      <c r="W3" s="138" t="s">
         <v>0</v>
       </c>
-      <c r="X3" s="136"/>
-      <c r="Y3" s="136"/>
-      <c r="Z3" s="136" t="s">
+      <c r="X3" s="138"/>
+      <c r="Y3" s="138"/>
+      <c r="Z3" s="138" t="s">
         <v>19</v>
       </c>
-      <c r="AA3" s="136"/>
+      <c r="AA3" s="138"/>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="B4" s="136" t="s">
+      <c r="B4" s="138" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="136"/>
-      <c r="D4" s="136"/>
-      <c r="E4" s="136" t="s">
+      <c r="C4" s="138"/>
+      <c r="D4" s="138"/>
+      <c r="E4" s="138" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="136"/>
-      <c r="I4" s="136" t="s">
+      <c r="F4" s="138"/>
+      <c r="I4" s="138" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="136"/>
-      <c r="K4" s="136"/>
-      <c r="L4" s="136" t="s">
+      <c r="J4" s="138"/>
+      <c r="K4" s="138"/>
+      <c r="L4" s="138" t="s">
         <v>20</v>
       </c>
-      <c r="M4" s="136"/>
-      <c r="P4" s="136" t="s">
+      <c r="M4" s="138"/>
+      <c r="P4" s="138" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="136"/>
-      <c r="R4" s="136"/>
-      <c r="S4" s="136" t="s">
+      <c r="Q4" s="138"/>
+      <c r="R4" s="138"/>
+      <c r="S4" s="138" t="s">
         <v>21</v>
       </c>
-      <c r="T4" s="136"/>
-      <c r="W4" s="136" t="s">
+      <c r="T4" s="138"/>
+      <c r="W4" s="138" t="s">
         <v>8</v>
       </c>
-      <c r="X4" s="136"/>
-      <c r="Y4" s="136"/>
-      <c r="Z4" s="136" t="s">
+      <c r="X4" s="138"/>
+      <c r="Y4" s="138"/>
+      <c r="Z4" s="138" t="s">
         <v>21</v>
       </c>
-      <c r="AA4" s="136"/>
+      <c r="AA4" s="138"/>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B5" s="10" t="s">
@@ -14486,10 +14481,10 @@
       </c>
     </row>
     <row r="106" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="B106" s="135" t="s">
+      <c r="B106" s="137" t="s">
         <v>14</v>
       </c>
-      <c r="C106" s="135"/>
+      <c r="C106" s="137"/>
       <c r="D106" s="5">
         <f>SUM(D6:D105)</f>
         <v>87316</v>
@@ -14500,10 +14495,10 @@
       <c r="F106" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="I106" s="135" t="s">
+      <c r="I106" s="137" t="s">
         <v>4</v>
       </c>
-      <c r="J106" s="135"/>
+      <c r="J106" s="137"/>
       <c r="K106" s="5">
         <f>SUM(K6:K105)</f>
         <v>360244</v>
@@ -14514,10 +14509,10 @@
       <c r="M106" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="P106" s="135" t="s">
+      <c r="P106" s="137" t="s">
         <v>4</v>
       </c>
-      <c r="Q106" s="135"/>
+      <c r="Q106" s="137"/>
       <c r="R106" s="5">
         <f>SUM(Q6:Q105)</f>
         <v>2195776.0000000005</v>
@@ -14528,10 +14523,10 @@
       <c r="T106" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="W106" s="135" t="s">
+      <c r="W106" s="137" t="s">
         <v>4</v>
       </c>
-      <c r="X106" s="135"/>
+      <c r="X106" s="137"/>
       <c r="Y106" s="5">
         <f>SUM(X6:X105)</f>
         <v>5760000</v>
@@ -14615,66 +14610,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C1" s="155" t="s">
+      <c r="C1" s="157" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="155"/>
-      <c r="E1" s="155"/>
-      <c r="F1" s="155"/>
-      <c r="G1" s="155"/>
-      <c r="H1" s="155"/>
-      <c r="I1" s="155"/>
+      <c r="D1" s="157"/>
+      <c r="E1" s="157"/>
+      <c r="F1" s="157"/>
+      <c r="G1" s="157"/>
+      <c r="H1" s="157"/>
+      <c r="I1" s="157"/>
     </row>
     <row r="2" spans="2:14" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C2" s="155"/>
-      <c r="D2" s="155"/>
-      <c r="E2" s="155"/>
-      <c r="F2" s="155"/>
-      <c r="G2" s="155"/>
-      <c r="H2" s="155"/>
-      <c r="I2" s="155"/>
+      <c r="C2" s="157"/>
+      <c r="D2" s="157"/>
+      <c r="E2" s="157"/>
+      <c r="F2" s="157"/>
+      <c r="G2" s="157"/>
+      <c r="H2" s="157"/>
+      <c r="I2" s="157"/>
     </row>
     <row r="3" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="20"/>
-      <c r="C3" s="168" t="s">
+      <c r="C3" s="170" t="s">
         <v>88</v>
       </c>
-      <c r="D3" s="168"/>
+      <c r="D3" s="170"/>
       <c r="E3" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="168" t="s">
+      <c r="F3" s="170" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="168"/>
-      <c r="H3" s="168"/>
-      <c r="I3" s="168"/>
-      <c r="K3" s="156" t="s">
+      <c r="G3" s="170"/>
+      <c r="H3" s="170"/>
+      <c r="I3" s="170"/>
+      <c r="K3" s="158" t="s">
         <v>146</v>
       </c>
-      <c r="L3" s="157"/>
-      <c r="M3" s="157"/>
-      <c r="N3" s="158"/>
+      <c r="L3" s="159"/>
+      <c r="M3" s="159"/>
+      <c r="N3" s="160"/>
     </row>
     <row r="4" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="42"/>
-      <c r="C4" s="136" t="s">
+      <c r="C4" s="138" t="s">
         <v>92</v>
       </c>
-      <c r="D4" s="136"/>
+      <c r="D4" s="138"/>
       <c r="E4" s="23" t="s">
         <v>145</v>
       </c>
-      <c r="F4" s="136" t="s">
+      <c r="F4" s="138" t="s">
         <v>26</v>
       </c>
-      <c r="G4" s="136"/>
-      <c r="H4" s="136"/>
-      <c r="I4" s="136"/>
-      <c r="K4" s="159"/>
-      <c r="L4" s="160"/>
-      <c r="M4" s="160"/>
-      <c r="N4" s="161"/>
+      <c r="G4" s="138"/>
+      <c r="H4" s="138"/>
+      <c r="I4" s="138"/>
+      <c r="K4" s="161"/>
+      <c r="L4" s="162"/>
+      <c r="M4" s="162"/>
+      <c r="N4" s="163"/>
     </row>
     <row r="5" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="25"/>
@@ -14699,12 +14694,12 @@
       <c r="I5" s="50" t="s">
         <v>98</v>
       </c>
-      <c r="K5" s="162" t="s">
+      <c r="K5" s="164" t="s">
         <v>91</v>
       </c>
-      <c r="L5" s="163"/>
-      <c r="M5" s="163"/>
-      <c r="N5" s="164"/>
+      <c r="L5" s="165"/>
+      <c r="M5" s="165"/>
+      <c r="N5" s="166"/>
     </row>
     <row r="6" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="4"/>
@@ -14735,10 +14730,10 @@
         <f t="shared" ref="I6:I37" si="3">ROUND(H6:H105,0)</f>
         <v>2</v>
       </c>
-      <c r="K6" s="165"/>
-      <c r="L6" s="166"/>
-      <c r="M6" s="166"/>
-      <c r="N6" s="167"/>
+      <c r="K6" s="167"/>
+      <c r="L6" s="168"/>
+      <c r="M6" s="168"/>
+      <c r="N6" s="169"/>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B7" s="4"/>
@@ -18029,7 +18024,7 @@
   <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -18037,16 +18032,7 @@
     <col min="1" max="1" width="11.125" style="41" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.5" style="41" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.75" style="41" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.375" style="41" customWidth="1"/>
-    <col min="5" max="5" width="27.5" style="41" customWidth="1"/>
-    <col min="6" max="6" width="19.125" style="41" customWidth="1"/>
-    <col min="7" max="7" width="17.875" style="41" customWidth="1"/>
-    <col min="8" max="8" width="20.25" style="41" customWidth="1"/>
-    <col min="9" max="9" width="22.5" style="41" customWidth="1"/>
-    <col min="10" max="10" width="20.875" style="41" customWidth="1"/>
-    <col min="11" max="11" width="21.75" style="41" customWidth="1"/>
-    <col min="12" max="12" width="17.5" style="41" customWidth="1"/>
-    <col min="13" max="13" width="17.625" style="41" customWidth="1"/>
+    <col min="4" max="13" width="29" style="41" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="11" style="41" customWidth="1"/>
     <col min="15" max="16384" width="9" style="41"/>
   </cols>
@@ -18105,34 +18091,34 @@
       <c r="C2" s="64">
         <v>1</v>
       </c>
-      <c r="D2" s="177">
+      <c r="D2" s="68">
         <v>50</v>
       </c>
-      <c r="E2" s="177">
+      <c r="E2" s="68">
         <v>60</v>
       </c>
-      <c r="F2" s="177">
+      <c r="F2" s="68">
         <v>70</v>
       </c>
-      <c r="G2" s="177">
+      <c r="G2" s="68">
         <v>80</v>
       </c>
-      <c r="H2" s="177">
+      <c r="H2" s="68">
         <v>90</v>
       </c>
-      <c r="I2" s="177">
+      <c r="I2" s="68">
         <v>100</v>
       </c>
-      <c r="J2" s="177">
+      <c r="J2" s="68">
         <v>110</v>
       </c>
-      <c r="K2" s="177">
+      <c r="K2" s="68">
         <v>120</v>
       </c>
-      <c r="L2" s="177">
+      <c r="L2" s="68">
         <v>130</v>
       </c>
-      <c r="M2" s="177">
+      <c r="M2" s="68">
         <v>140</v>
       </c>
       <c r="N2" s="63" t="b">
@@ -18149,34 +18135,34 @@
       <c r="C3" s="64">
         <v>0</v>
       </c>
-      <c r="D3" s="177">
+      <c r="D3" s="68">
         <v>200</v>
       </c>
-      <c r="E3" s="177">
+      <c r="E3" s="68">
         <v>230</v>
       </c>
-      <c r="F3" s="177">
+      <c r="F3" s="68">
         <v>260</v>
       </c>
-      <c r="G3" s="177">
+      <c r="G3" s="68">
         <v>290</v>
       </c>
-      <c r="H3" s="177">
+      <c r="H3" s="68">
         <v>320</v>
       </c>
-      <c r="I3" s="177">
+      <c r="I3" s="68">
         <v>350</v>
       </c>
-      <c r="J3" s="177">
+      <c r="J3" s="68">
         <v>380</v>
       </c>
-      <c r="K3" s="177">
+      <c r="K3" s="68">
         <v>410</v>
       </c>
-      <c r="L3" s="177">
+      <c r="L3" s="68">
         <v>440</v>
       </c>
-      <c r="M3" s="177">
+      <c r="M3" s="68">
         <v>470</v>
       </c>
       <c r="N3" s="63" t="b">
@@ -18193,34 +18179,34 @@
       <c r="C4" s="64">
         <v>0</v>
       </c>
-      <c r="D4" s="177">
+      <c r="D4" s="68">
         <v>800</v>
       </c>
-      <c r="E4" s="177">
+      <c r="E4" s="68">
         <v>803</v>
       </c>
-      <c r="F4" s="177">
+      <c r="F4" s="68">
         <v>806</v>
       </c>
-      <c r="G4" s="177">
+      <c r="G4" s="68">
         <v>809</v>
       </c>
-      <c r="H4" s="177">
+      <c r="H4" s="68">
         <v>812</v>
       </c>
-      <c r="I4" s="177">
+      <c r="I4" s="68">
         <v>815</v>
       </c>
-      <c r="J4" s="177">
+      <c r="J4" s="68">
         <v>818</v>
       </c>
-      <c r="K4" s="177">
+      <c r="K4" s="68">
         <v>821</v>
       </c>
-      <c r="L4" s="177">
+      <c r="L4" s="68">
         <v>824</v>
       </c>
-      <c r="M4" s="177">
+      <c r="M4" s="68">
         <v>827</v>
       </c>
       <c r="N4" s="63" t="b">
@@ -18237,34 +18223,34 @@
       <c r="C5" s="64">
         <v>0</v>
       </c>
-      <c r="D5" s="178">
+      <c r="D5" s="69">
         <v>831</v>
       </c>
-      <c r="E5" s="177">
+      <c r="E5" s="68">
         <v>835</v>
       </c>
-      <c r="F5" s="177">
+      <c r="F5" s="68">
         <v>839</v>
       </c>
-      <c r="G5" s="177">
+      <c r="G5" s="68">
         <v>843</v>
       </c>
-      <c r="H5" s="177">
+      <c r="H5" s="68">
         <v>847</v>
       </c>
-      <c r="I5" s="177">
+      <c r="I5" s="68">
         <v>851</v>
       </c>
-      <c r="J5" s="177">
+      <c r="J5" s="68">
         <v>855</v>
       </c>
-      <c r="K5" s="177">
+      <c r="K5" s="68">
         <v>859</v>
       </c>
-      <c r="L5" s="177">
+      <c r="L5" s="68">
         <v>863</v>
       </c>
-      <c r="M5" s="177">
+      <c r="M5" s="68">
         <v>867</v>
       </c>
       <c r="N5" s="63" t="b">
@@ -18281,34 +18267,34 @@
       <c r="C6" s="64">
         <v>0</v>
       </c>
-      <c r="D6" s="178">
+      <c r="D6" s="69">
         <v>27500</v>
       </c>
-      <c r="E6" s="177">
+      <c r="E6" s="68">
         <v>27505</v>
       </c>
-      <c r="F6" s="177">
+      <c r="F6" s="68">
         <v>27508</v>
       </c>
-      <c r="G6" s="177">
+      <c r="G6" s="68">
         <v>27511</v>
       </c>
-      <c r="H6" s="177">
+      <c r="H6" s="68">
         <v>27514</v>
       </c>
-      <c r="I6" s="177">
+      <c r="I6" s="68">
         <v>27517</v>
       </c>
-      <c r="J6" s="177">
+      <c r="J6" s="68">
         <v>27520</v>
       </c>
-      <c r="K6" s="177">
+      <c r="K6" s="68">
         <v>27523</v>
       </c>
-      <c r="L6" s="177">
+      <c r="L6" s="68">
         <v>27526</v>
       </c>
-      <c r="M6" s="177">
+      <c r="M6" s="68">
         <v>27529</v>
       </c>
       <c r="N6" s="63" t="b">
@@ -18325,34 +18311,34 @@
       <c r="C7" s="64">
         <v>0</v>
       </c>
-      <c r="D7" s="178">
+      <c r="D7" s="69">
         <v>225100</v>
       </c>
-      <c r="E7" s="177">
+      <c r="E7" s="68">
         <v>225106</v>
       </c>
-      <c r="F7" s="177">
+      <c r="F7" s="68">
         <v>225109</v>
       </c>
-      <c r="G7" s="177">
+      <c r="G7" s="68">
         <v>225112</v>
       </c>
-      <c r="H7" s="177">
+      <c r="H7" s="68">
         <v>225115</v>
       </c>
-      <c r="I7" s="177">
+      <c r="I7" s="68">
         <v>225118</v>
       </c>
-      <c r="J7" s="177">
+      <c r="J7" s="68">
         <v>225121</v>
       </c>
-      <c r="K7" s="177">
+      <c r="K7" s="68">
         <v>225124</v>
       </c>
-      <c r="L7" s="177">
+      <c r="L7" s="68">
         <v>225127</v>
       </c>
-      <c r="M7" s="177">
+      <c r="M7" s="68">
         <v>225130</v>
       </c>
       <c r="N7" s="63" t="b">
@@ -18369,34 +18355,34 @@
       <c r="C8" s="64">
         <v>0</v>
       </c>
-      <c r="D8" s="178">
+      <c r="D8" s="69">
         <v>2321300</v>
       </c>
-      <c r="E8" s="177">
+      <c r="E8" s="68">
         <v>2321307</v>
       </c>
-      <c r="F8" s="177">
+      <c r="F8" s="68">
         <v>2321310</v>
       </c>
-      <c r="G8" s="177">
+      <c r="G8" s="68">
         <v>2321313</v>
       </c>
-      <c r="H8" s="177">
+      <c r="H8" s="68">
         <v>2321316</v>
       </c>
-      <c r="I8" s="177">
+      <c r="I8" s="68">
         <v>2321319</v>
       </c>
-      <c r="J8" s="177">
+      <c r="J8" s="68">
         <v>2321322</v>
       </c>
-      <c r="K8" s="177">
+      <c r="K8" s="68">
         <v>2321325</v>
       </c>
-      <c r="L8" s="177">
+      <c r="L8" s="68">
         <v>2321328</v>
       </c>
-      <c r="M8" s="177">
+      <c r="M8" s="68">
         <v>2321331</v>
       </c>
       <c r="N8" s="63" t="b">
@@ -18413,34 +18399,34 @@
       <c r="C9" s="64">
         <v>0</v>
       </c>
-      <c r="D9" s="178">
+      <c r="D9" s="69">
         <v>28966900</v>
       </c>
-      <c r="E9" s="177">
+      <c r="E9" s="68">
         <v>28966908</v>
       </c>
-      <c r="F9" s="177">
+      <c r="F9" s="68">
         <v>28966911</v>
       </c>
-      <c r="G9" s="177">
+      <c r="G9" s="68">
         <v>28966914</v>
       </c>
-      <c r="H9" s="177">
+      <c r="H9" s="68">
         <v>28966917</v>
       </c>
-      <c r="I9" s="177">
+      <c r="I9" s="68">
         <v>28966920</v>
       </c>
-      <c r="J9" s="177">
+      <c r="J9" s="68">
         <v>28966923</v>
       </c>
-      <c r="K9" s="177">
+      <c r="K9" s="68">
         <v>28966926</v>
       </c>
-      <c r="L9" s="177">
+      <c r="L9" s="68">
         <v>28966929</v>
       </c>
-      <c r="M9" s="177">
+      <c r="M9" s="68">
         <v>28966932</v>
       </c>
       <c r="N9" s="63" t="b">
@@ -18457,34 +18443,34 @@
       <c r="C10" s="67">
         <v>0</v>
       </c>
-      <c r="D10" s="178">
+      <c r="D10" s="69">
         <v>422798300</v>
       </c>
-      <c r="E10" s="177">
+      <c r="E10" s="68">
         <v>422798309</v>
       </c>
-      <c r="F10" s="177">
+      <c r="F10" s="68">
         <v>422798312</v>
       </c>
-      <c r="G10" s="177">
+      <c r="G10" s="68">
         <v>422798315</v>
       </c>
-      <c r="H10" s="177">
+      <c r="H10" s="68">
         <v>422798318</v>
       </c>
-      <c r="I10" s="177">
+      <c r="I10" s="68">
         <v>422798321</v>
       </c>
-      <c r="J10" s="177">
+      <c r="J10" s="68">
         <v>422798324</v>
       </c>
-      <c r="K10" s="177">
+      <c r="K10" s="68">
         <v>422798327</v>
       </c>
-      <c r="L10" s="177">
+      <c r="L10" s="68">
         <v>422798330</v>
       </c>
-      <c r="M10" s="177">
+      <c r="M10" s="68">
         <v>422798333</v>
       </c>
       <c r="N10" s="63" t="b">
@@ -18501,34 +18487,34 @@
       <c r="C11" s="67">
         <v>0</v>
       </c>
-      <c r="D11" s="178">
+      <c r="D11" s="69">
         <v>7048293100</v>
       </c>
-      <c r="E11" s="177">
+      <c r="E11" s="68">
         <v>7048293110</v>
       </c>
-      <c r="F11" s="177">
+      <c r="F11" s="68">
         <v>7048293113</v>
       </c>
-      <c r="G11" s="177">
+      <c r="G11" s="68">
         <v>7048293116</v>
       </c>
-      <c r="H11" s="177">
+      <c r="H11" s="68">
         <v>7048293119</v>
       </c>
-      <c r="I11" s="177">
+      <c r="I11" s="68">
         <v>7048293122</v>
       </c>
-      <c r="J11" s="177">
+      <c r="J11" s="68">
         <v>7048293125</v>
       </c>
-      <c r="K11" s="177">
+      <c r="K11" s="68">
         <v>7048293128</v>
       </c>
-      <c r="L11" s="177">
+      <c r="L11" s="68">
         <v>7048293131</v>
       </c>
-      <c r="M11" s="177">
+      <c r="M11" s="68">
         <v>7048293134</v>
       </c>
       <c r="N11" s="63" t="b">
@@ -18545,34 +18531,34 @@
       <c r="C12" s="67">
         <v>0</v>
       </c>
-      <c r="D12" s="178">
+      <c r="D12" s="69">
         <v>131947819700</v>
       </c>
-      <c r="E12" s="177">
+      <c r="E12" s="68">
         <v>131947819711</v>
       </c>
-      <c r="F12" s="177">
+      <c r="F12" s="68">
         <v>131947819714</v>
       </c>
-      <c r="G12" s="177">
+      <c r="G12" s="68">
         <v>131947819717</v>
       </c>
-      <c r="H12" s="177">
+      <c r="H12" s="68">
         <v>131947819720</v>
       </c>
-      <c r="I12" s="177">
+      <c r="I12" s="68">
         <v>131947819723</v>
       </c>
-      <c r="J12" s="177">
+      <c r="J12" s="68">
         <v>131947819726</v>
       </c>
-      <c r="K12" s="177">
+      <c r="K12" s="68">
         <v>131947819729</v>
       </c>
-      <c r="L12" s="177">
+      <c r="L12" s="68">
         <v>131947819732</v>
       </c>
-      <c r="M12" s="177">
+      <c r="M12" s="68">
         <v>131947819735</v>
       </c>
       <c r="N12" s="63" t="b">
@@ -18589,34 +18575,34 @@
       <c r="C13" s="67">
         <v>0</v>
       </c>
-      <c r="D13" s="178">
+      <c r="D13" s="69">
         <v>2738771542900</v>
       </c>
-      <c r="E13" s="177">
+      <c r="E13" s="68">
         <v>2738771542912</v>
       </c>
-      <c r="F13" s="177">
+      <c r="F13" s="68">
         <v>2738771542915</v>
       </c>
-      <c r="G13" s="177">
+      <c r="G13" s="68">
         <v>2738771542918</v>
       </c>
-      <c r="H13" s="177">
+      <c r="H13" s="68">
         <v>2738771542921</v>
       </c>
-      <c r="I13" s="177">
+      <c r="I13" s="68">
         <v>2738771542924</v>
       </c>
-      <c r="J13" s="177">
+      <c r="J13" s="68">
         <v>2738771542927</v>
       </c>
-      <c r="K13" s="177">
+      <c r="K13" s="68">
         <v>2738771542930</v>
       </c>
-      <c r="L13" s="177">
+      <c r="L13" s="68">
         <v>2738771542933</v>
       </c>
-      <c r="M13" s="177">
+      <c r="M13" s="68">
         <v>2738771542936</v>
       </c>
       <c r="N13" s="63" t="b">
@@ -18633,34 +18619,34 @@
       <c r="C14" s="67">
         <v>0</v>
       </c>
-      <c r="D14" s="178">
+      <c r="D14" s="69">
         <v>62399688866300</v>
       </c>
-      <c r="E14" s="177">
+      <c r="E14" s="68">
         <v>62399688866313</v>
       </c>
-      <c r="F14" s="177">
+      <c r="F14" s="68">
         <v>62399688866316</v>
       </c>
-      <c r="G14" s="177">
+      <c r="G14" s="68">
         <v>62399688866319</v>
       </c>
-      <c r="H14" s="177">
+      <c r="H14" s="68">
         <v>62399688866322</v>
       </c>
-      <c r="I14" s="177">
+      <c r="I14" s="68">
         <v>62399688866325</v>
       </c>
-      <c r="J14" s="177">
+      <c r="J14" s="68">
         <v>62399688866328</v>
       </c>
-      <c r="K14" s="177">
+      <c r="K14" s="68">
         <v>62399688866331</v>
       </c>
-      <c r="L14" s="177">
+      <c r="L14" s="68">
         <v>62399688866334</v>
       </c>
-      <c r="M14" s="177">
+      <c r="M14" s="68">
         <v>62399688866337</v>
       </c>
       <c r="N14" s="63" t="b">
@@ -18677,34 +18663,34 @@
       <c r="C15" s="67">
         <v>0</v>
       </c>
-      <c r="D15" s="178">
+      <c r="D15" s="69">
         <v>1547853022245100</v>
       </c>
-      <c r="E15" s="177">
+      <c r="E15" s="68">
         <v>1547853022245114</v>
       </c>
-      <c r="F15" s="177">
+      <c r="F15" s="68">
         <v>1547853022245117</v>
       </c>
-      <c r="G15" s="177">
+      <c r="G15" s="68">
         <v>1547853022245120</v>
       </c>
-      <c r="H15" s="177">
+      <c r="H15" s="68">
         <v>1547853022245123</v>
       </c>
-      <c r="I15" s="177">
+      <c r="I15" s="68">
         <v>1547853022245126</v>
       </c>
-      <c r="J15" s="177">
+      <c r="J15" s="68">
         <v>1547853022245129</v>
       </c>
-      <c r="K15" s="177">
+      <c r="K15" s="68">
         <v>1547853022245132</v>
       </c>
-      <c r="L15" s="177">
+      <c r="L15" s="68">
         <v>1547853022245135</v>
       </c>
-      <c r="M15" s="177">
+      <c r="M15" s="68">
         <v>1547853022245138</v>
       </c>
       <c r="N15" s="63" t="b">
@@ -18721,34 +18707,34 @@
       <c r="C16" s="67">
         <v>0</v>
       </c>
-      <c r="D16" s="178">
+      <c r="D16" s="69">
         <v>4.1518154446327696E+16</v>
       </c>
-      <c r="E16" s="177">
+      <c r="E16" s="68">
         <v>4.1518154446327712E+16</v>
       </c>
-      <c r="F16" s="177">
+      <c r="F16" s="68">
         <v>4.1518154446327712E+16</v>
       </c>
-      <c r="G16" s="177">
+      <c r="G16" s="68">
         <v>4.1518154446327712E+16</v>
       </c>
-      <c r="H16" s="177">
+      <c r="H16" s="68">
         <v>4.1518154446327712E+16</v>
       </c>
-      <c r="I16" s="177">
+      <c r="I16" s="68">
         <v>4.1518154446327712E+16</v>
       </c>
-      <c r="J16" s="177">
+      <c r="J16" s="68">
         <v>4.1518154446327712E+16</v>
       </c>
-      <c r="K16" s="177">
+      <c r="K16" s="68">
         <v>4.1518154446327712E+16</v>
       </c>
-      <c r="L16" s="177">
+      <c r="L16" s="68">
         <v>4.1518154446327712E+16</v>
       </c>
-      <c r="M16" s="177">
+      <c r="M16" s="68">
         <v>4.1518154446327712E+16</v>
       </c>
       <c r="N16" s="63" t="b">
@@ -18765,34 +18751,34 @@
       <c r="C17" s="67">
         <v>0</v>
       </c>
-      <c r="D17" s="178">
+      <c r="D17" s="69">
         <v>1.197287312545943E+18</v>
       </c>
-      <c r="E17" s="177">
+      <c r="E17" s="68">
         <v>1.197287312545943E+18</v>
       </c>
-      <c r="F17" s="177">
+      <c r="F17" s="68">
         <v>1.197287312545943E+18</v>
       </c>
-      <c r="G17" s="177">
+      <c r="G17" s="68">
         <v>1.197287312545943E+18</v>
       </c>
-      <c r="H17" s="177">
+      <c r="H17" s="68">
         <v>1.197287312545943E+18</v>
       </c>
-      <c r="I17" s="177">
+      <c r="I17" s="68">
         <v>1.197287312545943E+18</v>
       </c>
-      <c r="J17" s="177">
+      <c r="J17" s="68">
         <v>1.197287312545943E+18</v>
       </c>
-      <c r="K17" s="177">
+      <c r="K17" s="68">
         <v>1.197287312545943E+18</v>
       </c>
-      <c r="L17" s="177">
+      <c r="L17" s="68">
         <v>1.197287312545943E+18</v>
       </c>
-      <c r="M17" s="177">
+      <c r="M17" s="68">
         <v>1.197287312545943E+18</v>
       </c>
       <c r="N17" s="63" t="b">
@@ -18809,34 +18795,34 @@
       <c r="C18" s="67">
         <v>0</v>
       </c>
-      <c r="D18" s="178">
+      <c r="D18" s="69">
         <v>3.6936355738343793E+19</v>
       </c>
-      <c r="E18" s="177">
+      <c r="E18" s="68">
         <v>3.6936355738343793E+19</v>
       </c>
-      <c r="F18" s="177">
+      <c r="F18" s="68">
         <v>3.6936355738343793E+19</v>
       </c>
-      <c r="G18" s="177">
+      <c r="G18" s="68">
         <v>3.6936355738343793E+19</v>
       </c>
-      <c r="H18" s="177">
+      <c r="H18" s="68">
         <v>3.6936355738343793E+19</v>
       </c>
-      <c r="I18" s="177">
+      <c r="I18" s="68">
         <v>3.6936355738343793E+19</v>
       </c>
-      <c r="J18" s="177">
+      <c r="J18" s="68">
         <v>3.6936355738343793E+19</v>
       </c>
-      <c r="K18" s="177">
+      <c r="K18" s="68">
         <v>3.6936355738343793E+19</v>
       </c>
-      <c r="L18" s="177">
+      <c r="L18" s="68">
         <v>3.6936355738343793E+19</v>
       </c>
-      <c r="M18" s="177">
+      <c r="M18" s="68">
         <v>3.6936355738343793E+19</v>
       </c>
       <c r="N18" s="63" t="b">
@@ -18853,34 +18839,34 @@
       <c r="C19" s="67">
         <v>0</v>
       </c>
-      <c r="D19" s="178">
+      <c r="D19" s="69">
         <v>1.213751488214001E+21</v>
       </c>
-      <c r="E19" s="177">
+      <c r="E19" s="68">
         <v>1.213751488214001E+21</v>
       </c>
-      <c r="F19" s="177">
+      <c r="F19" s="68">
         <v>1.213751488214001E+21</v>
       </c>
-      <c r="G19" s="177">
+      <c r="G19" s="68">
         <v>1.213751488214001E+21</v>
       </c>
-      <c r="H19" s="177">
+      <c r="H19" s="68">
         <v>1.213751488214001E+21</v>
       </c>
-      <c r="I19" s="177">
+      <c r="I19" s="68">
         <v>1.213751488214001E+21</v>
       </c>
-      <c r="J19" s="177">
+      <c r="J19" s="68">
         <v>1.213751488214001E+21</v>
       </c>
-      <c r="K19" s="177">
+      <c r="K19" s="68">
         <v>1.213751488214001E+21</v>
       </c>
-      <c r="L19" s="177">
+      <c r="L19" s="68">
         <v>1.213751488214001E+21</v>
       </c>
-      <c r="M19" s="177">
+      <c r="M19" s="68">
         <v>1.213751488214001E+21</v>
       </c>
       <c r="N19" s="63" t="b">
@@ -18897,34 +18883,34 @@
       <c r="C20" s="67">
         <v>0</v>
       </c>
-      <c r="D20" s="178">
+      <c r="D20" s="69">
         <v>4.2323260162233959E+22</v>
       </c>
-      <c r="E20" s="177">
+      <c r="E20" s="68">
         <v>4.2323260162233959E+22</v>
       </c>
-      <c r="F20" s="177">
+      <c r="F20" s="68">
         <v>4.2323260162233959E+22</v>
       </c>
-      <c r="G20" s="177">
+      <c r="G20" s="68">
         <v>4.2323260162233959E+22</v>
       </c>
-      <c r="H20" s="177">
+      <c r="H20" s="68">
         <v>4.2323260162233959E+22</v>
       </c>
-      <c r="I20" s="177">
+      <c r="I20" s="68">
         <v>4.2323260162233959E+22</v>
       </c>
-      <c r="J20" s="177">
+      <c r="J20" s="68">
         <v>4.2323260162233959E+22</v>
       </c>
-      <c r="K20" s="177">
+      <c r="K20" s="68">
         <v>4.2323260162233959E+22</v>
       </c>
-      <c r="L20" s="177">
+      <c r="L20" s="68">
         <v>4.2323260162233959E+22</v>
       </c>
-      <c r="M20" s="177">
+      <c r="M20" s="68">
         <v>4.2323260162233959E+22</v>
       </c>
       <c r="N20" s="63" t="b">
@@ -18941,34 +18927,34 @@
       <c r="C21" s="67">
         <v>0</v>
       </c>
-      <c r="D21" s="179">
+      <c r="D21" s="69">
         <v>1.5607895361992899E+24</v>
       </c>
-      <c r="E21" s="180">
+      <c r="E21" s="68">
         <v>1.5607895361992899E+24</v>
       </c>
-      <c r="F21" s="177">
+      <c r="F21" s="68">
         <v>1.5607895361992899E+24</v>
       </c>
-      <c r="G21" s="177">
+      <c r="G21" s="68">
         <v>1.5607895361992899E+24</v>
       </c>
-      <c r="H21" s="177">
+      <c r="H21" s="68">
         <v>1.5607895361992899E+24</v>
       </c>
-      <c r="I21" s="177">
+      <c r="I21" s="68">
         <v>1.5607895361992899E+24</v>
       </c>
-      <c r="J21" s="177">
+      <c r="J21" s="68">
         <v>1.5607895361992899E+24</v>
       </c>
-      <c r="K21" s="177">
+      <c r="K21" s="68">
         <v>1.5607895361992899E+24</v>
       </c>
-      <c r="L21" s="177">
+      <c r="L21" s="68">
         <v>1.5607895361992899E+24</v>
       </c>
-      <c r="M21" s="177">
+      <c r="M21" s="68">
         <v>1.5607895361992899E+24</v>
       </c>
       <c r="N21" s="63" t="b">
@@ -18996,38 +18982,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" s="169" t="s">
+      <c r="A1" s="171" t="s">
         <v>183</v>
       </c>
-      <c r="B1" s="169"/>
-      <c r="C1" s="169"/>
-      <c r="D1" s="169"/>
-      <c r="E1" s="169"/>
-      <c r="F1" s="169"/>
-      <c r="G1" s="169"/>
-      <c r="H1" s="169"/>
-      <c r="I1" s="169"/>
-      <c r="J1" s="169"/>
-      <c r="K1" s="169"/>
-      <c r="L1" s="169"/>
-      <c r="M1" s="169"/>
-      <c r="N1" s="169"/>
+      <c r="B1" s="171"/>
+      <c r="C1" s="171"/>
+      <c r="D1" s="171"/>
+      <c r="E1" s="171"/>
+      <c r="F1" s="171"/>
+      <c r="G1" s="171"/>
+      <c r="H1" s="171"/>
+      <c r="I1" s="171"/>
+      <c r="J1" s="171"/>
+      <c r="K1" s="171"/>
+      <c r="L1" s="171"/>
+      <c r="M1" s="171"/>
+      <c r="N1" s="171"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="170"/>
-      <c r="B2" s="170"/>
-      <c r="C2" s="170"/>
-      <c r="D2" s="170"/>
-      <c r="E2" s="170"/>
-      <c r="F2" s="170"/>
-      <c r="G2" s="170"/>
-      <c r="H2" s="170"/>
-      <c r="I2" s="170"/>
-      <c r="J2" s="170"/>
-      <c r="K2" s="170"/>
-      <c r="L2" s="170"/>
-      <c r="M2" s="170"/>
-      <c r="N2" s="170"/>
+      <c r="A2" s="172"/>
+      <c r="B2" s="172"/>
+      <c r="C2" s="172"/>
+      <c r="D2" s="172"/>
+      <c r="E2" s="172"/>
+      <c r="F2" s="172"/>
+      <c r="G2" s="172"/>
+      <c r="H2" s="172"/>
+      <c r="I2" s="172"/>
+      <c r="J2" s="172"/>
+      <c r="K2" s="172"/>
+      <c r="L2" s="172"/>
+      <c r="M2" s="172"/>
+      <c r="N2" s="172"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="38" t="s">
@@ -19541,11 +19527,11 @@
       <c r="A14" s="41"/>
       <c r="B14" s="41"/>
       <c r="C14" s="41"/>
-      <c r="D14" s="171" t="s">
+      <c r="D14" s="173" t="s">
         <v>184</v>
       </c>
-      <c r="E14" s="171"/>
-      <c r="F14" s="171"/>
+      <c r="E14" s="173"/>
+      <c r="F14" s="173"/>
       <c r="G14" s="41"/>
       <c r="H14" s="41"/>
       <c r="I14" s="41"/>
@@ -19605,23 +19591,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C1" s="155" t="s">
+      <c r="C1" s="157" t="s">
         <v>63</v>
       </c>
-      <c r="D1" s="155"/>
-      <c r="E1" s="155"/>
-      <c r="F1" s="155"/>
-      <c r="G1" s="155"/>
+      <c r="D1" s="157"/>
+      <c r="E1" s="157"/>
+      <c r="F1" s="157"/>
+      <c r="G1" s="157"/>
       <c r="I1" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="2" spans="3:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C2" s="155"/>
-      <c r="D2" s="155"/>
-      <c r="E2" s="155"/>
-      <c r="F2" s="155"/>
-      <c r="G2" s="155"/>
+      <c r="C2" s="157"/>
+      <c r="D2" s="157"/>
+      <c r="E2" s="157"/>
+      <c r="F2" s="157"/>
+      <c r="G2" s="157"/>
       <c r="I2" t="s">
         <v>101</v>
       </c>
@@ -19662,7 +19648,7 @@
       </c>
     </row>
     <row r="4" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C4" s="174" t="s">
+      <c r="C4" s="176" t="s">
         <v>32</v>
       </c>
       <c r="D4" s="13" t="s">
@@ -19697,7 +19683,7 @@
       </c>
     </row>
     <row r="5" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C5" s="175"/>
+      <c r="C5" s="177"/>
       <c r="D5" s="13" t="s">
         <v>34</v>
       </c>
@@ -19730,7 +19716,7 @@
       </c>
     </row>
     <row r="6" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C6" s="175"/>
+      <c r="C6" s="177"/>
       <c r="D6" s="13" t="s">
         <v>35</v>
       </c>
@@ -19763,7 +19749,7 @@
       </c>
     </row>
     <row r="7" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C7" s="175"/>
+      <c r="C7" s="177"/>
       <c r="D7" s="13" t="s">
         <v>36</v>
       </c>
@@ -19796,7 +19782,7 @@
       </c>
     </row>
     <row r="8" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C8" s="175"/>
+      <c r="C8" s="177"/>
       <c r="D8" s="13" t="s">
         <v>37</v>
       </c>
@@ -19829,7 +19815,7 @@
       </c>
     </row>
     <row r="9" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C9" s="175"/>
+      <c r="C9" s="177"/>
       <c r="D9" s="13" t="s">
         <v>38</v>
       </c>
@@ -19862,7 +19848,7 @@
       </c>
     </row>
     <row r="10" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="175"/>
+      <c r="C10" s="177"/>
       <c r="D10" s="13" t="s">
         <v>39</v>
       </c>
@@ -19895,7 +19881,7 @@
       </c>
     </row>
     <row r="11" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C11" s="175"/>
+      <c r="C11" s="177"/>
       <c r="D11" s="13" t="s">
         <v>40</v>
       </c>
@@ -19928,7 +19914,7 @@
       </c>
     </row>
     <row r="12" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C12" s="172" t="s">
+      <c r="C12" s="174" t="s">
         <v>42</v>
       </c>
       <c r="D12" s="14" t="s">
@@ -19963,7 +19949,7 @@
       </c>
     </row>
     <row r="13" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C13" s="173"/>
+      <c r="C13" s="175"/>
       <c r="D13" s="14" t="s">
         <v>44</v>
       </c>
@@ -19996,7 +19982,7 @@
       </c>
     </row>
     <row r="14" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C14" s="173"/>
+      <c r="C14" s="175"/>
       <c r="D14" s="14" t="s">
         <v>45</v>
       </c>
@@ -20029,7 +20015,7 @@
       </c>
     </row>
     <row r="15" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C15" s="173"/>
+      <c r="C15" s="175"/>
       <c r="D15" s="14" t="s">
         <v>46</v>
       </c>
@@ -20062,7 +20048,7 @@
       </c>
     </row>
     <row r="16" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C16" s="173"/>
+      <c r="C16" s="175"/>
       <c r="D16" s="14" t="s">
         <v>47</v>
       </c>
@@ -20095,7 +20081,7 @@
       </c>
     </row>
     <row r="17" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C17" s="173"/>
+      <c r="C17" s="175"/>
       <c r="D17" s="14" t="s">
         <v>48</v>
       </c>
@@ -20128,7 +20114,7 @@
       </c>
     </row>
     <row r="18" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C18" s="173"/>
+      <c r="C18" s="175"/>
       <c r="D18" s="14" t="s">
         <v>49</v>
       </c>
@@ -20161,7 +20147,7 @@
       </c>
     </row>
     <row r="19" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C19" s="173"/>
+      <c r="C19" s="175"/>
       <c r="D19" s="14" t="s">
         <v>50</v>
       </c>
@@ -20226,14 +20212,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="176" t="s">
+      <c r="B2" s="178" t="s">
         <v>128</v>
       </c>
-      <c r="C2" s="155"/>
+      <c r="C2" s="157"/>
     </row>
     <row r="3" spans="2:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="155"/>
-      <c r="C3" s="155"/>
+      <c r="B3" s="157"/>
+      <c r="C3" s="157"/>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B4" s="24" t="s">
@@ -21171,22 +21157,22 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="169" t="s">
+      <c r="B2" s="171" t="s">
         <v>144</v>
       </c>
-      <c r="C2" s="169"/>
-      <c r="D2" s="169"/>
-      <c r="E2" s="169"/>
-      <c r="F2" s="169"/>
-      <c r="G2" s="169"/>
+      <c r="C2" s="171"/>
+      <c r="D2" s="171"/>
+      <c r="E2" s="171"/>
+      <c r="F2" s="171"/>
+      <c r="G2" s="171"/>
     </row>
     <row r="3" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="170"/>
-      <c r="C3" s="170"/>
-      <c r="D3" s="170"/>
-      <c r="E3" s="170"/>
-      <c r="F3" s="170"/>
-      <c r="G3" s="170"/>
+      <c r="B3" s="172"/>
+      <c r="C3" s="172"/>
+      <c r="D3" s="172"/>
+      <c r="E3" s="172"/>
+      <c r="F3" s="172"/>
+      <c r="G3" s="172"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B4" s="38" t="s">

--- a/Project1/Assets/Script/Data/weaponDB.xlsx
+++ b/Project1/Assets/Script/Data/weaponDB.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\whdns\OneDrive\바탕 화면\깃허브 파일\TeamProject1\Project1\Assets\Script\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\whdns\OneDrive\바탕 화면\123\TeamProject1\Project1\Assets\Script\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{254C1D92-E007-41FF-9FD9-43BACEAAC44C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83EF8B5C-9327-4C46-849B-B29D5B3DFF2C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="599" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="630" yWindow="1200" windowWidth="14145" windowHeight="13725" tabRatio="599" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="시스템 기획" sheetId="2" r:id="rId1"/>
@@ -1201,9 +1201,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0%"/>
-    <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
@@ -2027,22 +2026,31 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="17" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="16" fillId="17" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2072,78 +2080,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2166,6 +2102,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2234,13 +2182,55 @@
     <xf numFmtId="0" fontId="2" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2292,6 +2282,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2359,6 +2352,12 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="17" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="17" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2742,33 +2741,33 @@
     </row>
     <row r="2" spans="1:48" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8"/>
-      <c r="B2" s="98" t="s">
+      <c r="B2" s="68" t="s">
         <v>68</v>
       </c>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="99"/>
-      <c r="F2" s="99"/>
-      <c r="G2" s="99"/>
-      <c r="H2" s="99"/>
-      <c r="I2" s="99"/>
-      <c r="J2" s="99"/>
-      <c r="K2" s="99"/>
-      <c r="L2" s="99"/>
-      <c r="M2" s="99"/>
-      <c r="N2" s="99"/>
-      <c r="O2" s="99"/>
-      <c r="P2" s="99"/>
-      <c r="Q2" s="99"/>
-      <c r="R2" s="99"/>
-      <c r="S2" s="99"/>
-      <c r="T2" s="99"/>
-      <c r="U2" s="99"/>
-      <c r="V2" s="99"/>
-      <c r="W2" s="99"/>
-      <c r="X2" s="99"/>
-      <c r="Y2" s="99"/>
-      <c r="Z2" s="100"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="69"/>
+      <c r="K2" s="69"/>
+      <c r="L2" s="69"/>
+      <c r="M2" s="69"/>
+      <c r="N2" s="69"/>
+      <c r="O2" s="69"/>
+      <c r="P2" s="69"/>
+      <c r="Q2" s="69"/>
+      <c r="R2" s="69"/>
+      <c r="S2" s="69"/>
+      <c r="T2" s="69"/>
+      <c r="U2" s="69"/>
+      <c r="V2" s="69"/>
+      <c r="W2" s="69"/>
+      <c r="X2" s="69"/>
+      <c r="Y2" s="69"/>
+      <c r="Z2" s="70"/>
       <c r="AA2" s="8"/>
       <c r="AB2" s="8"/>
       <c r="AC2" s="8"/>
@@ -2794,31 +2793,31 @@
     </row>
     <row r="3" spans="1:48" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="8"/>
-      <c r="B3" s="101"/>
-      <c r="C3" s="102"/>
-      <c r="D3" s="102"/>
-      <c r="E3" s="102"/>
-      <c r="F3" s="102"/>
-      <c r="G3" s="102"/>
-      <c r="H3" s="102"/>
-      <c r="I3" s="102"/>
-      <c r="J3" s="102"/>
-      <c r="K3" s="102"/>
-      <c r="L3" s="102"/>
-      <c r="M3" s="102"/>
-      <c r="N3" s="102"/>
-      <c r="O3" s="102"/>
-      <c r="P3" s="102"/>
-      <c r="Q3" s="102"/>
-      <c r="R3" s="102"/>
-      <c r="S3" s="102"/>
-      <c r="T3" s="102"/>
-      <c r="U3" s="102"/>
-      <c r="V3" s="102"/>
-      <c r="W3" s="102"/>
-      <c r="X3" s="102"/>
-      <c r="Y3" s="102"/>
-      <c r="Z3" s="103"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="72"/>
+      <c r="H3" s="72"/>
+      <c r="I3" s="72"/>
+      <c r="J3" s="72"/>
+      <c r="K3" s="72"/>
+      <c r="L3" s="72"/>
+      <c r="M3" s="72"/>
+      <c r="N3" s="72"/>
+      <c r="O3" s="72"/>
+      <c r="P3" s="72"/>
+      <c r="Q3" s="72"/>
+      <c r="R3" s="72"/>
+      <c r="S3" s="72"/>
+      <c r="T3" s="72"/>
+      <c r="U3" s="72"/>
+      <c r="V3" s="72"/>
+      <c r="W3" s="72"/>
+      <c r="X3" s="72"/>
+      <c r="Y3" s="72"/>
+      <c r="Z3" s="73"/>
       <c r="AA3" s="8"/>
       <c r="AB3" s="8"/>
       <c r="AC3" s="8"/>
@@ -2844,31 +2843,31 @@
     </row>
     <row r="4" spans="1:48" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="8"/>
-      <c r="B4" s="104"/>
-      <c r="C4" s="105"/>
-      <c r="D4" s="105"/>
-      <c r="E4" s="105"/>
-      <c r="F4" s="105"/>
-      <c r="G4" s="105"/>
-      <c r="H4" s="105"/>
-      <c r="I4" s="105"/>
-      <c r="J4" s="105"/>
-      <c r="K4" s="105"/>
-      <c r="L4" s="105"/>
-      <c r="M4" s="105"/>
-      <c r="N4" s="105"/>
-      <c r="O4" s="105"/>
-      <c r="P4" s="105"/>
-      <c r="Q4" s="105"/>
-      <c r="R4" s="105"/>
-      <c r="S4" s="105"/>
-      <c r="T4" s="105"/>
-      <c r="U4" s="105"/>
-      <c r="V4" s="105"/>
-      <c r="W4" s="105"/>
-      <c r="X4" s="105"/>
-      <c r="Y4" s="105"/>
-      <c r="Z4" s="106"/>
+      <c r="B4" s="74"/>
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="75"/>
+      <c r="K4" s="75"/>
+      <c r="L4" s="75"/>
+      <c r="M4" s="75"/>
+      <c r="N4" s="75"/>
+      <c r="O4" s="75"/>
+      <c r="P4" s="75"/>
+      <c r="Q4" s="75"/>
+      <c r="R4" s="75"/>
+      <c r="S4" s="75"/>
+      <c r="T4" s="75"/>
+      <c r="U4" s="75"/>
+      <c r="V4" s="75"/>
+      <c r="W4" s="75"/>
+      <c r="X4" s="75"/>
+      <c r="Y4" s="75"/>
+      <c r="Z4" s="76"/>
       <c r="AA4" s="8"/>
       <c r="AB4" s="8"/>
       <c r="AC4" s="8"/>
@@ -2994,10 +2993,10 @@
     </row>
     <row r="7" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A7" s="8"/>
-      <c r="B7" s="133" t="s">
+      <c r="B7" s="116" t="s">
         <v>67</v>
       </c>
-      <c r="C7" s="134"/>
+      <c r="C7" s="117"/>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
@@ -3046,8 +3045,8 @@
     </row>
     <row r="8" spans="1:48" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="8"/>
-      <c r="B8" s="135"/>
-      <c r="C8" s="136"/>
+      <c r="B8" s="118"/>
+      <c r="C8" s="119"/>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
@@ -3156,27 +3155,27 @@
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
-      <c r="L10" s="121" t="s">
+      <c r="L10" s="104" t="s">
         <v>69</v>
       </c>
-      <c r="M10" s="122"/>
-      <c r="N10" s="115" t="s">
+      <c r="M10" s="105"/>
+      <c r="N10" s="98" t="s">
         <v>24</v>
       </c>
-      <c r="O10" s="116"/>
-      <c r="P10" s="74" t="s">
+      <c r="O10" s="99"/>
+      <c r="P10" s="77" t="s">
         <v>127</v>
       </c>
-      <c r="Q10" s="75"/>
-      <c r="R10" s="75"/>
-      <c r="S10" s="75"/>
-      <c r="T10" s="75"/>
-      <c r="U10" s="75"/>
-      <c r="V10" s="75"/>
-      <c r="W10" s="75"/>
-      <c r="X10" s="75"/>
-      <c r="Y10" s="75"/>
-      <c r="Z10" s="76"/>
+      <c r="Q10" s="78"/>
+      <c r="R10" s="78"/>
+      <c r="S10" s="78"/>
+      <c r="T10" s="78"/>
+      <c r="U10" s="78"/>
+      <c r="V10" s="78"/>
+      <c r="W10" s="78"/>
+      <c r="X10" s="78"/>
+      <c r="Y10" s="78"/>
+      <c r="Z10" s="79"/>
       <c r="AA10" s="8"/>
       <c r="AB10" s="8"/>
       <c r="AC10" s="8"/>
@@ -3212,21 +3211,21 @@
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
-      <c r="L11" s="123"/>
-      <c r="M11" s="124"/>
-      <c r="N11" s="117"/>
-      <c r="O11" s="118"/>
-      <c r="P11" s="77"/>
-      <c r="Q11" s="78"/>
-      <c r="R11" s="78"/>
-      <c r="S11" s="78"/>
-      <c r="T11" s="78"/>
-      <c r="U11" s="78"/>
-      <c r="V11" s="78"/>
-      <c r="W11" s="78"/>
-      <c r="X11" s="78"/>
-      <c r="Y11" s="78"/>
-      <c r="Z11" s="79"/>
+      <c r="L11" s="106"/>
+      <c r="M11" s="107"/>
+      <c r="N11" s="100"/>
+      <c r="O11" s="101"/>
+      <c r="P11" s="80"/>
+      <c r="Q11" s="81"/>
+      <c r="R11" s="81"/>
+      <c r="S11" s="81"/>
+      <c r="T11" s="81"/>
+      <c r="U11" s="81"/>
+      <c r="V11" s="81"/>
+      <c r="W11" s="81"/>
+      <c r="X11" s="81"/>
+      <c r="Y11" s="81"/>
+      <c r="Z11" s="82"/>
       <c r="AA11" s="8"/>
       <c r="AB11" s="8"/>
       <c r="AC11" s="8"/>
@@ -3262,21 +3261,21 @@
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
-      <c r="L12" s="123"/>
-      <c r="M12" s="124"/>
-      <c r="N12" s="117"/>
-      <c r="O12" s="118"/>
-      <c r="P12" s="77"/>
-      <c r="Q12" s="78"/>
-      <c r="R12" s="78"/>
-      <c r="S12" s="78"/>
-      <c r="T12" s="78"/>
-      <c r="U12" s="78"/>
-      <c r="V12" s="78"/>
-      <c r="W12" s="78"/>
-      <c r="X12" s="78"/>
-      <c r="Y12" s="78"/>
-      <c r="Z12" s="79"/>
+      <c r="L12" s="106"/>
+      <c r="M12" s="107"/>
+      <c r="N12" s="100"/>
+      <c r="O12" s="101"/>
+      <c r="P12" s="80"/>
+      <c r="Q12" s="81"/>
+      <c r="R12" s="81"/>
+      <c r="S12" s="81"/>
+      <c r="T12" s="81"/>
+      <c r="U12" s="81"/>
+      <c r="V12" s="81"/>
+      <c r="W12" s="81"/>
+      <c r="X12" s="81"/>
+      <c r="Y12" s="81"/>
+      <c r="Z12" s="82"/>
       <c r="AA12" s="8"/>
       <c r="AB12" s="8"/>
       <c r="AC12" s="8"/>
@@ -3304,33 +3303,33 @@
       <c r="A13" s="8"/>
       <c r="B13" s="28"/>
       <c r="C13" s="29"/>
-      <c r="D13" s="133" t="s">
+      <c r="D13" s="116" t="s">
         <v>69</v>
       </c>
-      <c r="E13" s="134"/>
+      <c r="E13" s="117"/>
       <c r="F13" s="30"/>
       <c r="G13" s="31"/>
-      <c r="H13" s="111" t="s">
+      <c r="H13" s="90" t="s">
         <v>71</v>
       </c>
-      <c r="I13" s="112"/>
+      <c r="I13" s="91"/>
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
-      <c r="L13" s="123"/>
-      <c r="M13" s="124"/>
-      <c r="N13" s="119"/>
-      <c r="O13" s="120"/>
-      <c r="P13" s="80"/>
-      <c r="Q13" s="81"/>
-      <c r="R13" s="81"/>
-      <c r="S13" s="81"/>
-      <c r="T13" s="81"/>
-      <c r="U13" s="81"/>
-      <c r="V13" s="81"/>
-      <c r="W13" s="81"/>
-      <c r="X13" s="81"/>
-      <c r="Y13" s="81"/>
-      <c r="Z13" s="82"/>
+      <c r="L13" s="106"/>
+      <c r="M13" s="107"/>
+      <c r="N13" s="102"/>
+      <c r="O13" s="103"/>
+      <c r="P13" s="83"/>
+      <c r="Q13" s="84"/>
+      <c r="R13" s="84"/>
+      <c r="S13" s="84"/>
+      <c r="T13" s="84"/>
+      <c r="U13" s="84"/>
+      <c r="V13" s="84"/>
+      <c r="W13" s="84"/>
+      <c r="X13" s="84"/>
+      <c r="Y13" s="84"/>
+      <c r="Z13" s="85"/>
       <c r="AA13" s="8"/>
       <c r="AB13" s="8"/>
       <c r="AC13" s="8"/>
@@ -3358,33 +3357,33 @@
       <c r="A14" s="8"/>
       <c r="B14" s="8"/>
       <c r="C14" s="32"/>
-      <c r="D14" s="135"/>
-      <c r="E14" s="136"/>
+      <c r="D14" s="118"/>
+      <c r="E14" s="119"/>
       <c r="F14" s="33"/>
       <c r="G14" s="8"/>
-      <c r="H14" s="113"/>
-      <c r="I14" s="114"/>
+      <c r="H14" s="92"/>
+      <c r="I14" s="93"/>
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
-      <c r="L14" s="123"/>
-      <c r="M14" s="124"/>
-      <c r="N14" s="115" t="s">
+      <c r="L14" s="106"/>
+      <c r="M14" s="107"/>
+      <c r="N14" s="98" t="s">
         <v>70</v>
       </c>
-      <c r="O14" s="116"/>
-      <c r="P14" s="74" t="s">
+      <c r="O14" s="99"/>
+      <c r="P14" s="77" t="s">
         <v>125</v>
       </c>
-      <c r="Q14" s="75"/>
-      <c r="R14" s="75"/>
-      <c r="S14" s="75"/>
-      <c r="T14" s="75"/>
-      <c r="U14" s="75"/>
-      <c r="V14" s="75"/>
-      <c r="W14" s="75"/>
-      <c r="X14" s="75"/>
-      <c r="Y14" s="75"/>
-      <c r="Z14" s="76"/>
+      <c r="Q14" s="78"/>
+      <c r="R14" s="78"/>
+      <c r="S14" s="78"/>
+      <c r="T14" s="78"/>
+      <c r="U14" s="78"/>
+      <c r="V14" s="78"/>
+      <c r="W14" s="78"/>
+      <c r="X14" s="78"/>
+      <c r="Y14" s="78"/>
+      <c r="Z14" s="79"/>
       <c r="AA14" s="8"/>
       <c r="AB14" s="8"/>
       <c r="AC14" s="8"/>
@@ -3420,21 +3419,21 @@
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
-      <c r="L15" s="123"/>
-      <c r="M15" s="124"/>
-      <c r="N15" s="117"/>
-      <c r="O15" s="118"/>
-      <c r="P15" s="77"/>
-      <c r="Q15" s="78"/>
-      <c r="R15" s="78"/>
-      <c r="S15" s="78"/>
-      <c r="T15" s="78"/>
-      <c r="U15" s="78"/>
-      <c r="V15" s="78"/>
-      <c r="W15" s="78"/>
-      <c r="X15" s="78"/>
-      <c r="Y15" s="78"/>
-      <c r="Z15" s="79"/>
+      <c r="L15" s="106"/>
+      <c r="M15" s="107"/>
+      <c r="N15" s="100"/>
+      <c r="O15" s="101"/>
+      <c r="P15" s="80"/>
+      <c r="Q15" s="81"/>
+      <c r="R15" s="81"/>
+      <c r="S15" s="81"/>
+      <c r="T15" s="81"/>
+      <c r="U15" s="81"/>
+      <c r="V15" s="81"/>
+      <c r="W15" s="81"/>
+      <c r="X15" s="81"/>
+      <c r="Y15" s="81"/>
+      <c r="Z15" s="82"/>
       <c r="AA15" s="8"/>
       <c r="AB15" s="8"/>
       <c r="AC15" s="8"/>
@@ -3470,21 +3469,21 @@
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
-      <c r="L16" s="123"/>
-      <c r="M16" s="124"/>
-      <c r="N16" s="117"/>
-      <c r="O16" s="118"/>
-      <c r="P16" s="77"/>
-      <c r="Q16" s="78"/>
-      <c r="R16" s="78"/>
-      <c r="S16" s="78"/>
-      <c r="T16" s="78"/>
-      <c r="U16" s="78"/>
-      <c r="V16" s="78"/>
-      <c r="W16" s="78"/>
-      <c r="X16" s="78"/>
-      <c r="Y16" s="78"/>
-      <c r="Z16" s="79"/>
+      <c r="L16" s="106"/>
+      <c r="M16" s="107"/>
+      <c r="N16" s="100"/>
+      <c r="O16" s="101"/>
+      <c r="P16" s="80"/>
+      <c r="Q16" s="81"/>
+      <c r="R16" s="81"/>
+      <c r="S16" s="81"/>
+      <c r="T16" s="81"/>
+      <c r="U16" s="81"/>
+      <c r="V16" s="81"/>
+      <c r="W16" s="81"/>
+      <c r="X16" s="81"/>
+      <c r="Y16" s="81"/>
+      <c r="Z16" s="82"/>
       <c r="AA16" s="8"/>
       <c r="AB16" s="8"/>
       <c r="AC16" s="8"/>
@@ -3516,27 +3515,27 @@
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="34"/>
-      <c r="H17" s="111" t="s">
+      <c r="H17" s="90" t="s">
         <v>70</v>
       </c>
-      <c r="I17" s="112"/>
+      <c r="I17" s="91"/>
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
-      <c r="L17" s="125"/>
-      <c r="M17" s="126"/>
-      <c r="N17" s="119"/>
-      <c r="O17" s="120"/>
-      <c r="P17" s="80"/>
-      <c r="Q17" s="81"/>
-      <c r="R17" s="81"/>
-      <c r="S17" s="81"/>
-      <c r="T17" s="81"/>
-      <c r="U17" s="81"/>
-      <c r="V17" s="81"/>
-      <c r="W17" s="81"/>
-      <c r="X17" s="81"/>
-      <c r="Y17" s="81"/>
-      <c r="Z17" s="82"/>
+      <c r="L17" s="108"/>
+      <c r="M17" s="109"/>
+      <c r="N17" s="102"/>
+      <c r="O17" s="103"/>
+      <c r="P17" s="83"/>
+      <c r="Q17" s="84"/>
+      <c r="R17" s="84"/>
+      <c r="S17" s="84"/>
+      <c r="T17" s="84"/>
+      <c r="U17" s="84"/>
+      <c r="V17" s="84"/>
+      <c r="W17" s="84"/>
+      <c r="X17" s="84"/>
+      <c r="Y17" s="84"/>
+      <c r="Z17" s="85"/>
       <c r="AA17" s="8"/>
       <c r="AB17" s="8"/>
       <c r="AC17" s="8"/>
@@ -3568,31 +3567,31 @@
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="35"/>
-      <c r="H18" s="113"/>
-      <c r="I18" s="114"/>
+      <c r="H18" s="92"/>
+      <c r="I18" s="93"/>
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
-      <c r="L18" s="127" t="s">
+      <c r="L18" s="110" t="s">
         <v>72</v>
       </c>
-      <c r="M18" s="128"/>
-      <c r="N18" s="96" t="s">
+      <c r="M18" s="111"/>
+      <c r="N18" s="128" t="s">
         <v>73</v>
       </c>
-      <c r="O18" s="91"/>
-      <c r="P18" s="74" t="s">
+      <c r="O18" s="129"/>
+      <c r="P18" s="77" t="s">
         <v>124</v>
       </c>
-      <c r="Q18" s="83"/>
-      <c r="R18" s="83"/>
-      <c r="S18" s="83"/>
-      <c r="T18" s="83"/>
-      <c r="U18" s="83"/>
-      <c r="V18" s="83"/>
-      <c r="W18" s="83"/>
-      <c r="X18" s="83"/>
-      <c r="Y18" s="83"/>
-      <c r="Z18" s="84"/>
+      <c r="Q18" s="123"/>
+      <c r="R18" s="123"/>
+      <c r="S18" s="123"/>
+      <c r="T18" s="123"/>
+      <c r="U18" s="123"/>
+      <c r="V18" s="123"/>
+      <c r="W18" s="123"/>
+      <c r="X18" s="123"/>
+      <c r="Y18" s="123"/>
+      <c r="Z18" s="124"/>
       <c r="AA18" s="8"/>
       <c r="AB18" s="8"/>
       <c r="AC18" s="8"/>
@@ -3628,21 +3627,21 @@
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
       <c r="K19" s="8"/>
-      <c r="L19" s="129"/>
-      <c r="M19" s="130"/>
-      <c r="N19" s="97"/>
-      <c r="O19" s="95"/>
-      <c r="P19" s="85"/>
-      <c r="Q19" s="86"/>
-      <c r="R19" s="86"/>
-      <c r="S19" s="86"/>
-      <c r="T19" s="86"/>
-      <c r="U19" s="86"/>
-      <c r="V19" s="86"/>
-      <c r="W19" s="86"/>
-      <c r="X19" s="86"/>
-      <c r="Y19" s="86"/>
-      <c r="Z19" s="87"/>
+      <c r="L19" s="112"/>
+      <c r="M19" s="113"/>
+      <c r="N19" s="130"/>
+      <c r="O19" s="131"/>
+      <c r="P19" s="125"/>
+      <c r="Q19" s="126"/>
+      <c r="R19" s="126"/>
+      <c r="S19" s="126"/>
+      <c r="T19" s="126"/>
+      <c r="U19" s="126"/>
+      <c r="V19" s="126"/>
+      <c r="W19" s="126"/>
+      <c r="X19" s="126"/>
+      <c r="Y19" s="126"/>
+      <c r="Z19" s="127"/>
       <c r="AA19" s="8"/>
       <c r="AB19" s="8"/>
       <c r="AC19" s="8"/>
@@ -3678,25 +3677,25 @@
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
-      <c r="L20" s="129"/>
-      <c r="M20" s="130"/>
-      <c r="N20" s="96" t="s">
+      <c r="L20" s="112"/>
+      <c r="M20" s="113"/>
+      <c r="N20" s="128" t="s">
         <v>74</v>
       </c>
-      <c r="O20" s="91"/>
-      <c r="P20" s="88" t="s">
+      <c r="O20" s="129"/>
+      <c r="P20" s="132" t="s">
         <v>123</v>
       </c>
-      <c r="Q20" s="83"/>
-      <c r="R20" s="83"/>
-      <c r="S20" s="83"/>
-      <c r="T20" s="83"/>
-      <c r="U20" s="83"/>
-      <c r="V20" s="83"/>
-      <c r="W20" s="83"/>
-      <c r="X20" s="83"/>
-      <c r="Y20" s="83"/>
-      <c r="Z20" s="84"/>
+      <c r="Q20" s="123"/>
+      <c r="R20" s="123"/>
+      <c r="S20" s="123"/>
+      <c r="T20" s="123"/>
+      <c r="U20" s="123"/>
+      <c r="V20" s="123"/>
+      <c r="W20" s="123"/>
+      <c r="X20" s="123"/>
+      <c r="Y20" s="123"/>
+      <c r="Z20" s="124"/>
       <c r="AA20" s="8"/>
       <c r="AB20" s="8"/>
       <c r="AC20" s="8"/>
@@ -3724,33 +3723,33 @@
       <c r="A21" s="8"/>
       <c r="B21" s="8"/>
       <c r="C21" s="29"/>
-      <c r="D21" s="107" t="s">
+      <c r="D21" s="86" t="s">
         <v>72</v>
       </c>
-      <c r="E21" s="108"/>
+      <c r="E21" s="87"/>
       <c r="F21" s="30"/>
       <c r="G21" s="31"/>
-      <c r="H21" s="70" t="s">
+      <c r="H21" s="94" t="s">
         <v>73</v>
       </c>
-      <c r="I21" s="71"/>
+      <c r="I21" s="95"/>
       <c r="J21" s="8"/>
       <c r="K21" s="8"/>
-      <c r="L21" s="129"/>
-      <c r="M21" s="130"/>
-      <c r="N21" s="97"/>
-      <c r="O21" s="95"/>
-      <c r="P21" s="85"/>
-      <c r="Q21" s="86"/>
-      <c r="R21" s="86"/>
-      <c r="S21" s="86"/>
-      <c r="T21" s="86"/>
-      <c r="U21" s="86"/>
-      <c r="V21" s="86"/>
-      <c r="W21" s="86"/>
-      <c r="X21" s="86"/>
-      <c r="Y21" s="86"/>
-      <c r="Z21" s="87"/>
+      <c r="L21" s="112"/>
+      <c r="M21" s="113"/>
+      <c r="N21" s="130"/>
+      <c r="O21" s="131"/>
+      <c r="P21" s="125"/>
+      <c r="Q21" s="126"/>
+      <c r="R21" s="126"/>
+      <c r="S21" s="126"/>
+      <c r="T21" s="126"/>
+      <c r="U21" s="126"/>
+      <c r="V21" s="126"/>
+      <c r="W21" s="126"/>
+      <c r="X21" s="126"/>
+      <c r="Y21" s="126"/>
+      <c r="Z21" s="127"/>
       <c r="AA21" s="8"/>
       <c r="AB21" s="8"/>
       <c r="AC21" s="8"/>
@@ -3778,33 +3777,33 @@
       <c r="A22" s="8"/>
       <c r="B22" s="8"/>
       <c r="C22" s="36"/>
-      <c r="D22" s="109"/>
-      <c r="E22" s="110"/>
+      <c r="D22" s="88"/>
+      <c r="E22" s="89"/>
       <c r="F22" s="33"/>
       <c r="G22" s="8"/>
-      <c r="H22" s="72"/>
-      <c r="I22" s="73"/>
+      <c r="H22" s="96"/>
+      <c r="I22" s="97"/>
       <c r="J22" s="8"/>
       <c r="K22" s="8"/>
-      <c r="L22" s="129"/>
-      <c r="M22" s="130"/>
-      <c r="N22" s="90" t="s">
+      <c r="L22" s="112"/>
+      <c r="M22" s="113"/>
+      <c r="N22" s="120" t="s">
         <v>75</v>
       </c>
-      <c r="O22" s="91"/>
-      <c r="P22" s="89" t="s">
+      <c r="O22" s="129"/>
+      <c r="P22" s="133" t="s">
         <v>122</v>
       </c>
-      <c r="Q22" s="75"/>
-      <c r="R22" s="75"/>
-      <c r="S22" s="75"/>
-      <c r="T22" s="75"/>
-      <c r="U22" s="75"/>
-      <c r="V22" s="75"/>
-      <c r="W22" s="75"/>
-      <c r="X22" s="75"/>
-      <c r="Y22" s="75"/>
-      <c r="Z22" s="76"/>
+      <c r="Q22" s="78"/>
+      <c r="R22" s="78"/>
+      <c r="S22" s="78"/>
+      <c r="T22" s="78"/>
+      <c r="U22" s="78"/>
+      <c r="V22" s="78"/>
+      <c r="W22" s="78"/>
+      <c r="X22" s="78"/>
+      <c r="Y22" s="78"/>
+      <c r="Z22" s="79"/>
       <c r="AA22" s="8"/>
       <c r="AB22" s="8"/>
       <c r="AC22" s="8"/>
@@ -3840,21 +3839,21 @@
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
       <c r="K23" s="8"/>
-      <c r="L23" s="129"/>
-      <c r="M23" s="130"/>
-      <c r="N23" s="92"/>
-      <c r="O23" s="93"/>
-      <c r="P23" s="77"/>
-      <c r="Q23" s="78"/>
-      <c r="R23" s="78"/>
-      <c r="S23" s="78"/>
-      <c r="T23" s="78"/>
-      <c r="U23" s="78"/>
-      <c r="V23" s="78"/>
-      <c r="W23" s="78"/>
-      <c r="X23" s="78"/>
-      <c r="Y23" s="78"/>
-      <c r="Z23" s="79"/>
+      <c r="L23" s="112"/>
+      <c r="M23" s="113"/>
+      <c r="N23" s="121"/>
+      <c r="O23" s="134"/>
+      <c r="P23" s="80"/>
+      <c r="Q23" s="81"/>
+      <c r="R23" s="81"/>
+      <c r="S23" s="81"/>
+      <c r="T23" s="81"/>
+      <c r="U23" s="81"/>
+      <c r="V23" s="81"/>
+      <c r="W23" s="81"/>
+      <c r="X23" s="81"/>
+      <c r="Y23" s="81"/>
+      <c r="Z23" s="82"/>
       <c r="AA23" s="8"/>
       <c r="AB23" s="8"/>
       <c r="AC23" s="8"/>
@@ -3890,21 +3889,21 @@
       <c r="I24" s="8"/>
       <c r="J24" s="8"/>
       <c r="K24" s="8"/>
-      <c r="L24" s="129"/>
-      <c r="M24" s="130"/>
-      <c r="N24" s="92"/>
-      <c r="O24" s="93"/>
-      <c r="P24" s="77"/>
-      <c r="Q24" s="78"/>
-      <c r="R24" s="78"/>
-      <c r="S24" s="78"/>
-      <c r="T24" s="78"/>
-      <c r="U24" s="78"/>
-      <c r="V24" s="78"/>
-      <c r="W24" s="78"/>
-      <c r="X24" s="78"/>
-      <c r="Y24" s="78"/>
-      <c r="Z24" s="79"/>
+      <c r="L24" s="112"/>
+      <c r="M24" s="113"/>
+      <c r="N24" s="121"/>
+      <c r="O24" s="134"/>
+      <c r="P24" s="80"/>
+      <c r="Q24" s="81"/>
+      <c r="R24" s="81"/>
+      <c r="S24" s="81"/>
+      <c r="T24" s="81"/>
+      <c r="U24" s="81"/>
+      <c r="V24" s="81"/>
+      <c r="W24" s="81"/>
+      <c r="X24" s="81"/>
+      <c r="Y24" s="81"/>
+      <c r="Z24" s="82"/>
       <c r="AA24" s="8"/>
       <c r="AB24" s="8"/>
       <c r="AC24" s="8"/>
@@ -3940,21 +3939,21 @@
       <c r="I25" s="8"/>
       <c r="J25" s="8"/>
       <c r="K25" s="8"/>
-      <c r="L25" s="129"/>
-      <c r="M25" s="130"/>
-      <c r="N25" s="94"/>
-      <c r="O25" s="95"/>
-      <c r="P25" s="80"/>
-      <c r="Q25" s="81"/>
-      <c r="R25" s="81"/>
-      <c r="S25" s="81"/>
-      <c r="T25" s="81"/>
-      <c r="U25" s="81"/>
-      <c r="V25" s="81"/>
-      <c r="W25" s="81"/>
-      <c r="X25" s="81"/>
-      <c r="Y25" s="81"/>
-      <c r="Z25" s="82"/>
+      <c r="L25" s="112"/>
+      <c r="M25" s="113"/>
+      <c r="N25" s="122"/>
+      <c r="O25" s="131"/>
+      <c r="P25" s="83"/>
+      <c r="Q25" s="84"/>
+      <c r="R25" s="84"/>
+      <c r="S25" s="84"/>
+      <c r="T25" s="84"/>
+      <c r="U25" s="84"/>
+      <c r="V25" s="84"/>
+      <c r="W25" s="84"/>
+      <c r="X25" s="84"/>
+      <c r="Y25" s="84"/>
+      <c r="Z25" s="85"/>
       <c r="AA25" s="8"/>
       <c r="AB25" s="8"/>
       <c r="AC25" s="8"/>
@@ -3986,31 +3985,31 @@
       <c r="E26" s="8"/>
       <c r="F26" s="28"/>
       <c r="G26" s="28"/>
-      <c r="H26" s="70" t="s">
+      <c r="H26" s="94" t="s">
         <v>74</v>
       </c>
-      <c r="I26" s="71"/>
+      <c r="I26" s="95"/>
       <c r="J26" s="8"/>
       <c r="K26" s="8"/>
-      <c r="L26" s="129"/>
-      <c r="M26" s="130"/>
-      <c r="N26" s="90" t="s">
+      <c r="L26" s="112"/>
+      <c r="M26" s="113"/>
+      <c r="N26" s="120" t="s">
         <v>76</v>
       </c>
-      <c r="O26" s="90"/>
-      <c r="P26" s="74" t="s">
+      <c r="O26" s="120"/>
+      <c r="P26" s="77" t="s">
         <v>131</v>
       </c>
-      <c r="Q26" s="75"/>
-      <c r="R26" s="75"/>
-      <c r="S26" s="75"/>
-      <c r="T26" s="75"/>
-      <c r="U26" s="75"/>
-      <c r="V26" s="75"/>
-      <c r="W26" s="75"/>
-      <c r="X26" s="75"/>
-      <c r="Y26" s="75"/>
-      <c r="Z26" s="76"/>
+      <c r="Q26" s="78"/>
+      <c r="R26" s="78"/>
+      <c r="S26" s="78"/>
+      <c r="T26" s="78"/>
+      <c r="U26" s="78"/>
+      <c r="V26" s="78"/>
+      <c r="W26" s="78"/>
+      <c r="X26" s="78"/>
+      <c r="Y26" s="78"/>
+      <c r="Z26" s="79"/>
       <c r="AA26" s="8"/>
       <c r="AB26" s="8"/>
       <c r="AC26" s="8"/>
@@ -4042,25 +4041,25 @@
       <c r="E27" s="8"/>
       <c r="F27" s="28"/>
       <c r="G27" s="36"/>
-      <c r="H27" s="72"/>
-      <c r="I27" s="73"/>
+      <c r="H27" s="96"/>
+      <c r="I27" s="97"/>
       <c r="J27" s="8"/>
       <c r="K27" s="8"/>
-      <c r="L27" s="129"/>
-      <c r="M27" s="130"/>
-      <c r="N27" s="92"/>
-      <c r="O27" s="92"/>
-      <c r="P27" s="77"/>
-      <c r="Q27" s="78"/>
-      <c r="R27" s="78"/>
-      <c r="S27" s="78"/>
-      <c r="T27" s="78"/>
-      <c r="U27" s="78"/>
-      <c r="V27" s="78"/>
-      <c r="W27" s="78"/>
-      <c r="X27" s="78"/>
-      <c r="Y27" s="78"/>
-      <c r="Z27" s="79"/>
+      <c r="L27" s="112"/>
+      <c r="M27" s="113"/>
+      <c r="N27" s="121"/>
+      <c r="O27" s="121"/>
+      <c r="P27" s="80"/>
+      <c r="Q27" s="81"/>
+      <c r="R27" s="81"/>
+      <c r="S27" s="81"/>
+      <c r="T27" s="81"/>
+      <c r="U27" s="81"/>
+      <c r="V27" s="81"/>
+      <c r="W27" s="81"/>
+      <c r="X27" s="81"/>
+      <c r="Y27" s="81"/>
+      <c r="Z27" s="82"/>
       <c r="AA27" s="8"/>
       <c r="AB27" s="8"/>
       <c r="AC27" s="8"/>
@@ -4096,21 +4095,21 @@
       <c r="I28" s="8"/>
       <c r="J28" s="8"/>
       <c r="K28" s="8"/>
-      <c r="L28" s="129"/>
-      <c r="M28" s="130"/>
-      <c r="N28" s="92"/>
-      <c r="O28" s="92"/>
-      <c r="P28" s="77"/>
-      <c r="Q28" s="78"/>
-      <c r="R28" s="78"/>
-      <c r="S28" s="78"/>
-      <c r="T28" s="78"/>
-      <c r="U28" s="78"/>
-      <c r="V28" s="78"/>
-      <c r="W28" s="78"/>
-      <c r="X28" s="78"/>
-      <c r="Y28" s="78"/>
-      <c r="Z28" s="79"/>
+      <c r="L28" s="112"/>
+      <c r="M28" s="113"/>
+      <c r="N28" s="121"/>
+      <c r="O28" s="121"/>
+      <c r="P28" s="80"/>
+      <c r="Q28" s="81"/>
+      <c r="R28" s="81"/>
+      <c r="S28" s="81"/>
+      <c r="T28" s="81"/>
+      <c r="U28" s="81"/>
+      <c r="V28" s="81"/>
+      <c r="W28" s="81"/>
+      <c r="X28" s="81"/>
+      <c r="Y28" s="81"/>
+      <c r="Z28" s="82"/>
       <c r="AA28" s="8"/>
       <c r="AB28" s="8"/>
       <c r="AC28" s="8"/>
@@ -4146,21 +4145,21 @@
       <c r="I29" s="8"/>
       <c r="J29" s="8"/>
       <c r="K29" s="8"/>
-      <c r="L29" s="129"/>
-      <c r="M29" s="130"/>
-      <c r="N29" s="94"/>
-      <c r="O29" s="94"/>
-      <c r="P29" s="80"/>
-      <c r="Q29" s="81"/>
-      <c r="R29" s="81"/>
-      <c r="S29" s="81"/>
-      <c r="T29" s="81"/>
-      <c r="U29" s="81"/>
-      <c r="V29" s="81"/>
-      <c r="W29" s="81"/>
-      <c r="X29" s="81"/>
-      <c r="Y29" s="81"/>
-      <c r="Z29" s="82"/>
+      <c r="L29" s="112"/>
+      <c r="M29" s="113"/>
+      <c r="N29" s="122"/>
+      <c r="O29" s="122"/>
+      <c r="P29" s="83"/>
+      <c r="Q29" s="84"/>
+      <c r="R29" s="84"/>
+      <c r="S29" s="84"/>
+      <c r="T29" s="84"/>
+      <c r="U29" s="84"/>
+      <c r="V29" s="84"/>
+      <c r="W29" s="84"/>
+      <c r="X29" s="84"/>
+      <c r="Y29" s="84"/>
+      <c r="Z29" s="85"/>
       <c r="AA29" s="8"/>
       <c r="AB29" s="8"/>
       <c r="AC29" s="8"/>
@@ -4196,25 +4195,25 @@
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
       <c r="K30" s="8"/>
-      <c r="L30" s="129"/>
-      <c r="M30" s="130"/>
-      <c r="N30" s="96" t="s">
+      <c r="L30" s="112"/>
+      <c r="M30" s="113"/>
+      <c r="N30" s="128" t="s">
         <v>77</v>
       </c>
-      <c r="O30" s="91"/>
-      <c r="P30" s="74" t="s">
+      <c r="O30" s="129"/>
+      <c r="P30" s="77" t="s">
         <v>121</v>
       </c>
-      <c r="Q30" s="83"/>
-      <c r="R30" s="83"/>
-      <c r="S30" s="83"/>
-      <c r="T30" s="83"/>
-      <c r="U30" s="83"/>
-      <c r="V30" s="83"/>
-      <c r="W30" s="83"/>
-      <c r="X30" s="83"/>
-      <c r="Y30" s="83"/>
-      <c r="Z30" s="84"/>
+      <c r="Q30" s="123"/>
+      <c r="R30" s="123"/>
+      <c r="S30" s="123"/>
+      <c r="T30" s="123"/>
+      <c r="U30" s="123"/>
+      <c r="V30" s="123"/>
+      <c r="W30" s="123"/>
+      <c r="X30" s="123"/>
+      <c r="Y30" s="123"/>
+      <c r="Z30" s="124"/>
       <c r="AA30" s="8"/>
       <c r="AB30" s="8"/>
       <c r="AC30" s="8"/>
@@ -4246,27 +4245,27 @@
       <c r="E31" s="8"/>
       <c r="F31" s="28"/>
       <c r="G31" s="28"/>
-      <c r="H31" s="70" t="s">
+      <c r="H31" s="94" t="s">
         <v>75</v>
       </c>
-      <c r="I31" s="71"/>
+      <c r="I31" s="95"/>
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
-      <c r="L31" s="131"/>
-      <c r="M31" s="132"/>
-      <c r="N31" s="97"/>
-      <c r="O31" s="95"/>
-      <c r="P31" s="85"/>
-      <c r="Q31" s="86"/>
-      <c r="R31" s="86"/>
-      <c r="S31" s="86"/>
-      <c r="T31" s="86"/>
-      <c r="U31" s="86"/>
-      <c r="V31" s="86"/>
-      <c r="W31" s="86"/>
-      <c r="X31" s="86"/>
-      <c r="Y31" s="86"/>
-      <c r="Z31" s="87"/>
+      <c r="L31" s="114"/>
+      <c r="M31" s="115"/>
+      <c r="N31" s="130"/>
+      <c r="O31" s="131"/>
+      <c r="P31" s="125"/>
+      <c r="Q31" s="126"/>
+      <c r="R31" s="126"/>
+      <c r="S31" s="126"/>
+      <c r="T31" s="126"/>
+      <c r="U31" s="126"/>
+      <c r="V31" s="126"/>
+      <c r="W31" s="126"/>
+      <c r="X31" s="126"/>
+      <c r="Y31" s="126"/>
+      <c r="Z31" s="127"/>
       <c r="AA31" s="8"/>
       <c r="AB31" s="8"/>
       <c r="AC31" s="8"/>
@@ -4298,8 +4297,8 @@
       <c r="E32" s="8"/>
       <c r="F32" s="28"/>
       <c r="G32" s="36"/>
-      <c r="H32" s="72"/>
-      <c r="I32" s="73"/>
+      <c r="H32" s="96"/>
+      <c r="I32" s="97"/>
       <c r="J32" s="8"/>
       <c r="K32" s="8"/>
       <c r="L32" s="8"/>
@@ -4498,10 +4497,10 @@
       <c r="E36" s="8"/>
       <c r="F36" s="28"/>
       <c r="G36" s="28"/>
-      <c r="H36" s="70" t="s">
+      <c r="H36" s="94" t="s">
         <v>76</v>
       </c>
-      <c r="I36" s="71"/>
+      <c r="I36" s="95"/>
       <c r="J36" s="8"/>
       <c r="K36" s="8"/>
       <c r="L36" s="8"/>
@@ -4550,8 +4549,8 @@
       <c r="E37" s="8"/>
       <c r="F37" s="28"/>
       <c r="G37" s="36"/>
-      <c r="H37" s="72"/>
-      <c r="I37" s="73"/>
+      <c r="H37" s="96"/>
+      <c r="I37" s="97"/>
       <c r="J37" s="8"/>
       <c r="K37" s="8"/>
       <c r="L37" s="8"/>
@@ -4750,10 +4749,10 @@
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="29"/>
-      <c r="H41" s="70" t="s">
+      <c r="H41" s="94" t="s">
         <v>77</v>
       </c>
-      <c r="I41" s="71"/>
+      <c r="I41" s="95"/>
       <c r="J41" s="8"/>
       <c r="K41" s="8"/>
       <c r="L41" s="8"/>
@@ -4802,8 +4801,8 @@
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="36"/>
-      <c r="H42" s="72"/>
-      <c r="I42" s="73"/>
+      <c r="H42" s="96"/>
+      <c r="I42" s="97"/>
       <c r="J42" s="19"/>
       <c r="K42" s="19"/>
       <c r="L42" s="19"/>
@@ -6435,6 +6434,17 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="H41:I42"/>
+    <mergeCell ref="H36:I37"/>
+    <mergeCell ref="H31:I32"/>
+    <mergeCell ref="H26:I27"/>
+    <mergeCell ref="P10:Z13"/>
+    <mergeCell ref="P18:Z19"/>
+    <mergeCell ref="P20:Z21"/>
+    <mergeCell ref="P22:Z25"/>
+    <mergeCell ref="N22:O25"/>
+    <mergeCell ref="N18:O19"/>
+    <mergeCell ref="N20:O21"/>
     <mergeCell ref="B2:Z4"/>
     <mergeCell ref="P14:Z17"/>
     <mergeCell ref="D21:E22"/>
@@ -6451,17 +6461,6 @@
     <mergeCell ref="P26:Z29"/>
     <mergeCell ref="P30:Z31"/>
     <mergeCell ref="N30:O31"/>
-    <mergeCell ref="H41:I42"/>
-    <mergeCell ref="H36:I37"/>
-    <mergeCell ref="H31:I32"/>
-    <mergeCell ref="H26:I27"/>
-    <mergeCell ref="P10:Z13"/>
-    <mergeCell ref="P18:Z19"/>
-    <mergeCell ref="P20:Z21"/>
-    <mergeCell ref="P22:Z25"/>
-    <mergeCell ref="N22:O25"/>
-    <mergeCell ref="N18:O19"/>
-    <mergeCell ref="N20:O21"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6483,140 +6482,140 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="140" t="s">
+      <c r="B1" s="137" t="s">
         <v>78</v>
       </c>
-      <c r="C1" s="149"/>
-      <c r="D1" s="140" t="s">
+      <c r="C1" s="146"/>
+      <c r="D1" s="137" t="s">
         <v>80</v>
       </c>
-      <c r="E1" s="152"/>
-      <c r="F1" s="153"/>
-      <c r="I1" s="140" t="s">
+      <c r="E1" s="149"/>
+      <c r="F1" s="150"/>
+      <c r="I1" s="137" t="s">
         <v>79</v>
       </c>
-      <c r="J1" s="141"/>
-      <c r="K1" s="140" t="s">
+      <c r="J1" s="138"/>
+      <c r="K1" s="137" t="s">
         <v>81</v>
       </c>
-      <c r="L1" s="144"/>
-      <c r="M1" s="145"/>
-      <c r="P1" s="139" t="s">
+      <c r="L1" s="141"/>
+      <c r="M1" s="142"/>
+      <c r="P1" s="154" t="s">
         <v>82</v>
       </c>
-      <c r="Q1" s="139"/>
-      <c r="R1" s="139" t="s">
+      <c r="Q1" s="154"/>
+      <c r="R1" s="154" t="s">
         <v>83</v>
       </c>
-      <c r="S1" s="139"/>
-      <c r="T1" s="139"/>
-      <c r="W1" s="139" t="s">
+      <c r="S1" s="154"/>
+      <c r="T1" s="154"/>
+      <c r="W1" s="154" t="s">
         <v>84</v>
       </c>
-      <c r="X1" s="139"/>
-      <c r="Y1" s="139" t="s">
+      <c r="X1" s="154"/>
+      <c r="Y1" s="154" t="s">
         <v>85</v>
       </c>
-      <c r="Z1" s="139"/>
-      <c r="AA1" s="139"/>
+      <c r="Z1" s="154"/>
+      <c r="AA1" s="154"/>
     </row>
     <row r="2" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="150"/>
-      <c r="C2" s="151"/>
-      <c r="D2" s="154"/>
-      <c r="E2" s="155"/>
-      <c r="F2" s="156"/>
-      <c r="I2" s="142"/>
-      <c r="J2" s="143"/>
-      <c r="K2" s="146"/>
-      <c r="L2" s="147"/>
-      <c r="M2" s="148"/>
-      <c r="P2" s="139"/>
-      <c r="Q2" s="139"/>
-      <c r="R2" s="139"/>
-      <c r="S2" s="139"/>
-      <c r="T2" s="139"/>
-      <c r="W2" s="139"/>
-      <c r="X2" s="139"/>
-      <c r="Y2" s="139"/>
-      <c r="Z2" s="139"/>
-      <c r="AA2" s="139"/>
+      <c r="B2" s="147"/>
+      <c r="C2" s="148"/>
+      <c r="D2" s="151"/>
+      <c r="E2" s="152"/>
+      <c r="F2" s="153"/>
+      <c r="I2" s="139"/>
+      <c r="J2" s="140"/>
+      <c r="K2" s="143"/>
+      <c r="L2" s="144"/>
+      <c r="M2" s="145"/>
+      <c r="P2" s="154"/>
+      <c r="Q2" s="154"/>
+      <c r="R2" s="154"/>
+      <c r="S2" s="154"/>
+      <c r="T2" s="154"/>
+      <c r="W2" s="154"/>
+      <c r="X2" s="154"/>
+      <c r="Y2" s="154"/>
+      <c r="Z2" s="154"/>
+      <c r="AA2" s="154"/>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="B3" s="138" t="s">
+      <c r="B3" s="136" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="138"/>
-      <c r="D3" s="138"/>
-      <c r="E3" s="138" t="s">
+      <c r="C3" s="136"/>
+      <c r="D3" s="136"/>
+      <c r="E3" s="136" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="138"/>
-      <c r="I3" s="138" t="s">
+      <c r="F3" s="136"/>
+      <c r="I3" s="136" t="s">
         <v>18</v>
       </c>
-      <c r="J3" s="138"/>
-      <c r="K3" s="138"/>
-      <c r="L3" s="138" t="s">
+      <c r="J3" s="136"/>
+      <c r="K3" s="136"/>
+      <c r="L3" s="136" t="s">
         <v>19</v>
       </c>
-      <c r="M3" s="138"/>
-      <c r="P3" s="138" t="s">
+      <c r="M3" s="136"/>
+      <c r="P3" s="136" t="s">
         <v>0</v>
       </c>
-      <c r="Q3" s="138"/>
-      <c r="R3" s="138"/>
-      <c r="S3" s="138" t="s">
+      <c r="Q3" s="136"/>
+      <c r="R3" s="136"/>
+      <c r="S3" s="136" t="s">
         <v>19</v>
       </c>
-      <c r="T3" s="138"/>
-      <c r="W3" s="138" t="s">
+      <c r="T3" s="136"/>
+      <c r="W3" s="136" t="s">
         <v>0</v>
       </c>
-      <c r="X3" s="138"/>
-      <c r="Y3" s="138"/>
-      <c r="Z3" s="138" t="s">
+      <c r="X3" s="136"/>
+      <c r="Y3" s="136"/>
+      <c r="Z3" s="136" t="s">
         <v>19</v>
       </c>
-      <c r="AA3" s="138"/>
+      <c r="AA3" s="136"/>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="B4" s="138" t="s">
+      <c r="B4" s="136" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="138"/>
-      <c r="D4" s="138"/>
-      <c r="E4" s="138" t="s">
+      <c r="C4" s="136"/>
+      <c r="D4" s="136"/>
+      <c r="E4" s="136" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="138"/>
-      <c r="I4" s="138" t="s">
+      <c r="F4" s="136"/>
+      <c r="I4" s="136" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="138"/>
-      <c r="K4" s="138"/>
-      <c r="L4" s="138" t="s">
+      <c r="J4" s="136"/>
+      <c r="K4" s="136"/>
+      <c r="L4" s="136" t="s">
         <v>20</v>
       </c>
-      <c r="M4" s="138"/>
-      <c r="P4" s="138" t="s">
+      <c r="M4" s="136"/>
+      <c r="P4" s="136" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="138"/>
-      <c r="R4" s="138"/>
-      <c r="S4" s="138" t="s">
+      <c r="Q4" s="136"/>
+      <c r="R4" s="136"/>
+      <c r="S4" s="136" t="s">
         <v>21</v>
       </c>
-      <c r="T4" s="138"/>
-      <c r="W4" s="138" t="s">
+      <c r="T4" s="136"/>
+      <c r="W4" s="136" t="s">
         <v>8</v>
       </c>
-      <c r="X4" s="138"/>
-      <c r="Y4" s="138"/>
-      <c r="Z4" s="138" t="s">
+      <c r="X4" s="136"/>
+      <c r="Y4" s="136"/>
+      <c r="Z4" s="136" t="s">
         <v>21</v>
       </c>
-      <c r="AA4" s="138"/>
+      <c r="AA4" s="136"/>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B5" s="10" t="s">
@@ -14481,10 +14480,10 @@
       </c>
     </row>
     <row r="106" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="B106" s="137" t="s">
+      <c r="B106" s="135" t="s">
         <v>14</v>
       </c>
-      <c r="C106" s="137"/>
+      <c r="C106" s="135"/>
       <c r="D106" s="5">
         <f>SUM(D6:D105)</f>
         <v>87316</v>
@@ -14495,10 +14494,10 @@
       <c r="F106" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="I106" s="137" t="s">
+      <c r="I106" s="135" t="s">
         <v>4</v>
       </c>
-      <c r="J106" s="137"/>
+      <c r="J106" s="135"/>
       <c r="K106" s="5">
         <f>SUM(K6:K105)</f>
         <v>360244</v>
@@ -14509,10 +14508,10 @@
       <c r="M106" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="P106" s="137" t="s">
+      <c r="P106" s="135" t="s">
         <v>4</v>
       </c>
-      <c r="Q106" s="137"/>
+      <c r="Q106" s="135"/>
       <c r="R106" s="5">
         <f>SUM(Q6:Q105)</f>
         <v>2195776.0000000005</v>
@@ -14523,10 +14522,10 @@
       <c r="T106" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="W106" s="137" t="s">
+      <c r="W106" s="135" t="s">
         <v>4</v>
       </c>
-      <c r="X106" s="137"/>
+      <c r="X106" s="135"/>
       <c r="Y106" s="5">
         <f>SUM(X6:X105)</f>
         <v>5760000</v>
@@ -14554,6 +14553,22 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="P106:Q106"/>
+    <mergeCell ref="W106:X106"/>
+    <mergeCell ref="Z3:AA3"/>
+    <mergeCell ref="Z4:AA4"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="P1:Q2"/>
+    <mergeCell ref="R1:T2"/>
+    <mergeCell ref="W1:X2"/>
+    <mergeCell ref="Y1:AA2"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="P3:R3"/>
+    <mergeCell ref="P4:R4"/>
+    <mergeCell ref="W3:Y3"/>
+    <mergeCell ref="W4:Y4"/>
     <mergeCell ref="B106:C106"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="I3:K3"/>
@@ -14566,22 +14581,6 @@
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="B4:D4"/>
-    <mergeCell ref="P1:Q2"/>
-    <mergeCell ref="R1:T2"/>
-    <mergeCell ref="W1:X2"/>
-    <mergeCell ref="Y1:AA2"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="P3:R3"/>
-    <mergeCell ref="P4:R4"/>
-    <mergeCell ref="W3:Y3"/>
-    <mergeCell ref="W4:Y4"/>
-    <mergeCell ref="P106:Q106"/>
-    <mergeCell ref="W106:X106"/>
-    <mergeCell ref="Z3:AA3"/>
-    <mergeCell ref="Z4:AA4"/>
-    <mergeCell ref="S3:T3"/>
-    <mergeCell ref="S4:T4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14610,66 +14609,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C1" s="157" t="s">
+      <c r="C1" s="155" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="157"/>
-      <c r="E1" s="157"/>
-      <c r="F1" s="157"/>
-      <c r="G1" s="157"/>
-      <c r="H1" s="157"/>
-      <c r="I1" s="157"/>
+      <c r="D1" s="155"/>
+      <c r="E1" s="155"/>
+      <c r="F1" s="155"/>
+      <c r="G1" s="155"/>
+      <c r="H1" s="155"/>
+      <c r="I1" s="155"/>
     </row>
     <row r="2" spans="2:14" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C2" s="157"/>
-      <c r="D2" s="157"/>
-      <c r="E2" s="157"/>
-      <c r="F2" s="157"/>
-      <c r="G2" s="157"/>
-      <c r="H2" s="157"/>
-      <c r="I2" s="157"/>
+      <c r="C2" s="155"/>
+      <c r="D2" s="155"/>
+      <c r="E2" s="155"/>
+      <c r="F2" s="155"/>
+      <c r="G2" s="155"/>
+      <c r="H2" s="155"/>
+      <c r="I2" s="155"/>
     </row>
     <row r="3" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="20"/>
-      <c r="C3" s="170" t="s">
+      <c r="C3" s="168" t="s">
         <v>88</v>
       </c>
-      <c r="D3" s="170"/>
+      <c r="D3" s="168"/>
       <c r="E3" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="170" t="s">
+      <c r="F3" s="168" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="170"/>
-      <c r="H3" s="170"/>
-      <c r="I3" s="170"/>
-      <c r="K3" s="158" t="s">
+      <c r="G3" s="168"/>
+      <c r="H3" s="168"/>
+      <c r="I3" s="168"/>
+      <c r="K3" s="156" t="s">
         <v>146</v>
       </c>
-      <c r="L3" s="159"/>
-      <c r="M3" s="159"/>
-      <c r="N3" s="160"/>
+      <c r="L3" s="157"/>
+      <c r="M3" s="157"/>
+      <c r="N3" s="158"/>
     </row>
     <row r="4" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="42"/>
-      <c r="C4" s="138" t="s">
+      <c r="C4" s="136" t="s">
         <v>92</v>
       </c>
-      <c r="D4" s="138"/>
+      <c r="D4" s="136"/>
       <c r="E4" s="23" t="s">
         <v>145</v>
       </c>
-      <c r="F4" s="138" t="s">
+      <c r="F4" s="136" t="s">
         <v>26</v>
       </c>
-      <c r="G4" s="138"/>
-      <c r="H4" s="138"/>
-      <c r="I4" s="138"/>
-      <c r="K4" s="161"/>
-      <c r="L4" s="162"/>
-      <c r="M4" s="162"/>
-      <c r="N4" s="163"/>
+      <c r="G4" s="136"/>
+      <c r="H4" s="136"/>
+      <c r="I4" s="136"/>
+      <c r="K4" s="159"/>
+      <c r="L4" s="160"/>
+      <c r="M4" s="160"/>
+      <c r="N4" s="161"/>
     </row>
     <row r="5" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="25"/>
@@ -14694,12 +14693,12 @@
       <c r="I5" s="50" t="s">
         <v>98</v>
       </c>
-      <c r="K5" s="164" t="s">
+      <c r="K5" s="162" t="s">
         <v>91</v>
       </c>
-      <c r="L5" s="165"/>
-      <c r="M5" s="165"/>
-      <c r="N5" s="166"/>
+      <c r="L5" s="163"/>
+      <c r="M5" s="163"/>
+      <c r="N5" s="164"/>
     </row>
     <row r="6" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="4"/>
@@ -14730,10 +14729,10 @@
         <f t="shared" ref="I6:I37" si="3">ROUND(H6:H105,0)</f>
         <v>2</v>
       </c>
-      <c r="K6" s="167"/>
-      <c r="L6" s="168"/>
-      <c r="M6" s="168"/>
-      <c r="N6" s="169"/>
+      <c r="K6" s="165"/>
+      <c r="L6" s="166"/>
+      <c r="M6" s="166"/>
+      <c r="N6" s="167"/>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B7" s="4"/>
@@ -18024,7 +18023,7 @@
   <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -18091,34 +18090,34 @@
       <c r="C2" s="64">
         <v>1</v>
       </c>
-      <c r="D2" s="68">
+      <c r="D2" s="177">
         <v>50</v>
       </c>
-      <c r="E2" s="68">
+      <c r="E2" s="177">
         <v>60</v>
       </c>
-      <c r="F2" s="68">
+      <c r="F2" s="177">
         <v>70</v>
       </c>
-      <c r="G2" s="68">
+      <c r="G2" s="177">
         <v>80</v>
       </c>
-      <c r="H2" s="68">
+      <c r="H2" s="177">
         <v>90</v>
       </c>
-      <c r="I2" s="68">
+      <c r="I2" s="177">
         <v>100</v>
       </c>
-      <c r="J2" s="68">
+      <c r="J2" s="177">
         <v>110</v>
       </c>
-      <c r="K2" s="68">
+      <c r="K2" s="177">
         <v>120</v>
       </c>
-      <c r="L2" s="68">
+      <c r="L2" s="177">
         <v>130</v>
       </c>
-      <c r="M2" s="68">
+      <c r="M2" s="177">
         <v>140</v>
       </c>
       <c r="N2" s="63" t="b">
@@ -18135,34 +18134,34 @@
       <c r="C3" s="64">
         <v>0</v>
       </c>
-      <c r="D3" s="68">
+      <c r="D3" s="177">
         <v>200</v>
       </c>
-      <c r="E3" s="68">
+      <c r="E3" s="177">
         <v>230</v>
       </c>
-      <c r="F3" s="68">
+      <c r="F3" s="177">
         <v>260</v>
       </c>
-      <c r="G3" s="68">
+      <c r="G3" s="177">
         <v>290</v>
       </c>
-      <c r="H3" s="68">
+      <c r="H3" s="177">
         <v>320</v>
       </c>
-      <c r="I3" s="68">
+      <c r="I3" s="177">
         <v>350</v>
       </c>
-      <c r="J3" s="68">
+      <c r="J3" s="177">
         <v>380</v>
       </c>
-      <c r="K3" s="68">
+      <c r="K3" s="177">
         <v>410</v>
       </c>
-      <c r="L3" s="68">
+      <c r="L3" s="177">
         <v>440</v>
       </c>
-      <c r="M3" s="68">
+      <c r="M3" s="177">
         <v>470</v>
       </c>
       <c r="N3" s="63" t="b">
@@ -18179,34 +18178,34 @@
       <c r="C4" s="64">
         <v>0</v>
       </c>
-      <c r="D4" s="68">
+      <c r="D4" s="177">
         <v>800</v>
       </c>
-      <c r="E4" s="68">
+      <c r="E4" s="177">
         <v>803</v>
       </c>
-      <c r="F4" s="68">
+      <c r="F4" s="177">
         <v>806</v>
       </c>
-      <c r="G4" s="68">
+      <c r="G4" s="177">
         <v>809</v>
       </c>
-      <c r="H4" s="68">
+      <c r="H4" s="177">
         <v>812</v>
       </c>
-      <c r="I4" s="68">
+      <c r="I4" s="177">
         <v>815</v>
       </c>
-      <c r="J4" s="68">
+      <c r="J4" s="177">
         <v>818</v>
       </c>
-      <c r="K4" s="68">
+      <c r="K4" s="177">
         <v>821</v>
       </c>
-      <c r="L4" s="68">
+      <c r="L4" s="177">
         <v>824</v>
       </c>
-      <c r="M4" s="68">
+      <c r="M4" s="177">
         <v>827</v>
       </c>
       <c r="N4" s="63" t="b">
@@ -18223,34 +18222,34 @@
       <c r="C5" s="64">
         <v>0</v>
       </c>
-      <c r="D5" s="69">
+      <c r="D5" s="178">
         <v>831</v>
       </c>
-      <c r="E5" s="68">
+      <c r="E5" s="177">
         <v>835</v>
       </c>
-      <c r="F5" s="68">
+      <c r="F5" s="177">
         <v>839</v>
       </c>
-      <c r="G5" s="68">
+      <c r="G5" s="177">
         <v>843</v>
       </c>
-      <c r="H5" s="68">
+      <c r="H5" s="177">
         <v>847</v>
       </c>
-      <c r="I5" s="68">
+      <c r="I5" s="177">
         <v>851</v>
       </c>
-      <c r="J5" s="68">
+      <c r="J5" s="177">
         <v>855</v>
       </c>
-      <c r="K5" s="68">
+      <c r="K5" s="177">
         <v>859</v>
       </c>
-      <c r="L5" s="68">
+      <c r="L5" s="177">
         <v>863</v>
       </c>
-      <c r="M5" s="68">
+      <c r="M5" s="177">
         <v>867</v>
       </c>
       <c r="N5" s="63" t="b">
@@ -18267,34 +18266,34 @@
       <c r="C6" s="64">
         <v>0</v>
       </c>
-      <c r="D6" s="69">
+      <c r="D6" s="178">
         <v>27500</v>
       </c>
-      <c r="E6" s="68">
+      <c r="E6" s="177">
         <v>27505</v>
       </c>
-      <c r="F6" s="68">
+      <c r="F6" s="177">
         <v>27508</v>
       </c>
-      <c r="G6" s="68">
+      <c r="G6" s="177">
         <v>27511</v>
       </c>
-      <c r="H6" s="68">
+      <c r="H6" s="177">
         <v>27514</v>
       </c>
-      <c r="I6" s="68">
+      <c r="I6" s="177">
         <v>27517</v>
       </c>
-      <c r="J6" s="68">
+      <c r="J6" s="177">
         <v>27520</v>
       </c>
-      <c r="K6" s="68">
+      <c r="K6" s="177">
         <v>27523</v>
       </c>
-      <c r="L6" s="68">
+      <c r="L6" s="177">
         <v>27526</v>
       </c>
-      <c r="M6" s="68">
+      <c r="M6" s="177">
         <v>27529</v>
       </c>
       <c r="N6" s="63" t="b">
@@ -18311,34 +18310,34 @@
       <c r="C7" s="64">
         <v>0</v>
       </c>
-      <c r="D7" s="69">
+      <c r="D7" s="178">
         <v>225100</v>
       </c>
-      <c r="E7" s="68">
+      <c r="E7" s="177">
         <v>225106</v>
       </c>
-      <c r="F7" s="68">
+      <c r="F7" s="177">
         <v>225109</v>
       </c>
-      <c r="G7" s="68">
+      <c r="G7" s="177">
         <v>225112</v>
       </c>
-      <c r="H7" s="68">
+      <c r="H7" s="177">
         <v>225115</v>
       </c>
-      <c r="I7" s="68">
+      <c r="I7" s="177">
         <v>225118</v>
       </c>
-      <c r="J7" s="68">
+      <c r="J7" s="177">
         <v>225121</v>
       </c>
-      <c r="K7" s="68">
+      <c r="K7" s="177">
         <v>225124</v>
       </c>
-      <c r="L7" s="68">
+      <c r="L7" s="177">
         <v>225127</v>
       </c>
-      <c r="M7" s="68">
+      <c r="M7" s="177">
         <v>225130</v>
       </c>
       <c r="N7" s="63" t="b">
@@ -18355,34 +18354,34 @@
       <c r="C8" s="64">
         <v>0</v>
       </c>
-      <c r="D8" s="69">
+      <c r="D8" s="178">
         <v>2321300</v>
       </c>
-      <c r="E8" s="68">
+      <c r="E8" s="177">
         <v>2321307</v>
       </c>
-      <c r="F8" s="68">
+      <c r="F8" s="177">
         <v>2321310</v>
       </c>
-      <c r="G8" s="68">
+      <c r="G8" s="177">
         <v>2321313</v>
       </c>
-      <c r="H8" s="68">
+      <c r="H8" s="177">
         <v>2321316</v>
       </c>
-      <c r="I8" s="68">
+      <c r="I8" s="177">
         <v>2321319</v>
       </c>
-      <c r="J8" s="68">
+      <c r="J8" s="177">
         <v>2321322</v>
       </c>
-      <c r="K8" s="68">
+      <c r="K8" s="177">
         <v>2321325</v>
       </c>
-      <c r="L8" s="68">
+      <c r="L8" s="177">
         <v>2321328</v>
       </c>
-      <c r="M8" s="68">
+      <c r="M8" s="177">
         <v>2321331</v>
       </c>
       <c r="N8" s="63" t="b">
@@ -18399,34 +18398,34 @@
       <c r="C9" s="64">
         <v>0</v>
       </c>
-      <c r="D9" s="69">
+      <c r="D9" s="178">
         <v>28966900</v>
       </c>
-      <c r="E9" s="68">
+      <c r="E9" s="177">
         <v>28966908</v>
       </c>
-      <c r="F9" s="68">
+      <c r="F9" s="177">
         <v>28966911</v>
       </c>
-      <c r="G9" s="68">
+      <c r="G9" s="177">
         <v>28966914</v>
       </c>
-      <c r="H9" s="68">
+      <c r="H9" s="177">
         <v>28966917</v>
       </c>
-      <c r="I9" s="68">
+      <c r="I9" s="177">
         <v>28966920</v>
       </c>
-      <c r="J9" s="68">
+      <c r="J9" s="177">
         <v>28966923</v>
       </c>
-      <c r="K9" s="68">
+      <c r="K9" s="177">
         <v>28966926</v>
       </c>
-      <c r="L9" s="68">
+      <c r="L9" s="177">
         <v>28966929</v>
       </c>
-      <c r="M9" s="68">
+      <c r="M9" s="177">
         <v>28966932</v>
       </c>
       <c r="N9" s="63" t="b">
@@ -18443,34 +18442,34 @@
       <c r="C10" s="67">
         <v>0</v>
       </c>
-      <c r="D10" s="69">
+      <c r="D10" s="178">
         <v>422798300</v>
       </c>
-      <c r="E10" s="68">
+      <c r="E10" s="177">
         <v>422798309</v>
       </c>
-      <c r="F10" s="68">
+      <c r="F10" s="177">
         <v>422798312</v>
       </c>
-      <c r="G10" s="68">
+      <c r="G10" s="177">
         <v>422798315</v>
       </c>
-      <c r="H10" s="68">
+      <c r="H10" s="177">
         <v>422798318</v>
       </c>
-      <c r="I10" s="68">
+      <c r="I10" s="177">
         <v>422798321</v>
       </c>
-      <c r="J10" s="68">
+      <c r="J10" s="177">
         <v>422798324</v>
       </c>
-      <c r="K10" s="68">
+      <c r="K10" s="177">
         <v>422798327</v>
       </c>
-      <c r="L10" s="68">
+      <c r="L10" s="177">
         <v>422798330</v>
       </c>
-      <c r="M10" s="68">
+      <c r="M10" s="177">
         <v>422798333</v>
       </c>
       <c r="N10" s="63" t="b">
@@ -18487,34 +18486,34 @@
       <c r="C11" s="67">
         <v>0</v>
       </c>
-      <c r="D11" s="69">
+      <c r="D11" s="178">
         <v>7048293100</v>
       </c>
-      <c r="E11" s="68">
+      <c r="E11" s="177">
         <v>7048293110</v>
       </c>
-      <c r="F11" s="68">
+      <c r="F11" s="177">
         <v>7048293113</v>
       </c>
-      <c r="G11" s="68">
+      <c r="G11" s="177">
         <v>7048293116</v>
       </c>
-      <c r="H11" s="68">
+      <c r="H11" s="177">
         <v>7048293119</v>
       </c>
-      <c r="I11" s="68">
+      <c r="I11" s="177">
         <v>7048293122</v>
       </c>
-      <c r="J11" s="68">
+      <c r="J11" s="177">
         <v>7048293125</v>
       </c>
-      <c r="K11" s="68">
+      <c r="K11" s="177">
         <v>7048293128</v>
       </c>
-      <c r="L11" s="68">
+      <c r="L11" s="177">
         <v>7048293131</v>
       </c>
-      <c r="M11" s="68">
+      <c r="M11" s="177">
         <v>7048293134</v>
       </c>
       <c r="N11" s="63" t="b">
@@ -18531,34 +18530,34 @@
       <c r="C12" s="67">
         <v>0</v>
       </c>
-      <c r="D12" s="69">
+      <c r="D12" s="178">
         <v>131947819700</v>
       </c>
-      <c r="E12" s="68">
+      <c r="E12" s="177">
         <v>131947819711</v>
       </c>
-      <c r="F12" s="68">
+      <c r="F12" s="177">
         <v>131947819714</v>
       </c>
-      <c r="G12" s="68">
+      <c r="G12" s="177">
         <v>131947819717</v>
       </c>
-      <c r="H12" s="68">
+      <c r="H12" s="177">
         <v>131947819720</v>
       </c>
-      <c r="I12" s="68">
+      <c r="I12" s="177">
         <v>131947819723</v>
       </c>
-      <c r="J12" s="68">
+      <c r="J12" s="177">
         <v>131947819726</v>
       </c>
-      <c r="K12" s="68">
+      <c r="K12" s="177">
         <v>131947819729</v>
       </c>
-      <c r="L12" s="68">
+      <c r="L12" s="177">
         <v>131947819732</v>
       </c>
-      <c r="M12" s="68">
+      <c r="M12" s="177">
         <v>131947819735</v>
       </c>
       <c r="N12" s="63" t="b">
@@ -18575,34 +18574,34 @@
       <c r="C13" s="67">
         <v>0</v>
       </c>
-      <c r="D13" s="69">
+      <c r="D13" s="178">
         <v>2738771542900</v>
       </c>
-      <c r="E13" s="68">
+      <c r="E13" s="177">
         <v>2738771542912</v>
       </c>
-      <c r="F13" s="68">
+      <c r="F13" s="177">
         <v>2738771542915</v>
       </c>
-      <c r="G13" s="68">
+      <c r="G13" s="177">
         <v>2738771542918</v>
       </c>
-      <c r="H13" s="68">
+      <c r="H13" s="177">
         <v>2738771542921</v>
       </c>
-      <c r="I13" s="68">
+      <c r="I13" s="177">
         <v>2738771542924</v>
       </c>
-      <c r="J13" s="68">
+      <c r="J13" s="177">
         <v>2738771542927</v>
       </c>
-      <c r="K13" s="68">
+      <c r="K13" s="177">
         <v>2738771542930</v>
       </c>
-      <c r="L13" s="68">
+      <c r="L13" s="177">
         <v>2738771542933</v>
       </c>
-      <c r="M13" s="68">
+      <c r="M13" s="177">
         <v>2738771542936</v>
       </c>
       <c r="N13" s="63" t="b">
@@ -18619,34 +18618,34 @@
       <c r="C14" s="67">
         <v>0</v>
       </c>
-      <c r="D14" s="69">
+      <c r="D14" s="178">
         <v>62399688866300</v>
       </c>
-      <c r="E14" s="68">
+      <c r="E14" s="177">
         <v>62399688866313</v>
       </c>
-      <c r="F14" s="68">
+      <c r="F14" s="177">
         <v>62399688866316</v>
       </c>
-      <c r="G14" s="68">
+      <c r="G14" s="177">
         <v>62399688866319</v>
       </c>
-      <c r="H14" s="68">
+      <c r="H14" s="177">
         <v>62399688866322</v>
       </c>
-      <c r="I14" s="68">
+      <c r="I14" s="177">
         <v>62399688866325</v>
       </c>
-      <c r="J14" s="68">
+      <c r="J14" s="177">
         <v>62399688866328</v>
       </c>
-      <c r="K14" s="68">
+      <c r="K14" s="177">
         <v>62399688866331</v>
       </c>
-      <c r="L14" s="68">
+      <c r="L14" s="177">
         <v>62399688866334</v>
       </c>
-      <c r="M14" s="68">
+      <c r="M14" s="177">
         <v>62399688866337</v>
       </c>
       <c r="N14" s="63" t="b">
@@ -18663,34 +18662,34 @@
       <c r="C15" s="67">
         <v>0</v>
       </c>
-      <c r="D15" s="69">
+      <c r="D15" s="178">
         <v>1547853022245100</v>
       </c>
-      <c r="E15" s="68">
+      <c r="E15" s="177">
         <v>1547853022245114</v>
       </c>
-      <c r="F15" s="68">
+      <c r="F15" s="177">
         <v>1547853022245117</v>
       </c>
-      <c r="G15" s="68">
+      <c r="G15" s="177">
         <v>1547853022245120</v>
       </c>
-      <c r="H15" s="68">
+      <c r="H15" s="177">
         <v>1547853022245123</v>
       </c>
-      <c r="I15" s="68">
+      <c r="I15" s="177">
         <v>1547853022245126</v>
       </c>
-      <c r="J15" s="68">
+      <c r="J15" s="177">
         <v>1547853022245129</v>
       </c>
-      <c r="K15" s="68">
+      <c r="K15" s="177">
         <v>1547853022245132</v>
       </c>
-      <c r="L15" s="68">
+      <c r="L15" s="177">
         <v>1547853022245135</v>
       </c>
-      <c r="M15" s="68">
+      <c r="M15" s="177">
         <v>1547853022245138</v>
       </c>
       <c r="N15" s="63" t="b">
@@ -18707,34 +18706,34 @@
       <c r="C16" s="67">
         <v>0</v>
       </c>
-      <c r="D16" s="69">
+      <c r="D16" s="178">
         <v>4.1518154446327696E+16</v>
       </c>
-      <c r="E16" s="68">
+      <c r="E16" s="177">
         <v>4.1518154446327712E+16</v>
       </c>
-      <c r="F16" s="68">
+      <c r="F16" s="177">
         <v>4.1518154446327712E+16</v>
       </c>
-      <c r="G16" s="68">
+      <c r="G16" s="177">
         <v>4.1518154446327712E+16</v>
       </c>
-      <c r="H16" s="68">
+      <c r="H16" s="177">
         <v>4.1518154446327712E+16</v>
       </c>
-      <c r="I16" s="68">
+      <c r="I16" s="177">
         <v>4.1518154446327712E+16</v>
       </c>
-      <c r="J16" s="68">
+      <c r="J16" s="177">
         <v>4.1518154446327712E+16</v>
       </c>
-      <c r="K16" s="68">
+      <c r="K16" s="177">
         <v>4.1518154446327712E+16</v>
       </c>
-      <c r="L16" s="68">
+      <c r="L16" s="177">
         <v>4.1518154446327712E+16</v>
       </c>
-      <c r="M16" s="68">
+      <c r="M16" s="177">
         <v>4.1518154446327712E+16</v>
       </c>
       <c r="N16" s="63" t="b">
@@ -18751,34 +18750,34 @@
       <c r="C17" s="67">
         <v>0</v>
       </c>
-      <c r="D17" s="69">
+      <c r="D17" s="178">
         <v>1.197287312545943E+18</v>
       </c>
-      <c r="E17" s="68">
+      <c r="E17" s="177">
         <v>1.197287312545943E+18</v>
       </c>
-      <c r="F17" s="68">
+      <c r="F17" s="177">
         <v>1.197287312545943E+18</v>
       </c>
-      <c r="G17" s="68">
+      <c r="G17" s="177">
         <v>1.197287312545943E+18</v>
       </c>
-      <c r="H17" s="68">
+      <c r="H17" s="177">
         <v>1.197287312545943E+18</v>
       </c>
-      <c r="I17" s="68">
+      <c r="I17" s="177">
         <v>1.197287312545943E+18</v>
       </c>
-      <c r="J17" s="68">
+      <c r="J17" s="177">
         <v>1.197287312545943E+18</v>
       </c>
-      <c r="K17" s="68">
+      <c r="K17" s="177">
         <v>1.197287312545943E+18</v>
       </c>
-      <c r="L17" s="68">
+      <c r="L17" s="177">
         <v>1.197287312545943E+18</v>
       </c>
-      <c r="M17" s="68">
+      <c r="M17" s="177">
         <v>1.197287312545943E+18</v>
       </c>
       <c r="N17" s="63" t="b">
@@ -18795,34 +18794,34 @@
       <c r="C18" s="67">
         <v>0</v>
       </c>
-      <c r="D18" s="69">
+      <c r="D18" s="178">
         <v>3.6936355738343793E+19</v>
       </c>
-      <c r="E18" s="68">
+      <c r="E18" s="177">
         <v>3.6936355738343793E+19</v>
       </c>
-      <c r="F18" s="68">
+      <c r="F18" s="177">
         <v>3.6936355738343793E+19</v>
       </c>
-      <c r="G18" s="68">
+      <c r="G18" s="177">
         <v>3.6936355738343793E+19</v>
       </c>
-      <c r="H18" s="68">
+      <c r="H18" s="177">
         <v>3.6936355738343793E+19</v>
       </c>
-      <c r="I18" s="68">
+      <c r="I18" s="177">
         <v>3.6936355738343793E+19</v>
       </c>
-      <c r="J18" s="68">
+      <c r="J18" s="177">
         <v>3.6936355738343793E+19</v>
       </c>
-      <c r="K18" s="68">
+      <c r="K18" s="177">
         <v>3.6936355738343793E+19</v>
       </c>
-      <c r="L18" s="68">
+      <c r="L18" s="177">
         <v>3.6936355738343793E+19</v>
       </c>
-      <c r="M18" s="68">
+      <c r="M18" s="177">
         <v>3.6936355738343793E+19</v>
       </c>
       <c r="N18" s="63" t="b">
@@ -18839,34 +18838,34 @@
       <c r="C19" s="67">
         <v>0</v>
       </c>
-      <c r="D19" s="69">
+      <c r="D19" s="178">
         <v>1.213751488214001E+21</v>
       </c>
-      <c r="E19" s="68">
+      <c r="E19" s="177">
         <v>1.213751488214001E+21</v>
       </c>
-      <c r="F19" s="68">
+      <c r="F19" s="177">
         <v>1.213751488214001E+21</v>
       </c>
-      <c r="G19" s="68">
+      <c r="G19" s="177">
         <v>1.213751488214001E+21</v>
       </c>
-      <c r="H19" s="68">
+      <c r="H19" s="177">
         <v>1.213751488214001E+21</v>
       </c>
-      <c r="I19" s="68">
+      <c r="I19" s="177">
         <v>1.213751488214001E+21</v>
       </c>
-      <c r="J19" s="68">
+      <c r="J19" s="177">
         <v>1.213751488214001E+21</v>
       </c>
-      <c r="K19" s="68">
+      <c r="K19" s="177">
         <v>1.213751488214001E+21</v>
       </c>
-      <c r="L19" s="68">
+      <c r="L19" s="177">
         <v>1.213751488214001E+21</v>
       </c>
-      <c r="M19" s="68">
+      <c r="M19" s="177">
         <v>1.213751488214001E+21</v>
       </c>
       <c r="N19" s="63" t="b">
@@ -18883,34 +18882,34 @@
       <c r="C20" s="67">
         <v>0</v>
       </c>
-      <c r="D20" s="69">
+      <c r="D20" s="178">
         <v>4.2323260162233959E+22</v>
       </c>
-      <c r="E20" s="68">
+      <c r="E20" s="177">
         <v>4.2323260162233959E+22</v>
       </c>
-      <c r="F20" s="68">
+      <c r="F20" s="177">
         <v>4.2323260162233959E+22</v>
       </c>
-      <c r="G20" s="68">
+      <c r="G20" s="177">
         <v>4.2323260162233959E+22</v>
       </c>
-      <c r="H20" s="68">
+      <c r="H20" s="177">
         <v>4.2323260162233959E+22</v>
       </c>
-      <c r="I20" s="68">
+      <c r="I20" s="177">
         <v>4.2323260162233959E+22</v>
       </c>
-      <c r="J20" s="68">
+      <c r="J20" s="177">
         <v>4.2323260162233959E+22</v>
       </c>
-      <c r="K20" s="68">
+      <c r="K20" s="177">
         <v>4.2323260162233959E+22</v>
       </c>
-      <c r="L20" s="68">
+      <c r="L20" s="177">
         <v>4.2323260162233959E+22</v>
       </c>
-      <c r="M20" s="68">
+      <c r="M20" s="177">
         <v>4.2323260162233959E+22</v>
       </c>
       <c r="N20" s="63" t="b">
@@ -18927,34 +18926,34 @@
       <c r="C21" s="67">
         <v>0</v>
       </c>
-      <c r="D21" s="69">
+      <c r="D21" s="178">
         <v>1.5607895361992899E+24</v>
       </c>
-      <c r="E21" s="68">
+      <c r="E21" s="177">
         <v>1.5607895361992899E+24</v>
       </c>
-      <c r="F21" s="68">
+      <c r="F21" s="177">
         <v>1.5607895361992899E+24</v>
       </c>
-      <c r="G21" s="68">
+      <c r="G21" s="177">
         <v>1.5607895361992899E+24</v>
       </c>
-      <c r="H21" s="68">
+      <c r="H21" s="177">
         <v>1.5607895361992899E+24</v>
       </c>
-      <c r="I21" s="68">
+      <c r="I21" s="177">
         <v>1.5607895361992899E+24</v>
       </c>
-      <c r="J21" s="68">
+      <c r="J21" s="177">
         <v>1.5607895361992899E+24</v>
       </c>
-      <c r="K21" s="68">
+      <c r="K21" s="177">
         <v>1.5607895361992899E+24</v>
       </c>
-      <c r="L21" s="68">
+      <c r="L21" s="177">
         <v>1.5607895361992899E+24</v>
       </c>
-      <c r="M21" s="68">
+      <c r="M21" s="177">
         <v>1.5607895361992899E+24</v>
       </c>
       <c r="N21" s="63" t="b">
@@ -18982,38 +18981,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" s="171" t="s">
+      <c r="A1" s="169" t="s">
         <v>183</v>
       </c>
-      <c r="B1" s="171"/>
-      <c r="C1" s="171"/>
-      <c r="D1" s="171"/>
-      <c r="E1" s="171"/>
-      <c r="F1" s="171"/>
-      <c r="G1" s="171"/>
-      <c r="H1" s="171"/>
-      <c r="I1" s="171"/>
-      <c r="J1" s="171"/>
-      <c r="K1" s="171"/>
-      <c r="L1" s="171"/>
-      <c r="M1" s="171"/>
-      <c r="N1" s="171"/>
+      <c r="B1" s="169"/>
+      <c r="C1" s="169"/>
+      <c r="D1" s="169"/>
+      <c r="E1" s="169"/>
+      <c r="F1" s="169"/>
+      <c r="G1" s="169"/>
+      <c r="H1" s="169"/>
+      <c r="I1" s="169"/>
+      <c r="J1" s="169"/>
+      <c r="K1" s="169"/>
+      <c r="L1" s="169"/>
+      <c r="M1" s="169"/>
+      <c r="N1" s="169"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="172"/>
-      <c r="B2" s="172"/>
-      <c r="C2" s="172"/>
-      <c r="D2" s="172"/>
-      <c r="E2" s="172"/>
-      <c r="F2" s="172"/>
-      <c r="G2" s="172"/>
-      <c r="H2" s="172"/>
-      <c r="I2" s="172"/>
-      <c r="J2" s="172"/>
-      <c r="K2" s="172"/>
-      <c r="L2" s="172"/>
-      <c r="M2" s="172"/>
-      <c r="N2" s="172"/>
+      <c r="A2" s="170"/>
+      <c r="B2" s="170"/>
+      <c r="C2" s="170"/>
+      <c r="D2" s="170"/>
+      <c r="E2" s="170"/>
+      <c r="F2" s="170"/>
+      <c r="G2" s="170"/>
+      <c r="H2" s="170"/>
+      <c r="I2" s="170"/>
+      <c r="J2" s="170"/>
+      <c r="K2" s="170"/>
+      <c r="L2" s="170"/>
+      <c r="M2" s="170"/>
+      <c r="N2" s="170"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="38" t="s">
@@ -19527,11 +19526,11 @@
       <c r="A14" s="41"/>
       <c r="B14" s="41"/>
       <c r="C14" s="41"/>
-      <c r="D14" s="173" t="s">
+      <c r="D14" s="171" t="s">
         <v>184</v>
       </c>
-      <c r="E14" s="173"/>
-      <c r="F14" s="173"/>
+      <c r="E14" s="171"/>
+      <c r="F14" s="171"/>
       <c r="G14" s="41"/>
       <c r="H14" s="41"/>
       <c r="I14" s="41"/>
@@ -19591,23 +19590,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C1" s="157" t="s">
+      <c r="C1" s="155" t="s">
         <v>63</v>
       </c>
-      <c r="D1" s="157"/>
-      <c r="E1" s="157"/>
-      <c r="F1" s="157"/>
-      <c r="G1" s="157"/>
+      <c r="D1" s="155"/>
+      <c r="E1" s="155"/>
+      <c r="F1" s="155"/>
+      <c r="G1" s="155"/>
       <c r="I1" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="2" spans="3:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C2" s="157"/>
-      <c r="D2" s="157"/>
-      <c r="E2" s="157"/>
-      <c r="F2" s="157"/>
-      <c r="G2" s="157"/>
+      <c r="C2" s="155"/>
+      <c r="D2" s="155"/>
+      <c r="E2" s="155"/>
+      <c r="F2" s="155"/>
+      <c r="G2" s="155"/>
       <c r="I2" t="s">
         <v>101</v>
       </c>
@@ -19648,7 +19647,7 @@
       </c>
     </row>
     <row r="4" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C4" s="176" t="s">
+      <c r="C4" s="174" t="s">
         <v>32</v>
       </c>
       <c r="D4" s="13" t="s">
@@ -19683,7 +19682,7 @@
       </c>
     </row>
     <row r="5" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C5" s="177"/>
+      <c r="C5" s="175"/>
       <c r="D5" s="13" t="s">
         <v>34</v>
       </c>
@@ -19716,7 +19715,7 @@
       </c>
     </row>
     <row r="6" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C6" s="177"/>
+      <c r="C6" s="175"/>
       <c r="D6" s="13" t="s">
         <v>35</v>
       </c>
@@ -19749,7 +19748,7 @@
       </c>
     </row>
     <row r="7" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C7" s="177"/>
+      <c r="C7" s="175"/>
       <c r="D7" s="13" t="s">
         <v>36</v>
       </c>
@@ -19782,7 +19781,7 @@
       </c>
     </row>
     <row r="8" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C8" s="177"/>
+      <c r="C8" s="175"/>
       <c r="D8" s="13" t="s">
         <v>37</v>
       </c>
@@ -19815,7 +19814,7 @@
       </c>
     </row>
     <row r="9" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C9" s="177"/>
+      <c r="C9" s="175"/>
       <c r="D9" s="13" t="s">
         <v>38</v>
       </c>
@@ -19848,7 +19847,7 @@
       </c>
     </row>
     <row r="10" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="177"/>
+      <c r="C10" s="175"/>
       <c r="D10" s="13" t="s">
         <v>39</v>
       </c>
@@ -19881,7 +19880,7 @@
       </c>
     </row>
     <row r="11" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C11" s="177"/>
+      <c r="C11" s="175"/>
       <c r="D11" s="13" t="s">
         <v>40</v>
       </c>
@@ -19914,7 +19913,7 @@
       </c>
     </row>
     <row r="12" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C12" s="174" t="s">
+      <c r="C12" s="172" t="s">
         <v>42</v>
       </c>
       <c r="D12" s="14" t="s">
@@ -19949,7 +19948,7 @@
       </c>
     </row>
     <row r="13" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C13" s="175"/>
+      <c r="C13" s="173"/>
       <c r="D13" s="14" t="s">
         <v>44</v>
       </c>
@@ -19982,7 +19981,7 @@
       </c>
     </row>
     <row r="14" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C14" s="175"/>
+      <c r="C14" s="173"/>
       <c r="D14" s="14" t="s">
         <v>45</v>
       </c>
@@ -20015,7 +20014,7 @@
       </c>
     </row>
     <row r="15" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C15" s="175"/>
+      <c r="C15" s="173"/>
       <c r="D15" s="14" t="s">
         <v>46</v>
       </c>
@@ -20048,7 +20047,7 @@
       </c>
     </row>
     <row r="16" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C16" s="175"/>
+      <c r="C16" s="173"/>
       <c r="D16" s="14" t="s">
         <v>47</v>
       </c>
@@ -20081,7 +20080,7 @@
       </c>
     </row>
     <row r="17" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C17" s="175"/>
+      <c r="C17" s="173"/>
       <c r="D17" s="14" t="s">
         <v>48</v>
       </c>
@@ -20114,7 +20113,7 @@
       </c>
     </row>
     <row r="18" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C18" s="175"/>
+      <c r="C18" s="173"/>
       <c r="D18" s="14" t="s">
         <v>49</v>
       </c>
@@ -20147,7 +20146,7 @@
       </c>
     </row>
     <row r="19" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C19" s="175"/>
+      <c r="C19" s="173"/>
       <c r="D19" s="14" t="s">
         <v>50</v>
       </c>
@@ -20212,14 +20211,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="178" t="s">
+      <c r="B2" s="176" t="s">
         <v>128</v>
       </c>
-      <c r="C2" s="157"/>
+      <c r="C2" s="155"/>
     </row>
     <row r="3" spans="2:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="157"/>
-      <c r="C3" s="157"/>
+      <c r="B3" s="155"/>
+      <c r="C3" s="155"/>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B4" s="24" t="s">
@@ -21157,22 +21156,22 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="171" t="s">
+      <c r="B2" s="169" t="s">
         <v>144</v>
       </c>
-      <c r="C2" s="171"/>
-      <c r="D2" s="171"/>
-      <c r="E2" s="171"/>
-      <c r="F2" s="171"/>
-      <c r="G2" s="171"/>
+      <c r="C2" s="169"/>
+      <c r="D2" s="169"/>
+      <c r="E2" s="169"/>
+      <c r="F2" s="169"/>
+      <c r="G2" s="169"/>
     </row>
     <row r="3" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="172"/>
-      <c r="C3" s="172"/>
-      <c r="D3" s="172"/>
-      <c r="E3" s="172"/>
-      <c r="F3" s="172"/>
-      <c r="G3" s="172"/>
+      <c r="B3" s="170"/>
+      <c r="C3" s="170"/>
+      <c r="D3" s="170"/>
+      <c r="E3" s="170"/>
+      <c r="F3" s="170"/>
+      <c r="G3" s="170"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B4" s="38" t="s">

--- a/Project1/Assets/Script/Data/weaponDB.xlsx
+++ b/Project1/Assets/Script/Data/weaponDB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\whdns\OneDrive\바탕 화면\123\TeamProject1\Project1\Assets\Script\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83EF8B5C-9327-4C46-849B-B29D5B3DFF2C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90671EFE-04D8-433D-8471-DDF97F7F948E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="630" yWindow="1200" windowWidth="14145" windowHeight="13725" tabRatio="599" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="599" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="시스템 기획" sheetId="2" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="775" uniqueCount="252">
   <si>
     <t>훈련 [ n = 레벨 값 ]</t>
   </si>
@@ -1195,6 +1195,145 @@
   <si>
     <t>weapon20</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>36936355738343800000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9043511344241920000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18050100000000000000000</t>
+  </si>
+  <si>
+    <t>27056700000000000000000</t>
+  </si>
+  <si>
+    <t>36063200000000000000000</t>
+  </si>
+  <si>
+    <t>45069800000000000000000</t>
+  </si>
+  <si>
+    <t>54076400000000000000000</t>
+  </si>
+  <si>
+    <t>1127020000000000000000</t>
+  </si>
+  <si>
+    <t>1314660000000000000000</t>
+  </si>
+  <si>
+    <t>1502290000000000000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1689930000000000000000</t>
+  </si>
+  <si>
+    <t>63083000000000000000000</t>
+  </si>
+  <si>
+    <t>72089500000000000000000</t>
+  </si>
+  <si>
+    <t>81096100000000000000000</t>
+  </si>
+  <si>
+    <t>123175000000000000000</t>
+  </si>
+  <si>
+    <t>46054900000000000000000</t>
+  </si>
+  <si>
+    <t>91988400000000000000000</t>
+  </si>
+  <si>
+    <t>137922000000000000000000</t>
+  </si>
+  <si>
+    <t>183856000000000000000000</t>
+  </si>
+  <si>
+    <t>229789000000000000000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>275723000000000000000000</t>
+  </si>
+  <si>
+    <t>321656000000000000000000</t>
+  </si>
+  <si>
+    <t>367590000000000000000000</t>
+  </si>
+  <si>
+    <t>413523000000000000000000</t>
+  </si>
+  <si>
+    <t>4232330000000000000000</t>
+  </si>
+  <si>
+    <t>156079000000000000000000</t>
+  </si>
+  <si>
+    <t>2484640000000000000000000</t>
+  </si>
+  <si>
+    <t>141539000000000000000000000</t>
+  </si>
+  <si>
+    <t>4965050000000000000000000</t>
+  </si>
+  <si>
+    <t>282923000000000000000000000</t>
+  </si>
+  <si>
+    <t>7445460000000000000000000</t>
+  </si>
+  <si>
+    <t>424306000000000000000000000</t>
+  </si>
+  <si>
+    <t>9925880000000000000000000</t>
+  </si>
+  <si>
+    <t>565690000000000000000000000</t>
+  </si>
+  <si>
+    <t>12406300000000000000000000</t>
+  </si>
+  <si>
+    <t>707073000000000000000000000</t>
+  </si>
+  <si>
+    <t>14886700000000000000000000</t>
+  </si>
+  <si>
+    <t>848457000000000000000000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17367100000000000000000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>989840000000000000000000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19847500000000000000000000</t>
+  </si>
+  <si>
+    <t>1131220000000000000000000000</t>
+  </si>
+  <si>
+    <t>1272610000000000000000000000</t>
+  </si>
+  <si>
+    <t>22327900000000000000000000</t>
   </si>
 </sst>
 </file>
@@ -2026,6 +2165,12 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="17" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="17" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2352,12 +2497,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="17" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="17" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2741,33 +2880,33 @@
     </row>
     <row r="2" spans="1:48" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8"/>
-      <c r="B2" s="68" t="s">
+      <c r="B2" s="70" t="s">
         <v>68</v>
       </c>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="69"/>
-      <c r="H2" s="69"/>
-      <c r="I2" s="69"/>
-      <c r="J2" s="69"/>
-      <c r="K2" s="69"/>
-      <c r="L2" s="69"/>
-      <c r="M2" s="69"/>
-      <c r="N2" s="69"/>
-      <c r="O2" s="69"/>
-      <c r="P2" s="69"/>
-      <c r="Q2" s="69"/>
-      <c r="R2" s="69"/>
-      <c r="S2" s="69"/>
-      <c r="T2" s="69"/>
-      <c r="U2" s="69"/>
-      <c r="V2" s="69"/>
-      <c r="W2" s="69"/>
-      <c r="X2" s="69"/>
-      <c r="Y2" s="69"/>
-      <c r="Z2" s="70"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="71"/>
+      <c r="I2" s="71"/>
+      <c r="J2" s="71"/>
+      <c r="K2" s="71"/>
+      <c r="L2" s="71"/>
+      <c r="M2" s="71"/>
+      <c r="N2" s="71"/>
+      <c r="O2" s="71"/>
+      <c r="P2" s="71"/>
+      <c r="Q2" s="71"/>
+      <c r="R2" s="71"/>
+      <c r="S2" s="71"/>
+      <c r="T2" s="71"/>
+      <c r="U2" s="71"/>
+      <c r="V2" s="71"/>
+      <c r="W2" s="71"/>
+      <c r="X2" s="71"/>
+      <c r="Y2" s="71"/>
+      <c r="Z2" s="72"/>
       <c r="AA2" s="8"/>
       <c r="AB2" s="8"/>
       <c r="AC2" s="8"/>
@@ -2793,31 +2932,31 @@
     </row>
     <row r="3" spans="1:48" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="8"/>
-      <c r="B3" s="71"/>
-      <c r="C3" s="72"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="72"/>
-      <c r="G3" s="72"/>
-      <c r="H3" s="72"/>
-      <c r="I3" s="72"/>
-      <c r="J3" s="72"/>
-      <c r="K3" s="72"/>
-      <c r="L3" s="72"/>
-      <c r="M3" s="72"/>
-      <c r="N3" s="72"/>
-      <c r="O3" s="72"/>
-      <c r="P3" s="72"/>
-      <c r="Q3" s="72"/>
-      <c r="R3" s="72"/>
-      <c r="S3" s="72"/>
-      <c r="T3" s="72"/>
-      <c r="U3" s="72"/>
-      <c r="V3" s="72"/>
-      <c r="W3" s="72"/>
-      <c r="X3" s="72"/>
-      <c r="Y3" s="72"/>
-      <c r="Z3" s="73"/>
+      <c r="B3" s="73"/>
+      <c r="C3" s="74"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="74"/>
+      <c r="H3" s="74"/>
+      <c r="I3" s="74"/>
+      <c r="J3" s="74"/>
+      <c r="K3" s="74"/>
+      <c r="L3" s="74"/>
+      <c r="M3" s="74"/>
+      <c r="N3" s="74"/>
+      <c r="O3" s="74"/>
+      <c r="P3" s="74"/>
+      <c r="Q3" s="74"/>
+      <c r="R3" s="74"/>
+      <c r="S3" s="74"/>
+      <c r="T3" s="74"/>
+      <c r="U3" s="74"/>
+      <c r="V3" s="74"/>
+      <c r="W3" s="74"/>
+      <c r="X3" s="74"/>
+      <c r="Y3" s="74"/>
+      <c r="Z3" s="75"/>
       <c r="AA3" s="8"/>
       <c r="AB3" s="8"/>
       <c r="AC3" s="8"/>
@@ -2843,31 +2982,31 @@
     </row>
     <row r="4" spans="1:48" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="8"/>
-      <c r="B4" s="74"/>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75"/>
-      <c r="K4" s="75"/>
-      <c r="L4" s="75"/>
-      <c r="M4" s="75"/>
-      <c r="N4" s="75"/>
-      <c r="O4" s="75"/>
-      <c r="P4" s="75"/>
-      <c r="Q4" s="75"/>
-      <c r="R4" s="75"/>
-      <c r="S4" s="75"/>
-      <c r="T4" s="75"/>
-      <c r="U4" s="75"/>
-      <c r="V4" s="75"/>
-      <c r="W4" s="75"/>
-      <c r="X4" s="75"/>
-      <c r="Y4" s="75"/>
-      <c r="Z4" s="76"/>
+      <c r="B4" s="76"/>
+      <c r="C4" s="77"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="77"/>
+      <c r="H4" s="77"/>
+      <c r="I4" s="77"/>
+      <c r="J4" s="77"/>
+      <c r="K4" s="77"/>
+      <c r="L4" s="77"/>
+      <c r="M4" s="77"/>
+      <c r="N4" s="77"/>
+      <c r="O4" s="77"/>
+      <c r="P4" s="77"/>
+      <c r="Q4" s="77"/>
+      <c r="R4" s="77"/>
+      <c r="S4" s="77"/>
+      <c r="T4" s="77"/>
+      <c r="U4" s="77"/>
+      <c r="V4" s="77"/>
+      <c r="W4" s="77"/>
+      <c r="X4" s="77"/>
+      <c r="Y4" s="77"/>
+      <c r="Z4" s="78"/>
       <c r="AA4" s="8"/>
       <c r="AB4" s="8"/>
       <c r="AC4" s="8"/>
@@ -2993,10 +3132,10 @@
     </row>
     <row r="7" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A7" s="8"/>
-      <c r="B7" s="116" t="s">
+      <c r="B7" s="118" t="s">
         <v>67</v>
       </c>
-      <c r="C7" s="117"/>
+      <c r="C7" s="119"/>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
@@ -3045,8 +3184,8 @@
     </row>
     <row r="8" spans="1:48" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="8"/>
-      <c r="B8" s="118"/>
-      <c r="C8" s="119"/>
+      <c r="B8" s="120"/>
+      <c r="C8" s="121"/>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
@@ -3155,27 +3294,27 @@
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
-      <c r="L10" s="104" t="s">
+      <c r="L10" s="106" t="s">
         <v>69</v>
       </c>
-      <c r="M10" s="105"/>
-      <c r="N10" s="98" t="s">
+      <c r="M10" s="107"/>
+      <c r="N10" s="100" t="s">
         <v>24</v>
       </c>
-      <c r="O10" s="99"/>
-      <c r="P10" s="77" t="s">
+      <c r="O10" s="101"/>
+      <c r="P10" s="79" t="s">
         <v>127</v>
       </c>
-      <c r="Q10" s="78"/>
-      <c r="R10" s="78"/>
-      <c r="S10" s="78"/>
-      <c r="T10" s="78"/>
-      <c r="U10" s="78"/>
-      <c r="V10" s="78"/>
-      <c r="W10" s="78"/>
-      <c r="X10" s="78"/>
-      <c r="Y10" s="78"/>
-      <c r="Z10" s="79"/>
+      <c r="Q10" s="80"/>
+      <c r="R10" s="80"/>
+      <c r="S10" s="80"/>
+      <c r="T10" s="80"/>
+      <c r="U10" s="80"/>
+      <c r="V10" s="80"/>
+      <c r="W10" s="80"/>
+      <c r="X10" s="80"/>
+      <c r="Y10" s="80"/>
+      <c r="Z10" s="81"/>
       <c r="AA10" s="8"/>
       <c r="AB10" s="8"/>
       <c r="AC10" s="8"/>
@@ -3211,21 +3350,21 @@
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
-      <c r="L11" s="106"/>
-      <c r="M11" s="107"/>
-      <c r="N11" s="100"/>
-      <c r="O11" s="101"/>
-      <c r="P11" s="80"/>
-      <c r="Q11" s="81"/>
-      <c r="R11" s="81"/>
-      <c r="S11" s="81"/>
-      <c r="T11" s="81"/>
-      <c r="U11" s="81"/>
-      <c r="V11" s="81"/>
-      <c r="W11" s="81"/>
-      <c r="X11" s="81"/>
-      <c r="Y11" s="81"/>
-      <c r="Z11" s="82"/>
+      <c r="L11" s="108"/>
+      <c r="M11" s="109"/>
+      <c r="N11" s="102"/>
+      <c r="O11" s="103"/>
+      <c r="P11" s="82"/>
+      <c r="Q11" s="83"/>
+      <c r="R11" s="83"/>
+      <c r="S11" s="83"/>
+      <c r="T11" s="83"/>
+      <c r="U11" s="83"/>
+      <c r="V11" s="83"/>
+      <c r="W11" s="83"/>
+      <c r="X11" s="83"/>
+      <c r="Y11" s="83"/>
+      <c r="Z11" s="84"/>
       <c r="AA11" s="8"/>
       <c r="AB11" s="8"/>
       <c r="AC11" s="8"/>
@@ -3261,21 +3400,21 @@
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
-      <c r="L12" s="106"/>
-      <c r="M12" s="107"/>
-      <c r="N12" s="100"/>
-      <c r="O12" s="101"/>
-      <c r="P12" s="80"/>
-      <c r="Q12" s="81"/>
-      <c r="R12" s="81"/>
-      <c r="S12" s="81"/>
-      <c r="T12" s="81"/>
-      <c r="U12" s="81"/>
-      <c r="V12" s="81"/>
-      <c r="W12" s="81"/>
-      <c r="X12" s="81"/>
-      <c r="Y12" s="81"/>
-      <c r="Z12" s="82"/>
+      <c r="L12" s="108"/>
+      <c r="M12" s="109"/>
+      <c r="N12" s="102"/>
+      <c r="O12" s="103"/>
+      <c r="P12" s="82"/>
+      <c r="Q12" s="83"/>
+      <c r="R12" s="83"/>
+      <c r="S12" s="83"/>
+      <c r="T12" s="83"/>
+      <c r="U12" s="83"/>
+      <c r="V12" s="83"/>
+      <c r="W12" s="83"/>
+      <c r="X12" s="83"/>
+      <c r="Y12" s="83"/>
+      <c r="Z12" s="84"/>
       <c r="AA12" s="8"/>
       <c r="AB12" s="8"/>
       <c r="AC12" s="8"/>
@@ -3303,33 +3442,33 @@
       <c r="A13" s="8"/>
       <c r="B13" s="28"/>
       <c r="C13" s="29"/>
-      <c r="D13" s="116" t="s">
+      <c r="D13" s="118" t="s">
         <v>69</v>
       </c>
-      <c r="E13" s="117"/>
+      <c r="E13" s="119"/>
       <c r="F13" s="30"/>
       <c r="G13" s="31"/>
-      <c r="H13" s="90" t="s">
+      <c r="H13" s="92" t="s">
         <v>71</v>
       </c>
-      <c r="I13" s="91"/>
+      <c r="I13" s="93"/>
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
-      <c r="L13" s="106"/>
-      <c r="M13" s="107"/>
-      <c r="N13" s="102"/>
-      <c r="O13" s="103"/>
-      <c r="P13" s="83"/>
-      <c r="Q13" s="84"/>
-      <c r="R13" s="84"/>
-      <c r="S13" s="84"/>
-      <c r="T13" s="84"/>
-      <c r="U13" s="84"/>
-      <c r="V13" s="84"/>
-      <c r="W13" s="84"/>
-      <c r="X13" s="84"/>
-      <c r="Y13" s="84"/>
-      <c r="Z13" s="85"/>
+      <c r="L13" s="108"/>
+      <c r="M13" s="109"/>
+      <c r="N13" s="104"/>
+      <c r="O13" s="105"/>
+      <c r="P13" s="85"/>
+      <c r="Q13" s="86"/>
+      <c r="R13" s="86"/>
+      <c r="S13" s="86"/>
+      <c r="T13" s="86"/>
+      <c r="U13" s="86"/>
+      <c r="V13" s="86"/>
+      <c r="W13" s="86"/>
+      <c r="X13" s="86"/>
+      <c r="Y13" s="86"/>
+      <c r="Z13" s="87"/>
       <c r="AA13" s="8"/>
       <c r="AB13" s="8"/>
       <c r="AC13" s="8"/>
@@ -3357,33 +3496,33 @@
       <c r="A14" s="8"/>
       <c r="B14" s="8"/>
       <c r="C14" s="32"/>
-      <c r="D14" s="118"/>
-      <c r="E14" s="119"/>
+      <c r="D14" s="120"/>
+      <c r="E14" s="121"/>
       <c r="F14" s="33"/>
       <c r="G14" s="8"/>
-      <c r="H14" s="92"/>
-      <c r="I14" s="93"/>
+      <c r="H14" s="94"/>
+      <c r="I14" s="95"/>
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
-      <c r="L14" s="106"/>
-      <c r="M14" s="107"/>
-      <c r="N14" s="98" t="s">
+      <c r="L14" s="108"/>
+      <c r="M14" s="109"/>
+      <c r="N14" s="100" t="s">
         <v>70</v>
       </c>
-      <c r="O14" s="99"/>
-      <c r="P14" s="77" t="s">
+      <c r="O14" s="101"/>
+      <c r="P14" s="79" t="s">
         <v>125</v>
       </c>
-      <c r="Q14" s="78"/>
-      <c r="R14" s="78"/>
-      <c r="S14" s="78"/>
-      <c r="T14" s="78"/>
-      <c r="U14" s="78"/>
-      <c r="V14" s="78"/>
-      <c r="W14" s="78"/>
-      <c r="X14" s="78"/>
-      <c r="Y14" s="78"/>
-      <c r="Z14" s="79"/>
+      <c r="Q14" s="80"/>
+      <c r="R14" s="80"/>
+      <c r="S14" s="80"/>
+      <c r="T14" s="80"/>
+      <c r="U14" s="80"/>
+      <c r="V14" s="80"/>
+      <c r="W14" s="80"/>
+      <c r="X14" s="80"/>
+      <c r="Y14" s="80"/>
+      <c r="Z14" s="81"/>
       <c r="AA14" s="8"/>
       <c r="AB14" s="8"/>
       <c r="AC14" s="8"/>
@@ -3419,21 +3558,21 @@
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
-      <c r="L15" s="106"/>
-      <c r="M15" s="107"/>
-      <c r="N15" s="100"/>
-      <c r="O15" s="101"/>
-      <c r="P15" s="80"/>
-      <c r="Q15" s="81"/>
-      <c r="R15" s="81"/>
-      <c r="S15" s="81"/>
-      <c r="T15" s="81"/>
-      <c r="U15" s="81"/>
-      <c r="V15" s="81"/>
-      <c r="W15" s="81"/>
-      <c r="X15" s="81"/>
-      <c r="Y15" s="81"/>
-      <c r="Z15" s="82"/>
+      <c r="L15" s="108"/>
+      <c r="M15" s="109"/>
+      <c r="N15" s="102"/>
+      <c r="O15" s="103"/>
+      <c r="P15" s="82"/>
+      <c r="Q15" s="83"/>
+      <c r="R15" s="83"/>
+      <c r="S15" s="83"/>
+      <c r="T15" s="83"/>
+      <c r="U15" s="83"/>
+      <c r="V15" s="83"/>
+      <c r="W15" s="83"/>
+      <c r="X15" s="83"/>
+      <c r="Y15" s="83"/>
+      <c r="Z15" s="84"/>
       <c r="AA15" s="8"/>
       <c r="AB15" s="8"/>
       <c r="AC15" s="8"/>
@@ -3469,21 +3608,21 @@
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
-      <c r="L16" s="106"/>
-      <c r="M16" s="107"/>
-      <c r="N16" s="100"/>
-      <c r="O16" s="101"/>
-      <c r="P16" s="80"/>
-      <c r="Q16" s="81"/>
-      <c r="R16" s="81"/>
-      <c r="S16" s="81"/>
-      <c r="T16" s="81"/>
-      <c r="U16" s="81"/>
-      <c r="V16" s="81"/>
-      <c r="W16" s="81"/>
-      <c r="X16" s="81"/>
-      <c r="Y16" s="81"/>
-      <c r="Z16" s="82"/>
+      <c r="L16" s="108"/>
+      <c r="M16" s="109"/>
+      <c r="N16" s="102"/>
+      <c r="O16" s="103"/>
+      <c r="P16" s="82"/>
+      <c r="Q16" s="83"/>
+      <c r="R16" s="83"/>
+      <c r="S16" s="83"/>
+      <c r="T16" s="83"/>
+      <c r="U16" s="83"/>
+      <c r="V16" s="83"/>
+      <c r="W16" s="83"/>
+      <c r="X16" s="83"/>
+      <c r="Y16" s="83"/>
+      <c r="Z16" s="84"/>
       <c r="AA16" s="8"/>
       <c r="AB16" s="8"/>
       <c r="AC16" s="8"/>
@@ -3515,27 +3654,27 @@
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="34"/>
-      <c r="H17" s="90" t="s">
+      <c r="H17" s="92" t="s">
         <v>70</v>
       </c>
-      <c r="I17" s="91"/>
+      <c r="I17" s="93"/>
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
-      <c r="L17" s="108"/>
-      <c r="M17" s="109"/>
-      <c r="N17" s="102"/>
-      <c r="O17" s="103"/>
-      <c r="P17" s="83"/>
-      <c r="Q17" s="84"/>
-      <c r="R17" s="84"/>
-      <c r="S17" s="84"/>
-      <c r="T17" s="84"/>
-      <c r="U17" s="84"/>
-      <c r="V17" s="84"/>
-      <c r="W17" s="84"/>
-      <c r="X17" s="84"/>
-      <c r="Y17" s="84"/>
-      <c r="Z17" s="85"/>
+      <c r="L17" s="110"/>
+      <c r="M17" s="111"/>
+      <c r="N17" s="104"/>
+      <c r="O17" s="105"/>
+      <c r="P17" s="85"/>
+      <c r="Q17" s="86"/>
+      <c r="R17" s="86"/>
+      <c r="S17" s="86"/>
+      <c r="T17" s="86"/>
+      <c r="U17" s="86"/>
+      <c r="V17" s="86"/>
+      <c r="W17" s="86"/>
+      <c r="X17" s="86"/>
+      <c r="Y17" s="86"/>
+      <c r="Z17" s="87"/>
       <c r="AA17" s="8"/>
       <c r="AB17" s="8"/>
       <c r="AC17" s="8"/>
@@ -3567,31 +3706,31 @@
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="35"/>
-      <c r="H18" s="92"/>
-      <c r="I18" s="93"/>
+      <c r="H18" s="94"/>
+      <c r="I18" s="95"/>
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
-      <c r="L18" s="110" t="s">
+      <c r="L18" s="112" t="s">
         <v>72</v>
       </c>
-      <c r="M18" s="111"/>
-      <c r="N18" s="128" t="s">
+      <c r="M18" s="113"/>
+      <c r="N18" s="130" t="s">
         <v>73</v>
       </c>
-      <c r="O18" s="129"/>
-      <c r="P18" s="77" t="s">
+      <c r="O18" s="131"/>
+      <c r="P18" s="79" t="s">
         <v>124</v>
       </c>
-      <c r="Q18" s="123"/>
-      <c r="R18" s="123"/>
-      <c r="S18" s="123"/>
-      <c r="T18" s="123"/>
-      <c r="U18" s="123"/>
-      <c r="V18" s="123"/>
-      <c r="W18" s="123"/>
-      <c r="X18" s="123"/>
-      <c r="Y18" s="123"/>
-      <c r="Z18" s="124"/>
+      <c r="Q18" s="125"/>
+      <c r="R18" s="125"/>
+      <c r="S18" s="125"/>
+      <c r="T18" s="125"/>
+      <c r="U18" s="125"/>
+      <c r="V18" s="125"/>
+      <c r="W18" s="125"/>
+      <c r="X18" s="125"/>
+      <c r="Y18" s="125"/>
+      <c r="Z18" s="126"/>
       <c r="AA18" s="8"/>
       <c r="AB18" s="8"/>
       <c r="AC18" s="8"/>
@@ -3627,21 +3766,21 @@
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
       <c r="K19" s="8"/>
-      <c r="L19" s="112"/>
-      <c r="M19" s="113"/>
-      <c r="N19" s="130"/>
-      <c r="O19" s="131"/>
-      <c r="P19" s="125"/>
-      <c r="Q19" s="126"/>
-      <c r="R19" s="126"/>
-      <c r="S19" s="126"/>
-      <c r="T19" s="126"/>
-      <c r="U19" s="126"/>
-      <c r="V19" s="126"/>
-      <c r="W19" s="126"/>
-      <c r="X19" s="126"/>
-      <c r="Y19" s="126"/>
-      <c r="Z19" s="127"/>
+      <c r="L19" s="114"/>
+      <c r="M19" s="115"/>
+      <c r="N19" s="132"/>
+      <c r="O19" s="133"/>
+      <c r="P19" s="127"/>
+      <c r="Q19" s="128"/>
+      <c r="R19" s="128"/>
+      <c r="S19" s="128"/>
+      <c r="T19" s="128"/>
+      <c r="U19" s="128"/>
+      <c r="V19" s="128"/>
+      <c r="W19" s="128"/>
+      <c r="X19" s="128"/>
+      <c r="Y19" s="128"/>
+      <c r="Z19" s="129"/>
       <c r="AA19" s="8"/>
       <c r="AB19" s="8"/>
       <c r="AC19" s="8"/>
@@ -3677,25 +3816,25 @@
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
-      <c r="L20" s="112"/>
-      <c r="M20" s="113"/>
-      <c r="N20" s="128" t="s">
+      <c r="L20" s="114"/>
+      <c r="M20" s="115"/>
+      <c r="N20" s="130" t="s">
         <v>74</v>
       </c>
-      <c r="O20" s="129"/>
-      <c r="P20" s="132" t="s">
+      <c r="O20" s="131"/>
+      <c r="P20" s="134" t="s">
         <v>123</v>
       </c>
-      <c r="Q20" s="123"/>
-      <c r="R20" s="123"/>
-      <c r="S20" s="123"/>
-      <c r="T20" s="123"/>
-      <c r="U20" s="123"/>
-      <c r="V20" s="123"/>
-      <c r="W20" s="123"/>
-      <c r="X20" s="123"/>
-      <c r="Y20" s="123"/>
-      <c r="Z20" s="124"/>
+      <c r="Q20" s="125"/>
+      <c r="R20" s="125"/>
+      <c r="S20" s="125"/>
+      <c r="T20" s="125"/>
+      <c r="U20" s="125"/>
+      <c r="V20" s="125"/>
+      <c r="W20" s="125"/>
+      <c r="X20" s="125"/>
+      <c r="Y20" s="125"/>
+      <c r="Z20" s="126"/>
       <c r="AA20" s="8"/>
       <c r="AB20" s="8"/>
       <c r="AC20" s="8"/>
@@ -3723,33 +3862,33 @@
       <c r="A21" s="8"/>
       <c r="B21" s="8"/>
       <c r="C21" s="29"/>
-      <c r="D21" s="86" t="s">
+      <c r="D21" s="88" t="s">
         <v>72</v>
       </c>
-      <c r="E21" s="87"/>
+      <c r="E21" s="89"/>
       <c r="F21" s="30"/>
       <c r="G21" s="31"/>
-      <c r="H21" s="94" t="s">
+      <c r="H21" s="96" t="s">
         <v>73</v>
       </c>
-      <c r="I21" s="95"/>
+      <c r="I21" s="97"/>
       <c r="J21" s="8"/>
       <c r="K21" s="8"/>
-      <c r="L21" s="112"/>
-      <c r="M21" s="113"/>
-      <c r="N21" s="130"/>
-      <c r="O21" s="131"/>
-      <c r="P21" s="125"/>
-      <c r="Q21" s="126"/>
-      <c r="R21" s="126"/>
-      <c r="S21" s="126"/>
-      <c r="T21" s="126"/>
-      <c r="U21" s="126"/>
-      <c r="V21" s="126"/>
-      <c r="W21" s="126"/>
-      <c r="X21" s="126"/>
-      <c r="Y21" s="126"/>
-      <c r="Z21" s="127"/>
+      <c r="L21" s="114"/>
+      <c r="M21" s="115"/>
+      <c r="N21" s="132"/>
+      <c r="O21" s="133"/>
+      <c r="P21" s="127"/>
+      <c r="Q21" s="128"/>
+      <c r="R21" s="128"/>
+      <c r="S21" s="128"/>
+      <c r="T21" s="128"/>
+      <c r="U21" s="128"/>
+      <c r="V21" s="128"/>
+      <c r="W21" s="128"/>
+      <c r="X21" s="128"/>
+      <c r="Y21" s="128"/>
+      <c r="Z21" s="129"/>
       <c r="AA21" s="8"/>
       <c r="AB21" s="8"/>
       <c r="AC21" s="8"/>
@@ -3777,33 +3916,33 @@
       <c r="A22" s="8"/>
       <c r="B22" s="8"/>
       <c r="C22" s="36"/>
-      <c r="D22" s="88"/>
-      <c r="E22" s="89"/>
+      <c r="D22" s="90"/>
+      <c r="E22" s="91"/>
       <c r="F22" s="33"/>
       <c r="G22" s="8"/>
-      <c r="H22" s="96"/>
-      <c r="I22" s="97"/>
+      <c r="H22" s="98"/>
+      <c r="I22" s="99"/>
       <c r="J22" s="8"/>
       <c r="K22" s="8"/>
-      <c r="L22" s="112"/>
-      <c r="M22" s="113"/>
-      <c r="N22" s="120" t="s">
+      <c r="L22" s="114"/>
+      <c r="M22" s="115"/>
+      <c r="N22" s="122" t="s">
         <v>75</v>
       </c>
-      <c r="O22" s="129"/>
-      <c r="P22" s="133" t="s">
+      <c r="O22" s="131"/>
+      <c r="P22" s="135" t="s">
         <v>122</v>
       </c>
-      <c r="Q22" s="78"/>
-      <c r="R22" s="78"/>
-      <c r="S22" s="78"/>
-      <c r="T22" s="78"/>
-      <c r="U22" s="78"/>
-      <c r="V22" s="78"/>
-      <c r="W22" s="78"/>
-      <c r="X22" s="78"/>
-      <c r="Y22" s="78"/>
-      <c r="Z22" s="79"/>
+      <c r="Q22" s="80"/>
+      <c r="R22" s="80"/>
+      <c r="S22" s="80"/>
+      <c r="T22" s="80"/>
+      <c r="U22" s="80"/>
+      <c r="V22" s="80"/>
+      <c r="W22" s="80"/>
+      <c r="X22" s="80"/>
+      <c r="Y22" s="80"/>
+      <c r="Z22" s="81"/>
       <c r="AA22" s="8"/>
       <c r="AB22" s="8"/>
       <c r="AC22" s="8"/>
@@ -3839,21 +3978,21 @@
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
       <c r="K23" s="8"/>
-      <c r="L23" s="112"/>
-      <c r="M23" s="113"/>
-      <c r="N23" s="121"/>
-      <c r="O23" s="134"/>
-      <c r="P23" s="80"/>
-      <c r="Q23" s="81"/>
-      <c r="R23" s="81"/>
-      <c r="S23" s="81"/>
-      <c r="T23" s="81"/>
-      <c r="U23" s="81"/>
-      <c r="V23" s="81"/>
-      <c r="W23" s="81"/>
-      <c r="X23" s="81"/>
-      <c r="Y23" s="81"/>
-      <c r="Z23" s="82"/>
+      <c r="L23" s="114"/>
+      <c r="M23" s="115"/>
+      <c r="N23" s="123"/>
+      <c r="O23" s="136"/>
+      <c r="P23" s="82"/>
+      <c r="Q23" s="83"/>
+      <c r="R23" s="83"/>
+      <c r="S23" s="83"/>
+      <c r="T23" s="83"/>
+      <c r="U23" s="83"/>
+      <c r="V23" s="83"/>
+      <c r="W23" s="83"/>
+      <c r="X23" s="83"/>
+      <c r="Y23" s="83"/>
+      <c r="Z23" s="84"/>
       <c r="AA23" s="8"/>
       <c r="AB23" s="8"/>
       <c r="AC23" s="8"/>
@@ -3889,21 +4028,21 @@
       <c r="I24" s="8"/>
       <c r="J24" s="8"/>
       <c r="K24" s="8"/>
-      <c r="L24" s="112"/>
-      <c r="M24" s="113"/>
-      <c r="N24" s="121"/>
-      <c r="O24" s="134"/>
-      <c r="P24" s="80"/>
-      <c r="Q24" s="81"/>
-      <c r="R24" s="81"/>
-      <c r="S24" s="81"/>
-      <c r="T24" s="81"/>
-      <c r="U24" s="81"/>
-      <c r="V24" s="81"/>
-      <c r="W24" s="81"/>
-      <c r="X24" s="81"/>
-      <c r="Y24" s="81"/>
-      <c r="Z24" s="82"/>
+      <c r="L24" s="114"/>
+      <c r="M24" s="115"/>
+      <c r="N24" s="123"/>
+      <c r="O24" s="136"/>
+      <c r="P24" s="82"/>
+      <c r="Q24" s="83"/>
+      <c r="R24" s="83"/>
+      <c r="S24" s="83"/>
+      <c r="T24" s="83"/>
+      <c r="U24" s="83"/>
+      <c r="V24" s="83"/>
+      <c r="W24" s="83"/>
+      <c r="X24" s="83"/>
+      <c r="Y24" s="83"/>
+      <c r="Z24" s="84"/>
       <c r="AA24" s="8"/>
       <c r="AB24" s="8"/>
       <c r="AC24" s="8"/>
@@ -3939,21 +4078,21 @@
       <c r="I25" s="8"/>
       <c r="J25" s="8"/>
       <c r="K25" s="8"/>
-      <c r="L25" s="112"/>
-      <c r="M25" s="113"/>
-      <c r="N25" s="122"/>
-      <c r="O25" s="131"/>
-      <c r="P25" s="83"/>
-      <c r="Q25" s="84"/>
-      <c r="R25" s="84"/>
-      <c r="S25" s="84"/>
-      <c r="T25" s="84"/>
-      <c r="U25" s="84"/>
-      <c r="V25" s="84"/>
-      <c r="W25" s="84"/>
-      <c r="X25" s="84"/>
-      <c r="Y25" s="84"/>
-      <c r="Z25" s="85"/>
+      <c r="L25" s="114"/>
+      <c r="M25" s="115"/>
+      <c r="N25" s="124"/>
+      <c r="O25" s="133"/>
+      <c r="P25" s="85"/>
+      <c r="Q25" s="86"/>
+      <c r="R25" s="86"/>
+      <c r="S25" s="86"/>
+      <c r="T25" s="86"/>
+      <c r="U25" s="86"/>
+      <c r="V25" s="86"/>
+      <c r="W25" s="86"/>
+      <c r="X25" s="86"/>
+      <c r="Y25" s="86"/>
+      <c r="Z25" s="87"/>
       <c r="AA25" s="8"/>
       <c r="AB25" s="8"/>
       <c r="AC25" s="8"/>
@@ -3985,31 +4124,31 @@
       <c r="E26" s="8"/>
       <c r="F26" s="28"/>
       <c r="G26" s="28"/>
-      <c r="H26" s="94" t="s">
+      <c r="H26" s="96" t="s">
         <v>74</v>
       </c>
-      <c r="I26" s="95"/>
+      <c r="I26" s="97"/>
       <c r="J26" s="8"/>
       <c r="K26" s="8"/>
-      <c r="L26" s="112"/>
-      <c r="M26" s="113"/>
-      <c r="N26" s="120" t="s">
+      <c r="L26" s="114"/>
+      <c r="M26" s="115"/>
+      <c r="N26" s="122" t="s">
         <v>76</v>
       </c>
-      <c r="O26" s="120"/>
-      <c r="P26" s="77" t="s">
+      <c r="O26" s="122"/>
+      <c r="P26" s="79" t="s">
         <v>131</v>
       </c>
-      <c r="Q26" s="78"/>
-      <c r="R26" s="78"/>
-      <c r="S26" s="78"/>
-      <c r="T26" s="78"/>
-      <c r="U26" s="78"/>
-      <c r="V26" s="78"/>
-      <c r="W26" s="78"/>
-      <c r="X26" s="78"/>
-      <c r="Y26" s="78"/>
-      <c r="Z26" s="79"/>
+      <c r="Q26" s="80"/>
+      <c r="R26" s="80"/>
+      <c r="S26" s="80"/>
+      <c r="T26" s="80"/>
+      <c r="U26" s="80"/>
+      <c r="V26" s="80"/>
+      <c r="W26" s="80"/>
+      <c r="X26" s="80"/>
+      <c r="Y26" s="80"/>
+      <c r="Z26" s="81"/>
       <c r="AA26" s="8"/>
       <c r="AB26" s="8"/>
       <c r="AC26" s="8"/>
@@ -4041,25 +4180,25 @@
       <c r="E27" s="8"/>
       <c r="F27" s="28"/>
       <c r="G27" s="36"/>
-      <c r="H27" s="96"/>
-      <c r="I27" s="97"/>
+      <c r="H27" s="98"/>
+      <c r="I27" s="99"/>
       <c r="J27" s="8"/>
       <c r="K27" s="8"/>
-      <c r="L27" s="112"/>
-      <c r="M27" s="113"/>
-      <c r="N27" s="121"/>
-      <c r="O27" s="121"/>
-      <c r="P27" s="80"/>
-      <c r="Q27" s="81"/>
-      <c r="R27" s="81"/>
-      <c r="S27" s="81"/>
-      <c r="T27" s="81"/>
-      <c r="U27" s="81"/>
-      <c r="V27" s="81"/>
-      <c r="W27" s="81"/>
-      <c r="X27" s="81"/>
-      <c r="Y27" s="81"/>
-      <c r="Z27" s="82"/>
+      <c r="L27" s="114"/>
+      <c r="M27" s="115"/>
+      <c r="N27" s="123"/>
+      <c r="O27" s="123"/>
+      <c r="P27" s="82"/>
+      <c r="Q27" s="83"/>
+      <c r="R27" s="83"/>
+      <c r="S27" s="83"/>
+      <c r="T27" s="83"/>
+      <c r="U27" s="83"/>
+      <c r="V27" s="83"/>
+      <c r="W27" s="83"/>
+      <c r="X27" s="83"/>
+      <c r="Y27" s="83"/>
+      <c r="Z27" s="84"/>
       <c r="AA27" s="8"/>
       <c r="AB27" s="8"/>
       <c r="AC27" s="8"/>
@@ -4095,21 +4234,21 @@
       <c r="I28" s="8"/>
       <c r="J28" s="8"/>
       <c r="K28" s="8"/>
-      <c r="L28" s="112"/>
-      <c r="M28" s="113"/>
-      <c r="N28" s="121"/>
-      <c r="O28" s="121"/>
-      <c r="P28" s="80"/>
-      <c r="Q28" s="81"/>
-      <c r="R28" s="81"/>
-      <c r="S28" s="81"/>
-      <c r="T28" s="81"/>
-      <c r="U28" s="81"/>
-      <c r="V28" s="81"/>
-      <c r="W28" s="81"/>
-      <c r="X28" s="81"/>
-      <c r="Y28" s="81"/>
-      <c r="Z28" s="82"/>
+      <c r="L28" s="114"/>
+      <c r="M28" s="115"/>
+      <c r="N28" s="123"/>
+      <c r="O28" s="123"/>
+      <c r="P28" s="82"/>
+      <c r="Q28" s="83"/>
+      <c r="R28" s="83"/>
+      <c r="S28" s="83"/>
+      <c r="T28" s="83"/>
+      <c r="U28" s="83"/>
+      <c r="V28" s="83"/>
+      <c r="W28" s="83"/>
+      <c r="X28" s="83"/>
+      <c r="Y28" s="83"/>
+      <c r="Z28" s="84"/>
       <c r="AA28" s="8"/>
       <c r="AB28" s="8"/>
       <c r="AC28" s="8"/>
@@ -4145,21 +4284,21 @@
       <c r="I29" s="8"/>
       <c r="J29" s="8"/>
       <c r="K29" s="8"/>
-      <c r="L29" s="112"/>
-      <c r="M29" s="113"/>
-      <c r="N29" s="122"/>
-      <c r="O29" s="122"/>
-      <c r="P29" s="83"/>
-      <c r="Q29" s="84"/>
-      <c r="R29" s="84"/>
-      <c r="S29" s="84"/>
-      <c r="T29" s="84"/>
-      <c r="U29" s="84"/>
-      <c r="V29" s="84"/>
-      <c r="W29" s="84"/>
-      <c r="X29" s="84"/>
-      <c r="Y29" s="84"/>
-      <c r="Z29" s="85"/>
+      <c r="L29" s="114"/>
+      <c r="M29" s="115"/>
+      <c r="N29" s="124"/>
+      <c r="O29" s="124"/>
+      <c r="P29" s="85"/>
+      <c r="Q29" s="86"/>
+      <c r="R29" s="86"/>
+      <c r="S29" s="86"/>
+      <c r="T29" s="86"/>
+      <c r="U29" s="86"/>
+      <c r="V29" s="86"/>
+      <c r="W29" s="86"/>
+      <c r="X29" s="86"/>
+      <c r="Y29" s="86"/>
+      <c r="Z29" s="87"/>
       <c r="AA29" s="8"/>
       <c r="AB29" s="8"/>
       <c r="AC29" s="8"/>
@@ -4195,25 +4334,25 @@
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
       <c r="K30" s="8"/>
-      <c r="L30" s="112"/>
-      <c r="M30" s="113"/>
-      <c r="N30" s="128" t="s">
+      <c r="L30" s="114"/>
+      <c r="M30" s="115"/>
+      <c r="N30" s="130" t="s">
         <v>77</v>
       </c>
-      <c r="O30" s="129"/>
-      <c r="P30" s="77" t="s">
+      <c r="O30" s="131"/>
+      <c r="P30" s="79" t="s">
         <v>121</v>
       </c>
-      <c r="Q30" s="123"/>
-      <c r="R30" s="123"/>
-      <c r="S30" s="123"/>
-      <c r="T30" s="123"/>
-      <c r="U30" s="123"/>
-      <c r="V30" s="123"/>
-      <c r="W30" s="123"/>
-      <c r="X30" s="123"/>
-      <c r="Y30" s="123"/>
-      <c r="Z30" s="124"/>
+      <c r="Q30" s="125"/>
+      <c r="R30" s="125"/>
+      <c r="S30" s="125"/>
+      <c r="T30" s="125"/>
+      <c r="U30" s="125"/>
+      <c r="V30" s="125"/>
+      <c r="W30" s="125"/>
+      <c r="X30" s="125"/>
+      <c r="Y30" s="125"/>
+      <c r="Z30" s="126"/>
       <c r="AA30" s="8"/>
       <c r="AB30" s="8"/>
       <c r="AC30" s="8"/>
@@ -4245,27 +4384,27 @@
       <c r="E31" s="8"/>
       <c r="F31" s="28"/>
       <c r="G31" s="28"/>
-      <c r="H31" s="94" t="s">
+      <c r="H31" s="96" t="s">
         <v>75</v>
       </c>
-      <c r="I31" s="95"/>
+      <c r="I31" s="97"/>
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
-      <c r="L31" s="114"/>
-      <c r="M31" s="115"/>
-      <c r="N31" s="130"/>
-      <c r="O31" s="131"/>
-      <c r="P31" s="125"/>
-      <c r="Q31" s="126"/>
-      <c r="R31" s="126"/>
-      <c r="S31" s="126"/>
-      <c r="T31" s="126"/>
-      <c r="U31" s="126"/>
-      <c r="V31" s="126"/>
-      <c r="W31" s="126"/>
-      <c r="X31" s="126"/>
-      <c r="Y31" s="126"/>
-      <c r="Z31" s="127"/>
+      <c r="L31" s="116"/>
+      <c r="M31" s="117"/>
+      <c r="N31" s="132"/>
+      <c r="O31" s="133"/>
+      <c r="P31" s="127"/>
+      <c r="Q31" s="128"/>
+      <c r="R31" s="128"/>
+      <c r="S31" s="128"/>
+      <c r="T31" s="128"/>
+      <c r="U31" s="128"/>
+      <c r="V31" s="128"/>
+      <c r="W31" s="128"/>
+      <c r="X31" s="128"/>
+      <c r="Y31" s="128"/>
+      <c r="Z31" s="129"/>
       <c r="AA31" s="8"/>
       <c r="AB31" s="8"/>
       <c r="AC31" s="8"/>
@@ -4297,8 +4436,8 @@
       <c r="E32" s="8"/>
       <c r="F32" s="28"/>
       <c r="G32" s="36"/>
-      <c r="H32" s="96"/>
-      <c r="I32" s="97"/>
+      <c r="H32" s="98"/>
+      <c r="I32" s="99"/>
       <c r="J32" s="8"/>
       <c r="K32" s="8"/>
       <c r="L32" s="8"/>
@@ -4497,10 +4636,10 @@
       <c r="E36" s="8"/>
       <c r="F36" s="28"/>
       <c r="G36" s="28"/>
-      <c r="H36" s="94" t="s">
+      <c r="H36" s="96" t="s">
         <v>76</v>
       </c>
-      <c r="I36" s="95"/>
+      <c r="I36" s="97"/>
       <c r="J36" s="8"/>
       <c r="K36" s="8"/>
       <c r="L36" s="8"/>
@@ -4549,8 +4688,8 @@
       <c r="E37" s="8"/>
       <c r="F37" s="28"/>
       <c r="G37" s="36"/>
-      <c r="H37" s="96"/>
-      <c r="I37" s="97"/>
+      <c r="H37" s="98"/>
+      <c r="I37" s="99"/>
       <c r="J37" s="8"/>
       <c r="K37" s="8"/>
       <c r="L37" s="8"/>
@@ -4749,10 +4888,10 @@
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="29"/>
-      <c r="H41" s="94" t="s">
+      <c r="H41" s="96" t="s">
         <v>77</v>
       </c>
-      <c r="I41" s="95"/>
+      <c r="I41" s="97"/>
       <c r="J41" s="8"/>
       <c r="K41" s="8"/>
       <c r="L41" s="8"/>
@@ -4801,8 +4940,8 @@
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="36"/>
-      <c r="H42" s="96"/>
-      <c r="I42" s="97"/>
+      <c r="H42" s="98"/>
+      <c r="I42" s="99"/>
       <c r="J42" s="19"/>
       <c r="K42" s="19"/>
       <c r="L42" s="19"/>
@@ -6482,140 +6621,140 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="137" t="s">
+      <c r="B1" s="139" t="s">
         <v>78</v>
       </c>
-      <c r="C1" s="146"/>
-      <c r="D1" s="137" t="s">
+      <c r="C1" s="148"/>
+      <c r="D1" s="139" t="s">
         <v>80</v>
       </c>
-      <c r="E1" s="149"/>
-      <c r="F1" s="150"/>
-      <c r="I1" s="137" t="s">
+      <c r="E1" s="151"/>
+      <c r="F1" s="152"/>
+      <c r="I1" s="139" t="s">
         <v>79</v>
       </c>
-      <c r="J1" s="138"/>
-      <c r="K1" s="137" t="s">
+      <c r="J1" s="140"/>
+      <c r="K1" s="139" t="s">
         <v>81</v>
       </c>
-      <c r="L1" s="141"/>
-      <c r="M1" s="142"/>
-      <c r="P1" s="154" t="s">
+      <c r="L1" s="143"/>
+      <c r="M1" s="144"/>
+      <c r="P1" s="156" t="s">
         <v>82</v>
       </c>
-      <c r="Q1" s="154"/>
-      <c r="R1" s="154" t="s">
+      <c r="Q1" s="156"/>
+      <c r="R1" s="156" t="s">
         <v>83</v>
       </c>
-      <c r="S1" s="154"/>
-      <c r="T1" s="154"/>
-      <c r="W1" s="154" t="s">
+      <c r="S1" s="156"/>
+      <c r="T1" s="156"/>
+      <c r="W1" s="156" t="s">
         <v>84</v>
       </c>
-      <c r="X1" s="154"/>
-      <c r="Y1" s="154" t="s">
+      <c r="X1" s="156"/>
+      <c r="Y1" s="156" t="s">
         <v>85</v>
       </c>
-      <c r="Z1" s="154"/>
-      <c r="AA1" s="154"/>
+      <c r="Z1" s="156"/>
+      <c r="AA1" s="156"/>
     </row>
     <row r="2" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="147"/>
-      <c r="C2" s="148"/>
-      <c r="D2" s="151"/>
-      <c r="E2" s="152"/>
-      <c r="F2" s="153"/>
-      <c r="I2" s="139"/>
-      <c r="J2" s="140"/>
-      <c r="K2" s="143"/>
-      <c r="L2" s="144"/>
-      <c r="M2" s="145"/>
-      <c r="P2" s="154"/>
-      <c r="Q2" s="154"/>
-      <c r="R2" s="154"/>
-      <c r="S2" s="154"/>
-      <c r="T2" s="154"/>
-      <c r="W2" s="154"/>
-      <c r="X2" s="154"/>
-      <c r="Y2" s="154"/>
-      <c r="Z2" s="154"/>
-      <c r="AA2" s="154"/>
+      <c r="B2" s="149"/>
+      <c r="C2" s="150"/>
+      <c r="D2" s="153"/>
+      <c r="E2" s="154"/>
+      <c r="F2" s="155"/>
+      <c r="I2" s="141"/>
+      <c r="J2" s="142"/>
+      <c r="K2" s="145"/>
+      <c r="L2" s="146"/>
+      <c r="M2" s="147"/>
+      <c r="P2" s="156"/>
+      <c r="Q2" s="156"/>
+      <c r="R2" s="156"/>
+      <c r="S2" s="156"/>
+      <c r="T2" s="156"/>
+      <c r="W2" s="156"/>
+      <c r="X2" s="156"/>
+      <c r="Y2" s="156"/>
+      <c r="Z2" s="156"/>
+      <c r="AA2" s="156"/>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="B3" s="136" t="s">
+      <c r="B3" s="138" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="136"/>
-      <c r="D3" s="136"/>
-      <c r="E3" s="136" t="s">
+      <c r="C3" s="138"/>
+      <c r="D3" s="138"/>
+      <c r="E3" s="138" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="136"/>
-      <c r="I3" s="136" t="s">
+      <c r="F3" s="138"/>
+      <c r="I3" s="138" t="s">
         <v>18</v>
       </c>
-      <c r="J3" s="136"/>
-      <c r="K3" s="136"/>
-      <c r="L3" s="136" t="s">
+      <c r="J3" s="138"/>
+      <c r="K3" s="138"/>
+      <c r="L3" s="138" t="s">
         <v>19</v>
       </c>
-      <c r="M3" s="136"/>
-      <c r="P3" s="136" t="s">
+      <c r="M3" s="138"/>
+      <c r="P3" s="138" t="s">
         <v>0</v>
       </c>
-      <c r="Q3" s="136"/>
-      <c r="R3" s="136"/>
-      <c r="S3" s="136" t="s">
+      <c r="Q3" s="138"/>
+      <c r="R3" s="138"/>
+      <c r="S3" s="138" t="s">
         <v>19</v>
       </c>
-      <c r="T3" s="136"/>
-      <c r="W3" s="136" t="s">
+      <c r="T3" s="138"/>
+      <c r="W3" s="138" t="s">
         <v>0</v>
       </c>
-      <c r="X3" s="136"/>
-      <c r="Y3" s="136"/>
-      <c r="Z3" s="136" t="s">
+      <c r="X3" s="138"/>
+      <c r="Y3" s="138"/>
+      <c r="Z3" s="138" t="s">
         <v>19</v>
       </c>
-      <c r="AA3" s="136"/>
+      <c r="AA3" s="138"/>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="B4" s="136" t="s">
+      <c r="B4" s="138" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="136"/>
-      <c r="D4" s="136"/>
-      <c r="E4" s="136" t="s">
+      <c r="C4" s="138"/>
+      <c r="D4" s="138"/>
+      <c r="E4" s="138" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="136"/>
-      <c r="I4" s="136" t="s">
+      <c r="F4" s="138"/>
+      <c r="I4" s="138" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="136"/>
-      <c r="K4" s="136"/>
-      <c r="L4" s="136" t="s">
+      <c r="J4" s="138"/>
+      <c r="K4" s="138"/>
+      <c r="L4" s="138" t="s">
         <v>20</v>
       </c>
-      <c r="M4" s="136"/>
-      <c r="P4" s="136" t="s">
+      <c r="M4" s="138"/>
+      <c r="P4" s="138" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="136"/>
-      <c r="R4" s="136"/>
-      <c r="S4" s="136" t="s">
+      <c r="Q4" s="138"/>
+      <c r="R4" s="138"/>
+      <c r="S4" s="138" t="s">
         <v>21</v>
       </c>
-      <c r="T4" s="136"/>
-      <c r="W4" s="136" t="s">
+      <c r="T4" s="138"/>
+      <c r="W4" s="138" t="s">
         <v>8</v>
       </c>
-      <c r="X4" s="136"/>
-      <c r="Y4" s="136"/>
-      <c r="Z4" s="136" t="s">
+      <c r="X4" s="138"/>
+      <c r="Y4" s="138"/>
+      <c r="Z4" s="138" t="s">
         <v>21</v>
       </c>
-      <c r="AA4" s="136"/>
+      <c r="AA4" s="138"/>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B5" s="10" t="s">
@@ -14480,10 +14619,10 @@
       </c>
     </row>
     <row r="106" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="B106" s="135" t="s">
+      <c r="B106" s="137" t="s">
         <v>14</v>
       </c>
-      <c r="C106" s="135"/>
+      <c r="C106" s="137"/>
       <c r="D106" s="5">
         <f>SUM(D6:D105)</f>
         <v>87316</v>
@@ -14494,10 +14633,10 @@
       <c r="F106" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="I106" s="135" t="s">
+      <c r="I106" s="137" t="s">
         <v>4</v>
       </c>
-      <c r="J106" s="135"/>
+      <c r="J106" s="137"/>
       <c r="K106" s="5">
         <f>SUM(K6:K105)</f>
         <v>360244</v>
@@ -14508,10 +14647,10 @@
       <c r="M106" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="P106" s="135" t="s">
+      <c r="P106" s="137" t="s">
         <v>4</v>
       </c>
-      <c r="Q106" s="135"/>
+      <c r="Q106" s="137"/>
       <c r="R106" s="5">
         <f>SUM(Q6:Q105)</f>
         <v>2195776.0000000005</v>
@@ -14522,10 +14661,10 @@
       <c r="T106" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="W106" s="135" t="s">
+      <c r="W106" s="137" t="s">
         <v>4</v>
       </c>
-      <c r="X106" s="135"/>
+      <c r="X106" s="137"/>
       <c r="Y106" s="5">
         <f>SUM(X6:X105)</f>
         <v>5760000</v>
@@ -14609,66 +14748,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C1" s="155" t="s">
+      <c r="C1" s="157" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="155"/>
-      <c r="E1" s="155"/>
-      <c r="F1" s="155"/>
-      <c r="G1" s="155"/>
-      <c r="H1" s="155"/>
-      <c r="I1" s="155"/>
+      <c r="D1" s="157"/>
+      <c r="E1" s="157"/>
+      <c r="F1" s="157"/>
+      <c r="G1" s="157"/>
+      <c r="H1" s="157"/>
+      <c r="I1" s="157"/>
     </row>
     <row r="2" spans="2:14" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C2" s="155"/>
-      <c r="D2" s="155"/>
-      <c r="E2" s="155"/>
-      <c r="F2" s="155"/>
-      <c r="G2" s="155"/>
-      <c r="H2" s="155"/>
-      <c r="I2" s="155"/>
+      <c r="C2" s="157"/>
+      <c r="D2" s="157"/>
+      <c r="E2" s="157"/>
+      <c r="F2" s="157"/>
+      <c r="G2" s="157"/>
+      <c r="H2" s="157"/>
+      <c r="I2" s="157"/>
     </row>
     <row r="3" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="20"/>
-      <c r="C3" s="168" t="s">
+      <c r="C3" s="170" t="s">
         <v>88</v>
       </c>
-      <c r="D3" s="168"/>
+      <c r="D3" s="170"/>
       <c r="E3" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="168" t="s">
+      <c r="F3" s="170" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="168"/>
-      <c r="H3" s="168"/>
-      <c r="I3" s="168"/>
-      <c r="K3" s="156" t="s">
+      <c r="G3" s="170"/>
+      <c r="H3" s="170"/>
+      <c r="I3" s="170"/>
+      <c r="K3" s="158" t="s">
         <v>146</v>
       </c>
-      <c r="L3" s="157"/>
-      <c r="M3" s="157"/>
-      <c r="N3" s="158"/>
+      <c r="L3" s="159"/>
+      <c r="M3" s="159"/>
+      <c r="N3" s="160"/>
     </row>
     <row r="4" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="42"/>
-      <c r="C4" s="136" t="s">
+      <c r="C4" s="138" t="s">
         <v>92</v>
       </c>
-      <c r="D4" s="136"/>
+      <c r="D4" s="138"/>
       <c r="E4" s="23" t="s">
         <v>145</v>
       </c>
-      <c r="F4" s="136" t="s">
+      <c r="F4" s="138" t="s">
         <v>26</v>
       </c>
-      <c r="G4" s="136"/>
-      <c r="H4" s="136"/>
-      <c r="I4" s="136"/>
-      <c r="K4" s="159"/>
-      <c r="L4" s="160"/>
-      <c r="M4" s="160"/>
-      <c r="N4" s="161"/>
+      <c r="G4" s="138"/>
+      <c r="H4" s="138"/>
+      <c r="I4" s="138"/>
+      <c r="K4" s="161"/>
+      <c r="L4" s="162"/>
+      <c r="M4" s="162"/>
+      <c r="N4" s="163"/>
     </row>
     <row r="5" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="25"/>
@@ -14693,12 +14832,12 @@
       <c r="I5" s="50" t="s">
         <v>98</v>
       </c>
-      <c r="K5" s="162" t="s">
+      <c r="K5" s="164" t="s">
         <v>91</v>
       </c>
-      <c r="L5" s="163"/>
-      <c r="M5" s="163"/>
-      <c r="N5" s="164"/>
+      <c r="L5" s="165"/>
+      <c r="M5" s="165"/>
+      <c r="N5" s="166"/>
     </row>
     <row r="6" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="4"/>
@@ -14729,10 +14868,10 @@
         <f t="shared" ref="I6:I37" si="3">ROUND(H6:H105,0)</f>
         <v>2</v>
       </c>
-      <c r="K6" s="165"/>
-      <c r="L6" s="166"/>
-      <c r="M6" s="166"/>
-      <c r="N6" s="167"/>
+      <c r="K6" s="167"/>
+      <c r="L6" s="168"/>
+      <c r="M6" s="168"/>
+      <c r="N6" s="169"/>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B7" s="4"/>
@@ -18023,7 +18162,7 @@
   <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="S14" sqref="S14:S15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -18090,34 +18229,34 @@
       <c r="C2" s="64">
         <v>1</v>
       </c>
-      <c r="D2" s="177">
+      <c r="D2" s="68">
         <v>50</v>
       </c>
-      <c r="E2" s="177">
+      <c r="E2" s="68">
         <v>60</v>
       </c>
-      <c r="F2" s="177">
+      <c r="F2" s="68">
         <v>70</v>
       </c>
-      <c r="G2" s="177">
+      <c r="G2" s="68">
         <v>80</v>
       </c>
-      <c r="H2" s="177">
+      <c r="H2" s="68">
         <v>90</v>
       </c>
-      <c r="I2" s="177">
+      <c r="I2" s="68">
         <v>100</v>
       </c>
-      <c r="J2" s="177">
+      <c r="J2" s="68">
         <v>110</v>
       </c>
-      <c r="K2" s="177">
+      <c r="K2" s="68">
         <v>120</v>
       </c>
-      <c r="L2" s="177">
+      <c r="L2" s="68">
         <v>130</v>
       </c>
-      <c r="M2" s="177">
+      <c r="M2" s="68">
         <v>140</v>
       </c>
       <c r="N2" s="63" t="b">
@@ -18134,34 +18273,34 @@
       <c r="C3" s="64">
         <v>0</v>
       </c>
-      <c r="D3" s="177">
+      <c r="D3" s="68">
         <v>200</v>
       </c>
-      <c r="E3" s="177">
+      <c r="E3" s="68">
         <v>230</v>
       </c>
-      <c r="F3" s="177">
+      <c r="F3" s="68">
         <v>260</v>
       </c>
-      <c r="G3" s="177">
+      <c r="G3" s="68">
         <v>290</v>
       </c>
-      <c r="H3" s="177">
+      <c r="H3" s="68">
         <v>320</v>
       </c>
-      <c r="I3" s="177">
+      <c r="I3" s="68">
         <v>350</v>
       </c>
-      <c r="J3" s="177">
+      <c r="J3" s="68">
         <v>380</v>
       </c>
-      <c r="K3" s="177">
+      <c r="K3" s="68">
         <v>410</v>
       </c>
-      <c r="L3" s="177">
+      <c r="L3" s="68">
         <v>440</v>
       </c>
-      <c r="M3" s="177">
+      <c r="M3" s="68">
         <v>470</v>
       </c>
       <c r="N3" s="63" t="b">
@@ -18178,35 +18317,35 @@
       <c r="C4" s="64">
         <v>0</v>
       </c>
-      <c r="D4" s="177">
+      <c r="D4" s="68">
         <v>800</v>
       </c>
-      <c r="E4" s="177">
-        <v>803</v>
-      </c>
-      <c r="F4" s="177">
-        <v>806</v>
-      </c>
-      <c r="G4" s="177">
-        <v>809</v>
-      </c>
-      <c r="H4" s="177">
-        <v>812</v>
-      </c>
-      <c r="I4" s="177">
-        <v>815</v>
-      </c>
-      <c r="J4" s="177">
-        <v>818</v>
-      </c>
-      <c r="K4" s="177">
-        <v>821</v>
-      </c>
-      <c r="L4" s="177">
-        <v>824</v>
-      </c>
-      <c r="M4" s="177">
-        <v>827</v>
+      <c r="E4" s="68">
+        <v>980</v>
+      </c>
+      <c r="F4" s="68">
+        <v>1160</v>
+      </c>
+      <c r="G4" s="68">
+        <v>1340</v>
+      </c>
+      <c r="H4" s="68">
+        <v>1520</v>
+      </c>
+      <c r="I4" s="68">
+        <v>1700</v>
+      </c>
+      <c r="J4" s="68">
+        <v>1880</v>
+      </c>
+      <c r="K4" s="68">
+        <v>2060</v>
+      </c>
+      <c r="L4" s="68">
+        <v>2240</v>
+      </c>
+      <c r="M4" s="68">
+        <v>2420</v>
       </c>
       <c r="N4" s="63" t="b">
         <v>0</v>
@@ -18222,35 +18361,35 @@
       <c r="C5" s="64">
         <v>0</v>
       </c>
-      <c r="D5" s="178">
-        <v>831</v>
-      </c>
-      <c r="E5" s="177">
-        <v>835</v>
-      </c>
-      <c r="F5" s="177">
-        <v>839</v>
-      </c>
-      <c r="G5" s="177">
-        <v>843</v>
-      </c>
-      <c r="H5" s="177">
-        <v>847</v>
-      </c>
-      <c r="I5" s="177">
-        <v>851</v>
-      </c>
-      <c r="J5" s="177">
-        <v>855</v>
-      </c>
-      <c r="K5" s="177">
-        <v>859</v>
-      </c>
-      <c r="L5" s="177">
-        <v>863</v>
-      </c>
-      <c r="M5" s="177">
-        <v>867</v>
+      <c r="D5" s="69">
+        <v>4040</v>
+      </c>
+      <c r="E5" s="68">
+        <v>5660</v>
+      </c>
+      <c r="F5" s="68">
+        <v>7280</v>
+      </c>
+      <c r="G5" s="68">
+        <v>8900</v>
+      </c>
+      <c r="H5" s="68">
+        <v>10520</v>
+      </c>
+      <c r="I5" s="68">
+        <v>12140</v>
+      </c>
+      <c r="J5" s="68">
+        <v>13760</v>
+      </c>
+      <c r="K5" s="68">
+        <v>15380</v>
+      </c>
+      <c r="L5" s="68">
+        <v>17000</v>
+      </c>
+      <c r="M5" s="68">
+        <v>18620</v>
       </c>
       <c r="N5" s="63" t="b">
         <v>0</v>
@@ -18266,35 +18405,35 @@
       <c r="C6" s="64">
         <v>0</v>
       </c>
-      <c r="D6" s="178">
+      <c r="D6" s="69">
         <v>27500</v>
       </c>
-      <c r="E6" s="177">
-        <v>27505</v>
-      </c>
-      <c r="F6" s="177">
-        <v>27508</v>
-      </c>
-      <c r="G6" s="177">
-        <v>27511</v>
-      </c>
-      <c r="H6" s="177">
-        <v>27514</v>
-      </c>
-      <c r="I6" s="177">
-        <v>27517</v>
-      </c>
-      <c r="J6" s="177">
-        <v>27520</v>
-      </c>
-      <c r="K6" s="177">
-        <v>27523</v>
-      </c>
-      <c r="L6" s="177">
-        <v>27526</v>
-      </c>
-      <c r="M6" s="177">
-        <v>27529</v>
+      <c r="E6" s="68">
+        <v>46940</v>
+      </c>
+      <c r="F6" s="68">
+        <v>66380</v>
+      </c>
+      <c r="G6" s="68">
+        <v>85820</v>
+      </c>
+      <c r="H6" s="68">
+        <v>105260</v>
+      </c>
+      <c r="I6" s="68">
+        <v>124700</v>
+      </c>
+      <c r="J6" s="68">
+        <v>144140</v>
+      </c>
+      <c r="K6" s="68">
+        <v>163580</v>
+      </c>
+      <c r="L6" s="68">
+        <v>183020</v>
+      </c>
+      <c r="M6" s="68">
+        <v>202460</v>
       </c>
       <c r="N6" s="63" t="b">
         <v>0</v>
@@ -18310,35 +18449,35 @@
       <c r="C7" s="64">
         <v>0</v>
       </c>
-      <c r="D7" s="178">
+      <c r="D7" s="69">
         <v>225100</v>
       </c>
-      <c r="E7" s="177">
-        <v>225106</v>
-      </c>
-      <c r="F7" s="177">
-        <v>225109</v>
-      </c>
-      <c r="G7" s="177">
-        <v>225112</v>
-      </c>
-      <c r="H7" s="177">
-        <v>225115</v>
-      </c>
-      <c r="I7" s="177">
-        <v>225118</v>
-      </c>
-      <c r="J7" s="177">
-        <v>225121</v>
-      </c>
-      <c r="K7" s="177">
-        <v>225124</v>
-      </c>
-      <c r="L7" s="177">
-        <v>225127</v>
-      </c>
-      <c r="M7" s="177">
-        <v>225130</v>
+      <c r="E7" s="68">
+        <v>516700</v>
+      </c>
+      <c r="F7" s="68">
+        <v>808300</v>
+      </c>
+      <c r="G7" s="68">
+        <v>1099900</v>
+      </c>
+      <c r="H7" s="68">
+        <v>1391500</v>
+      </c>
+      <c r="I7" s="68">
+        <v>1683100</v>
+      </c>
+      <c r="J7" s="68">
+        <v>1974700</v>
+      </c>
+      <c r="K7" s="68">
+        <v>2266300</v>
+      </c>
+      <c r="L7" s="68">
+        <v>2557900</v>
+      </c>
+      <c r="M7" s="68">
+        <v>2849500</v>
       </c>
       <c r="N7" s="63" t="b">
         <v>0</v>
@@ -18354,35 +18493,35 @@
       <c r="C8" s="64">
         <v>0</v>
       </c>
-      <c r="D8" s="178">
+      <c r="D8" s="69">
         <v>2321300</v>
       </c>
-      <c r="E8" s="177">
-        <v>2321307</v>
-      </c>
-      <c r="F8" s="177">
-        <v>2321310</v>
-      </c>
-      <c r="G8" s="177">
-        <v>2321313</v>
-      </c>
-      <c r="H8" s="177">
-        <v>2321316</v>
-      </c>
-      <c r="I8" s="177">
-        <v>2321319</v>
-      </c>
-      <c r="J8" s="177">
-        <v>2321322</v>
-      </c>
-      <c r="K8" s="177">
-        <v>2321325</v>
-      </c>
-      <c r="L8" s="177">
-        <v>2321328</v>
-      </c>
-      <c r="M8" s="177">
-        <v>2321331</v>
+      <c r="E8" s="68">
+        <v>7570100</v>
+      </c>
+      <c r="F8" s="68">
+        <v>12818900</v>
+      </c>
+      <c r="G8" s="68">
+        <v>18067700</v>
+      </c>
+      <c r="H8" s="68">
+        <v>23316500</v>
+      </c>
+      <c r="I8" s="68">
+        <v>28565300</v>
+      </c>
+      <c r="J8" s="68">
+        <v>33814100</v>
+      </c>
+      <c r="K8" s="68">
+        <v>39062900</v>
+      </c>
+      <c r="L8" s="68">
+        <v>44311700</v>
+      </c>
+      <c r="M8" s="68">
+        <v>49560500</v>
       </c>
       <c r="N8" s="63" t="b">
         <v>0</v>
@@ -18398,35 +18537,35 @@
       <c r="C9" s="64">
         <v>0</v>
       </c>
-      <c r="D9" s="178">
+      <c r="D9" s="69">
         <v>28966900</v>
       </c>
-      <c r="E9" s="177">
-        <v>28966908</v>
-      </c>
-      <c r="F9" s="177">
-        <v>28966911</v>
-      </c>
-      <c r="G9" s="177">
-        <v>28966914</v>
-      </c>
-      <c r="H9" s="177">
-        <v>28966917</v>
-      </c>
-      <c r="I9" s="177">
-        <v>28966920</v>
-      </c>
-      <c r="J9" s="177">
-        <v>28966923</v>
-      </c>
-      <c r="K9" s="177">
-        <v>28966926</v>
-      </c>
-      <c r="L9" s="177">
-        <v>28966929</v>
-      </c>
-      <c r="M9" s="177">
-        <v>28966932</v>
+      <c r="E9" s="68">
+        <v>139191700</v>
+      </c>
+      <c r="F9" s="68">
+        <v>249416500</v>
+      </c>
+      <c r="G9" s="68">
+        <v>359641300</v>
+      </c>
+      <c r="H9" s="68">
+        <v>469866100</v>
+      </c>
+      <c r="I9" s="68">
+        <v>580090900</v>
+      </c>
+      <c r="J9" s="68">
+        <v>690315700</v>
+      </c>
+      <c r="K9" s="68">
+        <v>800540500</v>
+      </c>
+      <c r="L9" s="68">
+        <v>910765300</v>
+      </c>
+      <c r="M9" s="68">
+        <v>1020990100</v>
       </c>
       <c r="N9" s="63" t="b">
         <v>0</v>
@@ -18442,35 +18581,35 @@
       <c r="C10" s="67">
         <v>0</v>
       </c>
-      <c r="D10" s="178">
+      <c r="D10" s="69">
         <v>422798300</v>
       </c>
-      <c r="E10" s="177">
-        <v>422798309</v>
-      </c>
-      <c r="F10" s="177">
-        <v>422798312</v>
-      </c>
-      <c r="G10" s="177">
-        <v>422798315</v>
-      </c>
-      <c r="H10" s="177">
-        <v>422798318</v>
-      </c>
-      <c r="I10" s="177">
-        <v>422798321</v>
-      </c>
-      <c r="J10" s="177">
-        <v>422798324</v>
-      </c>
-      <c r="K10" s="177">
-        <v>422798327</v>
-      </c>
-      <c r="L10" s="177">
-        <v>422798330</v>
-      </c>
-      <c r="M10" s="177">
-        <v>422798333</v>
+      <c r="E10" s="68">
+        <v>3068193500</v>
+      </c>
+      <c r="F10" s="68">
+        <v>5713588700</v>
+      </c>
+      <c r="G10" s="68">
+        <v>8358983900</v>
+      </c>
+      <c r="H10" s="68">
+        <v>11004379100</v>
+      </c>
+      <c r="I10" s="68">
+        <v>13649774300</v>
+      </c>
+      <c r="J10" s="68">
+        <v>16295169500</v>
+      </c>
+      <c r="K10" s="68">
+        <v>18940564700</v>
+      </c>
+      <c r="L10" s="68">
+        <v>21585959900</v>
+      </c>
+      <c r="M10" s="68">
+        <v>24231355100</v>
       </c>
       <c r="N10" s="63" t="b">
         <v>0</v>
@@ -18486,35 +18625,35 @@
       <c r="C11" s="67">
         <v>0</v>
       </c>
-      <c r="D11" s="178">
+      <c r="D11" s="69">
         <v>7048293100</v>
       </c>
-      <c r="E11" s="177">
-        <v>7048293110</v>
-      </c>
-      <c r="F11" s="177">
-        <v>7048293113</v>
-      </c>
-      <c r="G11" s="177">
-        <v>7048293116</v>
-      </c>
-      <c r="H11" s="177">
-        <v>7048293119</v>
-      </c>
-      <c r="I11" s="177">
-        <v>7048293122</v>
-      </c>
-      <c r="J11" s="177">
-        <v>7048293125</v>
-      </c>
-      <c r="K11" s="177">
-        <v>7048293128</v>
-      </c>
-      <c r="L11" s="177">
-        <v>7048293131</v>
-      </c>
-      <c r="M11" s="177">
-        <v>7048293134</v>
+      <c r="E11" s="68">
+        <v>78473963500</v>
+      </c>
+      <c r="F11" s="68">
+        <v>149899633900</v>
+      </c>
+      <c r="G11" s="68">
+        <v>221325304300</v>
+      </c>
+      <c r="H11" s="68">
+        <v>292750974700</v>
+      </c>
+      <c r="I11" s="68">
+        <v>364176645100</v>
+      </c>
+      <c r="J11" s="68">
+        <v>435602315500</v>
+      </c>
+      <c r="K11" s="68">
+        <v>507027985900</v>
+      </c>
+      <c r="L11" s="68">
+        <v>578453656300</v>
+      </c>
+      <c r="M11" s="68">
+        <v>649879326700</v>
       </c>
       <c r="N11" s="63" t="b">
         <v>0</v>
@@ -18530,35 +18669,35 @@
       <c r="C12" s="67">
         <v>0</v>
       </c>
-      <c r="D12" s="178">
+      <c r="D12" s="69">
         <v>131947819700</v>
       </c>
-      <c r="E12" s="177">
-        <v>131947819711</v>
-      </c>
-      <c r="F12" s="177">
-        <v>131947819714</v>
-      </c>
-      <c r="G12" s="177">
-        <v>131947819717</v>
-      </c>
-      <c r="H12" s="177">
-        <v>131947819720</v>
-      </c>
-      <c r="I12" s="177">
-        <v>131947819723</v>
-      </c>
-      <c r="J12" s="177">
-        <v>131947819726</v>
-      </c>
-      <c r="K12" s="177">
-        <v>131947819729</v>
-      </c>
-      <c r="L12" s="177">
-        <v>131947819732</v>
-      </c>
-      <c r="M12" s="177">
-        <v>131947819735</v>
+      <c r="E12" s="68">
+        <v>2274717931700</v>
+      </c>
+      <c r="F12" s="68">
+        <v>4417488043700</v>
+      </c>
+      <c r="G12" s="68">
+        <v>6560258155700</v>
+      </c>
+      <c r="H12" s="68">
+        <v>8703028267700</v>
+      </c>
+      <c r="I12" s="68">
+        <v>10845798379700</v>
+      </c>
+      <c r="J12" s="68">
+        <v>12988568491700</v>
+      </c>
+      <c r="K12" s="68">
+        <v>15131338603700</v>
+      </c>
+      <c r="L12" s="68">
+        <v>17274108715700</v>
+      </c>
+      <c r="M12" s="68">
+        <v>19416878827700</v>
       </c>
       <c r="N12" s="63" t="b">
         <v>0</v>
@@ -18574,35 +18713,35 @@
       <c r="C13" s="67">
         <v>0</v>
       </c>
-      <c r="D13" s="178">
+      <c r="D13" s="69">
         <v>2738771542900</v>
       </c>
-      <c r="E13" s="177">
-        <v>2738771542912</v>
-      </c>
-      <c r="F13" s="177">
-        <v>2738771542915</v>
-      </c>
-      <c r="G13" s="177">
-        <v>2738771542918</v>
-      </c>
-      <c r="H13" s="177">
-        <v>2738771542921</v>
-      </c>
-      <c r="I13" s="177">
-        <v>2738771542924</v>
-      </c>
-      <c r="J13" s="177">
-        <v>2738771542927</v>
-      </c>
-      <c r="K13" s="177">
-        <v>2738771542930</v>
-      </c>
-      <c r="L13" s="177">
-        <v>2738771542933</v>
-      </c>
-      <c r="M13" s="177">
-        <v>2738771542936</v>
+      <c r="E13" s="68">
+        <v>73450185238900</v>
+      </c>
+      <c r="F13" s="68">
+        <v>144161598934900</v>
+      </c>
+      <c r="G13" s="68">
+        <v>214873012630900</v>
+      </c>
+      <c r="H13" s="68">
+        <v>285584426326900</v>
+      </c>
+      <c r="I13" s="68">
+        <v>356295840022900</v>
+      </c>
+      <c r="J13" s="68">
+        <v>427007253718900</v>
+      </c>
+      <c r="K13" s="68">
+        <v>497718667414900</v>
+      </c>
+      <c r="L13" s="68">
+        <v>568430081110900</v>
+      </c>
+      <c r="M13" s="68">
+        <v>639141494806900</v>
       </c>
       <c r="N13" s="63" t="b">
         <v>0</v>
@@ -18618,35 +18757,35 @@
       <c r="C14" s="67">
         <v>0</v>
       </c>
-      <c r="D14" s="178">
+      <c r="D14" s="69">
         <v>62399688866300</v>
       </c>
-      <c r="E14" s="177">
-        <v>62399688866313</v>
-      </c>
-      <c r="F14" s="177">
-        <v>62399688866316</v>
-      </c>
-      <c r="G14" s="177">
-        <v>62399688866319</v>
-      </c>
-      <c r="H14" s="177">
-        <v>62399688866322</v>
-      </c>
-      <c r="I14" s="177">
-        <v>62399688866325</v>
-      </c>
-      <c r="J14" s="177">
-        <v>62399688866328</v>
-      </c>
-      <c r="K14" s="177">
-        <v>62399688866331</v>
-      </c>
-      <c r="L14" s="177">
-        <v>62399688866334</v>
-      </c>
-      <c r="M14" s="177">
-        <v>62399688866337</v>
+      <c r="E14" s="68">
+        <v>2608010581922300</v>
+      </c>
+      <c r="F14" s="68">
+        <v>5153621474978300</v>
+      </c>
+      <c r="G14" s="68">
+        <v>7699232368034300</v>
+      </c>
+      <c r="H14" s="68">
+        <v>1.02448432610903E+16</v>
+      </c>
+      <c r="I14" s="68">
+        <v>1.27904541541463E+16</v>
+      </c>
+      <c r="J14" s="68">
+        <v>1.53360650472023E+16</v>
+      </c>
+      <c r="K14" s="68">
+        <v>1.78816759402583E+16</v>
+      </c>
+      <c r="L14" s="68">
+        <v>2.04272868333143E+16</v>
+      </c>
+      <c r="M14" s="68">
+        <v>2.29728977263703E+16</v>
       </c>
       <c r="N14" s="63" t="b">
         <v>0</v>
@@ -18662,35 +18801,35 @@
       <c r="C15" s="67">
         <v>0</v>
       </c>
-      <c r="D15" s="178">
+      <c r="D15" s="69">
         <v>1547853022245100</v>
       </c>
-      <c r="E15" s="177">
-        <v>1547853022245114</v>
-      </c>
-      <c r="F15" s="177">
-        <v>1547853022245117</v>
-      </c>
-      <c r="G15" s="177">
-        <v>1547853022245120</v>
-      </c>
-      <c r="H15" s="177">
-        <v>1547853022245123</v>
-      </c>
-      <c r="I15" s="177">
-        <v>1547853022245126</v>
-      </c>
-      <c r="J15" s="177">
-        <v>1547853022245129</v>
-      </c>
-      <c r="K15" s="177">
-        <v>1547853022245132</v>
-      </c>
-      <c r="L15" s="177">
-        <v>1547853022245135</v>
-      </c>
-      <c r="M15" s="177">
-        <v>1547853022245138</v>
+      <c r="E15" s="68">
+        <v>1.008266778514291E+17</v>
+      </c>
+      <c r="F15" s="68">
+        <v>2.0010550268061312E+17</v>
+      </c>
+      <c r="G15" s="68">
+        <v>2.9938432750979712E+17</v>
+      </c>
+      <c r="H15" s="68">
+        <v>3.9866315233898112E+17</v>
+      </c>
+      <c r="I15" s="68">
+        <v>4.9794197716816512E+17</v>
+      </c>
+      <c r="J15" s="68">
+        <v>5.9722080199734912E+17</v>
+      </c>
+      <c r="K15" s="68">
+        <v>6.9649962682653312E+17</v>
+      </c>
+      <c r="L15" s="68">
+        <v>7.9577845165571712E+17</v>
+      </c>
+      <c r="M15" s="68">
+        <v>8.9505727648490112E+17</v>
       </c>
       <c r="N15" s="63" t="b">
         <v>0</v>
@@ -18706,35 +18845,35 @@
       <c r="C16" s="67">
         <v>0</v>
       </c>
-      <c r="D16" s="178">
+      <c r="D16" s="69">
         <v>4.1518154446327696E+16</v>
       </c>
-      <c r="E16" s="177">
-        <v>4.1518154446327712E+16</v>
-      </c>
-      <c r="F16" s="177">
-        <v>4.1518154446327712E+16</v>
-      </c>
-      <c r="G16" s="177">
-        <v>4.1518154446327712E+16</v>
-      </c>
-      <c r="H16" s="177">
-        <v>4.1518154446327712E+16</v>
-      </c>
-      <c r="I16" s="177">
-        <v>4.1518154446327712E+16</v>
-      </c>
-      <c r="J16" s="177">
-        <v>4.1518154446327712E+16</v>
-      </c>
-      <c r="K16" s="177">
-        <v>4.1518154446327712E+16</v>
-      </c>
-      <c r="L16" s="177">
-        <v>4.1518154446327712E+16</v>
-      </c>
-      <c r="M16" s="177">
-        <v>4.1518154446327712E+16</v>
+      <c r="E16" s="68">
+        <v>4.2112287972720558E+18</v>
+      </c>
+      <c r="F16" s="68">
+        <v>8.3809394400977838E+18</v>
+      </c>
+      <c r="G16" s="68">
+        <v>1.2550650082923512E+19</v>
+      </c>
+      <c r="H16" s="68">
+        <v>1.672036072574924E+19</v>
+      </c>
+      <c r="I16" s="68">
+        <v>2.0890071368574968E+19</v>
+      </c>
+      <c r="J16" s="68">
+        <v>2.5059782011400696E+19</v>
+      </c>
+      <c r="K16" s="68">
+        <v>2.9229492654226424E+19</v>
+      </c>
+      <c r="L16" s="68">
+        <v>3.3399203297052152E+19</v>
+      </c>
+      <c r="M16" s="68">
+        <v>3.756891393987788E+19</v>
       </c>
       <c r="N16" s="63" t="b">
         <v>0</v>
@@ -18750,35 +18889,35 @@
       <c r="C17" s="67">
         <v>0</v>
       </c>
-      <c r="D17" s="178">
+      <c r="D17" s="69">
         <v>1.197287312545943E+18</v>
       </c>
-      <c r="E17" s="177">
-        <v>1.197287312545943E+18</v>
-      </c>
-      <c r="F17" s="177">
-        <v>1.197287312545943E+18</v>
-      </c>
-      <c r="G17" s="177">
-        <v>1.197287312545943E+18</v>
-      </c>
-      <c r="H17" s="177">
-        <v>1.197287312545943E+18</v>
-      </c>
-      <c r="I17" s="177">
-        <v>1.197287312545943E+18</v>
-      </c>
-      <c r="J17" s="177">
-        <v>1.197287312545943E+18</v>
-      </c>
-      <c r="K17" s="177">
-        <v>1.197287312545943E+18</v>
-      </c>
-      <c r="L17" s="177">
-        <v>1.197287312545943E+18</v>
-      </c>
-      <c r="M17" s="177">
-        <v>1.197287312545943E+18</v>
+      <c r="E17" s="68">
+        <v>1.8883426623970371E+20</v>
+      </c>
+      <c r="F17" s="68">
+        <v>3.7647124516686148E+20</v>
+      </c>
+      <c r="G17" s="68">
+        <v>5.6410822409401926E+20</v>
+      </c>
+      <c r="H17" s="68">
+        <v>7.5174520302117703E+20</v>
+      </c>
+      <c r="I17" s="68">
+        <v>9.393821819483348E+20</v>
+      </c>
+      <c r="J17" s="68" t="s">
+        <v>215</v>
+      </c>
+      <c r="K17" s="68" t="s">
+        <v>216</v>
+      </c>
+      <c r="L17" s="68" t="s">
+        <v>217</v>
+      </c>
+      <c r="M17" s="68" t="s">
+        <v>218</v>
       </c>
       <c r="N17" s="63" t="b">
         <v>0</v>
@@ -18794,35 +18933,35 @@
       <c r="C18" s="67">
         <v>0</v>
       </c>
-      <c r="D18" s="178">
-        <v>3.6936355738343793E+19</v>
-      </c>
-      <c r="E18" s="177">
-        <v>3.6936355738343793E+19</v>
-      </c>
-      <c r="F18" s="177">
-        <v>3.6936355738343793E+19</v>
-      </c>
-      <c r="G18" s="177">
-        <v>3.6936355738343793E+19</v>
-      </c>
-      <c r="H18" s="177">
-        <v>3.6936355738343793E+19</v>
-      </c>
-      <c r="I18" s="177">
-        <v>3.6936355738343793E+19</v>
-      </c>
-      <c r="J18" s="177">
-        <v>3.6936355738343793E+19</v>
-      </c>
-      <c r="K18" s="177">
-        <v>3.6936355738343793E+19</v>
-      </c>
-      <c r="L18" s="177">
-        <v>3.6936355738343793E+19</v>
-      </c>
-      <c r="M18" s="177">
-        <v>3.6936355738343793E+19</v>
+      <c r="D18" s="69" t="s">
+        <v>208</v>
+      </c>
+      <c r="E18" s="68" t="s">
+        <v>209</v>
+      </c>
+      <c r="F18" s="68" t="s">
+        <v>210</v>
+      </c>
+      <c r="G18" s="68" t="s">
+        <v>211</v>
+      </c>
+      <c r="H18" s="68" t="s">
+        <v>212</v>
+      </c>
+      <c r="I18" s="68" t="s">
+        <v>213</v>
+      </c>
+      <c r="J18" s="68" t="s">
+        <v>214</v>
+      </c>
+      <c r="K18" s="68" t="s">
+        <v>219</v>
+      </c>
+      <c r="L18" s="68" t="s">
+        <v>220</v>
+      </c>
+      <c r="M18" s="68" t="s">
+        <v>221</v>
       </c>
       <c r="N18" s="63" t="b">
         <v>0</v>
@@ -18838,35 +18977,35 @@
       <c r="C19" s="67">
         <v>0</v>
       </c>
-      <c r="D19" s="178">
-        <v>1.213751488214001E+21</v>
-      </c>
-      <c r="E19" s="177">
-        <v>1.213751488214001E+21</v>
-      </c>
-      <c r="F19" s="177">
-        <v>1.213751488214001E+21</v>
-      </c>
-      <c r="G19" s="177">
-        <v>1.213751488214001E+21</v>
-      </c>
-      <c r="H19" s="177">
-        <v>1.213751488214001E+21</v>
-      </c>
-      <c r="I19" s="177">
-        <v>1.213751488214001E+21</v>
-      </c>
-      <c r="J19" s="177">
-        <v>1.213751488214001E+21</v>
-      </c>
-      <c r="K19" s="177">
-        <v>1.213751488214001E+21</v>
-      </c>
-      <c r="L19" s="177">
-        <v>1.213751488214001E+21</v>
-      </c>
-      <c r="M19" s="177">
-        <v>1.213751488214001E+21</v>
+      <c r="D19" s="69" t="s">
+        <v>222</v>
+      </c>
+      <c r="E19" s="68" t="s">
+        <v>223</v>
+      </c>
+      <c r="F19" s="68" t="s">
+        <v>224</v>
+      </c>
+      <c r="G19" s="68" t="s">
+        <v>225</v>
+      </c>
+      <c r="H19" s="68" t="s">
+        <v>226</v>
+      </c>
+      <c r="I19" s="68" t="s">
+        <v>227</v>
+      </c>
+      <c r="J19" s="68" t="s">
+        <v>228</v>
+      </c>
+      <c r="K19" s="68" t="s">
+        <v>229</v>
+      </c>
+      <c r="L19" s="68" t="s">
+        <v>230</v>
+      </c>
+      <c r="M19" s="68" t="s">
+        <v>231</v>
       </c>
       <c r="N19" s="63" t="b">
         <v>0</v>
@@ -18882,35 +19021,35 @@
       <c r="C20" s="67">
         <v>0</v>
       </c>
-      <c r="D20" s="178">
-        <v>4.2323260162233959E+22</v>
-      </c>
-      <c r="E20" s="177">
-        <v>4.2323260162233959E+22</v>
-      </c>
-      <c r="F20" s="177">
-        <v>4.2323260162233959E+22</v>
-      </c>
-      <c r="G20" s="177">
-        <v>4.2323260162233959E+22</v>
-      </c>
-      <c r="H20" s="177">
-        <v>4.2323260162233959E+22</v>
-      </c>
-      <c r="I20" s="177">
-        <v>4.2323260162233959E+22</v>
-      </c>
-      <c r="J20" s="177">
-        <v>4.2323260162233959E+22</v>
-      </c>
-      <c r="K20" s="177">
-        <v>4.2323260162233959E+22</v>
-      </c>
-      <c r="L20" s="177">
-        <v>4.2323260162233959E+22</v>
-      </c>
-      <c r="M20" s="177">
-        <v>4.2323260162233959E+22</v>
+      <c r="D20" s="69" t="s">
+        <v>232</v>
+      </c>
+      <c r="E20" s="68" t="s">
+        <v>234</v>
+      </c>
+      <c r="F20" s="68" t="s">
+        <v>236</v>
+      </c>
+      <c r="G20" s="68" t="s">
+        <v>238</v>
+      </c>
+      <c r="H20" s="68" t="s">
+        <v>240</v>
+      </c>
+      <c r="I20" s="68" t="s">
+        <v>242</v>
+      </c>
+      <c r="J20" s="68" t="s">
+        <v>244</v>
+      </c>
+      <c r="K20" s="68" t="s">
+        <v>246</v>
+      </c>
+      <c r="L20" s="68" t="s">
+        <v>248</v>
+      </c>
+      <c r="M20" s="68" t="s">
+        <v>251</v>
       </c>
       <c r="N20" s="63" t="b">
         <v>0</v>
@@ -18926,35 +19065,35 @@
       <c r="C21" s="67">
         <v>0</v>
       </c>
-      <c r="D21" s="178">
-        <v>1.5607895361992899E+24</v>
-      </c>
-      <c r="E21" s="177">
-        <v>1.5607895361992899E+24</v>
-      </c>
-      <c r="F21" s="177">
-        <v>1.5607895361992899E+24</v>
-      </c>
-      <c r="G21" s="177">
-        <v>1.5607895361992899E+24</v>
-      </c>
-      <c r="H21" s="177">
-        <v>1.5607895361992899E+24</v>
-      </c>
-      <c r="I21" s="177">
-        <v>1.5607895361992899E+24</v>
-      </c>
-      <c r="J21" s="177">
-        <v>1.5607895361992899E+24</v>
-      </c>
-      <c r="K21" s="177">
-        <v>1.5607895361992899E+24</v>
-      </c>
-      <c r="L21" s="177">
-        <v>1.5607895361992899E+24</v>
-      </c>
-      <c r="M21" s="177">
-        <v>1.5607895361992899E+24</v>
+      <c r="D21" s="69" t="s">
+        <v>233</v>
+      </c>
+      <c r="E21" s="68" t="s">
+        <v>235</v>
+      </c>
+      <c r="F21" s="68" t="s">
+        <v>237</v>
+      </c>
+      <c r="G21" s="68" t="s">
+        <v>239</v>
+      </c>
+      <c r="H21" s="68" t="s">
+        <v>241</v>
+      </c>
+      <c r="I21" s="68" t="s">
+        <v>243</v>
+      </c>
+      <c r="J21" s="68" t="s">
+        <v>245</v>
+      </c>
+      <c r="K21" s="68" t="s">
+        <v>247</v>
+      </c>
+      <c r="L21" s="68" t="s">
+        <v>249</v>
+      </c>
+      <c r="M21" s="68" t="s">
+        <v>250</v>
       </c>
       <c r="N21" s="63" t="b">
         <v>0</v>
@@ -18981,38 +19120,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" s="169" t="s">
+      <c r="A1" s="171" t="s">
         <v>183</v>
       </c>
-      <c r="B1" s="169"/>
-      <c r="C1" s="169"/>
-      <c r="D1" s="169"/>
-      <c r="E1" s="169"/>
-      <c r="F1" s="169"/>
-      <c r="G1" s="169"/>
-      <c r="H1" s="169"/>
-      <c r="I1" s="169"/>
-      <c r="J1" s="169"/>
-      <c r="K1" s="169"/>
-      <c r="L1" s="169"/>
-      <c r="M1" s="169"/>
-      <c r="N1" s="169"/>
+      <c r="B1" s="171"/>
+      <c r="C1" s="171"/>
+      <c r="D1" s="171"/>
+      <c r="E1" s="171"/>
+      <c r="F1" s="171"/>
+      <c r="G1" s="171"/>
+      <c r="H1" s="171"/>
+      <c r="I1" s="171"/>
+      <c r="J1" s="171"/>
+      <c r="K1" s="171"/>
+      <c r="L1" s="171"/>
+      <c r="M1" s="171"/>
+      <c r="N1" s="171"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="170"/>
-      <c r="B2" s="170"/>
-      <c r="C2" s="170"/>
-      <c r="D2" s="170"/>
-      <c r="E2" s="170"/>
-      <c r="F2" s="170"/>
-      <c r="G2" s="170"/>
-      <c r="H2" s="170"/>
-      <c r="I2" s="170"/>
-      <c r="J2" s="170"/>
-      <c r="K2" s="170"/>
-      <c r="L2" s="170"/>
-      <c r="M2" s="170"/>
-      <c r="N2" s="170"/>
+      <c r="A2" s="172"/>
+      <c r="B2" s="172"/>
+      <c r="C2" s="172"/>
+      <c r="D2" s="172"/>
+      <c r="E2" s="172"/>
+      <c r="F2" s="172"/>
+      <c r="G2" s="172"/>
+      <c r="H2" s="172"/>
+      <c r="I2" s="172"/>
+      <c r="J2" s="172"/>
+      <c r="K2" s="172"/>
+      <c r="L2" s="172"/>
+      <c r="M2" s="172"/>
+      <c r="N2" s="172"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="38" t="s">
@@ -19181,39 +19320,39 @@
       </c>
       <c r="E6" s="65">
         <f>POWER((3+0.2*(weaponData!D4:M4-25)),2)</f>
-        <v>25153.960000000006</v>
+        <v>37636</v>
       </c>
       <c r="F6" s="65">
         <f>POWER((3+0.2*(weaponData!E4:O4-25)),2)</f>
-        <v>25344.640000000007</v>
+        <v>52900</v>
       </c>
       <c r="G6" s="65">
         <f>POWER((3+0.2*(weaponData!F4:P4-25)),2)</f>
-        <v>25536.040000000005</v>
+        <v>70756</v>
       </c>
       <c r="H6" s="65">
         <f>POWER((3+0.2*(weaponData!G4:Q4-25)),2)</f>
-        <v>25728.160000000003</v>
+        <v>91204</v>
       </c>
       <c r="I6" s="65">
         <f>POWER((3+0.2*(weaponData!H4:R4-25)),2)</f>
-        <v>25921</v>
+        <v>114244</v>
       </c>
       <c r="J6" s="65">
         <f>POWER((3+0.2*(weaponData!I4:S4-25)),2)</f>
-        <v>26114.560000000009</v>
+        <v>139876</v>
       </c>
       <c r="K6" s="65">
         <f>POWER((3+0.2*(weaponData!J4:T4-25)),2)</f>
-        <v>26308.840000000004</v>
+        <v>168100</v>
       </c>
       <c r="L6" s="65">
         <f>POWER((3+0.2*(weaponData!K4:U4-25)),2)</f>
-        <v>26503.840000000004</v>
+        <v>198916</v>
       </c>
       <c r="M6" s="65">
         <f>POWER((3+0.2*(weaponData!L4:V4-25)),2)</f>
-        <v>26699.56</v>
+        <v>232324</v>
       </c>
       <c r="N6" s="65">
         <f>POWER((3+0.2*(weaponData!M4:W4-25)),2)</f>
@@ -19235,39 +19374,39 @@
       </c>
       <c r="E7" s="65">
         <f>POWER((3+0.2*(weaponData!D5:M5-25)),2)</f>
-        <v>27225</v>
+        <v>1276900</v>
       </c>
       <c r="F7" s="65">
         <f>POWER((3+0.2*(weaponData!E5:O5-25)),2)</f>
-        <v>27489.640000000003</v>
+        <v>2114116</v>
       </c>
       <c r="G7" s="65">
         <f>POWER((3+0.2*(weaponData!F5:P5-25)),2)</f>
-        <v>27755.560000000009</v>
+        <v>3161284</v>
       </c>
       <c r="H7" s="65">
         <f>POWER((3+0.2*(weaponData!G5:Q5-25)),2)</f>
-        <v>28022.760000000002</v>
+        <v>4418404</v>
       </c>
       <c r="I7" s="65">
         <f>POWER((3+0.2*(weaponData!H5:R5-25)),2)</f>
-        <v>28291.240000000005</v>
+        <v>5885476</v>
       </c>
       <c r="J7" s="65">
         <f>POWER((3+0.2*(weaponData!I5:S5-25)),2)</f>
-        <v>28561</v>
+        <v>7562500</v>
       </c>
       <c r="K7" s="65">
         <f>POWER((3+0.2*(weaponData!J5:T5-25)),2)</f>
-        <v>28832.040000000005</v>
+        <v>9449476</v>
       </c>
       <c r="L7" s="65">
         <f>POWER((3+0.2*(weaponData!K5:U5-25)),2)</f>
-        <v>29104.360000000008</v>
+        <v>11546404</v>
       </c>
       <c r="M7" s="65">
         <f>POWER((3+0.2*(weaponData!L5:V5-25)),2)</f>
-        <v>29377.960000000003</v>
+        <v>13853284</v>
       </c>
       <c r="N7" s="65">
         <f>POWER((3+0.2*(weaponData!M5:W5-25)),2)</f>
@@ -19289,39 +19428,39 @@
       </c>
       <c r="E8" s="65">
         <f>POWER((3+0.2*(weaponData!D6:M6-25)),2)</f>
-        <v>30239001</v>
+        <v>88096996</v>
       </c>
       <c r="F8" s="65">
         <f>POWER((3+0.2*(weaponData!E6:O6-25)),2)</f>
-        <v>30245600.160000004</v>
+        <v>176199076</v>
       </c>
       <c r="G8" s="65">
         <f>POWER((3+0.2*(weaponData!F6:P6-25)),2)</f>
-        <v>30252200.040000007</v>
+        <v>294534244</v>
       </c>
       <c r="H8" s="65">
         <f>POWER((3+0.2*(weaponData!G6:Q6-25)),2)</f>
-        <v>30258800.640000001</v>
+        <v>443102500</v>
       </c>
       <c r="I8" s="65">
         <f>POWER((3+0.2*(weaponData!H6:R6-25)),2)</f>
-        <v>30265401.960000005</v>
+        <v>621903844</v>
       </c>
       <c r="J8" s="65">
         <f>POWER((3+0.2*(weaponData!I6:S6-25)),2)</f>
-        <v>30272004</v>
+        <v>830938276</v>
       </c>
       <c r="K8" s="65">
         <f>POWER((3+0.2*(weaponData!J6:T6-25)),2)</f>
-        <v>30278606.760000005</v>
+        <v>1070205796</v>
       </c>
       <c r="L8" s="65">
         <f>POWER((3+0.2*(weaponData!K6:U6-25)),2)</f>
-        <v>30285210.24000001</v>
+        <v>1339706404</v>
       </c>
       <c r="M8" s="65">
         <f>POWER((3+0.2*(weaponData!L6:V6-25)),2)</f>
-        <v>30291814.440000001</v>
+        <v>1639440100</v>
       </c>
       <c r="N8" s="65">
         <f>POWER((3+0.2*(weaponData!M6:W6-25)),2)</f>
@@ -19343,39 +19482,39 @@
       </c>
       <c r="E9" s="65">
         <f>POWER((3+0.2*(weaponData!D7:M7-25)),2)</f>
-        <v>2026728368.6400003</v>
+        <v>10678742244</v>
       </c>
       <c r="F9" s="65">
         <f>POWER((3+0.2*(weaponData!E7:O7-25)),2)</f>
-        <v>2026782392.0400002</v>
+        <v>26133308964</v>
       </c>
       <c r="G9" s="65">
         <f>POWER((3+0.2*(weaponData!F7:P7-25)),2)</f>
-        <v>2026836416.1600001</v>
+        <v>48390320484</v>
       </c>
       <c r="H9" s="65">
         <f>POWER((3+0.2*(weaponData!G7:Q7-25)),2)</f>
-        <v>2026890441</v>
+        <v>77449776804</v>
       </c>
       <c r="I9" s="65">
         <f>POWER((3+0.2*(weaponData!H7:R7-25)),2)</f>
-        <v>2026944466.5600004</v>
+        <v>113311677924</v>
       </c>
       <c r="J9" s="65">
         <f>POWER((3+0.2*(weaponData!I7:S7-25)),2)</f>
-        <v>2026998492.8400004</v>
+        <v>155976023844</v>
       </c>
       <c r="K9" s="65">
         <f>POWER((3+0.2*(weaponData!J7:T7-25)),2)</f>
-        <v>2027052519.8400002</v>
+        <v>205442814564</v>
       </c>
       <c r="L9" s="65">
         <f>POWER((3+0.2*(weaponData!K7:U7-25)),2)</f>
-        <v>2027106547.5600002</v>
+        <v>261712050084</v>
       </c>
       <c r="M9" s="65">
         <f>POWER((3+0.2*(weaponData!L7:V7-25)),2)</f>
-        <v>2027160576</v>
+        <v>324783730404</v>
       </c>
       <c r="N9" s="65">
         <f>POWER((3+0.2*(weaponData!M7:W7-25)),2)</f>
@@ -19397,39 +19536,39 @@
       </c>
       <c r="E10" s="65">
         <f>POWER((3+0.2*(weaponData!D8:M8-25)),2)</f>
-        <v>215536790488.36002</v>
+        <v>2292250504324</v>
       </c>
       <c r="F10" s="65">
         <f>POWER((3+0.2*(weaponData!E8:O8-25)),2)</f>
-        <v>215537347600</v>
+        <v>6572957633284</v>
       </c>
       <c r="G10" s="65">
         <f>POWER((3+0.2*(weaponData!F8:P8-25)),2)</f>
-        <v>215537904712.36005</v>
+        <v>13057656877444</v>
       </c>
       <c r="H10" s="65">
         <f>POWER((3+0.2*(weaponData!G8:Q8-25)),2)</f>
-        <v>215538461825.44</v>
+        <v>21746348236804</v>
       </c>
       <c r="I10" s="65">
         <f>POWER((3+0.2*(weaponData!H8:R8-25)),2)</f>
-        <v>215539018939.24005</v>
+        <v>32639031711364</v>
       </c>
       <c r="J10" s="65">
         <f>POWER((3+0.2*(weaponData!I8:S8-25)),2)</f>
-        <v>215539576053.76001</v>
+        <v>45735707301124</v>
       </c>
       <c r="K10" s="65">
         <f>POWER((3+0.2*(weaponData!J8:T8-25)),2)</f>
-        <v>215540133169</v>
+        <v>61036375006084</v>
       </c>
       <c r="L10" s="65">
         <f>POWER((3+0.2*(weaponData!K8:U8-25)),2)</f>
-        <v>215540690284.96002</v>
+        <v>78541034826244</v>
       </c>
       <c r="M10" s="65">
         <f>POWER((3+0.2*(weaponData!L8:V8-25)),2)</f>
-        <v>215541247401.64001</v>
+        <v>98249686761604</v>
       </c>
       <c r="N10" s="65">
         <f>POWER((3+0.2*(weaponData!M8:W8-25)),2)</f>
@@ -19451,39 +19590,39 @@
       </c>
       <c r="E11" s="65">
         <f>POWER((3+0.2*(weaponData!D9:M9-25)),2)</f>
-        <v>33563247189696.168</v>
+        <v>774973062602244</v>
       </c>
       <c r="F11" s="65">
         <f>POWER((3+0.2*(weaponData!E9:O9-25)),2)</f>
-        <v>33563254141752.043</v>
+        <v>2488343419356804</v>
       </c>
       <c r="G11" s="65">
         <f>POWER((3+0.2*(weaponData!F9:P9-25)),2)</f>
-        <v>33563261093808.648</v>
+        <v>5173674298914564</v>
       </c>
       <c r="H11" s="65">
         <f>POWER((3+0.2*(weaponData!G9:Q9-25)),2)</f>
-        <v>33563268045865.965</v>
+        <v>8830965701275524</v>
       </c>
       <c r="I11" s="65">
         <f>POWER((3+0.2*(weaponData!H9:R9-25)),2)</f>
-        <v>33563274997924</v>
+        <v>1.3460217626439684E+16</v>
       </c>
       <c r="J11" s="65">
         <f>POWER((3+0.2*(weaponData!I9:S9-25)),2)</f>
-        <v>33563281949982.766</v>
+        <v>1.9061430074407044E+16</v>
       </c>
       <c r="K11" s="65">
         <f>POWER((3+0.2*(weaponData!J9:T9-25)),2)</f>
-        <v>33563288902042.242</v>
+        <v>2.5634603045177604E+16</v>
       </c>
       <c r="L11" s="65">
         <f>POWER((3+0.2*(weaponData!K9:U9-25)),2)</f>
-        <v>33563295854102.449</v>
+        <v>3.3179736538751364E+16</v>
       </c>
       <c r="M11" s="65">
         <f>POWER((3+0.2*(weaponData!L9:V9-25)),2)</f>
-        <v>33563302806163.363</v>
+        <v>4.169683055512832E+16</v>
       </c>
       <c r="N11" s="65">
         <f>POWER((3+0.2*(weaponData!M9:W9-25)),2)</f>
@@ -19526,11 +19665,11 @@
       <c r="A14" s="41"/>
       <c r="B14" s="41"/>
       <c r="C14" s="41"/>
-      <c r="D14" s="171" t="s">
+      <c r="D14" s="173" t="s">
         <v>184</v>
       </c>
-      <c r="E14" s="171"/>
-      <c r="F14" s="171"/>
+      <c r="E14" s="173"/>
+      <c r="F14" s="173"/>
       <c r="G14" s="41"/>
       <c r="H14" s="41"/>
       <c r="I14" s="41"/>
@@ -19590,23 +19729,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C1" s="155" t="s">
+      <c r="C1" s="157" t="s">
         <v>63</v>
       </c>
-      <c r="D1" s="155"/>
-      <c r="E1" s="155"/>
-      <c r="F1" s="155"/>
-      <c r="G1" s="155"/>
+      <c r="D1" s="157"/>
+      <c r="E1" s="157"/>
+      <c r="F1" s="157"/>
+      <c r="G1" s="157"/>
       <c r="I1" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="2" spans="3:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C2" s="155"/>
-      <c r="D2" s="155"/>
-      <c r="E2" s="155"/>
-      <c r="F2" s="155"/>
-      <c r="G2" s="155"/>
+      <c r="C2" s="157"/>
+      <c r="D2" s="157"/>
+      <c r="E2" s="157"/>
+      <c r="F2" s="157"/>
+      <c r="G2" s="157"/>
       <c r="I2" t="s">
         <v>101</v>
       </c>
@@ -19647,7 +19786,7 @@
       </c>
     </row>
     <row r="4" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C4" s="174" t="s">
+      <c r="C4" s="176" t="s">
         <v>32</v>
       </c>
       <c r="D4" s="13" t="s">
@@ -19682,7 +19821,7 @@
       </c>
     </row>
     <row r="5" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C5" s="175"/>
+      <c r="C5" s="177"/>
       <c r="D5" s="13" t="s">
         <v>34</v>
       </c>
@@ -19715,7 +19854,7 @@
       </c>
     </row>
     <row r="6" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C6" s="175"/>
+      <c r="C6" s="177"/>
       <c r="D6" s="13" t="s">
         <v>35</v>
       </c>
@@ -19748,7 +19887,7 @@
       </c>
     </row>
     <row r="7" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C7" s="175"/>
+      <c r="C7" s="177"/>
       <c r="D7" s="13" t="s">
         <v>36</v>
       </c>
@@ -19781,7 +19920,7 @@
       </c>
     </row>
     <row r="8" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C8" s="175"/>
+      <c r="C8" s="177"/>
       <c r="D8" s="13" t="s">
         <v>37</v>
       </c>
@@ -19814,7 +19953,7 @@
       </c>
     </row>
     <row r="9" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C9" s="175"/>
+      <c r="C9" s="177"/>
       <c r="D9" s="13" t="s">
         <v>38</v>
       </c>
@@ -19847,7 +19986,7 @@
       </c>
     </row>
     <row r="10" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="175"/>
+      <c r="C10" s="177"/>
       <c r="D10" s="13" t="s">
         <v>39</v>
       </c>
@@ -19880,7 +20019,7 @@
       </c>
     </row>
     <row r="11" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C11" s="175"/>
+      <c r="C11" s="177"/>
       <c r="D11" s="13" t="s">
         <v>40</v>
       </c>
@@ -19913,7 +20052,7 @@
       </c>
     </row>
     <row r="12" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C12" s="172" t="s">
+      <c r="C12" s="174" t="s">
         <v>42</v>
       </c>
       <c r="D12" s="14" t="s">
@@ -19948,7 +20087,7 @@
       </c>
     </row>
     <row r="13" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C13" s="173"/>
+      <c r="C13" s="175"/>
       <c r="D13" s="14" t="s">
         <v>44</v>
       </c>
@@ -19981,7 +20120,7 @@
       </c>
     </row>
     <row r="14" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C14" s="173"/>
+      <c r="C14" s="175"/>
       <c r="D14" s="14" t="s">
         <v>45</v>
       </c>
@@ -20014,7 +20153,7 @@
       </c>
     </row>
     <row r="15" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C15" s="173"/>
+      <c r="C15" s="175"/>
       <c r="D15" s="14" t="s">
         <v>46</v>
       </c>
@@ -20047,7 +20186,7 @@
       </c>
     </row>
     <row r="16" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C16" s="173"/>
+      <c r="C16" s="175"/>
       <c r="D16" s="14" t="s">
         <v>47</v>
       </c>
@@ -20080,7 +20219,7 @@
       </c>
     </row>
     <row r="17" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C17" s="173"/>
+      <c r="C17" s="175"/>
       <c r="D17" s="14" t="s">
         <v>48</v>
       </c>
@@ -20113,7 +20252,7 @@
       </c>
     </row>
     <row r="18" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C18" s="173"/>
+      <c r="C18" s="175"/>
       <c r="D18" s="14" t="s">
         <v>49</v>
       </c>
@@ -20146,7 +20285,7 @@
       </c>
     </row>
     <row r="19" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C19" s="173"/>
+      <c r="C19" s="175"/>
       <c r="D19" s="14" t="s">
         <v>50</v>
       </c>
@@ -20211,14 +20350,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="176" t="s">
+      <c r="B2" s="178" t="s">
         <v>128</v>
       </c>
-      <c r="C2" s="155"/>
+      <c r="C2" s="157"/>
     </row>
     <row r="3" spans="2:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="155"/>
-      <c r="C3" s="155"/>
+      <c r="B3" s="157"/>
+      <c r="C3" s="157"/>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B4" s="24" t="s">
@@ -21156,22 +21295,22 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="169" t="s">
+      <c r="B2" s="171" t="s">
         <v>144</v>
       </c>
-      <c r="C2" s="169"/>
-      <c r="D2" s="169"/>
-      <c r="E2" s="169"/>
-      <c r="F2" s="169"/>
-      <c r="G2" s="169"/>
+      <c r="C2" s="171"/>
+      <c r="D2" s="171"/>
+      <c r="E2" s="171"/>
+      <c r="F2" s="171"/>
+      <c r="G2" s="171"/>
     </row>
     <row r="3" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="170"/>
-      <c r="C3" s="170"/>
-      <c r="D3" s="170"/>
-      <c r="E3" s="170"/>
-      <c r="F3" s="170"/>
-      <c r="G3" s="170"/>
+      <c r="B3" s="172"/>
+      <c r="C3" s="172"/>
+      <c r="D3" s="172"/>
+      <c r="E3" s="172"/>
+      <c r="F3" s="172"/>
+      <c r="G3" s="172"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B4" s="38" t="s">

--- a/Project1/Assets/Script/Data/weaponDB.xlsx
+++ b/Project1/Assets/Script/Data/weaponDB.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\whdns\OneDrive\바탕 화면\123\TeamProject1\Project1\Assets\Script\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\won1\Desktop\TeamProject1\Project1\Assets\Script\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90671EFE-04D8-433D-8471-DDF97F7F948E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="599" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="599" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="시스템 기획" sheetId="2" r:id="rId1"/>
@@ -22,7 +21,7 @@
     <sheet name="보물 DB" sheetId="10" r:id="rId7"/>
     <sheet name="수색 DB" sheetId="11" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="775" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="839" uniqueCount="316">
   <si>
     <t>훈련 [ n = 레벨 값 ]</t>
   </si>
@@ -1335,11 +1334,267 @@
   <si>
     <t>22327900000000000000000000</t>
   </si>
+  <si>
+    <t>131947819700</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2738771542900</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>62399688866300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1547853022245100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>41518154446327700</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1197287312545940000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2274717931700</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>73450185238900</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2608010581922300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100826677851429000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4211228797272060000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>188834266239704000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4417488043700</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>149899633900</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>144161598934900</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5153621474978300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200105502680613000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8380939440097780000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>376471245166861000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>221325304300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6560258155700</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>214873012630900</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7699232368034300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>299384327509797000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12550650082923500000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>564108224094019000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>292750974700</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8703028267700</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>285584426326900</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10244843261090300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>398663152338981000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16720360725749200000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>751745203021177000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>364176645100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10845798379700</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>356295840022900</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12790454154146300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>497941977168165000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>939382181948335000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25059782011400700000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>597220801997349000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20890071368575000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15336065047202300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>427007253718900</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12988568491700</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>435602315500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>507027985900</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15131338603700</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>497718667414900</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17881675940258300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>696499626826533000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>29229492654226400000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>578453656300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17274108715700</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>568430081110900</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20427286833314300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>795778451655717000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>33399203297052200000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>649879326700</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19416878827700</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>639141494806900</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22972897726370300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>895057276484901000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>37568913939877900000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0%"/>
   </numFmts>
@@ -2171,31 +2426,16 @@
     <xf numFmtId="49" fontId="16" fillId="17" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2225,6 +2465,78 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2247,18 +2559,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2327,55 +2627,13 @@
     <xf numFmtId="0" fontId="2" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2427,9 +2685,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2816,7 +3071,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AV78"/>
   <sheetViews>
     <sheetView topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
@@ -2880,33 +3135,33 @@
     </row>
     <row r="2" spans="1:48" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8"/>
-      <c r="B2" s="70" t="s">
+      <c r="B2" s="98" t="s">
         <v>68</v>
       </c>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="71"/>
-      <c r="I2" s="71"/>
-      <c r="J2" s="71"/>
-      <c r="K2" s="71"/>
-      <c r="L2" s="71"/>
-      <c r="M2" s="71"/>
-      <c r="N2" s="71"/>
-      <c r="O2" s="71"/>
-      <c r="P2" s="71"/>
-      <c r="Q2" s="71"/>
-      <c r="R2" s="71"/>
-      <c r="S2" s="71"/>
-      <c r="T2" s="71"/>
-      <c r="U2" s="71"/>
-      <c r="V2" s="71"/>
-      <c r="W2" s="71"/>
-      <c r="X2" s="71"/>
-      <c r="Y2" s="71"/>
-      <c r="Z2" s="72"/>
+      <c r="C2" s="99"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="99"/>
+      <c r="F2" s="99"/>
+      <c r="G2" s="99"/>
+      <c r="H2" s="99"/>
+      <c r="I2" s="99"/>
+      <c r="J2" s="99"/>
+      <c r="K2" s="99"/>
+      <c r="L2" s="99"/>
+      <c r="M2" s="99"/>
+      <c r="N2" s="99"/>
+      <c r="O2" s="99"/>
+      <c r="P2" s="99"/>
+      <c r="Q2" s="99"/>
+      <c r="R2" s="99"/>
+      <c r="S2" s="99"/>
+      <c r="T2" s="99"/>
+      <c r="U2" s="99"/>
+      <c r="V2" s="99"/>
+      <c r="W2" s="99"/>
+      <c r="X2" s="99"/>
+      <c r="Y2" s="99"/>
+      <c r="Z2" s="100"/>
       <c r="AA2" s="8"/>
       <c r="AB2" s="8"/>
       <c r="AC2" s="8"/>
@@ -2932,31 +3187,31 @@
     </row>
     <row r="3" spans="1:48" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="8"/>
-      <c r="B3" s="73"/>
-      <c r="C3" s="74"/>
-      <c r="D3" s="74"/>
-      <c r="E3" s="74"/>
-      <c r="F3" s="74"/>
-      <c r="G3" s="74"/>
-      <c r="H3" s="74"/>
-      <c r="I3" s="74"/>
-      <c r="J3" s="74"/>
-      <c r="K3" s="74"/>
-      <c r="L3" s="74"/>
-      <c r="M3" s="74"/>
-      <c r="N3" s="74"/>
-      <c r="O3" s="74"/>
-      <c r="P3" s="74"/>
-      <c r="Q3" s="74"/>
-      <c r="R3" s="74"/>
-      <c r="S3" s="74"/>
-      <c r="T3" s="74"/>
-      <c r="U3" s="74"/>
-      <c r="V3" s="74"/>
-      <c r="W3" s="74"/>
-      <c r="X3" s="74"/>
-      <c r="Y3" s="74"/>
-      <c r="Z3" s="75"/>
+      <c r="B3" s="101"/>
+      <c r="C3" s="102"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="102"/>
+      <c r="F3" s="102"/>
+      <c r="G3" s="102"/>
+      <c r="H3" s="102"/>
+      <c r="I3" s="102"/>
+      <c r="J3" s="102"/>
+      <c r="K3" s="102"/>
+      <c r="L3" s="102"/>
+      <c r="M3" s="102"/>
+      <c r="N3" s="102"/>
+      <c r="O3" s="102"/>
+      <c r="P3" s="102"/>
+      <c r="Q3" s="102"/>
+      <c r="R3" s="102"/>
+      <c r="S3" s="102"/>
+      <c r="T3" s="102"/>
+      <c r="U3" s="102"/>
+      <c r="V3" s="102"/>
+      <c r="W3" s="102"/>
+      <c r="X3" s="102"/>
+      <c r="Y3" s="102"/>
+      <c r="Z3" s="103"/>
       <c r="AA3" s="8"/>
       <c r="AB3" s="8"/>
       <c r="AC3" s="8"/>
@@ -2982,31 +3237,31 @@
     </row>
     <row r="4" spans="1:48" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="8"/>
-      <c r="B4" s="76"/>
-      <c r="C4" s="77"/>
-      <c r="D4" s="77"/>
-      <c r="E4" s="77"/>
-      <c r="F4" s="77"/>
-      <c r="G4" s="77"/>
-      <c r="H4" s="77"/>
-      <c r="I4" s="77"/>
-      <c r="J4" s="77"/>
-      <c r="K4" s="77"/>
-      <c r="L4" s="77"/>
-      <c r="M4" s="77"/>
-      <c r="N4" s="77"/>
-      <c r="O4" s="77"/>
-      <c r="P4" s="77"/>
-      <c r="Q4" s="77"/>
-      <c r="R4" s="77"/>
-      <c r="S4" s="77"/>
-      <c r="T4" s="77"/>
-      <c r="U4" s="77"/>
-      <c r="V4" s="77"/>
-      <c r="W4" s="77"/>
-      <c r="X4" s="77"/>
-      <c r="Y4" s="77"/>
-      <c r="Z4" s="78"/>
+      <c r="B4" s="104"/>
+      <c r="C4" s="105"/>
+      <c r="D4" s="105"/>
+      <c r="E4" s="105"/>
+      <c r="F4" s="105"/>
+      <c r="G4" s="105"/>
+      <c r="H4" s="105"/>
+      <c r="I4" s="105"/>
+      <c r="J4" s="105"/>
+      <c r="K4" s="105"/>
+      <c r="L4" s="105"/>
+      <c r="M4" s="105"/>
+      <c r="N4" s="105"/>
+      <c r="O4" s="105"/>
+      <c r="P4" s="105"/>
+      <c r="Q4" s="105"/>
+      <c r="R4" s="105"/>
+      <c r="S4" s="105"/>
+      <c r="T4" s="105"/>
+      <c r="U4" s="105"/>
+      <c r="V4" s="105"/>
+      <c r="W4" s="105"/>
+      <c r="X4" s="105"/>
+      <c r="Y4" s="105"/>
+      <c r="Z4" s="106"/>
       <c r="AA4" s="8"/>
       <c r="AB4" s="8"/>
       <c r="AC4" s="8"/>
@@ -3132,10 +3387,10 @@
     </row>
     <row r="7" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A7" s="8"/>
-      <c r="B7" s="118" t="s">
+      <c r="B7" s="133" t="s">
         <v>67</v>
       </c>
-      <c r="C7" s="119"/>
+      <c r="C7" s="134"/>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
@@ -3184,8 +3439,8 @@
     </row>
     <row r="8" spans="1:48" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="8"/>
-      <c r="B8" s="120"/>
-      <c r="C8" s="121"/>
+      <c r="B8" s="135"/>
+      <c r="C8" s="136"/>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
@@ -3294,27 +3549,27 @@
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
-      <c r="L10" s="106" t="s">
+      <c r="L10" s="121" t="s">
         <v>69</v>
       </c>
-      <c r="M10" s="107"/>
-      <c r="N10" s="100" t="s">
+      <c r="M10" s="122"/>
+      <c r="N10" s="115" t="s">
         <v>24</v>
       </c>
-      <c r="O10" s="101"/>
-      <c r="P10" s="79" t="s">
+      <c r="O10" s="116"/>
+      <c r="P10" s="74" t="s">
         <v>127</v>
       </c>
-      <c r="Q10" s="80"/>
-      <c r="R10" s="80"/>
-      <c r="S10" s="80"/>
-      <c r="T10" s="80"/>
-      <c r="U10" s="80"/>
-      <c r="V10" s="80"/>
-      <c r="W10" s="80"/>
-      <c r="X10" s="80"/>
-      <c r="Y10" s="80"/>
-      <c r="Z10" s="81"/>
+      <c r="Q10" s="75"/>
+      <c r="R10" s="75"/>
+      <c r="S10" s="75"/>
+      <c r="T10" s="75"/>
+      <c r="U10" s="75"/>
+      <c r="V10" s="75"/>
+      <c r="W10" s="75"/>
+      <c r="X10" s="75"/>
+      <c r="Y10" s="75"/>
+      <c r="Z10" s="76"/>
       <c r="AA10" s="8"/>
       <c r="AB10" s="8"/>
       <c r="AC10" s="8"/>
@@ -3350,21 +3605,21 @@
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
-      <c r="L11" s="108"/>
-      <c r="M11" s="109"/>
-      <c r="N11" s="102"/>
-      <c r="O11" s="103"/>
-      <c r="P11" s="82"/>
-      <c r="Q11" s="83"/>
-      <c r="R11" s="83"/>
-      <c r="S11" s="83"/>
-      <c r="T11" s="83"/>
-      <c r="U11" s="83"/>
-      <c r="V11" s="83"/>
-      <c r="W11" s="83"/>
-      <c r="X11" s="83"/>
-      <c r="Y11" s="83"/>
-      <c r="Z11" s="84"/>
+      <c r="L11" s="123"/>
+      <c r="M11" s="124"/>
+      <c r="N11" s="117"/>
+      <c r="O11" s="118"/>
+      <c r="P11" s="77"/>
+      <c r="Q11" s="78"/>
+      <c r="R11" s="78"/>
+      <c r="S11" s="78"/>
+      <c r="T11" s="78"/>
+      <c r="U11" s="78"/>
+      <c r="V11" s="78"/>
+      <c r="W11" s="78"/>
+      <c r="X11" s="78"/>
+      <c r="Y11" s="78"/>
+      <c r="Z11" s="79"/>
       <c r="AA11" s="8"/>
       <c r="AB11" s="8"/>
       <c r="AC11" s="8"/>
@@ -3400,21 +3655,21 @@
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
-      <c r="L12" s="108"/>
-      <c r="M12" s="109"/>
-      <c r="N12" s="102"/>
-      <c r="O12" s="103"/>
-      <c r="P12" s="82"/>
-      <c r="Q12" s="83"/>
-      <c r="R12" s="83"/>
-      <c r="S12" s="83"/>
-      <c r="T12" s="83"/>
-      <c r="U12" s="83"/>
-      <c r="V12" s="83"/>
-      <c r="W12" s="83"/>
-      <c r="X12" s="83"/>
-      <c r="Y12" s="83"/>
-      <c r="Z12" s="84"/>
+      <c r="L12" s="123"/>
+      <c r="M12" s="124"/>
+      <c r="N12" s="117"/>
+      <c r="O12" s="118"/>
+      <c r="P12" s="77"/>
+      <c r="Q12" s="78"/>
+      <c r="R12" s="78"/>
+      <c r="S12" s="78"/>
+      <c r="T12" s="78"/>
+      <c r="U12" s="78"/>
+      <c r="V12" s="78"/>
+      <c r="W12" s="78"/>
+      <c r="X12" s="78"/>
+      <c r="Y12" s="78"/>
+      <c r="Z12" s="79"/>
       <c r="AA12" s="8"/>
       <c r="AB12" s="8"/>
       <c r="AC12" s="8"/>
@@ -3442,33 +3697,33 @@
       <c r="A13" s="8"/>
       <c r="B13" s="28"/>
       <c r="C13" s="29"/>
-      <c r="D13" s="118" t="s">
+      <c r="D13" s="133" t="s">
         <v>69</v>
       </c>
-      <c r="E13" s="119"/>
+      <c r="E13" s="134"/>
       <c r="F13" s="30"/>
       <c r="G13" s="31"/>
-      <c r="H13" s="92" t="s">
+      <c r="H13" s="111" t="s">
         <v>71</v>
       </c>
-      <c r="I13" s="93"/>
+      <c r="I13" s="112"/>
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
-      <c r="L13" s="108"/>
-      <c r="M13" s="109"/>
-      <c r="N13" s="104"/>
-      <c r="O13" s="105"/>
-      <c r="P13" s="85"/>
-      <c r="Q13" s="86"/>
-      <c r="R13" s="86"/>
-      <c r="S13" s="86"/>
-      <c r="T13" s="86"/>
-      <c r="U13" s="86"/>
-      <c r="V13" s="86"/>
-      <c r="W13" s="86"/>
-      <c r="X13" s="86"/>
-      <c r="Y13" s="86"/>
-      <c r="Z13" s="87"/>
+      <c r="L13" s="123"/>
+      <c r="M13" s="124"/>
+      <c r="N13" s="119"/>
+      <c r="O13" s="120"/>
+      <c r="P13" s="80"/>
+      <c r="Q13" s="81"/>
+      <c r="R13" s="81"/>
+      <c r="S13" s="81"/>
+      <c r="T13" s="81"/>
+      <c r="U13" s="81"/>
+      <c r="V13" s="81"/>
+      <c r="W13" s="81"/>
+      <c r="X13" s="81"/>
+      <c r="Y13" s="81"/>
+      <c r="Z13" s="82"/>
       <c r="AA13" s="8"/>
       <c r="AB13" s="8"/>
       <c r="AC13" s="8"/>
@@ -3496,33 +3751,33 @@
       <c r="A14" s="8"/>
       <c r="B14" s="8"/>
       <c r="C14" s="32"/>
-      <c r="D14" s="120"/>
-      <c r="E14" s="121"/>
+      <c r="D14" s="135"/>
+      <c r="E14" s="136"/>
       <c r="F14" s="33"/>
       <c r="G14" s="8"/>
-      <c r="H14" s="94"/>
-      <c r="I14" s="95"/>
+      <c r="H14" s="113"/>
+      <c r="I14" s="114"/>
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
-      <c r="L14" s="108"/>
-      <c r="M14" s="109"/>
-      <c r="N14" s="100" t="s">
+      <c r="L14" s="123"/>
+      <c r="M14" s="124"/>
+      <c r="N14" s="115" t="s">
         <v>70</v>
       </c>
-      <c r="O14" s="101"/>
-      <c r="P14" s="79" t="s">
+      <c r="O14" s="116"/>
+      <c r="P14" s="74" t="s">
         <v>125</v>
       </c>
-      <c r="Q14" s="80"/>
-      <c r="R14" s="80"/>
-      <c r="S14" s="80"/>
-      <c r="T14" s="80"/>
-      <c r="U14" s="80"/>
-      <c r="V14" s="80"/>
-      <c r="W14" s="80"/>
-      <c r="X14" s="80"/>
-      <c r="Y14" s="80"/>
-      <c r="Z14" s="81"/>
+      <c r="Q14" s="75"/>
+      <c r="R14" s="75"/>
+      <c r="S14" s="75"/>
+      <c r="T14" s="75"/>
+      <c r="U14" s="75"/>
+      <c r="V14" s="75"/>
+      <c r="W14" s="75"/>
+      <c r="X14" s="75"/>
+      <c r="Y14" s="75"/>
+      <c r="Z14" s="76"/>
       <c r="AA14" s="8"/>
       <c r="AB14" s="8"/>
       <c r="AC14" s="8"/>
@@ -3558,21 +3813,21 @@
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
-      <c r="L15" s="108"/>
-      <c r="M15" s="109"/>
-      <c r="N15" s="102"/>
-      <c r="O15" s="103"/>
-      <c r="P15" s="82"/>
-      <c r="Q15" s="83"/>
-      <c r="R15" s="83"/>
-      <c r="S15" s="83"/>
-      <c r="T15" s="83"/>
-      <c r="U15" s="83"/>
-      <c r="V15" s="83"/>
-      <c r="W15" s="83"/>
-      <c r="X15" s="83"/>
-      <c r="Y15" s="83"/>
-      <c r="Z15" s="84"/>
+      <c r="L15" s="123"/>
+      <c r="M15" s="124"/>
+      <c r="N15" s="117"/>
+      <c r="O15" s="118"/>
+      <c r="P15" s="77"/>
+      <c r="Q15" s="78"/>
+      <c r="R15" s="78"/>
+      <c r="S15" s="78"/>
+      <c r="T15" s="78"/>
+      <c r="U15" s="78"/>
+      <c r="V15" s="78"/>
+      <c r="W15" s="78"/>
+      <c r="X15" s="78"/>
+      <c r="Y15" s="78"/>
+      <c r="Z15" s="79"/>
       <c r="AA15" s="8"/>
       <c r="AB15" s="8"/>
       <c r="AC15" s="8"/>
@@ -3608,21 +3863,21 @@
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
-      <c r="L16" s="108"/>
-      <c r="M16" s="109"/>
-      <c r="N16" s="102"/>
-      <c r="O16" s="103"/>
-      <c r="P16" s="82"/>
-      <c r="Q16" s="83"/>
-      <c r="R16" s="83"/>
-      <c r="S16" s="83"/>
-      <c r="T16" s="83"/>
-      <c r="U16" s="83"/>
-      <c r="V16" s="83"/>
-      <c r="W16" s="83"/>
-      <c r="X16" s="83"/>
-      <c r="Y16" s="83"/>
-      <c r="Z16" s="84"/>
+      <c r="L16" s="123"/>
+      <c r="M16" s="124"/>
+      <c r="N16" s="117"/>
+      <c r="O16" s="118"/>
+      <c r="P16" s="77"/>
+      <c r="Q16" s="78"/>
+      <c r="R16" s="78"/>
+      <c r="S16" s="78"/>
+      <c r="T16" s="78"/>
+      <c r="U16" s="78"/>
+      <c r="V16" s="78"/>
+      <c r="W16" s="78"/>
+      <c r="X16" s="78"/>
+      <c r="Y16" s="78"/>
+      <c r="Z16" s="79"/>
       <c r="AA16" s="8"/>
       <c r="AB16" s="8"/>
       <c r="AC16" s="8"/>
@@ -3654,27 +3909,27 @@
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="34"/>
-      <c r="H17" s="92" t="s">
+      <c r="H17" s="111" t="s">
         <v>70</v>
       </c>
-      <c r="I17" s="93"/>
+      <c r="I17" s="112"/>
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
-      <c r="L17" s="110"/>
-      <c r="M17" s="111"/>
-      <c r="N17" s="104"/>
-      <c r="O17" s="105"/>
-      <c r="P17" s="85"/>
-      <c r="Q17" s="86"/>
-      <c r="R17" s="86"/>
-      <c r="S17" s="86"/>
-      <c r="T17" s="86"/>
-      <c r="U17" s="86"/>
-      <c r="V17" s="86"/>
-      <c r="W17" s="86"/>
-      <c r="X17" s="86"/>
-      <c r="Y17" s="86"/>
-      <c r="Z17" s="87"/>
+      <c r="L17" s="125"/>
+      <c r="M17" s="126"/>
+      <c r="N17" s="119"/>
+      <c r="O17" s="120"/>
+      <c r="P17" s="80"/>
+      <c r="Q17" s="81"/>
+      <c r="R17" s="81"/>
+      <c r="S17" s="81"/>
+      <c r="T17" s="81"/>
+      <c r="U17" s="81"/>
+      <c r="V17" s="81"/>
+      <c r="W17" s="81"/>
+      <c r="X17" s="81"/>
+      <c r="Y17" s="81"/>
+      <c r="Z17" s="82"/>
       <c r="AA17" s="8"/>
       <c r="AB17" s="8"/>
       <c r="AC17" s="8"/>
@@ -3706,31 +3961,31 @@
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="35"/>
-      <c r="H18" s="94"/>
-      <c r="I18" s="95"/>
+      <c r="H18" s="113"/>
+      <c r="I18" s="114"/>
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
-      <c r="L18" s="112" t="s">
+      <c r="L18" s="127" t="s">
         <v>72</v>
       </c>
-      <c r="M18" s="113"/>
-      <c r="N18" s="130" t="s">
+      <c r="M18" s="128"/>
+      <c r="N18" s="96" t="s">
         <v>73</v>
       </c>
-      <c r="O18" s="131"/>
-      <c r="P18" s="79" t="s">
+      <c r="O18" s="91"/>
+      <c r="P18" s="74" t="s">
         <v>124</v>
       </c>
-      <c r="Q18" s="125"/>
-      <c r="R18" s="125"/>
-      <c r="S18" s="125"/>
-      <c r="T18" s="125"/>
-      <c r="U18" s="125"/>
-      <c r="V18" s="125"/>
-      <c r="W18" s="125"/>
-      <c r="X18" s="125"/>
-      <c r="Y18" s="125"/>
-      <c r="Z18" s="126"/>
+      <c r="Q18" s="83"/>
+      <c r="R18" s="83"/>
+      <c r="S18" s="83"/>
+      <c r="T18" s="83"/>
+      <c r="U18" s="83"/>
+      <c r="V18" s="83"/>
+      <c r="W18" s="83"/>
+      <c r="X18" s="83"/>
+      <c r="Y18" s="83"/>
+      <c r="Z18" s="84"/>
       <c r="AA18" s="8"/>
       <c r="AB18" s="8"/>
       <c r="AC18" s="8"/>
@@ -3766,21 +4021,21 @@
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
       <c r="K19" s="8"/>
-      <c r="L19" s="114"/>
-      <c r="M19" s="115"/>
-      <c r="N19" s="132"/>
-      <c r="O19" s="133"/>
-      <c r="P19" s="127"/>
-      <c r="Q19" s="128"/>
-      <c r="R19" s="128"/>
-      <c r="S19" s="128"/>
-      <c r="T19" s="128"/>
-      <c r="U19" s="128"/>
-      <c r="V19" s="128"/>
-      <c r="W19" s="128"/>
-      <c r="X19" s="128"/>
-      <c r="Y19" s="128"/>
-      <c r="Z19" s="129"/>
+      <c r="L19" s="129"/>
+      <c r="M19" s="130"/>
+      <c r="N19" s="97"/>
+      <c r="O19" s="95"/>
+      <c r="P19" s="85"/>
+      <c r="Q19" s="86"/>
+      <c r="R19" s="86"/>
+      <c r="S19" s="86"/>
+      <c r="T19" s="86"/>
+      <c r="U19" s="86"/>
+      <c r="V19" s="86"/>
+      <c r="W19" s="86"/>
+      <c r="X19" s="86"/>
+      <c r="Y19" s="86"/>
+      <c r="Z19" s="87"/>
       <c r="AA19" s="8"/>
       <c r="AB19" s="8"/>
       <c r="AC19" s="8"/>
@@ -3816,25 +4071,25 @@
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
-      <c r="L20" s="114"/>
-      <c r="M20" s="115"/>
-      <c r="N20" s="130" t="s">
+      <c r="L20" s="129"/>
+      <c r="M20" s="130"/>
+      <c r="N20" s="96" t="s">
         <v>74</v>
       </c>
-      <c r="O20" s="131"/>
-      <c r="P20" s="134" t="s">
+      <c r="O20" s="91"/>
+      <c r="P20" s="88" t="s">
         <v>123</v>
       </c>
-      <c r="Q20" s="125"/>
-      <c r="R20" s="125"/>
-      <c r="S20" s="125"/>
-      <c r="T20" s="125"/>
-      <c r="U20" s="125"/>
-      <c r="V20" s="125"/>
-      <c r="W20" s="125"/>
-      <c r="X20" s="125"/>
-      <c r="Y20" s="125"/>
-      <c r="Z20" s="126"/>
+      <c r="Q20" s="83"/>
+      <c r="R20" s="83"/>
+      <c r="S20" s="83"/>
+      <c r="T20" s="83"/>
+      <c r="U20" s="83"/>
+      <c r="V20" s="83"/>
+      <c r="W20" s="83"/>
+      <c r="X20" s="83"/>
+      <c r="Y20" s="83"/>
+      <c r="Z20" s="84"/>
       <c r="AA20" s="8"/>
       <c r="AB20" s="8"/>
       <c r="AC20" s="8"/>
@@ -3862,33 +4117,33 @@
       <c r="A21" s="8"/>
       <c r="B21" s="8"/>
       <c r="C21" s="29"/>
-      <c r="D21" s="88" t="s">
+      <c r="D21" s="107" t="s">
         <v>72</v>
       </c>
-      <c r="E21" s="89"/>
+      <c r="E21" s="108"/>
       <c r="F21" s="30"/>
       <c r="G21" s="31"/>
-      <c r="H21" s="96" t="s">
+      <c r="H21" s="70" t="s">
         <v>73</v>
       </c>
-      <c r="I21" s="97"/>
+      <c r="I21" s="71"/>
       <c r="J21" s="8"/>
       <c r="K21" s="8"/>
-      <c r="L21" s="114"/>
-      <c r="M21" s="115"/>
-      <c r="N21" s="132"/>
-      <c r="O21" s="133"/>
-      <c r="P21" s="127"/>
-      <c r="Q21" s="128"/>
-      <c r="R21" s="128"/>
-      <c r="S21" s="128"/>
-      <c r="T21" s="128"/>
-      <c r="U21" s="128"/>
-      <c r="V21" s="128"/>
-      <c r="W21" s="128"/>
-      <c r="X21" s="128"/>
-      <c r="Y21" s="128"/>
-      <c r="Z21" s="129"/>
+      <c r="L21" s="129"/>
+      <c r="M21" s="130"/>
+      <c r="N21" s="97"/>
+      <c r="O21" s="95"/>
+      <c r="P21" s="85"/>
+      <c r="Q21" s="86"/>
+      <c r="R21" s="86"/>
+      <c r="S21" s="86"/>
+      <c r="T21" s="86"/>
+      <c r="U21" s="86"/>
+      <c r="V21" s="86"/>
+      <c r="W21" s="86"/>
+      <c r="X21" s="86"/>
+      <c r="Y21" s="86"/>
+      <c r="Z21" s="87"/>
       <c r="AA21" s="8"/>
       <c r="AB21" s="8"/>
       <c r="AC21" s="8"/>
@@ -3916,33 +4171,33 @@
       <c r="A22" s="8"/>
       <c r="B22" s="8"/>
       <c r="C22" s="36"/>
-      <c r="D22" s="90"/>
-      <c r="E22" s="91"/>
+      <c r="D22" s="109"/>
+      <c r="E22" s="110"/>
       <c r="F22" s="33"/>
       <c r="G22" s="8"/>
-      <c r="H22" s="98"/>
-      <c r="I22" s="99"/>
+      <c r="H22" s="72"/>
+      <c r="I22" s="73"/>
       <c r="J22" s="8"/>
       <c r="K22" s="8"/>
-      <c r="L22" s="114"/>
-      <c r="M22" s="115"/>
-      <c r="N22" s="122" t="s">
+      <c r="L22" s="129"/>
+      <c r="M22" s="130"/>
+      <c r="N22" s="90" t="s">
         <v>75</v>
       </c>
-      <c r="O22" s="131"/>
-      <c r="P22" s="135" t="s">
+      <c r="O22" s="91"/>
+      <c r="P22" s="89" t="s">
         <v>122</v>
       </c>
-      <c r="Q22" s="80"/>
-      <c r="R22" s="80"/>
-      <c r="S22" s="80"/>
-      <c r="T22" s="80"/>
-      <c r="U22" s="80"/>
-      <c r="V22" s="80"/>
-      <c r="W22" s="80"/>
-      <c r="X22" s="80"/>
-      <c r="Y22" s="80"/>
-      <c r="Z22" s="81"/>
+      <c r="Q22" s="75"/>
+      <c r="R22" s="75"/>
+      <c r="S22" s="75"/>
+      <c r="T22" s="75"/>
+      <c r="U22" s="75"/>
+      <c r="V22" s="75"/>
+      <c r="W22" s="75"/>
+      <c r="X22" s="75"/>
+      <c r="Y22" s="75"/>
+      <c r="Z22" s="76"/>
       <c r="AA22" s="8"/>
       <c r="AB22" s="8"/>
       <c r="AC22" s="8"/>
@@ -3978,21 +4233,21 @@
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
       <c r="K23" s="8"/>
-      <c r="L23" s="114"/>
-      <c r="M23" s="115"/>
-      <c r="N23" s="123"/>
-      <c r="O23" s="136"/>
-      <c r="P23" s="82"/>
-      <c r="Q23" s="83"/>
-      <c r="R23" s="83"/>
-      <c r="S23" s="83"/>
-      <c r="T23" s="83"/>
-      <c r="U23" s="83"/>
-      <c r="V23" s="83"/>
-      <c r="W23" s="83"/>
-      <c r="X23" s="83"/>
-      <c r="Y23" s="83"/>
-      <c r="Z23" s="84"/>
+      <c r="L23" s="129"/>
+      <c r="M23" s="130"/>
+      <c r="N23" s="92"/>
+      <c r="O23" s="93"/>
+      <c r="P23" s="77"/>
+      <c r="Q23" s="78"/>
+      <c r="R23" s="78"/>
+      <c r="S23" s="78"/>
+      <c r="T23" s="78"/>
+      <c r="U23" s="78"/>
+      <c r="V23" s="78"/>
+      <c r="W23" s="78"/>
+      <c r="X23" s="78"/>
+      <c r="Y23" s="78"/>
+      <c r="Z23" s="79"/>
       <c r="AA23" s="8"/>
       <c r="AB23" s="8"/>
       <c r="AC23" s="8"/>
@@ -4028,21 +4283,21 @@
       <c r="I24" s="8"/>
       <c r="J24" s="8"/>
       <c r="K24" s="8"/>
-      <c r="L24" s="114"/>
-      <c r="M24" s="115"/>
-      <c r="N24" s="123"/>
-      <c r="O24" s="136"/>
-      <c r="P24" s="82"/>
-      <c r="Q24" s="83"/>
-      <c r="R24" s="83"/>
-      <c r="S24" s="83"/>
-      <c r="T24" s="83"/>
-      <c r="U24" s="83"/>
-      <c r="V24" s="83"/>
-      <c r="W24" s="83"/>
-      <c r="X24" s="83"/>
-      <c r="Y24" s="83"/>
-      <c r="Z24" s="84"/>
+      <c r="L24" s="129"/>
+      <c r="M24" s="130"/>
+      <c r="N24" s="92"/>
+      <c r="O24" s="93"/>
+      <c r="P24" s="77"/>
+      <c r="Q24" s="78"/>
+      <c r="R24" s="78"/>
+      <c r="S24" s="78"/>
+      <c r="T24" s="78"/>
+      <c r="U24" s="78"/>
+      <c r="V24" s="78"/>
+      <c r="W24" s="78"/>
+      <c r="X24" s="78"/>
+      <c r="Y24" s="78"/>
+      <c r="Z24" s="79"/>
       <c r="AA24" s="8"/>
       <c r="AB24" s="8"/>
       <c r="AC24" s="8"/>
@@ -4078,21 +4333,21 @@
       <c r="I25" s="8"/>
       <c r="J25" s="8"/>
       <c r="K25" s="8"/>
-      <c r="L25" s="114"/>
-      <c r="M25" s="115"/>
-      <c r="N25" s="124"/>
-      <c r="O25" s="133"/>
-      <c r="P25" s="85"/>
-      <c r="Q25" s="86"/>
-      <c r="R25" s="86"/>
-      <c r="S25" s="86"/>
-      <c r="T25" s="86"/>
-      <c r="U25" s="86"/>
-      <c r="V25" s="86"/>
-      <c r="W25" s="86"/>
-      <c r="X25" s="86"/>
-      <c r="Y25" s="86"/>
-      <c r="Z25" s="87"/>
+      <c r="L25" s="129"/>
+      <c r="M25" s="130"/>
+      <c r="N25" s="94"/>
+      <c r="O25" s="95"/>
+      <c r="P25" s="80"/>
+      <c r="Q25" s="81"/>
+      <c r="R25" s="81"/>
+      <c r="S25" s="81"/>
+      <c r="T25" s="81"/>
+      <c r="U25" s="81"/>
+      <c r="V25" s="81"/>
+      <c r="W25" s="81"/>
+      <c r="X25" s="81"/>
+      <c r="Y25" s="81"/>
+      <c r="Z25" s="82"/>
       <c r="AA25" s="8"/>
       <c r="AB25" s="8"/>
       <c r="AC25" s="8"/>
@@ -4124,31 +4379,31 @@
       <c r="E26" s="8"/>
       <c r="F26" s="28"/>
       <c r="G26" s="28"/>
-      <c r="H26" s="96" t="s">
+      <c r="H26" s="70" t="s">
         <v>74</v>
       </c>
-      <c r="I26" s="97"/>
+      <c r="I26" s="71"/>
       <c r="J26" s="8"/>
       <c r="K26" s="8"/>
-      <c r="L26" s="114"/>
-      <c r="M26" s="115"/>
-      <c r="N26" s="122" t="s">
+      <c r="L26" s="129"/>
+      <c r="M26" s="130"/>
+      <c r="N26" s="90" t="s">
         <v>76</v>
       </c>
-      <c r="O26" s="122"/>
-      <c r="P26" s="79" t="s">
+      <c r="O26" s="90"/>
+      <c r="P26" s="74" t="s">
         <v>131</v>
       </c>
-      <c r="Q26" s="80"/>
-      <c r="R26" s="80"/>
-      <c r="S26" s="80"/>
-      <c r="T26" s="80"/>
-      <c r="U26" s="80"/>
-      <c r="V26" s="80"/>
-      <c r="W26" s="80"/>
-      <c r="X26" s="80"/>
-      <c r="Y26" s="80"/>
-      <c r="Z26" s="81"/>
+      <c r="Q26" s="75"/>
+      <c r="R26" s="75"/>
+      <c r="S26" s="75"/>
+      <c r="T26" s="75"/>
+      <c r="U26" s="75"/>
+      <c r="V26" s="75"/>
+      <c r="W26" s="75"/>
+      <c r="X26" s="75"/>
+      <c r="Y26" s="75"/>
+      <c r="Z26" s="76"/>
       <c r="AA26" s="8"/>
       <c r="AB26" s="8"/>
       <c r="AC26" s="8"/>
@@ -4180,25 +4435,25 @@
       <c r="E27" s="8"/>
       <c r="F27" s="28"/>
       <c r="G27" s="36"/>
-      <c r="H27" s="98"/>
-      <c r="I27" s="99"/>
+      <c r="H27" s="72"/>
+      <c r="I27" s="73"/>
       <c r="J27" s="8"/>
       <c r="K27" s="8"/>
-      <c r="L27" s="114"/>
-      <c r="M27" s="115"/>
-      <c r="N27" s="123"/>
-      <c r="O27" s="123"/>
-      <c r="P27" s="82"/>
-      <c r="Q27" s="83"/>
-      <c r="R27" s="83"/>
-      <c r="S27" s="83"/>
-      <c r="T27" s="83"/>
-      <c r="U27" s="83"/>
-      <c r="V27" s="83"/>
-      <c r="W27" s="83"/>
-      <c r="X27" s="83"/>
-      <c r="Y27" s="83"/>
-      <c r="Z27" s="84"/>
+      <c r="L27" s="129"/>
+      <c r="M27" s="130"/>
+      <c r="N27" s="92"/>
+      <c r="O27" s="92"/>
+      <c r="P27" s="77"/>
+      <c r="Q27" s="78"/>
+      <c r="R27" s="78"/>
+      <c r="S27" s="78"/>
+      <c r="T27" s="78"/>
+      <c r="U27" s="78"/>
+      <c r="V27" s="78"/>
+      <c r="W27" s="78"/>
+      <c r="X27" s="78"/>
+      <c r="Y27" s="78"/>
+      <c r="Z27" s="79"/>
       <c r="AA27" s="8"/>
       <c r="AB27" s="8"/>
       <c r="AC27" s="8"/>
@@ -4234,21 +4489,21 @@
       <c r="I28" s="8"/>
       <c r="J28" s="8"/>
       <c r="K28" s="8"/>
-      <c r="L28" s="114"/>
-      <c r="M28" s="115"/>
-      <c r="N28" s="123"/>
-      <c r="O28" s="123"/>
-      <c r="P28" s="82"/>
-      <c r="Q28" s="83"/>
-      <c r="R28" s="83"/>
-      <c r="S28" s="83"/>
-      <c r="T28" s="83"/>
-      <c r="U28" s="83"/>
-      <c r="V28" s="83"/>
-      <c r="W28" s="83"/>
-      <c r="X28" s="83"/>
-      <c r="Y28" s="83"/>
-      <c r="Z28" s="84"/>
+      <c r="L28" s="129"/>
+      <c r="M28" s="130"/>
+      <c r="N28" s="92"/>
+      <c r="O28" s="92"/>
+      <c r="P28" s="77"/>
+      <c r="Q28" s="78"/>
+      <c r="R28" s="78"/>
+      <c r="S28" s="78"/>
+      <c r="T28" s="78"/>
+      <c r="U28" s="78"/>
+      <c r="V28" s="78"/>
+      <c r="W28" s="78"/>
+      <c r="X28" s="78"/>
+      <c r="Y28" s="78"/>
+      <c r="Z28" s="79"/>
       <c r="AA28" s="8"/>
       <c r="AB28" s="8"/>
       <c r="AC28" s="8"/>
@@ -4284,21 +4539,21 @@
       <c r="I29" s="8"/>
       <c r="J29" s="8"/>
       <c r="K29" s="8"/>
-      <c r="L29" s="114"/>
-      <c r="M29" s="115"/>
-      <c r="N29" s="124"/>
-      <c r="O29" s="124"/>
-      <c r="P29" s="85"/>
-      <c r="Q29" s="86"/>
-      <c r="R29" s="86"/>
-      <c r="S29" s="86"/>
-      <c r="T29" s="86"/>
-      <c r="U29" s="86"/>
-      <c r="V29" s="86"/>
-      <c r="W29" s="86"/>
-      <c r="X29" s="86"/>
-      <c r="Y29" s="86"/>
-      <c r="Z29" s="87"/>
+      <c r="L29" s="129"/>
+      <c r="M29" s="130"/>
+      <c r="N29" s="94"/>
+      <c r="O29" s="94"/>
+      <c r="P29" s="80"/>
+      <c r="Q29" s="81"/>
+      <c r="R29" s="81"/>
+      <c r="S29" s="81"/>
+      <c r="T29" s="81"/>
+      <c r="U29" s="81"/>
+      <c r="V29" s="81"/>
+      <c r="W29" s="81"/>
+      <c r="X29" s="81"/>
+      <c r="Y29" s="81"/>
+      <c r="Z29" s="82"/>
       <c r="AA29" s="8"/>
       <c r="AB29" s="8"/>
       <c r="AC29" s="8"/>
@@ -4334,25 +4589,25 @@
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
       <c r="K30" s="8"/>
-      <c r="L30" s="114"/>
-      <c r="M30" s="115"/>
-      <c r="N30" s="130" t="s">
+      <c r="L30" s="129"/>
+      <c r="M30" s="130"/>
+      <c r="N30" s="96" t="s">
         <v>77</v>
       </c>
-      <c r="O30" s="131"/>
-      <c r="P30" s="79" t="s">
+      <c r="O30" s="91"/>
+      <c r="P30" s="74" t="s">
         <v>121</v>
       </c>
-      <c r="Q30" s="125"/>
-      <c r="R30" s="125"/>
-      <c r="S30" s="125"/>
-      <c r="T30" s="125"/>
-      <c r="U30" s="125"/>
-      <c r="V30" s="125"/>
-      <c r="W30" s="125"/>
-      <c r="X30" s="125"/>
-      <c r="Y30" s="125"/>
-      <c r="Z30" s="126"/>
+      <c r="Q30" s="83"/>
+      <c r="R30" s="83"/>
+      <c r="S30" s="83"/>
+      <c r="T30" s="83"/>
+      <c r="U30" s="83"/>
+      <c r="V30" s="83"/>
+      <c r="W30" s="83"/>
+      <c r="X30" s="83"/>
+      <c r="Y30" s="83"/>
+      <c r="Z30" s="84"/>
       <c r="AA30" s="8"/>
       <c r="AB30" s="8"/>
       <c r="AC30" s="8"/>
@@ -4384,27 +4639,27 @@
       <c r="E31" s="8"/>
       <c r="F31" s="28"/>
       <c r="G31" s="28"/>
-      <c r="H31" s="96" t="s">
+      <c r="H31" s="70" t="s">
         <v>75</v>
       </c>
-      <c r="I31" s="97"/>
+      <c r="I31" s="71"/>
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
-      <c r="L31" s="116"/>
-      <c r="M31" s="117"/>
-      <c r="N31" s="132"/>
-      <c r="O31" s="133"/>
-      <c r="P31" s="127"/>
-      <c r="Q31" s="128"/>
-      <c r="R31" s="128"/>
-      <c r="S31" s="128"/>
-      <c r="T31" s="128"/>
-      <c r="U31" s="128"/>
-      <c r="V31" s="128"/>
-      <c r="W31" s="128"/>
-      <c r="X31" s="128"/>
-      <c r="Y31" s="128"/>
-      <c r="Z31" s="129"/>
+      <c r="L31" s="131"/>
+      <c r="M31" s="132"/>
+      <c r="N31" s="97"/>
+      <c r="O31" s="95"/>
+      <c r="P31" s="85"/>
+      <c r="Q31" s="86"/>
+      <c r="R31" s="86"/>
+      <c r="S31" s="86"/>
+      <c r="T31" s="86"/>
+      <c r="U31" s="86"/>
+      <c r="V31" s="86"/>
+      <c r="W31" s="86"/>
+      <c r="X31" s="86"/>
+      <c r="Y31" s="86"/>
+      <c r="Z31" s="87"/>
       <c r="AA31" s="8"/>
       <c r="AB31" s="8"/>
       <c r="AC31" s="8"/>
@@ -4436,8 +4691,8 @@
       <c r="E32" s="8"/>
       <c r="F32" s="28"/>
       <c r="G32" s="36"/>
-      <c r="H32" s="98"/>
-      <c r="I32" s="99"/>
+      <c r="H32" s="72"/>
+      <c r="I32" s="73"/>
       <c r="J32" s="8"/>
       <c r="K32" s="8"/>
       <c r="L32" s="8"/>
@@ -4636,10 +4891,10 @@
       <c r="E36" s="8"/>
       <c r="F36" s="28"/>
       <c r="G36" s="28"/>
-      <c r="H36" s="96" t="s">
+      <c r="H36" s="70" t="s">
         <v>76</v>
       </c>
-      <c r="I36" s="97"/>
+      <c r="I36" s="71"/>
       <c r="J36" s="8"/>
       <c r="K36" s="8"/>
       <c r="L36" s="8"/>
@@ -4688,8 +4943,8 @@
       <c r="E37" s="8"/>
       <c r="F37" s="28"/>
       <c r="G37" s="36"/>
-      <c r="H37" s="98"/>
-      <c r="I37" s="99"/>
+      <c r="H37" s="72"/>
+      <c r="I37" s="73"/>
       <c r="J37" s="8"/>
       <c r="K37" s="8"/>
       <c r="L37" s="8"/>
@@ -4888,10 +5143,10 @@
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="29"/>
-      <c r="H41" s="96" t="s">
+      <c r="H41" s="70" t="s">
         <v>77</v>
       </c>
-      <c r="I41" s="97"/>
+      <c r="I41" s="71"/>
       <c r="J41" s="8"/>
       <c r="K41" s="8"/>
       <c r="L41" s="8"/>
@@ -4940,8 +5195,8 @@
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="36"/>
-      <c r="H42" s="98"/>
-      <c r="I42" s="99"/>
+      <c r="H42" s="72"/>
+      <c r="I42" s="73"/>
       <c r="J42" s="19"/>
       <c r="K42" s="19"/>
       <c r="L42" s="19"/>
@@ -6573,17 +6828,6 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="H41:I42"/>
-    <mergeCell ref="H36:I37"/>
-    <mergeCell ref="H31:I32"/>
-    <mergeCell ref="H26:I27"/>
-    <mergeCell ref="P10:Z13"/>
-    <mergeCell ref="P18:Z19"/>
-    <mergeCell ref="P20:Z21"/>
-    <mergeCell ref="P22:Z25"/>
-    <mergeCell ref="N22:O25"/>
-    <mergeCell ref="N18:O19"/>
-    <mergeCell ref="N20:O21"/>
     <mergeCell ref="B2:Z4"/>
     <mergeCell ref="P14:Z17"/>
     <mergeCell ref="D21:E22"/>
@@ -6600,6 +6844,17 @@
     <mergeCell ref="P26:Z29"/>
     <mergeCell ref="P30:Z31"/>
     <mergeCell ref="N30:O31"/>
+    <mergeCell ref="H41:I42"/>
+    <mergeCell ref="H36:I37"/>
+    <mergeCell ref="H31:I32"/>
+    <mergeCell ref="H26:I27"/>
+    <mergeCell ref="P10:Z13"/>
+    <mergeCell ref="P18:Z19"/>
+    <mergeCell ref="P20:Z21"/>
+    <mergeCell ref="P22:Z25"/>
+    <mergeCell ref="N22:O25"/>
+    <mergeCell ref="N18:O19"/>
+    <mergeCell ref="N20:O21"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6607,7 +6862,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA108"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -6621,64 +6876,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="139" t="s">
+      <c r="B1" s="140" t="s">
         <v>78</v>
       </c>
-      <c r="C1" s="148"/>
-      <c r="D1" s="139" t="s">
+      <c r="C1" s="149"/>
+      <c r="D1" s="140" t="s">
         <v>80</v>
       </c>
-      <c r="E1" s="151"/>
-      <c r="F1" s="152"/>
-      <c r="I1" s="139" t="s">
+      <c r="E1" s="152"/>
+      <c r="F1" s="153"/>
+      <c r="I1" s="140" t="s">
         <v>79</v>
       </c>
-      <c r="J1" s="140"/>
-      <c r="K1" s="139" t="s">
+      <c r="J1" s="141"/>
+      <c r="K1" s="140" t="s">
         <v>81</v>
       </c>
-      <c r="L1" s="143"/>
-      <c r="M1" s="144"/>
-      <c r="P1" s="156" t="s">
+      <c r="L1" s="144"/>
+      <c r="M1" s="145"/>
+      <c r="P1" s="139" t="s">
         <v>82</v>
       </c>
-      <c r="Q1" s="156"/>
-      <c r="R1" s="156" t="s">
+      <c r="Q1" s="139"/>
+      <c r="R1" s="139" t="s">
         <v>83</v>
       </c>
-      <c r="S1" s="156"/>
-      <c r="T1" s="156"/>
-      <c r="W1" s="156" t="s">
+      <c r="S1" s="139"/>
+      <c r="T1" s="139"/>
+      <c r="W1" s="139" t="s">
         <v>84</v>
       </c>
-      <c r="X1" s="156"/>
-      <c r="Y1" s="156" t="s">
+      <c r="X1" s="139"/>
+      <c r="Y1" s="139" t="s">
         <v>85</v>
       </c>
-      <c r="Z1" s="156"/>
-      <c r="AA1" s="156"/>
+      <c r="Z1" s="139"/>
+      <c r="AA1" s="139"/>
     </row>
     <row r="2" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="149"/>
-      <c r="C2" s="150"/>
-      <c r="D2" s="153"/>
-      <c r="E2" s="154"/>
-      <c r="F2" s="155"/>
-      <c r="I2" s="141"/>
-      <c r="J2" s="142"/>
-      <c r="K2" s="145"/>
-      <c r="L2" s="146"/>
-      <c r="M2" s="147"/>
-      <c r="P2" s="156"/>
-      <c r="Q2" s="156"/>
-      <c r="R2" s="156"/>
-      <c r="S2" s="156"/>
-      <c r="T2" s="156"/>
-      <c r="W2" s="156"/>
-      <c r="X2" s="156"/>
-      <c r="Y2" s="156"/>
-      <c r="Z2" s="156"/>
-      <c r="AA2" s="156"/>
+      <c r="B2" s="150"/>
+      <c r="C2" s="151"/>
+      <c r="D2" s="154"/>
+      <c r="E2" s="155"/>
+      <c r="F2" s="156"/>
+      <c r="I2" s="142"/>
+      <c r="J2" s="143"/>
+      <c r="K2" s="146"/>
+      <c r="L2" s="147"/>
+      <c r="M2" s="148"/>
+      <c r="P2" s="139"/>
+      <c r="Q2" s="139"/>
+      <c r="R2" s="139"/>
+      <c r="S2" s="139"/>
+      <c r="T2" s="139"/>
+      <c r="W2" s="139"/>
+      <c r="X2" s="139"/>
+      <c r="Y2" s="139"/>
+      <c r="Z2" s="139"/>
+      <c r="AA2" s="139"/>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B3" s="138" t="s">
@@ -14692,22 +14947,6 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="P106:Q106"/>
-    <mergeCell ref="W106:X106"/>
-    <mergeCell ref="Z3:AA3"/>
-    <mergeCell ref="Z4:AA4"/>
-    <mergeCell ref="S3:T3"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="P1:Q2"/>
-    <mergeCell ref="R1:T2"/>
-    <mergeCell ref="W1:X2"/>
-    <mergeCell ref="Y1:AA2"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="P3:R3"/>
-    <mergeCell ref="P4:R4"/>
-    <mergeCell ref="W3:Y3"/>
-    <mergeCell ref="W4:Y4"/>
     <mergeCell ref="B106:C106"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="I3:K3"/>
@@ -14720,6 +14959,22 @@
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="B4:D4"/>
+    <mergeCell ref="P1:Q2"/>
+    <mergeCell ref="R1:T2"/>
+    <mergeCell ref="W1:X2"/>
+    <mergeCell ref="Y1:AA2"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="P3:R3"/>
+    <mergeCell ref="P4:R4"/>
+    <mergeCell ref="W3:Y3"/>
+    <mergeCell ref="W4:Y4"/>
+    <mergeCell ref="P106:Q106"/>
+    <mergeCell ref="W106:X106"/>
+    <mergeCell ref="Z3:AA3"/>
+    <mergeCell ref="Z4:AA4"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="S4:T4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14728,7 +14983,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N204"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
@@ -18158,11 +18413,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="S14" sqref="S14:S15"/>
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -18631,29 +18886,29 @@
       <c r="E11" s="68">
         <v>78473963500</v>
       </c>
-      <c r="F11" s="68">
-        <v>149899633900</v>
-      </c>
-      <c r="G11" s="68">
-        <v>221325304300</v>
-      </c>
-      <c r="H11" s="68">
-        <v>292750974700</v>
-      </c>
-      <c r="I11" s="68">
-        <v>364176645100</v>
-      </c>
-      <c r="J11" s="68">
-        <v>435602315500</v>
-      </c>
-      <c r="K11" s="68">
-        <v>507027985900</v>
-      </c>
-      <c r="L11" s="68">
-        <v>578453656300</v>
-      </c>
-      <c r="M11" s="68">
-        <v>649879326700</v>
+      <c r="F11" s="68" t="s">
+        <v>265</v>
+      </c>
+      <c r="G11" s="68" t="s">
+        <v>271</v>
+      </c>
+      <c r="H11" s="68" t="s">
+        <v>278</v>
+      </c>
+      <c r="I11" s="68" t="s">
+        <v>285</v>
+      </c>
+      <c r="J11" s="68" t="s">
+        <v>297</v>
+      </c>
+      <c r="K11" s="68" t="s">
+        <v>298</v>
+      </c>
+      <c r="L11" s="68" t="s">
+        <v>304</v>
+      </c>
+      <c r="M11" s="68" t="s">
+        <v>310</v>
       </c>
       <c r="N11" s="63" t="b">
         <v>0</v>
@@ -18669,35 +18924,35 @@
       <c r="C12" s="67">
         <v>0</v>
       </c>
-      <c r="D12" s="69">
-        <v>131947819700</v>
-      </c>
-      <c r="E12" s="68">
-        <v>2274717931700</v>
-      </c>
-      <c r="F12" s="68">
-        <v>4417488043700</v>
-      </c>
-      <c r="G12" s="68">
-        <v>6560258155700</v>
-      </c>
-      <c r="H12" s="68">
-        <v>8703028267700</v>
-      </c>
-      <c r="I12" s="68">
-        <v>10845798379700</v>
-      </c>
-      <c r="J12" s="68">
-        <v>12988568491700</v>
-      </c>
-      <c r="K12" s="68">
-        <v>15131338603700</v>
-      </c>
-      <c r="L12" s="68">
-        <v>17274108715700</v>
-      </c>
-      <c r="M12" s="68">
-        <v>19416878827700</v>
+      <c r="D12" s="69" t="s">
+        <v>252</v>
+      </c>
+      <c r="E12" s="68" t="s">
+        <v>258</v>
+      </c>
+      <c r="F12" s="68" t="s">
+        <v>264</v>
+      </c>
+      <c r="G12" s="68" t="s">
+        <v>272</v>
+      </c>
+      <c r="H12" s="68" t="s">
+        <v>279</v>
+      </c>
+      <c r="I12" s="68" t="s">
+        <v>286</v>
+      </c>
+      <c r="J12" s="68" t="s">
+        <v>296</v>
+      </c>
+      <c r="K12" s="68" t="s">
+        <v>299</v>
+      </c>
+      <c r="L12" s="68" t="s">
+        <v>305</v>
+      </c>
+      <c r="M12" s="68" t="s">
+        <v>311</v>
       </c>
       <c r="N12" s="63" t="b">
         <v>0</v>
@@ -18713,35 +18968,35 @@
       <c r="C13" s="67">
         <v>0</v>
       </c>
-      <c r="D13" s="69">
-        <v>2738771542900</v>
-      </c>
-      <c r="E13" s="68">
-        <v>73450185238900</v>
-      </c>
-      <c r="F13" s="68">
-        <v>144161598934900</v>
-      </c>
-      <c r="G13" s="68">
-        <v>214873012630900</v>
-      </c>
-      <c r="H13" s="68">
-        <v>285584426326900</v>
-      </c>
-      <c r="I13" s="68">
-        <v>356295840022900</v>
-      </c>
-      <c r="J13" s="68">
-        <v>427007253718900</v>
-      </c>
-      <c r="K13" s="68">
-        <v>497718667414900</v>
-      </c>
-      <c r="L13" s="68">
-        <v>568430081110900</v>
-      </c>
-      <c r="M13" s="68">
-        <v>639141494806900</v>
+      <c r="D13" s="69" t="s">
+        <v>253</v>
+      </c>
+      <c r="E13" s="68" t="s">
+        <v>259</v>
+      </c>
+      <c r="F13" s="68" t="s">
+        <v>266</v>
+      </c>
+      <c r="G13" s="68" t="s">
+        <v>273</v>
+      </c>
+      <c r="H13" s="68" t="s">
+        <v>280</v>
+      </c>
+      <c r="I13" s="68" t="s">
+        <v>287</v>
+      </c>
+      <c r="J13" s="68" t="s">
+        <v>295</v>
+      </c>
+      <c r="K13" s="68" t="s">
+        <v>300</v>
+      </c>
+      <c r="L13" s="68" t="s">
+        <v>306</v>
+      </c>
+      <c r="M13" s="68" t="s">
+        <v>312</v>
       </c>
       <c r="N13" s="63" t="b">
         <v>0</v>
@@ -18757,35 +19012,35 @@
       <c r="C14" s="67">
         <v>0</v>
       </c>
-      <c r="D14" s="69">
-        <v>62399688866300</v>
-      </c>
-      <c r="E14" s="68">
-        <v>2608010581922300</v>
-      </c>
-      <c r="F14" s="68">
-        <v>5153621474978300</v>
-      </c>
-      <c r="G14" s="68">
-        <v>7699232368034300</v>
-      </c>
-      <c r="H14" s="68">
-        <v>1.02448432610903E+16</v>
-      </c>
-      <c r="I14" s="68">
-        <v>1.27904541541463E+16</v>
-      </c>
-      <c r="J14" s="68">
-        <v>1.53360650472023E+16</v>
-      </c>
-      <c r="K14" s="68">
-        <v>1.78816759402583E+16</v>
-      </c>
-      <c r="L14" s="68">
-        <v>2.04272868333143E+16</v>
-      </c>
-      <c r="M14" s="68">
-        <v>2.29728977263703E+16</v>
+      <c r="D14" s="69" t="s">
+        <v>254</v>
+      </c>
+      <c r="E14" s="68" t="s">
+        <v>260</v>
+      </c>
+      <c r="F14" s="68" t="s">
+        <v>267</v>
+      </c>
+      <c r="G14" s="68" t="s">
+        <v>274</v>
+      </c>
+      <c r="H14" s="68" t="s">
+        <v>281</v>
+      </c>
+      <c r="I14" s="68" t="s">
+        <v>288</v>
+      </c>
+      <c r="J14" s="68" t="s">
+        <v>294</v>
+      </c>
+      <c r="K14" s="68" t="s">
+        <v>301</v>
+      </c>
+      <c r="L14" s="68" t="s">
+        <v>307</v>
+      </c>
+      <c r="M14" s="68" t="s">
+        <v>313</v>
       </c>
       <c r="N14" s="63" t="b">
         <v>0</v>
@@ -18801,35 +19056,35 @@
       <c r="C15" s="67">
         <v>0</v>
       </c>
-      <c r="D15" s="69">
-        <v>1547853022245100</v>
-      </c>
-      <c r="E15" s="68">
-        <v>1.008266778514291E+17</v>
-      </c>
-      <c r="F15" s="68">
-        <v>2.0010550268061312E+17</v>
-      </c>
-      <c r="G15" s="68">
-        <v>2.9938432750979712E+17</v>
-      </c>
-      <c r="H15" s="68">
-        <v>3.9866315233898112E+17</v>
-      </c>
-      <c r="I15" s="68">
-        <v>4.9794197716816512E+17</v>
-      </c>
-      <c r="J15" s="68">
-        <v>5.9722080199734912E+17</v>
-      </c>
-      <c r="K15" s="68">
-        <v>6.9649962682653312E+17</v>
-      </c>
-      <c r="L15" s="68">
-        <v>7.9577845165571712E+17</v>
-      </c>
-      <c r="M15" s="68">
-        <v>8.9505727648490112E+17</v>
+      <c r="D15" s="69" t="s">
+        <v>255</v>
+      </c>
+      <c r="E15" s="68" t="s">
+        <v>261</v>
+      </c>
+      <c r="F15" s="68" t="s">
+        <v>268</v>
+      </c>
+      <c r="G15" s="68" t="s">
+        <v>275</v>
+      </c>
+      <c r="H15" s="68" t="s">
+        <v>282</v>
+      </c>
+      <c r="I15" s="68" t="s">
+        <v>289</v>
+      </c>
+      <c r="J15" s="68" t="s">
+        <v>292</v>
+      </c>
+      <c r="K15" s="68" t="s">
+        <v>302</v>
+      </c>
+      <c r="L15" s="68" t="s">
+        <v>308</v>
+      </c>
+      <c r="M15" s="68" t="s">
+        <v>314</v>
       </c>
       <c r="N15" s="63" t="b">
         <v>0</v>
@@ -18845,35 +19100,35 @@
       <c r="C16" s="67">
         <v>0</v>
       </c>
-      <c r="D16" s="69">
-        <v>4.1518154446327696E+16</v>
-      </c>
-      <c r="E16" s="68">
-        <v>4.2112287972720558E+18</v>
-      </c>
-      <c r="F16" s="68">
-        <v>8.3809394400977838E+18</v>
-      </c>
-      <c r="G16" s="68">
-        <v>1.2550650082923512E+19</v>
-      </c>
-      <c r="H16" s="68">
-        <v>1.672036072574924E+19</v>
-      </c>
-      <c r="I16" s="68">
-        <v>2.0890071368574968E+19</v>
-      </c>
-      <c r="J16" s="68">
-        <v>2.5059782011400696E+19</v>
-      </c>
-      <c r="K16" s="68">
-        <v>2.9229492654226424E+19</v>
-      </c>
-      <c r="L16" s="68">
-        <v>3.3399203297052152E+19</v>
-      </c>
-      <c r="M16" s="68">
-        <v>3.756891393987788E+19</v>
+      <c r="D16" s="69" t="s">
+        <v>256</v>
+      </c>
+      <c r="E16" s="68" t="s">
+        <v>262</v>
+      </c>
+      <c r="F16" s="68" t="s">
+        <v>269</v>
+      </c>
+      <c r="G16" s="68" t="s">
+        <v>276</v>
+      </c>
+      <c r="H16" s="68" t="s">
+        <v>283</v>
+      </c>
+      <c r="I16" s="68" t="s">
+        <v>293</v>
+      </c>
+      <c r="J16" s="68" t="s">
+        <v>291</v>
+      </c>
+      <c r="K16" s="68" t="s">
+        <v>303</v>
+      </c>
+      <c r="L16" s="68" t="s">
+        <v>309</v>
+      </c>
+      <c r="M16" s="68" t="s">
+        <v>315</v>
       </c>
       <c r="N16" s="63" t="b">
         <v>0</v>
@@ -18889,23 +19144,23 @@
       <c r="C17" s="67">
         <v>0</v>
       </c>
-      <c r="D17" s="69">
-        <v>1.197287312545943E+18</v>
-      </c>
-      <c r="E17" s="68">
-        <v>1.8883426623970371E+20</v>
-      </c>
-      <c r="F17" s="68">
-        <v>3.7647124516686148E+20</v>
-      </c>
-      <c r="G17" s="68">
-        <v>5.6410822409401926E+20</v>
-      </c>
-      <c r="H17" s="68">
-        <v>7.5174520302117703E+20</v>
-      </c>
-      <c r="I17" s="68">
-        <v>9.393821819483348E+20</v>
+      <c r="D17" s="69" t="s">
+        <v>257</v>
+      </c>
+      <c r="E17" s="68" t="s">
+        <v>263</v>
+      </c>
+      <c r="F17" s="68" t="s">
+        <v>270</v>
+      </c>
+      <c r="G17" s="68" t="s">
+        <v>277</v>
+      </c>
+      <c r="H17" s="68" t="s">
+        <v>284</v>
+      </c>
+      <c r="I17" s="68" t="s">
+        <v>290</v>
       </c>
       <c r="J17" s="68" t="s">
         <v>215</v>
@@ -19107,7 +19362,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -19707,7 +19962,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:N23"/>
   <sheetViews>
     <sheetView topLeftCell="G1" workbookViewId="0">
@@ -20332,7 +20587,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:C104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -21277,7 +21532,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/Project1/Assets/Script/Data/weaponDB.xlsx
+++ b/Project1/Assets/Script/Data/weaponDB.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\won1\Desktop\TeamProject1\Project1\Assets\Script\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\whdns\OneDrive\바탕 화면\123\TeamProject1\Project1\Assets\Script\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4BFF791-050D-4509-9B73-FCEFF4296DEA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="599" activeTab="3"/>
+    <workbookView xWindow="3330" yWindow="1155" windowWidth="20445" windowHeight="13920" tabRatio="599" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="시스템 기획" sheetId="2" r:id="rId1"/>
@@ -21,7 +22,7 @@
     <sheet name="보물 DB" sheetId="10" r:id="rId7"/>
     <sheet name="수색 DB" sheetId="11" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1594,7 +1595,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0%"/>
   </numFmts>
@@ -2426,16 +2427,31 @@
     <xf numFmtId="49" fontId="16" fillId="17" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2465,78 +2481,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2559,6 +2503,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2627,13 +2583,55 @@
     <xf numFmtId="0" fontId="2" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2685,6 +2683,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3071,7 +3072,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AV78"/>
   <sheetViews>
     <sheetView topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
@@ -3135,33 +3136,33 @@
     </row>
     <row r="2" spans="1:48" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8"/>
-      <c r="B2" s="98" t="s">
+      <c r="B2" s="70" t="s">
         <v>68</v>
       </c>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="99"/>
-      <c r="F2" s="99"/>
-      <c r="G2" s="99"/>
-      <c r="H2" s="99"/>
-      <c r="I2" s="99"/>
-      <c r="J2" s="99"/>
-      <c r="K2" s="99"/>
-      <c r="L2" s="99"/>
-      <c r="M2" s="99"/>
-      <c r="N2" s="99"/>
-      <c r="O2" s="99"/>
-      <c r="P2" s="99"/>
-      <c r="Q2" s="99"/>
-      <c r="R2" s="99"/>
-      <c r="S2" s="99"/>
-      <c r="T2" s="99"/>
-      <c r="U2" s="99"/>
-      <c r="V2" s="99"/>
-      <c r="W2" s="99"/>
-      <c r="X2" s="99"/>
-      <c r="Y2" s="99"/>
-      <c r="Z2" s="100"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="71"/>
+      <c r="I2" s="71"/>
+      <c r="J2" s="71"/>
+      <c r="K2" s="71"/>
+      <c r="L2" s="71"/>
+      <c r="M2" s="71"/>
+      <c r="N2" s="71"/>
+      <c r="O2" s="71"/>
+      <c r="P2" s="71"/>
+      <c r="Q2" s="71"/>
+      <c r="R2" s="71"/>
+      <c r="S2" s="71"/>
+      <c r="T2" s="71"/>
+      <c r="U2" s="71"/>
+      <c r="V2" s="71"/>
+      <c r="W2" s="71"/>
+      <c r="X2" s="71"/>
+      <c r="Y2" s="71"/>
+      <c r="Z2" s="72"/>
       <c r="AA2" s="8"/>
       <c r="AB2" s="8"/>
       <c r="AC2" s="8"/>
@@ -3187,31 +3188,31 @@
     </row>
     <row r="3" spans="1:48" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="8"/>
-      <c r="B3" s="101"/>
-      <c r="C3" s="102"/>
-      <c r="D3" s="102"/>
-      <c r="E3" s="102"/>
-      <c r="F3" s="102"/>
-      <c r="G3" s="102"/>
-      <c r="H3" s="102"/>
-      <c r="I3" s="102"/>
-      <c r="J3" s="102"/>
-      <c r="K3" s="102"/>
-      <c r="L3" s="102"/>
-      <c r="M3" s="102"/>
-      <c r="N3" s="102"/>
-      <c r="O3" s="102"/>
-      <c r="P3" s="102"/>
-      <c r="Q3" s="102"/>
-      <c r="R3" s="102"/>
-      <c r="S3" s="102"/>
-      <c r="T3" s="102"/>
-      <c r="U3" s="102"/>
-      <c r="V3" s="102"/>
-      <c r="W3" s="102"/>
-      <c r="X3" s="102"/>
-      <c r="Y3" s="102"/>
-      <c r="Z3" s="103"/>
+      <c r="B3" s="73"/>
+      <c r="C3" s="74"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="74"/>
+      <c r="H3" s="74"/>
+      <c r="I3" s="74"/>
+      <c r="J3" s="74"/>
+      <c r="K3" s="74"/>
+      <c r="L3" s="74"/>
+      <c r="M3" s="74"/>
+      <c r="N3" s="74"/>
+      <c r="O3" s="74"/>
+      <c r="P3" s="74"/>
+      <c r="Q3" s="74"/>
+      <c r="R3" s="74"/>
+      <c r="S3" s="74"/>
+      <c r="T3" s="74"/>
+      <c r="U3" s="74"/>
+      <c r="V3" s="74"/>
+      <c r="W3" s="74"/>
+      <c r="X3" s="74"/>
+      <c r="Y3" s="74"/>
+      <c r="Z3" s="75"/>
       <c r="AA3" s="8"/>
       <c r="AB3" s="8"/>
       <c r="AC3" s="8"/>
@@ -3237,31 +3238,31 @@
     </row>
     <row r="4" spans="1:48" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="8"/>
-      <c r="B4" s="104"/>
-      <c r="C4" s="105"/>
-      <c r="D4" s="105"/>
-      <c r="E4" s="105"/>
-      <c r="F4" s="105"/>
-      <c r="G4" s="105"/>
-      <c r="H4" s="105"/>
-      <c r="I4" s="105"/>
-      <c r="J4" s="105"/>
-      <c r="K4" s="105"/>
-      <c r="L4" s="105"/>
-      <c r="M4" s="105"/>
-      <c r="N4" s="105"/>
-      <c r="O4" s="105"/>
-      <c r="P4" s="105"/>
-      <c r="Q4" s="105"/>
-      <c r="R4" s="105"/>
-      <c r="S4" s="105"/>
-      <c r="T4" s="105"/>
-      <c r="U4" s="105"/>
-      <c r="V4" s="105"/>
-      <c r="W4" s="105"/>
-      <c r="X4" s="105"/>
-      <c r="Y4" s="105"/>
-      <c r="Z4" s="106"/>
+      <c r="B4" s="76"/>
+      <c r="C4" s="77"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="77"/>
+      <c r="H4" s="77"/>
+      <c r="I4" s="77"/>
+      <c r="J4" s="77"/>
+      <c r="K4" s="77"/>
+      <c r="L4" s="77"/>
+      <c r="M4" s="77"/>
+      <c r="N4" s="77"/>
+      <c r="O4" s="77"/>
+      <c r="P4" s="77"/>
+      <c r="Q4" s="77"/>
+      <c r="R4" s="77"/>
+      <c r="S4" s="77"/>
+      <c r="T4" s="77"/>
+      <c r="U4" s="77"/>
+      <c r="V4" s="77"/>
+      <c r="W4" s="77"/>
+      <c r="X4" s="77"/>
+      <c r="Y4" s="77"/>
+      <c r="Z4" s="78"/>
       <c r="AA4" s="8"/>
       <c r="AB4" s="8"/>
       <c r="AC4" s="8"/>
@@ -3387,10 +3388,10 @@
     </row>
     <row r="7" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A7" s="8"/>
-      <c r="B7" s="133" t="s">
+      <c r="B7" s="118" t="s">
         <v>67</v>
       </c>
-      <c r="C7" s="134"/>
+      <c r="C7" s="119"/>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
@@ -3439,8 +3440,8 @@
     </row>
     <row r="8" spans="1:48" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="8"/>
-      <c r="B8" s="135"/>
-      <c r="C8" s="136"/>
+      <c r="B8" s="120"/>
+      <c r="C8" s="121"/>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
@@ -3549,27 +3550,27 @@
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
-      <c r="L10" s="121" t="s">
+      <c r="L10" s="106" t="s">
         <v>69</v>
       </c>
-      <c r="M10" s="122"/>
-      <c r="N10" s="115" t="s">
+      <c r="M10" s="107"/>
+      <c r="N10" s="100" t="s">
         <v>24</v>
       </c>
-      <c r="O10" s="116"/>
-      <c r="P10" s="74" t="s">
+      <c r="O10" s="101"/>
+      <c r="P10" s="79" t="s">
         <v>127</v>
       </c>
-      <c r="Q10" s="75"/>
-      <c r="R10" s="75"/>
-      <c r="S10" s="75"/>
-      <c r="T10" s="75"/>
-      <c r="U10" s="75"/>
-      <c r="V10" s="75"/>
-      <c r="W10" s="75"/>
-      <c r="X10" s="75"/>
-      <c r="Y10" s="75"/>
-      <c r="Z10" s="76"/>
+      <c r="Q10" s="80"/>
+      <c r="R10" s="80"/>
+      <c r="S10" s="80"/>
+      <c r="T10" s="80"/>
+      <c r="U10" s="80"/>
+      <c r="V10" s="80"/>
+      <c r="W10" s="80"/>
+      <c r="X10" s="80"/>
+      <c r="Y10" s="80"/>
+      <c r="Z10" s="81"/>
       <c r="AA10" s="8"/>
       <c r="AB10" s="8"/>
       <c r="AC10" s="8"/>
@@ -3605,21 +3606,21 @@
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
-      <c r="L11" s="123"/>
-      <c r="M11" s="124"/>
-      <c r="N11" s="117"/>
-      <c r="O11" s="118"/>
-      <c r="P11" s="77"/>
-      <c r="Q11" s="78"/>
-      <c r="R11" s="78"/>
-      <c r="S11" s="78"/>
-      <c r="T11" s="78"/>
-      <c r="U11" s="78"/>
-      <c r="V11" s="78"/>
-      <c r="W11" s="78"/>
-      <c r="X11" s="78"/>
-      <c r="Y11" s="78"/>
-      <c r="Z11" s="79"/>
+      <c r="L11" s="108"/>
+      <c r="M11" s="109"/>
+      <c r="N11" s="102"/>
+      <c r="O11" s="103"/>
+      <c r="P11" s="82"/>
+      <c r="Q11" s="83"/>
+      <c r="R11" s="83"/>
+      <c r="S11" s="83"/>
+      <c r="T11" s="83"/>
+      <c r="U11" s="83"/>
+      <c r="V11" s="83"/>
+      <c r="W11" s="83"/>
+      <c r="X11" s="83"/>
+      <c r="Y11" s="83"/>
+      <c r="Z11" s="84"/>
       <c r="AA11" s="8"/>
       <c r="AB11" s="8"/>
       <c r="AC11" s="8"/>
@@ -3655,21 +3656,21 @@
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
-      <c r="L12" s="123"/>
-      <c r="M12" s="124"/>
-      <c r="N12" s="117"/>
-      <c r="O12" s="118"/>
-      <c r="P12" s="77"/>
-      <c r="Q12" s="78"/>
-      <c r="R12" s="78"/>
-      <c r="S12" s="78"/>
-      <c r="T12" s="78"/>
-      <c r="U12" s="78"/>
-      <c r="V12" s="78"/>
-      <c r="W12" s="78"/>
-      <c r="X12" s="78"/>
-      <c r="Y12" s="78"/>
-      <c r="Z12" s="79"/>
+      <c r="L12" s="108"/>
+      <c r="M12" s="109"/>
+      <c r="N12" s="102"/>
+      <c r="O12" s="103"/>
+      <c r="P12" s="82"/>
+      <c r="Q12" s="83"/>
+      <c r="R12" s="83"/>
+      <c r="S12" s="83"/>
+      <c r="T12" s="83"/>
+      <c r="U12" s="83"/>
+      <c r="V12" s="83"/>
+      <c r="W12" s="83"/>
+      <c r="X12" s="83"/>
+      <c r="Y12" s="83"/>
+      <c r="Z12" s="84"/>
       <c r="AA12" s="8"/>
       <c r="AB12" s="8"/>
       <c r="AC12" s="8"/>
@@ -3697,33 +3698,33 @@
       <c r="A13" s="8"/>
       <c r="B13" s="28"/>
       <c r="C13" s="29"/>
-      <c r="D13" s="133" t="s">
+      <c r="D13" s="118" t="s">
         <v>69</v>
       </c>
-      <c r="E13" s="134"/>
+      <c r="E13" s="119"/>
       <c r="F13" s="30"/>
       <c r="G13" s="31"/>
-      <c r="H13" s="111" t="s">
+      <c r="H13" s="92" t="s">
         <v>71</v>
       </c>
-      <c r="I13" s="112"/>
+      <c r="I13" s="93"/>
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
-      <c r="L13" s="123"/>
-      <c r="M13" s="124"/>
-      <c r="N13" s="119"/>
-      <c r="O13" s="120"/>
-      <c r="P13" s="80"/>
-      <c r="Q13" s="81"/>
-      <c r="R13" s="81"/>
-      <c r="S13" s="81"/>
-      <c r="T13" s="81"/>
-      <c r="U13" s="81"/>
-      <c r="V13" s="81"/>
-      <c r="W13" s="81"/>
-      <c r="X13" s="81"/>
-      <c r="Y13" s="81"/>
-      <c r="Z13" s="82"/>
+      <c r="L13" s="108"/>
+      <c r="M13" s="109"/>
+      <c r="N13" s="104"/>
+      <c r="O13" s="105"/>
+      <c r="P13" s="85"/>
+      <c r="Q13" s="86"/>
+      <c r="R13" s="86"/>
+      <c r="S13" s="86"/>
+      <c r="T13" s="86"/>
+      <c r="U13" s="86"/>
+      <c r="V13" s="86"/>
+      <c r="W13" s="86"/>
+      <c r="X13" s="86"/>
+      <c r="Y13" s="86"/>
+      <c r="Z13" s="87"/>
       <c r="AA13" s="8"/>
       <c r="AB13" s="8"/>
       <c r="AC13" s="8"/>
@@ -3751,33 +3752,33 @@
       <c r="A14" s="8"/>
       <c r="B14" s="8"/>
       <c r="C14" s="32"/>
-      <c r="D14" s="135"/>
-      <c r="E14" s="136"/>
+      <c r="D14" s="120"/>
+      <c r="E14" s="121"/>
       <c r="F14" s="33"/>
       <c r="G14" s="8"/>
-      <c r="H14" s="113"/>
-      <c r="I14" s="114"/>
+      <c r="H14" s="94"/>
+      <c r="I14" s="95"/>
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
-      <c r="L14" s="123"/>
-      <c r="M14" s="124"/>
-      <c r="N14" s="115" t="s">
+      <c r="L14" s="108"/>
+      <c r="M14" s="109"/>
+      <c r="N14" s="100" t="s">
         <v>70</v>
       </c>
-      <c r="O14" s="116"/>
-      <c r="P14" s="74" t="s">
+      <c r="O14" s="101"/>
+      <c r="P14" s="79" t="s">
         <v>125</v>
       </c>
-      <c r="Q14" s="75"/>
-      <c r="R14" s="75"/>
-      <c r="S14" s="75"/>
-      <c r="T14" s="75"/>
-      <c r="U14" s="75"/>
-      <c r="V14" s="75"/>
-      <c r="W14" s="75"/>
-      <c r="X14" s="75"/>
-      <c r="Y14" s="75"/>
-      <c r="Z14" s="76"/>
+      <c r="Q14" s="80"/>
+      <c r="R14" s="80"/>
+      <c r="S14" s="80"/>
+      <c r="T14" s="80"/>
+      <c r="U14" s="80"/>
+      <c r="V14" s="80"/>
+      <c r="W14" s="80"/>
+      <c r="X14" s="80"/>
+      <c r="Y14" s="80"/>
+      <c r="Z14" s="81"/>
       <c r="AA14" s="8"/>
       <c r="AB14" s="8"/>
       <c r="AC14" s="8"/>
@@ -3813,21 +3814,21 @@
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
-      <c r="L15" s="123"/>
-      <c r="M15" s="124"/>
-      <c r="N15" s="117"/>
-      <c r="O15" s="118"/>
-      <c r="P15" s="77"/>
-      <c r="Q15" s="78"/>
-      <c r="R15" s="78"/>
-      <c r="S15" s="78"/>
-      <c r="T15" s="78"/>
-      <c r="U15" s="78"/>
-      <c r="V15" s="78"/>
-      <c r="W15" s="78"/>
-      <c r="X15" s="78"/>
-      <c r="Y15" s="78"/>
-      <c r="Z15" s="79"/>
+      <c r="L15" s="108"/>
+      <c r="M15" s="109"/>
+      <c r="N15" s="102"/>
+      <c r="O15" s="103"/>
+      <c r="P15" s="82"/>
+      <c r="Q15" s="83"/>
+      <c r="R15" s="83"/>
+      <c r="S15" s="83"/>
+      <c r="T15" s="83"/>
+      <c r="U15" s="83"/>
+      <c r="V15" s="83"/>
+      <c r="W15" s="83"/>
+      <c r="X15" s="83"/>
+      <c r="Y15" s="83"/>
+      <c r="Z15" s="84"/>
       <c r="AA15" s="8"/>
       <c r="AB15" s="8"/>
       <c r="AC15" s="8"/>
@@ -3863,21 +3864,21 @@
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
-      <c r="L16" s="123"/>
-      <c r="M16" s="124"/>
-      <c r="N16" s="117"/>
-      <c r="O16" s="118"/>
-      <c r="P16" s="77"/>
-      <c r="Q16" s="78"/>
-      <c r="R16" s="78"/>
-      <c r="S16" s="78"/>
-      <c r="T16" s="78"/>
-      <c r="U16" s="78"/>
-      <c r="V16" s="78"/>
-      <c r="W16" s="78"/>
-      <c r="X16" s="78"/>
-      <c r="Y16" s="78"/>
-      <c r="Z16" s="79"/>
+      <c r="L16" s="108"/>
+      <c r="M16" s="109"/>
+      <c r="N16" s="102"/>
+      <c r="O16" s="103"/>
+      <c r="P16" s="82"/>
+      <c r="Q16" s="83"/>
+      <c r="R16" s="83"/>
+      <c r="S16" s="83"/>
+      <c r="T16" s="83"/>
+      <c r="U16" s="83"/>
+      <c r="V16" s="83"/>
+      <c r="W16" s="83"/>
+      <c r="X16" s="83"/>
+      <c r="Y16" s="83"/>
+      <c r="Z16" s="84"/>
       <c r="AA16" s="8"/>
       <c r="AB16" s="8"/>
       <c r="AC16" s="8"/>
@@ -3909,27 +3910,27 @@
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="34"/>
-      <c r="H17" s="111" t="s">
+      <c r="H17" s="92" t="s">
         <v>70</v>
       </c>
-      <c r="I17" s="112"/>
+      <c r="I17" s="93"/>
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
-      <c r="L17" s="125"/>
-      <c r="M17" s="126"/>
-      <c r="N17" s="119"/>
-      <c r="O17" s="120"/>
-      <c r="P17" s="80"/>
-      <c r="Q17" s="81"/>
-      <c r="R17" s="81"/>
-      <c r="S17" s="81"/>
-      <c r="T17" s="81"/>
-      <c r="U17" s="81"/>
-      <c r="V17" s="81"/>
-      <c r="W17" s="81"/>
-      <c r="X17" s="81"/>
-      <c r="Y17" s="81"/>
-      <c r="Z17" s="82"/>
+      <c r="L17" s="110"/>
+      <c r="M17" s="111"/>
+      <c r="N17" s="104"/>
+      <c r="O17" s="105"/>
+      <c r="P17" s="85"/>
+      <c r="Q17" s="86"/>
+      <c r="R17" s="86"/>
+      <c r="S17" s="86"/>
+      <c r="T17" s="86"/>
+      <c r="U17" s="86"/>
+      <c r="V17" s="86"/>
+      <c r="W17" s="86"/>
+      <c r="X17" s="86"/>
+      <c r="Y17" s="86"/>
+      <c r="Z17" s="87"/>
       <c r="AA17" s="8"/>
       <c r="AB17" s="8"/>
       <c r="AC17" s="8"/>
@@ -3961,31 +3962,31 @@
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="35"/>
-      <c r="H18" s="113"/>
-      <c r="I18" s="114"/>
+      <c r="H18" s="94"/>
+      <c r="I18" s="95"/>
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
-      <c r="L18" s="127" t="s">
+      <c r="L18" s="112" t="s">
         <v>72</v>
       </c>
-      <c r="M18" s="128"/>
-      <c r="N18" s="96" t="s">
+      <c r="M18" s="113"/>
+      <c r="N18" s="130" t="s">
         <v>73</v>
       </c>
-      <c r="O18" s="91"/>
-      <c r="P18" s="74" t="s">
+      <c r="O18" s="131"/>
+      <c r="P18" s="79" t="s">
         <v>124</v>
       </c>
-      <c r="Q18" s="83"/>
-      <c r="R18" s="83"/>
-      <c r="S18" s="83"/>
-      <c r="T18" s="83"/>
-      <c r="U18" s="83"/>
-      <c r="V18" s="83"/>
-      <c r="W18" s="83"/>
-      <c r="X18" s="83"/>
-      <c r="Y18" s="83"/>
-      <c r="Z18" s="84"/>
+      <c r="Q18" s="125"/>
+      <c r="R18" s="125"/>
+      <c r="S18" s="125"/>
+      <c r="T18" s="125"/>
+      <c r="U18" s="125"/>
+      <c r="V18" s="125"/>
+      <c r="W18" s="125"/>
+      <c r="X18" s="125"/>
+      <c r="Y18" s="125"/>
+      <c r="Z18" s="126"/>
       <c r="AA18" s="8"/>
       <c r="AB18" s="8"/>
       <c r="AC18" s="8"/>
@@ -4021,21 +4022,21 @@
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
       <c r="K19" s="8"/>
-      <c r="L19" s="129"/>
-      <c r="M19" s="130"/>
-      <c r="N19" s="97"/>
-      <c r="O19" s="95"/>
-      <c r="P19" s="85"/>
-      <c r="Q19" s="86"/>
-      <c r="R19" s="86"/>
-      <c r="S19" s="86"/>
-      <c r="T19" s="86"/>
-      <c r="U19" s="86"/>
-      <c r="V19" s="86"/>
-      <c r="W19" s="86"/>
-      <c r="X19" s="86"/>
-      <c r="Y19" s="86"/>
-      <c r="Z19" s="87"/>
+      <c r="L19" s="114"/>
+      <c r="M19" s="115"/>
+      <c r="N19" s="132"/>
+      <c r="O19" s="133"/>
+      <c r="P19" s="127"/>
+      <c r="Q19" s="128"/>
+      <c r="R19" s="128"/>
+      <c r="S19" s="128"/>
+      <c r="T19" s="128"/>
+      <c r="U19" s="128"/>
+      <c r="V19" s="128"/>
+      <c r="W19" s="128"/>
+      <c r="X19" s="128"/>
+      <c r="Y19" s="128"/>
+      <c r="Z19" s="129"/>
       <c r="AA19" s="8"/>
       <c r="AB19" s="8"/>
       <c r="AC19" s="8"/>
@@ -4071,25 +4072,25 @@
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
-      <c r="L20" s="129"/>
-      <c r="M20" s="130"/>
-      <c r="N20" s="96" t="s">
+      <c r="L20" s="114"/>
+      <c r="M20" s="115"/>
+      <c r="N20" s="130" t="s">
         <v>74</v>
       </c>
-      <c r="O20" s="91"/>
-      <c r="P20" s="88" t="s">
+      <c r="O20" s="131"/>
+      <c r="P20" s="134" t="s">
         <v>123</v>
       </c>
-      <c r="Q20" s="83"/>
-      <c r="R20" s="83"/>
-      <c r="S20" s="83"/>
-      <c r="T20" s="83"/>
-      <c r="U20" s="83"/>
-      <c r="V20" s="83"/>
-      <c r="W20" s="83"/>
-      <c r="X20" s="83"/>
-      <c r="Y20" s="83"/>
-      <c r="Z20" s="84"/>
+      <c r="Q20" s="125"/>
+      <c r="R20" s="125"/>
+      <c r="S20" s="125"/>
+      <c r="T20" s="125"/>
+      <c r="U20" s="125"/>
+      <c r="V20" s="125"/>
+      <c r="W20" s="125"/>
+      <c r="X20" s="125"/>
+      <c r="Y20" s="125"/>
+      <c r="Z20" s="126"/>
       <c r="AA20" s="8"/>
       <c r="AB20" s="8"/>
       <c r="AC20" s="8"/>
@@ -4117,33 +4118,33 @@
       <c r="A21" s="8"/>
       <c r="B21" s="8"/>
       <c r="C21" s="29"/>
-      <c r="D21" s="107" t="s">
+      <c r="D21" s="88" t="s">
         <v>72</v>
       </c>
-      <c r="E21" s="108"/>
+      <c r="E21" s="89"/>
       <c r="F21" s="30"/>
       <c r="G21" s="31"/>
-      <c r="H21" s="70" t="s">
+      <c r="H21" s="96" t="s">
         <v>73</v>
       </c>
-      <c r="I21" s="71"/>
+      <c r="I21" s="97"/>
       <c r="J21" s="8"/>
       <c r="K21" s="8"/>
-      <c r="L21" s="129"/>
-      <c r="M21" s="130"/>
-      <c r="N21" s="97"/>
-      <c r="O21" s="95"/>
-      <c r="P21" s="85"/>
-      <c r="Q21" s="86"/>
-      <c r="R21" s="86"/>
-      <c r="S21" s="86"/>
-      <c r="T21" s="86"/>
-      <c r="U21" s="86"/>
-      <c r="V21" s="86"/>
-      <c r="W21" s="86"/>
-      <c r="X21" s="86"/>
-      <c r="Y21" s="86"/>
-      <c r="Z21" s="87"/>
+      <c r="L21" s="114"/>
+      <c r="M21" s="115"/>
+      <c r="N21" s="132"/>
+      <c r="O21" s="133"/>
+      <c r="P21" s="127"/>
+      <c r="Q21" s="128"/>
+      <c r="R21" s="128"/>
+      <c r="S21" s="128"/>
+      <c r="T21" s="128"/>
+      <c r="U21" s="128"/>
+      <c r="V21" s="128"/>
+      <c r="W21" s="128"/>
+      <c r="X21" s="128"/>
+      <c r="Y21" s="128"/>
+      <c r="Z21" s="129"/>
       <c r="AA21" s="8"/>
       <c r="AB21" s="8"/>
       <c r="AC21" s="8"/>
@@ -4171,33 +4172,33 @@
       <c r="A22" s="8"/>
       <c r="B22" s="8"/>
       <c r="C22" s="36"/>
-      <c r="D22" s="109"/>
-      <c r="E22" s="110"/>
+      <c r="D22" s="90"/>
+      <c r="E22" s="91"/>
       <c r="F22" s="33"/>
       <c r="G22" s="8"/>
-      <c r="H22" s="72"/>
-      <c r="I22" s="73"/>
+      <c r="H22" s="98"/>
+      <c r="I22" s="99"/>
       <c r="J22" s="8"/>
       <c r="K22" s="8"/>
-      <c r="L22" s="129"/>
-      <c r="M22" s="130"/>
-      <c r="N22" s="90" t="s">
+      <c r="L22" s="114"/>
+      <c r="M22" s="115"/>
+      <c r="N22" s="122" t="s">
         <v>75</v>
       </c>
-      <c r="O22" s="91"/>
-      <c r="P22" s="89" t="s">
+      <c r="O22" s="131"/>
+      <c r="P22" s="135" t="s">
         <v>122</v>
       </c>
-      <c r="Q22" s="75"/>
-      <c r="R22" s="75"/>
-      <c r="S22" s="75"/>
-      <c r="T22" s="75"/>
-      <c r="U22" s="75"/>
-      <c r="V22" s="75"/>
-      <c r="W22" s="75"/>
-      <c r="X22" s="75"/>
-      <c r="Y22" s="75"/>
-      <c r="Z22" s="76"/>
+      <c r="Q22" s="80"/>
+      <c r="R22" s="80"/>
+      <c r="S22" s="80"/>
+      <c r="T22" s="80"/>
+      <c r="U22" s="80"/>
+      <c r="V22" s="80"/>
+      <c r="W22" s="80"/>
+      <c r="X22" s="80"/>
+      <c r="Y22" s="80"/>
+      <c r="Z22" s="81"/>
       <c r="AA22" s="8"/>
       <c r="AB22" s="8"/>
       <c r="AC22" s="8"/>
@@ -4233,21 +4234,21 @@
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
       <c r="K23" s="8"/>
-      <c r="L23" s="129"/>
-      <c r="M23" s="130"/>
-      <c r="N23" s="92"/>
-      <c r="O23" s="93"/>
-      <c r="P23" s="77"/>
-      <c r="Q23" s="78"/>
-      <c r="R23" s="78"/>
-      <c r="S23" s="78"/>
-      <c r="T23" s="78"/>
-      <c r="U23" s="78"/>
-      <c r="V23" s="78"/>
-      <c r="W23" s="78"/>
-      <c r="X23" s="78"/>
-      <c r="Y23" s="78"/>
-      <c r="Z23" s="79"/>
+      <c r="L23" s="114"/>
+      <c r="M23" s="115"/>
+      <c r="N23" s="123"/>
+      <c r="O23" s="136"/>
+      <c r="P23" s="82"/>
+      <c r="Q23" s="83"/>
+      <c r="R23" s="83"/>
+      <c r="S23" s="83"/>
+      <c r="T23" s="83"/>
+      <c r="U23" s="83"/>
+      <c r="V23" s="83"/>
+      <c r="W23" s="83"/>
+      <c r="X23" s="83"/>
+      <c r="Y23" s="83"/>
+      <c r="Z23" s="84"/>
       <c r="AA23" s="8"/>
       <c r="AB23" s="8"/>
       <c r="AC23" s="8"/>
@@ -4283,21 +4284,21 @@
       <c r="I24" s="8"/>
       <c r="J24" s="8"/>
       <c r="K24" s="8"/>
-      <c r="L24" s="129"/>
-      <c r="M24" s="130"/>
-      <c r="N24" s="92"/>
-      <c r="O24" s="93"/>
-      <c r="P24" s="77"/>
-      <c r="Q24" s="78"/>
-      <c r="R24" s="78"/>
-      <c r="S24" s="78"/>
-      <c r="T24" s="78"/>
-      <c r="U24" s="78"/>
-      <c r="V24" s="78"/>
-      <c r="W24" s="78"/>
-      <c r="X24" s="78"/>
-      <c r="Y24" s="78"/>
-      <c r="Z24" s="79"/>
+      <c r="L24" s="114"/>
+      <c r="M24" s="115"/>
+      <c r="N24" s="123"/>
+      <c r="O24" s="136"/>
+      <c r="P24" s="82"/>
+      <c r="Q24" s="83"/>
+      <c r="R24" s="83"/>
+      <c r="S24" s="83"/>
+      <c r="T24" s="83"/>
+      <c r="U24" s="83"/>
+      <c r="V24" s="83"/>
+      <c r="W24" s="83"/>
+      <c r="X24" s="83"/>
+      <c r="Y24" s="83"/>
+      <c r="Z24" s="84"/>
       <c r="AA24" s="8"/>
       <c r="AB24" s="8"/>
       <c r="AC24" s="8"/>
@@ -4333,21 +4334,21 @@
       <c r="I25" s="8"/>
       <c r="J25" s="8"/>
       <c r="K25" s="8"/>
-      <c r="L25" s="129"/>
-      <c r="M25" s="130"/>
-      <c r="N25" s="94"/>
-      <c r="O25" s="95"/>
-      <c r="P25" s="80"/>
-      <c r="Q25" s="81"/>
-      <c r="R25" s="81"/>
-      <c r="S25" s="81"/>
-      <c r="T25" s="81"/>
-      <c r="U25" s="81"/>
-      <c r="V25" s="81"/>
-      <c r="W25" s="81"/>
-      <c r="X25" s="81"/>
-      <c r="Y25" s="81"/>
-      <c r="Z25" s="82"/>
+      <c r="L25" s="114"/>
+      <c r="M25" s="115"/>
+      <c r="N25" s="124"/>
+      <c r="O25" s="133"/>
+      <c r="P25" s="85"/>
+      <c r="Q25" s="86"/>
+      <c r="R25" s="86"/>
+      <c r="S25" s="86"/>
+      <c r="T25" s="86"/>
+      <c r="U25" s="86"/>
+      <c r="V25" s="86"/>
+      <c r="W25" s="86"/>
+      <c r="X25" s="86"/>
+      <c r="Y25" s="86"/>
+      <c r="Z25" s="87"/>
       <c r="AA25" s="8"/>
       <c r="AB25" s="8"/>
       <c r="AC25" s="8"/>
@@ -4379,31 +4380,31 @@
       <c r="E26" s="8"/>
       <c r="F26" s="28"/>
       <c r="G26" s="28"/>
-      <c r="H26" s="70" t="s">
+      <c r="H26" s="96" t="s">
         <v>74</v>
       </c>
-      <c r="I26" s="71"/>
+      <c r="I26" s="97"/>
       <c r="J26" s="8"/>
       <c r="K26" s="8"/>
-      <c r="L26" s="129"/>
-      <c r="M26" s="130"/>
-      <c r="N26" s="90" t="s">
+      <c r="L26" s="114"/>
+      <c r="M26" s="115"/>
+      <c r="N26" s="122" t="s">
         <v>76</v>
       </c>
-      <c r="O26" s="90"/>
-      <c r="P26" s="74" t="s">
+      <c r="O26" s="122"/>
+      <c r="P26" s="79" t="s">
         <v>131</v>
       </c>
-      <c r="Q26" s="75"/>
-      <c r="R26" s="75"/>
-      <c r="S26" s="75"/>
-      <c r="T26" s="75"/>
-      <c r="U26" s="75"/>
-      <c r="V26" s="75"/>
-      <c r="W26" s="75"/>
-      <c r="X26" s="75"/>
-      <c r="Y26" s="75"/>
-      <c r="Z26" s="76"/>
+      <c r="Q26" s="80"/>
+      <c r="R26" s="80"/>
+      <c r="S26" s="80"/>
+      <c r="T26" s="80"/>
+      <c r="U26" s="80"/>
+      <c r="V26" s="80"/>
+      <c r="W26" s="80"/>
+      <c r="X26" s="80"/>
+      <c r="Y26" s="80"/>
+      <c r="Z26" s="81"/>
       <c r="AA26" s="8"/>
       <c r="AB26" s="8"/>
       <c r="AC26" s="8"/>
@@ -4435,25 +4436,25 @@
       <c r="E27" s="8"/>
       <c r="F27" s="28"/>
       <c r="G27" s="36"/>
-      <c r="H27" s="72"/>
-      <c r="I27" s="73"/>
+      <c r="H27" s="98"/>
+      <c r="I27" s="99"/>
       <c r="J27" s="8"/>
       <c r="K27" s="8"/>
-      <c r="L27" s="129"/>
-      <c r="M27" s="130"/>
-      <c r="N27" s="92"/>
-      <c r="O27" s="92"/>
-      <c r="P27" s="77"/>
-      <c r="Q27" s="78"/>
-      <c r="R27" s="78"/>
-      <c r="S27" s="78"/>
-      <c r="T27" s="78"/>
-      <c r="U27" s="78"/>
-      <c r="V27" s="78"/>
-      <c r="W27" s="78"/>
-      <c r="X27" s="78"/>
-      <c r="Y27" s="78"/>
-      <c r="Z27" s="79"/>
+      <c r="L27" s="114"/>
+      <c r="M27" s="115"/>
+      <c r="N27" s="123"/>
+      <c r="O27" s="123"/>
+      <c r="P27" s="82"/>
+      <c r="Q27" s="83"/>
+      <c r="R27" s="83"/>
+      <c r="S27" s="83"/>
+      <c r="T27" s="83"/>
+      <c r="U27" s="83"/>
+      <c r="V27" s="83"/>
+      <c r="W27" s="83"/>
+      <c r="X27" s="83"/>
+      <c r="Y27" s="83"/>
+      <c r="Z27" s="84"/>
       <c r="AA27" s="8"/>
       <c r="AB27" s="8"/>
       <c r="AC27" s="8"/>
@@ -4489,21 +4490,21 @@
       <c r="I28" s="8"/>
       <c r="J28" s="8"/>
       <c r="K28" s="8"/>
-      <c r="L28" s="129"/>
-      <c r="M28" s="130"/>
-      <c r="N28" s="92"/>
-      <c r="O28" s="92"/>
-      <c r="P28" s="77"/>
-      <c r="Q28" s="78"/>
-      <c r="R28" s="78"/>
-      <c r="S28" s="78"/>
-      <c r="T28" s="78"/>
-      <c r="U28" s="78"/>
-      <c r="V28" s="78"/>
-      <c r="W28" s="78"/>
-      <c r="X28" s="78"/>
-      <c r="Y28" s="78"/>
-      <c r="Z28" s="79"/>
+      <c r="L28" s="114"/>
+      <c r="M28" s="115"/>
+      <c r="N28" s="123"/>
+      <c r="O28" s="123"/>
+      <c r="P28" s="82"/>
+      <c r="Q28" s="83"/>
+      <c r="R28" s="83"/>
+      <c r="S28" s="83"/>
+      <c r="T28" s="83"/>
+      <c r="U28" s="83"/>
+      <c r="V28" s="83"/>
+      <c r="W28" s="83"/>
+      <c r="X28" s="83"/>
+      <c r="Y28" s="83"/>
+      <c r="Z28" s="84"/>
       <c r="AA28" s="8"/>
       <c r="AB28" s="8"/>
       <c r="AC28" s="8"/>
@@ -4539,21 +4540,21 @@
       <c r="I29" s="8"/>
       <c r="J29" s="8"/>
       <c r="K29" s="8"/>
-      <c r="L29" s="129"/>
-      <c r="M29" s="130"/>
-      <c r="N29" s="94"/>
-      <c r="O29" s="94"/>
-      <c r="P29" s="80"/>
-      <c r="Q29" s="81"/>
-      <c r="R29" s="81"/>
-      <c r="S29" s="81"/>
-      <c r="T29" s="81"/>
-      <c r="U29" s="81"/>
-      <c r="V29" s="81"/>
-      <c r="W29" s="81"/>
-      <c r="X29" s="81"/>
-      <c r="Y29" s="81"/>
-      <c r="Z29" s="82"/>
+      <c r="L29" s="114"/>
+      <c r="M29" s="115"/>
+      <c r="N29" s="124"/>
+      <c r="O29" s="124"/>
+      <c r="P29" s="85"/>
+      <c r="Q29" s="86"/>
+      <c r="R29" s="86"/>
+      <c r="S29" s="86"/>
+      <c r="T29" s="86"/>
+      <c r="U29" s="86"/>
+      <c r="V29" s="86"/>
+      <c r="W29" s="86"/>
+      <c r="X29" s="86"/>
+      <c r="Y29" s="86"/>
+      <c r="Z29" s="87"/>
       <c r="AA29" s="8"/>
       <c r="AB29" s="8"/>
       <c r="AC29" s="8"/>
@@ -4589,25 +4590,25 @@
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
       <c r="K30" s="8"/>
-      <c r="L30" s="129"/>
-      <c r="M30" s="130"/>
-      <c r="N30" s="96" t="s">
+      <c r="L30" s="114"/>
+      <c r="M30" s="115"/>
+      <c r="N30" s="130" t="s">
         <v>77</v>
       </c>
-      <c r="O30" s="91"/>
-      <c r="P30" s="74" t="s">
+      <c r="O30" s="131"/>
+      <c r="P30" s="79" t="s">
         <v>121</v>
       </c>
-      <c r="Q30" s="83"/>
-      <c r="R30" s="83"/>
-      <c r="S30" s="83"/>
-      <c r="T30" s="83"/>
-      <c r="U30" s="83"/>
-      <c r="V30" s="83"/>
-      <c r="W30" s="83"/>
-      <c r="X30" s="83"/>
-      <c r="Y30" s="83"/>
-      <c r="Z30" s="84"/>
+      <c r="Q30" s="125"/>
+      <c r="R30" s="125"/>
+      <c r="S30" s="125"/>
+      <c r="T30" s="125"/>
+      <c r="U30" s="125"/>
+      <c r="V30" s="125"/>
+      <c r="W30" s="125"/>
+      <c r="X30" s="125"/>
+      <c r="Y30" s="125"/>
+      <c r="Z30" s="126"/>
       <c r="AA30" s="8"/>
       <c r="AB30" s="8"/>
       <c r="AC30" s="8"/>
@@ -4639,27 +4640,27 @@
       <c r="E31" s="8"/>
       <c r="F31" s="28"/>
       <c r="G31" s="28"/>
-      <c r="H31" s="70" t="s">
+      <c r="H31" s="96" t="s">
         <v>75</v>
       </c>
-      <c r="I31" s="71"/>
+      <c r="I31" s="97"/>
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
-      <c r="L31" s="131"/>
-      <c r="M31" s="132"/>
-      <c r="N31" s="97"/>
-      <c r="O31" s="95"/>
-      <c r="P31" s="85"/>
-      <c r="Q31" s="86"/>
-      <c r="R31" s="86"/>
-      <c r="S31" s="86"/>
-      <c r="T31" s="86"/>
-      <c r="U31" s="86"/>
-      <c r="V31" s="86"/>
-      <c r="W31" s="86"/>
-      <c r="X31" s="86"/>
-      <c r="Y31" s="86"/>
-      <c r="Z31" s="87"/>
+      <c r="L31" s="116"/>
+      <c r="M31" s="117"/>
+      <c r="N31" s="132"/>
+      <c r="O31" s="133"/>
+      <c r="P31" s="127"/>
+      <c r="Q31" s="128"/>
+      <c r="R31" s="128"/>
+      <c r="S31" s="128"/>
+      <c r="T31" s="128"/>
+      <c r="U31" s="128"/>
+      <c r="V31" s="128"/>
+      <c r="W31" s="128"/>
+      <c r="X31" s="128"/>
+      <c r="Y31" s="128"/>
+      <c r="Z31" s="129"/>
       <c r="AA31" s="8"/>
       <c r="AB31" s="8"/>
       <c r="AC31" s="8"/>
@@ -4691,8 +4692,8 @@
       <c r="E32" s="8"/>
       <c r="F32" s="28"/>
       <c r="G32" s="36"/>
-      <c r="H32" s="72"/>
-      <c r="I32" s="73"/>
+      <c r="H32" s="98"/>
+      <c r="I32" s="99"/>
       <c r="J32" s="8"/>
       <c r="K32" s="8"/>
       <c r="L32" s="8"/>
@@ -4891,10 +4892,10 @@
       <c r="E36" s="8"/>
       <c r="F36" s="28"/>
       <c r="G36" s="28"/>
-      <c r="H36" s="70" t="s">
+      <c r="H36" s="96" t="s">
         <v>76</v>
       </c>
-      <c r="I36" s="71"/>
+      <c r="I36" s="97"/>
       <c r="J36" s="8"/>
       <c r="K36" s="8"/>
       <c r="L36" s="8"/>
@@ -4943,8 +4944,8 @@
       <c r="E37" s="8"/>
       <c r="F37" s="28"/>
       <c r="G37" s="36"/>
-      <c r="H37" s="72"/>
-      <c r="I37" s="73"/>
+      <c r="H37" s="98"/>
+      <c r="I37" s="99"/>
       <c r="J37" s="8"/>
       <c r="K37" s="8"/>
       <c r="L37" s="8"/>
@@ -5143,10 +5144,10 @@
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="29"/>
-      <c r="H41" s="70" t="s">
+      <c r="H41" s="96" t="s">
         <v>77</v>
       </c>
-      <c r="I41" s="71"/>
+      <c r="I41" s="97"/>
       <c r="J41" s="8"/>
       <c r="K41" s="8"/>
       <c r="L41" s="8"/>
@@ -5195,8 +5196,8 @@
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="36"/>
-      <c r="H42" s="72"/>
-      <c r="I42" s="73"/>
+      <c r="H42" s="98"/>
+      <c r="I42" s="99"/>
       <c r="J42" s="19"/>
       <c r="K42" s="19"/>
       <c r="L42" s="19"/>
@@ -6828,6 +6829,17 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="H41:I42"/>
+    <mergeCell ref="H36:I37"/>
+    <mergeCell ref="H31:I32"/>
+    <mergeCell ref="H26:I27"/>
+    <mergeCell ref="P10:Z13"/>
+    <mergeCell ref="P18:Z19"/>
+    <mergeCell ref="P20:Z21"/>
+    <mergeCell ref="P22:Z25"/>
+    <mergeCell ref="N22:O25"/>
+    <mergeCell ref="N18:O19"/>
+    <mergeCell ref="N20:O21"/>
     <mergeCell ref="B2:Z4"/>
     <mergeCell ref="P14:Z17"/>
     <mergeCell ref="D21:E22"/>
@@ -6844,17 +6856,6 @@
     <mergeCell ref="P26:Z29"/>
     <mergeCell ref="P30:Z31"/>
     <mergeCell ref="N30:O31"/>
-    <mergeCell ref="H41:I42"/>
-    <mergeCell ref="H36:I37"/>
-    <mergeCell ref="H31:I32"/>
-    <mergeCell ref="H26:I27"/>
-    <mergeCell ref="P10:Z13"/>
-    <mergeCell ref="P18:Z19"/>
-    <mergeCell ref="P20:Z21"/>
-    <mergeCell ref="P22:Z25"/>
-    <mergeCell ref="N22:O25"/>
-    <mergeCell ref="N18:O19"/>
-    <mergeCell ref="N20:O21"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6862,7 +6863,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AA108"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -6876,64 +6877,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="140" t="s">
+      <c r="B1" s="139" t="s">
         <v>78</v>
       </c>
-      <c r="C1" s="149"/>
-      <c r="D1" s="140" t="s">
+      <c r="C1" s="148"/>
+      <c r="D1" s="139" t="s">
         <v>80</v>
       </c>
-      <c r="E1" s="152"/>
-      <c r="F1" s="153"/>
-      <c r="I1" s="140" t="s">
+      <c r="E1" s="151"/>
+      <c r="F1" s="152"/>
+      <c r="I1" s="139" t="s">
         <v>79</v>
       </c>
-      <c r="J1" s="141"/>
-      <c r="K1" s="140" t="s">
+      <c r="J1" s="140"/>
+      <c r="K1" s="139" t="s">
         <v>81</v>
       </c>
-      <c r="L1" s="144"/>
-      <c r="M1" s="145"/>
-      <c r="P1" s="139" t="s">
+      <c r="L1" s="143"/>
+      <c r="M1" s="144"/>
+      <c r="P1" s="156" t="s">
         <v>82</v>
       </c>
-      <c r="Q1" s="139"/>
-      <c r="R1" s="139" t="s">
+      <c r="Q1" s="156"/>
+      <c r="R1" s="156" t="s">
         <v>83</v>
       </c>
-      <c r="S1" s="139"/>
-      <c r="T1" s="139"/>
-      <c r="W1" s="139" t="s">
+      <c r="S1" s="156"/>
+      <c r="T1" s="156"/>
+      <c r="W1" s="156" t="s">
         <v>84</v>
       </c>
-      <c r="X1" s="139"/>
-      <c r="Y1" s="139" t="s">
+      <c r="X1" s="156"/>
+      <c r="Y1" s="156" t="s">
         <v>85</v>
       </c>
-      <c r="Z1" s="139"/>
-      <c r="AA1" s="139"/>
+      <c r="Z1" s="156"/>
+      <c r="AA1" s="156"/>
     </row>
     <row r="2" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="150"/>
-      <c r="C2" s="151"/>
-      <c r="D2" s="154"/>
-      <c r="E2" s="155"/>
-      <c r="F2" s="156"/>
-      <c r="I2" s="142"/>
-      <c r="J2" s="143"/>
-      <c r="K2" s="146"/>
-      <c r="L2" s="147"/>
-      <c r="M2" s="148"/>
-      <c r="P2" s="139"/>
-      <c r="Q2" s="139"/>
-      <c r="R2" s="139"/>
-      <c r="S2" s="139"/>
-      <c r="T2" s="139"/>
-      <c r="W2" s="139"/>
-      <c r="X2" s="139"/>
-      <c r="Y2" s="139"/>
-      <c r="Z2" s="139"/>
-      <c r="AA2" s="139"/>
+      <c r="B2" s="149"/>
+      <c r="C2" s="150"/>
+      <c r="D2" s="153"/>
+      <c r="E2" s="154"/>
+      <c r="F2" s="155"/>
+      <c r="I2" s="141"/>
+      <c r="J2" s="142"/>
+      <c r="K2" s="145"/>
+      <c r="L2" s="146"/>
+      <c r="M2" s="147"/>
+      <c r="P2" s="156"/>
+      <c r="Q2" s="156"/>
+      <c r="R2" s="156"/>
+      <c r="S2" s="156"/>
+      <c r="T2" s="156"/>
+      <c r="W2" s="156"/>
+      <c r="X2" s="156"/>
+      <c r="Y2" s="156"/>
+      <c r="Z2" s="156"/>
+      <c r="AA2" s="156"/>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B3" s="138" t="s">
@@ -14947,6 +14948,22 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="P106:Q106"/>
+    <mergeCell ref="W106:X106"/>
+    <mergeCell ref="Z3:AA3"/>
+    <mergeCell ref="Z4:AA4"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="P1:Q2"/>
+    <mergeCell ref="R1:T2"/>
+    <mergeCell ref="W1:X2"/>
+    <mergeCell ref="Y1:AA2"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="P3:R3"/>
+    <mergeCell ref="P4:R4"/>
+    <mergeCell ref="W3:Y3"/>
+    <mergeCell ref="W4:Y4"/>
     <mergeCell ref="B106:C106"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="I3:K3"/>
@@ -14959,22 +14976,6 @@
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="B4:D4"/>
-    <mergeCell ref="P1:Q2"/>
-    <mergeCell ref="R1:T2"/>
-    <mergeCell ref="W1:X2"/>
-    <mergeCell ref="Y1:AA2"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="P3:R3"/>
-    <mergeCell ref="P4:R4"/>
-    <mergeCell ref="W3:Y3"/>
-    <mergeCell ref="W4:Y4"/>
-    <mergeCell ref="P106:Q106"/>
-    <mergeCell ref="W106:X106"/>
-    <mergeCell ref="Z3:AA3"/>
-    <mergeCell ref="Z4:AA4"/>
-    <mergeCell ref="S3:T3"/>
-    <mergeCell ref="S4:T4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14983,7 +14984,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:N204"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
@@ -18413,11 +18414,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -19362,7 +19363,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:N15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -19962,7 +19963,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="C1:N23"/>
   <sheetViews>
     <sheetView topLeftCell="G1" workbookViewId="0">
@@ -20587,7 +20588,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="B2:C104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -21532,7 +21533,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="B2:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/Project1/Assets/Script/Data/weaponDB.xlsx
+++ b/Project1/Assets/Script/Data/weaponDB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\whdns\OneDrive\바탕 화면\123\TeamProject1\Project1\Assets\Script\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4BFF791-050D-4509-9B73-FCEFF4296DEA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71D7ED71-8B68-4918-BD0B-6E44E76BD315}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3330" yWindow="1155" windowWidth="20445" windowHeight="13920" tabRatio="599" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="720" yWindow="1020" windowWidth="20445" windowHeight="13920" tabRatio="599" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="시스템 기획" sheetId="2" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="839" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="208">
   <si>
     <t>훈련 [ n = 레벨 값 ]</t>
   </si>
@@ -1196,407 +1196,13 @@
     <t>weapon20</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
-  <si>
-    <t>36936355738343800000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9043511344241920000000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>18050100000000000000000</t>
-  </si>
-  <si>
-    <t>27056700000000000000000</t>
-  </si>
-  <si>
-    <t>36063200000000000000000</t>
-  </si>
-  <si>
-    <t>45069800000000000000000</t>
-  </si>
-  <si>
-    <t>54076400000000000000000</t>
-  </si>
-  <si>
-    <t>1127020000000000000000</t>
-  </si>
-  <si>
-    <t>1314660000000000000000</t>
-  </si>
-  <si>
-    <t>1502290000000000000000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1689930000000000000000</t>
-  </si>
-  <si>
-    <t>63083000000000000000000</t>
-  </si>
-  <si>
-    <t>72089500000000000000000</t>
-  </si>
-  <si>
-    <t>81096100000000000000000</t>
-  </si>
-  <si>
-    <t>123175000000000000000</t>
-  </si>
-  <si>
-    <t>46054900000000000000000</t>
-  </si>
-  <si>
-    <t>91988400000000000000000</t>
-  </si>
-  <si>
-    <t>137922000000000000000000</t>
-  </si>
-  <si>
-    <t>183856000000000000000000</t>
-  </si>
-  <si>
-    <t>229789000000000000000000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>275723000000000000000000</t>
-  </si>
-  <si>
-    <t>321656000000000000000000</t>
-  </si>
-  <si>
-    <t>367590000000000000000000</t>
-  </si>
-  <si>
-    <t>413523000000000000000000</t>
-  </si>
-  <si>
-    <t>4232330000000000000000</t>
-  </si>
-  <si>
-    <t>156079000000000000000000</t>
-  </si>
-  <si>
-    <t>2484640000000000000000000</t>
-  </si>
-  <si>
-    <t>141539000000000000000000000</t>
-  </si>
-  <si>
-    <t>4965050000000000000000000</t>
-  </si>
-  <si>
-    <t>282923000000000000000000000</t>
-  </si>
-  <si>
-    <t>7445460000000000000000000</t>
-  </si>
-  <si>
-    <t>424306000000000000000000000</t>
-  </si>
-  <si>
-    <t>9925880000000000000000000</t>
-  </si>
-  <si>
-    <t>565690000000000000000000000</t>
-  </si>
-  <si>
-    <t>12406300000000000000000000</t>
-  </si>
-  <si>
-    <t>707073000000000000000000000</t>
-  </si>
-  <si>
-    <t>14886700000000000000000000</t>
-  </si>
-  <si>
-    <t>848457000000000000000000000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>17367100000000000000000000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>989840000000000000000000000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>19847500000000000000000000</t>
-  </si>
-  <si>
-    <t>1131220000000000000000000000</t>
-  </si>
-  <si>
-    <t>1272610000000000000000000000</t>
-  </si>
-  <si>
-    <t>22327900000000000000000000</t>
-  </si>
-  <si>
-    <t>131947819700</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2738771542900</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>62399688866300</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1547853022245100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>41518154446327700</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1197287312545940000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2274717931700</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>73450185238900</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2608010581922300</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100826677851429000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4211228797272060000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>188834266239704000000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4417488043700</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>149899633900</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>144161598934900</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5153621474978300</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>200105502680613000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8380939440097780000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>376471245166861000000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>221325304300</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6560258155700</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>214873012630900</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7699232368034300</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>299384327509797000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12550650082923500000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>564108224094019000000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>292750974700</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8703028267700</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>285584426326900</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10244843261090300</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>398663152338981000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>16720360725749200000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>751745203021177000000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>364176645100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10845798379700</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>356295840022900</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12790454154146300</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>497941977168165000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>939382181948335000000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>25059782011400700000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>597220801997349000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20890071368575000000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>15336065047202300</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>427007253718900</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12988568491700</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>435602315500</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>507027985900</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>15131338603700</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>497718667414900</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>17881675940258300</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>696499626826533000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>29229492654226400000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>578453656300</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>17274108715700</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>568430081110900</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20427286833314300</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>795778451655717000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>33399203297052200000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>649879326700</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>19416878827700</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>639141494806900</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>22972897726370300</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>895057276484901000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>37568913939877900000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="0.0%"/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
@@ -1742,13 +1348,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="맑은 고딕"/>
-      <family val="3"/>
+      <family val="2"/>
       <charset val="129"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="18">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1842,12 +1449,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2211,12 +1812,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="41" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="179">
+  <cellXfs count="178">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2420,12 +2024,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="17" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="17" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2754,8 +2352,12 @@
     <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="쉼표 [0]" xfId="1" builtinId="6"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3136,33 +2738,33 @@
     </row>
     <row r="2" spans="1:48" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8"/>
-      <c r="B2" s="70" t="s">
+      <c r="B2" s="68" t="s">
         <v>68</v>
       </c>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="71"/>
-      <c r="I2" s="71"/>
-      <c r="J2" s="71"/>
-      <c r="K2" s="71"/>
-      <c r="L2" s="71"/>
-      <c r="M2" s="71"/>
-      <c r="N2" s="71"/>
-      <c r="O2" s="71"/>
-      <c r="P2" s="71"/>
-      <c r="Q2" s="71"/>
-      <c r="R2" s="71"/>
-      <c r="S2" s="71"/>
-      <c r="T2" s="71"/>
-      <c r="U2" s="71"/>
-      <c r="V2" s="71"/>
-      <c r="W2" s="71"/>
-      <c r="X2" s="71"/>
-      <c r="Y2" s="71"/>
-      <c r="Z2" s="72"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="69"/>
+      <c r="K2" s="69"/>
+      <c r="L2" s="69"/>
+      <c r="M2" s="69"/>
+      <c r="N2" s="69"/>
+      <c r="O2" s="69"/>
+      <c r="P2" s="69"/>
+      <c r="Q2" s="69"/>
+      <c r="R2" s="69"/>
+      <c r="S2" s="69"/>
+      <c r="T2" s="69"/>
+      <c r="U2" s="69"/>
+      <c r="V2" s="69"/>
+      <c r="W2" s="69"/>
+      <c r="X2" s="69"/>
+      <c r="Y2" s="69"/>
+      <c r="Z2" s="70"/>
       <c r="AA2" s="8"/>
       <c r="AB2" s="8"/>
       <c r="AC2" s="8"/>
@@ -3188,31 +2790,31 @@
     </row>
     <row r="3" spans="1:48" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="8"/>
-      <c r="B3" s="73"/>
-      <c r="C3" s="74"/>
-      <c r="D3" s="74"/>
-      <c r="E3" s="74"/>
-      <c r="F3" s="74"/>
-      <c r="G3" s="74"/>
-      <c r="H3" s="74"/>
-      <c r="I3" s="74"/>
-      <c r="J3" s="74"/>
-      <c r="K3" s="74"/>
-      <c r="L3" s="74"/>
-      <c r="M3" s="74"/>
-      <c r="N3" s="74"/>
-      <c r="O3" s="74"/>
-      <c r="P3" s="74"/>
-      <c r="Q3" s="74"/>
-      <c r="R3" s="74"/>
-      <c r="S3" s="74"/>
-      <c r="T3" s="74"/>
-      <c r="U3" s="74"/>
-      <c r="V3" s="74"/>
-      <c r="W3" s="74"/>
-      <c r="X3" s="74"/>
-      <c r="Y3" s="74"/>
-      <c r="Z3" s="75"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="72"/>
+      <c r="H3" s="72"/>
+      <c r="I3" s="72"/>
+      <c r="J3" s="72"/>
+      <c r="K3" s="72"/>
+      <c r="L3" s="72"/>
+      <c r="M3" s="72"/>
+      <c r="N3" s="72"/>
+      <c r="O3" s="72"/>
+      <c r="P3" s="72"/>
+      <c r="Q3" s="72"/>
+      <c r="R3" s="72"/>
+      <c r="S3" s="72"/>
+      <c r="T3" s="72"/>
+      <c r="U3" s="72"/>
+      <c r="V3" s="72"/>
+      <c r="W3" s="72"/>
+      <c r="X3" s="72"/>
+      <c r="Y3" s="72"/>
+      <c r="Z3" s="73"/>
       <c r="AA3" s="8"/>
       <c r="AB3" s="8"/>
       <c r="AC3" s="8"/>
@@ -3238,31 +2840,31 @@
     </row>
     <row r="4" spans="1:48" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="8"/>
-      <c r="B4" s="76"/>
-      <c r="C4" s="77"/>
-      <c r="D4" s="77"/>
-      <c r="E4" s="77"/>
-      <c r="F4" s="77"/>
-      <c r="G4" s="77"/>
-      <c r="H4" s="77"/>
-      <c r="I4" s="77"/>
-      <c r="J4" s="77"/>
-      <c r="K4" s="77"/>
-      <c r="L4" s="77"/>
-      <c r="M4" s="77"/>
-      <c r="N4" s="77"/>
-      <c r="O4" s="77"/>
-      <c r="P4" s="77"/>
-      <c r="Q4" s="77"/>
-      <c r="R4" s="77"/>
-      <c r="S4" s="77"/>
-      <c r="T4" s="77"/>
-      <c r="U4" s="77"/>
-      <c r="V4" s="77"/>
-      <c r="W4" s="77"/>
-      <c r="X4" s="77"/>
-      <c r="Y4" s="77"/>
-      <c r="Z4" s="78"/>
+      <c r="B4" s="74"/>
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="75"/>
+      <c r="K4" s="75"/>
+      <c r="L4" s="75"/>
+      <c r="M4" s="75"/>
+      <c r="N4" s="75"/>
+      <c r="O4" s="75"/>
+      <c r="P4" s="75"/>
+      <c r="Q4" s="75"/>
+      <c r="R4" s="75"/>
+      <c r="S4" s="75"/>
+      <c r="T4" s="75"/>
+      <c r="U4" s="75"/>
+      <c r="V4" s="75"/>
+      <c r="W4" s="75"/>
+      <c r="X4" s="75"/>
+      <c r="Y4" s="75"/>
+      <c r="Z4" s="76"/>
       <c r="AA4" s="8"/>
       <c r="AB4" s="8"/>
       <c r="AC4" s="8"/>
@@ -3388,10 +2990,10 @@
     </row>
     <row r="7" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A7" s="8"/>
-      <c r="B7" s="118" t="s">
+      <c r="B7" s="116" t="s">
         <v>67</v>
       </c>
-      <c r="C7" s="119"/>
+      <c r="C7" s="117"/>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
@@ -3440,8 +3042,8 @@
     </row>
     <row r="8" spans="1:48" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="8"/>
-      <c r="B8" s="120"/>
-      <c r="C8" s="121"/>
+      <c r="B8" s="118"/>
+      <c r="C8" s="119"/>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
@@ -3550,27 +3152,27 @@
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
-      <c r="L10" s="106" t="s">
+      <c r="L10" s="104" t="s">
         <v>69</v>
       </c>
-      <c r="M10" s="107"/>
-      <c r="N10" s="100" t="s">
+      <c r="M10" s="105"/>
+      <c r="N10" s="98" t="s">
         <v>24</v>
       </c>
-      <c r="O10" s="101"/>
-      <c r="P10" s="79" t="s">
+      <c r="O10" s="99"/>
+      <c r="P10" s="77" t="s">
         <v>127</v>
       </c>
-      <c r="Q10" s="80"/>
-      <c r="R10" s="80"/>
-      <c r="S10" s="80"/>
-      <c r="T10" s="80"/>
-      <c r="U10" s="80"/>
-      <c r="V10" s="80"/>
-      <c r="W10" s="80"/>
-      <c r="X10" s="80"/>
-      <c r="Y10" s="80"/>
-      <c r="Z10" s="81"/>
+      <c r="Q10" s="78"/>
+      <c r="R10" s="78"/>
+      <c r="S10" s="78"/>
+      <c r="T10" s="78"/>
+      <c r="U10" s="78"/>
+      <c r="V10" s="78"/>
+      <c r="W10" s="78"/>
+      <c r="X10" s="78"/>
+      <c r="Y10" s="78"/>
+      <c r="Z10" s="79"/>
       <c r="AA10" s="8"/>
       <c r="AB10" s="8"/>
       <c r="AC10" s="8"/>
@@ -3606,21 +3208,21 @@
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
-      <c r="L11" s="108"/>
-      <c r="M11" s="109"/>
-      <c r="N11" s="102"/>
-      <c r="O11" s="103"/>
-      <c r="P11" s="82"/>
-      <c r="Q11" s="83"/>
-      <c r="R11" s="83"/>
-      <c r="S11" s="83"/>
-      <c r="T11" s="83"/>
-      <c r="U11" s="83"/>
-      <c r="V11" s="83"/>
-      <c r="W11" s="83"/>
-      <c r="X11" s="83"/>
-      <c r="Y11" s="83"/>
-      <c r="Z11" s="84"/>
+      <c r="L11" s="106"/>
+      <c r="M11" s="107"/>
+      <c r="N11" s="100"/>
+      <c r="O11" s="101"/>
+      <c r="P11" s="80"/>
+      <c r="Q11" s="81"/>
+      <c r="R11" s="81"/>
+      <c r="S11" s="81"/>
+      <c r="T11" s="81"/>
+      <c r="U11" s="81"/>
+      <c r="V11" s="81"/>
+      <c r="W11" s="81"/>
+      <c r="X11" s="81"/>
+      <c r="Y11" s="81"/>
+      <c r="Z11" s="82"/>
       <c r="AA11" s="8"/>
       <c r="AB11" s="8"/>
       <c r="AC11" s="8"/>
@@ -3656,21 +3258,21 @@
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
-      <c r="L12" s="108"/>
-      <c r="M12" s="109"/>
-      <c r="N12" s="102"/>
-      <c r="O12" s="103"/>
-      <c r="P12" s="82"/>
-      <c r="Q12" s="83"/>
-      <c r="R12" s="83"/>
-      <c r="S12" s="83"/>
-      <c r="T12" s="83"/>
-      <c r="U12" s="83"/>
-      <c r="V12" s="83"/>
-      <c r="W12" s="83"/>
-      <c r="X12" s="83"/>
-      <c r="Y12" s="83"/>
-      <c r="Z12" s="84"/>
+      <c r="L12" s="106"/>
+      <c r="M12" s="107"/>
+      <c r="N12" s="100"/>
+      <c r="O12" s="101"/>
+      <c r="P12" s="80"/>
+      <c r="Q12" s="81"/>
+      <c r="R12" s="81"/>
+      <c r="S12" s="81"/>
+      <c r="T12" s="81"/>
+      <c r="U12" s="81"/>
+      <c r="V12" s="81"/>
+      <c r="W12" s="81"/>
+      <c r="X12" s="81"/>
+      <c r="Y12" s="81"/>
+      <c r="Z12" s="82"/>
       <c r="AA12" s="8"/>
       <c r="AB12" s="8"/>
       <c r="AC12" s="8"/>
@@ -3698,33 +3300,33 @@
       <c r="A13" s="8"/>
       <c r="B13" s="28"/>
       <c r="C13" s="29"/>
-      <c r="D13" s="118" t="s">
+      <c r="D13" s="116" t="s">
         <v>69</v>
       </c>
-      <c r="E13" s="119"/>
+      <c r="E13" s="117"/>
       <c r="F13" s="30"/>
       <c r="G13" s="31"/>
-      <c r="H13" s="92" t="s">
+      <c r="H13" s="90" t="s">
         <v>71</v>
       </c>
-      <c r="I13" s="93"/>
+      <c r="I13" s="91"/>
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
-      <c r="L13" s="108"/>
-      <c r="M13" s="109"/>
-      <c r="N13" s="104"/>
-      <c r="O13" s="105"/>
-      <c r="P13" s="85"/>
-      <c r="Q13" s="86"/>
-      <c r="R13" s="86"/>
-      <c r="S13" s="86"/>
-      <c r="T13" s="86"/>
-      <c r="U13" s="86"/>
-      <c r="V13" s="86"/>
-      <c r="W13" s="86"/>
-      <c r="X13" s="86"/>
-      <c r="Y13" s="86"/>
-      <c r="Z13" s="87"/>
+      <c r="L13" s="106"/>
+      <c r="M13" s="107"/>
+      <c r="N13" s="102"/>
+      <c r="O13" s="103"/>
+      <c r="P13" s="83"/>
+      <c r="Q13" s="84"/>
+      <c r="R13" s="84"/>
+      <c r="S13" s="84"/>
+      <c r="T13" s="84"/>
+      <c r="U13" s="84"/>
+      <c r="V13" s="84"/>
+      <c r="W13" s="84"/>
+      <c r="X13" s="84"/>
+      <c r="Y13" s="84"/>
+      <c r="Z13" s="85"/>
       <c r="AA13" s="8"/>
       <c r="AB13" s="8"/>
       <c r="AC13" s="8"/>
@@ -3752,33 +3354,33 @@
       <c r="A14" s="8"/>
       <c r="B14" s="8"/>
       <c r="C14" s="32"/>
-      <c r="D14" s="120"/>
-      <c r="E14" s="121"/>
+      <c r="D14" s="118"/>
+      <c r="E14" s="119"/>
       <c r="F14" s="33"/>
       <c r="G14" s="8"/>
-      <c r="H14" s="94"/>
-      <c r="I14" s="95"/>
+      <c r="H14" s="92"/>
+      <c r="I14" s="93"/>
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
-      <c r="L14" s="108"/>
-      <c r="M14" s="109"/>
-      <c r="N14" s="100" t="s">
+      <c r="L14" s="106"/>
+      <c r="M14" s="107"/>
+      <c r="N14" s="98" t="s">
         <v>70</v>
       </c>
-      <c r="O14" s="101"/>
-      <c r="P14" s="79" t="s">
+      <c r="O14" s="99"/>
+      <c r="P14" s="77" t="s">
         <v>125</v>
       </c>
-      <c r="Q14" s="80"/>
-      <c r="R14" s="80"/>
-      <c r="S14" s="80"/>
-      <c r="T14" s="80"/>
-      <c r="U14" s="80"/>
-      <c r="V14" s="80"/>
-      <c r="W14" s="80"/>
-      <c r="X14" s="80"/>
-      <c r="Y14" s="80"/>
-      <c r="Z14" s="81"/>
+      <c r="Q14" s="78"/>
+      <c r="R14" s="78"/>
+      <c r="S14" s="78"/>
+      <c r="T14" s="78"/>
+      <c r="U14" s="78"/>
+      <c r="V14" s="78"/>
+      <c r="W14" s="78"/>
+      <c r="X14" s="78"/>
+      <c r="Y14" s="78"/>
+      <c r="Z14" s="79"/>
       <c r="AA14" s="8"/>
       <c r="AB14" s="8"/>
       <c r="AC14" s="8"/>
@@ -3814,21 +3416,21 @@
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
-      <c r="L15" s="108"/>
-      <c r="M15" s="109"/>
-      <c r="N15" s="102"/>
-      <c r="O15" s="103"/>
-      <c r="P15" s="82"/>
-      <c r="Q15" s="83"/>
-      <c r="R15" s="83"/>
-      <c r="S15" s="83"/>
-      <c r="T15" s="83"/>
-      <c r="U15" s="83"/>
-      <c r="V15" s="83"/>
-      <c r="W15" s="83"/>
-      <c r="X15" s="83"/>
-      <c r="Y15" s="83"/>
-      <c r="Z15" s="84"/>
+      <c r="L15" s="106"/>
+      <c r="M15" s="107"/>
+      <c r="N15" s="100"/>
+      <c r="O15" s="101"/>
+      <c r="P15" s="80"/>
+      <c r="Q15" s="81"/>
+      <c r="R15" s="81"/>
+      <c r="S15" s="81"/>
+      <c r="T15" s="81"/>
+      <c r="U15" s="81"/>
+      <c r="V15" s="81"/>
+      <c r="W15" s="81"/>
+      <c r="X15" s="81"/>
+      <c r="Y15" s="81"/>
+      <c r="Z15" s="82"/>
       <c r="AA15" s="8"/>
       <c r="AB15" s="8"/>
       <c r="AC15" s="8"/>
@@ -3864,21 +3466,21 @@
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
-      <c r="L16" s="108"/>
-      <c r="M16" s="109"/>
-      <c r="N16" s="102"/>
-      <c r="O16" s="103"/>
-      <c r="P16" s="82"/>
-      <c r="Q16" s="83"/>
-      <c r="R16" s="83"/>
-      <c r="S16" s="83"/>
-      <c r="T16" s="83"/>
-      <c r="U16" s="83"/>
-      <c r="V16" s="83"/>
-      <c r="W16" s="83"/>
-      <c r="X16" s="83"/>
-      <c r="Y16" s="83"/>
-      <c r="Z16" s="84"/>
+      <c r="L16" s="106"/>
+      <c r="M16" s="107"/>
+      <c r="N16" s="100"/>
+      <c r="O16" s="101"/>
+      <c r="P16" s="80"/>
+      <c r="Q16" s="81"/>
+      <c r="R16" s="81"/>
+      <c r="S16" s="81"/>
+      <c r="T16" s="81"/>
+      <c r="U16" s="81"/>
+      <c r="V16" s="81"/>
+      <c r="W16" s="81"/>
+      <c r="X16" s="81"/>
+      <c r="Y16" s="81"/>
+      <c r="Z16" s="82"/>
       <c r="AA16" s="8"/>
       <c r="AB16" s="8"/>
       <c r="AC16" s="8"/>
@@ -3910,27 +3512,27 @@
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="34"/>
-      <c r="H17" s="92" t="s">
+      <c r="H17" s="90" t="s">
         <v>70</v>
       </c>
-      <c r="I17" s="93"/>
+      <c r="I17" s="91"/>
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
-      <c r="L17" s="110"/>
-      <c r="M17" s="111"/>
-      <c r="N17" s="104"/>
-      <c r="O17" s="105"/>
-      <c r="P17" s="85"/>
-      <c r="Q17" s="86"/>
-      <c r="R17" s="86"/>
-      <c r="S17" s="86"/>
-      <c r="T17" s="86"/>
-      <c r="U17" s="86"/>
-      <c r="V17" s="86"/>
-      <c r="W17" s="86"/>
-      <c r="X17" s="86"/>
-      <c r="Y17" s="86"/>
-      <c r="Z17" s="87"/>
+      <c r="L17" s="108"/>
+      <c r="M17" s="109"/>
+      <c r="N17" s="102"/>
+      <c r="O17" s="103"/>
+      <c r="P17" s="83"/>
+      <c r="Q17" s="84"/>
+      <c r="R17" s="84"/>
+      <c r="S17" s="84"/>
+      <c r="T17" s="84"/>
+      <c r="U17" s="84"/>
+      <c r="V17" s="84"/>
+      <c r="W17" s="84"/>
+      <c r="X17" s="84"/>
+      <c r="Y17" s="84"/>
+      <c r="Z17" s="85"/>
       <c r="AA17" s="8"/>
       <c r="AB17" s="8"/>
       <c r="AC17" s="8"/>
@@ -3962,31 +3564,31 @@
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="35"/>
-      <c r="H18" s="94"/>
-      <c r="I18" s="95"/>
+      <c r="H18" s="92"/>
+      <c r="I18" s="93"/>
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
-      <c r="L18" s="112" t="s">
+      <c r="L18" s="110" t="s">
         <v>72</v>
       </c>
-      <c r="M18" s="113"/>
-      <c r="N18" s="130" t="s">
+      <c r="M18" s="111"/>
+      <c r="N18" s="128" t="s">
         <v>73</v>
       </c>
-      <c r="O18" s="131"/>
-      <c r="P18" s="79" t="s">
+      <c r="O18" s="129"/>
+      <c r="P18" s="77" t="s">
         <v>124</v>
       </c>
-      <c r="Q18" s="125"/>
-      <c r="R18" s="125"/>
-      <c r="S18" s="125"/>
-      <c r="T18" s="125"/>
-      <c r="U18" s="125"/>
-      <c r="V18" s="125"/>
-      <c r="W18" s="125"/>
-      <c r="X18" s="125"/>
-      <c r="Y18" s="125"/>
-      <c r="Z18" s="126"/>
+      <c r="Q18" s="123"/>
+      <c r="R18" s="123"/>
+      <c r="S18" s="123"/>
+      <c r="T18" s="123"/>
+      <c r="U18" s="123"/>
+      <c r="V18" s="123"/>
+      <c r="W18" s="123"/>
+      <c r="X18" s="123"/>
+      <c r="Y18" s="123"/>
+      <c r="Z18" s="124"/>
       <c r="AA18" s="8"/>
       <c r="AB18" s="8"/>
       <c r="AC18" s="8"/>
@@ -4022,21 +3624,21 @@
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
       <c r="K19" s="8"/>
-      <c r="L19" s="114"/>
-      <c r="M19" s="115"/>
-      <c r="N19" s="132"/>
-      <c r="O19" s="133"/>
-      <c r="P19" s="127"/>
-      <c r="Q19" s="128"/>
-      <c r="R19" s="128"/>
-      <c r="S19" s="128"/>
-      <c r="T19" s="128"/>
-      <c r="U19" s="128"/>
-      <c r="V19" s="128"/>
-      <c r="W19" s="128"/>
-      <c r="X19" s="128"/>
-      <c r="Y19" s="128"/>
-      <c r="Z19" s="129"/>
+      <c r="L19" s="112"/>
+      <c r="M19" s="113"/>
+      <c r="N19" s="130"/>
+      <c r="O19" s="131"/>
+      <c r="P19" s="125"/>
+      <c r="Q19" s="126"/>
+      <c r="R19" s="126"/>
+      <c r="S19" s="126"/>
+      <c r="T19" s="126"/>
+      <c r="U19" s="126"/>
+      <c r="V19" s="126"/>
+      <c r="W19" s="126"/>
+      <c r="X19" s="126"/>
+      <c r="Y19" s="126"/>
+      <c r="Z19" s="127"/>
       <c r="AA19" s="8"/>
       <c r="AB19" s="8"/>
       <c r="AC19" s="8"/>
@@ -4072,25 +3674,25 @@
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
-      <c r="L20" s="114"/>
-      <c r="M20" s="115"/>
-      <c r="N20" s="130" t="s">
+      <c r="L20" s="112"/>
+      <c r="M20" s="113"/>
+      <c r="N20" s="128" t="s">
         <v>74</v>
       </c>
-      <c r="O20" s="131"/>
-      <c r="P20" s="134" t="s">
+      <c r="O20" s="129"/>
+      <c r="P20" s="132" t="s">
         <v>123</v>
       </c>
-      <c r="Q20" s="125"/>
-      <c r="R20" s="125"/>
-      <c r="S20" s="125"/>
-      <c r="T20" s="125"/>
-      <c r="U20" s="125"/>
-      <c r="V20" s="125"/>
-      <c r="W20" s="125"/>
-      <c r="X20" s="125"/>
-      <c r="Y20" s="125"/>
-      <c r="Z20" s="126"/>
+      <c r="Q20" s="123"/>
+      <c r="R20" s="123"/>
+      <c r="S20" s="123"/>
+      <c r="T20" s="123"/>
+      <c r="U20" s="123"/>
+      <c r="V20" s="123"/>
+      <c r="W20" s="123"/>
+      <c r="X20" s="123"/>
+      <c r="Y20" s="123"/>
+      <c r="Z20" s="124"/>
       <c r="AA20" s="8"/>
       <c r="AB20" s="8"/>
       <c r="AC20" s="8"/>
@@ -4118,33 +3720,33 @@
       <c r="A21" s="8"/>
       <c r="B21" s="8"/>
       <c r="C21" s="29"/>
-      <c r="D21" s="88" t="s">
+      <c r="D21" s="86" t="s">
         <v>72</v>
       </c>
-      <c r="E21" s="89"/>
+      <c r="E21" s="87"/>
       <c r="F21" s="30"/>
       <c r="G21" s="31"/>
-      <c r="H21" s="96" t="s">
+      <c r="H21" s="94" t="s">
         <v>73</v>
       </c>
-      <c r="I21" s="97"/>
+      <c r="I21" s="95"/>
       <c r="J21" s="8"/>
       <c r="K21" s="8"/>
-      <c r="L21" s="114"/>
-      <c r="M21" s="115"/>
-      <c r="N21" s="132"/>
-      <c r="O21" s="133"/>
-      <c r="P21" s="127"/>
-      <c r="Q21" s="128"/>
-      <c r="R21" s="128"/>
-      <c r="S21" s="128"/>
-      <c r="T21" s="128"/>
-      <c r="U21" s="128"/>
-      <c r="V21" s="128"/>
-      <c r="W21" s="128"/>
-      <c r="X21" s="128"/>
-      <c r="Y21" s="128"/>
-      <c r="Z21" s="129"/>
+      <c r="L21" s="112"/>
+      <c r="M21" s="113"/>
+      <c r="N21" s="130"/>
+      <c r="O21" s="131"/>
+      <c r="P21" s="125"/>
+      <c r="Q21" s="126"/>
+      <c r="R21" s="126"/>
+      <c r="S21" s="126"/>
+      <c r="T21" s="126"/>
+      <c r="U21" s="126"/>
+      <c r="V21" s="126"/>
+      <c r="W21" s="126"/>
+      <c r="X21" s="126"/>
+      <c r="Y21" s="126"/>
+      <c r="Z21" s="127"/>
       <c r="AA21" s="8"/>
       <c r="AB21" s="8"/>
       <c r="AC21" s="8"/>
@@ -4172,33 +3774,33 @@
       <c r="A22" s="8"/>
       <c r="B22" s="8"/>
       <c r="C22" s="36"/>
-      <c r="D22" s="90"/>
-      <c r="E22" s="91"/>
+      <c r="D22" s="88"/>
+      <c r="E22" s="89"/>
       <c r="F22" s="33"/>
       <c r="G22" s="8"/>
-      <c r="H22" s="98"/>
-      <c r="I22" s="99"/>
+      <c r="H22" s="96"/>
+      <c r="I22" s="97"/>
       <c r="J22" s="8"/>
       <c r="K22" s="8"/>
-      <c r="L22" s="114"/>
-      <c r="M22" s="115"/>
-      <c r="N22" s="122" t="s">
+      <c r="L22" s="112"/>
+      <c r="M22" s="113"/>
+      <c r="N22" s="120" t="s">
         <v>75</v>
       </c>
-      <c r="O22" s="131"/>
-      <c r="P22" s="135" t="s">
+      <c r="O22" s="129"/>
+      <c r="P22" s="133" t="s">
         <v>122</v>
       </c>
-      <c r="Q22" s="80"/>
-      <c r="R22" s="80"/>
-      <c r="S22" s="80"/>
-      <c r="T22" s="80"/>
-      <c r="U22" s="80"/>
-      <c r="V22" s="80"/>
-      <c r="W22" s="80"/>
-      <c r="X22" s="80"/>
-      <c r="Y22" s="80"/>
-      <c r="Z22" s="81"/>
+      <c r="Q22" s="78"/>
+      <c r="R22" s="78"/>
+      <c r="S22" s="78"/>
+      <c r="T22" s="78"/>
+      <c r="U22" s="78"/>
+      <c r="V22" s="78"/>
+      <c r="W22" s="78"/>
+      <c r="X22" s="78"/>
+      <c r="Y22" s="78"/>
+      <c r="Z22" s="79"/>
       <c r="AA22" s="8"/>
       <c r="AB22" s="8"/>
       <c r="AC22" s="8"/>
@@ -4234,21 +3836,21 @@
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
       <c r="K23" s="8"/>
-      <c r="L23" s="114"/>
-      <c r="M23" s="115"/>
-      <c r="N23" s="123"/>
-      <c r="O23" s="136"/>
-      <c r="P23" s="82"/>
-      <c r="Q23" s="83"/>
-      <c r="R23" s="83"/>
-      <c r="S23" s="83"/>
-      <c r="T23" s="83"/>
-      <c r="U23" s="83"/>
-      <c r="V23" s="83"/>
-      <c r="W23" s="83"/>
-      <c r="X23" s="83"/>
-      <c r="Y23" s="83"/>
-      <c r="Z23" s="84"/>
+      <c r="L23" s="112"/>
+      <c r="M23" s="113"/>
+      <c r="N23" s="121"/>
+      <c r="O23" s="134"/>
+      <c r="P23" s="80"/>
+      <c r="Q23" s="81"/>
+      <c r="R23" s="81"/>
+      <c r="S23" s="81"/>
+      <c r="T23" s="81"/>
+      <c r="U23" s="81"/>
+      <c r="V23" s="81"/>
+      <c r="W23" s="81"/>
+      <c r="X23" s="81"/>
+      <c r="Y23" s="81"/>
+      <c r="Z23" s="82"/>
       <c r="AA23" s="8"/>
       <c r="AB23" s="8"/>
       <c r="AC23" s="8"/>
@@ -4284,21 +3886,21 @@
       <c r="I24" s="8"/>
       <c r="J24" s="8"/>
       <c r="K24" s="8"/>
-      <c r="L24" s="114"/>
-      <c r="M24" s="115"/>
-      <c r="N24" s="123"/>
-      <c r="O24" s="136"/>
-      <c r="P24" s="82"/>
-      <c r="Q24" s="83"/>
-      <c r="R24" s="83"/>
-      <c r="S24" s="83"/>
-      <c r="T24" s="83"/>
-      <c r="U24" s="83"/>
-      <c r="V24" s="83"/>
-      <c r="W24" s="83"/>
-      <c r="X24" s="83"/>
-      <c r="Y24" s="83"/>
-      <c r="Z24" s="84"/>
+      <c r="L24" s="112"/>
+      <c r="M24" s="113"/>
+      <c r="N24" s="121"/>
+      <c r="O24" s="134"/>
+      <c r="P24" s="80"/>
+      <c r="Q24" s="81"/>
+      <c r="R24" s="81"/>
+      <c r="S24" s="81"/>
+      <c r="T24" s="81"/>
+      <c r="U24" s="81"/>
+      <c r="V24" s="81"/>
+      <c r="W24" s="81"/>
+      <c r="X24" s="81"/>
+      <c r="Y24" s="81"/>
+      <c r="Z24" s="82"/>
       <c r="AA24" s="8"/>
       <c r="AB24" s="8"/>
       <c r="AC24" s="8"/>
@@ -4334,21 +3936,21 @@
       <c r="I25" s="8"/>
       <c r="J25" s="8"/>
       <c r="K25" s="8"/>
-      <c r="L25" s="114"/>
-      <c r="M25" s="115"/>
-      <c r="N25" s="124"/>
-      <c r="O25" s="133"/>
-      <c r="P25" s="85"/>
-      <c r="Q25" s="86"/>
-      <c r="R25" s="86"/>
-      <c r="S25" s="86"/>
-      <c r="T25" s="86"/>
-      <c r="U25" s="86"/>
-      <c r="V25" s="86"/>
-      <c r="W25" s="86"/>
-      <c r="X25" s="86"/>
-      <c r="Y25" s="86"/>
-      <c r="Z25" s="87"/>
+      <c r="L25" s="112"/>
+      <c r="M25" s="113"/>
+      <c r="N25" s="122"/>
+      <c r="O25" s="131"/>
+      <c r="P25" s="83"/>
+      <c r="Q25" s="84"/>
+      <c r="R25" s="84"/>
+      <c r="S25" s="84"/>
+      <c r="T25" s="84"/>
+      <c r="U25" s="84"/>
+      <c r="V25" s="84"/>
+      <c r="W25" s="84"/>
+      <c r="X25" s="84"/>
+      <c r="Y25" s="84"/>
+      <c r="Z25" s="85"/>
       <c r="AA25" s="8"/>
       <c r="AB25" s="8"/>
       <c r="AC25" s="8"/>
@@ -4380,31 +3982,31 @@
       <c r="E26" s="8"/>
       <c r="F26" s="28"/>
       <c r="G26" s="28"/>
-      <c r="H26" s="96" t="s">
+      <c r="H26" s="94" t="s">
         <v>74</v>
       </c>
-      <c r="I26" s="97"/>
+      <c r="I26" s="95"/>
       <c r="J26" s="8"/>
       <c r="K26" s="8"/>
-      <c r="L26" s="114"/>
-      <c r="M26" s="115"/>
-      <c r="N26" s="122" t="s">
+      <c r="L26" s="112"/>
+      <c r="M26" s="113"/>
+      <c r="N26" s="120" t="s">
         <v>76</v>
       </c>
-      <c r="O26" s="122"/>
-      <c r="P26" s="79" t="s">
+      <c r="O26" s="120"/>
+      <c r="P26" s="77" t="s">
         <v>131</v>
       </c>
-      <c r="Q26" s="80"/>
-      <c r="R26" s="80"/>
-      <c r="S26" s="80"/>
-      <c r="T26" s="80"/>
-      <c r="U26" s="80"/>
-      <c r="V26" s="80"/>
-      <c r="W26" s="80"/>
-      <c r="X26" s="80"/>
-      <c r="Y26" s="80"/>
-      <c r="Z26" s="81"/>
+      <c r="Q26" s="78"/>
+      <c r="R26" s="78"/>
+      <c r="S26" s="78"/>
+      <c r="T26" s="78"/>
+      <c r="U26" s="78"/>
+      <c r="V26" s="78"/>
+      <c r="W26" s="78"/>
+      <c r="X26" s="78"/>
+      <c r="Y26" s="78"/>
+      <c r="Z26" s="79"/>
       <c r="AA26" s="8"/>
       <c r="AB26" s="8"/>
       <c r="AC26" s="8"/>
@@ -4436,25 +4038,25 @@
       <c r="E27" s="8"/>
       <c r="F27" s="28"/>
       <c r="G27" s="36"/>
-      <c r="H27" s="98"/>
-      <c r="I27" s="99"/>
+      <c r="H27" s="96"/>
+      <c r="I27" s="97"/>
       <c r="J27" s="8"/>
       <c r="K27" s="8"/>
-      <c r="L27" s="114"/>
-      <c r="M27" s="115"/>
-      <c r="N27" s="123"/>
-      <c r="O27" s="123"/>
-      <c r="P27" s="82"/>
-      <c r="Q27" s="83"/>
-      <c r="R27" s="83"/>
-      <c r="S27" s="83"/>
-      <c r="T27" s="83"/>
-      <c r="U27" s="83"/>
-      <c r="V27" s="83"/>
-      <c r="W27" s="83"/>
-      <c r="X27" s="83"/>
-      <c r="Y27" s="83"/>
-      <c r="Z27" s="84"/>
+      <c r="L27" s="112"/>
+      <c r="M27" s="113"/>
+      <c r="N27" s="121"/>
+      <c r="O27" s="121"/>
+      <c r="P27" s="80"/>
+      <c r="Q27" s="81"/>
+      <c r="R27" s="81"/>
+      <c r="S27" s="81"/>
+      <c r="T27" s="81"/>
+      <c r="U27" s="81"/>
+      <c r="V27" s="81"/>
+      <c r="W27" s="81"/>
+      <c r="X27" s="81"/>
+      <c r="Y27" s="81"/>
+      <c r="Z27" s="82"/>
       <c r="AA27" s="8"/>
       <c r="AB27" s="8"/>
       <c r="AC27" s="8"/>
@@ -4490,21 +4092,21 @@
       <c r="I28" s="8"/>
       <c r="J28" s="8"/>
       <c r="K28" s="8"/>
-      <c r="L28" s="114"/>
-      <c r="M28" s="115"/>
-      <c r="N28" s="123"/>
-      <c r="O28" s="123"/>
-      <c r="P28" s="82"/>
-      <c r="Q28" s="83"/>
-      <c r="R28" s="83"/>
-      <c r="S28" s="83"/>
-      <c r="T28" s="83"/>
-      <c r="U28" s="83"/>
-      <c r="V28" s="83"/>
-      <c r="W28" s="83"/>
-      <c r="X28" s="83"/>
-      <c r="Y28" s="83"/>
-      <c r="Z28" s="84"/>
+      <c r="L28" s="112"/>
+      <c r="M28" s="113"/>
+      <c r="N28" s="121"/>
+      <c r="O28" s="121"/>
+      <c r="P28" s="80"/>
+      <c r="Q28" s="81"/>
+      <c r="R28" s="81"/>
+      <c r="S28" s="81"/>
+      <c r="T28" s="81"/>
+      <c r="U28" s="81"/>
+      <c r="V28" s="81"/>
+      <c r="W28" s="81"/>
+      <c r="X28" s="81"/>
+      <c r="Y28" s="81"/>
+      <c r="Z28" s="82"/>
       <c r="AA28" s="8"/>
       <c r="AB28" s="8"/>
       <c r="AC28" s="8"/>
@@ -4540,21 +4142,21 @@
       <c r="I29" s="8"/>
       <c r="J29" s="8"/>
       <c r="K29" s="8"/>
-      <c r="L29" s="114"/>
-      <c r="M29" s="115"/>
-      <c r="N29" s="124"/>
-      <c r="O29" s="124"/>
-      <c r="P29" s="85"/>
-      <c r="Q29" s="86"/>
-      <c r="R29" s="86"/>
-      <c r="S29" s="86"/>
-      <c r="T29" s="86"/>
-      <c r="U29" s="86"/>
-      <c r="V29" s="86"/>
-      <c r="W29" s="86"/>
-      <c r="X29" s="86"/>
-      <c r="Y29" s="86"/>
-      <c r="Z29" s="87"/>
+      <c r="L29" s="112"/>
+      <c r="M29" s="113"/>
+      <c r="N29" s="122"/>
+      <c r="O29" s="122"/>
+      <c r="P29" s="83"/>
+      <c r="Q29" s="84"/>
+      <c r="R29" s="84"/>
+      <c r="S29" s="84"/>
+      <c r="T29" s="84"/>
+      <c r="U29" s="84"/>
+      <c r="V29" s="84"/>
+      <c r="W29" s="84"/>
+      <c r="X29" s="84"/>
+      <c r="Y29" s="84"/>
+      <c r="Z29" s="85"/>
       <c r="AA29" s="8"/>
       <c r="AB29" s="8"/>
       <c r="AC29" s="8"/>
@@ -4590,25 +4192,25 @@
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
       <c r="K30" s="8"/>
-      <c r="L30" s="114"/>
-      <c r="M30" s="115"/>
-      <c r="N30" s="130" t="s">
+      <c r="L30" s="112"/>
+      <c r="M30" s="113"/>
+      <c r="N30" s="128" t="s">
         <v>77</v>
       </c>
-      <c r="O30" s="131"/>
-      <c r="P30" s="79" t="s">
+      <c r="O30" s="129"/>
+      <c r="P30" s="77" t="s">
         <v>121</v>
       </c>
-      <c r="Q30" s="125"/>
-      <c r="R30" s="125"/>
-      <c r="S30" s="125"/>
-      <c r="T30" s="125"/>
-      <c r="U30" s="125"/>
-      <c r="V30" s="125"/>
-      <c r="W30" s="125"/>
-      <c r="X30" s="125"/>
-      <c r="Y30" s="125"/>
-      <c r="Z30" s="126"/>
+      <c r="Q30" s="123"/>
+      <c r="R30" s="123"/>
+      <c r="S30" s="123"/>
+      <c r="T30" s="123"/>
+      <c r="U30" s="123"/>
+      <c r="V30" s="123"/>
+      <c r="W30" s="123"/>
+      <c r="X30" s="123"/>
+      <c r="Y30" s="123"/>
+      <c r="Z30" s="124"/>
       <c r="AA30" s="8"/>
       <c r="AB30" s="8"/>
       <c r="AC30" s="8"/>
@@ -4640,27 +4242,27 @@
       <c r="E31" s="8"/>
       <c r="F31" s="28"/>
       <c r="G31" s="28"/>
-      <c r="H31" s="96" t="s">
+      <c r="H31" s="94" t="s">
         <v>75</v>
       </c>
-      <c r="I31" s="97"/>
+      <c r="I31" s="95"/>
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
-      <c r="L31" s="116"/>
-      <c r="M31" s="117"/>
-      <c r="N31" s="132"/>
-      <c r="O31" s="133"/>
-      <c r="P31" s="127"/>
-      <c r="Q31" s="128"/>
-      <c r="R31" s="128"/>
-      <c r="S31" s="128"/>
-      <c r="T31" s="128"/>
-      <c r="U31" s="128"/>
-      <c r="V31" s="128"/>
-      <c r="W31" s="128"/>
-      <c r="X31" s="128"/>
-      <c r="Y31" s="128"/>
-      <c r="Z31" s="129"/>
+      <c r="L31" s="114"/>
+      <c r="M31" s="115"/>
+      <c r="N31" s="130"/>
+      <c r="O31" s="131"/>
+      <c r="P31" s="125"/>
+      <c r="Q31" s="126"/>
+      <c r="R31" s="126"/>
+      <c r="S31" s="126"/>
+      <c r="T31" s="126"/>
+      <c r="U31" s="126"/>
+      <c r="V31" s="126"/>
+      <c r="W31" s="126"/>
+      <c r="X31" s="126"/>
+      <c r="Y31" s="126"/>
+      <c r="Z31" s="127"/>
       <c r="AA31" s="8"/>
       <c r="AB31" s="8"/>
       <c r="AC31" s="8"/>
@@ -4692,8 +4294,8 @@
       <c r="E32" s="8"/>
       <c r="F32" s="28"/>
       <c r="G32" s="36"/>
-      <c r="H32" s="98"/>
-      <c r="I32" s="99"/>
+      <c r="H32" s="96"/>
+      <c r="I32" s="97"/>
       <c r="J32" s="8"/>
       <c r="K32" s="8"/>
       <c r="L32" s="8"/>
@@ -4892,10 +4494,10 @@
       <c r="E36" s="8"/>
       <c r="F36" s="28"/>
       <c r="G36" s="28"/>
-      <c r="H36" s="96" t="s">
+      <c r="H36" s="94" t="s">
         <v>76</v>
       </c>
-      <c r="I36" s="97"/>
+      <c r="I36" s="95"/>
       <c r="J36" s="8"/>
       <c r="K36" s="8"/>
       <c r="L36" s="8"/>
@@ -4944,8 +4546,8 @@
       <c r="E37" s="8"/>
       <c r="F37" s="28"/>
       <c r="G37" s="36"/>
-      <c r="H37" s="98"/>
-      <c r="I37" s="99"/>
+      <c r="H37" s="96"/>
+      <c r="I37" s="97"/>
       <c r="J37" s="8"/>
       <c r="K37" s="8"/>
       <c r="L37" s="8"/>
@@ -5144,10 +4746,10 @@
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="29"/>
-      <c r="H41" s="96" t="s">
+      <c r="H41" s="94" t="s">
         <v>77</v>
       </c>
-      <c r="I41" s="97"/>
+      <c r="I41" s="95"/>
       <c r="J41" s="8"/>
       <c r="K41" s="8"/>
       <c r="L41" s="8"/>
@@ -5196,8 +4798,8 @@
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="36"/>
-      <c r="H42" s="98"/>
-      <c r="I42" s="99"/>
+      <c r="H42" s="96"/>
+      <c r="I42" s="97"/>
       <c r="J42" s="19"/>
       <c r="K42" s="19"/>
       <c r="L42" s="19"/>
@@ -6877,140 +6479,140 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="139" t="s">
+      <c r="B1" s="137" t="s">
         <v>78</v>
       </c>
-      <c r="C1" s="148"/>
-      <c r="D1" s="139" t="s">
+      <c r="C1" s="146"/>
+      <c r="D1" s="137" t="s">
         <v>80</v>
       </c>
-      <c r="E1" s="151"/>
-      <c r="F1" s="152"/>
-      <c r="I1" s="139" t="s">
+      <c r="E1" s="149"/>
+      <c r="F1" s="150"/>
+      <c r="I1" s="137" t="s">
         <v>79</v>
       </c>
-      <c r="J1" s="140"/>
-      <c r="K1" s="139" t="s">
+      <c r="J1" s="138"/>
+      <c r="K1" s="137" t="s">
         <v>81</v>
       </c>
-      <c r="L1" s="143"/>
-      <c r="M1" s="144"/>
-      <c r="P1" s="156" t="s">
+      <c r="L1" s="141"/>
+      <c r="M1" s="142"/>
+      <c r="P1" s="154" t="s">
         <v>82</v>
       </c>
-      <c r="Q1" s="156"/>
-      <c r="R1" s="156" t="s">
+      <c r="Q1" s="154"/>
+      <c r="R1" s="154" t="s">
         <v>83</v>
       </c>
-      <c r="S1" s="156"/>
-      <c r="T1" s="156"/>
-      <c r="W1" s="156" t="s">
+      <c r="S1" s="154"/>
+      <c r="T1" s="154"/>
+      <c r="W1" s="154" t="s">
         <v>84</v>
       </c>
-      <c r="X1" s="156"/>
-      <c r="Y1" s="156" t="s">
+      <c r="X1" s="154"/>
+      <c r="Y1" s="154" t="s">
         <v>85</v>
       </c>
-      <c r="Z1" s="156"/>
-      <c r="AA1" s="156"/>
+      <c r="Z1" s="154"/>
+      <c r="AA1" s="154"/>
     </row>
     <row r="2" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="149"/>
-      <c r="C2" s="150"/>
-      <c r="D2" s="153"/>
-      <c r="E2" s="154"/>
-      <c r="F2" s="155"/>
-      <c r="I2" s="141"/>
-      <c r="J2" s="142"/>
-      <c r="K2" s="145"/>
-      <c r="L2" s="146"/>
-      <c r="M2" s="147"/>
-      <c r="P2" s="156"/>
-      <c r="Q2" s="156"/>
-      <c r="R2" s="156"/>
-      <c r="S2" s="156"/>
-      <c r="T2" s="156"/>
-      <c r="W2" s="156"/>
-      <c r="X2" s="156"/>
-      <c r="Y2" s="156"/>
-      <c r="Z2" s="156"/>
-      <c r="AA2" s="156"/>
+      <c r="B2" s="147"/>
+      <c r="C2" s="148"/>
+      <c r="D2" s="151"/>
+      <c r="E2" s="152"/>
+      <c r="F2" s="153"/>
+      <c r="I2" s="139"/>
+      <c r="J2" s="140"/>
+      <c r="K2" s="143"/>
+      <c r="L2" s="144"/>
+      <c r="M2" s="145"/>
+      <c r="P2" s="154"/>
+      <c r="Q2" s="154"/>
+      <c r="R2" s="154"/>
+      <c r="S2" s="154"/>
+      <c r="T2" s="154"/>
+      <c r="W2" s="154"/>
+      <c r="X2" s="154"/>
+      <c r="Y2" s="154"/>
+      <c r="Z2" s="154"/>
+      <c r="AA2" s="154"/>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="B3" s="138" t="s">
+      <c r="B3" s="136" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="138"/>
-      <c r="D3" s="138"/>
-      <c r="E3" s="138" t="s">
+      <c r="C3" s="136"/>
+      <c r="D3" s="136"/>
+      <c r="E3" s="136" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="138"/>
-      <c r="I3" s="138" t="s">
+      <c r="F3" s="136"/>
+      <c r="I3" s="136" t="s">
         <v>18</v>
       </c>
-      <c r="J3" s="138"/>
-      <c r="K3" s="138"/>
-      <c r="L3" s="138" t="s">
+      <c r="J3" s="136"/>
+      <c r="K3" s="136"/>
+      <c r="L3" s="136" t="s">
         <v>19</v>
       </c>
-      <c r="M3" s="138"/>
-      <c r="P3" s="138" t="s">
+      <c r="M3" s="136"/>
+      <c r="P3" s="136" t="s">
         <v>0</v>
       </c>
-      <c r="Q3" s="138"/>
-      <c r="R3" s="138"/>
-      <c r="S3" s="138" t="s">
+      <c r="Q3" s="136"/>
+      <c r="R3" s="136"/>
+      <c r="S3" s="136" t="s">
         <v>19</v>
       </c>
-      <c r="T3" s="138"/>
-      <c r="W3" s="138" t="s">
+      <c r="T3" s="136"/>
+      <c r="W3" s="136" t="s">
         <v>0</v>
       </c>
-      <c r="X3" s="138"/>
-      <c r="Y3" s="138"/>
-      <c r="Z3" s="138" t="s">
+      <c r="X3" s="136"/>
+      <c r="Y3" s="136"/>
+      <c r="Z3" s="136" t="s">
         <v>19</v>
       </c>
-      <c r="AA3" s="138"/>
+      <c r="AA3" s="136"/>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="B4" s="138" t="s">
+      <c r="B4" s="136" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="138"/>
-      <c r="D4" s="138"/>
-      <c r="E4" s="138" t="s">
+      <c r="C4" s="136"/>
+      <c r="D4" s="136"/>
+      <c r="E4" s="136" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="138"/>
-      <c r="I4" s="138" t="s">
+      <c r="F4" s="136"/>
+      <c r="I4" s="136" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="138"/>
-      <c r="K4" s="138"/>
-      <c r="L4" s="138" t="s">
+      <c r="J4" s="136"/>
+      <c r="K4" s="136"/>
+      <c r="L4" s="136" t="s">
         <v>20</v>
       </c>
-      <c r="M4" s="138"/>
-      <c r="P4" s="138" t="s">
+      <c r="M4" s="136"/>
+      <c r="P4" s="136" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="138"/>
-      <c r="R4" s="138"/>
-      <c r="S4" s="138" t="s">
+      <c r="Q4" s="136"/>
+      <c r="R4" s="136"/>
+      <c r="S4" s="136" t="s">
         <v>21</v>
       </c>
-      <c r="T4" s="138"/>
-      <c r="W4" s="138" t="s">
+      <c r="T4" s="136"/>
+      <c r="W4" s="136" t="s">
         <v>8</v>
       </c>
-      <c r="X4" s="138"/>
-      <c r="Y4" s="138"/>
-      <c r="Z4" s="138" t="s">
+      <c r="X4" s="136"/>
+      <c r="Y4" s="136"/>
+      <c r="Z4" s="136" t="s">
         <v>21</v>
       </c>
-      <c r="AA4" s="138"/>
+      <c r="AA4" s="136"/>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B5" s="10" t="s">
@@ -14875,10 +14477,10 @@
       </c>
     </row>
     <row r="106" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="B106" s="137" t="s">
+      <c r="B106" s="135" t="s">
         <v>14</v>
       </c>
-      <c r="C106" s="137"/>
+      <c r="C106" s="135"/>
       <c r="D106" s="5">
         <f>SUM(D6:D105)</f>
         <v>87316</v>
@@ -14889,10 +14491,10 @@
       <c r="F106" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="I106" s="137" t="s">
+      <c r="I106" s="135" t="s">
         <v>4</v>
       </c>
-      <c r="J106" s="137"/>
+      <c r="J106" s="135"/>
       <c r="K106" s="5">
         <f>SUM(K6:K105)</f>
         <v>360244</v>
@@ -14903,10 +14505,10 @@
       <c r="M106" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="P106" s="137" t="s">
+      <c r="P106" s="135" t="s">
         <v>4</v>
       </c>
-      <c r="Q106" s="137"/>
+      <c r="Q106" s="135"/>
       <c r="R106" s="5">
         <f>SUM(Q6:Q105)</f>
         <v>2195776.0000000005</v>
@@ -14917,10 +14519,10 @@
       <c r="T106" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="W106" s="137" t="s">
+      <c r="W106" s="135" t="s">
         <v>4</v>
       </c>
-      <c r="X106" s="137"/>
+      <c r="X106" s="135"/>
       <c r="Y106" s="5">
         <f>SUM(X6:X105)</f>
         <v>5760000</v>
@@ -15004,66 +14606,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C1" s="157" t="s">
+      <c r="C1" s="155" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="157"/>
-      <c r="E1" s="157"/>
-      <c r="F1" s="157"/>
-      <c r="G1" s="157"/>
-      <c r="H1" s="157"/>
-      <c r="I1" s="157"/>
+      <c r="D1" s="155"/>
+      <c r="E1" s="155"/>
+      <c r="F1" s="155"/>
+      <c r="G1" s="155"/>
+      <c r="H1" s="155"/>
+      <c r="I1" s="155"/>
     </row>
     <row r="2" spans="2:14" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C2" s="157"/>
-      <c r="D2" s="157"/>
-      <c r="E2" s="157"/>
-      <c r="F2" s="157"/>
-      <c r="G2" s="157"/>
-      <c r="H2" s="157"/>
-      <c r="I2" s="157"/>
+      <c r="C2" s="155"/>
+      <c r="D2" s="155"/>
+      <c r="E2" s="155"/>
+      <c r="F2" s="155"/>
+      <c r="G2" s="155"/>
+      <c r="H2" s="155"/>
+      <c r="I2" s="155"/>
     </row>
     <row r="3" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="20"/>
-      <c r="C3" s="170" t="s">
+      <c r="C3" s="168" t="s">
         <v>88</v>
       </c>
-      <c r="D3" s="170"/>
+      <c r="D3" s="168"/>
       <c r="E3" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="170" t="s">
+      <c r="F3" s="168" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="170"/>
-      <c r="H3" s="170"/>
-      <c r="I3" s="170"/>
-      <c r="K3" s="158" t="s">
+      <c r="G3" s="168"/>
+      <c r="H3" s="168"/>
+      <c r="I3" s="168"/>
+      <c r="K3" s="156" t="s">
         <v>146</v>
       </c>
-      <c r="L3" s="159"/>
-      <c r="M3" s="159"/>
-      <c r="N3" s="160"/>
+      <c r="L3" s="157"/>
+      <c r="M3" s="157"/>
+      <c r="N3" s="158"/>
     </row>
     <row r="4" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="42"/>
-      <c r="C4" s="138" t="s">
+      <c r="C4" s="136" t="s">
         <v>92</v>
       </c>
-      <c r="D4" s="138"/>
+      <c r="D4" s="136"/>
       <c r="E4" s="23" t="s">
         <v>145</v>
       </c>
-      <c r="F4" s="138" t="s">
+      <c r="F4" s="136" t="s">
         <v>26</v>
       </c>
-      <c r="G4" s="138"/>
-      <c r="H4" s="138"/>
-      <c r="I4" s="138"/>
-      <c r="K4" s="161"/>
-      <c r="L4" s="162"/>
-      <c r="M4" s="162"/>
-      <c r="N4" s="163"/>
+      <c r="G4" s="136"/>
+      <c r="H4" s="136"/>
+      <c r="I4" s="136"/>
+      <c r="K4" s="159"/>
+      <c r="L4" s="160"/>
+      <c r="M4" s="160"/>
+      <c r="N4" s="161"/>
     </row>
     <row r="5" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="25"/>
@@ -15088,12 +14690,12 @@
       <c r="I5" s="50" t="s">
         <v>98</v>
       </c>
-      <c r="K5" s="164" t="s">
+      <c r="K5" s="162" t="s">
         <v>91</v>
       </c>
-      <c r="L5" s="165"/>
-      <c r="M5" s="165"/>
-      <c r="N5" s="166"/>
+      <c r="L5" s="163"/>
+      <c r="M5" s="163"/>
+      <c r="N5" s="164"/>
     </row>
     <row r="6" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="4"/>
@@ -15124,10 +14726,10 @@
         <f t="shared" ref="I6:I37" si="3">ROUND(H6:H105,0)</f>
         <v>2</v>
       </c>
-      <c r="K6" s="167"/>
-      <c r="L6" s="168"/>
-      <c r="M6" s="168"/>
-      <c r="N6" s="169"/>
+      <c r="K6" s="165"/>
+      <c r="L6" s="166"/>
+      <c r="M6" s="166"/>
+      <c r="N6" s="167"/>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B7" s="4"/>
@@ -18418,7 +18020,7 @@
   <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -18485,35 +18087,35 @@
       <c r="C2" s="64">
         <v>1</v>
       </c>
-      <c r="D2" s="68">
-        <v>50</v>
-      </c>
-      <c r="E2" s="68">
-        <v>60</v>
-      </c>
-      <c r="F2" s="68">
-        <v>70</v>
-      </c>
-      <c r="G2" s="68">
-        <v>80</v>
-      </c>
-      <c r="H2" s="68">
-        <v>90</v>
-      </c>
-      <c r="I2" s="68">
-        <v>100</v>
-      </c>
-      <c r="J2" s="68">
-        <v>110</v>
-      </c>
-      <c r="K2" s="68">
-        <v>120</v>
-      </c>
-      <c r="L2" s="68">
-        <v>130</v>
-      </c>
-      <c r="M2" s="68">
-        <v>140</v>
+      <c r="D2" s="177">
+        <v>10</v>
+      </c>
+      <c r="E2" s="177">
+        <v>11</v>
+      </c>
+      <c r="F2" s="177">
+        <v>12</v>
+      </c>
+      <c r="G2" s="177">
+        <v>13</v>
+      </c>
+      <c r="H2" s="177">
+        <v>14</v>
+      </c>
+      <c r="I2" s="177">
+        <v>15</v>
+      </c>
+      <c r="J2" s="177">
+        <v>16</v>
+      </c>
+      <c r="K2" s="177">
+        <v>17</v>
+      </c>
+      <c r="L2" s="177">
+        <v>18</v>
+      </c>
+      <c r="M2" s="177">
+        <v>19</v>
       </c>
       <c r="N2" s="63" t="b">
         <v>1</v>
@@ -18529,35 +18131,35 @@
       <c r="C3" s="64">
         <v>0</v>
       </c>
-      <c r="D3" s="68">
-        <v>200</v>
-      </c>
-      <c r="E3" s="68">
-        <v>230</v>
-      </c>
-      <c r="F3" s="68">
-        <v>260</v>
-      </c>
-      <c r="G3" s="68">
-        <v>290</v>
-      </c>
-      <c r="H3" s="68">
-        <v>320</v>
-      </c>
-      <c r="I3" s="68">
-        <v>350</v>
-      </c>
-      <c r="J3" s="68">
-        <v>380</v>
-      </c>
-      <c r="K3" s="68">
-        <v>410</v>
-      </c>
-      <c r="L3" s="68">
-        <v>440</v>
-      </c>
-      <c r="M3" s="68">
-        <v>470</v>
+      <c r="D3" s="177">
+        <v>20</v>
+      </c>
+      <c r="E3" s="177">
+        <v>22</v>
+      </c>
+      <c r="F3" s="177">
+        <v>24</v>
+      </c>
+      <c r="G3" s="177">
+        <v>26</v>
+      </c>
+      <c r="H3" s="177">
+        <v>28</v>
+      </c>
+      <c r="I3" s="177">
+        <v>30</v>
+      </c>
+      <c r="J3" s="177">
+        <v>32</v>
+      </c>
+      <c r="K3" s="177">
+        <v>34</v>
+      </c>
+      <c r="L3" s="177">
+        <v>36</v>
+      </c>
+      <c r="M3" s="177">
+        <v>38</v>
       </c>
       <c r="N3" s="63" t="b">
         <v>0</v>
@@ -18573,35 +18175,35 @@
       <c r="C4" s="64">
         <v>0</v>
       </c>
-      <c r="D4" s="68">
-        <v>800</v>
-      </c>
-      <c r="E4" s="68">
-        <v>980</v>
-      </c>
-      <c r="F4" s="68">
-        <v>1160</v>
-      </c>
-      <c r="G4" s="68">
-        <v>1340</v>
-      </c>
-      <c r="H4" s="68">
-        <v>1520</v>
-      </c>
-      <c r="I4" s="68">
-        <v>1700</v>
-      </c>
-      <c r="J4" s="68">
-        <v>1880</v>
-      </c>
-      <c r="K4" s="68">
-        <v>2060</v>
-      </c>
-      <c r="L4" s="68">
-        <v>2240</v>
-      </c>
-      <c r="M4" s="68">
-        <v>2420</v>
+      <c r="D4" s="177">
+        <v>40</v>
+      </c>
+      <c r="E4" s="177">
+        <v>44</v>
+      </c>
+      <c r="F4" s="177">
+        <v>48</v>
+      </c>
+      <c r="G4" s="177">
+        <v>52</v>
+      </c>
+      <c r="H4" s="177">
+        <v>56</v>
+      </c>
+      <c r="I4" s="177">
+        <v>60</v>
+      </c>
+      <c r="J4" s="177">
+        <v>64</v>
+      </c>
+      <c r="K4" s="177">
+        <v>68</v>
+      </c>
+      <c r="L4" s="177">
+        <v>72</v>
+      </c>
+      <c r="M4" s="177">
+        <v>76</v>
       </c>
       <c r="N4" s="63" t="b">
         <v>0</v>
@@ -18617,35 +18219,35 @@
       <c r="C5" s="64">
         <v>0</v>
       </c>
-      <c r="D5" s="69">
-        <v>4040</v>
-      </c>
-      <c r="E5" s="68">
-        <v>5660</v>
-      </c>
-      <c r="F5" s="68">
-        <v>7280</v>
-      </c>
-      <c r="G5" s="68">
-        <v>8900</v>
-      </c>
-      <c r="H5" s="68">
-        <v>10520</v>
-      </c>
-      <c r="I5" s="68">
-        <v>12140</v>
-      </c>
-      <c r="J5" s="68">
-        <v>13760</v>
-      </c>
-      <c r="K5" s="68">
-        <v>15380</v>
-      </c>
-      <c r="L5" s="68">
-        <v>17000</v>
-      </c>
-      <c r="M5" s="68">
-        <v>18620</v>
+      <c r="D5" s="177">
+        <v>80</v>
+      </c>
+      <c r="E5" s="177">
+        <v>88</v>
+      </c>
+      <c r="F5" s="177">
+        <v>96</v>
+      </c>
+      <c r="G5" s="177">
+        <v>104</v>
+      </c>
+      <c r="H5" s="177">
+        <v>112</v>
+      </c>
+      <c r="I5" s="177">
+        <v>120</v>
+      </c>
+      <c r="J5" s="177">
+        <v>128</v>
+      </c>
+      <c r="K5" s="177">
+        <v>136</v>
+      </c>
+      <c r="L5" s="177">
+        <v>144</v>
+      </c>
+      <c r="M5" s="177">
+        <v>152</v>
       </c>
       <c r="N5" s="63" t="b">
         <v>0</v>
@@ -18661,35 +18263,35 @@
       <c r="C6" s="64">
         <v>0</v>
       </c>
-      <c r="D6" s="69">
-        <v>27500</v>
-      </c>
-      <c r="E6" s="68">
-        <v>46940</v>
-      </c>
-      <c r="F6" s="68">
-        <v>66380</v>
-      </c>
-      <c r="G6" s="68">
-        <v>85820</v>
-      </c>
-      <c r="H6" s="68">
-        <v>105260</v>
-      </c>
-      <c r="I6" s="68">
-        <v>124700</v>
-      </c>
-      <c r="J6" s="68">
-        <v>144140</v>
-      </c>
-      <c r="K6" s="68">
-        <v>163580</v>
-      </c>
-      <c r="L6" s="68">
-        <v>183020</v>
-      </c>
-      <c r="M6" s="68">
-        <v>202460</v>
+      <c r="D6" s="177">
+        <v>160</v>
+      </c>
+      <c r="E6" s="177">
+        <v>176</v>
+      </c>
+      <c r="F6" s="177">
+        <v>192</v>
+      </c>
+      <c r="G6" s="177">
+        <v>208</v>
+      </c>
+      <c r="H6" s="177">
+        <v>224</v>
+      </c>
+      <c r="I6" s="177">
+        <v>240</v>
+      </c>
+      <c r="J6" s="177">
+        <v>256</v>
+      </c>
+      <c r="K6" s="177">
+        <v>272</v>
+      </c>
+      <c r="L6" s="177">
+        <v>288</v>
+      </c>
+      <c r="M6" s="177">
+        <v>304</v>
       </c>
       <c r="N6" s="63" t="b">
         <v>0</v>
@@ -18705,35 +18307,35 @@
       <c r="C7" s="64">
         <v>0</v>
       </c>
-      <c r="D7" s="69">
-        <v>225100</v>
-      </c>
-      <c r="E7" s="68">
-        <v>516700</v>
-      </c>
-      <c r="F7" s="68">
-        <v>808300</v>
-      </c>
-      <c r="G7" s="68">
-        <v>1099900</v>
-      </c>
-      <c r="H7" s="68">
-        <v>1391500</v>
-      </c>
-      <c r="I7" s="68">
-        <v>1683100</v>
-      </c>
-      <c r="J7" s="68">
-        <v>1974700</v>
-      </c>
-      <c r="K7" s="68">
-        <v>2266300</v>
-      </c>
-      <c r="L7" s="68">
-        <v>2557900</v>
-      </c>
-      <c r="M7" s="68">
-        <v>2849500</v>
+      <c r="D7" s="177">
+        <v>320</v>
+      </c>
+      <c r="E7" s="177">
+        <v>352</v>
+      </c>
+      <c r="F7" s="177">
+        <v>384</v>
+      </c>
+      <c r="G7" s="177">
+        <v>416</v>
+      </c>
+      <c r="H7" s="177">
+        <v>448</v>
+      </c>
+      <c r="I7" s="177">
+        <v>480</v>
+      </c>
+      <c r="J7" s="177">
+        <v>512</v>
+      </c>
+      <c r="K7" s="177">
+        <v>544</v>
+      </c>
+      <c r="L7" s="177">
+        <v>576</v>
+      </c>
+      <c r="M7" s="177">
+        <v>608</v>
       </c>
       <c r="N7" s="63" t="b">
         <v>0</v>
@@ -18749,35 +18351,35 @@
       <c r="C8" s="64">
         <v>0</v>
       </c>
-      <c r="D8" s="69">
-        <v>2321300</v>
-      </c>
-      <c r="E8" s="68">
-        <v>7570100</v>
-      </c>
-      <c r="F8" s="68">
-        <v>12818900</v>
-      </c>
-      <c r="G8" s="68">
-        <v>18067700</v>
-      </c>
-      <c r="H8" s="68">
-        <v>23316500</v>
-      </c>
-      <c r="I8" s="68">
-        <v>28565300</v>
-      </c>
-      <c r="J8" s="68">
-        <v>33814100</v>
-      </c>
-      <c r="K8" s="68">
-        <v>39062900</v>
-      </c>
-      <c r="L8" s="68">
-        <v>44311700</v>
-      </c>
-      <c r="M8" s="68">
-        <v>49560500</v>
+      <c r="D8" s="177">
+        <v>640</v>
+      </c>
+      <c r="E8" s="177">
+        <v>704</v>
+      </c>
+      <c r="F8" s="177">
+        <v>768</v>
+      </c>
+      <c r="G8" s="177">
+        <v>832</v>
+      </c>
+      <c r="H8" s="177">
+        <v>896</v>
+      </c>
+      <c r="I8" s="177">
+        <v>960</v>
+      </c>
+      <c r="J8" s="177">
+        <v>1024</v>
+      </c>
+      <c r="K8" s="177">
+        <v>1088</v>
+      </c>
+      <c r="L8" s="177">
+        <v>1152</v>
+      </c>
+      <c r="M8" s="177">
+        <v>1216</v>
       </c>
       <c r="N8" s="63" t="b">
         <v>0</v>
@@ -18793,35 +18395,35 @@
       <c r="C9" s="64">
         <v>0</v>
       </c>
-      <c r="D9" s="69">
-        <v>28966900</v>
-      </c>
-      <c r="E9" s="68">
-        <v>139191700</v>
-      </c>
-      <c r="F9" s="68">
-        <v>249416500</v>
-      </c>
-      <c r="G9" s="68">
-        <v>359641300</v>
-      </c>
-      <c r="H9" s="68">
-        <v>469866100</v>
-      </c>
-      <c r="I9" s="68">
-        <v>580090900</v>
-      </c>
-      <c r="J9" s="68">
-        <v>690315700</v>
-      </c>
-      <c r="K9" s="68">
-        <v>800540500</v>
-      </c>
-      <c r="L9" s="68">
-        <v>910765300</v>
-      </c>
-      <c r="M9" s="68">
-        <v>1020990100</v>
+      <c r="D9" s="177">
+        <v>1280</v>
+      </c>
+      <c r="E9" s="177">
+        <v>1408</v>
+      </c>
+      <c r="F9" s="177">
+        <v>1536</v>
+      </c>
+      <c r="G9" s="177">
+        <v>1664</v>
+      </c>
+      <c r="H9" s="177">
+        <v>1792</v>
+      </c>
+      <c r="I9" s="177">
+        <v>1920</v>
+      </c>
+      <c r="J9" s="177">
+        <v>2048</v>
+      </c>
+      <c r="K9" s="177">
+        <v>2176</v>
+      </c>
+      <c r="L9" s="177">
+        <v>2304</v>
+      </c>
+      <c r="M9" s="177">
+        <v>2432</v>
       </c>
       <c r="N9" s="63" t="b">
         <v>0</v>
@@ -18837,35 +18439,35 @@
       <c r="C10" s="67">
         <v>0</v>
       </c>
-      <c r="D10" s="69">
-        <v>422798300</v>
-      </c>
-      <c r="E10" s="68">
-        <v>3068193500</v>
-      </c>
-      <c r="F10" s="68">
-        <v>5713588700</v>
-      </c>
-      <c r="G10" s="68">
-        <v>8358983900</v>
-      </c>
-      <c r="H10" s="68">
-        <v>11004379100</v>
-      </c>
-      <c r="I10" s="68">
-        <v>13649774300</v>
-      </c>
-      <c r="J10" s="68">
-        <v>16295169500</v>
-      </c>
-      <c r="K10" s="68">
-        <v>18940564700</v>
-      </c>
-      <c r="L10" s="68">
-        <v>21585959900</v>
-      </c>
-      <c r="M10" s="68">
-        <v>24231355100</v>
+      <c r="D10" s="177">
+        <v>2560</v>
+      </c>
+      <c r="E10" s="177">
+        <v>2816</v>
+      </c>
+      <c r="F10" s="177">
+        <v>3072</v>
+      </c>
+      <c r="G10" s="177">
+        <v>3328</v>
+      </c>
+      <c r="H10" s="177">
+        <v>3584</v>
+      </c>
+      <c r="I10" s="177">
+        <v>3840</v>
+      </c>
+      <c r="J10" s="177">
+        <v>4096</v>
+      </c>
+      <c r="K10" s="177">
+        <v>4352</v>
+      </c>
+      <c r="L10" s="177">
+        <v>4608</v>
+      </c>
+      <c r="M10" s="177">
+        <v>4864</v>
       </c>
       <c r="N10" s="63" t="b">
         <v>0</v>
@@ -18881,35 +18483,35 @@
       <c r="C11" s="67">
         <v>0</v>
       </c>
-      <c r="D11" s="69">
-        <v>7048293100</v>
-      </c>
-      <c r="E11" s="68">
-        <v>78473963500</v>
-      </c>
-      <c r="F11" s="68" t="s">
-        <v>265</v>
-      </c>
-      <c r="G11" s="68" t="s">
-        <v>271</v>
-      </c>
-      <c r="H11" s="68" t="s">
-        <v>278</v>
-      </c>
-      <c r="I11" s="68" t="s">
-        <v>285</v>
-      </c>
-      <c r="J11" s="68" t="s">
-        <v>297</v>
-      </c>
-      <c r="K11" s="68" t="s">
-        <v>298</v>
-      </c>
-      <c r="L11" s="68" t="s">
-        <v>304</v>
-      </c>
-      <c r="M11" s="68" t="s">
-        <v>310</v>
+      <c r="D11" s="177">
+        <v>5120</v>
+      </c>
+      <c r="E11" s="177">
+        <v>5632</v>
+      </c>
+      <c r="F11" s="177">
+        <v>6144</v>
+      </c>
+      <c r="G11" s="177">
+        <v>6656</v>
+      </c>
+      <c r="H11" s="177">
+        <v>7168</v>
+      </c>
+      <c r="I11" s="177">
+        <v>7680</v>
+      </c>
+      <c r="J11" s="177">
+        <v>8192</v>
+      </c>
+      <c r="K11" s="177">
+        <v>8704</v>
+      </c>
+      <c r="L11" s="177">
+        <v>9216</v>
+      </c>
+      <c r="M11" s="177">
+        <v>9728</v>
       </c>
       <c r="N11" s="63" t="b">
         <v>0</v>
@@ -18925,35 +18527,35 @@
       <c r="C12" s="67">
         <v>0</v>
       </c>
-      <c r="D12" s="69" t="s">
-        <v>252</v>
-      </c>
-      <c r="E12" s="68" t="s">
-        <v>258</v>
-      </c>
-      <c r="F12" s="68" t="s">
-        <v>264</v>
-      </c>
-      <c r="G12" s="68" t="s">
-        <v>272</v>
-      </c>
-      <c r="H12" s="68" t="s">
-        <v>279</v>
-      </c>
-      <c r="I12" s="68" t="s">
-        <v>286</v>
-      </c>
-      <c r="J12" s="68" t="s">
-        <v>296</v>
-      </c>
-      <c r="K12" s="68" t="s">
-        <v>299</v>
-      </c>
-      <c r="L12" s="68" t="s">
-        <v>305</v>
-      </c>
-      <c r="M12" s="68" t="s">
-        <v>311</v>
+      <c r="D12" s="177">
+        <v>10240</v>
+      </c>
+      <c r="E12" s="177">
+        <v>11264</v>
+      </c>
+      <c r="F12" s="177">
+        <v>12288</v>
+      </c>
+      <c r="G12" s="177">
+        <v>13312</v>
+      </c>
+      <c r="H12" s="177">
+        <v>14336</v>
+      </c>
+      <c r="I12" s="177">
+        <v>15360</v>
+      </c>
+      <c r="J12" s="177">
+        <v>16384</v>
+      </c>
+      <c r="K12" s="177">
+        <v>17408</v>
+      </c>
+      <c r="L12" s="177">
+        <v>18432</v>
+      </c>
+      <c r="M12" s="177">
+        <v>19456</v>
       </c>
       <c r="N12" s="63" t="b">
         <v>0</v>
@@ -18969,35 +18571,35 @@
       <c r="C13" s="67">
         <v>0</v>
       </c>
-      <c r="D13" s="69" t="s">
-        <v>253</v>
-      </c>
-      <c r="E13" s="68" t="s">
-        <v>259</v>
-      </c>
-      <c r="F13" s="68" t="s">
-        <v>266</v>
-      </c>
-      <c r="G13" s="68" t="s">
-        <v>273</v>
-      </c>
-      <c r="H13" s="68" t="s">
-        <v>280</v>
-      </c>
-      <c r="I13" s="68" t="s">
-        <v>287</v>
-      </c>
-      <c r="J13" s="68" t="s">
-        <v>295</v>
-      </c>
-      <c r="K13" s="68" t="s">
-        <v>300</v>
-      </c>
-      <c r="L13" s="68" t="s">
-        <v>306</v>
-      </c>
-      <c r="M13" s="68" t="s">
-        <v>312</v>
+      <c r="D13" s="177">
+        <v>20480</v>
+      </c>
+      <c r="E13" s="177">
+        <v>22528</v>
+      </c>
+      <c r="F13" s="177">
+        <v>24576</v>
+      </c>
+      <c r="G13" s="177">
+        <v>26624</v>
+      </c>
+      <c r="H13" s="177">
+        <v>28672</v>
+      </c>
+      <c r="I13" s="177">
+        <v>30720</v>
+      </c>
+      <c r="J13" s="177">
+        <v>32768</v>
+      </c>
+      <c r="K13" s="177">
+        <v>34816</v>
+      </c>
+      <c r="L13" s="177">
+        <v>36864</v>
+      </c>
+      <c r="M13" s="177">
+        <v>38912</v>
       </c>
       <c r="N13" s="63" t="b">
         <v>0</v>
@@ -19013,35 +18615,35 @@
       <c r="C14" s="67">
         <v>0</v>
       </c>
-      <c r="D14" s="69" t="s">
-        <v>254</v>
-      </c>
-      <c r="E14" s="68" t="s">
-        <v>260</v>
-      </c>
-      <c r="F14" s="68" t="s">
-        <v>267</v>
-      </c>
-      <c r="G14" s="68" t="s">
-        <v>274</v>
-      </c>
-      <c r="H14" s="68" t="s">
-        <v>281</v>
-      </c>
-      <c r="I14" s="68" t="s">
-        <v>288</v>
-      </c>
-      <c r="J14" s="68" t="s">
-        <v>294</v>
-      </c>
-      <c r="K14" s="68" t="s">
-        <v>301</v>
-      </c>
-      <c r="L14" s="68" t="s">
-        <v>307</v>
-      </c>
-      <c r="M14" s="68" t="s">
-        <v>313</v>
+      <c r="D14" s="177">
+        <v>40960</v>
+      </c>
+      <c r="E14" s="177">
+        <v>45056</v>
+      </c>
+      <c r="F14" s="177">
+        <v>49152</v>
+      </c>
+      <c r="G14" s="177">
+        <v>53248</v>
+      </c>
+      <c r="H14" s="177">
+        <v>57344</v>
+      </c>
+      <c r="I14" s="177">
+        <v>61440</v>
+      </c>
+      <c r="J14" s="177">
+        <v>65536</v>
+      </c>
+      <c r="K14" s="177">
+        <v>69632</v>
+      </c>
+      <c r="L14" s="177">
+        <v>73728</v>
+      </c>
+      <c r="M14" s="177">
+        <v>77824</v>
       </c>
       <c r="N14" s="63" t="b">
         <v>0</v>
@@ -19057,35 +18659,35 @@
       <c r="C15" s="67">
         <v>0</v>
       </c>
-      <c r="D15" s="69" t="s">
-        <v>255</v>
-      </c>
-      <c r="E15" s="68" t="s">
-        <v>261</v>
-      </c>
-      <c r="F15" s="68" t="s">
-        <v>268</v>
-      </c>
-      <c r="G15" s="68" t="s">
-        <v>275</v>
-      </c>
-      <c r="H15" s="68" t="s">
-        <v>282</v>
-      </c>
-      <c r="I15" s="68" t="s">
-        <v>289</v>
-      </c>
-      <c r="J15" s="68" t="s">
-        <v>292</v>
-      </c>
-      <c r="K15" s="68" t="s">
-        <v>302</v>
-      </c>
-      <c r="L15" s="68" t="s">
-        <v>308</v>
-      </c>
-      <c r="M15" s="68" t="s">
-        <v>314</v>
+      <c r="D15" s="177">
+        <v>81920</v>
+      </c>
+      <c r="E15" s="177">
+        <v>90112</v>
+      </c>
+      <c r="F15" s="177">
+        <v>98304</v>
+      </c>
+      <c r="G15" s="177">
+        <v>106496</v>
+      </c>
+      <c r="H15" s="177">
+        <v>114688</v>
+      </c>
+      <c r="I15" s="177">
+        <v>122880</v>
+      </c>
+      <c r="J15" s="177">
+        <v>131072</v>
+      </c>
+      <c r="K15" s="177">
+        <v>139264</v>
+      </c>
+      <c r="L15" s="177">
+        <v>147456</v>
+      </c>
+      <c r="M15" s="177">
+        <v>155648</v>
       </c>
       <c r="N15" s="63" t="b">
         <v>0</v>
@@ -19101,35 +18703,35 @@
       <c r="C16" s="67">
         <v>0</v>
       </c>
-      <c r="D16" s="69" t="s">
-        <v>256</v>
-      </c>
-      <c r="E16" s="68" t="s">
-        <v>262</v>
-      </c>
-      <c r="F16" s="68" t="s">
-        <v>269</v>
-      </c>
-      <c r="G16" s="68" t="s">
-        <v>276</v>
-      </c>
-      <c r="H16" s="68" t="s">
-        <v>283</v>
-      </c>
-      <c r="I16" s="68" t="s">
-        <v>293</v>
-      </c>
-      <c r="J16" s="68" t="s">
-        <v>291</v>
-      </c>
-      <c r="K16" s="68" t="s">
-        <v>303</v>
-      </c>
-      <c r="L16" s="68" t="s">
-        <v>309</v>
-      </c>
-      <c r="M16" s="68" t="s">
-        <v>315</v>
+      <c r="D16" s="177">
+        <v>163840</v>
+      </c>
+      <c r="E16" s="177">
+        <v>180224</v>
+      </c>
+      <c r="F16" s="177">
+        <v>196608</v>
+      </c>
+      <c r="G16" s="177">
+        <v>212992</v>
+      </c>
+      <c r="H16" s="177">
+        <v>229376</v>
+      </c>
+      <c r="I16" s="177">
+        <v>245760</v>
+      </c>
+      <c r="J16" s="177">
+        <v>262144</v>
+      </c>
+      <c r="K16" s="177">
+        <v>278528</v>
+      </c>
+      <c r="L16" s="177">
+        <v>294912</v>
+      </c>
+      <c r="M16" s="177">
+        <v>311296</v>
       </c>
       <c r="N16" s="63" t="b">
         <v>0</v>
@@ -19145,35 +18747,35 @@
       <c r="C17" s="67">
         <v>0</v>
       </c>
-      <c r="D17" s="69" t="s">
-        <v>257</v>
-      </c>
-      <c r="E17" s="68" t="s">
-        <v>263</v>
-      </c>
-      <c r="F17" s="68" t="s">
-        <v>270</v>
-      </c>
-      <c r="G17" s="68" t="s">
-        <v>277</v>
-      </c>
-      <c r="H17" s="68" t="s">
-        <v>284</v>
-      </c>
-      <c r="I17" s="68" t="s">
-        <v>290</v>
-      </c>
-      <c r="J17" s="68" t="s">
-        <v>215</v>
-      </c>
-      <c r="K17" s="68" t="s">
-        <v>216</v>
-      </c>
-      <c r="L17" s="68" t="s">
-        <v>217</v>
-      </c>
-      <c r="M17" s="68" t="s">
-        <v>218</v>
+      <c r="D17" s="177">
+        <v>327680</v>
+      </c>
+      <c r="E17" s="177">
+        <v>360448</v>
+      </c>
+      <c r="F17" s="177">
+        <v>393216</v>
+      </c>
+      <c r="G17" s="177">
+        <v>425984</v>
+      </c>
+      <c r="H17" s="177">
+        <v>458752</v>
+      </c>
+      <c r="I17" s="177">
+        <v>491520</v>
+      </c>
+      <c r="J17" s="177">
+        <v>524288</v>
+      </c>
+      <c r="K17" s="177">
+        <v>557056</v>
+      </c>
+      <c r="L17" s="177">
+        <v>589824</v>
+      </c>
+      <c r="M17" s="177">
+        <v>622592</v>
       </c>
       <c r="N17" s="63" t="b">
         <v>0</v>
@@ -19189,35 +18791,35 @@
       <c r="C18" s="67">
         <v>0</v>
       </c>
-      <c r="D18" s="69" t="s">
-        <v>208</v>
-      </c>
-      <c r="E18" s="68" t="s">
-        <v>209</v>
-      </c>
-      <c r="F18" s="68" t="s">
-        <v>210</v>
-      </c>
-      <c r="G18" s="68" t="s">
-        <v>211</v>
-      </c>
-      <c r="H18" s="68" t="s">
-        <v>212</v>
-      </c>
-      <c r="I18" s="68" t="s">
-        <v>213</v>
-      </c>
-      <c r="J18" s="68" t="s">
-        <v>214</v>
-      </c>
-      <c r="K18" s="68" t="s">
-        <v>219</v>
-      </c>
-      <c r="L18" s="68" t="s">
-        <v>220</v>
-      </c>
-      <c r="M18" s="68" t="s">
-        <v>221</v>
+      <c r="D18" s="177">
+        <v>655360</v>
+      </c>
+      <c r="E18" s="177">
+        <v>720896</v>
+      </c>
+      <c r="F18" s="177">
+        <v>786432</v>
+      </c>
+      <c r="G18" s="177">
+        <v>851968</v>
+      </c>
+      <c r="H18" s="177">
+        <v>917504</v>
+      </c>
+      <c r="I18" s="177">
+        <v>983040</v>
+      </c>
+      <c r="J18" s="177">
+        <v>1048576</v>
+      </c>
+      <c r="K18" s="177">
+        <v>1114112</v>
+      </c>
+      <c r="L18" s="177">
+        <v>1179648</v>
+      </c>
+      <c r="M18" s="177">
+        <v>1245184</v>
       </c>
       <c r="N18" s="63" t="b">
         <v>0</v>
@@ -19233,35 +18835,35 @@
       <c r="C19" s="67">
         <v>0</v>
       </c>
-      <c r="D19" s="69" t="s">
-        <v>222</v>
-      </c>
-      <c r="E19" s="68" t="s">
-        <v>223</v>
-      </c>
-      <c r="F19" s="68" t="s">
-        <v>224</v>
-      </c>
-      <c r="G19" s="68" t="s">
-        <v>225</v>
-      </c>
-      <c r="H19" s="68" t="s">
-        <v>226</v>
-      </c>
-      <c r="I19" s="68" t="s">
-        <v>227</v>
-      </c>
-      <c r="J19" s="68" t="s">
-        <v>228</v>
-      </c>
-      <c r="K19" s="68" t="s">
-        <v>229</v>
-      </c>
-      <c r="L19" s="68" t="s">
-        <v>230</v>
-      </c>
-      <c r="M19" s="68" t="s">
-        <v>231</v>
+      <c r="D19" s="177">
+        <v>1310720</v>
+      </c>
+      <c r="E19" s="177">
+        <v>1441792</v>
+      </c>
+      <c r="F19" s="177">
+        <v>1572864</v>
+      </c>
+      <c r="G19" s="177">
+        <v>1703936</v>
+      </c>
+      <c r="H19" s="177">
+        <v>1835008</v>
+      </c>
+      <c r="I19" s="177">
+        <v>1966080</v>
+      </c>
+      <c r="J19" s="177">
+        <v>2097152</v>
+      </c>
+      <c r="K19" s="177">
+        <v>2228224</v>
+      </c>
+      <c r="L19" s="177">
+        <v>2359296</v>
+      </c>
+      <c r="M19" s="177">
+        <v>2490368</v>
       </c>
       <c r="N19" s="63" t="b">
         <v>0</v>
@@ -19277,35 +18879,35 @@
       <c r="C20" s="67">
         <v>0</v>
       </c>
-      <c r="D20" s="69" t="s">
-        <v>232</v>
-      </c>
-      <c r="E20" s="68" t="s">
-        <v>234</v>
-      </c>
-      <c r="F20" s="68" t="s">
-        <v>236</v>
-      </c>
-      <c r="G20" s="68" t="s">
-        <v>238</v>
-      </c>
-      <c r="H20" s="68" t="s">
-        <v>240</v>
-      </c>
-      <c r="I20" s="68" t="s">
-        <v>242</v>
-      </c>
-      <c r="J20" s="68" t="s">
-        <v>244</v>
-      </c>
-      <c r="K20" s="68" t="s">
-        <v>246</v>
-      </c>
-      <c r="L20" s="68" t="s">
-        <v>248</v>
-      </c>
-      <c r="M20" s="68" t="s">
-        <v>251</v>
+      <c r="D20" s="177">
+        <v>2621440</v>
+      </c>
+      <c r="E20" s="177">
+        <v>2883584</v>
+      </c>
+      <c r="F20" s="177">
+        <v>3145728</v>
+      </c>
+      <c r="G20" s="177">
+        <v>3407872</v>
+      </c>
+      <c r="H20" s="177">
+        <v>3670016</v>
+      </c>
+      <c r="I20" s="177">
+        <v>3932160</v>
+      </c>
+      <c r="J20" s="177">
+        <v>4194304</v>
+      </c>
+      <c r="K20" s="177">
+        <v>4456448</v>
+      </c>
+      <c r="L20" s="177">
+        <v>4718592</v>
+      </c>
+      <c r="M20" s="177">
+        <v>4980736</v>
       </c>
       <c r="N20" s="63" t="b">
         <v>0</v>
@@ -19321,35 +18923,35 @@
       <c r="C21" s="67">
         <v>0</v>
       </c>
-      <c r="D21" s="69" t="s">
-        <v>233</v>
-      </c>
-      <c r="E21" s="68" t="s">
-        <v>235</v>
-      </c>
-      <c r="F21" s="68" t="s">
-        <v>237</v>
-      </c>
-      <c r="G21" s="68" t="s">
-        <v>239</v>
-      </c>
-      <c r="H21" s="68" t="s">
-        <v>241</v>
-      </c>
-      <c r="I21" s="68" t="s">
-        <v>243</v>
-      </c>
-      <c r="J21" s="68" t="s">
-        <v>245</v>
-      </c>
-      <c r="K21" s="68" t="s">
-        <v>247</v>
-      </c>
-      <c r="L21" s="68" t="s">
-        <v>249</v>
-      </c>
-      <c r="M21" s="68" t="s">
-        <v>250</v>
+      <c r="D21" s="177">
+        <v>5242880</v>
+      </c>
+      <c r="E21" s="177">
+        <v>5767168</v>
+      </c>
+      <c r="F21" s="177">
+        <v>6291456</v>
+      </c>
+      <c r="G21" s="177">
+        <v>6815744</v>
+      </c>
+      <c r="H21" s="177">
+        <v>7340032</v>
+      </c>
+      <c r="I21" s="177">
+        <v>7864320</v>
+      </c>
+      <c r="J21" s="177">
+        <v>8388608</v>
+      </c>
+      <c r="K21" s="177">
+        <v>8912896</v>
+      </c>
+      <c r="L21" s="177">
+        <v>9437184</v>
+      </c>
+      <c r="M21" s="177">
+        <v>9961472</v>
       </c>
       <c r="N21" s="63" t="b">
         <v>0</v>
@@ -19376,38 +18978,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" s="171" t="s">
+      <c r="A1" s="169" t="s">
         <v>183</v>
       </c>
-      <c r="B1" s="171"/>
-      <c r="C1" s="171"/>
-      <c r="D1" s="171"/>
-      <c r="E1" s="171"/>
-      <c r="F1" s="171"/>
-      <c r="G1" s="171"/>
-      <c r="H1" s="171"/>
-      <c r="I1" s="171"/>
-      <c r="J1" s="171"/>
-      <c r="K1" s="171"/>
-      <c r="L1" s="171"/>
-      <c r="M1" s="171"/>
-      <c r="N1" s="171"/>
+      <c r="B1" s="169"/>
+      <c r="C1" s="169"/>
+      <c r="D1" s="169"/>
+      <c r="E1" s="169"/>
+      <c r="F1" s="169"/>
+      <c r="G1" s="169"/>
+      <c r="H1" s="169"/>
+      <c r="I1" s="169"/>
+      <c r="J1" s="169"/>
+      <c r="K1" s="169"/>
+      <c r="L1" s="169"/>
+      <c r="M1" s="169"/>
+      <c r="N1" s="169"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="172"/>
-      <c r="B2" s="172"/>
-      <c r="C2" s="172"/>
-      <c r="D2" s="172"/>
-      <c r="E2" s="172"/>
-      <c r="F2" s="172"/>
-      <c r="G2" s="172"/>
-      <c r="H2" s="172"/>
-      <c r="I2" s="172"/>
-      <c r="J2" s="172"/>
-      <c r="K2" s="172"/>
-      <c r="L2" s="172"/>
-      <c r="M2" s="172"/>
-      <c r="N2" s="172"/>
+      <c r="A2" s="170"/>
+      <c r="B2" s="170"/>
+      <c r="C2" s="170"/>
+      <c r="D2" s="170"/>
+      <c r="E2" s="170"/>
+      <c r="F2" s="170"/>
+      <c r="G2" s="170"/>
+      <c r="H2" s="170"/>
+      <c r="I2" s="170"/>
+      <c r="J2" s="170"/>
+      <c r="K2" s="170"/>
+      <c r="L2" s="170"/>
+      <c r="M2" s="170"/>
+      <c r="N2" s="170"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="38" t="s">
@@ -19468,39 +19070,39 @@
       </c>
       <c r="E4" s="65">
         <f>POWER((3+0.2*(weaponData!D2:M2-25)),2)</f>
-        <v>100</v>
+        <v>3.9999999999999897E-2</v>
       </c>
       <c r="F4" s="65">
         <f>POWER((3+0.2*(weaponData!E2:O2-25)),2)</f>
-        <v>144</v>
+        <v>0.15999999999999992</v>
       </c>
       <c r="G4" s="65">
         <f>POWER((3+0.2*(weaponData!F2:P2-25)),2)</f>
-        <v>196</v>
+        <v>0.3599999999999996</v>
       </c>
       <c r="H4" s="65">
         <f>POWER((3+0.2*(weaponData!G2:Q2-25)),2)</f>
-        <v>256</v>
+        <v>0.63999999999999968</v>
       </c>
       <c r="I4" s="65">
         <f>POWER((3+0.2*(weaponData!H2:R2-25)),2)</f>
-        <v>324</v>
+        <v>1</v>
       </c>
       <c r="J4" s="65">
         <f>POWER((3+0.2*(weaponData!I2:S2-25)),2)</f>
-        <v>400</v>
+        <v>1.44</v>
       </c>
       <c r="K4" s="65">
         <f>POWER((3+0.2*(weaponData!J2:T2-25)),2)</f>
-        <v>484</v>
+        <v>1.9599999999999997</v>
       </c>
       <c r="L4" s="65">
         <f>POWER((3+0.2*(weaponData!K2:U2-25)),2)</f>
-        <v>576</v>
+        <v>2.5599999999999996</v>
       </c>
       <c r="M4" s="65">
         <f>POWER((3+0.2*(weaponData!L2:V2-25)),2)</f>
-        <v>676</v>
+        <v>3.2399999999999993</v>
       </c>
       <c r="N4" s="65">
         <f>POWER((3+0.2*(weaponData!M2:W2-25)),2)</f>
@@ -19522,39 +19124,39 @@
       </c>
       <c r="E5" s="65">
         <f>POWER((3+0.2*(weaponData!D3:M3-25)),2)</f>
-        <v>1936</v>
+        <v>5.76</v>
       </c>
       <c r="F5" s="65">
         <f>POWER((3+0.2*(weaponData!E3:O3-25)),2)</f>
-        <v>2500</v>
+        <v>7.839999999999999</v>
       </c>
       <c r="G5" s="65">
         <f>POWER((3+0.2*(weaponData!F3:P3-25)),2)</f>
-        <v>3136</v>
+        <v>10.240000000000002</v>
       </c>
       <c r="H5" s="65">
         <f>POWER((3+0.2*(weaponData!G3:Q3-25)),2)</f>
-        <v>3844</v>
+        <v>12.96</v>
       </c>
       <c r="I5" s="65">
         <f>POWER((3+0.2*(weaponData!H3:R3-25)),2)</f>
-        <v>4624</v>
+        <v>16</v>
       </c>
       <c r="J5" s="65">
         <f>POWER((3+0.2*(weaponData!I3:S3-25)),2)</f>
-        <v>5476</v>
+        <v>19.360000000000003</v>
       </c>
       <c r="K5" s="65">
         <f>POWER((3+0.2*(weaponData!J3:T3-25)),2)</f>
-        <v>6400</v>
+        <v>23.04</v>
       </c>
       <c r="L5" s="65">
         <f>POWER((3+0.2*(weaponData!K3:U3-25)),2)</f>
-        <v>7396</v>
+        <v>27.040000000000003</v>
       </c>
       <c r="M5" s="65">
         <f>POWER((3+0.2*(weaponData!L3:V3-25)),2)</f>
-        <v>8464</v>
+        <v>31.359999999999996</v>
       </c>
       <c r="N5" s="65">
         <f>POWER((3+0.2*(weaponData!M3:W3-25)),2)</f>
@@ -19576,39 +19178,39 @@
       </c>
       <c r="E6" s="65">
         <f>POWER((3+0.2*(weaponData!D4:M4-25)),2)</f>
-        <v>37636</v>
+        <v>46.240000000000009</v>
       </c>
       <c r="F6" s="65">
         <f>POWER((3+0.2*(weaponData!E4:O4-25)),2)</f>
-        <v>52900</v>
+        <v>57.760000000000005</v>
       </c>
       <c r="G6" s="65">
         <f>POWER((3+0.2*(weaponData!F4:P4-25)),2)</f>
-        <v>70756</v>
+        <v>70.56</v>
       </c>
       <c r="H6" s="65">
         <f>POWER((3+0.2*(weaponData!G4:Q4-25)),2)</f>
-        <v>91204</v>
+        <v>84.639999999999986</v>
       </c>
       <c r="I6" s="65">
         <f>POWER((3+0.2*(weaponData!H4:R4-25)),2)</f>
-        <v>114244</v>
+        <v>100</v>
       </c>
       <c r="J6" s="65">
         <f>POWER((3+0.2*(weaponData!I4:S4-25)),2)</f>
-        <v>139876</v>
+        <v>116.64000000000001</v>
       </c>
       <c r="K6" s="65">
         <f>POWER((3+0.2*(weaponData!J4:T4-25)),2)</f>
-        <v>168100</v>
+        <v>134.56</v>
       </c>
       <c r="L6" s="65">
         <f>POWER((3+0.2*(weaponData!K4:U4-25)),2)</f>
-        <v>198916</v>
+        <v>153.76000000000002</v>
       </c>
       <c r="M6" s="65">
         <f>POWER((3+0.2*(weaponData!L4:V4-25)),2)</f>
-        <v>232324</v>
+        <v>174.24000000000004</v>
       </c>
       <c r="N6" s="65">
         <f>POWER((3+0.2*(weaponData!M4:W4-25)),2)</f>
@@ -19630,39 +19232,39 @@
       </c>
       <c r="E7" s="65">
         <f>POWER((3+0.2*(weaponData!D5:M5-25)),2)</f>
-        <v>1276900</v>
+        <v>243.36000000000004</v>
       </c>
       <c r="F7" s="65">
         <f>POWER((3+0.2*(weaponData!E5:O5-25)),2)</f>
-        <v>2114116</v>
+        <v>295.84000000000009</v>
       </c>
       <c r="G7" s="65">
         <f>POWER((3+0.2*(weaponData!F5:P5-25)),2)</f>
-        <v>3161284</v>
+        <v>353.44000000000005</v>
       </c>
       <c r="H7" s="65">
         <f>POWER((3+0.2*(weaponData!G5:Q5-25)),2)</f>
-        <v>4418404</v>
+        <v>416.16000000000008</v>
       </c>
       <c r="I7" s="65">
         <f>POWER((3+0.2*(weaponData!H5:R5-25)),2)</f>
-        <v>5885476</v>
+        <v>484</v>
       </c>
       <c r="J7" s="65">
         <f>POWER((3+0.2*(weaponData!I5:S5-25)),2)</f>
-        <v>7562500</v>
+        <v>556.96</v>
       </c>
       <c r="K7" s="65">
         <f>POWER((3+0.2*(weaponData!J5:T5-25)),2)</f>
-        <v>9449476</v>
+        <v>635.04000000000019</v>
       </c>
       <c r="L7" s="65">
         <f>POWER((3+0.2*(weaponData!K5:U5-25)),2)</f>
-        <v>11546404</v>
+        <v>718.24</v>
       </c>
       <c r="M7" s="65">
         <f>POWER((3+0.2*(weaponData!L5:V5-25)),2)</f>
-        <v>13853284</v>
+        <v>806.56000000000017</v>
       </c>
       <c r="N7" s="65">
         <f>POWER((3+0.2*(weaponData!M5:W5-25)),2)</f>
@@ -19684,39 +19286,39 @@
       </c>
       <c r="E8" s="65">
         <f>POWER((3+0.2*(weaponData!D6:M6-25)),2)</f>
-        <v>88096996</v>
+        <v>1102.2400000000002</v>
       </c>
       <c r="F8" s="65">
         <f>POWER((3+0.2*(weaponData!E6:O6-25)),2)</f>
-        <v>176199076</v>
+        <v>1324.9599999999998</v>
       </c>
       <c r="G8" s="65">
         <f>POWER((3+0.2*(weaponData!F6:P6-25)),2)</f>
-        <v>294534244</v>
+        <v>1568.16</v>
       </c>
       <c r="H8" s="65">
         <f>POWER((3+0.2*(weaponData!G6:Q6-25)),2)</f>
-        <v>443102500</v>
+        <v>1831.8400000000004</v>
       </c>
       <c r="I8" s="65">
         <f>POWER((3+0.2*(weaponData!H6:R6-25)),2)</f>
-        <v>621903844</v>
+        <v>2116</v>
       </c>
       <c r="J8" s="65">
         <f>POWER((3+0.2*(weaponData!I6:S6-25)),2)</f>
-        <v>830938276</v>
+        <v>2420.6400000000003</v>
       </c>
       <c r="K8" s="65">
         <f>POWER((3+0.2*(weaponData!J6:T6-25)),2)</f>
-        <v>1070205796</v>
+        <v>2745.7600000000007</v>
       </c>
       <c r="L8" s="65">
         <f>POWER((3+0.2*(weaponData!K6:U6-25)),2)</f>
-        <v>1339706404</v>
+        <v>3091.36</v>
       </c>
       <c r="M8" s="65">
         <f>POWER((3+0.2*(weaponData!L6:V6-25)),2)</f>
-        <v>1639440100</v>
+        <v>3457.4400000000005</v>
       </c>
       <c r="N8" s="65">
         <f>POWER((3+0.2*(weaponData!M6:W6-25)),2)</f>
@@ -19738,39 +19340,39 @@
       </c>
       <c r="E9" s="65">
         <f>POWER((3+0.2*(weaponData!D7:M7-25)),2)</f>
-        <v>10678742244</v>
+        <v>4678.5600000000004</v>
       </c>
       <c r="F9" s="65">
         <f>POWER((3+0.2*(weaponData!E7:O7-25)),2)</f>
-        <v>26133308964</v>
+        <v>5595.04</v>
       </c>
       <c r="G9" s="65">
         <f>POWER((3+0.2*(weaponData!F7:P7-25)),2)</f>
-        <v>48390320484</v>
+        <v>6593.4400000000005</v>
       </c>
       <c r="H9" s="65">
         <f>POWER((3+0.2*(weaponData!G7:Q7-25)),2)</f>
-        <v>77449776804</v>
+        <v>7673.7600000000011</v>
       </c>
       <c r="I9" s="65">
         <f>POWER((3+0.2*(weaponData!H7:R7-25)),2)</f>
-        <v>113311677924</v>
+        <v>8836</v>
       </c>
       <c r="J9" s="65">
         <f>POWER((3+0.2*(weaponData!I7:S7-25)),2)</f>
-        <v>155976023844</v>
+        <v>10080.160000000002</v>
       </c>
       <c r="K9" s="65">
         <f>POWER((3+0.2*(weaponData!J7:T7-25)),2)</f>
-        <v>205442814564</v>
+        <v>11406.240000000002</v>
       </c>
       <c r="L9" s="65">
         <f>POWER((3+0.2*(weaponData!K7:U7-25)),2)</f>
-        <v>261712050084</v>
+        <v>12814.24</v>
       </c>
       <c r="M9" s="65">
         <f>POWER((3+0.2*(weaponData!L7:V7-25)),2)</f>
-        <v>324783730404</v>
+        <v>14304.160000000002</v>
       </c>
       <c r="N9" s="65">
         <f>POWER((3+0.2*(weaponData!M7:W7-25)),2)</f>
@@ -19792,39 +19394,39 @@
       </c>
       <c r="E10" s="65">
         <f>POWER((3+0.2*(weaponData!D8:M8-25)),2)</f>
-        <v>2292250504324</v>
+        <v>19265.440000000002</v>
       </c>
       <c r="F10" s="65">
         <f>POWER((3+0.2*(weaponData!E8:O8-25)),2)</f>
-        <v>6572957633284</v>
+        <v>22982.559999999998</v>
       </c>
       <c r="G10" s="65">
         <f>POWER((3+0.2*(weaponData!F8:P8-25)),2)</f>
-        <v>13057656877444</v>
+        <v>27027.360000000001</v>
       </c>
       <c r="H10" s="65">
         <f>POWER((3+0.2*(weaponData!G8:Q8-25)),2)</f>
-        <v>21746348236804</v>
+        <v>31399.840000000007</v>
       </c>
       <c r="I10" s="65">
         <f>POWER((3+0.2*(weaponData!H8:R8-25)),2)</f>
-        <v>32639031711364</v>
+        <v>36100</v>
       </c>
       <c r="J10" s="65">
         <f>POWER((3+0.2*(weaponData!I8:S8-25)),2)</f>
-        <v>45735707301124</v>
+        <v>41127.840000000004</v>
       </c>
       <c r="K10" s="65">
         <f>POWER((3+0.2*(weaponData!J8:T8-25)),2)</f>
-        <v>61036375006084</v>
+        <v>46483.360000000008</v>
       </c>
       <c r="L10" s="65">
         <f>POWER((3+0.2*(weaponData!K8:U8-25)),2)</f>
-        <v>78541034826244</v>
+        <v>52166.560000000005</v>
       </c>
       <c r="M10" s="65">
         <f>POWER((3+0.2*(weaponData!L8:V8-25)),2)</f>
-        <v>98249686761604</v>
+        <v>58177.44000000001</v>
       </c>
       <c r="N10" s="65">
         <f>POWER((3+0.2*(weaponData!M8:W8-25)),2)</f>
@@ -19846,39 +19448,39 @@
       </c>
       <c r="E11" s="65">
         <f>POWER((3+0.2*(weaponData!D9:M9-25)),2)</f>
-        <v>774973062602244</v>
+        <v>78176.160000000018</v>
       </c>
       <c r="F11" s="65">
         <f>POWER((3+0.2*(weaponData!E9:O9-25)),2)</f>
-        <v>2488343419356804</v>
+        <v>93147.04</v>
       </c>
       <c r="G11" s="65">
         <f>POWER((3+0.2*(weaponData!F9:P9-25)),2)</f>
-        <v>5173674298914564</v>
+        <v>109428.64000000001</v>
       </c>
       <c r="H11" s="65">
         <f>POWER((3+0.2*(weaponData!G9:Q9-25)),2)</f>
-        <v>8830965701275524</v>
+        <v>127020.96000000002</v>
       </c>
       <c r="I11" s="65">
         <f>POWER((3+0.2*(weaponData!H9:R9-25)),2)</f>
-        <v>1.3460217626439684E+16</v>
+        <v>145924</v>
       </c>
       <c r="J11" s="65">
         <f>POWER((3+0.2*(weaponData!I9:S9-25)),2)</f>
-        <v>1.9061430074407044E+16</v>
+        <v>166137.76</v>
       </c>
       <c r="K11" s="65">
         <f>POWER((3+0.2*(weaponData!J9:T9-25)),2)</f>
-        <v>2.5634603045177604E+16</v>
+        <v>187662.24000000005</v>
       </c>
       <c r="L11" s="65">
         <f>POWER((3+0.2*(weaponData!K9:U9-25)),2)</f>
-        <v>3.3179736538751364E+16</v>
+        <v>210497.44</v>
       </c>
       <c r="M11" s="65">
         <f>POWER((3+0.2*(weaponData!L9:V9-25)),2)</f>
-        <v>4.169683055512832E+16</v>
+        <v>234643.36000000004</v>
       </c>
       <c r="N11" s="65">
         <f>POWER((3+0.2*(weaponData!M9:W9-25)),2)</f>
@@ -19921,11 +19523,11 @@
       <c r="A14" s="41"/>
       <c r="B14" s="41"/>
       <c r="C14" s="41"/>
-      <c r="D14" s="173" t="s">
+      <c r="D14" s="171" t="s">
         <v>184</v>
       </c>
-      <c r="E14" s="173"/>
-      <c r="F14" s="173"/>
+      <c r="E14" s="171"/>
+      <c r="F14" s="171"/>
       <c r="G14" s="41"/>
       <c r="H14" s="41"/>
       <c r="I14" s="41"/>
@@ -19985,23 +19587,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C1" s="157" t="s">
+      <c r="C1" s="155" t="s">
         <v>63</v>
       </c>
-      <c r="D1" s="157"/>
-      <c r="E1" s="157"/>
-      <c r="F1" s="157"/>
-      <c r="G1" s="157"/>
+      <c r="D1" s="155"/>
+      <c r="E1" s="155"/>
+      <c r="F1" s="155"/>
+      <c r="G1" s="155"/>
       <c r="I1" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="2" spans="3:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C2" s="157"/>
-      <c r="D2" s="157"/>
-      <c r="E2" s="157"/>
-      <c r="F2" s="157"/>
-      <c r="G2" s="157"/>
+      <c r="C2" s="155"/>
+      <c r="D2" s="155"/>
+      <c r="E2" s="155"/>
+      <c r="F2" s="155"/>
+      <c r="G2" s="155"/>
       <c r="I2" t="s">
         <v>101</v>
       </c>
@@ -20042,7 +19644,7 @@
       </c>
     </row>
     <row r="4" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C4" s="176" t="s">
+      <c r="C4" s="174" t="s">
         <v>32</v>
       </c>
       <c r="D4" s="13" t="s">
@@ -20077,7 +19679,7 @@
       </c>
     </row>
     <row r="5" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C5" s="177"/>
+      <c r="C5" s="175"/>
       <c r="D5" s="13" t="s">
         <v>34</v>
       </c>
@@ -20110,7 +19712,7 @@
       </c>
     </row>
     <row r="6" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C6" s="177"/>
+      <c r="C6" s="175"/>
       <c r="D6" s="13" t="s">
         <v>35</v>
       </c>
@@ -20143,7 +19745,7 @@
       </c>
     </row>
     <row r="7" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C7" s="177"/>
+      <c r="C7" s="175"/>
       <c r="D7" s="13" t="s">
         <v>36</v>
       </c>
@@ -20176,7 +19778,7 @@
       </c>
     </row>
     <row r="8" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C8" s="177"/>
+      <c r="C8" s="175"/>
       <c r="D8" s="13" t="s">
         <v>37</v>
       </c>
@@ -20209,7 +19811,7 @@
       </c>
     </row>
     <row r="9" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C9" s="177"/>
+      <c r="C9" s="175"/>
       <c r="D9" s="13" t="s">
         <v>38</v>
       </c>
@@ -20242,7 +19844,7 @@
       </c>
     </row>
     <row r="10" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="177"/>
+      <c r="C10" s="175"/>
       <c r="D10" s="13" t="s">
         <v>39</v>
       </c>
@@ -20275,7 +19877,7 @@
       </c>
     </row>
     <row r="11" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C11" s="177"/>
+      <c r="C11" s="175"/>
       <c r="D11" s="13" t="s">
         <v>40</v>
       </c>
@@ -20308,7 +19910,7 @@
       </c>
     </row>
     <row r="12" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C12" s="174" t="s">
+      <c r="C12" s="172" t="s">
         <v>42</v>
       </c>
       <c r="D12" s="14" t="s">
@@ -20343,7 +19945,7 @@
       </c>
     </row>
     <row r="13" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C13" s="175"/>
+      <c r="C13" s="173"/>
       <c r="D13" s="14" t="s">
         <v>44</v>
       </c>
@@ -20376,7 +19978,7 @@
       </c>
     </row>
     <row r="14" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C14" s="175"/>
+      <c r="C14" s="173"/>
       <c r="D14" s="14" t="s">
         <v>45</v>
       </c>
@@ -20409,7 +20011,7 @@
       </c>
     </row>
     <row r="15" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C15" s="175"/>
+      <c r="C15" s="173"/>
       <c r="D15" s="14" t="s">
         <v>46</v>
       </c>
@@ -20442,7 +20044,7 @@
       </c>
     </row>
     <row r="16" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C16" s="175"/>
+      <c r="C16" s="173"/>
       <c r="D16" s="14" t="s">
         <v>47</v>
       </c>
@@ -20475,7 +20077,7 @@
       </c>
     </row>
     <row r="17" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C17" s="175"/>
+      <c r="C17" s="173"/>
       <c r="D17" s="14" t="s">
         <v>48</v>
       </c>
@@ -20508,7 +20110,7 @@
       </c>
     </row>
     <row r="18" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C18" s="175"/>
+      <c r="C18" s="173"/>
       <c r="D18" s="14" t="s">
         <v>49</v>
       </c>
@@ -20541,7 +20143,7 @@
       </c>
     </row>
     <row r="19" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C19" s="175"/>
+      <c r="C19" s="173"/>
       <c r="D19" s="14" t="s">
         <v>50</v>
       </c>
@@ -20606,14 +20208,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="178" t="s">
+      <c r="B2" s="176" t="s">
         <v>128</v>
       </c>
-      <c r="C2" s="157"/>
+      <c r="C2" s="155"/>
     </row>
     <row r="3" spans="2:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="157"/>
-      <c r="C3" s="157"/>
+      <c r="B3" s="155"/>
+      <c r="C3" s="155"/>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B4" s="24" t="s">
@@ -21551,22 +21153,22 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="171" t="s">
+      <c r="B2" s="169" t="s">
         <v>144</v>
       </c>
-      <c r="C2" s="171"/>
-      <c r="D2" s="171"/>
-      <c r="E2" s="171"/>
-      <c r="F2" s="171"/>
-      <c r="G2" s="171"/>
+      <c r="C2" s="169"/>
+      <c r="D2" s="169"/>
+      <c r="E2" s="169"/>
+      <c r="F2" s="169"/>
+      <c r="G2" s="169"/>
     </row>
     <row r="3" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="172"/>
-      <c r="C3" s="172"/>
-      <c r="D3" s="172"/>
-      <c r="E3" s="172"/>
-      <c r="F3" s="172"/>
-      <c r="G3" s="172"/>
+      <c r="B3" s="170"/>
+      <c r="C3" s="170"/>
+      <c r="D3" s="170"/>
+      <c r="E3" s="170"/>
+      <c r="F3" s="170"/>
+      <c r="G3" s="170"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B4" s="38" t="s">

--- a/Project1/Assets/Script/Data/weaponDB.xlsx
+++ b/Project1/Assets/Script/Data/weaponDB.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\whdns\OneDrive\바탕 화면\123\TeamProject1\Project1\Assets\Script\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\whdns\OneDrive\바탕 화면\새 폴더\TeamProject1\Project1\Assets\Script\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71D7ED71-8B68-4918-BD0B-6E44E76BD315}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6B464BD-2E9C-4D37-A8E6-434F66F3973A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="1020" windowWidth="20445" windowHeight="13920" tabRatio="599" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9510" yWindow="2325" windowWidth="14580" windowHeight="9945" tabRatio="599" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="시스템 기획" sheetId="2" r:id="rId1"/>
@@ -2025,31 +2025,19 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2079,6 +2067,78 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2101,18 +2161,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2181,55 +2229,13 @@
     <xf numFmtId="0" fontId="2" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2281,9 +2287,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2351,9 +2354,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2738,33 +2738,33 @@
     </row>
     <row r="2" spans="1:48" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8"/>
-      <c r="B2" s="68" t="s">
+      <c r="B2" s="97" t="s">
         <v>68</v>
       </c>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="69"/>
-      <c r="H2" s="69"/>
-      <c r="I2" s="69"/>
-      <c r="J2" s="69"/>
-      <c r="K2" s="69"/>
-      <c r="L2" s="69"/>
-      <c r="M2" s="69"/>
-      <c r="N2" s="69"/>
-      <c r="O2" s="69"/>
-      <c r="P2" s="69"/>
-      <c r="Q2" s="69"/>
-      <c r="R2" s="69"/>
-      <c r="S2" s="69"/>
-      <c r="T2" s="69"/>
-      <c r="U2" s="69"/>
-      <c r="V2" s="69"/>
-      <c r="W2" s="69"/>
-      <c r="X2" s="69"/>
-      <c r="Y2" s="69"/>
-      <c r="Z2" s="70"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="98"/>
+      <c r="G2" s="98"/>
+      <c r="H2" s="98"/>
+      <c r="I2" s="98"/>
+      <c r="J2" s="98"/>
+      <c r="K2" s="98"/>
+      <c r="L2" s="98"/>
+      <c r="M2" s="98"/>
+      <c r="N2" s="98"/>
+      <c r="O2" s="98"/>
+      <c r="P2" s="98"/>
+      <c r="Q2" s="98"/>
+      <c r="R2" s="98"/>
+      <c r="S2" s="98"/>
+      <c r="T2" s="98"/>
+      <c r="U2" s="98"/>
+      <c r="V2" s="98"/>
+      <c r="W2" s="98"/>
+      <c r="X2" s="98"/>
+      <c r="Y2" s="98"/>
+      <c r="Z2" s="99"/>
       <c r="AA2" s="8"/>
       <c r="AB2" s="8"/>
       <c r="AC2" s="8"/>
@@ -2790,31 +2790,31 @@
     </row>
     <row r="3" spans="1:48" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="8"/>
-      <c r="B3" s="71"/>
-      <c r="C3" s="72"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="72"/>
-      <c r="G3" s="72"/>
-      <c r="H3" s="72"/>
-      <c r="I3" s="72"/>
-      <c r="J3" s="72"/>
-      <c r="K3" s="72"/>
-      <c r="L3" s="72"/>
-      <c r="M3" s="72"/>
-      <c r="N3" s="72"/>
-      <c r="O3" s="72"/>
-      <c r="P3" s="72"/>
-      <c r="Q3" s="72"/>
-      <c r="R3" s="72"/>
-      <c r="S3" s="72"/>
-      <c r="T3" s="72"/>
-      <c r="U3" s="72"/>
-      <c r="V3" s="72"/>
-      <c r="W3" s="72"/>
-      <c r="X3" s="72"/>
-      <c r="Y3" s="72"/>
-      <c r="Z3" s="73"/>
+      <c r="B3" s="100"/>
+      <c r="C3" s="101"/>
+      <c r="D3" s="101"/>
+      <c r="E3" s="101"/>
+      <c r="F3" s="101"/>
+      <c r="G3" s="101"/>
+      <c r="H3" s="101"/>
+      <c r="I3" s="101"/>
+      <c r="J3" s="101"/>
+      <c r="K3" s="101"/>
+      <c r="L3" s="101"/>
+      <c r="M3" s="101"/>
+      <c r="N3" s="101"/>
+      <c r="O3" s="101"/>
+      <c r="P3" s="101"/>
+      <c r="Q3" s="101"/>
+      <c r="R3" s="101"/>
+      <c r="S3" s="101"/>
+      <c r="T3" s="101"/>
+      <c r="U3" s="101"/>
+      <c r="V3" s="101"/>
+      <c r="W3" s="101"/>
+      <c r="X3" s="101"/>
+      <c r="Y3" s="101"/>
+      <c r="Z3" s="102"/>
       <c r="AA3" s="8"/>
       <c r="AB3" s="8"/>
       <c r="AC3" s="8"/>
@@ -2840,31 +2840,31 @@
     </row>
     <row r="4" spans="1:48" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="8"/>
-      <c r="B4" s="74"/>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75"/>
-      <c r="K4" s="75"/>
-      <c r="L4" s="75"/>
-      <c r="M4" s="75"/>
-      <c r="N4" s="75"/>
-      <c r="O4" s="75"/>
-      <c r="P4" s="75"/>
-      <c r="Q4" s="75"/>
-      <c r="R4" s="75"/>
-      <c r="S4" s="75"/>
-      <c r="T4" s="75"/>
-      <c r="U4" s="75"/>
-      <c r="V4" s="75"/>
-      <c r="W4" s="75"/>
-      <c r="X4" s="75"/>
-      <c r="Y4" s="75"/>
-      <c r="Z4" s="76"/>
+      <c r="B4" s="103"/>
+      <c r="C4" s="104"/>
+      <c r="D4" s="104"/>
+      <c r="E4" s="104"/>
+      <c r="F4" s="104"/>
+      <c r="G4" s="104"/>
+      <c r="H4" s="104"/>
+      <c r="I4" s="104"/>
+      <c r="J4" s="104"/>
+      <c r="K4" s="104"/>
+      <c r="L4" s="104"/>
+      <c r="M4" s="104"/>
+      <c r="N4" s="104"/>
+      <c r="O4" s="104"/>
+      <c r="P4" s="104"/>
+      <c r="Q4" s="104"/>
+      <c r="R4" s="104"/>
+      <c r="S4" s="104"/>
+      <c r="T4" s="104"/>
+      <c r="U4" s="104"/>
+      <c r="V4" s="104"/>
+      <c r="W4" s="104"/>
+      <c r="X4" s="104"/>
+      <c r="Y4" s="104"/>
+      <c r="Z4" s="105"/>
       <c r="AA4" s="8"/>
       <c r="AB4" s="8"/>
       <c r="AC4" s="8"/>
@@ -2990,10 +2990,10 @@
     </row>
     <row r="7" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A7" s="8"/>
-      <c r="B7" s="116" t="s">
+      <c r="B7" s="132" t="s">
         <v>67</v>
       </c>
-      <c r="C7" s="117"/>
+      <c r="C7" s="133"/>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
@@ -3042,8 +3042,8 @@
     </row>
     <row r="8" spans="1:48" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="8"/>
-      <c r="B8" s="118"/>
-      <c r="C8" s="119"/>
+      <c r="B8" s="134"/>
+      <c r="C8" s="135"/>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
@@ -3152,27 +3152,27 @@
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
-      <c r="L10" s="104" t="s">
+      <c r="L10" s="120" t="s">
         <v>69</v>
       </c>
-      <c r="M10" s="105"/>
-      <c r="N10" s="98" t="s">
+      <c r="M10" s="121"/>
+      <c r="N10" s="114" t="s">
         <v>24</v>
       </c>
-      <c r="O10" s="99"/>
-      <c r="P10" s="77" t="s">
+      <c r="O10" s="115"/>
+      <c r="P10" s="73" t="s">
         <v>127</v>
       </c>
-      <c r="Q10" s="78"/>
-      <c r="R10" s="78"/>
-      <c r="S10" s="78"/>
-      <c r="T10" s="78"/>
-      <c r="U10" s="78"/>
-      <c r="V10" s="78"/>
-      <c r="W10" s="78"/>
-      <c r="X10" s="78"/>
-      <c r="Y10" s="78"/>
-      <c r="Z10" s="79"/>
+      <c r="Q10" s="74"/>
+      <c r="R10" s="74"/>
+      <c r="S10" s="74"/>
+      <c r="T10" s="74"/>
+      <c r="U10" s="74"/>
+      <c r="V10" s="74"/>
+      <c r="W10" s="74"/>
+      <c r="X10" s="74"/>
+      <c r="Y10" s="74"/>
+      <c r="Z10" s="75"/>
       <c r="AA10" s="8"/>
       <c r="AB10" s="8"/>
       <c r="AC10" s="8"/>
@@ -3208,21 +3208,21 @@
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
-      <c r="L11" s="106"/>
-      <c r="M11" s="107"/>
-      <c r="N11" s="100"/>
-      <c r="O11" s="101"/>
-      <c r="P11" s="80"/>
-      <c r="Q11" s="81"/>
-      <c r="R11" s="81"/>
-      <c r="S11" s="81"/>
-      <c r="T11" s="81"/>
-      <c r="U11" s="81"/>
-      <c r="V11" s="81"/>
-      <c r="W11" s="81"/>
-      <c r="X11" s="81"/>
-      <c r="Y11" s="81"/>
-      <c r="Z11" s="82"/>
+      <c r="L11" s="122"/>
+      <c r="M11" s="123"/>
+      <c r="N11" s="116"/>
+      <c r="O11" s="117"/>
+      <c r="P11" s="76"/>
+      <c r="Q11" s="77"/>
+      <c r="R11" s="77"/>
+      <c r="S11" s="77"/>
+      <c r="T11" s="77"/>
+      <c r="U11" s="77"/>
+      <c r="V11" s="77"/>
+      <c r="W11" s="77"/>
+      <c r="X11" s="77"/>
+      <c r="Y11" s="77"/>
+      <c r="Z11" s="78"/>
       <c r="AA11" s="8"/>
       <c r="AB11" s="8"/>
       <c r="AC11" s="8"/>
@@ -3258,21 +3258,21 @@
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
-      <c r="L12" s="106"/>
-      <c r="M12" s="107"/>
-      <c r="N12" s="100"/>
-      <c r="O12" s="101"/>
-      <c r="P12" s="80"/>
-      <c r="Q12" s="81"/>
-      <c r="R12" s="81"/>
-      <c r="S12" s="81"/>
-      <c r="T12" s="81"/>
-      <c r="U12" s="81"/>
-      <c r="V12" s="81"/>
-      <c r="W12" s="81"/>
-      <c r="X12" s="81"/>
-      <c r="Y12" s="81"/>
-      <c r="Z12" s="82"/>
+      <c r="L12" s="122"/>
+      <c r="M12" s="123"/>
+      <c r="N12" s="116"/>
+      <c r="O12" s="117"/>
+      <c r="P12" s="76"/>
+      <c r="Q12" s="77"/>
+      <c r="R12" s="77"/>
+      <c r="S12" s="77"/>
+      <c r="T12" s="77"/>
+      <c r="U12" s="77"/>
+      <c r="V12" s="77"/>
+      <c r="W12" s="77"/>
+      <c r="X12" s="77"/>
+      <c r="Y12" s="77"/>
+      <c r="Z12" s="78"/>
       <c r="AA12" s="8"/>
       <c r="AB12" s="8"/>
       <c r="AC12" s="8"/>
@@ -3300,33 +3300,33 @@
       <c r="A13" s="8"/>
       <c r="B13" s="28"/>
       <c r="C13" s="29"/>
-      <c r="D13" s="116" t="s">
+      <c r="D13" s="132" t="s">
         <v>69</v>
       </c>
-      <c r="E13" s="117"/>
+      <c r="E13" s="133"/>
       <c r="F13" s="30"/>
       <c r="G13" s="31"/>
-      <c r="H13" s="90" t="s">
+      <c r="H13" s="110" t="s">
         <v>71</v>
       </c>
-      <c r="I13" s="91"/>
+      <c r="I13" s="111"/>
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
-      <c r="L13" s="106"/>
-      <c r="M13" s="107"/>
-      <c r="N13" s="102"/>
-      <c r="O13" s="103"/>
-      <c r="P13" s="83"/>
-      <c r="Q13" s="84"/>
-      <c r="R13" s="84"/>
-      <c r="S13" s="84"/>
-      <c r="T13" s="84"/>
-      <c r="U13" s="84"/>
-      <c r="V13" s="84"/>
-      <c r="W13" s="84"/>
-      <c r="X13" s="84"/>
-      <c r="Y13" s="84"/>
-      <c r="Z13" s="85"/>
+      <c r="L13" s="122"/>
+      <c r="M13" s="123"/>
+      <c r="N13" s="118"/>
+      <c r="O13" s="119"/>
+      <c r="P13" s="79"/>
+      <c r="Q13" s="80"/>
+      <c r="R13" s="80"/>
+      <c r="S13" s="80"/>
+      <c r="T13" s="80"/>
+      <c r="U13" s="80"/>
+      <c r="V13" s="80"/>
+      <c r="W13" s="80"/>
+      <c r="X13" s="80"/>
+      <c r="Y13" s="80"/>
+      <c r="Z13" s="81"/>
       <c r="AA13" s="8"/>
       <c r="AB13" s="8"/>
       <c r="AC13" s="8"/>
@@ -3354,33 +3354,33 @@
       <c r="A14" s="8"/>
       <c r="B14" s="8"/>
       <c r="C14" s="32"/>
-      <c r="D14" s="118"/>
-      <c r="E14" s="119"/>
+      <c r="D14" s="134"/>
+      <c r="E14" s="135"/>
       <c r="F14" s="33"/>
       <c r="G14" s="8"/>
-      <c r="H14" s="92"/>
-      <c r="I14" s="93"/>
+      <c r="H14" s="112"/>
+      <c r="I14" s="113"/>
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
-      <c r="L14" s="106"/>
-      <c r="M14" s="107"/>
-      <c r="N14" s="98" t="s">
+      <c r="L14" s="122"/>
+      <c r="M14" s="123"/>
+      <c r="N14" s="114" t="s">
         <v>70</v>
       </c>
-      <c r="O14" s="99"/>
-      <c r="P14" s="77" t="s">
+      <c r="O14" s="115"/>
+      <c r="P14" s="73" t="s">
         <v>125</v>
       </c>
-      <c r="Q14" s="78"/>
-      <c r="R14" s="78"/>
-      <c r="S14" s="78"/>
-      <c r="T14" s="78"/>
-      <c r="U14" s="78"/>
-      <c r="V14" s="78"/>
-      <c r="W14" s="78"/>
-      <c r="X14" s="78"/>
-      <c r="Y14" s="78"/>
-      <c r="Z14" s="79"/>
+      <c r="Q14" s="74"/>
+      <c r="R14" s="74"/>
+      <c r="S14" s="74"/>
+      <c r="T14" s="74"/>
+      <c r="U14" s="74"/>
+      <c r="V14" s="74"/>
+      <c r="W14" s="74"/>
+      <c r="X14" s="74"/>
+      <c r="Y14" s="74"/>
+      <c r="Z14" s="75"/>
       <c r="AA14" s="8"/>
       <c r="AB14" s="8"/>
       <c r="AC14" s="8"/>
@@ -3416,21 +3416,21 @@
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
-      <c r="L15" s="106"/>
-      <c r="M15" s="107"/>
-      <c r="N15" s="100"/>
-      <c r="O15" s="101"/>
-      <c r="P15" s="80"/>
-      <c r="Q15" s="81"/>
-      <c r="R15" s="81"/>
-      <c r="S15" s="81"/>
-      <c r="T15" s="81"/>
-      <c r="U15" s="81"/>
-      <c r="V15" s="81"/>
-      <c r="W15" s="81"/>
-      <c r="X15" s="81"/>
-      <c r="Y15" s="81"/>
-      <c r="Z15" s="82"/>
+      <c r="L15" s="122"/>
+      <c r="M15" s="123"/>
+      <c r="N15" s="116"/>
+      <c r="O15" s="117"/>
+      <c r="P15" s="76"/>
+      <c r="Q15" s="77"/>
+      <c r="R15" s="77"/>
+      <c r="S15" s="77"/>
+      <c r="T15" s="77"/>
+      <c r="U15" s="77"/>
+      <c r="V15" s="77"/>
+      <c r="W15" s="77"/>
+      <c r="X15" s="77"/>
+      <c r="Y15" s="77"/>
+      <c r="Z15" s="78"/>
       <c r="AA15" s="8"/>
       <c r="AB15" s="8"/>
       <c r="AC15" s="8"/>
@@ -3466,21 +3466,21 @@
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
-      <c r="L16" s="106"/>
-      <c r="M16" s="107"/>
-      <c r="N16" s="100"/>
-      <c r="O16" s="101"/>
-      <c r="P16" s="80"/>
-      <c r="Q16" s="81"/>
-      <c r="R16" s="81"/>
-      <c r="S16" s="81"/>
-      <c r="T16" s="81"/>
-      <c r="U16" s="81"/>
-      <c r="V16" s="81"/>
-      <c r="W16" s="81"/>
-      <c r="X16" s="81"/>
-      <c r="Y16" s="81"/>
-      <c r="Z16" s="82"/>
+      <c r="L16" s="122"/>
+      <c r="M16" s="123"/>
+      <c r="N16" s="116"/>
+      <c r="O16" s="117"/>
+      <c r="P16" s="76"/>
+      <c r="Q16" s="77"/>
+      <c r="R16" s="77"/>
+      <c r="S16" s="77"/>
+      <c r="T16" s="77"/>
+      <c r="U16" s="77"/>
+      <c r="V16" s="77"/>
+      <c r="W16" s="77"/>
+      <c r="X16" s="77"/>
+      <c r="Y16" s="77"/>
+      <c r="Z16" s="78"/>
       <c r="AA16" s="8"/>
       <c r="AB16" s="8"/>
       <c r="AC16" s="8"/>
@@ -3512,27 +3512,27 @@
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="34"/>
-      <c r="H17" s="90" t="s">
+      <c r="H17" s="110" t="s">
         <v>70</v>
       </c>
-      <c r="I17" s="91"/>
+      <c r="I17" s="111"/>
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
-      <c r="L17" s="108"/>
-      <c r="M17" s="109"/>
-      <c r="N17" s="102"/>
-      <c r="O17" s="103"/>
-      <c r="P17" s="83"/>
-      <c r="Q17" s="84"/>
-      <c r="R17" s="84"/>
-      <c r="S17" s="84"/>
-      <c r="T17" s="84"/>
-      <c r="U17" s="84"/>
-      <c r="V17" s="84"/>
-      <c r="W17" s="84"/>
-      <c r="X17" s="84"/>
-      <c r="Y17" s="84"/>
-      <c r="Z17" s="85"/>
+      <c r="L17" s="124"/>
+      <c r="M17" s="125"/>
+      <c r="N17" s="118"/>
+      <c r="O17" s="119"/>
+      <c r="P17" s="79"/>
+      <c r="Q17" s="80"/>
+      <c r="R17" s="80"/>
+      <c r="S17" s="80"/>
+      <c r="T17" s="80"/>
+      <c r="U17" s="80"/>
+      <c r="V17" s="80"/>
+      <c r="W17" s="80"/>
+      <c r="X17" s="80"/>
+      <c r="Y17" s="80"/>
+      <c r="Z17" s="81"/>
       <c r="AA17" s="8"/>
       <c r="AB17" s="8"/>
       <c r="AC17" s="8"/>
@@ -3564,31 +3564,31 @@
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="35"/>
-      <c r="H18" s="92"/>
-      <c r="I18" s="93"/>
+      <c r="H18" s="112"/>
+      <c r="I18" s="113"/>
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
-      <c r="L18" s="110" t="s">
+      <c r="L18" s="126" t="s">
         <v>72</v>
       </c>
-      <c r="M18" s="111"/>
-      <c r="N18" s="128" t="s">
+      <c r="M18" s="127"/>
+      <c r="N18" s="95" t="s">
         <v>73</v>
       </c>
-      <c r="O18" s="129"/>
-      <c r="P18" s="77" t="s">
+      <c r="O18" s="90"/>
+      <c r="P18" s="73" t="s">
         <v>124</v>
       </c>
-      <c r="Q18" s="123"/>
-      <c r="R18" s="123"/>
-      <c r="S18" s="123"/>
-      <c r="T18" s="123"/>
-      <c r="U18" s="123"/>
-      <c r="V18" s="123"/>
-      <c r="W18" s="123"/>
-      <c r="X18" s="123"/>
-      <c r="Y18" s="123"/>
-      <c r="Z18" s="124"/>
+      <c r="Q18" s="82"/>
+      <c r="R18" s="82"/>
+      <c r="S18" s="82"/>
+      <c r="T18" s="82"/>
+      <c r="U18" s="82"/>
+      <c r="V18" s="82"/>
+      <c r="W18" s="82"/>
+      <c r="X18" s="82"/>
+      <c r="Y18" s="82"/>
+      <c r="Z18" s="83"/>
       <c r="AA18" s="8"/>
       <c r="AB18" s="8"/>
       <c r="AC18" s="8"/>
@@ -3624,21 +3624,21 @@
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
       <c r="K19" s="8"/>
-      <c r="L19" s="112"/>
-      <c r="M19" s="113"/>
-      <c r="N19" s="130"/>
-      <c r="O19" s="131"/>
-      <c r="P19" s="125"/>
-      <c r="Q19" s="126"/>
-      <c r="R19" s="126"/>
-      <c r="S19" s="126"/>
-      <c r="T19" s="126"/>
-      <c r="U19" s="126"/>
-      <c r="V19" s="126"/>
-      <c r="W19" s="126"/>
-      <c r="X19" s="126"/>
-      <c r="Y19" s="126"/>
-      <c r="Z19" s="127"/>
+      <c r="L19" s="128"/>
+      <c r="M19" s="129"/>
+      <c r="N19" s="96"/>
+      <c r="O19" s="94"/>
+      <c r="P19" s="84"/>
+      <c r="Q19" s="85"/>
+      <c r="R19" s="85"/>
+      <c r="S19" s="85"/>
+      <c r="T19" s="85"/>
+      <c r="U19" s="85"/>
+      <c r="V19" s="85"/>
+      <c r="W19" s="85"/>
+      <c r="X19" s="85"/>
+      <c r="Y19" s="85"/>
+      <c r="Z19" s="86"/>
       <c r="AA19" s="8"/>
       <c r="AB19" s="8"/>
       <c r="AC19" s="8"/>
@@ -3674,25 +3674,25 @@
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
-      <c r="L20" s="112"/>
-      <c r="M20" s="113"/>
-      <c r="N20" s="128" t="s">
+      <c r="L20" s="128"/>
+      <c r="M20" s="129"/>
+      <c r="N20" s="95" t="s">
         <v>74</v>
       </c>
-      <c r="O20" s="129"/>
-      <c r="P20" s="132" t="s">
+      <c r="O20" s="90"/>
+      <c r="P20" s="87" t="s">
         <v>123</v>
       </c>
-      <c r="Q20" s="123"/>
-      <c r="R20" s="123"/>
-      <c r="S20" s="123"/>
-      <c r="T20" s="123"/>
-      <c r="U20" s="123"/>
-      <c r="V20" s="123"/>
-      <c r="W20" s="123"/>
-      <c r="X20" s="123"/>
-      <c r="Y20" s="123"/>
-      <c r="Z20" s="124"/>
+      <c r="Q20" s="82"/>
+      <c r="R20" s="82"/>
+      <c r="S20" s="82"/>
+      <c r="T20" s="82"/>
+      <c r="U20" s="82"/>
+      <c r="V20" s="82"/>
+      <c r="W20" s="82"/>
+      <c r="X20" s="82"/>
+      <c r="Y20" s="82"/>
+      <c r="Z20" s="83"/>
       <c r="AA20" s="8"/>
       <c r="AB20" s="8"/>
       <c r="AC20" s="8"/>
@@ -3720,33 +3720,33 @@
       <c r="A21" s="8"/>
       <c r="B21" s="8"/>
       <c r="C21" s="29"/>
-      <c r="D21" s="86" t="s">
+      <c r="D21" s="106" t="s">
         <v>72</v>
       </c>
-      <c r="E21" s="87"/>
+      <c r="E21" s="107"/>
       <c r="F21" s="30"/>
       <c r="G21" s="31"/>
-      <c r="H21" s="94" t="s">
+      <c r="H21" s="69" t="s">
         <v>73</v>
       </c>
-      <c r="I21" s="95"/>
+      <c r="I21" s="70"/>
       <c r="J21" s="8"/>
       <c r="K21" s="8"/>
-      <c r="L21" s="112"/>
-      <c r="M21" s="113"/>
-      <c r="N21" s="130"/>
-      <c r="O21" s="131"/>
-      <c r="P21" s="125"/>
-      <c r="Q21" s="126"/>
-      <c r="R21" s="126"/>
-      <c r="S21" s="126"/>
-      <c r="T21" s="126"/>
-      <c r="U21" s="126"/>
-      <c r="V21" s="126"/>
-      <c r="W21" s="126"/>
-      <c r="X21" s="126"/>
-      <c r="Y21" s="126"/>
-      <c r="Z21" s="127"/>
+      <c r="L21" s="128"/>
+      <c r="M21" s="129"/>
+      <c r="N21" s="96"/>
+      <c r="O21" s="94"/>
+      <c r="P21" s="84"/>
+      <c r="Q21" s="85"/>
+      <c r="R21" s="85"/>
+      <c r="S21" s="85"/>
+      <c r="T21" s="85"/>
+      <c r="U21" s="85"/>
+      <c r="V21" s="85"/>
+      <c r="W21" s="85"/>
+      <c r="X21" s="85"/>
+      <c r="Y21" s="85"/>
+      <c r="Z21" s="86"/>
       <c r="AA21" s="8"/>
       <c r="AB21" s="8"/>
       <c r="AC21" s="8"/>
@@ -3774,33 +3774,33 @@
       <c r="A22" s="8"/>
       <c r="B22" s="8"/>
       <c r="C22" s="36"/>
-      <c r="D22" s="88"/>
-      <c r="E22" s="89"/>
+      <c r="D22" s="108"/>
+      <c r="E22" s="109"/>
       <c r="F22" s="33"/>
       <c r="G22" s="8"/>
-      <c r="H22" s="96"/>
-      <c r="I22" s="97"/>
+      <c r="H22" s="71"/>
+      <c r="I22" s="72"/>
       <c r="J22" s="8"/>
       <c r="K22" s="8"/>
-      <c r="L22" s="112"/>
-      <c r="M22" s="113"/>
-      <c r="N22" s="120" t="s">
+      <c r="L22" s="128"/>
+      <c r="M22" s="129"/>
+      <c r="N22" s="89" t="s">
         <v>75</v>
       </c>
-      <c r="O22" s="129"/>
-      <c r="P22" s="133" t="s">
+      <c r="O22" s="90"/>
+      <c r="P22" s="88" t="s">
         <v>122</v>
       </c>
-      <c r="Q22" s="78"/>
-      <c r="R22" s="78"/>
-      <c r="S22" s="78"/>
-      <c r="T22" s="78"/>
-      <c r="U22" s="78"/>
-      <c r="V22" s="78"/>
-      <c r="W22" s="78"/>
-      <c r="X22" s="78"/>
-      <c r="Y22" s="78"/>
-      <c r="Z22" s="79"/>
+      <c r="Q22" s="74"/>
+      <c r="R22" s="74"/>
+      <c r="S22" s="74"/>
+      <c r="T22" s="74"/>
+      <c r="U22" s="74"/>
+      <c r="V22" s="74"/>
+      <c r="W22" s="74"/>
+      <c r="X22" s="74"/>
+      <c r="Y22" s="74"/>
+      <c r="Z22" s="75"/>
       <c r="AA22" s="8"/>
       <c r="AB22" s="8"/>
       <c r="AC22" s="8"/>
@@ -3836,21 +3836,21 @@
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
       <c r="K23" s="8"/>
-      <c r="L23" s="112"/>
-      <c r="M23" s="113"/>
-      <c r="N23" s="121"/>
-      <c r="O23" s="134"/>
-      <c r="P23" s="80"/>
-      <c r="Q23" s="81"/>
-      <c r="R23" s="81"/>
-      <c r="S23" s="81"/>
-      <c r="T23" s="81"/>
-      <c r="U23" s="81"/>
-      <c r="V23" s="81"/>
-      <c r="W23" s="81"/>
-      <c r="X23" s="81"/>
-      <c r="Y23" s="81"/>
-      <c r="Z23" s="82"/>
+      <c r="L23" s="128"/>
+      <c r="M23" s="129"/>
+      <c r="N23" s="91"/>
+      <c r="O23" s="92"/>
+      <c r="P23" s="76"/>
+      <c r="Q23" s="77"/>
+      <c r="R23" s="77"/>
+      <c r="S23" s="77"/>
+      <c r="T23" s="77"/>
+      <c r="U23" s="77"/>
+      <c r="V23" s="77"/>
+      <c r="W23" s="77"/>
+      <c r="X23" s="77"/>
+      <c r="Y23" s="77"/>
+      <c r="Z23" s="78"/>
       <c r="AA23" s="8"/>
       <c r="AB23" s="8"/>
       <c r="AC23" s="8"/>
@@ -3886,21 +3886,21 @@
       <c r="I24" s="8"/>
       <c r="J24" s="8"/>
       <c r="K24" s="8"/>
-      <c r="L24" s="112"/>
-      <c r="M24" s="113"/>
-      <c r="N24" s="121"/>
-      <c r="O24" s="134"/>
-      <c r="P24" s="80"/>
-      <c r="Q24" s="81"/>
-      <c r="R24" s="81"/>
-      <c r="S24" s="81"/>
-      <c r="T24" s="81"/>
-      <c r="U24" s="81"/>
-      <c r="V24" s="81"/>
-      <c r="W24" s="81"/>
-      <c r="X24" s="81"/>
-      <c r="Y24" s="81"/>
-      <c r="Z24" s="82"/>
+      <c r="L24" s="128"/>
+      <c r="M24" s="129"/>
+      <c r="N24" s="91"/>
+      <c r="O24" s="92"/>
+      <c r="P24" s="76"/>
+      <c r="Q24" s="77"/>
+      <c r="R24" s="77"/>
+      <c r="S24" s="77"/>
+      <c r="T24" s="77"/>
+      <c r="U24" s="77"/>
+      <c r="V24" s="77"/>
+      <c r="W24" s="77"/>
+      <c r="X24" s="77"/>
+      <c r="Y24" s="77"/>
+      <c r="Z24" s="78"/>
       <c r="AA24" s="8"/>
       <c r="AB24" s="8"/>
       <c r="AC24" s="8"/>
@@ -3936,21 +3936,21 @@
       <c r="I25" s="8"/>
       <c r="J25" s="8"/>
       <c r="K25" s="8"/>
-      <c r="L25" s="112"/>
-      <c r="M25" s="113"/>
-      <c r="N25" s="122"/>
-      <c r="O25" s="131"/>
-      <c r="P25" s="83"/>
-      <c r="Q25" s="84"/>
-      <c r="R25" s="84"/>
-      <c r="S25" s="84"/>
-      <c r="T25" s="84"/>
-      <c r="U25" s="84"/>
-      <c r="V25" s="84"/>
-      <c r="W25" s="84"/>
-      <c r="X25" s="84"/>
-      <c r="Y25" s="84"/>
-      <c r="Z25" s="85"/>
+      <c r="L25" s="128"/>
+      <c r="M25" s="129"/>
+      <c r="N25" s="93"/>
+      <c r="O25" s="94"/>
+      <c r="P25" s="79"/>
+      <c r="Q25" s="80"/>
+      <c r="R25" s="80"/>
+      <c r="S25" s="80"/>
+      <c r="T25" s="80"/>
+      <c r="U25" s="80"/>
+      <c r="V25" s="80"/>
+      <c r="W25" s="80"/>
+      <c r="X25" s="80"/>
+      <c r="Y25" s="80"/>
+      <c r="Z25" s="81"/>
       <c r="AA25" s="8"/>
       <c r="AB25" s="8"/>
       <c r="AC25" s="8"/>
@@ -3982,31 +3982,31 @@
       <c r="E26" s="8"/>
       <c r="F26" s="28"/>
       <c r="G26" s="28"/>
-      <c r="H26" s="94" t="s">
+      <c r="H26" s="69" t="s">
         <v>74</v>
       </c>
-      <c r="I26" s="95"/>
+      <c r="I26" s="70"/>
       <c r="J26" s="8"/>
       <c r="K26" s="8"/>
-      <c r="L26" s="112"/>
-      <c r="M26" s="113"/>
-      <c r="N26" s="120" t="s">
+      <c r="L26" s="128"/>
+      <c r="M26" s="129"/>
+      <c r="N26" s="89" t="s">
         <v>76</v>
       </c>
-      <c r="O26" s="120"/>
-      <c r="P26" s="77" t="s">
+      <c r="O26" s="89"/>
+      <c r="P26" s="73" t="s">
         <v>131</v>
       </c>
-      <c r="Q26" s="78"/>
-      <c r="R26" s="78"/>
-      <c r="S26" s="78"/>
-      <c r="T26" s="78"/>
-      <c r="U26" s="78"/>
-      <c r="V26" s="78"/>
-      <c r="W26" s="78"/>
-      <c r="X26" s="78"/>
-      <c r="Y26" s="78"/>
-      <c r="Z26" s="79"/>
+      <c r="Q26" s="74"/>
+      <c r="R26" s="74"/>
+      <c r="S26" s="74"/>
+      <c r="T26" s="74"/>
+      <c r="U26" s="74"/>
+      <c r="V26" s="74"/>
+      <c r="W26" s="74"/>
+      <c r="X26" s="74"/>
+      <c r="Y26" s="74"/>
+      <c r="Z26" s="75"/>
       <c r="AA26" s="8"/>
       <c r="AB26" s="8"/>
       <c r="AC26" s="8"/>
@@ -4038,25 +4038,25 @@
       <c r="E27" s="8"/>
       <c r="F27" s="28"/>
       <c r="G27" s="36"/>
-      <c r="H27" s="96"/>
-      <c r="I27" s="97"/>
+      <c r="H27" s="71"/>
+      <c r="I27" s="72"/>
       <c r="J27" s="8"/>
       <c r="K27" s="8"/>
-      <c r="L27" s="112"/>
-      <c r="M27" s="113"/>
-      <c r="N27" s="121"/>
-      <c r="O27" s="121"/>
-      <c r="P27" s="80"/>
-      <c r="Q27" s="81"/>
-      <c r="R27" s="81"/>
-      <c r="S27" s="81"/>
-      <c r="T27" s="81"/>
-      <c r="U27" s="81"/>
-      <c r="V27" s="81"/>
-      <c r="W27" s="81"/>
-      <c r="X27" s="81"/>
-      <c r="Y27" s="81"/>
-      <c r="Z27" s="82"/>
+      <c r="L27" s="128"/>
+      <c r="M27" s="129"/>
+      <c r="N27" s="91"/>
+      <c r="O27" s="91"/>
+      <c r="P27" s="76"/>
+      <c r="Q27" s="77"/>
+      <c r="R27" s="77"/>
+      <c r="S27" s="77"/>
+      <c r="T27" s="77"/>
+      <c r="U27" s="77"/>
+      <c r="V27" s="77"/>
+      <c r="W27" s="77"/>
+      <c r="X27" s="77"/>
+      <c r="Y27" s="77"/>
+      <c r="Z27" s="78"/>
       <c r="AA27" s="8"/>
       <c r="AB27" s="8"/>
       <c r="AC27" s="8"/>
@@ -4092,21 +4092,21 @@
       <c r="I28" s="8"/>
       <c r="J28" s="8"/>
       <c r="K28" s="8"/>
-      <c r="L28" s="112"/>
-      <c r="M28" s="113"/>
-      <c r="N28" s="121"/>
-      <c r="O28" s="121"/>
-      <c r="P28" s="80"/>
-      <c r="Q28" s="81"/>
-      <c r="R28" s="81"/>
-      <c r="S28" s="81"/>
-      <c r="T28" s="81"/>
-      <c r="U28" s="81"/>
-      <c r="V28" s="81"/>
-      <c r="W28" s="81"/>
-      <c r="X28" s="81"/>
-      <c r="Y28" s="81"/>
-      <c r="Z28" s="82"/>
+      <c r="L28" s="128"/>
+      <c r="M28" s="129"/>
+      <c r="N28" s="91"/>
+      <c r="O28" s="91"/>
+      <c r="P28" s="76"/>
+      <c r="Q28" s="77"/>
+      <c r="R28" s="77"/>
+      <c r="S28" s="77"/>
+      <c r="T28" s="77"/>
+      <c r="U28" s="77"/>
+      <c r="V28" s="77"/>
+      <c r="W28" s="77"/>
+      <c r="X28" s="77"/>
+      <c r="Y28" s="77"/>
+      <c r="Z28" s="78"/>
       <c r="AA28" s="8"/>
       <c r="AB28" s="8"/>
       <c r="AC28" s="8"/>
@@ -4142,21 +4142,21 @@
       <c r="I29" s="8"/>
       <c r="J29" s="8"/>
       <c r="K29" s="8"/>
-      <c r="L29" s="112"/>
-      <c r="M29" s="113"/>
-      <c r="N29" s="122"/>
-      <c r="O29" s="122"/>
-      <c r="P29" s="83"/>
-      <c r="Q29" s="84"/>
-      <c r="R29" s="84"/>
-      <c r="S29" s="84"/>
-      <c r="T29" s="84"/>
-      <c r="U29" s="84"/>
-      <c r="V29" s="84"/>
-      <c r="W29" s="84"/>
-      <c r="X29" s="84"/>
-      <c r="Y29" s="84"/>
-      <c r="Z29" s="85"/>
+      <c r="L29" s="128"/>
+      <c r="M29" s="129"/>
+      <c r="N29" s="93"/>
+      <c r="O29" s="93"/>
+      <c r="P29" s="79"/>
+      <c r="Q29" s="80"/>
+      <c r="R29" s="80"/>
+      <c r="S29" s="80"/>
+      <c r="T29" s="80"/>
+      <c r="U29" s="80"/>
+      <c r="V29" s="80"/>
+      <c r="W29" s="80"/>
+      <c r="X29" s="80"/>
+      <c r="Y29" s="80"/>
+      <c r="Z29" s="81"/>
       <c r="AA29" s="8"/>
       <c r="AB29" s="8"/>
       <c r="AC29" s="8"/>
@@ -4192,25 +4192,25 @@
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
       <c r="K30" s="8"/>
-      <c r="L30" s="112"/>
-      <c r="M30" s="113"/>
-      <c r="N30" s="128" t="s">
+      <c r="L30" s="128"/>
+      <c r="M30" s="129"/>
+      <c r="N30" s="95" t="s">
         <v>77</v>
       </c>
-      <c r="O30" s="129"/>
-      <c r="P30" s="77" t="s">
+      <c r="O30" s="90"/>
+      <c r="P30" s="73" t="s">
         <v>121</v>
       </c>
-      <c r="Q30" s="123"/>
-      <c r="R30" s="123"/>
-      <c r="S30" s="123"/>
-      <c r="T30" s="123"/>
-      <c r="U30" s="123"/>
-      <c r="V30" s="123"/>
-      <c r="W30" s="123"/>
-      <c r="X30" s="123"/>
-      <c r="Y30" s="123"/>
-      <c r="Z30" s="124"/>
+      <c r="Q30" s="82"/>
+      <c r="R30" s="82"/>
+      <c r="S30" s="82"/>
+      <c r="T30" s="82"/>
+      <c r="U30" s="82"/>
+      <c r="V30" s="82"/>
+      <c r="W30" s="82"/>
+      <c r="X30" s="82"/>
+      <c r="Y30" s="82"/>
+      <c r="Z30" s="83"/>
       <c r="AA30" s="8"/>
       <c r="AB30" s="8"/>
       <c r="AC30" s="8"/>
@@ -4242,27 +4242,27 @@
       <c r="E31" s="8"/>
       <c r="F31" s="28"/>
       <c r="G31" s="28"/>
-      <c r="H31" s="94" t="s">
+      <c r="H31" s="69" t="s">
         <v>75</v>
       </c>
-      <c r="I31" s="95"/>
+      <c r="I31" s="70"/>
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
-      <c r="L31" s="114"/>
-      <c r="M31" s="115"/>
-      <c r="N31" s="130"/>
-      <c r="O31" s="131"/>
-      <c r="P31" s="125"/>
-      <c r="Q31" s="126"/>
-      <c r="R31" s="126"/>
-      <c r="S31" s="126"/>
-      <c r="T31" s="126"/>
-      <c r="U31" s="126"/>
-      <c r="V31" s="126"/>
-      <c r="W31" s="126"/>
-      <c r="X31" s="126"/>
-      <c r="Y31" s="126"/>
-      <c r="Z31" s="127"/>
+      <c r="L31" s="130"/>
+      <c r="M31" s="131"/>
+      <c r="N31" s="96"/>
+      <c r="O31" s="94"/>
+      <c r="P31" s="84"/>
+      <c r="Q31" s="85"/>
+      <c r="R31" s="85"/>
+      <c r="S31" s="85"/>
+      <c r="T31" s="85"/>
+      <c r="U31" s="85"/>
+      <c r="V31" s="85"/>
+      <c r="W31" s="85"/>
+      <c r="X31" s="85"/>
+      <c r="Y31" s="85"/>
+      <c r="Z31" s="86"/>
       <c r="AA31" s="8"/>
       <c r="AB31" s="8"/>
       <c r="AC31" s="8"/>
@@ -4294,8 +4294,8 @@
       <c r="E32" s="8"/>
       <c r="F32" s="28"/>
       <c r="G32" s="36"/>
-      <c r="H32" s="96"/>
-      <c r="I32" s="97"/>
+      <c r="H32" s="71"/>
+      <c r="I32" s="72"/>
       <c r="J32" s="8"/>
       <c r="K32" s="8"/>
       <c r="L32" s="8"/>
@@ -4494,10 +4494,10 @@
       <c r="E36" s="8"/>
       <c r="F36" s="28"/>
       <c r="G36" s="28"/>
-      <c r="H36" s="94" t="s">
+      <c r="H36" s="69" t="s">
         <v>76</v>
       </c>
-      <c r="I36" s="95"/>
+      <c r="I36" s="70"/>
       <c r="J36" s="8"/>
       <c r="K36" s="8"/>
       <c r="L36" s="8"/>
@@ -4546,8 +4546,8 @@
       <c r="E37" s="8"/>
       <c r="F37" s="28"/>
       <c r="G37" s="36"/>
-      <c r="H37" s="96"/>
-      <c r="I37" s="97"/>
+      <c r="H37" s="71"/>
+      <c r="I37" s="72"/>
       <c r="J37" s="8"/>
       <c r="K37" s="8"/>
       <c r="L37" s="8"/>
@@ -4746,10 +4746,10 @@
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="29"/>
-      <c r="H41" s="94" t="s">
+      <c r="H41" s="69" t="s">
         <v>77</v>
       </c>
-      <c r="I41" s="95"/>
+      <c r="I41" s="70"/>
       <c r="J41" s="8"/>
       <c r="K41" s="8"/>
       <c r="L41" s="8"/>
@@ -4798,8 +4798,8 @@
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="36"/>
-      <c r="H42" s="96"/>
-      <c r="I42" s="97"/>
+      <c r="H42" s="71"/>
+      <c r="I42" s="72"/>
       <c r="J42" s="19"/>
       <c r="K42" s="19"/>
       <c r="L42" s="19"/>
@@ -6431,17 +6431,6 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="H41:I42"/>
-    <mergeCell ref="H36:I37"/>
-    <mergeCell ref="H31:I32"/>
-    <mergeCell ref="H26:I27"/>
-    <mergeCell ref="P10:Z13"/>
-    <mergeCell ref="P18:Z19"/>
-    <mergeCell ref="P20:Z21"/>
-    <mergeCell ref="P22:Z25"/>
-    <mergeCell ref="N22:O25"/>
-    <mergeCell ref="N18:O19"/>
-    <mergeCell ref="N20:O21"/>
     <mergeCell ref="B2:Z4"/>
     <mergeCell ref="P14:Z17"/>
     <mergeCell ref="D21:E22"/>
@@ -6458,6 +6447,17 @@
     <mergeCell ref="P26:Z29"/>
     <mergeCell ref="P30:Z31"/>
     <mergeCell ref="N30:O31"/>
+    <mergeCell ref="H41:I42"/>
+    <mergeCell ref="H36:I37"/>
+    <mergeCell ref="H31:I32"/>
+    <mergeCell ref="H26:I27"/>
+    <mergeCell ref="P10:Z13"/>
+    <mergeCell ref="P18:Z19"/>
+    <mergeCell ref="P20:Z21"/>
+    <mergeCell ref="P22:Z25"/>
+    <mergeCell ref="N22:O25"/>
+    <mergeCell ref="N18:O19"/>
+    <mergeCell ref="N20:O21"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6479,140 +6479,140 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="137" t="s">
+      <c r="B1" s="139" t="s">
         <v>78</v>
       </c>
-      <c r="C1" s="146"/>
-      <c r="D1" s="137" t="s">
+      <c r="C1" s="148"/>
+      <c r="D1" s="139" t="s">
         <v>80</v>
       </c>
-      <c r="E1" s="149"/>
-      <c r="F1" s="150"/>
-      <c r="I1" s="137" t="s">
+      <c r="E1" s="151"/>
+      <c r="F1" s="152"/>
+      <c r="I1" s="139" t="s">
         <v>79</v>
       </c>
-      <c r="J1" s="138"/>
-      <c r="K1" s="137" t="s">
+      <c r="J1" s="140"/>
+      <c r="K1" s="139" t="s">
         <v>81</v>
       </c>
-      <c r="L1" s="141"/>
-      <c r="M1" s="142"/>
-      <c r="P1" s="154" t="s">
+      <c r="L1" s="143"/>
+      <c r="M1" s="144"/>
+      <c r="P1" s="138" t="s">
         <v>82</v>
       </c>
-      <c r="Q1" s="154"/>
-      <c r="R1" s="154" t="s">
+      <c r="Q1" s="138"/>
+      <c r="R1" s="138" t="s">
         <v>83</v>
       </c>
-      <c r="S1" s="154"/>
-      <c r="T1" s="154"/>
-      <c r="W1" s="154" t="s">
+      <c r="S1" s="138"/>
+      <c r="T1" s="138"/>
+      <c r="W1" s="138" t="s">
         <v>84</v>
       </c>
-      <c r="X1" s="154"/>
-      <c r="Y1" s="154" t="s">
+      <c r="X1" s="138"/>
+      <c r="Y1" s="138" t="s">
         <v>85</v>
       </c>
-      <c r="Z1" s="154"/>
-      <c r="AA1" s="154"/>
+      <c r="Z1" s="138"/>
+      <c r="AA1" s="138"/>
     </row>
     <row r="2" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="147"/>
-      <c r="C2" s="148"/>
-      <c r="D2" s="151"/>
-      <c r="E2" s="152"/>
-      <c r="F2" s="153"/>
-      <c r="I2" s="139"/>
-      <c r="J2" s="140"/>
-      <c r="K2" s="143"/>
-      <c r="L2" s="144"/>
-      <c r="M2" s="145"/>
-      <c r="P2" s="154"/>
-      <c r="Q2" s="154"/>
-      <c r="R2" s="154"/>
-      <c r="S2" s="154"/>
-      <c r="T2" s="154"/>
-      <c r="W2" s="154"/>
-      <c r="X2" s="154"/>
-      <c r="Y2" s="154"/>
-      <c r="Z2" s="154"/>
-      <c r="AA2" s="154"/>
+      <c r="B2" s="149"/>
+      <c r="C2" s="150"/>
+      <c r="D2" s="153"/>
+      <c r="E2" s="154"/>
+      <c r="F2" s="155"/>
+      <c r="I2" s="141"/>
+      <c r="J2" s="142"/>
+      <c r="K2" s="145"/>
+      <c r="L2" s="146"/>
+      <c r="M2" s="147"/>
+      <c r="P2" s="138"/>
+      <c r="Q2" s="138"/>
+      <c r="R2" s="138"/>
+      <c r="S2" s="138"/>
+      <c r="T2" s="138"/>
+      <c r="W2" s="138"/>
+      <c r="X2" s="138"/>
+      <c r="Y2" s="138"/>
+      <c r="Z2" s="138"/>
+      <c r="AA2" s="138"/>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="B3" s="136" t="s">
+      <c r="B3" s="137" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="136"/>
-      <c r="D3" s="136"/>
-      <c r="E3" s="136" t="s">
+      <c r="C3" s="137"/>
+      <c r="D3" s="137"/>
+      <c r="E3" s="137" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="136"/>
-      <c r="I3" s="136" t="s">
+      <c r="F3" s="137"/>
+      <c r="I3" s="137" t="s">
         <v>18</v>
       </c>
-      <c r="J3" s="136"/>
-      <c r="K3" s="136"/>
-      <c r="L3" s="136" t="s">
+      <c r="J3" s="137"/>
+      <c r="K3" s="137"/>
+      <c r="L3" s="137" t="s">
         <v>19</v>
       </c>
-      <c r="M3" s="136"/>
-      <c r="P3" s="136" t="s">
+      <c r="M3" s="137"/>
+      <c r="P3" s="137" t="s">
         <v>0</v>
       </c>
-      <c r="Q3" s="136"/>
-      <c r="R3" s="136"/>
-      <c r="S3" s="136" t="s">
+      <c r="Q3" s="137"/>
+      <c r="R3" s="137"/>
+      <c r="S3" s="137" t="s">
         <v>19</v>
       </c>
-      <c r="T3" s="136"/>
-      <c r="W3" s="136" t="s">
+      <c r="T3" s="137"/>
+      <c r="W3" s="137" t="s">
         <v>0</v>
       </c>
-      <c r="X3" s="136"/>
-      <c r="Y3" s="136"/>
-      <c r="Z3" s="136" t="s">
+      <c r="X3" s="137"/>
+      <c r="Y3" s="137"/>
+      <c r="Z3" s="137" t="s">
         <v>19</v>
       </c>
-      <c r="AA3" s="136"/>
+      <c r="AA3" s="137"/>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="B4" s="136" t="s">
+      <c r="B4" s="137" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="136"/>
-      <c r="D4" s="136"/>
-      <c r="E4" s="136" t="s">
+      <c r="C4" s="137"/>
+      <c r="D4" s="137"/>
+      <c r="E4" s="137" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="136"/>
-      <c r="I4" s="136" t="s">
+      <c r="F4" s="137"/>
+      <c r="I4" s="137" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="136"/>
-      <c r="K4" s="136"/>
-      <c r="L4" s="136" t="s">
+      <c r="J4" s="137"/>
+      <c r="K4" s="137"/>
+      <c r="L4" s="137" t="s">
         <v>20</v>
       </c>
-      <c r="M4" s="136"/>
-      <c r="P4" s="136" t="s">
+      <c r="M4" s="137"/>
+      <c r="P4" s="137" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="136"/>
-      <c r="R4" s="136"/>
-      <c r="S4" s="136" t="s">
+      <c r="Q4" s="137"/>
+      <c r="R4" s="137"/>
+      <c r="S4" s="137" t="s">
         <v>21</v>
       </c>
-      <c r="T4" s="136"/>
-      <c r="W4" s="136" t="s">
+      <c r="T4" s="137"/>
+      <c r="W4" s="137" t="s">
         <v>8</v>
       </c>
-      <c r="X4" s="136"/>
-      <c r="Y4" s="136"/>
-      <c r="Z4" s="136" t="s">
+      <c r="X4" s="137"/>
+      <c r="Y4" s="137"/>
+      <c r="Z4" s="137" t="s">
         <v>21</v>
       </c>
-      <c r="AA4" s="136"/>
+      <c r="AA4" s="137"/>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B5" s="10" t="s">
@@ -14477,10 +14477,10 @@
       </c>
     </row>
     <row r="106" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="B106" s="135" t="s">
+      <c r="B106" s="136" t="s">
         <v>14</v>
       </c>
-      <c r="C106" s="135"/>
+      <c r="C106" s="136"/>
       <c r="D106" s="5">
         <f>SUM(D6:D105)</f>
         <v>87316</v>
@@ -14491,10 +14491,10 @@
       <c r="F106" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="I106" s="135" t="s">
+      <c r="I106" s="136" t="s">
         <v>4</v>
       </c>
-      <c r="J106" s="135"/>
+      <c r="J106" s="136"/>
       <c r="K106" s="5">
         <f>SUM(K6:K105)</f>
         <v>360244</v>
@@ -14505,10 +14505,10 @@
       <c r="M106" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="P106" s="135" t="s">
+      <c r="P106" s="136" t="s">
         <v>4</v>
       </c>
-      <c r="Q106" s="135"/>
+      <c r="Q106" s="136"/>
       <c r="R106" s="5">
         <f>SUM(Q6:Q105)</f>
         <v>2195776.0000000005</v>
@@ -14519,10 +14519,10 @@
       <c r="T106" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="W106" s="135" t="s">
+      <c r="W106" s="136" t="s">
         <v>4</v>
       </c>
-      <c r="X106" s="135"/>
+      <c r="X106" s="136"/>
       <c r="Y106" s="5">
         <f>SUM(X6:X105)</f>
         <v>5760000</v>
@@ -14550,22 +14550,6 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="P106:Q106"/>
-    <mergeCell ref="W106:X106"/>
-    <mergeCell ref="Z3:AA3"/>
-    <mergeCell ref="Z4:AA4"/>
-    <mergeCell ref="S3:T3"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="P1:Q2"/>
-    <mergeCell ref="R1:T2"/>
-    <mergeCell ref="W1:X2"/>
-    <mergeCell ref="Y1:AA2"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="P3:R3"/>
-    <mergeCell ref="P4:R4"/>
-    <mergeCell ref="W3:Y3"/>
-    <mergeCell ref="W4:Y4"/>
     <mergeCell ref="B106:C106"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="I3:K3"/>
@@ -14578,6 +14562,22 @@
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="B4:D4"/>
+    <mergeCell ref="P1:Q2"/>
+    <mergeCell ref="R1:T2"/>
+    <mergeCell ref="W1:X2"/>
+    <mergeCell ref="Y1:AA2"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="P3:R3"/>
+    <mergeCell ref="P4:R4"/>
+    <mergeCell ref="W3:Y3"/>
+    <mergeCell ref="W4:Y4"/>
+    <mergeCell ref="P106:Q106"/>
+    <mergeCell ref="W106:X106"/>
+    <mergeCell ref="Z3:AA3"/>
+    <mergeCell ref="Z4:AA4"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="S4:T4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14606,66 +14606,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C1" s="155" t="s">
+      <c r="C1" s="156" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="155"/>
-      <c r="E1" s="155"/>
-      <c r="F1" s="155"/>
-      <c r="G1" s="155"/>
-      <c r="H1" s="155"/>
-      <c r="I1" s="155"/>
+      <c r="D1" s="156"/>
+      <c r="E1" s="156"/>
+      <c r="F1" s="156"/>
+      <c r="G1" s="156"/>
+      <c r="H1" s="156"/>
+      <c r="I1" s="156"/>
     </row>
     <row r="2" spans="2:14" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C2" s="155"/>
-      <c r="D2" s="155"/>
-      <c r="E2" s="155"/>
-      <c r="F2" s="155"/>
-      <c r="G2" s="155"/>
-      <c r="H2" s="155"/>
-      <c r="I2" s="155"/>
+      <c r="C2" s="156"/>
+      <c r="D2" s="156"/>
+      <c r="E2" s="156"/>
+      <c r="F2" s="156"/>
+      <c r="G2" s="156"/>
+      <c r="H2" s="156"/>
+      <c r="I2" s="156"/>
     </row>
     <row r="3" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="20"/>
-      <c r="C3" s="168" t="s">
+      <c r="C3" s="169" t="s">
         <v>88</v>
       </c>
-      <c r="D3" s="168"/>
+      <c r="D3" s="169"/>
       <c r="E3" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="168" t="s">
+      <c r="F3" s="169" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="168"/>
-      <c r="H3" s="168"/>
-      <c r="I3" s="168"/>
-      <c r="K3" s="156" t="s">
+      <c r="G3" s="169"/>
+      <c r="H3" s="169"/>
+      <c r="I3" s="169"/>
+      <c r="K3" s="157" t="s">
         <v>146</v>
       </c>
-      <c r="L3" s="157"/>
-      <c r="M3" s="157"/>
-      <c r="N3" s="158"/>
+      <c r="L3" s="158"/>
+      <c r="M3" s="158"/>
+      <c r="N3" s="159"/>
     </row>
     <row r="4" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="42"/>
-      <c r="C4" s="136" t="s">
+      <c r="C4" s="137" t="s">
         <v>92</v>
       </c>
-      <c r="D4" s="136"/>
+      <c r="D4" s="137"/>
       <c r="E4" s="23" t="s">
         <v>145</v>
       </c>
-      <c r="F4" s="136" t="s">
+      <c r="F4" s="137" t="s">
         <v>26</v>
       </c>
-      <c r="G4" s="136"/>
-      <c r="H4" s="136"/>
-      <c r="I4" s="136"/>
-      <c r="K4" s="159"/>
-      <c r="L4" s="160"/>
-      <c r="M4" s="160"/>
-      <c r="N4" s="161"/>
+      <c r="G4" s="137"/>
+      <c r="H4" s="137"/>
+      <c r="I4" s="137"/>
+      <c r="K4" s="160"/>
+      <c r="L4" s="161"/>
+      <c r="M4" s="161"/>
+      <c r="N4" s="162"/>
     </row>
     <row r="5" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="25"/>
@@ -14690,12 +14690,12 @@
       <c r="I5" s="50" t="s">
         <v>98</v>
       </c>
-      <c r="K5" s="162" t="s">
+      <c r="K5" s="163" t="s">
         <v>91</v>
       </c>
-      <c r="L5" s="163"/>
-      <c r="M5" s="163"/>
-      <c r="N5" s="164"/>
+      <c r="L5" s="164"/>
+      <c r="M5" s="164"/>
+      <c r="N5" s="165"/>
     </row>
     <row r="6" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="4"/>
@@ -14726,10 +14726,10 @@
         <f t="shared" ref="I6:I37" si="3">ROUND(H6:H105,0)</f>
         <v>2</v>
       </c>
-      <c r="K6" s="165"/>
-      <c r="L6" s="166"/>
-      <c r="M6" s="166"/>
-      <c r="N6" s="167"/>
+      <c r="K6" s="166"/>
+      <c r="L6" s="167"/>
+      <c r="M6" s="167"/>
+      <c r="N6" s="168"/>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B7" s="4"/>
@@ -18020,7 +18020,7 @@
   <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -18087,34 +18087,34 @@
       <c r="C2" s="64">
         <v>1</v>
       </c>
-      <c r="D2" s="177">
+      <c r="D2" s="68">
         <v>10</v>
       </c>
-      <c r="E2" s="177">
+      <c r="E2" s="68">
         <v>11</v>
       </c>
-      <c r="F2" s="177">
+      <c r="F2" s="68">
         <v>12</v>
       </c>
-      <c r="G2" s="177">
+      <c r="G2" s="68">
         <v>13</v>
       </c>
-      <c r="H2" s="177">
+      <c r="H2" s="68">
         <v>14</v>
       </c>
-      <c r="I2" s="177">
+      <c r="I2" s="68">
         <v>15</v>
       </c>
-      <c r="J2" s="177">
+      <c r="J2" s="68">
         <v>16</v>
       </c>
-      <c r="K2" s="177">
+      <c r="K2" s="68">
         <v>17</v>
       </c>
-      <c r="L2" s="177">
+      <c r="L2" s="68">
         <v>18</v>
       </c>
-      <c r="M2" s="177">
+      <c r="M2" s="68">
         <v>19</v>
       </c>
       <c r="N2" s="63" t="b">
@@ -18131,34 +18131,34 @@
       <c r="C3" s="64">
         <v>0</v>
       </c>
-      <c r="D3" s="177">
+      <c r="D3" s="68">
         <v>20</v>
       </c>
-      <c r="E3" s="177">
+      <c r="E3" s="68">
         <v>22</v>
       </c>
-      <c r="F3" s="177">
+      <c r="F3" s="68">
         <v>24</v>
       </c>
-      <c r="G3" s="177">
+      <c r="G3" s="68">
         <v>26</v>
       </c>
-      <c r="H3" s="177">
+      <c r="H3" s="68">
         <v>28</v>
       </c>
-      <c r="I3" s="177">
+      <c r="I3" s="68">
         <v>30</v>
       </c>
-      <c r="J3" s="177">
+      <c r="J3" s="68">
         <v>32</v>
       </c>
-      <c r="K3" s="177">
+      <c r="K3" s="68">
         <v>34</v>
       </c>
-      <c r="L3" s="177">
+      <c r="L3" s="68">
         <v>36</v>
       </c>
-      <c r="M3" s="177">
+      <c r="M3" s="68">
         <v>38</v>
       </c>
       <c r="N3" s="63" t="b">
@@ -18175,34 +18175,34 @@
       <c r="C4" s="64">
         <v>0</v>
       </c>
-      <c r="D4" s="177">
+      <c r="D4" s="68">
         <v>40</v>
       </c>
-      <c r="E4" s="177">
+      <c r="E4" s="68">
         <v>44</v>
       </c>
-      <c r="F4" s="177">
+      <c r="F4" s="68">
         <v>48</v>
       </c>
-      <c r="G4" s="177">
+      <c r="G4" s="68">
         <v>52</v>
       </c>
-      <c r="H4" s="177">
+      <c r="H4" s="68">
         <v>56</v>
       </c>
-      <c r="I4" s="177">
+      <c r="I4" s="68">
         <v>60</v>
       </c>
-      <c r="J4" s="177">
+      <c r="J4" s="68">
         <v>64</v>
       </c>
-      <c r="K4" s="177">
+      <c r="K4" s="68">
         <v>68</v>
       </c>
-      <c r="L4" s="177">
+      <c r="L4" s="68">
         <v>72</v>
       </c>
-      <c r="M4" s="177">
+      <c r="M4" s="68">
         <v>76</v>
       </c>
       <c r="N4" s="63" t="b">
@@ -18219,34 +18219,34 @@
       <c r="C5" s="64">
         <v>0</v>
       </c>
-      <c r="D5" s="177">
+      <c r="D5" s="68">
         <v>80</v>
       </c>
-      <c r="E5" s="177">
+      <c r="E5" s="68">
         <v>88</v>
       </c>
-      <c r="F5" s="177">
+      <c r="F5" s="68">
         <v>96</v>
       </c>
-      <c r="G5" s="177">
+      <c r="G5" s="68">
         <v>104</v>
       </c>
-      <c r="H5" s="177">
+      <c r="H5" s="68">
         <v>112</v>
       </c>
-      <c r="I5" s="177">
+      <c r="I5" s="68">
         <v>120</v>
       </c>
-      <c r="J5" s="177">
+      <c r="J5" s="68">
         <v>128</v>
       </c>
-      <c r="K5" s="177">
+      <c r="K5" s="68">
         <v>136</v>
       </c>
-      <c r="L5" s="177">
+      <c r="L5" s="68">
         <v>144</v>
       </c>
-      <c r="M5" s="177">
+      <c r="M5" s="68">
         <v>152</v>
       </c>
       <c r="N5" s="63" t="b">
@@ -18263,34 +18263,34 @@
       <c r="C6" s="64">
         <v>0</v>
       </c>
-      <c r="D6" s="177">
+      <c r="D6" s="68">
         <v>160</v>
       </c>
-      <c r="E6" s="177">
+      <c r="E6" s="68">
         <v>176</v>
       </c>
-      <c r="F6" s="177">
+      <c r="F6" s="68">
         <v>192</v>
       </c>
-      <c r="G6" s="177">
+      <c r="G6" s="68">
         <v>208</v>
       </c>
-      <c r="H6" s="177">
+      <c r="H6" s="68">
         <v>224</v>
       </c>
-      <c r="I6" s="177">
+      <c r="I6" s="68">
         <v>240</v>
       </c>
-      <c r="J6" s="177">
+      <c r="J6" s="68">
         <v>256</v>
       </c>
-      <c r="K6" s="177">
+      <c r="K6" s="68">
         <v>272</v>
       </c>
-      <c r="L6" s="177">
+      <c r="L6" s="68">
         <v>288</v>
       </c>
-      <c r="M6" s="177">
+      <c r="M6" s="68">
         <v>304</v>
       </c>
       <c r="N6" s="63" t="b">
@@ -18307,34 +18307,34 @@
       <c r="C7" s="64">
         <v>0</v>
       </c>
-      <c r="D7" s="177">
+      <c r="D7" s="68">
         <v>320</v>
       </c>
-      <c r="E7" s="177">
+      <c r="E7" s="68">
         <v>352</v>
       </c>
-      <c r="F7" s="177">
+      <c r="F7" s="68">
         <v>384</v>
       </c>
-      <c r="G7" s="177">
+      <c r="G7" s="68">
         <v>416</v>
       </c>
-      <c r="H7" s="177">
+      <c r="H7" s="68">
         <v>448</v>
       </c>
-      <c r="I7" s="177">
+      <c r="I7" s="68">
         <v>480</v>
       </c>
-      <c r="J7" s="177">
+      <c r="J7" s="68">
         <v>512</v>
       </c>
-      <c r="K7" s="177">
+      <c r="K7" s="68">
         <v>544</v>
       </c>
-      <c r="L7" s="177">
+      <c r="L7" s="68">
         <v>576</v>
       </c>
-      <c r="M7" s="177">
+      <c r="M7" s="68">
         <v>608</v>
       </c>
       <c r="N7" s="63" t="b">
@@ -18351,34 +18351,34 @@
       <c r="C8" s="64">
         <v>0</v>
       </c>
-      <c r="D8" s="177">
+      <c r="D8" s="68">
         <v>640</v>
       </c>
-      <c r="E8" s="177">
+      <c r="E8" s="68">
         <v>704</v>
       </c>
-      <c r="F8" s="177">
+      <c r="F8" s="68">
         <v>768</v>
       </c>
-      <c r="G8" s="177">
+      <c r="G8" s="68">
         <v>832</v>
       </c>
-      <c r="H8" s="177">
+      <c r="H8" s="68">
         <v>896</v>
       </c>
-      <c r="I8" s="177">
+      <c r="I8" s="68">
         <v>960</v>
       </c>
-      <c r="J8" s="177">
+      <c r="J8" s="68">
         <v>1024</v>
       </c>
-      <c r="K8" s="177">
+      <c r="K8" s="68">
         <v>1088</v>
       </c>
-      <c r="L8" s="177">
+      <c r="L8" s="68">
         <v>1152</v>
       </c>
-      <c r="M8" s="177">
+      <c r="M8" s="68">
         <v>1216</v>
       </c>
       <c r="N8" s="63" t="b">
@@ -18395,34 +18395,34 @@
       <c r="C9" s="64">
         <v>0</v>
       </c>
-      <c r="D9" s="177">
+      <c r="D9" s="68">
         <v>1280</v>
       </c>
-      <c r="E9" s="177">
+      <c r="E9" s="68">
         <v>1408</v>
       </c>
-      <c r="F9" s="177">
+      <c r="F9" s="68">
         <v>1536</v>
       </c>
-      <c r="G9" s="177">
+      <c r="G9" s="68">
         <v>1664</v>
       </c>
-      <c r="H9" s="177">
+      <c r="H9" s="68">
         <v>1792</v>
       </c>
-      <c r="I9" s="177">
+      <c r="I9" s="68">
         <v>1920</v>
       </c>
-      <c r="J9" s="177">
+      <c r="J9" s="68">
         <v>2048</v>
       </c>
-      <c r="K9" s="177">
+      <c r="K9" s="68">
         <v>2176</v>
       </c>
-      <c r="L9" s="177">
+      <c r="L9" s="68">
         <v>2304</v>
       </c>
-      <c r="M9" s="177">
+      <c r="M9" s="68">
         <v>2432</v>
       </c>
       <c r="N9" s="63" t="b">
@@ -18439,34 +18439,34 @@
       <c r="C10" s="67">
         <v>0</v>
       </c>
-      <c r="D10" s="177">
+      <c r="D10" s="68">
         <v>2560</v>
       </c>
-      <c r="E10" s="177">
+      <c r="E10" s="68">
         <v>2816</v>
       </c>
-      <c r="F10" s="177">
+      <c r="F10" s="68">
         <v>3072</v>
       </c>
-      <c r="G10" s="177">
+      <c r="G10" s="68">
         <v>3328</v>
       </c>
-      <c r="H10" s="177">
+      <c r="H10" s="68">
         <v>3584</v>
       </c>
-      <c r="I10" s="177">
+      <c r="I10" s="68">
         <v>3840</v>
       </c>
-      <c r="J10" s="177">
+      <c r="J10" s="68">
         <v>4096</v>
       </c>
-      <c r="K10" s="177">
+      <c r="K10" s="68">
         <v>4352</v>
       </c>
-      <c r="L10" s="177">
+      <c r="L10" s="68">
         <v>4608</v>
       </c>
-      <c r="M10" s="177">
+      <c r="M10" s="68">
         <v>4864</v>
       </c>
       <c r="N10" s="63" t="b">
@@ -18483,34 +18483,34 @@
       <c r="C11" s="67">
         <v>0</v>
       </c>
-      <c r="D11" s="177">
+      <c r="D11" s="68">
         <v>5120</v>
       </c>
-      <c r="E11" s="177">
+      <c r="E11" s="68">
         <v>5632</v>
       </c>
-      <c r="F11" s="177">
+      <c r="F11" s="68">
         <v>6144</v>
       </c>
-      <c r="G11" s="177">
+      <c r="G11" s="68">
         <v>6656</v>
       </c>
-      <c r="H11" s="177">
+      <c r="H11" s="68">
         <v>7168</v>
       </c>
-      <c r="I11" s="177">
+      <c r="I11" s="68">
         <v>7680</v>
       </c>
-      <c r="J11" s="177">
+      <c r="J11" s="68">
         <v>8192</v>
       </c>
-      <c r="K11" s="177">
+      <c r="K11" s="68">
         <v>8704</v>
       </c>
-      <c r="L11" s="177">
+      <c r="L11" s="68">
         <v>9216</v>
       </c>
-      <c r="M11" s="177">
+      <c r="M11" s="68">
         <v>9728</v>
       </c>
       <c r="N11" s="63" t="b">
@@ -18527,34 +18527,34 @@
       <c r="C12" s="67">
         <v>0</v>
       </c>
-      <c r="D12" s="177">
+      <c r="D12" s="68">
         <v>10240</v>
       </c>
-      <c r="E12" s="177">
+      <c r="E12" s="68">
         <v>11264</v>
       </c>
-      <c r="F12" s="177">
+      <c r="F12" s="68">
         <v>12288</v>
       </c>
-      <c r="G12" s="177">
+      <c r="G12" s="68">
         <v>13312</v>
       </c>
-      <c r="H12" s="177">
+      <c r="H12" s="68">
         <v>14336</v>
       </c>
-      <c r="I12" s="177">
+      <c r="I12" s="68">
         <v>15360</v>
       </c>
-      <c r="J12" s="177">
+      <c r="J12" s="68">
         <v>16384</v>
       </c>
-      <c r="K12" s="177">
+      <c r="K12" s="68">
         <v>17408</v>
       </c>
-      <c r="L12" s="177">
+      <c r="L12" s="68">
         <v>18432</v>
       </c>
-      <c r="M12" s="177">
+      <c r="M12" s="68">
         <v>19456</v>
       </c>
       <c r="N12" s="63" t="b">
@@ -18571,34 +18571,34 @@
       <c r="C13" s="67">
         <v>0</v>
       </c>
-      <c r="D13" s="177">
+      <c r="D13" s="68">
         <v>20480</v>
       </c>
-      <c r="E13" s="177">
+      <c r="E13" s="68">
         <v>22528</v>
       </c>
-      <c r="F13" s="177">
+      <c r="F13" s="68">
         <v>24576</v>
       </c>
-      <c r="G13" s="177">
+      <c r="G13" s="68">
         <v>26624</v>
       </c>
-      <c r="H13" s="177">
+      <c r="H13" s="68">
         <v>28672</v>
       </c>
-      <c r="I13" s="177">
+      <c r="I13" s="68">
         <v>30720</v>
       </c>
-      <c r="J13" s="177">
+      <c r="J13" s="68">
         <v>32768</v>
       </c>
-      <c r="K13" s="177">
+      <c r="K13" s="68">
         <v>34816</v>
       </c>
-      <c r="L13" s="177">
+      <c r="L13" s="68">
         <v>36864</v>
       </c>
-      <c r="M13" s="177">
+      <c r="M13" s="68">
         <v>38912</v>
       </c>
       <c r="N13" s="63" t="b">
@@ -18615,34 +18615,34 @@
       <c r="C14" s="67">
         <v>0</v>
       </c>
-      <c r="D14" s="177">
+      <c r="D14" s="68">
         <v>40960</v>
       </c>
-      <c r="E14" s="177">
+      <c r="E14" s="68">
         <v>45056</v>
       </c>
-      <c r="F14" s="177">
+      <c r="F14" s="68">
         <v>49152</v>
       </c>
-      <c r="G14" s="177">
+      <c r="G14" s="68">
         <v>53248</v>
       </c>
-      <c r="H14" s="177">
+      <c r="H14" s="68">
         <v>57344</v>
       </c>
-      <c r="I14" s="177">
+      <c r="I14" s="68">
         <v>61440</v>
       </c>
-      <c r="J14" s="177">
+      <c r="J14" s="68">
         <v>65536</v>
       </c>
-      <c r="K14" s="177">
+      <c r="K14" s="68">
         <v>69632</v>
       </c>
-      <c r="L14" s="177">
+      <c r="L14" s="68">
         <v>73728</v>
       </c>
-      <c r="M14" s="177">
+      <c r="M14" s="68">
         <v>77824</v>
       </c>
       <c r="N14" s="63" t="b">
@@ -18659,34 +18659,34 @@
       <c r="C15" s="67">
         <v>0</v>
       </c>
-      <c r="D15" s="177">
+      <c r="D15" s="68">
         <v>81920</v>
       </c>
-      <c r="E15" s="177">
+      <c r="E15" s="68">
         <v>90112</v>
       </c>
-      <c r="F15" s="177">
+      <c r="F15" s="68">
         <v>98304</v>
       </c>
-      <c r="G15" s="177">
+      <c r="G15" s="68">
         <v>106496</v>
       </c>
-      <c r="H15" s="177">
+      <c r="H15" s="68">
         <v>114688</v>
       </c>
-      <c r="I15" s="177">
+      <c r="I15" s="68">
         <v>122880</v>
       </c>
-      <c r="J15" s="177">
+      <c r="J15" s="68">
         <v>131072</v>
       </c>
-      <c r="K15" s="177">
+      <c r="K15" s="68">
         <v>139264</v>
       </c>
-      <c r="L15" s="177">
+      <c r="L15" s="68">
         <v>147456</v>
       </c>
-      <c r="M15" s="177">
+      <c r="M15" s="68">
         <v>155648</v>
       </c>
       <c r="N15" s="63" t="b">
@@ -18703,34 +18703,34 @@
       <c r="C16" s="67">
         <v>0</v>
       </c>
-      <c r="D16" s="177">
+      <c r="D16" s="68">
         <v>163840</v>
       </c>
-      <c r="E16" s="177">
+      <c r="E16" s="68">
         <v>180224</v>
       </c>
-      <c r="F16" s="177">
+      <c r="F16" s="68">
         <v>196608</v>
       </c>
-      <c r="G16" s="177">
+      <c r="G16" s="68">
         <v>212992</v>
       </c>
-      <c r="H16" s="177">
+      <c r="H16" s="68">
         <v>229376</v>
       </c>
-      <c r="I16" s="177">
+      <c r="I16" s="68">
         <v>245760</v>
       </c>
-      <c r="J16" s="177">
+      <c r="J16" s="68">
         <v>262144</v>
       </c>
-      <c r="K16" s="177">
+      <c r="K16" s="68">
         <v>278528</v>
       </c>
-      <c r="L16" s="177">
+      <c r="L16" s="68">
         <v>294912</v>
       </c>
-      <c r="M16" s="177">
+      <c r="M16" s="68">
         <v>311296</v>
       </c>
       <c r="N16" s="63" t="b">
@@ -18747,34 +18747,34 @@
       <c r="C17" s="67">
         <v>0</v>
       </c>
-      <c r="D17" s="177">
+      <c r="D17" s="68">
         <v>327680</v>
       </c>
-      <c r="E17" s="177">
+      <c r="E17" s="68">
         <v>360448</v>
       </c>
-      <c r="F17" s="177">
+      <c r="F17" s="68">
         <v>393216</v>
       </c>
-      <c r="G17" s="177">
+      <c r="G17" s="68">
         <v>425984</v>
       </c>
-      <c r="H17" s="177">
+      <c r="H17" s="68">
         <v>458752</v>
       </c>
-      <c r="I17" s="177">
+      <c r="I17" s="68">
         <v>491520</v>
       </c>
-      <c r="J17" s="177">
+      <c r="J17" s="68">
         <v>524288</v>
       </c>
-      <c r="K17" s="177">
+      <c r="K17" s="68">
         <v>557056</v>
       </c>
-      <c r="L17" s="177">
+      <c r="L17" s="68">
         <v>589824</v>
       </c>
-      <c r="M17" s="177">
+      <c r="M17" s="68">
         <v>622592</v>
       </c>
       <c r="N17" s="63" t="b">
@@ -18791,34 +18791,34 @@
       <c r="C18" s="67">
         <v>0</v>
       </c>
-      <c r="D18" s="177">
+      <c r="D18" s="68">
         <v>655360</v>
       </c>
-      <c r="E18" s="177">
+      <c r="E18" s="68">
         <v>720896</v>
       </c>
-      <c r="F18" s="177">
+      <c r="F18" s="68">
         <v>786432</v>
       </c>
-      <c r="G18" s="177">
+      <c r="G18" s="68">
         <v>851968</v>
       </c>
-      <c r="H18" s="177">
+      <c r="H18" s="68">
         <v>917504</v>
       </c>
-      <c r="I18" s="177">
+      <c r="I18" s="68">
         <v>983040</v>
       </c>
-      <c r="J18" s="177">
+      <c r="J18" s="68">
         <v>1048576</v>
       </c>
-      <c r="K18" s="177">
+      <c r="K18" s="68">
         <v>1114112</v>
       </c>
-      <c r="L18" s="177">
+      <c r="L18" s="68">
         <v>1179648</v>
       </c>
-      <c r="M18" s="177">
+      <c r="M18" s="68">
         <v>1245184</v>
       </c>
       <c r="N18" s="63" t="b">
@@ -18835,34 +18835,34 @@
       <c r="C19" s="67">
         <v>0</v>
       </c>
-      <c r="D19" s="177">
+      <c r="D19" s="68">
         <v>1310720</v>
       </c>
-      <c r="E19" s="177">
+      <c r="E19" s="68">
         <v>1441792</v>
       </c>
-      <c r="F19" s="177">
+      <c r="F19" s="68">
         <v>1572864</v>
       </c>
-      <c r="G19" s="177">
+      <c r="G19" s="68">
         <v>1703936</v>
       </c>
-      <c r="H19" s="177">
+      <c r="H19" s="68">
         <v>1835008</v>
       </c>
-      <c r="I19" s="177">
+      <c r="I19" s="68">
         <v>1966080</v>
       </c>
-      <c r="J19" s="177">
+      <c r="J19" s="68">
         <v>2097152</v>
       </c>
-      <c r="K19" s="177">
+      <c r="K19" s="68">
         <v>2228224</v>
       </c>
-      <c r="L19" s="177">
+      <c r="L19" s="68">
         <v>2359296</v>
       </c>
-      <c r="M19" s="177">
+      <c r="M19" s="68">
         <v>2490368</v>
       </c>
       <c r="N19" s="63" t="b">
@@ -18879,34 +18879,34 @@
       <c r="C20" s="67">
         <v>0</v>
       </c>
-      <c r="D20" s="177">
+      <c r="D20" s="68">
         <v>2621440</v>
       </c>
-      <c r="E20" s="177">
+      <c r="E20" s="68">
         <v>2883584</v>
       </c>
-      <c r="F20" s="177">
+      <c r="F20" s="68">
         <v>3145728</v>
       </c>
-      <c r="G20" s="177">
+      <c r="G20" s="68">
         <v>3407872</v>
       </c>
-      <c r="H20" s="177">
+      <c r="H20" s="68">
         <v>3670016</v>
       </c>
-      <c r="I20" s="177">
+      <c r="I20" s="68">
         <v>3932160</v>
       </c>
-      <c r="J20" s="177">
+      <c r="J20" s="68">
         <v>4194304</v>
       </c>
-      <c r="K20" s="177">
+      <c r="K20" s="68">
         <v>4456448</v>
       </c>
-      <c r="L20" s="177">
+      <c r="L20" s="68">
         <v>4718592</v>
       </c>
-      <c r="M20" s="177">
+      <c r="M20" s="68">
         <v>4980736</v>
       </c>
       <c r="N20" s="63" t="b">
@@ -18923,34 +18923,34 @@
       <c r="C21" s="67">
         <v>0</v>
       </c>
-      <c r="D21" s="177">
+      <c r="D21" s="68">
         <v>5242880</v>
       </c>
-      <c r="E21" s="177">
+      <c r="E21" s="68">
         <v>5767168</v>
       </c>
-      <c r="F21" s="177">
+      <c r="F21" s="68">
         <v>6291456</v>
       </c>
-      <c r="G21" s="177">
+      <c r="G21" s="68">
         <v>6815744</v>
       </c>
-      <c r="H21" s="177">
+      <c r="H21" s="68">
         <v>7340032</v>
       </c>
-      <c r="I21" s="177">
+      <c r="I21" s="68">
         <v>7864320</v>
       </c>
-      <c r="J21" s="177">
+      <c r="J21" s="68">
         <v>8388608</v>
       </c>
-      <c r="K21" s="177">
+      <c r="K21" s="68">
         <v>8912896</v>
       </c>
-      <c r="L21" s="177">
+      <c r="L21" s="68">
         <v>9437184</v>
       </c>
-      <c r="M21" s="177">
+      <c r="M21" s="68">
         <v>9961472</v>
       </c>
       <c r="N21" s="63" t="b">
@@ -18978,38 +18978,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" s="169" t="s">
+      <c r="A1" s="170" t="s">
         <v>183</v>
       </c>
-      <c r="B1" s="169"/>
-      <c r="C1" s="169"/>
-      <c r="D1" s="169"/>
-      <c r="E1" s="169"/>
-      <c r="F1" s="169"/>
-      <c r="G1" s="169"/>
-      <c r="H1" s="169"/>
-      <c r="I1" s="169"/>
-      <c r="J1" s="169"/>
-      <c r="K1" s="169"/>
-      <c r="L1" s="169"/>
-      <c r="M1" s="169"/>
-      <c r="N1" s="169"/>
+      <c r="B1" s="170"/>
+      <c r="C1" s="170"/>
+      <c r="D1" s="170"/>
+      <c r="E1" s="170"/>
+      <c r="F1" s="170"/>
+      <c r="G1" s="170"/>
+      <c r="H1" s="170"/>
+      <c r="I1" s="170"/>
+      <c r="J1" s="170"/>
+      <c r="K1" s="170"/>
+      <c r="L1" s="170"/>
+      <c r="M1" s="170"/>
+      <c r="N1" s="170"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="170"/>
-      <c r="B2" s="170"/>
-      <c r="C2" s="170"/>
-      <c r="D2" s="170"/>
-      <c r="E2" s="170"/>
-      <c r="F2" s="170"/>
-      <c r="G2" s="170"/>
-      <c r="H2" s="170"/>
-      <c r="I2" s="170"/>
-      <c r="J2" s="170"/>
-      <c r="K2" s="170"/>
-      <c r="L2" s="170"/>
-      <c r="M2" s="170"/>
-      <c r="N2" s="170"/>
+      <c r="A2" s="171"/>
+      <c r="B2" s="171"/>
+      <c r="C2" s="171"/>
+      <c r="D2" s="171"/>
+      <c r="E2" s="171"/>
+      <c r="F2" s="171"/>
+      <c r="G2" s="171"/>
+      <c r="H2" s="171"/>
+      <c r="I2" s="171"/>
+      <c r="J2" s="171"/>
+      <c r="K2" s="171"/>
+      <c r="L2" s="171"/>
+      <c r="M2" s="171"/>
+      <c r="N2" s="171"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="38" t="s">
@@ -19523,11 +19523,11 @@
       <c r="A14" s="41"/>
       <c r="B14" s="41"/>
       <c r="C14" s="41"/>
-      <c r="D14" s="171" t="s">
+      <c r="D14" s="172" t="s">
         <v>184</v>
       </c>
-      <c r="E14" s="171"/>
-      <c r="F14" s="171"/>
+      <c r="E14" s="172"/>
+      <c r="F14" s="172"/>
       <c r="G14" s="41"/>
       <c r="H14" s="41"/>
       <c r="I14" s="41"/>
@@ -19587,23 +19587,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C1" s="155" t="s">
+      <c r="C1" s="156" t="s">
         <v>63</v>
       </c>
-      <c r="D1" s="155"/>
-      <c r="E1" s="155"/>
-      <c r="F1" s="155"/>
-      <c r="G1" s="155"/>
+      <c r="D1" s="156"/>
+      <c r="E1" s="156"/>
+      <c r="F1" s="156"/>
+      <c r="G1" s="156"/>
       <c r="I1" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="2" spans="3:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C2" s="155"/>
-      <c r="D2" s="155"/>
-      <c r="E2" s="155"/>
-      <c r="F2" s="155"/>
-      <c r="G2" s="155"/>
+      <c r="C2" s="156"/>
+      <c r="D2" s="156"/>
+      <c r="E2" s="156"/>
+      <c r="F2" s="156"/>
+      <c r="G2" s="156"/>
       <c r="I2" t="s">
         <v>101</v>
       </c>
@@ -19644,7 +19644,7 @@
       </c>
     </row>
     <row r="4" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C4" s="174" t="s">
+      <c r="C4" s="175" t="s">
         <v>32</v>
       </c>
       <c r="D4" s="13" t="s">
@@ -19679,7 +19679,7 @@
       </c>
     </row>
     <row r="5" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C5" s="175"/>
+      <c r="C5" s="176"/>
       <c r="D5" s="13" t="s">
         <v>34</v>
       </c>
@@ -19712,7 +19712,7 @@
       </c>
     </row>
     <row r="6" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C6" s="175"/>
+      <c r="C6" s="176"/>
       <c r="D6" s="13" t="s">
         <v>35</v>
       </c>
@@ -19745,7 +19745,7 @@
       </c>
     </row>
     <row r="7" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C7" s="175"/>
+      <c r="C7" s="176"/>
       <c r="D7" s="13" t="s">
         <v>36</v>
       </c>
@@ -19778,7 +19778,7 @@
       </c>
     </row>
     <row r="8" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C8" s="175"/>
+      <c r="C8" s="176"/>
       <c r="D8" s="13" t="s">
         <v>37</v>
       </c>
@@ -19811,7 +19811,7 @@
       </c>
     </row>
     <row r="9" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C9" s="175"/>
+      <c r="C9" s="176"/>
       <c r="D9" s="13" t="s">
         <v>38</v>
       </c>
@@ -19844,7 +19844,7 @@
       </c>
     </row>
     <row r="10" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="175"/>
+      <c r="C10" s="176"/>
       <c r="D10" s="13" t="s">
         <v>39</v>
       </c>
@@ -19877,7 +19877,7 @@
       </c>
     </row>
     <row r="11" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C11" s="175"/>
+      <c r="C11" s="176"/>
       <c r="D11" s="13" t="s">
         <v>40</v>
       </c>
@@ -19910,7 +19910,7 @@
       </c>
     </row>
     <row r="12" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C12" s="172" t="s">
+      <c r="C12" s="173" t="s">
         <v>42</v>
       </c>
       <c r="D12" s="14" t="s">
@@ -19945,7 +19945,7 @@
       </c>
     </row>
     <row r="13" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C13" s="173"/>
+      <c r="C13" s="174"/>
       <c r="D13" s="14" t="s">
         <v>44</v>
       </c>
@@ -19978,7 +19978,7 @@
       </c>
     </row>
     <row r="14" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C14" s="173"/>
+      <c r="C14" s="174"/>
       <c r="D14" s="14" t="s">
         <v>45</v>
       </c>
@@ -20011,7 +20011,7 @@
       </c>
     </row>
     <row r="15" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C15" s="173"/>
+      <c r="C15" s="174"/>
       <c r="D15" s="14" t="s">
         <v>46</v>
       </c>
@@ -20044,7 +20044,7 @@
       </c>
     </row>
     <row r="16" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C16" s="173"/>
+      <c r="C16" s="174"/>
       <c r="D16" s="14" t="s">
         <v>47</v>
       </c>
@@ -20077,7 +20077,7 @@
       </c>
     </row>
     <row r="17" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C17" s="173"/>
+      <c r="C17" s="174"/>
       <c r="D17" s="14" t="s">
         <v>48</v>
       </c>
@@ -20110,7 +20110,7 @@
       </c>
     </row>
     <row r="18" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C18" s="173"/>
+      <c r="C18" s="174"/>
       <c r="D18" s="14" t="s">
         <v>49</v>
       </c>
@@ -20143,7 +20143,7 @@
       </c>
     </row>
     <row r="19" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C19" s="173"/>
+      <c r="C19" s="174"/>
       <c r="D19" s="14" t="s">
         <v>50</v>
       </c>
@@ -20208,14 +20208,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="176" t="s">
+      <c r="B2" s="177" t="s">
         <v>128</v>
       </c>
-      <c r="C2" s="155"/>
+      <c r="C2" s="156"/>
     </row>
     <row r="3" spans="2:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="155"/>
-      <c r="C3" s="155"/>
+      <c r="B3" s="156"/>
+      <c r="C3" s="156"/>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B4" s="24" t="s">
@@ -21153,22 +21153,22 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="169" t="s">
+      <c r="B2" s="170" t="s">
         <v>144</v>
       </c>
-      <c r="C2" s="169"/>
-      <c r="D2" s="169"/>
-      <c r="E2" s="169"/>
-      <c r="F2" s="169"/>
-      <c r="G2" s="169"/>
+      <c r="C2" s="170"/>
+      <c r="D2" s="170"/>
+      <c r="E2" s="170"/>
+      <c r="F2" s="170"/>
+      <c r="G2" s="170"/>
     </row>
     <row r="3" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="170"/>
-      <c r="C3" s="170"/>
-      <c r="D3" s="170"/>
-      <c r="E3" s="170"/>
-      <c r="F3" s="170"/>
-      <c r="G3" s="170"/>
+      <c r="B3" s="171"/>
+      <c r="C3" s="171"/>
+      <c r="D3" s="171"/>
+      <c r="E3" s="171"/>
+      <c r="F3" s="171"/>
+      <c r="G3" s="171"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B4" s="38" t="s">

--- a/Project1/Assets/Script/Data/weaponDB.xlsx
+++ b/Project1/Assets/Script/Data/weaponDB.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\whdns\OneDrive\바탕 화면\새 폴더\TeamProject1\Project1\Assets\Script\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\whdns\OneDrive\바탕 화면\나만의 삼\TeamProject1\Project1\Assets\Script\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6B464BD-2E9C-4D37-A8E6-434F66F3973A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E791505-E596-401F-A9C3-4A6E97B7EC39}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9510" yWindow="2325" windowWidth="14580" windowHeight="9945" tabRatio="599" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="599" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="시스템 기획" sheetId="2" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="739" uniqueCount="216">
   <si>
     <t>훈련 [ n = 레벨 값 ]</t>
   </si>
@@ -1196,6 +1196,38 @@
     <t>weapon20</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>weapon21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>weapon22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>weapon23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>weapon24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>weapon25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>weapon26</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>weapon27</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>weapon28</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -1205,7 +1237,7 @@
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1353,6 +1385,13 @@
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="17">
@@ -1820,7 +1859,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="178">
+  <cellXfs count="181">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2028,16 +2067,34 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2067,78 +2124,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2161,6 +2146,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2229,13 +2226,55 @@
     <xf numFmtId="0" fontId="2" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2287,6 +2326,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2354,6 +2396,12 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2738,33 +2786,33 @@
     </row>
     <row r="2" spans="1:48" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8"/>
-      <c r="B2" s="97" t="s">
+      <c r="B2" s="70" t="s">
         <v>68</v>
       </c>
-      <c r="C2" s="98"/>
-      <c r="D2" s="98"/>
-      <c r="E2" s="98"/>
-      <c r="F2" s="98"/>
-      <c r="G2" s="98"/>
-      <c r="H2" s="98"/>
-      <c r="I2" s="98"/>
-      <c r="J2" s="98"/>
-      <c r="K2" s="98"/>
-      <c r="L2" s="98"/>
-      <c r="M2" s="98"/>
-      <c r="N2" s="98"/>
-      <c r="O2" s="98"/>
-      <c r="P2" s="98"/>
-      <c r="Q2" s="98"/>
-      <c r="R2" s="98"/>
-      <c r="S2" s="98"/>
-      <c r="T2" s="98"/>
-      <c r="U2" s="98"/>
-      <c r="V2" s="98"/>
-      <c r="W2" s="98"/>
-      <c r="X2" s="98"/>
-      <c r="Y2" s="98"/>
-      <c r="Z2" s="99"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="71"/>
+      <c r="I2" s="71"/>
+      <c r="J2" s="71"/>
+      <c r="K2" s="71"/>
+      <c r="L2" s="71"/>
+      <c r="M2" s="71"/>
+      <c r="N2" s="71"/>
+      <c r="O2" s="71"/>
+      <c r="P2" s="71"/>
+      <c r="Q2" s="71"/>
+      <c r="R2" s="71"/>
+      <c r="S2" s="71"/>
+      <c r="T2" s="71"/>
+      <c r="U2" s="71"/>
+      <c r="V2" s="71"/>
+      <c r="W2" s="71"/>
+      <c r="X2" s="71"/>
+      <c r="Y2" s="71"/>
+      <c r="Z2" s="72"/>
       <c r="AA2" s="8"/>
       <c r="AB2" s="8"/>
       <c r="AC2" s="8"/>
@@ -2790,31 +2838,31 @@
     </row>
     <row r="3" spans="1:48" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="8"/>
-      <c r="B3" s="100"/>
-      <c r="C3" s="101"/>
-      <c r="D3" s="101"/>
-      <c r="E3" s="101"/>
-      <c r="F3" s="101"/>
-      <c r="G3" s="101"/>
-      <c r="H3" s="101"/>
-      <c r="I3" s="101"/>
-      <c r="J3" s="101"/>
-      <c r="K3" s="101"/>
-      <c r="L3" s="101"/>
-      <c r="M3" s="101"/>
-      <c r="N3" s="101"/>
-      <c r="O3" s="101"/>
-      <c r="P3" s="101"/>
-      <c r="Q3" s="101"/>
-      <c r="R3" s="101"/>
-      <c r="S3" s="101"/>
-      <c r="T3" s="101"/>
-      <c r="U3" s="101"/>
-      <c r="V3" s="101"/>
-      <c r="W3" s="101"/>
-      <c r="X3" s="101"/>
-      <c r="Y3" s="101"/>
-      <c r="Z3" s="102"/>
+      <c r="B3" s="73"/>
+      <c r="C3" s="74"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="74"/>
+      <c r="H3" s="74"/>
+      <c r="I3" s="74"/>
+      <c r="J3" s="74"/>
+      <c r="K3" s="74"/>
+      <c r="L3" s="74"/>
+      <c r="M3" s="74"/>
+      <c r="N3" s="74"/>
+      <c r="O3" s="74"/>
+      <c r="P3" s="74"/>
+      <c r="Q3" s="74"/>
+      <c r="R3" s="74"/>
+      <c r="S3" s="74"/>
+      <c r="T3" s="74"/>
+      <c r="U3" s="74"/>
+      <c r="V3" s="74"/>
+      <c r="W3" s="74"/>
+      <c r="X3" s="74"/>
+      <c r="Y3" s="74"/>
+      <c r="Z3" s="75"/>
       <c r="AA3" s="8"/>
       <c r="AB3" s="8"/>
       <c r="AC3" s="8"/>
@@ -2840,31 +2888,31 @@
     </row>
     <row r="4" spans="1:48" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="8"/>
-      <c r="B4" s="103"/>
-      <c r="C4" s="104"/>
-      <c r="D4" s="104"/>
-      <c r="E4" s="104"/>
-      <c r="F4" s="104"/>
-      <c r="G4" s="104"/>
-      <c r="H4" s="104"/>
-      <c r="I4" s="104"/>
-      <c r="J4" s="104"/>
-      <c r="K4" s="104"/>
-      <c r="L4" s="104"/>
-      <c r="M4" s="104"/>
-      <c r="N4" s="104"/>
-      <c r="O4" s="104"/>
-      <c r="P4" s="104"/>
-      <c r="Q4" s="104"/>
-      <c r="R4" s="104"/>
-      <c r="S4" s="104"/>
-      <c r="T4" s="104"/>
-      <c r="U4" s="104"/>
-      <c r="V4" s="104"/>
-      <c r="W4" s="104"/>
-      <c r="X4" s="104"/>
-      <c r="Y4" s="104"/>
-      <c r="Z4" s="105"/>
+      <c r="B4" s="76"/>
+      <c r="C4" s="77"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="77"/>
+      <c r="H4" s="77"/>
+      <c r="I4" s="77"/>
+      <c r="J4" s="77"/>
+      <c r="K4" s="77"/>
+      <c r="L4" s="77"/>
+      <c r="M4" s="77"/>
+      <c r="N4" s="77"/>
+      <c r="O4" s="77"/>
+      <c r="P4" s="77"/>
+      <c r="Q4" s="77"/>
+      <c r="R4" s="77"/>
+      <c r="S4" s="77"/>
+      <c r="T4" s="77"/>
+      <c r="U4" s="77"/>
+      <c r="V4" s="77"/>
+      <c r="W4" s="77"/>
+      <c r="X4" s="77"/>
+      <c r="Y4" s="77"/>
+      <c r="Z4" s="78"/>
       <c r="AA4" s="8"/>
       <c r="AB4" s="8"/>
       <c r="AC4" s="8"/>
@@ -2990,10 +3038,10 @@
     </row>
     <row r="7" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A7" s="8"/>
-      <c r="B7" s="132" t="s">
+      <c r="B7" s="118" t="s">
         <v>67</v>
       </c>
-      <c r="C7" s="133"/>
+      <c r="C7" s="119"/>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
@@ -3042,8 +3090,8 @@
     </row>
     <row r="8" spans="1:48" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="8"/>
-      <c r="B8" s="134"/>
-      <c r="C8" s="135"/>
+      <c r="B8" s="120"/>
+      <c r="C8" s="121"/>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
@@ -3152,27 +3200,27 @@
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
-      <c r="L10" s="120" t="s">
+      <c r="L10" s="106" t="s">
         <v>69</v>
       </c>
-      <c r="M10" s="121"/>
-      <c r="N10" s="114" t="s">
+      <c r="M10" s="107"/>
+      <c r="N10" s="100" t="s">
         <v>24</v>
       </c>
-      <c r="O10" s="115"/>
-      <c r="P10" s="73" t="s">
+      <c r="O10" s="101"/>
+      <c r="P10" s="79" t="s">
         <v>127</v>
       </c>
-      <c r="Q10" s="74"/>
-      <c r="R10" s="74"/>
-      <c r="S10" s="74"/>
-      <c r="T10" s="74"/>
-      <c r="U10" s="74"/>
-      <c r="V10" s="74"/>
-      <c r="W10" s="74"/>
-      <c r="X10" s="74"/>
-      <c r="Y10" s="74"/>
-      <c r="Z10" s="75"/>
+      <c r="Q10" s="80"/>
+      <c r="R10" s="80"/>
+      <c r="S10" s="80"/>
+      <c r="T10" s="80"/>
+      <c r="U10" s="80"/>
+      <c r="V10" s="80"/>
+      <c r="W10" s="80"/>
+      <c r="X10" s="80"/>
+      <c r="Y10" s="80"/>
+      <c r="Z10" s="81"/>
       <c r="AA10" s="8"/>
       <c r="AB10" s="8"/>
       <c r="AC10" s="8"/>
@@ -3208,21 +3256,21 @@
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
-      <c r="L11" s="122"/>
-      <c r="M11" s="123"/>
-      <c r="N11" s="116"/>
-      <c r="O11" s="117"/>
-      <c r="P11" s="76"/>
-      <c r="Q11" s="77"/>
-      <c r="R11" s="77"/>
-      <c r="S11" s="77"/>
-      <c r="T11" s="77"/>
-      <c r="U11" s="77"/>
-      <c r="V11" s="77"/>
-      <c r="W11" s="77"/>
-      <c r="X11" s="77"/>
-      <c r="Y11" s="77"/>
-      <c r="Z11" s="78"/>
+      <c r="L11" s="108"/>
+      <c r="M11" s="109"/>
+      <c r="N11" s="102"/>
+      <c r="O11" s="103"/>
+      <c r="P11" s="82"/>
+      <c r="Q11" s="83"/>
+      <c r="R11" s="83"/>
+      <c r="S11" s="83"/>
+      <c r="T11" s="83"/>
+      <c r="U11" s="83"/>
+      <c r="V11" s="83"/>
+      <c r="W11" s="83"/>
+      <c r="X11" s="83"/>
+      <c r="Y11" s="83"/>
+      <c r="Z11" s="84"/>
       <c r="AA11" s="8"/>
       <c r="AB11" s="8"/>
       <c r="AC11" s="8"/>
@@ -3258,21 +3306,21 @@
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
-      <c r="L12" s="122"/>
-      <c r="M12" s="123"/>
-      <c r="N12" s="116"/>
-      <c r="O12" s="117"/>
-      <c r="P12" s="76"/>
-      <c r="Q12" s="77"/>
-      <c r="R12" s="77"/>
-      <c r="S12" s="77"/>
-      <c r="T12" s="77"/>
-      <c r="U12" s="77"/>
-      <c r="V12" s="77"/>
-      <c r="W12" s="77"/>
-      <c r="X12" s="77"/>
-      <c r="Y12" s="77"/>
-      <c r="Z12" s="78"/>
+      <c r="L12" s="108"/>
+      <c r="M12" s="109"/>
+      <c r="N12" s="102"/>
+      <c r="O12" s="103"/>
+      <c r="P12" s="82"/>
+      <c r="Q12" s="83"/>
+      <c r="R12" s="83"/>
+      <c r="S12" s="83"/>
+      <c r="T12" s="83"/>
+      <c r="U12" s="83"/>
+      <c r="V12" s="83"/>
+      <c r="W12" s="83"/>
+      <c r="X12" s="83"/>
+      <c r="Y12" s="83"/>
+      <c r="Z12" s="84"/>
       <c r="AA12" s="8"/>
       <c r="AB12" s="8"/>
       <c r="AC12" s="8"/>
@@ -3300,33 +3348,33 @@
       <c r="A13" s="8"/>
       <c r="B13" s="28"/>
       <c r="C13" s="29"/>
-      <c r="D13" s="132" t="s">
+      <c r="D13" s="118" t="s">
         <v>69</v>
       </c>
-      <c r="E13" s="133"/>
+      <c r="E13" s="119"/>
       <c r="F13" s="30"/>
       <c r="G13" s="31"/>
-      <c r="H13" s="110" t="s">
+      <c r="H13" s="92" t="s">
         <v>71</v>
       </c>
-      <c r="I13" s="111"/>
+      <c r="I13" s="93"/>
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
-      <c r="L13" s="122"/>
-      <c r="M13" s="123"/>
-      <c r="N13" s="118"/>
-      <c r="O13" s="119"/>
-      <c r="P13" s="79"/>
-      <c r="Q13" s="80"/>
-      <c r="R13" s="80"/>
-      <c r="S13" s="80"/>
-      <c r="T13" s="80"/>
-      <c r="U13" s="80"/>
-      <c r="V13" s="80"/>
-      <c r="W13" s="80"/>
-      <c r="X13" s="80"/>
-      <c r="Y13" s="80"/>
-      <c r="Z13" s="81"/>
+      <c r="L13" s="108"/>
+      <c r="M13" s="109"/>
+      <c r="N13" s="104"/>
+      <c r="O13" s="105"/>
+      <c r="P13" s="85"/>
+      <c r="Q13" s="86"/>
+      <c r="R13" s="86"/>
+      <c r="S13" s="86"/>
+      <c r="T13" s="86"/>
+      <c r="U13" s="86"/>
+      <c r="V13" s="86"/>
+      <c r="W13" s="86"/>
+      <c r="X13" s="86"/>
+      <c r="Y13" s="86"/>
+      <c r="Z13" s="87"/>
       <c r="AA13" s="8"/>
       <c r="AB13" s="8"/>
       <c r="AC13" s="8"/>
@@ -3354,33 +3402,33 @@
       <c r="A14" s="8"/>
       <c r="B14" s="8"/>
       <c r="C14" s="32"/>
-      <c r="D14" s="134"/>
-      <c r="E14" s="135"/>
+      <c r="D14" s="120"/>
+      <c r="E14" s="121"/>
       <c r="F14" s="33"/>
       <c r="G14" s="8"/>
-      <c r="H14" s="112"/>
-      <c r="I14" s="113"/>
+      <c r="H14" s="94"/>
+      <c r="I14" s="95"/>
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
-      <c r="L14" s="122"/>
-      <c r="M14" s="123"/>
-      <c r="N14" s="114" t="s">
+      <c r="L14" s="108"/>
+      <c r="M14" s="109"/>
+      <c r="N14" s="100" t="s">
         <v>70</v>
       </c>
-      <c r="O14" s="115"/>
-      <c r="P14" s="73" t="s">
+      <c r="O14" s="101"/>
+      <c r="P14" s="79" t="s">
         <v>125</v>
       </c>
-      <c r="Q14" s="74"/>
-      <c r="R14" s="74"/>
-      <c r="S14" s="74"/>
-      <c r="T14" s="74"/>
-      <c r="U14" s="74"/>
-      <c r="V14" s="74"/>
-      <c r="W14" s="74"/>
-      <c r="X14" s="74"/>
-      <c r="Y14" s="74"/>
-      <c r="Z14" s="75"/>
+      <c r="Q14" s="80"/>
+      <c r="R14" s="80"/>
+      <c r="S14" s="80"/>
+      <c r="T14" s="80"/>
+      <c r="U14" s="80"/>
+      <c r="V14" s="80"/>
+      <c r="W14" s="80"/>
+      <c r="X14" s="80"/>
+      <c r="Y14" s="80"/>
+      <c r="Z14" s="81"/>
       <c r="AA14" s="8"/>
       <c r="AB14" s="8"/>
       <c r="AC14" s="8"/>
@@ -3416,21 +3464,21 @@
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
-      <c r="L15" s="122"/>
-      <c r="M15" s="123"/>
-      <c r="N15" s="116"/>
-      <c r="O15" s="117"/>
-      <c r="P15" s="76"/>
-      <c r="Q15" s="77"/>
-      <c r="R15" s="77"/>
-      <c r="S15" s="77"/>
-      <c r="T15" s="77"/>
-      <c r="U15" s="77"/>
-      <c r="V15" s="77"/>
-      <c r="W15" s="77"/>
-      <c r="X15" s="77"/>
-      <c r="Y15" s="77"/>
-      <c r="Z15" s="78"/>
+      <c r="L15" s="108"/>
+      <c r="M15" s="109"/>
+      <c r="N15" s="102"/>
+      <c r="O15" s="103"/>
+      <c r="P15" s="82"/>
+      <c r="Q15" s="83"/>
+      <c r="R15" s="83"/>
+      <c r="S15" s="83"/>
+      <c r="T15" s="83"/>
+      <c r="U15" s="83"/>
+      <c r="V15" s="83"/>
+      <c r="W15" s="83"/>
+      <c r="X15" s="83"/>
+      <c r="Y15" s="83"/>
+      <c r="Z15" s="84"/>
       <c r="AA15" s="8"/>
       <c r="AB15" s="8"/>
       <c r="AC15" s="8"/>
@@ -3466,21 +3514,21 @@
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
-      <c r="L16" s="122"/>
-      <c r="M16" s="123"/>
-      <c r="N16" s="116"/>
-      <c r="O16" s="117"/>
-      <c r="P16" s="76"/>
-      <c r="Q16" s="77"/>
-      <c r="R16" s="77"/>
-      <c r="S16" s="77"/>
-      <c r="T16" s="77"/>
-      <c r="U16" s="77"/>
-      <c r="V16" s="77"/>
-      <c r="W16" s="77"/>
-      <c r="X16" s="77"/>
-      <c r="Y16" s="77"/>
-      <c r="Z16" s="78"/>
+      <c r="L16" s="108"/>
+      <c r="M16" s="109"/>
+      <c r="N16" s="102"/>
+      <c r="O16" s="103"/>
+      <c r="P16" s="82"/>
+      <c r="Q16" s="83"/>
+      <c r="R16" s="83"/>
+      <c r="S16" s="83"/>
+      <c r="T16" s="83"/>
+      <c r="U16" s="83"/>
+      <c r="V16" s="83"/>
+      <c r="W16" s="83"/>
+      <c r="X16" s="83"/>
+      <c r="Y16" s="83"/>
+      <c r="Z16" s="84"/>
       <c r="AA16" s="8"/>
       <c r="AB16" s="8"/>
       <c r="AC16" s="8"/>
@@ -3512,27 +3560,27 @@
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="34"/>
-      <c r="H17" s="110" t="s">
+      <c r="H17" s="92" t="s">
         <v>70</v>
       </c>
-      <c r="I17" s="111"/>
+      <c r="I17" s="93"/>
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
-      <c r="L17" s="124"/>
-      <c r="M17" s="125"/>
-      <c r="N17" s="118"/>
-      <c r="O17" s="119"/>
-      <c r="P17" s="79"/>
-      <c r="Q17" s="80"/>
-      <c r="R17" s="80"/>
-      <c r="S17" s="80"/>
-      <c r="T17" s="80"/>
-      <c r="U17" s="80"/>
-      <c r="V17" s="80"/>
-      <c r="W17" s="80"/>
-      <c r="X17" s="80"/>
-      <c r="Y17" s="80"/>
-      <c r="Z17" s="81"/>
+      <c r="L17" s="110"/>
+      <c r="M17" s="111"/>
+      <c r="N17" s="104"/>
+      <c r="O17" s="105"/>
+      <c r="P17" s="85"/>
+      <c r="Q17" s="86"/>
+      <c r="R17" s="86"/>
+      <c r="S17" s="86"/>
+      <c r="T17" s="86"/>
+      <c r="U17" s="86"/>
+      <c r="V17" s="86"/>
+      <c r="W17" s="86"/>
+      <c r="X17" s="86"/>
+      <c r="Y17" s="86"/>
+      <c r="Z17" s="87"/>
       <c r="AA17" s="8"/>
       <c r="AB17" s="8"/>
       <c r="AC17" s="8"/>
@@ -3564,31 +3612,31 @@
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="35"/>
-      <c r="H18" s="112"/>
-      <c r="I18" s="113"/>
+      <c r="H18" s="94"/>
+      <c r="I18" s="95"/>
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
-      <c r="L18" s="126" t="s">
+      <c r="L18" s="112" t="s">
         <v>72</v>
       </c>
-      <c r="M18" s="127"/>
-      <c r="N18" s="95" t="s">
+      <c r="M18" s="113"/>
+      <c r="N18" s="130" t="s">
         <v>73</v>
       </c>
-      <c r="O18" s="90"/>
-      <c r="P18" s="73" t="s">
+      <c r="O18" s="131"/>
+      <c r="P18" s="79" t="s">
         <v>124</v>
       </c>
-      <c r="Q18" s="82"/>
-      <c r="R18" s="82"/>
-      <c r="S18" s="82"/>
-      <c r="T18" s="82"/>
-      <c r="U18" s="82"/>
-      <c r="V18" s="82"/>
-      <c r="W18" s="82"/>
-      <c r="X18" s="82"/>
-      <c r="Y18" s="82"/>
-      <c r="Z18" s="83"/>
+      <c r="Q18" s="125"/>
+      <c r="R18" s="125"/>
+      <c r="S18" s="125"/>
+      <c r="T18" s="125"/>
+      <c r="U18" s="125"/>
+      <c r="V18" s="125"/>
+      <c r="W18" s="125"/>
+      <c r="X18" s="125"/>
+      <c r="Y18" s="125"/>
+      <c r="Z18" s="126"/>
       <c r="AA18" s="8"/>
       <c r="AB18" s="8"/>
       <c r="AC18" s="8"/>
@@ -3624,21 +3672,21 @@
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
       <c r="K19" s="8"/>
-      <c r="L19" s="128"/>
-      <c r="M19" s="129"/>
-      <c r="N19" s="96"/>
-      <c r="O19" s="94"/>
-      <c r="P19" s="84"/>
-      <c r="Q19" s="85"/>
-      <c r="R19" s="85"/>
-      <c r="S19" s="85"/>
-      <c r="T19" s="85"/>
-      <c r="U19" s="85"/>
-      <c r="V19" s="85"/>
-      <c r="W19" s="85"/>
-      <c r="X19" s="85"/>
-      <c r="Y19" s="85"/>
-      <c r="Z19" s="86"/>
+      <c r="L19" s="114"/>
+      <c r="M19" s="115"/>
+      <c r="N19" s="132"/>
+      <c r="O19" s="133"/>
+      <c r="P19" s="127"/>
+      <c r="Q19" s="128"/>
+      <c r="R19" s="128"/>
+      <c r="S19" s="128"/>
+      <c r="T19" s="128"/>
+      <c r="U19" s="128"/>
+      <c r="V19" s="128"/>
+      <c r="W19" s="128"/>
+      <c r="X19" s="128"/>
+      <c r="Y19" s="128"/>
+      <c r="Z19" s="129"/>
       <c r="AA19" s="8"/>
       <c r="AB19" s="8"/>
       <c r="AC19" s="8"/>
@@ -3674,25 +3722,25 @@
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
-      <c r="L20" s="128"/>
-      <c r="M20" s="129"/>
-      <c r="N20" s="95" t="s">
+      <c r="L20" s="114"/>
+      <c r="M20" s="115"/>
+      <c r="N20" s="130" t="s">
         <v>74</v>
       </c>
-      <c r="O20" s="90"/>
-      <c r="P20" s="87" t="s">
+      <c r="O20" s="131"/>
+      <c r="P20" s="134" t="s">
         <v>123</v>
       </c>
-      <c r="Q20" s="82"/>
-      <c r="R20" s="82"/>
-      <c r="S20" s="82"/>
-      <c r="T20" s="82"/>
-      <c r="U20" s="82"/>
-      <c r="V20" s="82"/>
-      <c r="W20" s="82"/>
-      <c r="X20" s="82"/>
-      <c r="Y20" s="82"/>
-      <c r="Z20" s="83"/>
+      <c r="Q20" s="125"/>
+      <c r="R20" s="125"/>
+      <c r="S20" s="125"/>
+      <c r="T20" s="125"/>
+      <c r="U20" s="125"/>
+      <c r="V20" s="125"/>
+      <c r="W20" s="125"/>
+      <c r="X20" s="125"/>
+      <c r="Y20" s="125"/>
+      <c r="Z20" s="126"/>
       <c r="AA20" s="8"/>
       <c r="AB20" s="8"/>
       <c r="AC20" s="8"/>
@@ -3720,33 +3768,33 @@
       <c r="A21" s="8"/>
       <c r="B21" s="8"/>
       <c r="C21" s="29"/>
-      <c r="D21" s="106" t="s">
+      <c r="D21" s="88" t="s">
         <v>72</v>
       </c>
-      <c r="E21" s="107"/>
+      <c r="E21" s="89"/>
       <c r="F21" s="30"/>
       <c r="G21" s="31"/>
-      <c r="H21" s="69" t="s">
+      <c r="H21" s="96" t="s">
         <v>73</v>
       </c>
-      <c r="I21" s="70"/>
+      <c r="I21" s="97"/>
       <c r="J21" s="8"/>
       <c r="K21" s="8"/>
-      <c r="L21" s="128"/>
-      <c r="M21" s="129"/>
-      <c r="N21" s="96"/>
-      <c r="O21" s="94"/>
-      <c r="P21" s="84"/>
-      <c r="Q21" s="85"/>
-      <c r="R21" s="85"/>
-      <c r="S21" s="85"/>
-      <c r="T21" s="85"/>
-      <c r="U21" s="85"/>
-      <c r="V21" s="85"/>
-      <c r="W21" s="85"/>
-      <c r="X21" s="85"/>
-      <c r="Y21" s="85"/>
-      <c r="Z21" s="86"/>
+      <c r="L21" s="114"/>
+      <c r="M21" s="115"/>
+      <c r="N21" s="132"/>
+      <c r="O21" s="133"/>
+      <c r="P21" s="127"/>
+      <c r="Q21" s="128"/>
+      <c r="R21" s="128"/>
+      <c r="S21" s="128"/>
+      <c r="T21" s="128"/>
+      <c r="U21" s="128"/>
+      <c r="V21" s="128"/>
+      <c r="W21" s="128"/>
+      <c r="X21" s="128"/>
+      <c r="Y21" s="128"/>
+      <c r="Z21" s="129"/>
       <c r="AA21" s="8"/>
       <c r="AB21" s="8"/>
       <c r="AC21" s="8"/>
@@ -3774,33 +3822,33 @@
       <c r="A22" s="8"/>
       <c r="B22" s="8"/>
       <c r="C22" s="36"/>
-      <c r="D22" s="108"/>
-      <c r="E22" s="109"/>
+      <c r="D22" s="90"/>
+      <c r="E22" s="91"/>
       <c r="F22" s="33"/>
       <c r="G22" s="8"/>
-      <c r="H22" s="71"/>
-      <c r="I22" s="72"/>
+      <c r="H22" s="98"/>
+      <c r="I22" s="99"/>
       <c r="J22" s="8"/>
       <c r="K22" s="8"/>
-      <c r="L22" s="128"/>
-      <c r="M22" s="129"/>
-      <c r="N22" s="89" t="s">
+      <c r="L22" s="114"/>
+      <c r="M22" s="115"/>
+      <c r="N22" s="122" t="s">
         <v>75</v>
       </c>
-      <c r="O22" s="90"/>
-      <c r="P22" s="88" t="s">
+      <c r="O22" s="131"/>
+      <c r="P22" s="135" t="s">
         <v>122</v>
       </c>
-      <c r="Q22" s="74"/>
-      <c r="R22" s="74"/>
-      <c r="S22" s="74"/>
-      <c r="T22" s="74"/>
-      <c r="U22" s="74"/>
-      <c r="V22" s="74"/>
-      <c r="W22" s="74"/>
-      <c r="X22" s="74"/>
-      <c r="Y22" s="74"/>
-      <c r="Z22" s="75"/>
+      <c r="Q22" s="80"/>
+      <c r="R22" s="80"/>
+      <c r="S22" s="80"/>
+      <c r="T22" s="80"/>
+      <c r="U22" s="80"/>
+      <c r="V22" s="80"/>
+      <c r="W22" s="80"/>
+      <c r="X22" s="80"/>
+      <c r="Y22" s="80"/>
+      <c r="Z22" s="81"/>
       <c r="AA22" s="8"/>
       <c r="AB22" s="8"/>
       <c r="AC22" s="8"/>
@@ -3836,21 +3884,21 @@
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
       <c r="K23" s="8"/>
-      <c r="L23" s="128"/>
-      <c r="M23" s="129"/>
-      <c r="N23" s="91"/>
-      <c r="O23" s="92"/>
-      <c r="P23" s="76"/>
-      <c r="Q23" s="77"/>
-      <c r="R23" s="77"/>
-      <c r="S23" s="77"/>
-      <c r="T23" s="77"/>
-      <c r="U23" s="77"/>
-      <c r="V23" s="77"/>
-      <c r="W23" s="77"/>
-      <c r="X23" s="77"/>
-      <c r="Y23" s="77"/>
-      <c r="Z23" s="78"/>
+      <c r="L23" s="114"/>
+      <c r="M23" s="115"/>
+      <c r="N23" s="123"/>
+      <c r="O23" s="136"/>
+      <c r="P23" s="82"/>
+      <c r="Q23" s="83"/>
+      <c r="R23" s="83"/>
+      <c r="S23" s="83"/>
+      <c r="T23" s="83"/>
+      <c r="U23" s="83"/>
+      <c r="V23" s="83"/>
+      <c r="W23" s="83"/>
+      <c r="X23" s="83"/>
+      <c r="Y23" s="83"/>
+      <c r="Z23" s="84"/>
       <c r="AA23" s="8"/>
       <c r="AB23" s="8"/>
       <c r="AC23" s="8"/>
@@ -3886,21 +3934,21 @@
       <c r="I24" s="8"/>
       <c r="J24" s="8"/>
       <c r="K24" s="8"/>
-      <c r="L24" s="128"/>
-      <c r="M24" s="129"/>
-      <c r="N24" s="91"/>
-      <c r="O24" s="92"/>
-      <c r="P24" s="76"/>
-      <c r="Q24" s="77"/>
-      <c r="R24" s="77"/>
-      <c r="S24" s="77"/>
-      <c r="T24" s="77"/>
-      <c r="U24" s="77"/>
-      <c r="V24" s="77"/>
-      <c r="W24" s="77"/>
-      <c r="X24" s="77"/>
-      <c r="Y24" s="77"/>
-      <c r="Z24" s="78"/>
+      <c r="L24" s="114"/>
+      <c r="M24" s="115"/>
+      <c r="N24" s="123"/>
+      <c r="O24" s="136"/>
+      <c r="P24" s="82"/>
+      <c r="Q24" s="83"/>
+      <c r="R24" s="83"/>
+      <c r="S24" s="83"/>
+      <c r="T24" s="83"/>
+      <c r="U24" s="83"/>
+      <c r="V24" s="83"/>
+      <c r="W24" s="83"/>
+      <c r="X24" s="83"/>
+      <c r="Y24" s="83"/>
+      <c r="Z24" s="84"/>
       <c r="AA24" s="8"/>
       <c r="AB24" s="8"/>
       <c r="AC24" s="8"/>
@@ -3936,21 +3984,21 @@
       <c r="I25" s="8"/>
       <c r="J25" s="8"/>
       <c r="K25" s="8"/>
-      <c r="L25" s="128"/>
-      <c r="M25" s="129"/>
-      <c r="N25" s="93"/>
-      <c r="O25" s="94"/>
-      <c r="P25" s="79"/>
-      <c r="Q25" s="80"/>
-      <c r="R25" s="80"/>
-      <c r="S25" s="80"/>
-      <c r="T25" s="80"/>
-      <c r="U25" s="80"/>
-      <c r="V25" s="80"/>
-      <c r="W25" s="80"/>
-      <c r="X25" s="80"/>
-      <c r="Y25" s="80"/>
-      <c r="Z25" s="81"/>
+      <c r="L25" s="114"/>
+      <c r="M25" s="115"/>
+      <c r="N25" s="124"/>
+      <c r="O25" s="133"/>
+      <c r="P25" s="85"/>
+      <c r="Q25" s="86"/>
+      <c r="R25" s="86"/>
+      <c r="S25" s="86"/>
+      <c r="T25" s="86"/>
+      <c r="U25" s="86"/>
+      <c r="V25" s="86"/>
+      <c r="W25" s="86"/>
+      <c r="X25" s="86"/>
+      <c r="Y25" s="86"/>
+      <c r="Z25" s="87"/>
       <c r="AA25" s="8"/>
       <c r="AB25" s="8"/>
       <c r="AC25" s="8"/>
@@ -3982,31 +4030,31 @@
       <c r="E26" s="8"/>
       <c r="F26" s="28"/>
       <c r="G26" s="28"/>
-      <c r="H26" s="69" t="s">
+      <c r="H26" s="96" t="s">
         <v>74</v>
       </c>
-      <c r="I26" s="70"/>
+      <c r="I26" s="97"/>
       <c r="J26" s="8"/>
       <c r="K26" s="8"/>
-      <c r="L26" s="128"/>
-      <c r="M26" s="129"/>
-      <c r="N26" s="89" t="s">
+      <c r="L26" s="114"/>
+      <c r="M26" s="115"/>
+      <c r="N26" s="122" t="s">
         <v>76</v>
       </c>
-      <c r="O26" s="89"/>
-      <c r="P26" s="73" t="s">
+      <c r="O26" s="122"/>
+      <c r="P26" s="79" t="s">
         <v>131</v>
       </c>
-      <c r="Q26" s="74"/>
-      <c r="R26" s="74"/>
-      <c r="S26" s="74"/>
-      <c r="T26" s="74"/>
-      <c r="U26" s="74"/>
-      <c r="V26" s="74"/>
-      <c r="W26" s="74"/>
-      <c r="X26" s="74"/>
-      <c r="Y26" s="74"/>
-      <c r="Z26" s="75"/>
+      <c r="Q26" s="80"/>
+      <c r="R26" s="80"/>
+      <c r="S26" s="80"/>
+      <c r="T26" s="80"/>
+      <c r="U26" s="80"/>
+      <c r="V26" s="80"/>
+      <c r="W26" s="80"/>
+      <c r="X26" s="80"/>
+      <c r="Y26" s="80"/>
+      <c r="Z26" s="81"/>
       <c r="AA26" s="8"/>
       <c r="AB26" s="8"/>
       <c r="AC26" s="8"/>
@@ -4038,25 +4086,25 @@
       <c r="E27" s="8"/>
       <c r="F27" s="28"/>
       <c r="G27" s="36"/>
-      <c r="H27" s="71"/>
-      <c r="I27" s="72"/>
+      <c r="H27" s="98"/>
+      <c r="I27" s="99"/>
       <c r="J27" s="8"/>
       <c r="K27" s="8"/>
-      <c r="L27" s="128"/>
-      <c r="M27" s="129"/>
-      <c r="N27" s="91"/>
-      <c r="O27" s="91"/>
-      <c r="P27" s="76"/>
-      <c r="Q27" s="77"/>
-      <c r="R27" s="77"/>
-      <c r="S27" s="77"/>
-      <c r="T27" s="77"/>
-      <c r="U27" s="77"/>
-      <c r="V27" s="77"/>
-      <c r="W27" s="77"/>
-      <c r="X27" s="77"/>
-      <c r="Y27" s="77"/>
-      <c r="Z27" s="78"/>
+      <c r="L27" s="114"/>
+      <c r="M27" s="115"/>
+      <c r="N27" s="123"/>
+      <c r="O27" s="123"/>
+      <c r="P27" s="82"/>
+      <c r="Q27" s="83"/>
+      <c r="R27" s="83"/>
+      <c r="S27" s="83"/>
+      <c r="T27" s="83"/>
+      <c r="U27" s="83"/>
+      <c r="V27" s="83"/>
+      <c r="W27" s="83"/>
+      <c r="X27" s="83"/>
+      <c r="Y27" s="83"/>
+      <c r="Z27" s="84"/>
       <c r="AA27" s="8"/>
       <c r="AB27" s="8"/>
       <c r="AC27" s="8"/>
@@ -4092,21 +4140,21 @@
       <c r="I28" s="8"/>
       <c r="J28" s="8"/>
       <c r="K28" s="8"/>
-      <c r="L28" s="128"/>
-      <c r="M28" s="129"/>
-      <c r="N28" s="91"/>
-      <c r="O28" s="91"/>
-      <c r="P28" s="76"/>
-      <c r="Q28" s="77"/>
-      <c r="R28" s="77"/>
-      <c r="S28" s="77"/>
-      <c r="T28" s="77"/>
-      <c r="U28" s="77"/>
-      <c r="V28" s="77"/>
-      <c r="W28" s="77"/>
-      <c r="X28" s="77"/>
-      <c r="Y28" s="77"/>
-      <c r="Z28" s="78"/>
+      <c r="L28" s="114"/>
+      <c r="M28" s="115"/>
+      <c r="N28" s="123"/>
+      <c r="O28" s="123"/>
+      <c r="P28" s="82"/>
+      <c r="Q28" s="83"/>
+      <c r="R28" s="83"/>
+      <c r="S28" s="83"/>
+      <c r="T28" s="83"/>
+      <c r="U28" s="83"/>
+      <c r="V28" s="83"/>
+      <c r="W28" s="83"/>
+      <c r="X28" s="83"/>
+      <c r="Y28" s="83"/>
+      <c r="Z28" s="84"/>
       <c r="AA28" s="8"/>
       <c r="AB28" s="8"/>
       <c r="AC28" s="8"/>
@@ -4142,21 +4190,21 @@
       <c r="I29" s="8"/>
       <c r="J29" s="8"/>
       <c r="K29" s="8"/>
-      <c r="L29" s="128"/>
-      <c r="M29" s="129"/>
-      <c r="N29" s="93"/>
-      <c r="O29" s="93"/>
-      <c r="P29" s="79"/>
-      <c r="Q29" s="80"/>
-      <c r="R29" s="80"/>
-      <c r="S29" s="80"/>
-      <c r="T29" s="80"/>
-      <c r="U29" s="80"/>
-      <c r="V29" s="80"/>
-      <c r="W29" s="80"/>
-      <c r="X29" s="80"/>
-      <c r="Y29" s="80"/>
-      <c r="Z29" s="81"/>
+      <c r="L29" s="114"/>
+      <c r="M29" s="115"/>
+      <c r="N29" s="124"/>
+      <c r="O29" s="124"/>
+      <c r="P29" s="85"/>
+      <c r="Q29" s="86"/>
+      <c r="R29" s="86"/>
+      <c r="S29" s="86"/>
+      <c r="T29" s="86"/>
+      <c r="U29" s="86"/>
+      <c r="V29" s="86"/>
+      <c r="W29" s="86"/>
+      <c r="X29" s="86"/>
+      <c r="Y29" s="86"/>
+      <c r="Z29" s="87"/>
       <c r="AA29" s="8"/>
       <c r="AB29" s="8"/>
       <c r="AC29" s="8"/>
@@ -4192,25 +4240,25 @@
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
       <c r="K30" s="8"/>
-      <c r="L30" s="128"/>
-      <c r="M30" s="129"/>
-      <c r="N30" s="95" t="s">
+      <c r="L30" s="114"/>
+      <c r="M30" s="115"/>
+      <c r="N30" s="130" t="s">
         <v>77</v>
       </c>
-      <c r="O30" s="90"/>
-      <c r="P30" s="73" t="s">
+      <c r="O30" s="131"/>
+      <c r="P30" s="79" t="s">
         <v>121</v>
       </c>
-      <c r="Q30" s="82"/>
-      <c r="R30" s="82"/>
-      <c r="S30" s="82"/>
-      <c r="T30" s="82"/>
-      <c r="U30" s="82"/>
-      <c r="V30" s="82"/>
-      <c r="W30" s="82"/>
-      <c r="X30" s="82"/>
-      <c r="Y30" s="82"/>
-      <c r="Z30" s="83"/>
+      <c r="Q30" s="125"/>
+      <c r="R30" s="125"/>
+      <c r="S30" s="125"/>
+      <c r="T30" s="125"/>
+      <c r="U30" s="125"/>
+      <c r="V30" s="125"/>
+      <c r="W30" s="125"/>
+      <c r="X30" s="125"/>
+      <c r="Y30" s="125"/>
+      <c r="Z30" s="126"/>
       <c r="AA30" s="8"/>
       <c r="AB30" s="8"/>
       <c r="AC30" s="8"/>
@@ -4242,27 +4290,27 @@
       <c r="E31" s="8"/>
       <c r="F31" s="28"/>
       <c r="G31" s="28"/>
-      <c r="H31" s="69" t="s">
+      <c r="H31" s="96" t="s">
         <v>75</v>
       </c>
-      <c r="I31" s="70"/>
+      <c r="I31" s="97"/>
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
-      <c r="L31" s="130"/>
-      <c r="M31" s="131"/>
-      <c r="N31" s="96"/>
-      <c r="O31" s="94"/>
-      <c r="P31" s="84"/>
-      <c r="Q31" s="85"/>
-      <c r="R31" s="85"/>
-      <c r="S31" s="85"/>
-      <c r="T31" s="85"/>
-      <c r="U31" s="85"/>
-      <c r="V31" s="85"/>
-      <c r="W31" s="85"/>
-      <c r="X31" s="85"/>
-      <c r="Y31" s="85"/>
-      <c r="Z31" s="86"/>
+      <c r="L31" s="116"/>
+      <c r="M31" s="117"/>
+      <c r="N31" s="132"/>
+      <c r="O31" s="133"/>
+      <c r="P31" s="127"/>
+      <c r="Q31" s="128"/>
+      <c r="R31" s="128"/>
+      <c r="S31" s="128"/>
+      <c r="T31" s="128"/>
+      <c r="U31" s="128"/>
+      <c r="V31" s="128"/>
+      <c r="W31" s="128"/>
+      <c r="X31" s="128"/>
+      <c r="Y31" s="128"/>
+      <c r="Z31" s="129"/>
       <c r="AA31" s="8"/>
       <c r="AB31" s="8"/>
       <c r="AC31" s="8"/>
@@ -4294,8 +4342,8 @@
       <c r="E32" s="8"/>
       <c r="F32" s="28"/>
       <c r="G32" s="36"/>
-      <c r="H32" s="71"/>
-      <c r="I32" s="72"/>
+      <c r="H32" s="98"/>
+      <c r="I32" s="99"/>
       <c r="J32" s="8"/>
       <c r="K32" s="8"/>
       <c r="L32" s="8"/>
@@ -4494,10 +4542,10 @@
       <c r="E36" s="8"/>
       <c r="F36" s="28"/>
       <c r="G36" s="28"/>
-      <c r="H36" s="69" t="s">
+      <c r="H36" s="96" t="s">
         <v>76</v>
       </c>
-      <c r="I36" s="70"/>
+      <c r="I36" s="97"/>
       <c r="J36" s="8"/>
       <c r="K36" s="8"/>
       <c r="L36" s="8"/>
@@ -4546,8 +4594,8 @@
       <c r="E37" s="8"/>
       <c r="F37" s="28"/>
       <c r="G37" s="36"/>
-      <c r="H37" s="71"/>
-      <c r="I37" s="72"/>
+      <c r="H37" s="98"/>
+      <c r="I37" s="99"/>
       <c r="J37" s="8"/>
       <c r="K37" s="8"/>
       <c r="L37" s="8"/>
@@ -4746,10 +4794,10 @@
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="29"/>
-      <c r="H41" s="69" t="s">
+      <c r="H41" s="96" t="s">
         <v>77</v>
       </c>
-      <c r="I41" s="70"/>
+      <c r="I41" s="97"/>
       <c r="J41" s="8"/>
       <c r="K41" s="8"/>
       <c r="L41" s="8"/>
@@ -4798,8 +4846,8 @@
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="36"/>
-      <c r="H42" s="71"/>
-      <c r="I42" s="72"/>
+      <c r="H42" s="98"/>
+      <c r="I42" s="99"/>
       <c r="J42" s="19"/>
       <c r="K42" s="19"/>
       <c r="L42" s="19"/>
@@ -6431,6 +6479,17 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="H41:I42"/>
+    <mergeCell ref="H36:I37"/>
+    <mergeCell ref="H31:I32"/>
+    <mergeCell ref="H26:I27"/>
+    <mergeCell ref="P10:Z13"/>
+    <mergeCell ref="P18:Z19"/>
+    <mergeCell ref="P20:Z21"/>
+    <mergeCell ref="P22:Z25"/>
+    <mergeCell ref="N22:O25"/>
+    <mergeCell ref="N18:O19"/>
+    <mergeCell ref="N20:O21"/>
     <mergeCell ref="B2:Z4"/>
     <mergeCell ref="P14:Z17"/>
     <mergeCell ref="D21:E22"/>
@@ -6447,17 +6506,6 @@
     <mergeCell ref="P26:Z29"/>
     <mergeCell ref="P30:Z31"/>
     <mergeCell ref="N30:O31"/>
-    <mergeCell ref="H41:I42"/>
-    <mergeCell ref="H36:I37"/>
-    <mergeCell ref="H31:I32"/>
-    <mergeCell ref="H26:I27"/>
-    <mergeCell ref="P10:Z13"/>
-    <mergeCell ref="P18:Z19"/>
-    <mergeCell ref="P20:Z21"/>
-    <mergeCell ref="P22:Z25"/>
-    <mergeCell ref="N22:O25"/>
-    <mergeCell ref="N18:O19"/>
-    <mergeCell ref="N20:O21"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6497,24 +6545,24 @@
       </c>
       <c r="L1" s="143"/>
       <c r="M1" s="144"/>
-      <c r="P1" s="138" t="s">
+      <c r="P1" s="156" t="s">
         <v>82</v>
       </c>
-      <c r="Q1" s="138"/>
-      <c r="R1" s="138" t="s">
+      <c r="Q1" s="156"/>
+      <c r="R1" s="156" t="s">
         <v>83</v>
       </c>
-      <c r="S1" s="138"/>
-      <c r="T1" s="138"/>
-      <c r="W1" s="138" t="s">
+      <c r="S1" s="156"/>
+      <c r="T1" s="156"/>
+      <c r="W1" s="156" t="s">
         <v>84</v>
       </c>
-      <c r="X1" s="138"/>
-      <c r="Y1" s="138" t="s">
+      <c r="X1" s="156"/>
+      <c r="Y1" s="156" t="s">
         <v>85</v>
       </c>
-      <c r="Z1" s="138"/>
-      <c r="AA1" s="138"/>
+      <c r="Z1" s="156"/>
+      <c r="AA1" s="156"/>
     </row>
     <row r="2" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="149"/>
@@ -6527,92 +6575,92 @@
       <c r="K2" s="145"/>
       <c r="L2" s="146"/>
       <c r="M2" s="147"/>
-      <c r="P2" s="138"/>
-      <c r="Q2" s="138"/>
-      <c r="R2" s="138"/>
-      <c r="S2" s="138"/>
-      <c r="T2" s="138"/>
-      <c r="W2" s="138"/>
-      <c r="X2" s="138"/>
-      <c r="Y2" s="138"/>
-      <c r="Z2" s="138"/>
-      <c r="AA2" s="138"/>
+      <c r="P2" s="156"/>
+      <c r="Q2" s="156"/>
+      <c r="R2" s="156"/>
+      <c r="S2" s="156"/>
+      <c r="T2" s="156"/>
+      <c r="W2" s="156"/>
+      <c r="X2" s="156"/>
+      <c r="Y2" s="156"/>
+      <c r="Z2" s="156"/>
+      <c r="AA2" s="156"/>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="B3" s="137" t="s">
+      <c r="B3" s="138" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="137"/>
-      <c r="D3" s="137"/>
-      <c r="E3" s="137" t="s">
+      <c r="C3" s="138"/>
+      <c r="D3" s="138"/>
+      <c r="E3" s="138" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="137"/>
-      <c r="I3" s="137" t="s">
+      <c r="F3" s="138"/>
+      <c r="I3" s="138" t="s">
         <v>18</v>
       </c>
-      <c r="J3" s="137"/>
-      <c r="K3" s="137"/>
-      <c r="L3" s="137" t="s">
+      <c r="J3" s="138"/>
+      <c r="K3" s="138"/>
+      <c r="L3" s="138" t="s">
         <v>19</v>
       </c>
-      <c r="M3" s="137"/>
-      <c r="P3" s="137" t="s">
+      <c r="M3" s="138"/>
+      <c r="P3" s="138" t="s">
         <v>0</v>
       </c>
-      <c r="Q3" s="137"/>
-      <c r="R3" s="137"/>
-      <c r="S3" s="137" t="s">
+      <c r="Q3" s="138"/>
+      <c r="R3" s="138"/>
+      <c r="S3" s="138" t="s">
         <v>19</v>
       </c>
-      <c r="T3" s="137"/>
-      <c r="W3" s="137" t="s">
+      <c r="T3" s="138"/>
+      <c r="W3" s="138" t="s">
         <v>0</v>
       </c>
-      <c r="X3" s="137"/>
-      <c r="Y3" s="137"/>
-      <c r="Z3" s="137" t="s">
+      <c r="X3" s="138"/>
+      <c r="Y3" s="138"/>
+      <c r="Z3" s="138" t="s">
         <v>19</v>
       </c>
-      <c r="AA3" s="137"/>
+      <c r="AA3" s="138"/>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="B4" s="137" t="s">
+      <c r="B4" s="138" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="137"/>
-      <c r="D4" s="137"/>
-      <c r="E4" s="137" t="s">
+      <c r="C4" s="138"/>
+      <c r="D4" s="138"/>
+      <c r="E4" s="138" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="137"/>
-      <c r="I4" s="137" t="s">
+      <c r="F4" s="138"/>
+      <c r="I4" s="138" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="137"/>
-      <c r="K4" s="137"/>
-      <c r="L4" s="137" t="s">
+      <c r="J4" s="138"/>
+      <c r="K4" s="138"/>
+      <c r="L4" s="138" t="s">
         <v>20</v>
       </c>
-      <c r="M4" s="137"/>
-      <c r="P4" s="137" t="s">
+      <c r="M4" s="138"/>
+      <c r="P4" s="138" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="137"/>
-      <c r="R4" s="137"/>
-      <c r="S4" s="137" t="s">
+      <c r="Q4" s="138"/>
+      <c r="R4" s="138"/>
+      <c r="S4" s="138" t="s">
         <v>21</v>
       </c>
-      <c r="T4" s="137"/>
-      <c r="W4" s="137" t="s">
+      <c r="T4" s="138"/>
+      <c r="W4" s="138" t="s">
         <v>8</v>
       </c>
-      <c r="X4" s="137"/>
-      <c r="Y4" s="137"/>
-      <c r="Z4" s="137" t="s">
+      <c r="X4" s="138"/>
+      <c r="Y4" s="138"/>
+      <c r="Z4" s="138" t="s">
         <v>21</v>
       </c>
-      <c r="AA4" s="137"/>
+      <c r="AA4" s="138"/>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B5" s="10" t="s">
@@ -14477,10 +14525,10 @@
       </c>
     </row>
     <row r="106" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="B106" s="136" t="s">
+      <c r="B106" s="137" t="s">
         <v>14</v>
       </c>
-      <c r="C106" s="136"/>
+      <c r="C106" s="137"/>
       <c r="D106" s="5">
         <f>SUM(D6:D105)</f>
         <v>87316</v>
@@ -14491,10 +14539,10 @@
       <c r="F106" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="I106" s="136" t="s">
+      <c r="I106" s="137" t="s">
         <v>4</v>
       </c>
-      <c r="J106" s="136"/>
+      <c r="J106" s="137"/>
       <c r="K106" s="5">
         <f>SUM(K6:K105)</f>
         <v>360244</v>
@@ -14505,10 +14553,10 @@
       <c r="M106" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="P106" s="136" t="s">
+      <c r="P106" s="137" t="s">
         <v>4</v>
       </c>
-      <c r="Q106" s="136"/>
+      <c r="Q106" s="137"/>
       <c r="R106" s="5">
         <f>SUM(Q6:Q105)</f>
         <v>2195776.0000000005</v>
@@ -14519,10 +14567,10 @@
       <c r="T106" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="W106" s="136" t="s">
+      <c r="W106" s="137" t="s">
         <v>4</v>
       </c>
-      <c r="X106" s="136"/>
+      <c r="X106" s="137"/>
       <c r="Y106" s="5">
         <f>SUM(X6:X105)</f>
         <v>5760000</v>
@@ -14550,6 +14598,22 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="P106:Q106"/>
+    <mergeCell ref="W106:X106"/>
+    <mergeCell ref="Z3:AA3"/>
+    <mergeCell ref="Z4:AA4"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="P1:Q2"/>
+    <mergeCell ref="R1:T2"/>
+    <mergeCell ref="W1:X2"/>
+    <mergeCell ref="Y1:AA2"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="P3:R3"/>
+    <mergeCell ref="P4:R4"/>
+    <mergeCell ref="W3:Y3"/>
+    <mergeCell ref="W4:Y4"/>
     <mergeCell ref="B106:C106"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="I3:K3"/>
@@ -14562,22 +14626,6 @@
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="B4:D4"/>
-    <mergeCell ref="P1:Q2"/>
-    <mergeCell ref="R1:T2"/>
-    <mergeCell ref="W1:X2"/>
-    <mergeCell ref="Y1:AA2"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="P3:R3"/>
-    <mergeCell ref="P4:R4"/>
-    <mergeCell ref="W3:Y3"/>
-    <mergeCell ref="W4:Y4"/>
-    <mergeCell ref="P106:Q106"/>
-    <mergeCell ref="W106:X106"/>
-    <mergeCell ref="Z3:AA3"/>
-    <mergeCell ref="Z4:AA4"/>
-    <mergeCell ref="S3:T3"/>
-    <mergeCell ref="S4:T4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14606,66 +14654,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C1" s="156" t="s">
+      <c r="C1" s="157" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="156"/>
-      <c r="E1" s="156"/>
-      <c r="F1" s="156"/>
-      <c r="G1" s="156"/>
-      <c r="H1" s="156"/>
-      <c r="I1" s="156"/>
+      <c r="D1" s="157"/>
+      <c r="E1" s="157"/>
+      <c r="F1" s="157"/>
+      <c r="G1" s="157"/>
+      <c r="H1" s="157"/>
+      <c r="I1" s="157"/>
     </row>
     <row r="2" spans="2:14" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C2" s="156"/>
-      <c r="D2" s="156"/>
-      <c r="E2" s="156"/>
-      <c r="F2" s="156"/>
-      <c r="G2" s="156"/>
-      <c r="H2" s="156"/>
-      <c r="I2" s="156"/>
+      <c r="C2" s="157"/>
+      <c r="D2" s="157"/>
+      <c r="E2" s="157"/>
+      <c r="F2" s="157"/>
+      <c r="G2" s="157"/>
+      <c r="H2" s="157"/>
+      <c r="I2" s="157"/>
     </row>
     <row r="3" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="20"/>
-      <c r="C3" s="169" t="s">
+      <c r="C3" s="170" t="s">
         <v>88</v>
       </c>
-      <c r="D3" s="169"/>
+      <c r="D3" s="170"/>
       <c r="E3" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="169" t="s">
+      <c r="F3" s="170" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="169"/>
-      <c r="H3" s="169"/>
-      <c r="I3" s="169"/>
-      <c r="K3" s="157" t="s">
+      <c r="G3" s="170"/>
+      <c r="H3" s="170"/>
+      <c r="I3" s="170"/>
+      <c r="K3" s="158" t="s">
         <v>146</v>
       </c>
-      <c r="L3" s="158"/>
-      <c r="M3" s="158"/>
-      <c r="N3" s="159"/>
+      <c r="L3" s="159"/>
+      <c r="M3" s="159"/>
+      <c r="N3" s="160"/>
     </row>
     <row r="4" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="42"/>
-      <c r="C4" s="137" t="s">
+      <c r="C4" s="138" t="s">
         <v>92</v>
       </c>
-      <c r="D4" s="137"/>
+      <c r="D4" s="138"/>
       <c r="E4" s="23" t="s">
         <v>145</v>
       </c>
-      <c r="F4" s="137" t="s">
+      <c r="F4" s="138" t="s">
         <v>26</v>
       </c>
-      <c r="G4" s="137"/>
-      <c r="H4" s="137"/>
-      <c r="I4" s="137"/>
-      <c r="K4" s="160"/>
-      <c r="L4" s="161"/>
-      <c r="M4" s="161"/>
-      <c r="N4" s="162"/>
+      <c r="G4" s="138"/>
+      <c r="H4" s="138"/>
+      <c r="I4" s="138"/>
+      <c r="K4" s="161"/>
+      <c r="L4" s="162"/>
+      <c r="M4" s="162"/>
+      <c r="N4" s="163"/>
     </row>
     <row r="5" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="25"/>
@@ -14690,12 +14738,12 @@
       <c r="I5" s="50" t="s">
         <v>98</v>
       </c>
-      <c r="K5" s="163" t="s">
+      <c r="K5" s="164" t="s">
         <v>91</v>
       </c>
-      <c r="L5" s="164"/>
-      <c r="M5" s="164"/>
-      <c r="N5" s="165"/>
+      <c r="L5" s="165"/>
+      <c r="M5" s="165"/>
+      <c r="N5" s="166"/>
     </row>
     <row r="6" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="4"/>
@@ -14726,10 +14774,10 @@
         <f t="shared" ref="I6:I37" si="3">ROUND(H6:H105,0)</f>
         <v>2</v>
       </c>
-      <c r="K6" s="166"/>
-      <c r="L6" s="167"/>
-      <c r="M6" s="167"/>
-      <c r="N6" s="168"/>
+      <c r="K6" s="167"/>
+      <c r="L6" s="168"/>
+      <c r="M6" s="168"/>
+      <c r="N6" s="169"/>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B7" s="4"/>
@@ -18017,10 +18065,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:N21"/>
+  <dimension ref="A1:N29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -18954,6 +19002,358 @@
         <v>9961472</v>
       </c>
       <c r="N21" s="63" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B22" s="63">
+        <v>21</v>
+      </c>
+      <c r="C22" s="69">
+        <v>0</v>
+      </c>
+      <c r="D22" s="179">
+        <v>10485760</v>
+      </c>
+      <c r="E22" s="180">
+        <v>11534336</v>
+      </c>
+      <c r="F22" s="179">
+        <v>12582912</v>
+      </c>
+      <c r="G22" s="179">
+        <v>13631488</v>
+      </c>
+      <c r="H22" s="179">
+        <v>14680064</v>
+      </c>
+      <c r="I22" s="179">
+        <v>15728640</v>
+      </c>
+      <c r="J22" s="179">
+        <v>16777216</v>
+      </c>
+      <c r="K22" s="179">
+        <v>17825792</v>
+      </c>
+      <c r="L22" s="179">
+        <v>18874368</v>
+      </c>
+      <c r="M22" s="179">
+        <v>19922944</v>
+      </c>
+      <c r="N22" s="63" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="B23" s="63">
+        <v>22</v>
+      </c>
+      <c r="C23" s="69">
+        <v>0</v>
+      </c>
+      <c r="D23" s="179">
+        <v>20971520</v>
+      </c>
+      <c r="E23" s="180">
+        <v>23068672</v>
+      </c>
+      <c r="F23" s="179">
+        <v>25165824</v>
+      </c>
+      <c r="G23" s="179">
+        <v>27262976</v>
+      </c>
+      <c r="H23" s="179">
+        <v>29360128</v>
+      </c>
+      <c r="I23" s="179">
+        <v>31457280</v>
+      </c>
+      <c r="J23" s="179">
+        <v>33554432</v>
+      </c>
+      <c r="K23" s="179">
+        <v>35651584</v>
+      </c>
+      <c r="L23" s="179">
+        <v>37748736</v>
+      </c>
+      <c r="M23" s="179">
+        <v>39845888</v>
+      </c>
+      <c r="N23" s="63" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B24" s="63">
+        <v>23</v>
+      </c>
+      <c r="C24" s="69">
+        <v>0</v>
+      </c>
+      <c r="D24" s="179">
+        <v>41943040</v>
+      </c>
+      <c r="E24" s="180">
+        <v>46137344</v>
+      </c>
+      <c r="F24" s="179">
+        <v>50331648</v>
+      </c>
+      <c r="G24" s="179">
+        <v>54525952</v>
+      </c>
+      <c r="H24" s="179">
+        <v>58720256</v>
+      </c>
+      <c r="I24" s="179">
+        <v>62914560</v>
+      </c>
+      <c r="J24" s="179">
+        <v>67108864</v>
+      </c>
+      <c r="K24" s="179">
+        <v>71303168</v>
+      </c>
+      <c r="L24" s="179">
+        <v>75497472</v>
+      </c>
+      <c r="M24" s="179">
+        <v>79691776</v>
+      </c>
+      <c r="N24" s="63" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="B25" s="63">
+        <v>24</v>
+      </c>
+      <c r="C25" s="69">
+        <v>0</v>
+      </c>
+      <c r="D25" s="179">
+        <v>83886080</v>
+      </c>
+      <c r="E25" s="180">
+        <v>92274688</v>
+      </c>
+      <c r="F25" s="179">
+        <v>100663296</v>
+      </c>
+      <c r="G25" s="179">
+        <v>109051904</v>
+      </c>
+      <c r="H25" s="179">
+        <v>117440512</v>
+      </c>
+      <c r="I25" s="179">
+        <v>125829120</v>
+      </c>
+      <c r="J25" s="179">
+        <v>134217728</v>
+      </c>
+      <c r="K25" s="179">
+        <v>142606336</v>
+      </c>
+      <c r="L25" s="179">
+        <v>150994944</v>
+      </c>
+      <c r="M25" s="179">
+        <v>159383552</v>
+      </c>
+      <c r="N25" s="63" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="B26" s="63">
+        <v>25</v>
+      </c>
+      <c r="C26" s="69">
+        <v>0</v>
+      </c>
+      <c r="D26" s="179">
+        <v>167772160</v>
+      </c>
+      <c r="E26" s="180">
+        <v>184549376</v>
+      </c>
+      <c r="F26" s="179">
+        <v>201326592</v>
+      </c>
+      <c r="G26" s="179">
+        <v>218103808</v>
+      </c>
+      <c r="H26" s="179">
+        <v>234881024</v>
+      </c>
+      <c r="I26" s="179">
+        <v>251658240</v>
+      </c>
+      <c r="J26" s="179">
+        <v>268435456</v>
+      </c>
+      <c r="K26" s="179">
+        <v>285212672</v>
+      </c>
+      <c r="L26" s="179">
+        <v>301989888</v>
+      </c>
+      <c r="M26" s="179">
+        <v>318767104</v>
+      </c>
+      <c r="N26" s="63" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="B27" s="63">
+        <v>26</v>
+      </c>
+      <c r="C27" s="69">
+        <v>0</v>
+      </c>
+      <c r="D27" s="179">
+        <v>335544320</v>
+      </c>
+      <c r="E27" s="180">
+        <v>369098752</v>
+      </c>
+      <c r="F27" s="179">
+        <v>402653184</v>
+      </c>
+      <c r="G27" s="179">
+        <v>436207616</v>
+      </c>
+      <c r="H27" s="179">
+        <v>469762048</v>
+      </c>
+      <c r="I27" s="179">
+        <v>503316480</v>
+      </c>
+      <c r="J27" s="179">
+        <v>536870912</v>
+      </c>
+      <c r="K27" s="179">
+        <v>570425344</v>
+      </c>
+      <c r="L27" s="179">
+        <v>603979776</v>
+      </c>
+      <c r="M27" s="179">
+        <v>637534208</v>
+      </c>
+      <c r="N27" s="63" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="B28" s="63">
+        <v>27</v>
+      </c>
+      <c r="C28" s="69">
+        <v>0</v>
+      </c>
+      <c r="D28" s="179">
+        <v>671088640</v>
+      </c>
+      <c r="E28" s="180">
+        <v>738197504</v>
+      </c>
+      <c r="F28" s="179">
+        <v>805306368</v>
+      </c>
+      <c r="G28" s="179">
+        <v>872415232</v>
+      </c>
+      <c r="H28" s="179">
+        <v>939524096</v>
+      </c>
+      <c r="I28" s="179">
+        <v>1006632960</v>
+      </c>
+      <c r="J28" s="179">
+        <v>1073741824</v>
+      </c>
+      <c r="K28" s="179">
+        <v>1140850688</v>
+      </c>
+      <c r="L28" s="179">
+        <v>1207959552</v>
+      </c>
+      <c r="M28" s="179">
+        <v>1275068416</v>
+      </c>
+      <c r="N28" s="63" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="B29" s="63">
+        <v>28</v>
+      </c>
+      <c r="C29" s="69">
+        <v>0</v>
+      </c>
+      <c r="D29" s="179">
+        <v>1342177280</v>
+      </c>
+      <c r="E29" s="180">
+        <v>1476395008</v>
+      </c>
+      <c r="F29" s="179">
+        <v>1610612736</v>
+      </c>
+      <c r="G29" s="179">
+        <v>1744830464</v>
+      </c>
+      <c r="H29" s="179">
+        <v>1879048192</v>
+      </c>
+      <c r="I29" s="179">
+        <v>2013265920</v>
+      </c>
+      <c r="J29" s="179">
+        <v>2147483648</v>
+      </c>
+      <c r="K29" s="179">
+        <v>2281701376</v>
+      </c>
+      <c r="L29" s="179">
+        <v>2415919104</v>
+      </c>
+      <c r="M29" s="179">
+        <v>2550136832</v>
+      </c>
+      <c r="N29" s="63" t="b">
         <v>0</v>
       </c>
     </row>
@@ -18978,38 +19378,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" s="170" t="s">
+      <c r="A1" s="171" t="s">
         <v>183</v>
       </c>
-      <c r="B1" s="170"/>
-      <c r="C1" s="170"/>
-      <c r="D1" s="170"/>
-      <c r="E1" s="170"/>
-      <c r="F1" s="170"/>
-      <c r="G1" s="170"/>
-      <c r="H1" s="170"/>
-      <c r="I1" s="170"/>
-      <c r="J1" s="170"/>
-      <c r="K1" s="170"/>
-      <c r="L1" s="170"/>
-      <c r="M1" s="170"/>
-      <c r="N1" s="170"/>
+      <c r="B1" s="171"/>
+      <c r="C1" s="171"/>
+      <c r="D1" s="171"/>
+      <c r="E1" s="171"/>
+      <c r="F1" s="171"/>
+      <c r="G1" s="171"/>
+      <c r="H1" s="171"/>
+      <c r="I1" s="171"/>
+      <c r="J1" s="171"/>
+      <c r="K1" s="171"/>
+      <c r="L1" s="171"/>
+      <c r="M1" s="171"/>
+      <c r="N1" s="171"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="171"/>
-      <c r="B2" s="171"/>
-      <c r="C2" s="171"/>
-      <c r="D2" s="171"/>
-      <c r="E2" s="171"/>
-      <c r="F2" s="171"/>
-      <c r="G2" s="171"/>
-      <c r="H2" s="171"/>
-      <c r="I2" s="171"/>
-      <c r="J2" s="171"/>
-      <c r="K2" s="171"/>
-      <c r="L2" s="171"/>
-      <c r="M2" s="171"/>
-      <c r="N2" s="171"/>
+      <c r="A2" s="172"/>
+      <c r="B2" s="172"/>
+      <c r="C2" s="172"/>
+      <c r="D2" s="172"/>
+      <c r="E2" s="172"/>
+      <c r="F2" s="172"/>
+      <c r="G2" s="172"/>
+      <c r="H2" s="172"/>
+      <c r="I2" s="172"/>
+      <c r="J2" s="172"/>
+      <c r="K2" s="172"/>
+      <c r="L2" s="172"/>
+      <c r="M2" s="172"/>
+      <c r="N2" s="172"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="38" t="s">
@@ -19523,11 +19923,11 @@
       <c r="A14" s="41"/>
       <c r="B14" s="41"/>
       <c r="C14" s="41"/>
-      <c r="D14" s="172" t="s">
+      <c r="D14" s="173" t="s">
         <v>184</v>
       </c>
-      <c r="E14" s="172"/>
-      <c r="F14" s="172"/>
+      <c r="E14" s="173"/>
+      <c r="F14" s="173"/>
       <c r="G14" s="41"/>
       <c r="H14" s="41"/>
       <c r="I14" s="41"/>
@@ -19587,23 +19987,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C1" s="156" t="s">
+      <c r="C1" s="157" t="s">
         <v>63</v>
       </c>
-      <c r="D1" s="156"/>
-      <c r="E1" s="156"/>
-      <c r="F1" s="156"/>
-      <c r="G1" s="156"/>
+      <c r="D1" s="157"/>
+      <c r="E1" s="157"/>
+      <c r="F1" s="157"/>
+      <c r="G1" s="157"/>
       <c r="I1" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="2" spans="3:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C2" s="156"/>
-      <c r="D2" s="156"/>
-      <c r="E2" s="156"/>
-      <c r="F2" s="156"/>
-      <c r="G2" s="156"/>
+      <c r="C2" s="157"/>
+      <c r="D2" s="157"/>
+      <c r="E2" s="157"/>
+      <c r="F2" s="157"/>
+      <c r="G2" s="157"/>
       <c r="I2" t="s">
         <v>101</v>
       </c>
@@ -19644,7 +20044,7 @@
       </c>
     </row>
     <row r="4" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C4" s="175" t="s">
+      <c r="C4" s="176" t="s">
         <v>32</v>
       </c>
       <c r="D4" s="13" t="s">
@@ -19679,7 +20079,7 @@
       </c>
     </row>
     <row r="5" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C5" s="176"/>
+      <c r="C5" s="177"/>
       <c r="D5" s="13" t="s">
         <v>34</v>
       </c>
@@ -19712,7 +20112,7 @@
       </c>
     </row>
     <row r="6" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C6" s="176"/>
+      <c r="C6" s="177"/>
       <c r="D6" s="13" t="s">
         <v>35</v>
       </c>
@@ -19745,7 +20145,7 @@
       </c>
     </row>
     <row r="7" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C7" s="176"/>
+      <c r="C7" s="177"/>
       <c r="D7" s="13" t="s">
         <v>36</v>
       </c>
@@ -19778,7 +20178,7 @@
       </c>
     </row>
     <row r="8" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C8" s="176"/>
+      <c r="C8" s="177"/>
       <c r="D8" s="13" t="s">
         <v>37</v>
       </c>
@@ -19811,7 +20211,7 @@
       </c>
     </row>
     <row r="9" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C9" s="176"/>
+      <c r="C9" s="177"/>
       <c r="D9" s="13" t="s">
         <v>38</v>
       </c>
@@ -19844,7 +20244,7 @@
       </c>
     </row>
     <row r="10" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="176"/>
+      <c r="C10" s="177"/>
       <c r="D10" s="13" t="s">
         <v>39</v>
       </c>
@@ -19877,7 +20277,7 @@
       </c>
     </row>
     <row r="11" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C11" s="176"/>
+      <c r="C11" s="177"/>
       <c r="D11" s="13" t="s">
         <v>40</v>
       </c>
@@ -19910,7 +20310,7 @@
       </c>
     </row>
     <row r="12" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C12" s="173" t="s">
+      <c r="C12" s="174" t="s">
         <v>42</v>
       </c>
       <c r="D12" s="14" t="s">
@@ -19945,7 +20345,7 @@
       </c>
     </row>
     <row r="13" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C13" s="174"/>
+      <c r="C13" s="175"/>
       <c r="D13" s="14" t="s">
         <v>44</v>
       </c>
@@ -19978,7 +20378,7 @@
       </c>
     </row>
     <row r="14" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C14" s="174"/>
+      <c r="C14" s="175"/>
       <c r="D14" s="14" t="s">
         <v>45</v>
       </c>
@@ -20011,7 +20411,7 @@
       </c>
     </row>
     <row r="15" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C15" s="174"/>
+      <c r="C15" s="175"/>
       <c r="D15" s="14" t="s">
         <v>46</v>
       </c>
@@ -20044,7 +20444,7 @@
       </c>
     </row>
     <row r="16" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C16" s="174"/>
+      <c r="C16" s="175"/>
       <c r="D16" s="14" t="s">
         <v>47</v>
       </c>
@@ -20077,7 +20477,7 @@
       </c>
     </row>
     <row r="17" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C17" s="174"/>
+      <c r="C17" s="175"/>
       <c r="D17" s="14" t="s">
         <v>48</v>
       </c>
@@ -20110,7 +20510,7 @@
       </c>
     </row>
     <row r="18" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C18" s="174"/>
+      <c r="C18" s="175"/>
       <c r="D18" s="14" t="s">
         <v>49</v>
       </c>
@@ -20143,7 +20543,7 @@
       </c>
     </row>
     <row r="19" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C19" s="174"/>
+      <c r="C19" s="175"/>
       <c r="D19" s="14" t="s">
         <v>50</v>
       </c>
@@ -20208,14 +20608,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="177" t="s">
+      <c r="B2" s="178" t="s">
         <v>128</v>
       </c>
-      <c r="C2" s="156"/>
+      <c r="C2" s="157"/>
     </row>
     <row r="3" spans="2:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="156"/>
-      <c r="C3" s="156"/>
+      <c r="B3" s="157"/>
+      <c r="C3" s="157"/>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B4" s="24" t="s">
@@ -21153,22 +21553,22 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="170" t="s">
+      <c r="B2" s="171" t="s">
         <v>144</v>
       </c>
-      <c r="C2" s="170"/>
-      <c r="D2" s="170"/>
-      <c r="E2" s="170"/>
-      <c r="F2" s="170"/>
-      <c r="G2" s="170"/>
+      <c r="C2" s="171"/>
+      <c r="D2" s="171"/>
+      <c r="E2" s="171"/>
+      <c r="F2" s="171"/>
+      <c r="G2" s="171"/>
     </row>
     <row r="3" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="171"/>
-      <c r="C3" s="171"/>
-      <c r="D3" s="171"/>
-      <c r="E3" s="171"/>
-      <c r="F3" s="171"/>
-      <c r="G3" s="171"/>
+      <c r="B3" s="172"/>
+      <c r="C3" s="172"/>
+      <c r="D3" s="172"/>
+      <c r="E3" s="172"/>
+      <c r="F3" s="172"/>
+      <c r="G3" s="172"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B4" s="38" t="s">
